--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.170668</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.164843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.165379</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.150997</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.152331</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.149768</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.152588</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.154628</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.221009</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.212625</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.195441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.194947</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.186434</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.178351</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.173591</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.168205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.16688</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.159624</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.158982</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.157925</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157835</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.235187</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.212721</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.204469</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.19605</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.192526</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.179359</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.173725</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.172037</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.170274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.163399</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.165498</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.226636</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217798</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.203038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.200194</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.194085</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.189659</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.184056</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.179376</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.176819</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.175946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.176716</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.179499</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.236625</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.228535</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.220311</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.212764</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205025</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.198959</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.193449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.188205</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.179269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177012</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177729</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.180358</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.244029</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236519</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228133</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.220467</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.212274</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.205977</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.199758</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.19413</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.188413</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.184215</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181004</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.178894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.17897</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.180581</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.256846</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.250364</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.24198</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.233548</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.227319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.219364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.207721</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.201258</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.19653</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.192528</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.189688</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.188619</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.189627</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.270145</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.257315</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.250563</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.238846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.232631</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.227556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.222112</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.213903</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.21037</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.208235</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.208631</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.210884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.284085</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.277325</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.271154</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.265253</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.259777</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.254644</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.250128</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.245359</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.241561</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.23764</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.234284</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.231834</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.231043</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.232245</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.315814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.310851</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306028</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.299753</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.294531</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.289946</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.285871</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.28194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.278146</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275044</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.27231</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270276</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.26913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.270188</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.360478</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.354977</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.350567</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.345151</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.34072</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.335998</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.136461</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.143885</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.138416</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.131866</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.128733</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.125371</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.119173</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.119054</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.199755</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.194893</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.186611</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.180929</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.171719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.164359</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.159604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.156142</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.148751</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.145812</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.141893</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.140321</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.138166</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.138866</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.22216</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.214043</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.202789</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.194749</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.188153</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.180718</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.174444</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.168821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.162937</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.157914</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.153826</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.150082</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.147894</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.146972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.223466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.214588</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.206551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.198601</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.191216</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.18396</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.180497</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.174746</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.168726</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.16349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.159218</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.155587</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.151411</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.223567</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.215128</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.206602</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.199106</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.191861</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.184943</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.178332</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.172886</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.167693</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.160526</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.156473</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.15361</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.151918</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.152658</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.228151</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.219456</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.21135</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.203187</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.195914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.188766</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.182265</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.176143</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.170713</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.165631</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.161469</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.158217</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.156204</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.156222</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.230333</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.222566</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.214771</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.207566</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.200837</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.19364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.188096</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.181911</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.176008</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.171451</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.166593</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.163878</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.160923</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.160238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.248401</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.240463</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.232944</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.225805</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.22678</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.212444</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.206497</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.201607</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.195129</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.189518</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.186515</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.18283</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.18042</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.179433</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.181014</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.260856</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.252951</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.245756</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.239063</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.232542</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.226357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.217762</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.212853</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.208819</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.20483</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.201751</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.200686</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.200643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.284238</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.278287</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.268032</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.262246</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.2563</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.25157</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.247088</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.242605</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.238676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.235063</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.231818</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.227891</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.22831</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.321523</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.315351</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.309742</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.304011</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.29869</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.29374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.134178</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131948</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.136503</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.127659</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.126491</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.127377</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.120481</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.189804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.193076</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.185771</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.175595</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.170808</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.163676</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.15658</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.15111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.147927</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.144277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.141029</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.138444</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.136899</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138731</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.22524</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217581</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.205227</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.196362</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.189144</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.18136</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.175284</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.170321</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162701</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.159519</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.153345</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.150314</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149603</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148604</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.230138</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.221941</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.212902</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.202745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.197872</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.189578</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.181192</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.178348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.172191</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.161458</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.158505</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.156259</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.155863</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.240125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.228307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.222098</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204699</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.197271</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189954</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182964</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.176915</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.172102</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.167281</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.161153</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158454</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.157323</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158629</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235154</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.225864</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.218407</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209007</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201152</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.19372</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.186741</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.180491</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.174783</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.169469</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.165683</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.162247</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.160468</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.161441</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.238856</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.22991</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.220936</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.205347</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.198292</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.191445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.184661</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.17408</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.16936</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.166191</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.164353</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.254673</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.247489</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.238121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.230923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.223773</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.215514</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.211001</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.197244</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.191961</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.18761</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.184086</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.180878</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.180431</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27151</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.265086</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.257155</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.249492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.241637</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.233598</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.228107</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.221879</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.218226</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.213206</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.207735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.203661</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.199303</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.199921</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.28659</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.280042</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.274273</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.264434</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.258887</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.253968</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.248195</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.244422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.240173</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.236482</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.23349</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.230364</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.229418</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.229508</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.325813</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.320407</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.314921</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.309403</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.304799</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.300275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.29509</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.516337</v>
+        <v>0.466947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.256324</v>
+        <v>0.297461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.233244</v>
+        <v>0.238561</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.425398</v>
+        <v>0.447554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.250487</v>
+        <v>0.297127</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23498</v>
+        <v>0.237636</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.43979</v>
+        <v>0.425006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.255665</v>
+        <v>0.279694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.223363</v>
+        <v>0.227248</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.43093</v>
+        <v>0.425706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.243467</v>
+        <v>0.279197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228976</v>
+        <v>0.223757</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.431758</v>
+        <v>0.407003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238338</v>
+        <v>0.273223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.222722</v>
+        <v>0.214685</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.420901</v>
+        <v>0.408484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232336</v>
+        <v>0.261921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216092</v>
+        <v>0.213276</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.41435</v>
+        <v>0.407288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232531</v>
+        <v>0.260436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21116</v>
+        <v>0.210908</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411299</v>
+        <v>0.396385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22998</v>
+        <v>0.351443</v>
       </c>
       <c r="D9" t="n">
-        <v>0.296269</v>
+        <v>0.295894</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.496115</v>
+        <v>0.508266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.321945</v>
+        <v>0.342619</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294847</v>
+        <v>0.305245</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.494574</v>
+        <v>0.485892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.311937</v>
+        <v>0.346085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.290155</v>
+        <v>0.29193</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.478052</v>
+        <v>0.477446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.298716</v>
+        <v>0.339754</v>
       </c>
       <c r="D12" t="n">
-        <v>0.28016</v>
+        <v>0.283367</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.478968</v>
+        <v>0.464068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.294357</v>
+        <v>0.322166</v>
       </c>
       <c r="D13" t="n">
-        <v>0.270028</v>
+        <v>0.279238</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.454463</v>
+        <v>0.471753</v>
       </c>
       <c r="C14" t="n">
-        <v>0.290457</v>
+        <v>0.320731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266574</v>
+        <v>0.270572</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456291</v>
+        <v>0.461688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.275539</v>
+        <v>0.31822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.259081</v>
+        <v>0.26094</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.441357</v>
+        <v>0.443463</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27504</v>
+        <v>0.303644</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250356</v>
+        <v>0.253216</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.450571</v>
+        <v>0.439581</v>
       </c>
       <c r="C17" t="n">
-        <v>0.263676</v>
+        <v>0.305421</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242045</v>
+        <v>0.244464</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.431032</v>
+        <v>0.431844</v>
       </c>
       <c r="C18" t="n">
-        <v>0.258663</v>
+        <v>0.288363</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24233</v>
+        <v>0.23257</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.430864</v>
+        <v>0.423995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.251208</v>
+        <v>0.286953</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233177</v>
+        <v>0.23146</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.427631</v>
+        <v>0.415854</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243773</v>
+        <v>0.28286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22659</v>
+        <v>0.23125</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418994</v>
+        <v>0.423963</v>
       </c>
       <c r="C21" t="n">
-        <v>0.24576</v>
+        <v>0.272852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.226527</v>
+        <v>0.224458</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.412093</v>
+        <v>0.421198</v>
       </c>
       <c r="C22" t="n">
-        <v>0.241202</v>
+        <v>0.276889</v>
       </c>
       <c r="D22" t="n">
-        <v>0.221835</v>
+        <v>0.225442</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.419138</v>
+        <v>0.405032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.240379</v>
+        <v>0.5167659999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.540501</v>
+        <v>0.567878</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65219</v>
+        <v>0.66301</v>
       </c>
       <c r="C24" t="n">
-        <v>0.490281</v>
+        <v>0.508146</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539231</v>
+        <v>0.531597</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.648193</v>
+        <v>0.641899</v>
       </c>
       <c r="C25" t="n">
-        <v>0.474748</v>
+        <v>0.492079</v>
       </c>
       <c r="D25" t="n">
-        <v>0.506008</v>
+        <v>0.522292</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.625243</v>
+        <v>0.631596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.464584</v>
+        <v>0.476587</v>
       </c>
       <c r="D26" t="n">
-        <v>0.48987</v>
+        <v>0.496806</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.621128</v>
+        <v>0.617689</v>
       </c>
       <c r="C27" t="n">
-        <v>0.445805</v>
+        <v>0.455871</v>
       </c>
       <c r="D27" t="n">
-        <v>0.475215</v>
+        <v>0.492536</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.603526</v>
+        <v>0.612408</v>
       </c>
       <c r="C28" t="n">
-        <v>0.431026</v>
+        <v>0.454186</v>
       </c>
       <c r="D28" t="n">
-        <v>0.456549</v>
+        <v>0.471344</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.586866</v>
+        <v>0.589005</v>
       </c>
       <c r="C29" t="n">
-        <v>0.417948</v>
+        <v>0.430485</v>
       </c>
       <c r="D29" t="n">
-        <v>0.450161</v>
+        <v>0.443526</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.581824</v>
+        <v>0.58982</v>
       </c>
       <c r="C30" t="n">
-        <v>0.408705</v>
+        <v>0.43282</v>
       </c>
       <c r="D30" t="n">
-        <v>0.444945</v>
+        <v>0.42984</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.564096</v>
+        <v>0.57728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392735</v>
+        <v>0.409611</v>
       </c>
       <c r="D31" t="n">
-        <v>0.420698</v>
+        <v>0.417741</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.556806</v>
+        <v>0.55052</v>
       </c>
       <c r="C32" t="n">
-        <v>0.389555</v>
+        <v>0.39993</v>
       </c>
       <c r="D32" t="n">
-        <v>0.402101</v>
+        <v>0.404846</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.560889</v>
+        <v>0.5411280000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.374585</v>
+        <v>0.403228</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392861</v>
+        <v>0.397821</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.528058</v>
+        <v>0.531124</v>
       </c>
       <c r="C34" t="n">
-        <v>0.365229</v>
+        <v>0.383001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.376325</v>
+        <v>0.376314</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.538749</v>
+        <v>0.517177</v>
       </c>
       <c r="C35" t="n">
-        <v>0.350746</v>
+        <v>0.377402</v>
       </c>
       <c r="D35" t="n">
-        <v>0.36634</v>
+        <v>0.367326</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.519531</v>
+        <v>0.521227</v>
       </c>
       <c r="C36" t="n">
-        <v>0.339157</v>
+        <v>0.378795</v>
       </c>
       <c r="D36" t="n">
-        <v>0.361228</v>
+        <v>0.368954</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.511345</v>
+        <v>0.512466</v>
       </c>
       <c r="C37" t="n">
-        <v>0.334192</v>
+        <v>0.622746</v>
       </c>
       <c r="D37" t="n">
-        <v>0.618883</v>
+        <v>0.631928</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.777886</v>
+        <v>0.779609</v>
       </c>
       <c r="C38" t="n">
-        <v>0.598357</v>
+        <v>0.618083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.595283</v>
+        <v>0.591615</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.745657</v>
+        <v>0.752327</v>
       </c>
       <c r="C39" t="n">
-        <v>0.594343</v>
+        <v>0.58858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.581106</v>
+        <v>0.582596</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.733708</v>
+        <v>0.727785</v>
       </c>
       <c r="C40" t="n">
-        <v>0.562612</v>
+        <v>0.569578</v>
       </c>
       <c r="D40" t="n">
-        <v>0.568892</v>
+        <v>0.5694939999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.731121</v>
+        <v>0.7285970000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.555189</v>
+        <v>0.554457</v>
       </c>
       <c r="D41" t="n">
-        <v>0.545771</v>
+        <v>0.542276</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.698415</v>
+        <v>0.702026</v>
       </c>
       <c r="C42" t="n">
-        <v>0.530247</v>
+        <v>0.554603</v>
       </c>
       <c r="D42" t="n">
-        <v>0.518479</v>
+        <v>0.5204800000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.689522</v>
+        <v>0.688825</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5080209999999999</v>
+        <v>0.5222250000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523193</v>
+        <v>0.508907</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6640160000000001</v>
+        <v>0.674414</v>
       </c>
       <c r="C44" t="n">
-        <v>0.502802</v>
+        <v>0.513636</v>
       </c>
       <c r="D44" t="n">
-        <v>0.492549</v>
+        <v>0.489562</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.662928</v>
+        <v>0.660034</v>
       </c>
       <c r="C45" t="n">
-        <v>0.489716</v>
+        <v>0.500684</v>
       </c>
       <c r="D45" t="n">
-        <v>0.483299</v>
+        <v>0.488908</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6528080000000001</v>
+        <v>0.647844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.469725</v>
+        <v>0.485547</v>
       </c>
       <c r="D46" t="n">
-        <v>0.451288</v>
+        <v>0.470113</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.62684</v>
+        <v>0.6478159999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.466551</v>
+        <v>0.483686</v>
       </c>
       <c r="D47" t="n">
-        <v>0.440074</v>
+        <v>0.44277</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.61795</v>
+        <v>0.613266</v>
       </c>
       <c r="C48" t="n">
-        <v>0.447471</v>
+        <v>0.452661</v>
       </c>
       <c r="D48" t="n">
-        <v>0.434415</v>
+        <v>0.429093</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.610237</v>
+        <v>0.609496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.439791</v>
+        <v>0.451264</v>
       </c>
       <c r="D49" t="n">
-        <v>0.417146</v>
+        <v>0.417379</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5880840000000001</v>
+        <v>0.601727</v>
       </c>
       <c r="C50" t="n">
-        <v>0.417284</v>
+        <v>0.439921</v>
       </c>
       <c r="D50" t="n">
-        <v>0.40947</v>
+        <v>0.405521</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.580721</v>
+        <v>0.581325</v>
       </c>
       <c r="C51" t="n">
-        <v>0.411962</v>
+        <v>0.690317</v>
       </c>
       <c r="D51" t="n">
-        <v>0.666069</v>
+        <v>0.678351</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5877019999999999</v>
+        <v>0.57948</v>
       </c>
       <c r="C52" t="n">
-        <v>0.402004</v>
+        <v>0.693371</v>
       </c>
       <c r="D52" t="n">
-        <v>0.643416</v>
+        <v>0.667825</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.848208</v>
+        <v>0.8144980000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.674184</v>
+        <v>0.653596</v>
       </c>
       <c r="D53" t="n">
-        <v>0.633453</v>
+        <v>0.635845</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.805808</v>
+        <v>0.828609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.647007</v>
+        <v>0.647959</v>
       </c>
       <c r="D54" t="n">
-        <v>0.608374</v>
+        <v>0.632976</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.810884</v>
+        <v>0.819047</v>
       </c>
       <c r="C55" t="n">
-        <v>0.643848</v>
+        <v>0.611438</v>
       </c>
       <c r="D55" t="n">
-        <v>0.59482</v>
+        <v>0.5956050000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.780081</v>
+        <v>0.780576</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6372100000000001</v>
+        <v>0.6171219999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.565178</v>
+        <v>0.57335</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.768305</v>
+        <v>0.771736</v>
       </c>
       <c r="C57" t="n">
-        <v>0.614639</v>
+        <v>0.60671</v>
       </c>
       <c r="D57" t="n">
-        <v>0.558293</v>
+        <v>0.556817</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.773183</v>
+        <v>0.7687659999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.608738</v>
+        <v>0.590363</v>
       </c>
       <c r="D58" t="n">
-        <v>0.540021</v>
+        <v>0.532956</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7519479999999999</v>
+        <v>0.767123</v>
       </c>
       <c r="C59" t="n">
-        <v>0.590023</v>
+        <v>0.577979</v>
       </c>
       <c r="D59" t="n">
-        <v>0.524103</v>
+        <v>0.534662</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.73629</v>
+        <v>0.740359</v>
       </c>
       <c r="C60" t="n">
-        <v>0.562924</v>
+        <v>0.559013</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5032450000000001</v>
+        <v>0.517618</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.73337</v>
+        <v>0.739177</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5435759999999999</v>
+        <v>0.54314</v>
       </c>
       <c r="D61" t="n">
-        <v>0.489627</v>
+        <v>0.497368</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7088950000000001</v>
+        <v>0.7146400000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.526617</v>
+        <v>0.5264720000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.489725</v>
+        <v>0.479786</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7186630000000001</v>
+        <v>0.720902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.524296</v>
+        <v>0.537679</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478747</v>
+        <v>0.488554</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.700152</v>
+        <v>0.696099</v>
       </c>
       <c r="C64" t="n">
-        <v>0.519334</v>
+        <v>0.527371</v>
       </c>
       <c r="D64" t="n">
-        <v>0.456929</v>
+        <v>0.464805</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.692706</v>
+        <v>0.698156</v>
       </c>
       <c r="C65" t="n">
-        <v>0.49307</v>
+        <v>0.523748</v>
       </c>
       <c r="D65" t="n">
-        <v>0.446401</v>
+        <v>0.459704</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.693747</v>
+        <v>0.673037</v>
       </c>
       <c r="C66" t="n">
-        <v>0.496666</v>
+        <v>0.76758</v>
       </c>
       <c r="D66" t="n">
-        <v>0.721712</v>
+        <v>0.715192</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.974908</v>
+        <v>0.950503</v>
       </c>
       <c r="C67" t="n">
-        <v>0.776126</v>
+        <v>0.751573</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7091229999999999</v>
+        <v>0.70138</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.947564</v>
+        <v>0.944914</v>
       </c>
       <c r="C68" t="n">
-        <v>0.744744</v>
+        <v>0.736444</v>
       </c>
       <c r="D68" t="n">
-        <v>0.66879</v>
+        <v>0.679675</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.932779</v>
+        <v>0.939047</v>
       </c>
       <c r="C69" t="n">
-        <v>0.72828</v>
+        <v>0.702545</v>
       </c>
       <c r="D69" t="n">
-        <v>0.657397</v>
+        <v>0.663557</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.907191</v>
+        <v>0.8923219999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.694233</v>
+        <v>0.697454</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6474490000000001</v>
+        <v>0.64009</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.885372</v>
+        <v>0.870821</v>
       </c>
       <c r="C71" t="n">
-        <v>0.677952</v>
+        <v>0.680275</v>
       </c>
       <c r="D71" t="n">
-        <v>0.627877</v>
+        <v>0.625212</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8721100000000001</v>
+        <v>0.885429</v>
       </c>
       <c r="C72" t="n">
-        <v>0.667686</v>
+        <v>0.673173</v>
       </c>
       <c r="D72" t="n">
-        <v>0.610768</v>
+        <v>0.606898</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.865217</v>
+        <v>0.859415</v>
       </c>
       <c r="C73" t="n">
-        <v>0.667685</v>
+        <v>0.665958</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5825050000000001</v>
+        <v>0.601584</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.843875</v>
+        <v>0.844445</v>
       </c>
       <c r="C74" t="n">
-        <v>0.634575</v>
+        <v>0.6346810000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.574352</v>
+        <v>0.579743</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.832412</v>
+        <v>0.843714</v>
       </c>
       <c r="C75" t="n">
-        <v>0.626858</v>
+        <v>0.629756</v>
       </c>
       <c r="D75" t="n">
-        <v>0.560083</v>
+        <v>0.570391</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.832124</v>
+        <v>0.8198029999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.614571</v>
+        <v>0.631544</v>
       </c>
       <c r="D76" t="n">
-        <v>0.540809</v>
+        <v>0.570133</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.809679</v>
+        <v>0.825663</v>
       </c>
       <c r="C77" t="n">
-        <v>0.599422</v>
+        <v>0.608335</v>
       </c>
       <c r="D77" t="n">
-        <v>0.531399</v>
+        <v>0.548448</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.80272</v>
+        <v>0.802666</v>
       </c>
       <c r="C78" t="n">
-        <v>0.577037</v>
+        <v>0.589706</v>
       </c>
       <c r="D78" t="n">
-        <v>0.525831</v>
+        <v>0.535865</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.803073</v>
+        <v>0.7914600000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.572049</v>
+        <v>0.5792040000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.505869</v>
+        <v>0.519246</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.78198</v>
+        <v>0.776019</v>
       </c>
       <c r="C80" t="n">
-        <v>0.556713</v>
+        <v>0.883319</v>
       </c>
       <c r="D80" t="n">
-        <v>0.831393</v>
+        <v>0.827977</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.07404</v>
+        <v>1.08372</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8741449999999999</v>
+        <v>0.853437</v>
       </c>
       <c r="D81" t="n">
-        <v>0.813936</v>
+        <v>0.828856</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11084</v>
+        <v>1.07598</v>
       </c>
       <c r="C82" t="n">
-        <v>0.881001</v>
+        <v>0.858815</v>
       </c>
       <c r="D82" t="n">
-        <v>0.792472</v>
+        <v>0.808633</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08101</v>
+        <v>1.04328</v>
       </c>
       <c r="C83" t="n">
-        <v>0.841673</v>
+        <v>0.829355</v>
       </c>
       <c r="D83" t="n">
-        <v>0.772586</v>
+        <v>0.792396</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04472</v>
+        <v>1.02569</v>
       </c>
       <c r="C84" t="n">
-        <v>0.834569</v>
+        <v>0.8041199999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.755589</v>
+        <v>0.754426</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05039</v>
+        <v>1.02882</v>
       </c>
       <c r="C85" t="n">
-        <v>0.807247</v>
+        <v>0.792912</v>
       </c>
       <c r="D85" t="n">
-        <v>0.740178</v>
+        <v>0.748089</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.04856</v>
+        <v>1.00985</v>
       </c>
       <c r="C86" t="n">
-        <v>0.795335</v>
+        <v>0.768657</v>
       </c>
       <c r="D86" t="n">
-        <v>0.727213</v>
+        <v>0.726962</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.97311</v>
+        <v>0.986834</v>
       </c>
       <c r="C87" t="n">
-        <v>0.782314</v>
+        <v>0.744686</v>
       </c>
       <c r="D87" t="n">
-        <v>0.698632</v>
+        <v>0.7107869999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.967692</v>
+        <v>0.995028</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7659550000000001</v>
+        <v>0.7601059999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6758690000000001</v>
+        <v>0.685651</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.964651</v>
+        <v>0.966791</v>
       </c>
       <c r="C89" t="n">
-        <v>0.744025</v>
+        <v>0.735677</v>
       </c>
       <c r="D89" t="n">
-        <v>0.671968</v>
+        <v>0.690049</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.980015</v>
+        <v>0.96622</v>
       </c>
       <c r="C90" t="n">
-        <v>0.740554</v>
+        <v>0.726113</v>
       </c>
       <c r="D90" t="n">
-        <v>0.672949</v>
+        <v>0.664992</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.954804</v>
+        <v>0.928732</v>
       </c>
       <c r="C91" t="n">
-        <v>0.727697</v>
+        <v>0.693582</v>
       </c>
       <c r="D91" t="n">
-        <v>0.648259</v>
+        <v>0.64762</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.948027</v>
+        <v>0.921956</v>
       </c>
       <c r="C92" t="n">
-        <v>0.712631</v>
+        <v>0.689208</v>
       </c>
       <c r="D92" t="n">
-        <v>0.642624</v>
+        <v>0.628336</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.917297</v>
+        <v>0.920584</v>
       </c>
       <c r="C93" t="n">
-        <v>0.702794</v>
+        <v>0.677736</v>
       </c>
       <c r="D93" t="n">
-        <v>0.626687</v>
+        <v>0.6332989999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.903548</v>
+        <v>0.917538</v>
       </c>
       <c r="C94" t="n">
-        <v>0.677885</v>
+        <v>0.96997</v>
       </c>
       <c r="D94" t="n">
-        <v>0.94045</v>
+        <v>0.940481</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.21347</v>
+        <v>1.22156</v>
       </c>
       <c r="C95" t="n">
-        <v>0.985931</v>
+        <v>0.947805</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9347839999999999</v>
+        <v>0.927565</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18467</v>
+        <v>1.20334</v>
       </c>
       <c r="C96" t="n">
-        <v>0.981203</v>
+        <v>0.963102</v>
       </c>
       <c r="D96" t="n">
-        <v>0.910083</v>
+        <v>0.937418</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19289</v>
+        <v>1.1573</v>
       </c>
       <c r="C97" t="n">
-        <v>0.98638</v>
+        <v>0.936651</v>
       </c>
       <c r="D97" t="n">
-        <v>0.897327</v>
+        <v>0.895475</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17903</v>
+        <v>1.16953</v>
       </c>
       <c r="C98" t="n">
-        <v>0.968079</v>
+        <v>0.935975</v>
       </c>
       <c r="D98" t="n">
-        <v>0.91125</v>
+        <v>0.87178</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17118</v>
+        <v>1.16541</v>
       </c>
       <c r="C99" t="n">
-        <v>0.953368</v>
+        <v>0.921363</v>
       </c>
       <c r="D99" t="n">
-        <v>0.859493</v>
+        <v>0.88956</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13862</v>
+        <v>1.14072</v>
       </c>
       <c r="C100" t="n">
-        <v>0.926161</v>
+        <v>0.872497</v>
       </c>
       <c r="D100" t="n">
-        <v>0.864937</v>
+        <v>0.854982</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.11975</v>
+        <v>1.14736</v>
       </c>
       <c r="C101" t="n">
-        <v>0.903048</v>
+        <v>0.864766</v>
       </c>
       <c r="D101" t="n">
-        <v>0.855593</v>
+        <v>0.834364</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12791</v>
+        <v>1.11601</v>
       </c>
       <c r="C102" t="n">
-        <v>0.894818</v>
+        <v>0.881916</v>
       </c>
       <c r="D102" t="n">
-        <v>0.813729</v>
+        <v>0.815399</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.1094</v>
+        <v>1.09335</v>
       </c>
       <c r="C103" t="n">
-        <v>0.873582</v>
+        <v>0.846041</v>
       </c>
       <c r="D103" t="n">
-        <v>0.812925</v>
+        <v>0.792952</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.09668</v>
+        <v>1.10031</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8628130000000001</v>
+        <v>0.83819</v>
       </c>
       <c r="D104" t="n">
-        <v>0.806625</v>
+        <v>0.785287</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07316</v>
+        <v>1.08199</v>
       </c>
       <c r="C105" t="n">
-        <v>0.879879</v>
+        <v>0.825363</v>
       </c>
       <c r="D105" t="n">
-        <v>0.787685</v>
+        <v>0.767957</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.08651</v>
+        <v>1.05968</v>
       </c>
       <c r="C106" t="n">
-        <v>0.85568</v>
+        <v>0.7982669999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.776211</v>
+        <v>0.766006</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.05696</v>
+        <v>1.04133</v>
       </c>
       <c r="C107" t="n">
-        <v>0.821723</v>
+        <v>0.790681</v>
       </c>
       <c r="D107" t="n">
-        <v>0.768398</v>
+        <v>0.749102</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.06293</v>
+        <v>1.0503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.818796</v>
+        <v>1.11705</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08628</v>
+        <v>1.07034</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.05632</v>
+        <v>1.05</v>
       </c>
       <c r="C109" t="n">
-        <v>0.814797</v>
+        <v>1.09816</v>
       </c>
       <c r="D109" t="n">
-        <v>1.09661</v>
+        <v>1.08238</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35442</v>
+        <v>1.37442</v>
       </c>
       <c r="C110" t="n">
-        <v>1.15021</v>
+        <v>1.08048</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08925</v>
+        <v>1.06662</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34707</v>
+        <v>1.36982</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12607</v>
+        <v>1.09763</v>
       </c>
       <c r="D111" t="n">
-        <v>1.07936</v>
+        <v>1.05233</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.36001</v>
+        <v>1.30911</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12136</v>
+        <v>1.07866</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04965</v>
+        <v>1.06027</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.32968</v>
+        <v>1.34447</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1631</v>
+        <v>1.08545</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05958</v>
+        <v>1.02432</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3332</v>
+        <v>1.28583</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09943</v>
+        <v>1.07099</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05227</v>
+        <v>1.02497</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32389</v>
+        <v>1.29003</v>
       </c>
       <c r="C115" t="n">
-        <v>1.0928</v>
+        <v>1.08366</v>
       </c>
       <c r="D115" t="n">
-        <v>1.03218</v>
+        <v>1.03038</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28703</v>
+        <v>1.31004</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11801</v>
+        <v>1.06755</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0153</v>
+        <v>1.02745</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28201</v>
+        <v>1.29363</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07106</v>
+        <v>1.05718</v>
       </c>
       <c r="D117" t="n">
-        <v>1.02953</v>
+        <v>0.986692</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.32775</v>
+        <v>1.28392</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07104</v>
+        <v>1.05719</v>
       </c>
       <c r="D118" t="n">
-        <v>0.995632</v>
+        <v>0.982327</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28503</v>
+        <v>1.29073</v>
       </c>
       <c r="C119" t="n">
-        <v>1.04761</v>
+        <v>1.07071</v>
       </c>
       <c r="D119" t="n">
-        <v>0.986937</v>
+        <v>0.985957</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.25196</v>
+        <v>1.25504</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04607</v>
+        <v>1.03606</v>
       </c>
       <c r="D120" t="n">
-        <v>0.978657</v>
+        <v>0.980123</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29036</v>
+        <v>1.2557</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0579</v>
+        <v>1.04686</v>
       </c>
       <c r="D121" t="n">
-        <v>0.98591</v>
+        <v>0.968234</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.25507</v>
+        <v>1.2646</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0422</v>
+        <v>1.03982</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9812149999999999</v>
+        <v>0.9779679999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.2481</v>
+        <v>1.26158</v>
       </c>
       <c r="C123" t="n">
-        <v>1.04873</v>
+        <v>1.39467</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32634</v>
+        <v>1.29637</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.55467</v>
+        <v>1.54356</v>
       </c>
       <c r="C124" t="n">
-        <v>1.37788</v>
+        <v>1.36031</v>
       </c>
       <c r="D124" t="n">
-        <v>1.32381</v>
+        <v>1.29648</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.55965</v>
+        <v>1.54599</v>
       </c>
       <c r="C125" t="n">
-        <v>1.35291</v>
+        <v>1.36577</v>
       </c>
       <c r="D125" t="n">
-        <v>1.31792</v>
+        <v>1.33609</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.585</v>
+        <v>1.58096</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3743</v>
+        <v>1.36334</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32702</v>
+        <v>1.29888</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55962</v>
+        <v>1.55972</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36931</v>
+        <v>1.36513</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32324</v>
+        <v>1.28403</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.56612</v>
+        <v>1.55833</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37671</v>
+        <v>1.3764</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31615</v>
+        <v>1.30009</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.54663</v>
+        <v>1.55151</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36652</v>
+        <v>1.39351</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32803</v>
+        <v>1.31965</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.53866</v>
+        <v>1.5572</v>
       </c>
       <c r="C130" t="n">
-        <v>1.35508</v>
+        <v>1.3892</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29214</v>
+        <v>1.30849</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.53832</v>
+        <v>1.56878</v>
       </c>
       <c r="C131" t="n">
-        <v>1.34477</v>
+        <v>1.39105</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31449</v>
+        <v>1.30891</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.52336</v>
+        <v>1.53835</v>
       </c>
       <c r="C132" t="n">
-        <v>1.33247</v>
+        <v>1.4041</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31915</v>
+        <v>1.31136</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.53635</v>
+        <v>1.55285</v>
       </c>
       <c r="C133" t="n">
-        <v>1.35042</v>
+        <v>1.39592</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31517</v>
+        <v>1.30275</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.55892</v>
+        <v>1.5365</v>
       </c>
       <c r="C134" t="n">
-        <v>1.36427</v>
+        <v>1.39314</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31881</v>
+        <v>1.295</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54809</v>
+        <v>1.51951</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34912</v>
+        <v>1.41767</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30416</v>
+        <v>1.30421</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.55122</v>
+        <v>1.54894</v>
       </c>
       <c r="C136" t="n">
-        <v>1.36595</v>
+        <v>1.41993</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34078</v>
+        <v>1.31834</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.54141</v>
+        <v>1.5447</v>
       </c>
       <c r="C137" t="n">
-        <v>1.34945</v>
+        <v>1.73482</v>
       </c>
       <c r="D137" t="n">
-        <v>1.67521</v>
+        <v>1.63916</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.8471</v>
+        <v>1.86765</v>
       </c>
       <c r="C138" t="n">
-        <v>1.72087</v>
+        <v>1.71329</v>
       </c>
       <c r="D138" t="n">
-        <v>1.66282</v>
+        <v>1.6147</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.8675</v>
+        <v>1.78426</v>
       </c>
       <c r="C139" t="n">
-        <v>1.68325</v>
+        <v>1.6719</v>
       </c>
       <c r="D139" t="n">
-        <v>1.63757</v>
+        <v>1.59266</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.88053</v>
+        <v>1.77515</v>
       </c>
       <c r="C140" t="n">
-        <v>1.68699</v>
+        <v>1.68203</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65562</v>
+        <v>1.63703</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.8466</v>
+        <v>1.80623</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67969</v>
+        <v>1.68968</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66179</v>
+        <v>1.61727</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86438</v>
+        <v>1.77321</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67188</v>
+        <v>1.67774</v>
       </c>
       <c r="D142" t="n">
-        <v>1.65935</v>
+        <v>1.59587</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85937</v>
+        <v>1.75353</v>
       </c>
       <c r="C143" t="n">
-        <v>1.699</v>
+        <v>1.69572</v>
       </c>
       <c r="D143" t="n">
-        <v>1.66176</v>
+        <v>1.60564</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466947</v>
+        <v>0.498882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.297461</v>
+        <v>0.217678</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238561</v>
+        <v>0.23842</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.447554</v>
+        <v>0.42845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.297127</v>
+        <v>0.219969</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237636</v>
+        <v>0.241604</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.425006</v>
+        <v>0.429688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.279694</v>
+        <v>0.210344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227248</v>
+        <v>0.237477</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.425706</v>
+        <v>0.436754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279197</v>
+        <v>0.207483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.223757</v>
+        <v>0.229017</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.407003</v>
+        <v>0.418955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273223</v>
+        <v>0.206808</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214685</v>
+        <v>0.220773</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.408484</v>
+        <v>0.426525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.261921</v>
+        <v>0.204615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213276</v>
+        <v>0.21698</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.407288</v>
+        <v>0.420005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.260436</v>
+        <v>0.203955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210908</v>
+        <v>0.212821</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.396385</v>
+        <v>0.408384</v>
       </c>
       <c r="C9" t="n">
-        <v>0.351443</v>
+        <v>0.278598</v>
       </c>
       <c r="D9" t="n">
-        <v>0.295894</v>
+        <v>0.30192</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.508266</v>
+        <v>0.491131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.342619</v>
+        <v>0.276871</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305245</v>
+        <v>0.305691</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.485892</v>
+        <v>0.488138</v>
       </c>
       <c r="C11" t="n">
-        <v>0.346085</v>
+        <v>0.271808</v>
       </c>
       <c r="D11" t="n">
-        <v>0.29193</v>
+        <v>0.289509</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.477446</v>
+        <v>0.475775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.339754</v>
+        <v>0.262976</v>
       </c>
       <c r="D12" t="n">
-        <v>0.283367</v>
+        <v>0.280763</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.464068</v>
+        <v>0.471503</v>
       </c>
       <c r="C13" t="n">
-        <v>0.322166</v>
+        <v>0.253818</v>
       </c>
       <c r="D13" t="n">
-        <v>0.279238</v>
+        <v>0.273421</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.471753</v>
+        <v>0.449022</v>
       </c>
       <c r="C14" t="n">
-        <v>0.320731</v>
+        <v>0.245445</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270572</v>
+        <v>0.267523</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.461688</v>
+        <v>0.461681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.31822</v>
+        <v>0.231641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.26094</v>
+        <v>0.256109</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.443463</v>
+        <v>0.4506</v>
       </c>
       <c r="C16" t="n">
-        <v>0.303644</v>
+        <v>0.226401</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253216</v>
+        <v>0.251861</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.439581</v>
+        <v>0.445075</v>
       </c>
       <c r="C17" t="n">
-        <v>0.305421</v>
+        <v>0.222575</v>
       </c>
       <c r="D17" t="n">
-        <v>0.244464</v>
+        <v>0.243236</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.431844</v>
+        <v>0.429007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.288363</v>
+        <v>0.218002</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23257</v>
+        <v>0.23648</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.423995</v>
+        <v>0.437291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.286953</v>
+        <v>0.212994</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23146</v>
+        <v>0.237282</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.415854</v>
+        <v>0.423942</v>
       </c>
       <c r="C20" t="n">
-        <v>0.28286</v>
+        <v>0.207943</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23125</v>
+        <v>0.231078</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423963</v>
+        <v>0.425129</v>
       </c>
       <c r="C21" t="n">
-        <v>0.272852</v>
+        <v>0.208867</v>
       </c>
       <c r="D21" t="n">
-        <v>0.224458</v>
+        <v>0.227188</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.421198</v>
+        <v>0.413797</v>
       </c>
       <c r="C22" t="n">
-        <v>0.276889</v>
+        <v>0.203404</v>
       </c>
       <c r="D22" t="n">
-        <v>0.225442</v>
+        <v>0.227019</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.405032</v>
+        <v>0.410345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5167659999999999</v>
+        <v>0.44387</v>
       </c>
       <c r="D23" t="n">
-        <v>0.567878</v>
+        <v>0.563041</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.66301</v>
+        <v>0.657772</v>
       </c>
       <c r="C24" t="n">
-        <v>0.508146</v>
+        <v>0.437597</v>
       </c>
       <c r="D24" t="n">
-        <v>0.531597</v>
+        <v>0.543849</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.641899</v>
+        <v>0.6349320000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.492079</v>
+        <v>0.412937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.522292</v>
+        <v>0.519061</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.631596</v>
+        <v>0.63556</v>
       </c>
       <c r="C26" t="n">
-        <v>0.476587</v>
+        <v>0.403205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.496806</v>
+        <v>0.494808</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.617689</v>
+        <v>0.629283</v>
       </c>
       <c r="C27" t="n">
-        <v>0.455871</v>
+        <v>0.385281</v>
       </c>
       <c r="D27" t="n">
-        <v>0.492536</v>
+        <v>0.490259</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.612408</v>
+        <v>0.615317</v>
       </c>
       <c r="C28" t="n">
-        <v>0.454186</v>
+        <v>0.383683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.471344</v>
+        <v>0.467025</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.589005</v>
+        <v>0.598174</v>
       </c>
       <c r="C29" t="n">
-        <v>0.430485</v>
+        <v>0.361818</v>
       </c>
       <c r="D29" t="n">
-        <v>0.443526</v>
+        <v>0.45154</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.58982</v>
+        <v>0.59339</v>
       </c>
       <c r="C30" t="n">
-        <v>0.43282</v>
+        <v>0.357131</v>
       </c>
       <c r="D30" t="n">
-        <v>0.42984</v>
+        <v>0.439578</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.57728</v>
+        <v>0.568956</v>
       </c>
       <c r="C31" t="n">
-        <v>0.409611</v>
+        <v>0.337797</v>
       </c>
       <c r="D31" t="n">
-        <v>0.417741</v>
+        <v>0.426626</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.55052</v>
+        <v>0.555403</v>
       </c>
       <c r="C32" t="n">
-        <v>0.39993</v>
+        <v>0.332387</v>
       </c>
       <c r="D32" t="n">
-        <v>0.404846</v>
+        <v>0.417923</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5411280000000001</v>
+        <v>0.539002</v>
       </c>
       <c r="C33" t="n">
-        <v>0.403228</v>
+        <v>0.31597</v>
       </c>
       <c r="D33" t="n">
-        <v>0.397821</v>
+        <v>0.395009</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.531124</v>
+        <v>0.542142</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383001</v>
+        <v>0.311237</v>
       </c>
       <c r="D34" t="n">
-        <v>0.376314</v>
+        <v>0.386449</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.517177</v>
+        <v>0.523174</v>
       </c>
       <c r="C35" t="n">
-        <v>0.377402</v>
+        <v>0.299562</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367326</v>
+        <v>0.378542</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.521227</v>
+        <v>0.528462</v>
       </c>
       <c r="C36" t="n">
-        <v>0.378795</v>
+        <v>0.293956</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368954</v>
+        <v>0.369627</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.512466</v>
+        <v>0.516109</v>
       </c>
       <c r="C37" t="n">
-        <v>0.622746</v>
+        <v>0.5692199999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.631928</v>
+        <v>0.640585</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.779609</v>
+        <v>0.769587</v>
       </c>
       <c r="C38" t="n">
-        <v>0.618083</v>
+        <v>0.529112</v>
       </c>
       <c r="D38" t="n">
-        <v>0.591615</v>
+        <v>0.615856</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.752327</v>
+        <v>0.7568279999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.58858</v>
+        <v>0.516112</v>
       </c>
       <c r="D39" t="n">
-        <v>0.582596</v>
+        <v>0.599074</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.727785</v>
+        <v>0.744866</v>
       </c>
       <c r="C40" t="n">
-        <v>0.569578</v>
+        <v>0.488676</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5694939999999999</v>
+        <v>0.575636</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7285970000000001</v>
+        <v>0.736256</v>
       </c>
       <c r="C41" t="n">
-        <v>0.554457</v>
+        <v>0.481581</v>
       </c>
       <c r="D41" t="n">
-        <v>0.542276</v>
+        <v>0.546235</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.702026</v>
+        <v>0.739398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.554603</v>
+        <v>0.460995</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5204800000000001</v>
+        <v>0.5409310000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.688825</v>
+        <v>0.685898</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5222250000000001</v>
+        <v>0.443768</v>
       </c>
       <c r="D43" t="n">
-        <v>0.508907</v>
+        <v>0.506032</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.674414</v>
+        <v>0.6664330000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.513636</v>
+        <v>0.430363</v>
       </c>
       <c r="D44" t="n">
-        <v>0.489562</v>
+        <v>0.5072990000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.660034</v>
+        <v>0.66697</v>
       </c>
       <c r="C45" t="n">
-        <v>0.500684</v>
+        <v>0.416357</v>
       </c>
       <c r="D45" t="n">
-        <v>0.488908</v>
+        <v>0.483111</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.647844</v>
+        <v>0.66216</v>
       </c>
       <c r="C46" t="n">
-        <v>0.485547</v>
+        <v>0.400566</v>
       </c>
       <c r="D46" t="n">
-        <v>0.470113</v>
+        <v>0.462025</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6478159999999999</v>
+        <v>0.636888</v>
       </c>
       <c r="C47" t="n">
-        <v>0.483686</v>
+        <v>0.387657</v>
       </c>
       <c r="D47" t="n">
-        <v>0.44277</v>
+        <v>0.458928</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.613266</v>
+        <v>0.626254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.452661</v>
+        <v>0.37489</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429093</v>
+        <v>0.440098</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.609496</v>
+        <v>0.604128</v>
       </c>
       <c r="C49" t="n">
-        <v>0.451264</v>
+        <v>0.370182</v>
       </c>
       <c r="D49" t="n">
-        <v>0.417379</v>
+        <v>0.426361</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.601727</v>
+        <v>0.599467</v>
       </c>
       <c r="C50" t="n">
-        <v>0.439921</v>
+        <v>0.354879</v>
       </c>
       <c r="D50" t="n">
-        <v>0.405521</v>
+        <v>0.412118</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.581325</v>
+        <v>0.5826750000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.690317</v>
+        <v>0.621373</v>
       </c>
       <c r="D51" t="n">
-        <v>0.678351</v>
+        <v>0.678091</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.57948</v>
+        <v>0.584325</v>
       </c>
       <c r="C52" t="n">
-        <v>0.693371</v>
+        <v>0.590772</v>
       </c>
       <c r="D52" t="n">
-        <v>0.667825</v>
+        <v>0.680794</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8144980000000001</v>
+        <v>0.872297</v>
       </c>
       <c r="C53" t="n">
-        <v>0.653596</v>
+        <v>0.59019</v>
       </c>
       <c r="D53" t="n">
-        <v>0.635845</v>
+        <v>0.638697</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828609</v>
+        <v>0.82975</v>
       </c>
       <c r="C54" t="n">
-        <v>0.647959</v>
+        <v>0.5718529999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.632976</v>
+        <v>0.622256</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.819047</v>
+        <v>0.823327</v>
       </c>
       <c r="C55" t="n">
-        <v>0.611438</v>
+        <v>0.564848</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5956050000000001</v>
+        <v>0.609142</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.780576</v>
+        <v>0.815126</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6171219999999999</v>
+        <v>0.532173</v>
       </c>
       <c r="D56" t="n">
-        <v>0.57335</v>
+        <v>0.581577</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.771736</v>
+        <v>0.779121</v>
       </c>
       <c r="C57" t="n">
-        <v>0.60671</v>
+        <v>0.514348</v>
       </c>
       <c r="D57" t="n">
-        <v>0.556817</v>
+        <v>0.571902</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7687659999999999</v>
+        <v>0.780763</v>
       </c>
       <c r="C58" t="n">
-        <v>0.590363</v>
+        <v>0.496195</v>
       </c>
       <c r="D58" t="n">
-        <v>0.532956</v>
+        <v>0.560413</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.767123</v>
+        <v>0.756474</v>
       </c>
       <c r="C59" t="n">
-        <v>0.577979</v>
+        <v>0.487816</v>
       </c>
       <c r="D59" t="n">
-        <v>0.534662</v>
+        <v>0.538034</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.740359</v>
+        <v>0.738771</v>
       </c>
       <c r="C60" t="n">
-        <v>0.559013</v>
+        <v>0.469926</v>
       </c>
       <c r="D60" t="n">
-        <v>0.517618</v>
+        <v>0.522322</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.739177</v>
+        <v>0.736084</v>
       </c>
       <c r="C61" t="n">
-        <v>0.54314</v>
+        <v>0.461738</v>
       </c>
       <c r="D61" t="n">
-        <v>0.497368</v>
+        <v>0.508103</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7146400000000001</v>
+        <v>0.738242</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5264720000000001</v>
+        <v>0.444589</v>
       </c>
       <c r="D62" t="n">
-        <v>0.479786</v>
+        <v>0.483528</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.720902</v>
+        <v>0.71111</v>
       </c>
       <c r="C63" t="n">
-        <v>0.537679</v>
+        <v>0.442731</v>
       </c>
       <c r="D63" t="n">
-        <v>0.488554</v>
+        <v>0.478034</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.696099</v>
+        <v>0.723848</v>
       </c>
       <c r="C64" t="n">
-        <v>0.527371</v>
+        <v>0.435204</v>
       </c>
       <c r="D64" t="n">
-        <v>0.464805</v>
+        <v>0.468964</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.698156</v>
+        <v>0.7138409999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.523748</v>
+        <v>0.426963</v>
       </c>
       <c r="D65" t="n">
-        <v>0.459704</v>
+        <v>0.460505</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.673037</v>
+        <v>0.678991</v>
       </c>
       <c r="C66" t="n">
-        <v>0.76758</v>
+        <v>0.691349</v>
       </c>
       <c r="D66" t="n">
-        <v>0.715192</v>
+        <v>0.72483</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.950503</v>
+        <v>0.967334</v>
       </c>
       <c r="C67" t="n">
-        <v>0.751573</v>
+        <v>0.670094</v>
       </c>
       <c r="D67" t="n">
-        <v>0.70138</v>
+        <v>0.712744</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.944914</v>
+        <v>0.95563</v>
       </c>
       <c r="C68" t="n">
-        <v>0.736444</v>
+        <v>0.658915</v>
       </c>
       <c r="D68" t="n">
-        <v>0.679675</v>
+        <v>0.688658</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.939047</v>
+        <v>0.932013</v>
       </c>
       <c r="C69" t="n">
-        <v>0.702545</v>
+        <v>0.630955</v>
       </c>
       <c r="D69" t="n">
-        <v>0.663557</v>
+        <v>0.677364</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8923219999999999</v>
+        <v>0.926065</v>
       </c>
       <c r="C70" t="n">
-        <v>0.697454</v>
+        <v>0.620617</v>
       </c>
       <c r="D70" t="n">
-        <v>0.64009</v>
+        <v>0.650542</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.870821</v>
+        <v>0.910385</v>
       </c>
       <c r="C71" t="n">
-        <v>0.680275</v>
+        <v>0.597293</v>
       </c>
       <c r="D71" t="n">
-        <v>0.625212</v>
+        <v>0.6390439999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.885429</v>
+        <v>0.886446</v>
       </c>
       <c r="C72" t="n">
-        <v>0.673173</v>
+        <v>0.5938330000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.606898</v>
+        <v>0.618384</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.859415</v>
+        <v>0.866847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.665958</v>
+        <v>0.585359</v>
       </c>
       <c r="D73" t="n">
-        <v>0.601584</v>
+        <v>0.604035</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.844445</v>
+        <v>0.860849</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6346810000000001</v>
+        <v>0.552037</v>
       </c>
       <c r="D74" t="n">
-        <v>0.579743</v>
+        <v>0.596698</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.843714</v>
+        <v>0.8427480000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.629756</v>
+        <v>0.543938</v>
       </c>
       <c r="D75" t="n">
-        <v>0.570391</v>
+        <v>0.586919</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8198029999999999</v>
+        <v>0.8211889999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.631544</v>
+        <v>0.526955</v>
       </c>
       <c r="D76" t="n">
-        <v>0.570133</v>
+        <v>0.565408</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.825663</v>
+        <v>0.814907</v>
       </c>
       <c r="C77" t="n">
-        <v>0.608335</v>
+        <v>0.51742</v>
       </c>
       <c r="D77" t="n">
-        <v>0.548448</v>
+        <v>0.5381359999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.802666</v>
+        <v>0.803271</v>
       </c>
       <c r="C78" t="n">
-        <v>0.589706</v>
+        <v>0.509661</v>
       </c>
       <c r="D78" t="n">
-        <v>0.535865</v>
+        <v>0.535534</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7914600000000001</v>
+        <v>0.812944</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5792040000000001</v>
+        <v>0.497711</v>
       </c>
       <c r="D79" t="n">
-        <v>0.519246</v>
+        <v>0.524177</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.776019</v>
+        <v>0.79404</v>
       </c>
       <c r="C80" t="n">
-        <v>0.883319</v>
+        <v>0.804749</v>
       </c>
       <c r="D80" t="n">
-        <v>0.827977</v>
+        <v>0.8438099999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08372</v>
+        <v>1.10465</v>
       </c>
       <c r="C81" t="n">
-        <v>0.853437</v>
+        <v>0.7943789999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.828856</v>
+        <v>0.825472</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07598</v>
+        <v>1.07199</v>
       </c>
       <c r="C82" t="n">
-        <v>0.858815</v>
+        <v>0.762069</v>
       </c>
       <c r="D82" t="n">
-        <v>0.808633</v>
+        <v>0.83178</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.04328</v>
+        <v>1.06857</v>
       </c>
       <c r="C83" t="n">
-        <v>0.829355</v>
+        <v>0.738735</v>
       </c>
       <c r="D83" t="n">
-        <v>0.792396</v>
+        <v>0.790727</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02569</v>
+        <v>1.07332</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8041199999999999</v>
+        <v>0.72473</v>
       </c>
       <c r="D84" t="n">
-        <v>0.754426</v>
+        <v>0.757615</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02882</v>
+        <v>1.05672</v>
       </c>
       <c r="C85" t="n">
-        <v>0.792912</v>
+        <v>0.717224</v>
       </c>
       <c r="D85" t="n">
-        <v>0.748089</v>
+        <v>0.748957</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00985</v>
+        <v>1.0132</v>
       </c>
       <c r="C86" t="n">
-        <v>0.768657</v>
+        <v>0.690113</v>
       </c>
       <c r="D86" t="n">
-        <v>0.726962</v>
+        <v>0.731795</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.986834</v>
+        <v>1.01782</v>
       </c>
       <c r="C87" t="n">
-        <v>0.744686</v>
+        <v>0.681428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7107869999999999</v>
+        <v>0.734314</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.995028</v>
+        <v>0.987274</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7601059999999999</v>
+        <v>0.660739</v>
       </c>
       <c r="D88" t="n">
-        <v>0.685651</v>
+        <v>0.703469</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.966791</v>
+        <v>0.983198</v>
       </c>
       <c r="C89" t="n">
-        <v>0.735677</v>
+        <v>0.6561399999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.690049</v>
+        <v>0.6896330000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.96622</v>
+        <v>0.974016</v>
       </c>
       <c r="C90" t="n">
-        <v>0.726113</v>
+        <v>0.6449319999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.664992</v>
+        <v>0.667573</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.928732</v>
+        <v>0.954505</v>
       </c>
       <c r="C91" t="n">
-        <v>0.693582</v>
+        <v>0.6452870000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.64762</v>
+        <v>0.648725</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.921956</v>
+        <v>0.94371</v>
       </c>
       <c r="C92" t="n">
-        <v>0.689208</v>
+        <v>0.616988</v>
       </c>
       <c r="D92" t="n">
-        <v>0.628336</v>
+        <v>0.642093</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.920584</v>
+        <v>0.92642</v>
       </c>
       <c r="C93" t="n">
-        <v>0.677736</v>
+        <v>0.609571</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6332989999999999</v>
+        <v>0.628794</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.917538</v>
+        <v>0.929958</v>
       </c>
       <c r="C94" t="n">
-        <v>0.96997</v>
+        <v>0.900529</v>
       </c>
       <c r="D94" t="n">
-        <v>0.940481</v>
+        <v>0.950816</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22156</v>
+        <v>1.20865</v>
       </c>
       <c r="C95" t="n">
-        <v>0.947805</v>
+        <v>0.8865229999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.927565</v>
+        <v>0.939422</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.20334</v>
+        <v>1.19884</v>
       </c>
       <c r="C96" t="n">
-        <v>0.963102</v>
+        <v>0.891157</v>
       </c>
       <c r="D96" t="n">
-        <v>0.937418</v>
+        <v>0.92236</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1573</v>
+        <v>1.21042</v>
       </c>
       <c r="C97" t="n">
-        <v>0.936651</v>
+        <v>0.872127</v>
       </c>
       <c r="D97" t="n">
-        <v>0.895475</v>
+        <v>0.918613</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16953</v>
+        <v>1.16981</v>
       </c>
       <c r="C98" t="n">
-        <v>0.935975</v>
+        <v>0.856558</v>
       </c>
       <c r="D98" t="n">
-        <v>0.87178</v>
+        <v>0.870853</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.16541</v>
+        <v>1.14764</v>
       </c>
       <c r="C99" t="n">
-        <v>0.921363</v>
+        <v>0.846931</v>
       </c>
       <c r="D99" t="n">
-        <v>0.88956</v>
+        <v>0.859064</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14072</v>
+        <v>1.13069</v>
       </c>
       <c r="C100" t="n">
-        <v>0.872497</v>
+        <v>0.821794</v>
       </c>
       <c r="D100" t="n">
-        <v>0.854982</v>
+        <v>0.841878</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.14736</v>
+        <v>1.1266</v>
       </c>
       <c r="C101" t="n">
-        <v>0.864766</v>
+        <v>0.801549</v>
       </c>
       <c r="D101" t="n">
-        <v>0.834364</v>
+        <v>0.839018</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.11601</v>
+        <v>1.13388</v>
       </c>
       <c r="C102" t="n">
-        <v>0.881916</v>
+        <v>0.794874</v>
       </c>
       <c r="D102" t="n">
-        <v>0.815399</v>
+        <v>0.816629</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09335</v>
+        <v>1.09992</v>
       </c>
       <c r="C103" t="n">
-        <v>0.846041</v>
+        <v>0.774598</v>
       </c>
       <c r="D103" t="n">
-        <v>0.792952</v>
+        <v>0.817188</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.10031</v>
+        <v>1.11961</v>
       </c>
       <c r="C104" t="n">
-        <v>0.83819</v>
+        <v>0.773177</v>
       </c>
       <c r="D104" t="n">
-        <v>0.785287</v>
+        <v>0.790021</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08199</v>
+        <v>1.09382</v>
       </c>
       <c r="C105" t="n">
-        <v>0.825363</v>
+        <v>0.761333</v>
       </c>
       <c r="D105" t="n">
-        <v>0.767957</v>
+        <v>0.784555</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05968</v>
+        <v>1.07347</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7982669999999999</v>
+        <v>0.751138</v>
       </c>
       <c r="D106" t="n">
-        <v>0.766006</v>
+        <v>0.764325</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.04133</v>
+        <v>1.0663</v>
       </c>
       <c r="C107" t="n">
-        <v>0.790681</v>
+        <v>0.733436</v>
       </c>
       <c r="D107" t="n">
-        <v>0.749102</v>
+        <v>0.75354</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.0503</v>
+        <v>1.03839</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11705</v>
+        <v>1.06136</v>
       </c>
       <c r="D108" t="n">
-        <v>1.07034</v>
+        <v>1.07716</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.05</v>
+        <v>1.05151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.09816</v>
+        <v>1.0371</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08238</v>
+        <v>1.066</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.37442</v>
+        <v>1.36413</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08048</v>
+        <v>1.03955</v>
       </c>
       <c r="D110" t="n">
-        <v>1.06662</v>
+        <v>1.08816</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.36982</v>
+        <v>1.37241</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09763</v>
+        <v>1.02927</v>
       </c>
       <c r="D111" t="n">
-        <v>1.05233</v>
+        <v>1.06665</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30911</v>
+        <v>1.33864</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07866</v>
+        <v>1.01556</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06027</v>
+        <v>1.07819</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.34447</v>
+        <v>1.31471</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08545</v>
+        <v>1.03029</v>
       </c>
       <c r="D113" t="n">
-        <v>1.02432</v>
+        <v>1.04171</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28583</v>
+        <v>1.3122</v>
       </c>
       <c r="C114" t="n">
-        <v>1.07099</v>
+        <v>1.00808</v>
       </c>
       <c r="D114" t="n">
-        <v>1.02497</v>
+        <v>1.04074</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29003</v>
+        <v>1.33783</v>
       </c>
       <c r="C115" t="n">
-        <v>1.08366</v>
+        <v>0.996818</v>
       </c>
       <c r="D115" t="n">
-        <v>1.03038</v>
+        <v>1.02837</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31004</v>
+        <v>1.28155</v>
       </c>
       <c r="C116" t="n">
-        <v>1.06755</v>
+        <v>1.02294</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02745</v>
+        <v>1.03091</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29363</v>
+        <v>1.29043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05718</v>
+        <v>0.974509</v>
       </c>
       <c r="D117" t="n">
-        <v>0.986692</v>
+        <v>1.0108</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.28392</v>
+        <v>1.26245</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05719</v>
+        <v>0.978962</v>
       </c>
       <c r="D118" t="n">
-        <v>0.982327</v>
+        <v>0.999099</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.29073</v>
+        <v>1.28156</v>
       </c>
       <c r="C119" t="n">
-        <v>1.07071</v>
+        <v>0.975335</v>
       </c>
       <c r="D119" t="n">
-        <v>0.985957</v>
+        <v>0.987616</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.25504</v>
+        <v>1.28871</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03606</v>
+        <v>0.978459</v>
       </c>
       <c r="D120" t="n">
-        <v>0.980123</v>
+        <v>0.976041</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.2557</v>
+        <v>1.25227</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04686</v>
+        <v>0.977069</v>
       </c>
       <c r="D121" t="n">
-        <v>0.968234</v>
+        <v>0.987693</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2646</v>
+        <v>1.29057</v>
       </c>
       <c r="C122" t="n">
-        <v>1.03982</v>
+        <v>0.978162</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9779679999999999</v>
+        <v>1.00604</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.26158</v>
+        <v>1.25999</v>
       </c>
       <c r="C123" t="n">
-        <v>1.39467</v>
+        <v>1.31158</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29637</v>
+        <v>1.32432</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.54356</v>
+        <v>1.60051</v>
       </c>
       <c r="C124" t="n">
-        <v>1.36031</v>
+        <v>1.29928</v>
       </c>
       <c r="D124" t="n">
-        <v>1.29648</v>
+        <v>1.31834</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.54599</v>
+        <v>1.58244</v>
       </c>
       <c r="C125" t="n">
-        <v>1.36577</v>
+        <v>1.30277</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33609</v>
+        <v>1.3177</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.58096</v>
+        <v>1.55669</v>
       </c>
       <c r="C126" t="n">
-        <v>1.36334</v>
+        <v>1.31205</v>
       </c>
       <c r="D126" t="n">
-        <v>1.29888</v>
+        <v>1.34334</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55972</v>
+        <v>1.57263</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36513</v>
+        <v>1.29377</v>
       </c>
       <c r="D127" t="n">
-        <v>1.28403</v>
+        <v>1.32928</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.55833</v>
+        <v>1.56237</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3764</v>
+        <v>1.29512</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30009</v>
+        <v>1.32749</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55151</v>
+        <v>1.56019</v>
       </c>
       <c r="C129" t="n">
-        <v>1.39351</v>
+        <v>1.30981</v>
       </c>
       <c r="D129" t="n">
-        <v>1.31965</v>
+        <v>1.31239</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.5572</v>
+        <v>1.54656</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3892</v>
+        <v>1.291</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30849</v>
+        <v>1.31659</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.56878</v>
+        <v>1.56698</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39105</v>
+        <v>1.34583</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30891</v>
+        <v>1.32637</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.53835</v>
+        <v>1.56033</v>
       </c>
       <c r="C132" t="n">
-        <v>1.4041</v>
+        <v>1.31603</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31136</v>
+        <v>1.32664</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55285</v>
+        <v>1.57592</v>
       </c>
       <c r="C133" t="n">
-        <v>1.39592</v>
+        <v>1.32775</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30275</v>
+        <v>1.32667</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.5365</v>
+        <v>1.56258</v>
       </c>
       <c r="C134" t="n">
-        <v>1.39314</v>
+        <v>1.31292</v>
       </c>
       <c r="D134" t="n">
-        <v>1.295</v>
+        <v>1.32937</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.51951</v>
+        <v>1.53586</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41767</v>
+        <v>1.31365</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30421</v>
+        <v>1.31909</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.54894</v>
+        <v>1.5641</v>
       </c>
       <c r="C136" t="n">
-        <v>1.41993</v>
+        <v>1.31502</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31834</v>
+        <v>1.29028</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.5447</v>
+        <v>1.56269</v>
       </c>
       <c r="C137" t="n">
-        <v>1.73482</v>
+        <v>1.65726</v>
       </c>
       <c r="D137" t="n">
-        <v>1.63916</v>
+        <v>1.66037</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.86765</v>
+        <v>1.88306</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71329</v>
+        <v>1.66575</v>
       </c>
       <c r="D138" t="n">
-        <v>1.6147</v>
+        <v>1.68023</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.78426</v>
+        <v>1.88474</v>
       </c>
       <c r="C139" t="n">
-        <v>1.6719</v>
+        <v>1.66481</v>
       </c>
       <c r="D139" t="n">
-        <v>1.59266</v>
+        <v>1.67184</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.77515</v>
+        <v>1.86759</v>
       </c>
       <c r="C140" t="n">
-        <v>1.68203</v>
+        <v>1.67436</v>
       </c>
       <c r="D140" t="n">
-        <v>1.63703</v>
+        <v>1.68032</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.80623</v>
+        <v>1.863</v>
       </c>
       <c r="C141" t="n">
-        <v>1.68968</v>
+        <v>1.66517</v>
       </c>
       <c r="D141" t="n">
-        <v>1.61727</v>
+        <v>1.6857</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.77321</v>
+        <v>1.85518</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67774</v>
+        <v>1.66733</v>
       </c>
       <c r="D142" t="n">
-        <v>1.59587</v>
+        <v>1.68447</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.75353</v>
+        <v>1.86516</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69572</v>
+        <v>1.69576</v>
       </c>
       <c r="D143" t="n">
-        <v>1.60564</v>
+        <v>1.6759</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.498882</v>
+        <v>0.517585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.217678</v>
+        <v>0.229261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23842</v>
+        <v>0.248842</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.42845</v>
+        <v>0.440551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219969</v>
+        <v>0.221276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241604</v>
+        <v>0.247635</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.429688</v>
+        <v>0.448505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.210344</v>
+        <v>0.220305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237477</v>
+        <v>0.242629</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.436754</v>
+        <v>0.428055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207483</v>
+        <v>0.206084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.229017</v>
+        <v>0.238936</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418955</v>
+        <v>0.426845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206808</v>
+        <v>0.207522</v>
       </c>
       <c r="D6" t="n">
-        <v>0.220773</v>
+        <v>0.231472</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.426525</v>
+        <v>0.414516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204615</v>
+        <v>0.199565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21698</v>
+        <v>0.228261</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.420005</v>
+        <v>0.412132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.203955</v>
+        <v>0.202774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212821</v>
+        <v>0.227772</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.408384</v>
+        <v>0.4111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278598</v>
+        <v>0.29141</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30192</v>
+        <v>0.323614</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.491131</v>
+        <v>0.508787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276871</v>
+        <v>0.27935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305691</v>
+        <v>0.318385</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.488138</v>
+        <v>0.497701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.271808</v>
+        <v>0.269427</v>
       </c>
       <c r="D11" t="n">
-        <v>0.289509</v>
+        <v>0.304366</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.475775</v>
+        <v>0.47156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.262976</v>
+        <v>0.255011</v>
       </c>
       <c r="D12" t="n">
-        <v>0.280763</v>
+        <v>0.293968</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.471503</v>
+        <v>0.493945</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253818</v>
+        <v>0.256831</v>
       </c>
       <c r="D13" t="n">
-        <v>0.273421</v>
+        <v>0.285149</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.449022</v>
+        <v>0.474198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245445</v>
+        <v>0.248927</v>
       </c>
       <c r="D14" t="n">
-        <v>0.267523</v>
+        <v>0.283007</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.461681</v>
+        <v>0.458667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231641</v>
+        <v>0.233336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.256109</v>
+        <v>0.274467</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4506</v>
+        <v>0.450489</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226401</v>
+        <v>0.226081</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251861</v>
+        <v>0.261297</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.445075</v>
+        <v>0.441535</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222575</v>
+        <v>0.220729</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243236</v>
+        <v>0.255075</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429007</v>
+        <v>0.436546</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218002</v>
+        <v>0.220627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23648</v>
+        <v>0.249957</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.437291</v>
+        <v>0.440053</v>
       </c>
       <c r="C19" t="n">
-        <v>0.212994</v>
+        <v>0.210456</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237282</v>
+        <v>0.246382</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.423942</v>
+        <v>0.43393</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207943</v>
+        <v>0.210625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231078</v>
+        <v>0.242948</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.425129</v>
+        <v>0.424428</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208867</v>
+        <v>0.204361</v>
       </c>
       <c r="D21" t="n">
-        <v>0.227188</v>
+        <v>0.242565</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.413797</v>
+        <v>0.427163</v>
       </c>
       <c r="C22" t="n">
-        <v>0.203404</v>
+        <v>0.20515</v>
       </c>
       <c r="D22" t="n">
-        <v>0.227019</v>
+        <v>0.238438</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.410345</v>
+        <v>0.428557</v>
       </c>
       <c r="C23" t="n">
-        <v>0.44387</v>
+        <v>0.443566</v>
       </c>
       <c r="D23" t="n">
-        <v>0.563041</v>
+        <v>0.338183</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.657772</v>
+        <v>0.662848</v>
       </c>
       <c r="C24" t="n">
-        <v>0.437597</v>
+        <v>0.428033</v>
       </c>
       <c r="D24" t="n">
-        <v>0.543849</v>
+        <v>0.327719</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6349320000000001</v>
+        <v>0.651498</v>
       </c>
       <c r="C25" t="n">
-        <v>0.412937</v>
+        <v>0.411054</v>
       </c>
       <c r="D25" t="n">
-        <v>0.519061</v>
+        <v>0.320334</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.63556</v>
+        <v>0.643903</v>
       </c>
       <c r="C26" t="n">
-        <v>0.403205</v>
+        <v>0.396087</v>
       </c>
       <c r="D26" t="n">
-        <v>0.494808</v>
+        <v>0.313351</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.629283</v>
+        <v>0.623759</v>
       </c>
       <c r="C27" t="n">
-        <v>0.385281</v>
+        <v>0.383019</v>
       </c>
       <c r="D27" t="n">
-        <v>0.490259</v>
+        <v>0.305608</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.615317</v>
+        <v>0.608216</v>
       </c>
       <c r="C28" t="n">
-        <v>0.383683</v>
+        <v>0.373158</v>
       </c>
       <c r="D28" t="n">
-        <v>0.467025</v>
+        <v>0.292607</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.598174</v>
+        <v>0.589134</v>
       </c>
       <c r="C29" t="n">
-        <v>0.361818</v>
+        <v>0.36049</v>
       </c>
       <c r="D29" t="n">
-        <v>0.45154</v>
+        <v>0.292762</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.59339</v>
+        <v>0.59213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.357131</v>
+        <v>0.353418</v>
       </c>
       <c r="D30" t="n">
-        <v>0.439578</v>
+        <v>0.282818</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.568956</v>
+        <v>0.584005</v>
       </c>
       <c r="C31" t="n">
-        <v>0.337797</v>
+        <v>0.344195</v>
       </c>
       <c r="D31" t="n">
-        <v>0.426626</v>
+        <v>0.279953</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.555403</v>
+        <v>0.561979</v>
       </c>
       <c r="C32" t="n">
-        <v>0.332387</v>
+        <v>0.330379</v>
       </c>
       <c r="D32" t="n">
-        <v>0.417923</v>
+        <v>0.272297</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.539002</v>
+        <v>0.542201</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31597</v>
+        <v>0.316748</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395009</v>
+        <v>0.265718</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.542142</v>
+        <v>0.541789</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311237</v>
+        <v>0.312504</v>
       </c>
       <c r="D34" t="n">
-        <v>0.386449</v>
+        <v>0.262673</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.523174</v>
+        <v>0.5340279999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.299562</v>
+        <v>0.303993</v>
       </c>
       <c r="D35" t="n">
-        <v>0.378542</v>
+        <v>0.258694</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.528462</v>
+        <v>0.51952</v>
       </c>
       <c r="C36" t="n">
-        <v>0.293956</v>
+        <v>0.295106</v>
       </c>
       <c r="D36" t="n">
-        <v>0.369627</v>
+        <v>0.254516</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.516109</v>
+        <v>0.522545</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5692199999999999</v>
+        <v>0.56845</v>
       </c>
       <c r="D37" t="n">
-        <v>0.640585</v>
+        <v>0.530613</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.769587</v>
+        <v>0.83531</v>
       </c>
       <c r="C38" t="n">
-        <v>0.529112</v>
+        <v>0.545726</v>
       </c>
       <c r="D38" t="n">
-        <v>0.615856</v>
+        <v>0.524996</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7568279999999999</v>
+        <v>0.811111</v>
       </c>
       <c r="C39" t="n">
-        <v>0.516112</v>
+        <v>0.546011</v>
       </c>
       <c r="D39" t="n">
-        <v>0.599074</v>
+        <v>0.496815</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.744866</v>
+        <v>0.773499</v>
       </c>
       <c r="C40" t="n">
-        <v>0.488676</v>
+        <v>0.555409</v>
       </c>
       <c r="D40" t="n">
-        <v>0.575636</v>
+        <v>0.482075</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.736256</v>
+        <v>0.745712</v>
       </c>
       <c r="C41" t="n">
-        <v>0.481581</v>
+        <v>0.5018319999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.546235</v>
+        <v>0.484462</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.739398</v>
+        <v>0.980155</v>
       </c>
       <c r="C42" t="n">
-        <v>0.460995</v>
+        <v>0.478628</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5409310000000001</v>
+        <v>0.452171</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.685898</v>
+        <v>0.721935</v>
       </c>
       <c r="C43" t="n">
-        <v>0.443768</v>
+        <v>0.715496</v>
       </c>
       <c r="D43" t="n">
-        <v>0.506032</v>
+        <v>0.4561</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6664330000000001</v>
+        <v>0.683947</v>
       </c>
       <c r="C44" t="n">
-        <v>0.430363</v>
+        <v>0.455609</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5072990000000001</v>
+        <v>0.454325</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.66697</v>
+        <v>0.688425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.416357</v>
+        <v>0.49868</v>
       </c>
       <c r="D45" t="n">
-        <v>0.483111</v>
+        <v>0.39859</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.66216</v>
+        <v>0.639796</v>
       </c>
       <c r="C46" t="n">
-        <v>0.400566</v>
+        <v>0.409339</v>
       </c>
       <c r="D46" t="n">
-        <v>0.462025</v>
+        <v>0.390891</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636888</v>
+        <v>0.625559</v>
       </c>
       <c r="C47" t="n">
-        <v>0.387657</v>
+        <v>0.38742</v>
       </c>
       <c r="D47" t="n">
-        <v>0.458928</v>
+        <v>0.390121</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.626254</v>
+        <v>0.628525</v>
       </c>
       <c r="C48" t="n">
-        <v>0.37489</v>
+        <v>0.365894</v>
       </c>
       <c r="D48" t="n">
-        <v>0.440098</v>
+        <v>0.373136</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.604128</v>
+        <v>0.612522</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370182</v>
+        <v>0.369737</v>
       </c>
       <c r="D49" t="n">
-        <v>0.426361</v>
+        <v>0.358088</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.599467</v>
+        <v>0.590256</v>
       </c>
       <c r="C50" t="n">
-        <v>0.354879</v>
+        <v>0.354348</v>
       </c>
       <c r="D50" t="n">
-        <v>0.412118</v>
+        <v>0.356422</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5826750000000001</v>
+        <v>0.583717</v>
       </c>
       <c r="C51" t="n">
-        <v>0.621373</v>
+        <v>0.61963</v>
       </c>
       <c r="D51" t="n">
-        <v>0.678091</v>
+        <v>0.625949</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.584325</v>
+        <v>0.564223</v>
       </c>
       <c r="C52" t="n">
-        <v>0.590772</v>
+        <v>0.601216</v>
       </c>
       <c r="D52" t="n">
-        <v>0.680794</v>
+        <v>0.619041</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.872297</v>
+        <v>0.8476359999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.59019</v>
+        <v>0.584878</v>
       </c>
       <c r="D53" t="n">
-        <v>0.638697</v>
+        <v>0.601894</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.82975</v>
+        <v>0.827243</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5718529999999999</v>
+        <v>0.558742</v>
       </c>
       <c r="D54" t="n">
-        <v>0.622256</v>
+        <v>0.574218</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.823327</v>
+        <v>0.810974</v>
       </c>
       <c r="C55" t="n">
-        <v>0.564848</v>
+        <v>0.541741</v>
       </c>
       <c r="D55" t="n">
-        <v>0.609142</v>
+        <v>0.5606449999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.815126</v>
+        <v>0.799319</v>
       </c>
       <c r="C56" t="n">
-        <v>0.532173</v>
+        <v>0.525251</v>
       </c>
       <c r="D56" t="n">
-        <v>0.581577</v>
+        <v>0.5458769999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.779121</v>
+        <v>0.783999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.514348</v>
+        <v>0.511173</v>
       </c>
       <c r="D57" t="n">
-        <v>0.571902</v>
+        <v>0.535208</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.780763</v>
+        <v>0.769344</v>
       </c>
       <c r="C58" t="n">
-        <v>0.496195</v>
+        <v>0.489259</v>
       </c>
       <c r="D58" t="n">
-        <v>0.560413</v>
+        <v>0.515745</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.756474</v>
+        <v>0.746094</v>
       </c>
       <c r="C59" t="n">
-        <v>0.487816</v>
+        <v>0.482537</v>
       </c>
       <c r="D59" t="n">
-        <v>0.538034</v>
+        <v>0.50301</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.738771</v>
+        <v>0.742765</v>
       </c>
       <c r="C60" t="n">
-        <v>0.469926</v>
+        <v>0.464493</v>
       </c>
       <c r="D60" t="n">
-        <v>0.522322</v>
+        <v>0.48982</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.736084</v>
+        <v>0.726862</v>
       </c>
       <c r="C61" t="n">
-        <v>0.461738</v>
+        <v>0.457694</v>
       </c>
       <c r="D61" t="n">
-        <v>0.508103</v>
+        <v>0.472115</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.738242</v>
+        <v>0.706364</v>
       </c>
       <c r="C62" t="n">
-        <v>0.444589</v>
+        <v>0.446914</v>
       </c>
       <c r="D62" t="n">
-        <v>0.483528</v>
+        <v>0.460561</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.71111</v>
+        <v>0.709328</v>
       </c>
       <c r="C63" t="n">
-        <v>0.442731</v>
+        <v>0.429123</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478034</v>
+        <v>0.44281</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.723848</v>
+        <v>0.7006</v>
       </c>
       <c r="C64" t="n">
-        <v>0.435204</v>
+        <v>0.422917</v>
       </c>
       <c r="D64" t="n">
-        <v>0.468964</v>
+        <v>0.441574</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7138409999999999</v>
+        <v>0.690387</v>
       </c>
       <c r="C65" t="n">
-        <v>0.426963</v>
+        <v>0.419205</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460505</v>
+        <v>0.435618</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.678991</v>
+        <v>0.679273</v>
       </c>
       <c r="C66" t="n">
-        <v>0.691349</v>
+        <v>0.679956</v>
       </c>
       <c r="D66" t="n">
-        <v>0.72483</v>
+        <v>0.705523</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.967334</v>
+        <v>0.953538</v>
       </c>
       <c r="C67" t="n">
-        <v>0.670094</v>
+        <v>0.660076</v>
       </c>
       <c r="D67" t="n">
-        <v>0.712744</v>
+        <v>0.671805</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.95563</v>
+        <v>0.94175</v>
       </c>
       <c r="C68" t="n">
-        <v>0.658915</v>
+        <v>0.633986</v>
       </c>
       <c r="D68" t="n">
-        <v>0.688658</v>
+        <v>0.669106</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.932013</v>
+        <v>0.929999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.630955</v>
+        <v>0.627059</v>
       </c>
       <c r="D69" t="n">
-        <v>0.677364</v>
+        <v>0.646997</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.926065</v>
+        <v>0.8989509999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.620617</v>
+        <v>0.619478</v>
       </c>
       <c r="D70" t="n">
-        <v>0.650542</v>
+        <v>0.635754</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.910385</v>
+        <v>0.905783</v>
       </c>
       <c r="C71" t="n">
-        <v>0.597293</v>
+        <v>0.592677</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6390439999999999</v>
+        <v>0.608163</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.886446</v>
+        <v>0.903276</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5938330000000001</v>
+        <v>0.568098</v>
       </c>
       <c r="D72" t="n">
-        <v>0.618384</v>
+        <v>0.588742</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.866847</v>
+        <v>0.851909</v>
       </c>
       <c r="C73" t="n">
-        <v>0.585359</v>
+        <v>0.574456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.604035</v>
+        <v>0.5779570000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.860849</v>
+        <v>0.870611</v>
       </c>
       <c r="C74" t="n">
-        <v>0.552037</v>
+        <v>0.547601</v>
       </c>
       <c r="D74" t="n">
-        <v>0.596698</v>
+        <v>0.569933</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8427480000000001</v>
+        <v>0.8556319999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543938</v>
+        <v>0.553504</v>
       </c>
       <c r="D75" t="n">
-        <v>0.586919</v>
+        <v>0.5500350000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8211889999999999</v>
+        <v>0.818298</v>
       </c>
       <c r="C76" t="n">
-        <v>0.526955</v>
+        <v>0.5182</v>
       </c>
       <c r="D76" t="n">
-        <v>0.565408</v>
+        <v>0.5430430000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.814907</v>
+        <v>0.812393</v>
       </c>
       <c r="C77" t="n">
-        <v>0.51742</v>
+        <v>0.517732</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5381359999999999</v>
+        <v>0.531151</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.803271</v>
+        <v>0.796915</v>
       </c>
       <c r="C78" t="n">
-        <v>0.509661</v>
+        <v>0.501231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.535534</v>
+        <v>0.517039</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.812944</v>
+        <v>0.7919079999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.497711</v>
+        <v>0.511879</v>
       </c>
       <c r="D79" t="n">
-        <v>0.524177</v>
+        <v>0.511415</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.79404</v>
+        <v>0.775291</v>
       </c>
       <c r="C80" t="n">
-        <v>0.804749</v>
+        <v>0.7967379999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8438099999999999</v>
+        <v>0.829827</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10465</v>
+        <v>1.08541</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7943789999999999</v>
+        <v>0.774877</v>
       </c>
       <c r="D81" t="n">
-        <v>0.825472</v>
+        <v>0.828506</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07199</v>
+        <v>1.05739</v>
       </c>
       <c r="C82" t="n">
-        <v>0.762069</v>
+        <v>0.769617</v>
       </c>
       <c r="D82" t="n">
-        <v>0.83178</v>
+        <v>0.792005</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.06857</v>
+        <v>1.08022</v>
       </c>
       <c r="C83" t="n">
-        <v>0.738735</v>
+        <v>0.740538</v>
       </c>
       <c r="D83" t="n">
-        <v>0.790727</v>
+        <v>0.766266</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.07332</v>
+        <v>1.05063</v>
       </c>
       <c r="C84" t="n">
-        <v>0.72473</v>
+        <v>0.715726</v>
       </c>
       <c r="D84" t="n">
-        <v>0.757615</v>
+        <v>0.749896</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05672</v>
+        <v>1.0296</v>
       </c>
       <c r="C85" t="n">
-        <v>0.717224</v>
+        <v>0.70583</v>
       </c>
       <c r="D85" t="n">
-        <v>0.748957</v>
+        <v>0.740193</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.0132</v>
+        <v>1.03084</v>
       </c>
       <c r="C86" t="n">
-        <v>0.690113</v>
+        <v>0.688186</v>
       </c>
       <c r="D86" t="n">
-        <v>0.731795</v>
+        <v>0.722583</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01782</v>
+        <v>1.01868</v>
       </c>
       <c r="C87" t="n">
-        <v>0.681428</v>
+        <v>0.663324</v>
       </c>
       <c r="D87" t="n">
-        <v>0.734314</v>
+        <v>0.707348</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.987274</v>
+        <v>0.971932</v>
       </c>
       <c r="C88" t="n">
-        <v>0.660739</v>
+        <v>0.649033</v>
       </c>
       <c r="D88" t="n">
-        <v>0.703469</v>
+        <v>0.704146</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.983198</v>
+        <v>0.996638</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6561399999999999</v>
+        <v>0.638989</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6896330000000001</v>
+        <v>0.668539</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.974016</v>
+        <v>0.959035</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6449319999999999</v>
+        <v>0.629078</v>
       </c>
       <c r="D90" t="n">
-        <v>0.667573</v>
+        <v>0.667544</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.954505</v>
+        <v>0.937361</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6452870000000001</v>
+        <v>0.6300249999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.648725</v>
+        <v>0.645512</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.94371</v>
+        <v>0.925782</v>
       </c>
       <c r="C92" t="n">
-        <v>0.616988</v>
+        <v>0.610297</v>
       </c>
       <c r="D92" t="n">
-        <v>0.642093</v>
+        <v>0.636884</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.92642</v>
+        <v>0.904596</v>
       </c>
       <c r="C93" t="n">
-        <v>0.609571</v>
+        <v>0.606564</v>
       </c>
       <c r="D93" t="n">
-        <v>0.628794</v>
+        <v>0.621876</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.929958</v>
+        <v>0.901655</v>
       </c>
       <c r="C94" t="n">
-        <v>0.900529</v>
+        <v>0.914118</v>
       </c>
       <c r="D94" t="n">
-        <v>0.950816</v>
+        <v>0.939479</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20865</v>
+        <v>1.2596</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8865229999999999</v>
+        <v>0.886309</v>
       </c>
       <c r="D95" t="n">
-        <v>0.939422</v>
+        <v>0.92886</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19884</v>
+        <v>1.17353</v>
       </c>
       <c r="C96" t="n">
-        <v>0.891157</v>
+        <v>0.861385</v>
       </c>
       <c r="D96" t="n">
-        <v>0.92236</v>
+        <v>0.905399</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21042</v>
+        <v>1.1727</v>
       </c>
       <c r="C97" t="n">
-        <v>0.872127</v>
+        <v>0.859241</v>
       </c>
       <c r="D97" t="n">
-        <v>0.918613</v>
+        <v>0.901484</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16981</v>
+        <v>1.1643</v>
       </c>
       <c r="C98" t="n">
-        <v>0.856558</v>
+        <v>0.856066</v>
       </c>
       <c r="D98" t="n">
-        <v>0.870853</v>
+        <v>0.873573</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14764</v>
+        <v>1.14052</v>
       </c>
       <c r="C99" t="n">
-        <v>0.846931</v>
+        <v>0.8395550000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.859064</v>
+        <v>0.882024</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13069</v>
+        <v>1.14244</v>
       </c>
       <c r="C100" t="n">
-        <v>0.821794</v>
+        <v>0.820253</v>
       </c>
       <c r="D100" t="n">
-        <v>0.841878</v>
+        <v>0.838538</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1266</v>
+        <v>1.13575</v>
       </c>
       <c r="C101" t="n">
-        <v>0.801549</v>
+        <v>0.784545</v>
       </c>
       <c r="D101" t="n">
-        <v>0.839018</v>
+        <v>0.8304820000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.13388</v>
+        <v>1.10791</v>
       </c>
       <c r="C102" t="n">
-        <v>0.794874</v>
+        <v>0.786431</v>
       </c>
       <c r="D102" t="n">
-        <v>0.816629</v>
+        <v>0.803335</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09992</v>
+        <v>1.10933</v>
       </c>
       <c r="C103" t="n">
-        <v>0.774598</v>
+        <v>0.773049</v>
       </c>
       <c r="D103" t="n">
-        <v>0.817188</v>
+        <v>0.788094</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.11961</v>
+        <v>1.07221</v>
       </c>
       <c r="C104" t="n">
-        <v>0.773177</v>
+        <v>0.740858</v>
       </c>
       <c r="D104" t="n">
-        <v>0.790021</v>
+        <v>0.778155</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.09382</v>
+        <v>1.08429</v>
       </c>
       <c r="C105" t="n">
-        <v>0.761333</v>
+        <v>0.76735</v>
       </c>
       <c r="D105" t="n">
-        <v>0.784555</v>
+        <v>0.774423</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.07347</v>
+        <v>1.08347</v>
       </c>
       <c r="C106" t="n">
-        <v>0.751138</v>
+        <v>0.732603</v>
       </c>
       <c r="D106" t="n">
-        <v>0.764325</v>
+        <v>0.749417</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0663</v>
+        <v>1.04003</v>
       </c>
       <c r="C107" t="n">
-        <v>0.733436</v>
+        <v>0.73737</v>
       </c>
       <c r="D107" t="n">
-        <v>0.75354</v>
+        <v>0.77346</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.03839</v>
+        <v>1.03497</v>
       </c>
       <c r="C108" t="n">
-        <v>1.06136</v>
+        <v>1.04057</v>
       </c>
       <c r="D108" t="n">
-        <v>1.07716</v>
+        <v>1.07095</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.05151</v>
+        <v>1.02046</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0371</v>
+        <v>1.03483</v>
       </c>
       <c r="D109" t="n">
-        <v>1.066</v>
+        <v>1.07395</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36413</v>
+        <v>1.3586</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03955</v>
+        <v>1.04894</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08816</v>
+        <v>1.07002</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37241</v>
+        <v>1.34661</v>
       </c>
       <c r="C111" t="n">
-        <v>1.02927</v>
+        <v>1.0288</v>
       </c>
       <c r="D111" t="n">
-        <v>1.06665</v>
+        <v>1.04307</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33864</v>
+        <v>1.32746</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01556</v>
+        <v>1.01469</v>
       </c>
       <c r="D112" t="n">
-        <v>1.07819</v>
+        <v>1.06056</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31471</v>
+        <v>1.33616</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03029</v>
+        <v>1.0072</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04171</v>
+        <v>1.04432</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3122</v>
+        <v>1.30455</v>
       </c>
       <c r="C114" t="n">
-        <v>1.00808</v>
+        <v>1.01198</v>
       </c>
       <c r="D114" t="n">
-        <v>1.04074</v>
+        <v>1.03734</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.33783</v>
+        <v>1.29973</v>
       </c>
       <c r="C115" t="n">
-        <v>0.996818</v>
+        <v>1.00122</v>
       </c>
       <c r="D115" t="n">
-        <v>1.02837</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28155</v>
+        <v>1.28359</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02294</v>
+        <v>0.971507</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03091</v>
+        <v>1.02042</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29043</v>
+        <v>1.28004</v>
       </c>
       <c r="C117" t="n">
-        <v>0.974509</v>
+        <v>0.981716</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0108</v>
+        <v>1.02736</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.26245</v>
+        <v>1.28946</v>
       </c>
       <c r="C118" t="n">
-        <v>0.978962</v>
+        <v>0.999651</v>
       </c>
       <c r="D118" t="n">
-        <v>0.999099</v>
+        <v>0.988787</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28156</v>
+        <v>1.27539</v>
       </c>
       <c r="C119" t="n">
-        <v>0.975335</v>
+        <v>0.972839</v>
       </c>
       <c r="D119" t="n">
-        <v>0.987616</v>
+        <v>0.99557</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.28871</v>
+        <v>1.2579</v>
       </c>
       <c r="C120" t="n">
-        <v>0.978459</v>
+        <v>0.963008</v>
       </c>
       <c r="D120" t="n">
-        <v>0.976041</v>
+        <v>0.989453</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.25227</v>
+        <v>1.25046</v>
       </c>
       <c r="C121" t="n">
-        <v>0.977069</v>
+        <v>0.964894</v>
       </c>
       <c r="D121" t="n">
-        <v>0.987693</v>
+        <v>0.979725</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.29057</v>
+        <v>1.25852</v>
       </c>
       <c r="C122" t="n">
-        <v>0.978162</v>
+        <v>0.964342</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00604</v>
+        <v>0.9749910000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.25999</v>
+        <v>1.25165</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31158</v>
+        <v>1.3102</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32432</v>
+        <v>1.29738</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.60051</v>
+        <v>1.58226</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29928</v>
+        <v>1.27292</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31834</v>
+        <v>1.31266</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58244</v>
+        <v>1.57684</v>
       </c>
       <c r="C125" t="n">
-        <v>1.30277</v>
+        <v>1.30388</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3177</v>
+        <v>1.30839</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.55669</v>
+        <v>1.56449</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31205</v>
+        <v>1.32263</v>
       </c>
       <c r="D126" t="n">
-        <v>1.34334</v>
+        <v>1.315</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57263</v>
+        <v>1.56408</v>
       </c>
       <c r="C127" t="n">
-        <v>1.29377</v>
+        <v>1.32018</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32928</v>
+        <v>1.30314</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.56237</v>
+        <v>1.53397</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29512</v>
+        <v>1.29502</v>
       </c>
       <c r="D128" t="n">
-        <v>1.32749</v>
+        <v>1.30843</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.56019</v>
+        <v>1.55952</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30981</v>
+        <v>1.31031</v>
       </c>
       <c r="D129" t="n">
-        <v>1.31239</v>
+        <v>1.34661</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.54656</v>
+        <v>1.54119</v>
       </c>
       <c r="C130" t="n">
-        <v>1.291</v>
+        <v>1.29461</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31659</v>
+        <v>1.31977</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.56698</v>
+        <v>1.54726</v>
       </c>
       <c r="C131" t="n">
-        <v>1.34583</v>
+        <v>1.30052</v>
       </c>
       <c r="D131" t="n">
-        <v>1.32637</v>
+        <v>1.31293</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.56033</v>
+        <v>1.55126</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31603</v>
+        <v>1.31188</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32664</v>
+        <v>1.32721</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.57592</v>
+        <v>1.53427</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32775</v>
+        <v>1.30188</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32667</v>
+        <v>1.33021</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.56258</v>
+        <v>1.54551</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31292</v>
+        <v>1.32055</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32937</v>
+        <v>1.32169</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.53586</v>
+        <v>1.55877</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31365</v>
+        <v>1.29664</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31909</v>
+        <v>1.29864</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.5641</v>
+        <v>1.5444</v>
       </c>
       <c r="C136" t="n">
-        <v>1.31502</v>
+        <v>1.32894</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29028</v>
+        <v>1.32012</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.56269</v>
+        <v>1.57176</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65726</v>
+        <v>1.63235</v>
       </c>
       <c r="D137" t="n">
-        <v>1.66037</v>
+        <v>1.64629</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.88306</v>
+        <v>1.89035</v>
       </c>
       <c r="C138" t="n">
-        <v>1.66575</v>
+        <v>1.6403</v>
       </c>
       <c r="D138" t="n">
-        <v>1.68023</v>
+        <v>1.66186</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.88474</v>
+        <v>1.8822</v>
       </c>
       <c r="C139" t="n">
-        <v>1.66481</v>
+        <v>1.66465</v>
       </c>
       <c r="D139" t="n">
-        <v>1.67184</v>
+        <v>1.66506</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.86759</v>
+        <v>1.87073</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67436</v>
+        <v>1.62839</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68032</v>
+        <v>1.68123</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.863</v>
+        <v>1.86606</v>
       </c>
       <c r="C141" t="n">
-        <v>1.66517</v>
+        <v>1.67562</v>
       </c>
       <c r="D141" t="n">
-        <v>1.6857</v>
+        <v>1.6459</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.85518</v>
+        <v>1.87285</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66733</v>
+        <v>1.67385</v>
       </c>
       <c r="D142" t="n">
-        <v>1.68447</v>
+        <v>1.6723</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.86516</v>
+        <v>1.84929</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69576</v>
+        <v>1.67812</v>
       </c>
       <c r="D143" t="n">
-        <v>1.6759</v>
+        <v>1.66729</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.517585</v>
+        <v>0.578846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229261</v>
+        <v>0.236174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248842</v>
+        <v>0.857353</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.440551</v>
+        <v>0.433314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221276</v>
+        <v>0.226976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247635</v>
+        <v>0.857789</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.448505</v>
+        <v>0.448647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220305</v>
+        <v>0.224432</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242629</v>
+        <v>0.850776</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428055</v>
+        <v>0.430475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206084</v>
+        <v>0.222421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238936</v>
+        <v>0.842102</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426845</v>
+        <v>0.423801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207522</v>
+        <v>0.210834</v>
       </c>
       <c r="D6" t="n">
-        <v>0.231472</v>
+        <v>0.81659</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414516</v>
+        <v>0.413902</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199565</v>
+        <v>0.204689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228261</v>
+        <v>0.955525</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.412132</v>
+        <v>0.405433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.202774</v>
+        <v>0.201401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.227772</v>
+        <v>0.970388</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4111</v>
+        <v>0.416014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29141</v>
+        <v>0.298239</v>
       </c>
       <c r="D9" t="n">
-        <v>0.323614</v>
+        <v>0.93985</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.508787</v>
+        <v>0.507058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27935</v>
+        <v>0.274055</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318385</v>
+        <v>0.950103</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.497701</v>
+        <v>0.489104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.269427</v>
+        <v>0.269335</v>
       </c>
       <c r="D11" t="n">
-        <v>0.304366</v>
+        <v>0.915015</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.47156</v>
+        <v>0.481321</v>
       </c>
       <c r="C12" t="n">
-        <v>0.255011</v>
+        <v>0.256776</v>
       </c>
       <c r="D12" t="n">
-        <v>0.293968</v>
+        <v>0.902132</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.493945</v>
+        <v>0.47028</v>
       </c>
       <c r="C13" t="n">
-        <v>0.256831</v>
+        <v>0.250987</v>
       </c>
       <c r="D13" t="n">
-        <v>0.285149</v>
+        <v>0.900498</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.474198</v>
+        <v>0.470926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.248927</v>
+        <v>0.24923</v>
       </c>
       <c r="D14" t="n">
-        <v>0.283007</v>
+        <v>0.865646</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.458667</v>
+        <v>0.458486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233336</v>
+        <v>0.236183</v>
       </c>
       <c r="D15" t="n">
-        <v>0.274467</v>
+        <v>0.890935</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.450489</v>
+        <v>0.460793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226081</v>
+        <v>0.234445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.261297</v>
+        <v>0.848441</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441535</v>
+        <v>0.439309</v>
       </c>
       <c r="C17" t="n">
-        <v>0.220729</v>
+        <v>0.224971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255075</v>
+        <v>0.846621</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.436546</v>
+        <v>0.440106</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220627</v>
+        <v>0.219283</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249957</v>
+        <v>0.86229</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440053</v>
+        <v>0.4353</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210456</v>
+        <v>0.213229</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246382</v>
+        <v>0.831541</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43393</v>
+        <v>0.424658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210625</v>
+        <v>0.214555</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242948</v>
+        <v>0.836261</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.424428</v>
+        <v>0.435446</v>
       </c>
       <c r="C21" t="n">
-        <v>0.204361</v>
+        <v>0.206838</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242565</v>
+        <v>1.01326</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.427163</v>
+        <v>0.427807</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20515</v>
+        <v>0.217154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238438</v>
+        <v>1.00313</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.428557</v>
+        <v>0.437789</v>
       </c>
       <c r="C23" t="n">
-        <v>0.443566</v>
+        <v>0.454361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.338183</v>
+        <v>0.978976</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.662848</v>
+        <v>0.667496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.428033</v>
+        <v>0.431629</v>
       </c>
       <c r="D24" t="n">
-        <v>0.327719</v>
+        <v>0.9695859999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.651498</v>
+        <v>0.652683</v>
       </c>
       <c r="C25" t="n">
-        <v>0.411054</v>
+        <v>0.433695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.320334</v>
+        <v>0.97058</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.643903</v>
+        <v>0.624781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.396087</v>
+        <v>0.412439</v>
       </c>
       <c r="D26" t="n">
-        <v>0.313351</v>
+        <v>0.967692</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.623759</v>
+        <v>0.637622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.383019</v>
+        <v>0.408465</v>
       </c>
       <c r="D27" t="n">
-        <v>0.305608</v>
+        <v>0.939445</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.608216</v>
+        <v>0.626704</v>
       </c>
       <c r="C28" t="n">
-        <v>0.373158</v>
+        <v>0.390768</v>
       </c>
       <c r="D28" t="n">
-        <v>0.292607</v>
+        <v>0.953285</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.589134</v>
+        <v>0.608685</v>
       </c>
       <c r="C29" t="n">
-        <v>0.36049</v>
+        <v>0.373171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292762</v>
+        <v>0.959117</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.59213</v>
+        <v>0.591476</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353418</v>
+        <v>0.362328</v>
       </c>
       <c r="D30" t="n">
-        <v>0.282818</v>
+        <v>0.908264</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.584005</v>
+        <v>0.589033</v>
       </c>
       <c r="C31" t="n">
-        <v>0.344195</v>
+        <v>0.347947</v>
       </c>
       <c r="D31" t="n">
-        <v>0.279953</v>
+        <v>0.917983</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.561979</v>
+        <v>0.58141</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330379</v>
+        <v>0.331918</v>
       </c>
       <c r="D32" t="n">
-        <v>0.272297</v>
+        <v>0.8851869999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.542201</v>
+        <v>0.569105</v>
       </c>
       <c r="C33" t="n">
-        <v>0.316748</v>
+        <v>0.327331</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265718</v>
+        <v>0.949004</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.541789</v>
+        <v>0.552028</v>
       </c>
       <c r="C34" t="n">
-        <v>0.312504</v>
+        <v>0.315193</v>
       </c>
       <c r="D34" t="n">
-        <v>0.262673</v>
+        <v>0.871451</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5340279999999999</v>
+        <v>0.525389</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303993</v>
+        <v>0.312601</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258694</v>
+        <v>1.18024</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51952</v>
+        <v>0.5389350000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.295106</v>
+        <v>0.304003</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254516</v>
+        <v>1.17497</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.522545</v>
+        <v>0.534003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56845</v>
+        <v>0.56682</v>
       </c>
       <c r="D37" t="n">
-        <v>0.530613</v>
+        <v>1.14455</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.83531</v>
+        <v>0.791264</v>
       </c>
       <c r="C38" t="n">
-        <v>0.545726</v>
+        <v>0.54176</v>
       </c>
       <c r="D38" t="n">
-        <v>0.524996</v>
+        <v>1.12956</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.811111</v>
+        <v>0.779016</v>
       </c>
       <c r="C39" t="n">
-        <v>0.546011</v>
+        <v>0.532715</v>
       </c>
       <c r="D39" t="n">
-        <v>0.496815</v>
+        <v>1.08959</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.773499</v>
+        <v>0.775002</v>
       </c>
       <c r="C40" t="n">
-        <v>0.555409</v>
+        <v>0.513368</v>
       </c>
       <c r="D40" t="n">
-        <v>0.482075</v>
+        <v>1.0655</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.745712</v>
+        <v>0.752738</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5018319999999999</v>
+        <v>0.501288</v>
       </c>
       <c r="D41" t="n">
-        <v>0.484462</v>
+        <v>1.06706</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.980155</v>
+        <v>0.752001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.478628</v>
+        <v>0.475102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.452171</v>
+        <v>1.06805</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.721935</v>
+        <v>0.732052</v>
       </c>
       <c r="C43" t="n">
-        <v>0.715496</v>
+        <v>0.457905</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4561</v>
+        <v>1.07808</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.683947</v>
+        <v>0.72306</v>
       </c>
       <c r="C44" t="n">
-        <v>0.455609</v>
+        <v>0.43686</v>
       </c>
       <c r="D44" t="n">
-        <v>0.454325</v>
+        <v>1.05145</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.688425</v>
+        <v>0.669035</v>
       </c>
       <c r="C45" t="n">
-        <v>0.49868</v>
+        <v>0.434689</v>
       </c>
       <c r="D45" t="n">
-        <v>0.39859</v>
+        <v>1.00813</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639796</v>
+        <v>0.673397</v>
       </c>
       <c r="C46" t="n">
-        <v>0.409339</v>
+        <v>0.407097</v>
       </c>
       <c r="D46" t="n">
-        <v>0.390891</v>
+        <v>1.00397</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.625559</v>
+        <v>0.665883</v>
       </c>
       <c r="C47" t="n">
-        <v>0.38742</v>
+        <v>0.402711</v>
       </c>
       <c r="D47" t="n">
-        <v>0.390121</v>
+        <v>1.04931</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.628525</v>
+        <v>0.6323569999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.365894</v>
+        <v>0.390038</v>
       </c>
       <c r="D48" t="n">
-        <v>0.373136</v>
+        <v>1.03361</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.612522</v>
+        <v>0.634161</v>
       </c>
       <c r="C49" t="n">
-        <v>0.369737</v>
+        <v>0.380645</v>
       </c>
       <c r="D49" t="n">
-        <v>0.358088</v>
+        <v>1.03929</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.590256</v>
+        <v>0.618981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.354348</v>
+        <v>0.377278</v>
       </c>
       <c r="D50" t="n">
-        <v>0.356422</v>
+        <v>1.69393</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.583717</v>
+        <v>0.59304</v>
       </c>
       <c r="C51" t="n">
-        <v>0.61963</v>
+        <v>0.627211</v>
       </c>
       <c r="D51" t="n">
-        <v>0.625949</v>
+        <v>1.67704</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.564223</v>
+        <v>0.59399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.601216</v>
+        <v>0.629224</v>
       </c>
       <c r="D52" t="n">
-        <v>0.619041</v>
+        <v>1.689</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8476359999999999</v>
+        <v>0.889889</v>
       </c>
       <c r="C53" t="n">
-        <v>0.584878</v>
+        <v>0.603552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.601894</v>
+        <v>1.65874</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.827243</v>
+        <v>0.874181</v>
       </c>
       <c r="C54" t="n">
-        <v>0.558742</v>
+        <v>0.580021</v>
       </c>
       <c r="D54" t="n">
-        <v>0.574218</v>
+        <v>1.61709</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.810974</v>
+        <v>0.841533</v>
       </c>
       <c r="C55" t="n">
-        <v>0.541741</v>
+        <v>0.57301</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5606449999999999</v>
+        <v>1.53507</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.799319</v>
+        <v>0.838521</v>
       </c>
       <c r="C56" t="n">
-        <v>0.525251</v>
+        <v>0.5452669999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5458769999999999</v>
+        <v>1.57279</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783999</v>
+        <v>0.80018</v>
       </c>
       <c r="C57" t="n">
-        <v>0.511173</v>
+        <v>0.536561</v>
       </c>
       <c r="D57" t="n">
-        <v>0.535208</v>
+        <v>1.51936</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.769344</v>
+        <v>0.79353</v>
       </c>
       <c r="C58" t="n">
-        <v>0.489259</v>
+        <v>0.517635</v>
       </c>
       <c r="D58" t="n">
-        <v>0.515745</v>
+        <v>1.51577</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.746094</v>
+        <v>0.780489</v>
       </c>
       <c r="C59" t="n">
-        <v>0.482537</v>
+        <v>0.505458</v>
       </c>
       <c r="D59" t="n">
-        <v>0.50301</v>
+        <v>1.52746</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.742765</v>
+        <v>0.783034</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464493</v>
+        <v>0.482194</v>
       </c>
       <c r="D60" t="n">
-        <v>0.48982</v>
+        <v>1.48132</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.726862</v>
+        <v>0.77351</v>
       </c>
       <c r="C61" t="n">
-        <v>0.457694</v>
+        <v>0.491489</v>
       </c>
       <c r="D61" t="n">
-        <v>0.472115</v>
+        <v>1.46858</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.706364</v>
+        <v>0.7550519999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.446914</v>
+        <v>0.470806</v>
       </c>
       <c r="D62" t="n">
-        <v>0.460561</v>
+        <v>1.54254</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.709328</v>
+        <v>0.732423</v>
       </c>
       <c r="C63" t="n">
-        <v>0.429123</v>
+        <v>0.458546</v>
       </c>
       <c r="D63" t="n">
-        <v>0.44281</v>
+        <v>1.54209</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7006</v>
+        <v>0.716583</v>
       </c>
       <c r="C64" t="n">
-        <v>0.422917</v>
+        <v>0.447472</v>
       </c>
       <c r="D64" t="n">
-        <v>0.441574</v>
+        <v>2.70431</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.690387</v>
+        <v>0.697468</v>
       </c>
       <c r="C65" t="n">
-        <v>0.419205</v>
+        <v>0.43493</v>
       </c>
       <c r="D65" t="n">
-        <v>0.435618</v>
+        <v>2.74554</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.679273</v>
+        <v>0.690291</v>
       </c>
       <c r="C66" t="n">
-        <v>0.679956</v>
+        <v>0.71862</v>
       </c>
       <c r="D66" t="n">
-        <v>0.705523</v>
+        <v>2.61605</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.953538</v>
+        <v>0.991285</v>
       </c>
       <c r="C67" t="n">
-        <v>0.660076</v>
+        <v>0.714911</v>
       </c>
       <c r="D67" t="n">
-        <v>0.671805</v>
+        <v>2.54552</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.94175</v>
+        <v>0.97564</v>
       </c>
       <c r="C68" t="n">
-        <v>0.633986</v>
+        <v>0.693357</v>
       </c>
       <c r="D68" t="n">
-        <v>0.669106</v>
+        <v>2.51436</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.929999</v>
+        <v>0.970831</v>
       </c>
       <c r="C69" t="n">
-        <v>0.627059</v>
+        <v>0.656914</v>
       </c>
       <c r="D69" t="n">
-        <v>0.646997</v>
+        <v>2.53464</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8989509999999999</v>
+        <v>0.961193</v>
       </c>
       <c r="C70" t="n">
-        <v>0.619478</v>
+        <v>0.6432870000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.635754</v>
+        <v>2.52593</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.905783</v>
+        <v>0.934729</v>
       </c>
       <c r="C71" t="n">
-        <v>0.592677</v>
+        <v>0.612548</v>
       </c>
       <c r="D71" t="n">
-        <v>0.608163</v>
+        <v>2.36683</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.903276</v>
+        <v>0.921856</v>
       </c>
       <c r="C72" t="n">
-        <v>0.568098</v>
+        <v>0.610285</v>
       </c>
       <c r="D72" t="n">
-        <v>0.588742</v>
+        <v>2.38625</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.851909</v>
+        <v>0.880244</v>
       </c>
       <c r="C73" t="n">
-        <v>0.574456</v>
+        <v>0.590587</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5779570000000001</v>
+        <v>2.39194</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.870611</v>
+        <v>0.893307</v>
       </c>
       <c r="C74" t="n">
-        <v>0.547601</v>
+        <v>0.5778720000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.569933</v>
+        <v>2.40456</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8556319999999999</v>
+        <v>0.8625</v>
       </c>
       <c r="C75" t="n">
-        <v>0.553504</v>
+        <v>0.561808</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5500350000000001</v>
+        <v>2.35664</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.818298</v>
+        <v>0.8790519999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5182</v>
+        <v>0.552307</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5430430000000001</v>
+        <v>2.33697</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.812393</v>
+        <v>0.854291</v>
       </c>
       <c r="C77" t="n">
-        <v>0.517732</v>
+        <v>0.547469</v>
       </c>
       <c r="D77" t="n">
-        <v>0.531151</v>
+        <v>2.25884</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.796915</v>
+        <v>0.805616</v>
       </c>
       <c r="C78" t="n">
-        <v>0.501231</v>
+        <v>0.506337</v>
       </c>
       <c r="D78" t="n">
-        <v>0.517039</v>
+        <v>3.59054</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7919079999999999</v>
+        <v>0.791481</v>
       </c>
       <c r="C79" t="n">
-        <v>0.511879</v>
+        <v>0.511845</v>
       </c>
       <c r="D79" t="n">
-        <v>0.511415</v>
+        <v>3.50633</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.775291</v>
+        <v>0.767682</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7967379999999999</v>
+        <v>0.8345129999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.829827</v>
+        <v>3.4183</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08541</v>
+        <v>1.114</v>
       </c>
       <c r="C81" t="n">
-        <v>0.774877</v>
+        <v>0.788122</v>
       </c>
       <c r="D81" t="n">
-        <v>0.828506</v>
+        <v>3.4188</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05739</v>
+        <v>1.10353</v>
       </c>
       <c r="C82" t="n">
-        <v>0.769617</v>
+        <v>0.7822</v>
       </c>
       <c r="D82" t="n">
-        <v>0.792005</v>
+        <v>3.27707</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08022</v>
+        <v>1.09023</v>
       </c>
       <c r="C83" t="n">
-        <v>0.740538</v>
+        <v>0.772828</v>
       </c>
       <c r="D83" t="n">
-        <v>0.766266</v>
+        <v>3.39573</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05063</v>
+        <v>1.02917</v>
       </c>
       <c r="C84" t="n">
-        <v>0.715726</v>
+        <v>0.724491</v>
       </c>
       <c r="D84" t="n">
-        <v>0.749896</v>
+        <v>3.2213</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0296</v>
+        <v>1.03976</v>
       </c>
       <c r="C85" t="n">
-        <v>0.70583</v>
+        <v>0.713961</v>
       </c>
       <c r="D85" t="n">
-        <v>0.740193</v>
+        <v>3.2394</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03084</v>
+        <v>1.08109</v>
       </c>
       <c r="C86" t="n">
-        <v>0.688186</v>
+        <v>0.697383</v>
       </c>
       <c r="D86" t="n">
-        <v>0.722583</v>
+        <v>3.11932</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01868</v>
+        <v>0.987977</v>
       </c>
       <c r="C87" t="n">
-        <v>0.663324</v>
+        <v>0.680343</v>
       </c>
       <c r="D87" t="n">
-        <v>0.707348</v>
+        <v>3.10625</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.971932</v>
+        <v>1.0433</v>
       </c>
       <c r="C88" t="n">
-        <v>0.649033</v>
+        <v>0.677129</v>
       </c>
       <c r="D88" t="n">
-        <v>0.704146</v>
+        <v>3.00722</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.996638</v>
+        <v>0.966645</v>
       </c>
       <c r="C89" t="n">
-        <v>0.638989</v>
+        <v>0.644602</v>
       </c>
       <c r="D89" t="n">
-        <v>0.668539</v>
+        <v>2.92695</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.959035</v>
+        <v>0.949168</v>
       </c>
       <c r="C90" t="n">
-        <v>0.629078</v>
+        <v>0.6531979999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.667544</v>
+        <v>2.8977</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.937361</v>
+        <v>0.983995</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6300249999999999</v>
+        <v>0.656235</v>
       </c>
       <c r="D91" t="n">
-        <v>0.645512</v>
+        <v>2.99549</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.925782</v>
+        <v>0.92582</v>
       </c>
       <c r="C92" t="n">
-        <v>0.610297</v>
+        <v>0.615996</v>
       </c>
       <c r="D92" t="n">
-        <v>0.636884</v>
+        <v>4.03608</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.904596</v>
+        <v>0.922288</v>
       </c>
       <c r="C93" t="n">
-        <v>0.606564</v>
+        <v>0.600131</v>
       </c>
       <c r="D93" t="n">
-        <v>0.621876</v>
+        <v>3.96523</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.901655</v>
+        <v>0.895702</v>
       </c>
       <c r="C94" t="n">
-        <v>0.914118</v>
+        <v>0.897224</v>
       </c>
       <c r="D94" t="n">
-        <v>0.939479</v>
+        <v>3.94406</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2596</v>
+        <v>1.20972</v>
       </c>
       <c r="C95" t="n">
-        <v>0.886309</v>
+        <v>0.903994</v>
       </c>
       <c r="D95" t="n">
-        <v>0.92886</v>
+        <v>3.79444</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17353</v>
+        <v>1.21714</v>
       </c>
       <c r="C96" t="n">
-        <v>0.861385</v>
+        <v>0.899394</v>
       </c>
       <c r="D96" t="n">
-        <v>0.905399</v>
+        <v>3.69256</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1727</v>
+        <v>1.19079</v>
       </c>
       <c r="C97" t="n">
-        <v>0.859241</v>
+        <v>0.86259</v>
       </c>
       <c r="D97" t="n">
-        <v>0.901484</v>
+        <v>3.64641</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1643</v>
+        <v>1.16448</v>
       </c>
       <c r="C98" t="n">
-        <v>0.856066</v>
+        <v>0.881401</v>
       </c>
       <c r="D98" t="n">
-        <v>0.873573</v>
+        <v>3.61829</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14052</v>
+        <v>1.17265</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8395550000000001</v>
+        <v>0.82899</v>
       </c>
       <c r="D99" t="n">
-        <v>0.882024</v>
+        <v>3.56423</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14244</v>
+        <v>1.18307</v>
       </c>
       <c r="C100" t="n">
-        <v>0.820253</v>
+        <v>0.819347</v>
       </c>
       <c r="D100" t="n">
-        <v>0.838538</v>
+        <v>3.46965</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13575</v>
+        <v>1.175</v>
       </c>
       <c r="C101" t="n">
-        <v>0.784545</v>
+        <v>0.820384</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8304820000000001</v>
+        <v>3.55458</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10791</v>
+        <v>1.14307</v>
       </c>
       <c r="C102" t="n">
-        <v>0.786431</v>
+        <v>0.8321539999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.803335</v>
+        <v>3.45064</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10933</v>
+        <v>1.17803</v>
       </c>
       <c r="C103" t="n">
-        <v>0.773049</v>
+        <v>0.809833</v>
       </c>
       <c r="D103" t="n">
-        <v>0.788094</v>
+        <v>3.46678</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07221</v>
+        <v>1.12048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.740858</v>
+        <v>0.801608</v>
       </c>
       <c r="D104" t="n">
-        <v>0.778155</v>
+        <v>3.43494</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08429</v>
+        <v>1.10414</v>
       </c>
       <c r="C105" t="n">
-        <v>0.76735</v>
+        <v>0.773941</v>
       </c>
       <c r="D105" t="n">
-        <v>0.774423</v>
+        <v>3.33913</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.08347</v>
+        <v>1.11194</v>
       </c>
       <c r="C106" t="n">
-        <v>0.732603</v>
+        <v>0.772818</v>
       </c>
       <c r="D106" t="n">
-        <v>0.749417</v>
+        <v>3.38299</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.04003</v>
+        <v>1.09146</v>
       </c>
       <c r="C107" t="n">
-        <v>0.73737</v>
+        <v>0.769501</v>
       </c>
       <c r="D107" t="n">
-        <v>0.77346</v>
+        <v>4.51572</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.03497</v>
+        <v>1.07619</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04057</v>
+        <v>1.06906</v>
       </c>
       <c r="D108" t="n">
-        <v>1.07095</v>
+        <v>4.38478</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.02046</v>
+        <v>1.07037</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03483</v>
+        <v>1.09409</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07395</v>
+        <v>4.3051</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3586</v>
+        <v>1.42545</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04894</v>
+        <v>1.09317</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07002</v>
+        <v>4.28471</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34661</v>
+        <v>1.41079</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0288</v>
+        <v>1.05189</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04307</v>
+        <v>4.1737</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32746</v>
+        <v>1.38584</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01469</v>
+        <v>1.05007</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06056</v>
+        <v>4.04359</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.33616</v>
+        <v>1.37394</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0072</v>
+        <v>1.04928</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04432</v>
+        <v>4.00254</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.30455</v>
+        <v>1.41297</v>
       </c>
       <c r="C114" t="n">
-        <v>1.01198</v>
+        <v>1.06292</v>
       </c>
       <c r="D114" t="n">
-        <v>1.03734</v>
+        <v>3.92087</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29973</v>
+        <v>1.32517</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00122</v>
+        <v>1.06053</v>
       </c>
       <c r="D115" t="n">
-        <v>1.018</v>
+        <v>3.86928</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28359</v>
+        <v>1.3476</v>
       </c>
       <c r="C116" t="n">
-        <v>0.971507</v>
+        <v>1.02253</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02042</v>
+        <v>3.82785</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28004</v>
+        <v>1.32935</v>
       </c>
       <c r="C117" t="n">
-        <v>0.981716</v>
+        <v>1.03025</v>
       </c>
       <c r="D117" t="n">
-        <v>1.02736</v>
+        <v>3.82204</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.28946</v>
+        <v>1.31649</v>
       </c>
       <c r="C118" t="n">
-        <v>0.999651</v>
+        <v>1.01089</v>
       </c>
       <c r="D118" t="n">
-        <v>0.988787</v>
+        <v>3.74649</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.27539</v>
+        <v>1.32488</v>
       </c>
       <c r="C119" t="n">
-        <v>0.972839</v>
+        <v>1.02267</v>
       </c>
       <c r="D119" t="n">
-        <v>0.99557</v>
+        <v>3.73961</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2579</v>
+        <v>1.29237</v>
       </c>
       <c r="C120" t="n">
-        <v>0.963008</v>
+        <v>1.00549</v>
       </c>
       <c r="D120" t="n">
-        <v>0.989453</v>
+        <v>3.67365</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.25046</v>
+        <v>1.30435</v>
       </c>
       <c r="C121" t="n">
-        <v>0.964894</v>
+        <v>0.989793</v>
       </c>
       <c r="D121" t="n">
-        <v>0.979725</v>
+        <v>5.0891</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.25852</v>
+        <v>1.31345</v>
       </c>
       <c r="C122" t="n">
-        <v>0.964342</v>
+        <v>0.977003</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9749910000000001</v>
+        <v>4.95355</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.25165</v>
+        <v>1.29282</v>
       </c>
       <c r="C123" t="n">
-        <v>1.3102</v>
+        <v>1.33651</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29738</v>
+        <v>4.83763</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58226</v>
+        <v>1.58032</v>
       </c>
       <c r="C124" t="n">
-        <v>1.27292</v>
+        <v>1.30931</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31266</v>
+        <v>4.74237</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.57684</v>
+        <v>1.61085</v>
       </c>
       <c r="C125" t="n">
-        <v>1.30388</v>
+        <v>1.3338</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30839</v>
+        <v>4.59633</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56449</v>
+        <v>1.57124</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32263</v>
+        <v>1.30485</v>
       </c>
       <c r="D126" t="n">
-        <v>1.315</v>
+        <v>4.59041</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.56408</v>
+        <v>1.59315</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32018</v>
+        <v>1.28433</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30314</v>
+        <v>4.4597</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.53397</v>
+        <v>1.57337</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29502</v>
+        <v>1.30508</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30843</v>
+        <v>4.37927</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55952</v>
+        <v>1.57491</v>
       </c>
       <c r="C129" t="n">
         <v>1.31031</v>
       </c>
       <c r="D129" t="n">
-        <v>1.34661</v>
+        <v>4.26663</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.54119</v>
+        <v>1.58098</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29461</v>
+        <v>1.30514</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31977</v>
+        <v>4.26448</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54726</v>
+        <v>1.55971</v>
       </c>
       <c r="C131" t="n">
-        <v>1.30052</v>
+        <v>1.2918</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31293</v>
+        <v>4.19155</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55126</v>
+        <v>1.55638</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31188</v>
+        <v>1.2959</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32721</v>
+        <v>4.13454</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.53427</v>
+        <v>1.56135</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30188</v>
+        <v>1.30628</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33021</v>
+        <v>4.13828</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54551</v>
+        <v>1.54809</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32055</v>
+        <v>1.3241</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32169</v>
+        <v>4.11286</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.55877</v>
+        <v>1.55237</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29664</v>
+        <v>1.31828</v>
       </c>
       <c r="D135" t="n">
-        <v>1.29864</v>
+        <v>5.72743</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.5444</v>
+        <v>1.5567</v>
       </c>
       <c r="C136" t="n">
-        <v>1.32894</v>
+        <v>1.31634</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32012</v>
+        <v>5.58666</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.57176</v>
+        <v>1.58549</v>
       </c>
       <c r="C137" t="n">
-        <v>1.63235</v>
+        <v>1.65694</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64629</v>
+        <v>5.51093</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.89035</v>
+        <v>1.9023</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6403</v>
+        <v>1.64333</v>
       </c>
       <c r="D138" t="n">
-        <v>1.66186</v>
+        <v>5.38226</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.8822</v>
+        <v>1.88615</v>
       </c>
       <c r="C139" t="n">
-        <v>1.66465</v>
+        <v>1.65655</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66506</v>
+        <v>5.27119</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.87073</v>
+        <v>1.87754</v>
       </c>
       <c r="C140" t="n">
-        <v>1.62839</v>
+        <v>1.65147</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68123</v>
+        <v>5.14183</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86606</v>
+        <v>1.87317</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67562</v>
+        <v>1.67278</v>
       </c>
       <c r="D141" t="n">
-        <v>1.6459</v>
+        <v>5.06094</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.87285</v>
+        <v>1.79162</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67385</v>
+        <v>1.5805</v>
       </c>
       <c r="D142" t="n">
-        <v>1.6723</v>
+        <v>4.80674</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84929</v>
+        <v>1.74352</v>
       </c>
       <c r="C143" t="n">
-        <v>1.67812</v>
+        <v>1.57363</v>
       </c>
       <c r="D143" t="n">
-        <v>1.66729</v>
+        <v>4.79469</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.170668</v>
+                  <v>0.15495</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.164843</v>
+                  <v>0.153545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.165379</v>
+                  <v>0.156261</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.150997</v>
+                  <v>0.154468</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.152331</v>
+                  <v>0.159997</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149768</v>
+                  <v>0.148057</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.152588</v>
+                  <v>0.149778</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154628</v>
+                  <v>0.154311</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221009</v>
+                  <v>0.223686</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.212625</v>
+                  <v>0.205186</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.211566</v>
+                  <v>0.205051</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.195441</v>
+                  <v>0.191499</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194947</v>
+                  <v>0.185229</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186434</v>
+                  <v>0.180374</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.178351</v>
+                  <v>0.173777</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.173591</v>
+                  <v>0.174067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.168205</v>
+                  <v>0.166807</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.16688</v>
+                  <v>0.160047</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.159624</v>
+                  <v>0.157303</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.158982</v>
+                  <v>0.156402</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.157925</v>
+                  <v>0.163726</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157835</v>
+                  <v>0.160119</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235187</v>
+                  <v>0.240097</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234979</v>
+                  <v>0.231232</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222812</v>
+                  <v>0.227764</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.212721</v>
+                  <v>0.219773</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.204469</v>
+                  <v>0.21386</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.19605</v>
+                  <v>0.200835</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.192526</v>
+                  <v>0.197722</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.179359</v>
+                  <v>0.185452</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182408</v>
+                  <v>0.185902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173725</v>
+                  <v>0.179391</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.172037</v>
+                  <v>0.174647</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.170274</v>
+                  <v>0.167433</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.163399</v>
+                  <v>0.173431</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.165498</v>
+                  <v>0.169377</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243844</v>
+                  <v>0.245427</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23535</v>
+                  <v>0.236324</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226636</v>
+                  <v>0.228014</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.217798</v>
+                  <v>0.220475</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210594</v>
+                  <v>0.211363</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203038</v>
+                  <v>0.205815</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.200194</v>
+                  <v>0.198957</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.194085</v>
+                  <v>0.192026</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.189659</v>
+                  <v>0.186259</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.184056</v>
+                  <v>0.182829</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.179376</v>
+                  <v>0.178498</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.176819</v>
+                  <v>0.174932</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.175946</v>
+                  <v>0.173529</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176716</v>
+                  <v>0.174603</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.179499</v>
+                  <v>0.178568</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.246194</v>
+                  <v>0.242911</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236625</v>
+                  <v>0.233062</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.228535</v>
+                  <v>0.225756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220311</v>
+                  <v>0.219169</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212764</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.205025</v>
+                  <v>0.204869</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198959</v>
+                  <v>0.198465</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.193449</v>
+                  <v>0.192641</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.188205</v>
+                  <v>0.187453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182403</v>
+                  <v>0.183317</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.179269</v>
+                  <v>0.180442</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177012</v>
+                  <v>0.178772</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177729</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180358</v>
+                  <v>0.182404</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244029</v>
+                  <v>0.246499</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236519</v>
+                  <v>0.24057</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228133</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220467</v>
+                  <v>0.222631</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212274</v>
+                  <v>0.214224</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205977</v>
+                  <v>0.208225</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199758</v>
+                  <v>0.200051</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19413</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188413</v>
+                  <v>0.191699</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184215</v>
+                  <v>0.187385</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181004</v>
+                  <v>0.184281</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178894</v>
+                  <v>0.181944</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17897</v>
+                  <v>0.181193</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180581</v>
+                  <v>0.183598</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.256846</v>
+                  <v>0.259901</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.250364</v>
+                  <v>0.251809</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.24198</v>
+                  <v>0.245416</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233548</v>
+                  <v>0.236506</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.227319</v>
+                  <v>0.228865</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219364</v>
+                  <v>0.222002</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213434</v>
+                  <v>0.215267</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207721</v>
+                  <v>0.208708</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201258</v>
+                  <v>0.203164</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19653</v>
+                  <v>0.198265</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192528</v>
+                  <v>0.194029</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189688</v>
+                  <v>0.191051</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188619</v>
+                  <v>0.190331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189627</v>
+                  <v>0.190609</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270145</v>
+                  <v>0.271708</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.264648</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.257315</v>
+                  <v>0.258822</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.250563</v>
+                  <v>0.251693</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24473</v>
+                  <v>0.245207</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238846</v>
+                  <v>0.238911</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232631</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227556</v>
+                  <v>0.227926</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222112</v>
+                  <v>0.223038</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217608</v>
+                  <v>0.218392</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213903</v>
+                  <v>0.214392</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.21037</v>
+                  <v>0.211043</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208235</v>
+                  <v>0.208798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208631</v>
+                  <v>0.208902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210884</v>
+                  <v>0.210912</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.284085</v>
+                  <v>0.282122</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277325</v>
+                  <v>0.277332</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271154</v>
+                  <v>0.271849</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265253</v>
+                  <v>0.265643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259777</v>
+                  <v>0.259825</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254644</v>
+                  <v>0.254755</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250128</v>
+                  <v>0.249822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245359</v>
+                  <v>0.24522</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241561</v>
+                  <v>0.241839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23764</v>
+                  <v>0.23729</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234284</v>
+                  <v>0.234272</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231834</v>
+                  <v>0.232088</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231043</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232245</v>
+                  <v>0.232239</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.315814</v>
+                  <v>0.317627</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.310851</v>
+                  <v>0.312009</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.306028</v>
+                  <v>0.30586</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299753</v>
+                  <v>0.300592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294531</v>
+                  <v>0.295357</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.289946</v>
+                  <v>0.291282</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285871</v>
+                  <v>0.290024</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28194</v>
+                  <v>0.292332</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278146</v>
+                  <v>0.316529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275044</v>
+                  <v>0.313286</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.27231</v>
+                  <v>0.269433</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270276</v>
+                  <v>0.267928</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.26913</v>
+                  <v>0.267051</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270188</v>
+                  <v>0.267636</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.360478</v>
+                  <v>0.350842</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.354977</v>
+                  <v>0.345442</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.350567</v>
+                  <v>0.341276</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.345151</v>
+                  <v>0.336592</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34072</v>
+                  <v>0.332195</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.335998</v>
+                  <v>0.328062</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.136461</v>
+                  <v>0.133487</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.143885</v>
+                  <v>0.128996</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.138416</v>
+                  <v>0.128778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.131866</v>
+                  <v>0.123893</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.128733</v>
+                  <v>0.115629</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.125371</v>
+                  <v>0.117525</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.119173</v>
+                  <v>0.110211</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119054</v>
+                  <v>0.176215</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.199755</v>
+                  <v>0.169618</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.194893</v>
+                  <v>0.167522</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.186611</v>
+                  <v>0.164985</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.180929</v>
+                  <v>0.157948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.171719</v>
+                  <v>0.154722</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.164359</v>
+                  <v>0.145283</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.159604</v>
+                  <v>0.14847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.156142</v>
+                  <v>0.137933</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.148751</v>
+                  <v>0.132223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.145812</v>
+                  <v>0.130486</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.141893</v>
+                  <v>0.124625</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.140321</v>
+                  <v>0.122399</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138166</v>
+                  <v>0.122231</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.138866</v>
+                  <v>0.215673</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.22216</v>
+                  <v>0.209008</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.214043</v>
+                  <v>0.196812</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.202789</v>
+                  <v>0.193513</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.194749</v>
+                  <v>0.186064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.188153</v>
+                  <v>0.182841</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.180718</v>
+                  <v>0.175024</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.174444</v>
+                  <v>0.170131</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168821</v>
+                  <v>0.161414</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.162937</v>
+                  <v>0.156848</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.157914</v>
+                  <v>0.155946</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.153826</v>
+                  <v>0.14656</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150082</v>
+                  <v>0.150628</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.147894</v>
+                  <v>0.146053</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.146972</v>
+                  <v>0.230175</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.223466</v>
+                  <v>0.222468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214588</v>
+                  <v>0.212657</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.206551</v>
+                  <v>0.20674</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198601</v>
+                  <v>0.198642</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191216</v>
+                  <v>0.191772</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.18396</v>
+                  <v>0.188281</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.180497</v>
+                  <v>0.177377</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174746</v>
+                  <v>0.171985</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.168726</v>
+                  <v>0.166429</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.16349</v>
+                  <v>0.166079</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159218</v>
+                  <v>0.159028</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.155587</v>
+                  <v>0.15706</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.153056</v>
+                  <v>0.156108</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.151411</v>
+                  <v>0.244006</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.152255</v>
+                  <v>0.234167</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.223567</v>
+                  <v>0.224348</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.215128</v>
+                  <v>0.216183</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206602</v>
+                  <v>0.208516</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.199106</v>
+                  <v>0.200898</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191861</v>
+                  <v>0.193874</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184943</v>
+                  <v>0.186857</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.178332</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172886</v>
+                  <v>0.175261</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167693</v>
+                  <v>0.170349</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.160526</v>
+                  <v>0.166078</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.156473</v>
+                  <v>0.163411</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.15361</v>
+                  <v>0.161494</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.151918</v>
+                  <v>0.16251</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.152658</v>
+                  <v>0.243741</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.228151</v>
+                  <v>0.233795</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.219456</v>
+                  <v>0.226048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21135</v>
+                  <v>0.218522</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.203187</v>
+                  <v>0.208423</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.195914</v>
+                  <v>0.20239</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.188766</v>
+                  <v>0.195978</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.182265</v>
+                  <v>0.190244</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.176143</v>
+                  <v>0.183549</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.170713</v>
+                  <v>0.17921</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165631</v>
+                  <v>0.174505</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.161469</v>
+                  <v>0.17026</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.158217</v>
+                  <v>0.168555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.156204</v>
+                  <v>0.167771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.156222</v>
+                  <v>0.243049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.230333</v>
+                  <v>0.233663</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222566</v>
+                  <v>0.225806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.214771</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207566</v>
+                  <v>0.210345</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200837</v>
+                  <v>0.202909</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.19364</v>
+                  <v>0.196278</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.188096</v>
+                  <v>0.190457</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.181911</v>
+                  <v>0.184578</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176008</v>
+                  <v>0.179115</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.171451</v>
+                  <v>0.174858</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166593</v>
+                  <v>0.171276</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.163878</v>
+                  <v>0.168786</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.160923</v>
+                  <v>0.169004</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.160238</v>
+                  <v>0.254981</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248401</v>
+                  <v>0.247215</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240463</v>
+                  <v>0.239115</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.232944</v>
+                  <v>0.230624</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.225805</v>
+                  <v>0.222856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.22678</v>
+                  <v>0.21591</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.212444</v>
+                  <v>0.209102</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206497</v>
+                  <v>0.202675</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.201607</v>
+                  <v>0.196973</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.195129</v>
+                  <v>0.19177</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.189518</v>
+                  <v>0.187172</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.186515</v>
+                  <v>0.183301</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18283</v>
+                  <v>0.18078</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.18042</v>
+                  <v>0.179522</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.179433</v>
+                  <v>0.269489</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.181014</v>
+                  <v>0.262897</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.260856</v>
+                  <v>0.256726</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.252951</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.245756</v>
+                  <v>0.24043</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.239063</v>
+                  <v>0.233607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.232542</v>
+                  <v>0.227423</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226357</v>
+                  <v>0.221229</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221257</v>
+                  <v>0.215868</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.217762</v>
+                  <v>0.210591</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.212853</v>
+                  <v>0.206479</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.208819</v>
+                  <v>0.202559</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.20483</v>
+                  <v>0.199773</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.201751</v>
+                  <v>0.198176</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200686</v>
+                  <v>0.198841</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.200643</v>
+                  <v>0.285232</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.284238</v>
+                  <v>0.276811</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.278287</v>
+                  <v>0.270839</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.268032</v>
+                  <v>0.265608</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.262246</v>
+                  <v>0.260523</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.2563</v>
+                  <v>0.255044</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25157</v>
+                  <v>0.251807</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247088</v>
+                  <v>0.249694</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.242605</v>
+                  <v>0.266801</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.238676</v>
+                  <v>0.263743</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.235063</v>
+                  <v>0.282668</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.231818</v>
+                  <v>0.233059</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229352</v>
+                  <v>0.231579</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.227891</v>
+                  <v>0.231913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22831</v>
+                  <v>0.326305</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.321523</v>
+                  <v>0.320686</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315351</v>
+                  <v>0.315677</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309742</v>
+                  <v>0.310855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304011</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.29869</v>
+                  <v>0.30133</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29374</v>
+                  <v>0.297474</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.134178</v>
+                  <v>0.344005</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.131948</v>
+                  <v>0.340023</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.136503</v>
+                  <v>0.339171</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.127659</v>
+                  <v>0.337006</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.126491</v>
+                  <v>0.334346</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.127377</v>
+                  <v>0.44346</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.120481</v>
+                  <v>0.42934</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.189804</v>
+                  <v>0.422947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.193076</v>
+                  <v>0.414834</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.185771</v>
+                  <v>0.412844</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.175595</v>
+                  <v>0.410981</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.170808</v>
+                  <v>0.402817</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.163676</v>
+                  <v>0.395902</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.15658</v>
+                  <v>0.389522</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.15111</v>
+                  <v>0.38781</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.147927</v>
+                  <v>0.384793</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.144277</v>
+                  <v>0.379955</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.141029</v>
+                  <v>0.378853</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.138444</v>
+                  <v>0.373582</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.136899</v>
+                  <v>0.476217</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138731</v>
+                  <v>0.46546</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.22524</v>
+                  <v>0.464787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217581</v>
+                  <v>0.45141</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.205227</v>
+                  <v>0.445799</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.196362</v>
+                  <v>0.434497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.189144</v>
+                  <v>0.427631</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.18136</v>
+                  <v>0.419558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175284</v>
+                  <v>0.411806</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170321</v>
+                  <v>0.406268</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.162701</v>
+                  <v>0.401866</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.159519</v>
+                  <v>0.397333</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153345</v>
+                  <v>0.393844</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.150314</v>
+                  <v>0.389286</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.149603</v>
+                  <v>0.493518</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.148604</v>
+                  <v>0.484731</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230138</v>
+                  <v>0.475688</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.221941</v>
+                  <v>0.463878</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212902</v>
+                  <v>0.455129</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.202745</v>
+                  <v>0.446551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.197872</v>
+                  <v>0.438381</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.189578</v>
+                  <v>0.43272</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.181192</v>
+                  <v>0.425374</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178348</v>
+                  <v>0.420618</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.172191</v>
+                  <v>0.41841</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.16614</v>
+                  <v>0.414417</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.161458</v>
+                  <v>0.412106</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.158505</v>
+                  <v>0.406774</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.156259</v>
+                  <v>0.402662</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155863</v>
+                  <v>0.505211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240125</v>
+                  <v>0.498063</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.228307</v>
+                  <v>0.485203</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222098</v>
+                  <v>0.477573</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.213257</v>
+                  <v>0.46772</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.204699</v>
+                  <v>0.463373</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.197271</v>
+                  <v>0.4539</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.189954</v>
+                  <v>0.446932</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.182964</v>
+                  <v>0.440617</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.176915</v>
+                  <v>0.437856</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172102</v>
+                  <v>0.432426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167281</v>
+                  <v>0.428781</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.161153</v>
+                  <v>0.423174</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.158454</v>
+                  <v>0.422691</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.157323</v>
+                  <v>0.5450739999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.158629</v>
+                  <v>0.540152</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235154</v>
+                  <v>0.524844</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.225864</v>
+                  <v>0.515304</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218407</v>
+                  <v>0.507802</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.209007</v>
+                  <v>0.498374</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.201152</v>
+                  <v>0.494679</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.19372</v>
+                  <v>0.495527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.186741</v>
+                  <v>0.483948</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.180491</v>
+                  <v>0.481365</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174783</v>
+                  <v>0.496964</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.169469</v>
+                  <v>0.492901</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165683</v>
+                  <v>0.489043</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.162247</v>
+                  <v>0.486233</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.160468</v>
+                  <v>0.664263</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.161441</v>
+                  <v>0.653161</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238856</v>
+                  <v>0.643571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.22991</v>
+                  <v>0.63595</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.220936</v>
+                  <v>0.629796</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.213054</v>
+                  <v>0.622012</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.205347</v>
+                  <v>0.619332</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.198292</v>
+                  <v>0.615398</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.191445</v>
+                  <v>0.615523</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.184661</v>
+                  <v>0.615955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.179135</v>
+                  <v>0.622347</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.17408</v>
+                  <v>0.631071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16936</v>
+                  <v>0.635074</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166191</v>
+                  <v>0.639845</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.164353</v>
+                  <v>0.852201</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.164271</v>
+                  <v>0.847971</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254673</v>
+                  <v>0.845392</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247489</v>
+                  <v>0.8368139999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.238121</v>
+                  <v>0.834033</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230923</v>
+                  <v>0.841704</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.223773</v>
+                  <v>0.83904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215514</v>
+                  <v>0.838568</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211001</v>
+                  <v>0.839709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20299</v>
+                  <v>0.842832</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.197244</v>
+                  <v>0.8481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.191961</v>
+                  <v>0.858892</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.18761</v>
+                  <v>0.865506</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.184086</v>
+                  <v>0.870801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180878</v>
+                  <v>0.883047</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.180431</v>
+                  <v>1.1251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.27151</v>
+                  <v>1.11268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265086</v>
+                  <v>1.10474</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257155</v>
+                  <v>1.09904</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.249492</v>
+                  <v>1.09986</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241637</v>
+                  <v>1.09551</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233598</v>
+                  <v>1.09076</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.228107</v>
+                  <v>1.09524</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221879</v>
+                  <v>1.09316</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218226</v>
+                  <v>1.09388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213206</v>
+                  <v>1.0979</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207735</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.203661</v>
+                  <v>1.11072</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.200217</v>
+                  <v>1.11523</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199303</v>
+                  <v>1.38026</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199921</v>
+                  <v>1.36735</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.28659</v>
+                  <v>1.35413</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.280042</v>
+                  <v>1.34011</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.274273</v>
+                  <v>1.33068</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264434</v>
+                  <v>1.32008</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258887</v>
+                  <v>1.3181</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253968</v>
+                  <v>1.31133</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.248195</v>
+                  <v>1.2952</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.244422</v>
+                  <v>1.30043</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.240173</v>
+                  <v>1.45637</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.236482</v>
+                  <v>1.43621</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.23349</v>
+                  <v>1.30867</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.230364</v>
+                  <v>1.30653</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229418</v>
+                  <v>1.581</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229508</v>
+                  <v>1.56049</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.325813</v>
+                  <v>1.53923</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320407</v>
+                  <v>1.52452</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.314921</v>
+                  <v>1.50727</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309403</v>
+                  <v>1.4928</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304799</v>
+                  <v>1.4814</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300275</v>
+                  <v>1.46927</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29509</v>
+                  <v>1.46123</v>
                 </pt>
               </numCache>
             </numRef>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.517585</v>
+        <v>0.542257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229261</v>
+        <v>0.228251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248842</v>
+        <v>0.263797</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.440551</v>
+        <v>0.439619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221276</v>
+        <v>0.232795</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247635</v>
+        <v>0.25776</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.448505</v>
+        <v>0.451755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220305</v>
+        <v>0.213631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242629</v>
+        <v>0.245132</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428055</v>
+        <v>0.428426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206084</v>
+        <v>0.210976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238936</v>
+        <v>0.240641</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426845</v>
+        <v>0.413392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207522</v>
+        <v>0.211248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.231472</v>
+        <v>0.240274</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414516</v>
+        <v>0.425161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199565</v>
+        <v>0.203496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228261</v>
+        <v>0.233244</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.412132</v>
+        <v>0.434273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.202774</v>
+        <v>0.203198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.227772</v>
+        <v>0.230936</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4111</v>
+        <v>0.412878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29141</v>
+        <v>0.284732</v>
       </c>
       <c r="D9" t="n">
-        <v>0.323614</v>
+        <v>0.331332</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.508787</v>
+        <v>0.491759</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27935</v>
+        <v>0.277561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318385</v>
+        <v>0.315297</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.497701</v>
+        <v>0.492593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.269427</v>
+        <v>0.267522</v>
       </c>
       <c r="D11" t="n">
-        <v>0.304366</v>
+        <v>0.302999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.47156</v>
+        <v>0.479669</v>
       </c>
       <c r="C12" t="n">
-        <v>0.255011</v>
+        <v>0.254377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.293968</v>
+        <v>0.298784</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.493945</v>
+        <v>0.474389</v>
       </c>
       <c r="C13" t="n">
-        <v>0.256831</v>
+        <v>0.25573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.285149</v>
+        <v>0.292849</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.474198</v>
+        <v>0.454555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.248927</v>
+        <v>0.242702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.283007</v>
+        <v>0.281725</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.458667</v>
+        <v>0.451549</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233336</v>
+        <v>0.242684</v>
       </c>
       <c r="D15" t="n">
-        <v>0.274467</v>
+        <v>0.279013</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.450489</v>
+        <v>0.454537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226081</v>
+        <v>0.22816</v>
       </c>
       <c r="D16" t="n">
-        <v>0.261297</v>
+        <v>0.270161</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441535</v>
+        <v>0.445432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.220729</v>
+        <v>0.220595</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255075</v>
+        <v>0.272763</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.436546</v>
+        <v>0.442705</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220627</v>
+        <v>0.218202</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249957</v>
+        <v>0.266939</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440053</v>
+        <v>0.43043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210456</v>
+        <v>0.21603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246382</v>
+        <v>0.254989</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43393</v>
+        <v>0.429165</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210625</v>
+        <v>0.213891</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242948</v>
+        <v>0.256572</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.424428</v>
+        <v>0.426306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.204361</v>
+        <v>0.208742</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242565</v>
+        <v>0.245417</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.427163</v>
+        <v>0.422193</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20515</v>
+        <v>0.200146</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238438</v>
+        <v>0.242989</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.428557</v>
+        <v>0.431612</v>
       </c>
       <c r="C23" t="n">
-        <v>0.443566</v>
+        <v>0.46273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.338183</v>
+        <v>0.578484</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.662848</v>
+        <v>0.671619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.428033</v>
+        <v>0.431732</v>
       </c>
       <c r="D24" t="n">
-        <v>0.327719</v>
+        <v>0.563887</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.651498</v>
+        <v>0.659022</v>
       </c>
       <c r="C25" t="n">
-        <v>0.411054</v>
+        <v>0.410605</v>
       </c>
       <c r="D25" t="n">
-        <v>0.320334</v>
+        <v>0.537649</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.643903</v>
+        <v>0.641364</v>
       </c>
       <c r="C26" t="n">
-        <v>0.396087</v>
+        <v>0.404614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.313351</v>
+        <v>0.52686</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.623759</v>
+        <v>0.626647</v>
       </c>
       <c r="C27" t="n">
-        <v>0.383019</v>
+        <v>0.385652</v>
       </c>
       <c r="D27" t="n">
-        <v>0.305608</v>
+        <v>0.494735</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.608216</v>
+        <v>0.616974</v>
       </c>
       <c r="C28" t="n">
-        <v>0.373158</v>
+        <v>0.383765</v>
       </c>
       <c r="D28" t="n">
-        <v>0.292607</v>
+        <v>0.489482</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.589134</v>
+        <v>0.596894</v>
       </c>
       <c r="C29" t="n">
-        <v>0.36049</v>
+        <v>0.365174</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292762</v>
+        <v>0.480331</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.59213</v>
+        <v>0.587127</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353418</v>
+        <v>0.354747</v>
       </c>
       <c r="D30" t="n">
-        <v>0.282818</v>
+        <v>0.471823</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.584005</v>
+        <v>0.583483</v>
       </c>
       <c r="C31" t="n">
-        <v>0.344195</v>
+        <v>0.339191</v>
       </c>
       <c r="D31" t="n">
-        <v>0.279953</v>
+        <v>0.452427</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.561979</v>
+        <v>0.572472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330379</v>
+        <v>0.323403</v>
       </c>
       <c r="D32" t="n">
-        <v>0.272297</v>
+        <v>0.433577</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.542201</v>
+        <v>0.550496</v>
       </c>
       <c r="C33" t="n">
-        <v>0.316748</v>
+        <v>0.322165</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265718</v>
+        <v>0.421772</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.541789</v>
+        <v>0.569119</v>
       </c>
       <c r="C34" t="n">
-        <v>0.312504</v>
+        <v>0.318633</v>
       </c>
       <c r="D34" t="n">
-        <v>0.262673</v>
+        <v>0.417556</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5340279999999999</v>
+        <v>0.532142</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303993</v>
+        <v>0.305677</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258694</v>
+        <v>0.390359</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51952</v>
+        <v>0.53185</v>
       </c>
       <c r="C36" t="n">
-        <v>0.295106</v>
+        <v>0.296195</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254516</v>
+        <v>0.383123</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.522545</v>
+        <v>0.510427</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56845</v>
+        <v>0.559869</v>
       </c>
       <c r="D37" t="n">
-        <v>0.530613</v>
+        <v>0.665062</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.83531</v>
+        <v>0.767332</v>
       </c>
       <c r="C38" t="n">
-        <v>0.545726</v>
+        <v>0.5365490000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.524996</v>
+        <v>0.647541</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.811111</v>
+        <v>0.752265</v>
       </c>
       <c r="C39" t="n">
-        <v>0.546011</v>
+        <v>0.5146810000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.496815</v>
+        <v>0.620869</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.773499</v>
+        <v>0.756175</v>
       </c>
       <c r="C40" t="n">
-        <v>0.555409</v>
+        <v>0.5006</v>
       </c>
       <c r="D40" t="n">
-        <v>0.482075</v>
+        <v>0.585164</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.745712</v>
+        <v>0.729253</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5018319999999999</v>
+        <v>0.480542</v>
       </c>
       <c r="D41" t="n">
-        <v>0.484462</v>
+        <v>0.588331</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.980155</v>
+        <v>0.72375</v>
       </c>
       <c r="C42" t="n">
-        <v>0.478628</v>
+        <v>0.465427</v>
       </c>
       <c r="D42" t="n">
-        <v>0.452171</v>
+        <v>0.557882</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.721935</v>
+        <v>0.692049</v>
       </c>
       <c r="C43" t="n">
-        <v>0.715496</v>
+        <v>0.450484</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4561</v>
+        <v>0.555044</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.683947</v>
+        <v>0.687003</v>
       </c>
       <c r="C44" t="n">
-        <v>0.455609</v>
+        <v>0.433986</v>
       </c>
       <c r="D44" t="n">
-        <v>0.454325</v>
+        <v>0.529429</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.688425</v>
+        <v>0.663716</v>
       </c>
       <c r="C45" t="n">
-        <v>0.49868</v>
+        <v>0.420812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.39859</v>
+        <v>0.501085</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639796</v>
+        <v>0.656258</v>
       </c>
       <c r="C46" t="n">
-        <v>0.409339</v>
+        <v>0.400948</v>
       </c>
       <c r="D46" t="n">
-        <v>0.390891</v>
+        <v>0.477339</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.625559</v>
+        <v>0.636951</v>
       </c>
       <c r="C47" t="n">
-        <v>0.38742</v>
+        <v>0.38891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.390121</v>
+        <v>0.474845</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.628525</v>
+        <v>0.625333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.365894</v>
+        <v>0.381167</v>
       </c>
       <c r="D48" t="n">
-        <v>0.373136</v>
+        <v>0.460209</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.612522</v>
+        <v>0.611666</v>
       </c>
       <c r="C49" t="n">
-        <v>0.369737</v>
+        <v>0.38035</v>
       </c>
       <c r="D49" t="n">
-        <v>0.358088</v>
+        <v>0.444953</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.590256</v>
+        <v>0.602727</v>
       </c>
       <c r="C50" t="n">
-        <v>0.354348</v>
+        <v>0.370228</v>
       </c>
       <c r="D50" t="n">
-        <v>0.356422</v>
+        <v>0.439208</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.583717</v>
+        <v>0.612995</v>
       </c>
       <c r="C51" t="n">
-        <v>0.61963</v>
+        <v>0.6307120000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.625949</v>
+        <v>0.7261</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.564223</v>
+        <v>0.598869</v>
       </c>
       <c r="C52" t="n">
-        <v>0.601216</v>
+        <v>0.619734</v>
       </c>
       <c r="D52" t="n">
-        <v>0.619041</v>
+        <v>0.72304</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8476359999999999</v>
+        <v>0.869582</v>
       </c>
       <c r="C53" t="n">
-        <v>0.584878</v>
+        <v>0.605357</v>
       </c>
       <c r="D53" t="n">
-        <v>0.601894</v>
+        <v>0.661086</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.827243</v>
+        <v>0.8498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.558742</v>
+        <v>0.577417</v>
       </c>
       <c r="D54" t="n">
-        <v>0.574218</v>
+        <v>0.641722</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.810974</v>
+        <v>0.822658</v>
       </c>
       <c r="C55" t="n">
-        <v>0.541741</v>
+        <v>0.560259</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5606449999999999</v>
+        <v>0.648026</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.799319</v>
+        <v>0.83839</v>
       </c>
       <c r="C56" t="n">
-        <v>0.525251</v>
+        <v>0.54354</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5458769999999999</v>
+        <v>0.632009</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783999</v>
+        <v>0.8205440000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.511173</v>
+        <v>0.531797</v>
       </c>
       <c r="D57" t="n">
-        <v>0.535208</v>
+        <v>0.5896749999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.769344</v>
+        <v>0.762056</v>
       </c>
       <c r="C58" t="n">
-        <v>0.489259</v>
+        <v>0.51234</v>
       </c>
       <c r="D58" t="n">
-        <v>0.515745</v>
+        <v>0.584479</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.746094</v>
+        <v>0.763748</v>
       </c>
       <c r="C59" t="n">
-        <v>0.482537</v>
+        <v>0.496448</v>
       </c>
       <c r="D59" t="n">
-        <v>0.50301</v>
+        <v>0.565088</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.742765</v>
+        <v>0.740503</v>
       </c>
       <c r="C60" t="n">
-        <v>0.464493</v>
+        <v>0.492019</v>
       </c>
       <c r="D60" t="n">
-        <v>0.48982</v>
+        <v>0.535313</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.726862</v>
+        <v>0.748872</v>
       </c>
       <c r="C61" t="n">
-        <v>0.457694</v>
+        <v>0.491079</v>
       </c>
       <c r="D61" t="n">
-        <v>0.472115</v>
+        <v>0.53528</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.706364</v>
+        <v>0.739899</v>
       </c>
       <c r="C62" t="n">
-        <v>0.446914</v>
+        <v>0.461918</v>
       </c>
       <c r="D62" t="n">
-        <v>0.460561</v>
+        <v>0.520506</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.709328</v>
+        <v>0.722097</v>
       </c>
       <c r="C63" t="n">
-        <v>0.429123</v>
+        <v>0.452162</v>
       </c>
       <c r="D63" t="n">
-        <v>0.44281</v>
+        <v>0.50602</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7006</v>
+        <v>0.721571</v>
       </c>
       <c r="C64" t="n">
-        <v>0.422917</v>
+        <v>0.434119</v>
       </c>
       <c r="D64" t="n">
-        <v>0.441574</v>
+        <v>0.490128</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.690387</v>
+        <v>0.710091</v>
       </c>
       <c r="C65" t="n">
-        <v>0.419205</v>
+        <v>0.430251</v>
       </c>
       <c r="D65" t="n">
-        <v>0.435618</v>
+        <v>0.487589</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.679273</v>
+        <v>0.690852</v>
       </c>
       <c r="C66" t="n">
-        <v>0.679956</v>
+        <v>0.706286</v>
       </c>
       <c r="D66" t="n">
-        <v>0.705523</v>
+        <v>0.78156</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.953538</v>
+        <v>0.989142</v>
       </c>
       <c r="C67" t="n">
-        <v>0.660076</v>
+        <v>0.686696</v>
       </c>
       <c r="D67" t="n">
-        <v>0.671805</v>
+        <v>0.767876</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.94175</v>
+        <v>0.95683</v>
       </c>
       <c r="C68" t="n">
-        <v>0.633986</v>
+        <v>0.671051</v>
       </c>
       <c r="D68" t="n">
-        <v>0.669106</v>
+        <v>0.747225</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.929999</v>
+        <v>0.9661650000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.627059</v>
+        <v>0.649504</v>
       </c>
       <c r="D69" t="n">
-        <v>0.646997</v>
+        <v>0.733971</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8989509999999999</v>
+        <v>0.938845</v>
       </c>
       <c r="C70" t="n">
-        <v>0.619478</v>
+        <v>0.633155</v>
       </c>
       <c r="D70" t="n">
-        <v>0.635754</v>
+        <v>0.678774</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.905783</v>
+        <v>0.9109</v>
       </c>
       <c r="C71" t="n">
-        <v>0.592677</v>
+        <v>0.619996</v>
       </c>
       <c r="D71" t="n">
-        <v>0.608163</v>
+        <v>0.665317</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.903276</v>
+        <v>0.889426</v>
       </c>
       <c r="C72" t="n">
-        <v>0.568098</v>
+        <v>0.609375</v>
       </c>
       <c r="D72" t="n">
-        <v>0.588742</v>
+        <v>0.65712</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.851909</v>
+        <v>0.903645</v>
       </c>
       <c r="C73" t="n">
-        <v>0.574456</v>
+        <v>0.594855</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.642782</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.870611</v>
+        <v>0.9010629999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.547601</v>
+        <v>0.564716</v>
       </c>
       <c r="D74" t="n">
-        <v>0.569933</v>
+        <v>0.61772</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8556319999999999</v>
+        <v>0.860596</v>
       </c>
       <c r="C75" t="n">
-        <v>0.553504</v>
+        <v>0.557478</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5500350000000001</v>
+        <v>0.602736</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.818298</v>
+        <v>0.864949</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5182</v>
+        <v>0.5335029999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5430430000000001</v>
+        <v>0.601854</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.812393</v>
+        <v>0.847706</v>
       </c>
       <c r="C77" t="n">
-        <v>0.517732</v>
+        <v>0.5336610000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.531151</v>
+        <v>0.576524</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.796915</v>
+        <v>0.833392</v>
       </c>
       <c r="C78" t="n">
-        <v>0.501231</v>
+        <v>0.537084</v>
       </c>
       <c r="D78" t="n">
-        <v>0.517039</v>
+        <v>0.561436</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7919079999999999</v>
+        <v>0.809739</v>
       </c>
       <c r="C79" t="n">
-        <v>0.511879</v>
+        <v>0.515135</v>
       </c>
       <c r="D79" t="n">
-        <v>0.511415</v>
+        <v>0.560586</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.775291</v>
+        <v>0.83251</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7967379999999999</v>
+        <v>0.815604</v>
       </c>
       <c r="D80" t="n">
-        <v>0.829827</v>
+        <v>0.8803339999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08541</v>
+        <v>1.14226</v>
       </c>
       <c r="C81" t="n">
-        <v>0.774877</v>
+        <v>0.807307</v>
       </c>
       <c r="D81" t="n">
-        <v>0.828506</v>
+        <v>0.894957</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05739</v>
+        <v>1.09759</v>
       </c>
       <c r="C82" t="n">
-        <v>0.769617</v>
+        <v>0.7678120000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.792005</v>
+        <v>0.835085</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08022</v>
+        <v>1.088</v>
       </c>
       <c r="C83" t="n">
-        <v>0.740538</v>
+        <v>0.774297</v>
       </c>
       <c r="D83" t="n">
-        <v>0.766266</v>
+        <v>0.833693</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05063</v>
+        <v>1.05952</v>
       </c>
       <c r="C84" t="n">
-        <v>0.715726</v>
+        <v>0.751285</v>
       </c>
       <c r="D84" t="n">
-        <v>0.749896</v>
+        <v>0.80031</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0296</v>
+        <v>1.06813</v>
       </c>
       <c r="C85" t="n">
-        <v>0.70583</v>
+        <v>0.743822</v>
       </c>
       <c r="D85" t="n">
-        <v>0.740193</v>
+        <v>0.77851</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03084</v>
+        <v>1.02851</v>
       </c>
       <c r="C86" t="n">
-        <v>0.688186</v>
+        <v>0.722275</v>
       </c>
       <c r="D86" t="n">
-        <v>0.722583</v>
+        <v>0.785629</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01868</v>
+        <v>1.01303</v>
       </c>
       <c r="C87" t="n">
-        <v>0.663324</v>
+        <v>0.701928</v>
       </c>
       <c r="D87" t="n">
-        <v>0.707348</v>
+        <v>0.750228</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.971932</v>
+        <v>1.01208</v>
       </c>
       <c r="C88" t="n">
-        <v>0.649033</v>
+        <v>0.684671</v>
       </c>
       <c r="D88" t="n">
-        <v>0.704146</v>
+        <v>0.727694</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.996638</v>
+        <v>1.00551</v>
       </c>
       <c r="C89" t="n">
-        <v>0.638989</v>
+        <v>0.659762</v>
       </c>
       <c r="D89" t="n">
-        <v>0.668539</v>
+        <v>0.725593</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.959035</v>
+        <v>1.00228</v>
       </c>
       <c r="C90" t="n">
-        <v>0.629078</v>
+        <v>0.653933</v>
       </c>
       <c r="D90" t="n">
-        <v>0.667544</v>
+        <v>0.703101</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.937361</v>
+        <v>0.966534</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6300249999999999</v>
+        <v>0.635834</v>
       </c>
       <c r="D91" t="n">
-        <v>0.645512</v>
+        <v>0.682801</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.925782</v>
+        <v>0.9592540000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.610297</v>
+        <v>0.62719</v>
       </c>
       <c r="D92" t="n">
-        <v>0.636884</v>
+        <v>0.661678</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.904596</v>
+        <v>0.949455</v>
       </c>
       <c r="C93" t="n">
-        <v>0.606564</v>
+        <v>0.622641</v>
       </c>
       <c r="D93" t="n">
-        <v>0.621876</v>
+        <v>0.658108</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.901655</v>
+        <v>0.9162670000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.914118</v>
+        <v>0.944422</v>
       </c>
       <c r="D94" t="n">
-        <v>0.939479</v>
+        <v>0.998665</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2596</v>
+        <v>1.26903</v>
       </c>
       <c r="C95" t="n">
-        <v>0.886309</v>
+        <v>0.905222</v>
       </c>
       <c r="D95" t="n">
-        <v>0.92886</v>
+        <v>0.988484</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17353</v>
+        <v>1.22821</v>
       </c>
       <c r="C96" t="n">
-        <v>0.861385</v>
+        <v>0.899811</v>
       </c>
       <c r="D96" t="n">
-        <v>0.905399</v>
+        <v>0.949704</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1727</v>
+        <v>1.24744</v>
       </c>
       <c r="C97" t="n">
-        <v>0.859241</v>
+        <v>0.901841</v>
       </c>
       <c r="D97" t="n">
-        <v>0.901484</v>
+        <v>0.949242</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1643</v>
+        <v>1.1901</v>
       </c>
       <c r="C98" t="n">
-        <v>0.856066</v>
+        <v>0.883969</v>
       </c>
       <c r="D98" t="n">
-        <v>0.873573</v>
+        <v>0.917614</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14052</v>
+        <v>1.20594</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8395550000000001</v>
+        <v>0.860443</v>
       </c>
       <c r="D99" t="n">
-        <v>0.882024</v>
+        <v>0.901258</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14244</v>
+        <v>1.1875</v>
       </c>
       <c r="C100" t="n">
-        <v>0.820253</v>
+        <v>0.854566</v>
       </c>
       <c r="D100" t="n">
-        <v>0.838538</v>
+        <v>0.8824920000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13575</v>
+        <v>1.16062</v>
       </c>
       <c r="C101" t="n">
-        <v>0.784545</v>
+        <v>0.8236869999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8304820000000001</v>
+        <v>0.871806</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10791</v>
+        <v>1.15744</v>
       </c>
       <c r="C102" t="n">
-        <v>0.786431</v>
+        <v>0.820743</v>
       </c>
       <c r="D102" t="n">
-        <v>0.803335</v>
+        <v>0.872837</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10933</v>
+        <v>1.13419</v>
       </c>
       <c r="C103" t="n">
-        <v>0.773049</v>
+        <v>0.820191</v>
       </c>
       <c r="D103" t="n">
-        <v>0.788094</v>
+        <v>0.853478</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07221</v>
+        <v>1.11509</v>
       </c>
       <c r="C104" t="n">
-        <v>0.740858</v>
+        <v>0.797239</v>
       </c>
       <c r="D104" t="n">
-        <v>0.778155</v>
+        <v>0.826471</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08429</v>
+        <v>1.12138</v>
       </c>
       <c r="C105" t="n">
-        <v>0.76735</v>
+        <v>0.771373</v>
       </c>
       <c r="D105" t="n">
-        <v>0.774423</v>
+        <v>0.807178</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.08347</v>
+        <v>1.10483</v>
       </c>
       <c r="C106" t="n">
-        <v>0.732603</v>
+        <v>0.753815</v>
       </c>
       <c r="D106" t="n">
-        <v>0.749417</v>
+        <v>0.827207</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.04003</v>
+        <v>1.09299</v>
       </c>
       <c r="C107" t="n">
-        <v>0.73737</v>
+        <v>0.760094</v>
       </c>
       <c r="D107" t="n">
-        <v>0.77346</v>
+        <v>0.781768</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.03497</v>
+        <v>1.10989</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04057</v>
+        <v>1.0871</v>
       </c>
       <c r="D108" t="n">
-        <v>1.07095</v>
+        <v>1.11881</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.02046</v>
+        <v>1.09423</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03483</v>
+        <v>1.08016</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07395</v>
+        <v>1.11025</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3586</v>
+        <v>1.43016</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04894</v>
+        <v>1.07555</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07002</v>
+        <v>1.09514</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34661</v>
+        <v>1.39024</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0288</v>
+        <v>1.04978</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04307</v>
+        <v>1.10684</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32746</v>
+        <v>1.37682</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01469</v>
+        <v>1.0538</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06056</v>
+        <v>1.07306</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.33616</v>
+        <v>1.38976</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0072</v>
+        <v>1.05613</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04432</v>
+        <v>1.08109</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.30455</v>
+        <v>1.39108</v>
       </c>
       <c r="C114" t="n">
-        <v>1.01198</v>
+        <v>1.06283</v>
       </c>
       <c r="D114" t="n">
-        <v>1.03734</v>
+        <v>1.07466</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29973</v>
+        <v>1.36151</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00122</v>
+        <v>1.05337</v>
       </c>
       <c r="D115" t="n">
-        <v>1.018</v>
+        <v>1.08998</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28359</v>
+        <v>1.35982</v>
       </c>
       <c r="C116" t="n">
-        <v>0.971507</v>
+        <v>1.03652</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02042</v>
+        <v>1.06309</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28004</v>
+        <v>1.35002</v>
       </c>
       <c r="C117" t="n">
-        <v>0.981716</v>
+        <v>1.02819</v>
       </c>
       <c r="D117" t="n">
-        <v>1.02736</v>
+        <v>1.0933</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.28946</v>
+        <v>1.32376</v>
       </c>
       <c r="C118" t="n">
-        <v>0.999651</v>
+        <v>1.01342</v>
       </c>
       <c r="D118" t="n">
-        <v>0.988787</v>
+        <v>1.05766</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.27539</v>
+        <v>1.3296</v>
       </c>
       <c r="C119" t="n">
-        <v>0.972839</v>
+        <v>1.00608</v>
       </c>
       <c r="D119" t="n">
-        <v>0.99557</v>
+        <v>1.03494</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2579</v>
+        <v>1.31529</v>
       </c>
       <c r="C120" t="n">
-        <v>0.963008</v>
+        <v>1.02144</v>
       </c>
       <c r="D120" t="n">
-        <v>0.989453</v>
+        <v>1.02151</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.25046</v>
+        <v>1.32233</v>
       </c>
       <c r="C121" t="n">
-        <v>0.964894</v>
+        <v>1.00324</v>
       </c>
       <c r="D121" t="n">
-        <v>0.979725</v>
+        <v>1.02826</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.25852</v>
+        <v>1.31411</v>
       </c>
       <c r="C122" t="n">
-        <v>0.964342</v>
+        <v>0.986514</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9749910000000001</v>
+        <v>1.03546</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.25165</v>
+        <v>1.29347</v>
       </c>
       <c r="C123" t="n">
-        <v>1.3102</v>
+        <v>1.34656</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29738</v>
+        <v>1.36371</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58226</v>
+        <v>1.61677</v>
       </c>
       <c r="C124" t="n">
-        <v>1.27292</v>
+        <v>1.33606</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31266</v>
+        <v>1.37305</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.57684</v>
+        <v>1.63711</v>
       </c>
       <c r="C125" t="n">
-        <v>1.30388</v>
+        <v>1.35285</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30839</v>
+        <v>1.3843</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56449</v>
+        <v>1.62111</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32263</v>
+        <v>1.33702</v>
       </c>
       <c r="D126" t="n">
-        <v>1.315</v>
+        <v>1.37437</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.56408</v>
+        <v>1.62152</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32018</v>
+        <v>1.33926</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30314</v>
+        <v>1.37867</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.53397</v>
+        <v>1.60021</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29502</v>
+        <v>1.34691</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30843</v>
+        <v>1.37703</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55952</v>
+        <v>1.61082</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31031</v>
+        <v>1.3</v>
       </c>
       <c r="D129" t="n">
-        <v>1.34661</v>
+        <v>1.35106</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.54119</v>
+        <v>1.60892</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29461</v>
+        <v>1.36023</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31977</v>
+        <v>1.36108</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54726</v>
+        <v>1.54154</v>
       </c>
       <c r="C131" t="n">
-        <v>1.30052</v>
+        <v>1.30011</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31293</v>
+        <v>1.32659</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55126</v>
+        <v>1.49274</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31188</v>
+        <v>1.2788</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32721</v>
+        <v>1.32261</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.53427</v>
+        <v>1.49514</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30188</v>
+        <v>1.29012</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33021</v>
+        <v>1.31319</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54551</v>
+        <v>1.50275</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32055</v>
+        <v>1.28448</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32169</v>
+        <v>1.28516</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.55877</v>
+        <v>1.49493</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29664</v>
+        <v>1.27599</v>
       </c>
       <c r="D135" t="n">
-        <v>1.29864</v>
+        <v>1.31327</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.5444</v>
+        <v>1.51128</v>
       </c>
       <c r="C136" t="n">
-        <v>1.32894</v>
+        <v>1.26609</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32012</v>
+        <v>1.29253</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.57176</v>
+        <v>1.51118</v>
       </c>
       <c r="C137" t="n">
-        <v>1.63235</v>
+        <v>1.62535</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64629</v>
+        <v>1.60828</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.89035</v>
+        <v>1.8964</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6403</v>
+        <v>1.68021</v>
       </c>
       <c r="D138" t="n">
-        <v>1.66186</v>
+        <v>1.74225</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.8822</v>
+        <v>1.97872</v>
       </c>
       <c r="C139" t="n">
-        <v>1.66465</v>
+        <v>1.78823</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66506</v>
+        <v>1.78754</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.87073</v>
+        <v>2.01891</v>
       </c>
       <c r="C140" t="n">
-        <v>1.62839</v>
+        <v>1.80201</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68123</v>
+        <v>1.83599</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86606</v>
+        <v>2.00858</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67562</v>
+        <v>1.84342</v>
       </c>
       <c r="D141" t="n">
-        <v>1.6459</v>
+        <v>1.84218</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.87285</v>
+        <v>2.04084</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67385</v>
+        <v>1.85211</v>
       </c>
       <c r="D142" t="n">
-        <v>1.6723</v>
+        <v>1.85644</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84929</v>
+        <v>2.01945</v>
       </c>
       <c r="C143" t="n">
-        <v>1.67812</v>
+        <v>1.85434</v>
       </c>
       <c r="D143" t="n">
-        <v>1.66729</v>
+        <v>1.86925</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542257</v>
+        <v>0.542256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.228251</v>
+        <v>0.230422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.263797</v>
+        <v>0.244697</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.439619</v>
+        <v>0.442084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.232795</v>
+        <v>0.222787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25776</v>
+        <v>0.239841</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.451755</v>
+        <v>0.426317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213631</v>
+        <v>0.215844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245132</v>
+        <v>0.242942</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428426</v>
+        <v>0.426473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210976</v>
+        <v>0.217845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240641</v>
+        <v>0.230447</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.413392</v>
+        <v>0.427211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211248</v>
+        <v>0.206888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240274</v>
+        <v>0.232814</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425161</v>
+        <v>0.421536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203496</v>
+        <v>0.199687</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233244</v>
+        <v>0.223887</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.434273</v>
+        <v>0.409228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.203198</v>
+        <v>0.198473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230936</v>
+        <v>0.226318</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.412878</v>
+        <v>0.419581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284732</v>
+        <v>0.282501</v>
       </c>
       <c r="D9" t="n">
-        <v>0.331332</v>
+        <v>0.317171</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.491759</v>
+        <v>0.49305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.277561</v>
+        <v>0.275493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315297</v>
+        <v>0.30749</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.492593</v>
+        <v>0.476779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.267522</v>
+        <v>0.264994</v>
       </c>
       <c r="D11" t="n">
-        <v>0.302999</v>
+        <v>0.301273</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.479669</v>
+        <v>0.484776</v>
       </c>
       <c r="C12" t="n">
-        <v>0.254377</v>
+        <v>0.254988</v>
       </c>
       <c r="D12" t="n">
-        <v>0.298784</v>
+        <v>0.299424</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.474389</v>
+        <v>0.475185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25573</v>
+        <v>0.256647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.292849</v>
+        <v>0.282327</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.454555</v>
+        <v>0.461886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242702</v>
+        <v>0.240747</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281725</v>
+        <v>0.279721</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.451549</v>
+        <v>0.452413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242684</v>
+        <v>0.236204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.279013</v>
+        <v>0.268524</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.454537</v>
+        <v>0.451248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22816</v>
+        <v>0.229665</v>
       </c>
       <c r="D16" t="n">
-        <v>0.270161</v>
+        <v>0.263898</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.445432</v>
+        <v>0.448839</v>
       </c>
       <c r="C17" t="n">
-        <v>0.220595</v>
+        <v>0.229392</v>
       </c>
       <c r="D17" t="n">
-        <v>0.272763</v>
+        <v>0.257869</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.442705</v>
+        <v>0.440749</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218202</v>
+        <v>0.218048</v>
       </c>
       <c r="D18" t="n">
-        <v>0.266939</v>
+        <v>0.250302</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.43043</v>
+        <v>0.442396</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21603</v>
+        <v>0.221437</v>
       </c>
       <c r="D19" t="n">
-        <v>0.254989</v>
+        <v>0.244872</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429165</v>
+        <v>0.439545</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213891</v>
+        <v>0.212599</v>
       </c>
       <c r="D20" t="n">
-        <v>0.256572</v>
+        <v>0.239183</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.426306</v>
+        <v>0.427468</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208742</v>
+        <v>0.207894</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245417</v>
+        <v>0.235578</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422193</v>
+        <v>0.42596</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200146</v>
+        <v>0.205973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242989</v>
+        <v>0.236029</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431612</v>
+        <v>0.420771</v>
       </c>
       <c r="C23" t="n">
-        <v>0.46273</v>
+        <v>0.448509</v>
       </c>
       <c r="D23" t="n">
-        <v>0.578484</v>
+        <v>0.571689</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.671619</v>
+        <v>0.66686</v>
       </c>
       <c r="C24" t="n">
-        <v>0.431732</v>
+        <v>0.434018</v>
       </c>
       <c r="D24" t="n">
-        <v>0.563887</v>
+        <v>0.550061</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.659022</v>
+        <v>0.6577730000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.410605</v>
+        <v>0.426283</v>
       </c>
       <c r="D25" t="n">
-        <v>0.537649</v>
+        <v>0.533789</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.641364</v>
+        <v>0.639163</v>
       </c>
       <c r="C26" t="n">
-        <v>0.404614</v>
+        <v>0.406089</v>
       </c>
       <c r="D26" t="n">
-        <v>0.52686</v>
+        <v>0.528216</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.626647</v>
+        <v>0.631157</v>
       </c>
       <c r="C27" t="n">
-        <v>0.385652</v>
+        <v>0.385273</v>
       </c>
       <c r="D27" t="n">
-        <v>0.494735</v>
+        <v>0.502074</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.616974</v>
+        <v>0.607357</v>
       </c>
       <c r="C28" t="n">
-        <v>0.383765</v>
+        <v>0.373536</v>
       </c>
       <c r="D28" t="n">
-        <v>0.489482</v>
+        <v>0.479529</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.596894</v>
+        <v>0.612133</v>
       </c>
       <c r="C29" t="n">
-        <v>0.365174</v>
+        <v>0.359416</v>
       </c>
       <c r="D29" t="n">
-        <v>0.480331</v>
+        <v>0.465034</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.587127</v>
+        <v>0.583916</v>
       </c>
       <c r="C30" t="n">
-        <v>0.354747</v>
+        <v>0.350188</v>
       </c>
       <c r="D30" t="n">
-        <v>0.471823</v>
+        <v>0.454508</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.583483</v>
+        <v>0.57148</v>
       </c>
       <c r="C31" t="n">
-        <v>0.339191</v>
+        <v>0.335391</v>
       </c>
       <c r="D31" t="n">
-        <v>0.452427</v>
+        <v>0.422114</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.572472</v>
+        <v>0.568922</v>
       </c>
       <c r="C32" t="n">
-        <v>0.323403</v>
+        <v>0.339865</v>
       </c>
       <c r="D32" t="n">
-        <v>0.433577</v>
+        <v>0.424692</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.550496</v>
+        <v>0.555478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.322165</v>
+        <v>0.321118</v>
       </c>
       <c r="D33" t="n">
-        <v>0.421772</v>
+        <v>0.415545</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.569119</v>
+        <v>0.551334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.318633</v>
+        <v>0.321456</v>
       </c>
       <c r="D34" t="n">
-        <v>0.417556</v>
+        <v>0.407886</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.532142</v>
+        <v>0.524751</v>
       </c>
       <c r="C35" t="n">
-        <v>0.305677</v>
+        <v>0.308655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.390359</v>
+        <v>0.388436</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.53185</v>
+        <v>0.526254</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296195</v>
+        <v>0.303096</v>
       </c>
       <c r="D36" t="n">
-        <v>0.383123</v>
+        <v>0.37845</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.510427</v>
+        <v>0.530129</v>
       </c>
       <c r="C37" t="n">
-        <v>0.559869</v>
+        <v>0.56001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.665062</v>
+        <v>0.6472020000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.767332</v>
+        <v>0.7864</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5365490000000001</v>
+        <v>0.531789</v>
       </c>
       <c r="D38" t="n">
-        <v>0.647541</v>
+        <v>0.624324</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.752265</v>
+        <v>0.783555</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5146810000000001</v>
+        <v>0.519109</v>
       </c>
       <c r="D39" t="n">
-        <v>0.620869</v>
+        <v>0.615231</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.756175</v>
+        <v>0.743048</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5006</v>
+        <v>0.499699</v>
       </c>
       <c r="D40" t="n">
-        <v>0.585164</v>
+        <v>0.582683</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.729253</v>
+        <v>0.724361</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480542</v>
+        <v>0.47165</v>
       </c>
       <c r="D41" t="n">
-        <v>0.588331</v>
+        <v>0.56897</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.72375</v>
+        <v>0.700801</v>
       </c>
       <c r="C42" t="n">
-        <v>0.465427</v>
+        <v>0.468908</v>
       </c>
       <c r="D42" t="n">
-        <v>0.557882</v>
+        <v>0.5474</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.692049</v>
+        <v>0.6971000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.450484</v>
+        <v>0.45561</v>
       </c>
       <c r="D43" t="n">
-        <v>0.555044</v>
+        <v>0.530319</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.687003</v>
+        <v>0.6775060000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.433986</v>
+        <v>0.42837</v>
       </c>
       <c r="D44" t="n">
-        <v>0.529429</v>
+        <v>0.5053800000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.663716</v>
+        <v>0.688038</v>
       </c>
       <c r="C45" t="n">
-        <v>0.420812</v>
+        <v>0.408524</v>
       </c>
       <c r="D45" t="n">
-        <v>0.501085</v>
+        <v>0.499477</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.656258</v>
+        <v>0.65744</v>
       </c>
       <c r="C46" t="n">
-        <v>0.400948</v>
+        <v>0.404909</v>
       </c>
       <c r="D46" t="n">
-        <v>0.477339</v>
+        <v>0.476749</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636951</v>
+        <v>0.631808</v>
       </c>
       <c r="C47" t="n">
-        <v>0.38891</v>
+        <v>0.38757</v>
       </c>
       <c r="D47" t="n">
-        <v>0.474845</v>
+        <v>0.461827</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.625333</v>
+        <v>0.629623</v>
       </c>
       <c r="C48" t="n">
-        <v>0.381167</v>
+        <v>0.379552</v>
       </c>
       <c r="D48" t="n">
-        <v>0.460209</v>
+        <v>0.455529</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.611666</v>
+        <v>0.602469</v>
       </c>
       <c r="C49" t="n">
-        <v>0.38035</v>
+        <v>0.370681</v>
       </c>
       <c r="D49" t="n">
-        <v>0.444953</v>
+        <v>0.432701</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.602727</v>
+        <v>0.602875</v>
       </c>
       <c r="C50" t="n">
-        <v>0.370228</v>
+        <v>0.367869</v>
       </c>
       <c r="D50" t="n">
-        <v>0.439208</v>
+        <v>0.426865</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.612995</v>
+        <v>0.606092</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6307120000000001</v>
+        <v>0.63178</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7261</v>
+        <v>0.723746</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.598869</v>
+        <v>0.591041</v>
       </c>
       <c r="C52" t="n">
-        <v>0.619734</v>
+        <v>0.624965</v>
       </c>
       <c r="D52" t="n">
-        <v>0.72304</v>
+        <v>0.708898</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.869582</v>
+        <v>0.876436</v>
       </c>
       <c r="C53" t="n">
-        <v>0.605357</v>
+        <v>0.596794</v>
       </c>
       <c r="D53" t="n">
-        <v>0.661086</v>
+        <v>0.6779579999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8498</v>
+        <v>0.841857</v>
       </c>
       <c r="C54" t="n">
-        <v>0.577417</v>
+        <v>0.576916</v>
       </c>
       <c r="D54" t="n">
-        <v>0.641722</v>
+        <v>0.669374</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.822658</v>
+        <v>0.839816</v>
       </c>
       <c r="C55" t="n">
-        <v>0.560259</v>
+        <v>0.5596640000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.648026</v>
+        <v>0.615467</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.83839</v>
+        <v>0.821234</v>
       </c>
       <c r="C56" t="n">
-        <v>0.54354</v>
+        <v>0.539489</v>
       </c>
       <c r="D56" t="n">
-        <v>0.632009</v>
+        <v>0.613446</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8205440000000001</v>
+        <v>0.8103939999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.531797</v>
+        <v>0.537809</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5896749999999999</v>
+        <v>0.589216</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.762056</v>
+        <v>0.773304</v>
       </c>
       <c r="C58" t="n">
-        <v>0.51234</v>
+        <v>0.508226</v>
       </c>
       <c r="D58" t="n">
-        <v>0.584479</v>
+        <v>0.556262</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.763748</v>
+        <v>0.766377</v>
       </c>
       <c r="C59" t="n">
-        <v>0.496448</v>
+        <v>0.493996</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565088</v>
+        <v>0.551218</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.740503</v>
+        <v>0.763443</v>
       </c>
       <c r="C60" t="n">
-        <v>0.492019</v>
+        <v>0.488489</v>
       </c>
       <c r="D60" t="n">
-        <v>0.535313</v>
+        <v>0.528382</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.748872</v>
+        <v>0.7480599999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.491079</v>
+        <v>0.460326</v>
       </c>
       <c r="D61" t="n">
-        <v>0.53528</v>
+        <v>0.5236459999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.739899</v>
+        <v>0.747597</v>
       </c>
       <c r="C62" t="n">
-        <v>0.461918</v>
+        <v>0.452743</v>
       </c>
       <c r="D62" t="n">
-        <v>0.520506</v>
+        <v>0.509698</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.722097</v>
+        <v>0.708902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.452162</v>
+        <v>0.441528</v>
       </c>
       <c r="D63" t="n">
-        <v>0.50602</v>
+        <v>0.486145</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.721571</v>
+        <v>0.718932</v>
       </c>
       <c r="C64" t="n">
-        <v>0.434119</v>
+        <v>0.451106</v>
       </c>
       <c r="D64" t="n">
-        <v>0.490128</v>
+        <v>0.486008</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.710091</v>
+        <v>0.708214</v>
       </c>
       <c r="C65" t="n">
-        <v>0.430251</v>
+        <v>0.427958</v>
       </c>
       <c r="D65" t="n">
-        <v>0.487589</v>
+        <v>0.472189</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.690852</v>
+        <v>0.702747</v>
       </c>
       <c r="C66" t="n">
-        <v>0.706286</v>
+        <v>0.701152</v>
       </c>
       <c r="D66" t="n">
-        <v>0.78156</v>
+        <v>0.770794</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.989142</v>
+        <v>1.0105</v>
       </c>
       <c r="C67" t="n">
-        <v>0.686696</v>
+        <v>0.684716</v>
       </c>
       <c r="D67" t="n">
-        <v>0.767876</v>
+        <v>0.7358749999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.95683</v>
+        <v>0.977668</v>
       </c>
       <c r="C68" t="n">
-        <v>0.671051</v>
+        <v>0.668924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.747225</v>
+        <v>0.754257</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9661650000000001</v>
+        <v>0.9692460000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.649504</v>
+        <v>0.639721</v>
       </c>
       <c r="D69" t="n">
-        <v>0.733971</v>
+        <v>0.71275</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.938845</v>
+        <v>0.950612</v>
       </c>
       <c r="C70" t="n">
-        <v>0.633155</v>
+        <v>0.631888</v>
       </c>
       <c r="D70" t="n">
-        <v>0.678774</v>
+        <v>0.693016</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9109</v>
+        <v>0.909095</v>
       </c>
       <c r="C71" t="n">
-        <v>0.619996</v>
+        <v>0.617657</v>
       </c>
       <c r="D71" t="n">
-        <v>0.665317</v>
+        <v>0.678351</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.889426</v>
+        <v>0.901936</v>
       </c>
       <c r="C72" t="n">
-        <v>0.609375</v>
+        <v>0.59293</v>
       </c>
       <c r="D72" t="n">
-        <v>0.65712</v>
+        <v>0.666583</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.903645</v>
+        <v>0.8688900000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.594855</v>
+        <v>0.577739</v>
       </c>
       <c r="D73" t="n">
-        <v>0.642782</v>
+        <v>0.630286</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9010629999999999</v>
+        <v>0.867507</v>
       </c>
       <c r="C74" t="n">
-        <v>0.564716</v>
+        <v>0.562392</v>
       </c>
       <c r="D74" t="n">
-        <v>0.61772</v>
+        <v>0.61181</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.860596</v>
+        <v>0.866202</v>
       </c>
       <c r="C75" t="n">
-        <v>0.557478</v>
+        <v>0.551302</v>
       </c>
       <c r="D75" t="n">
-        <v>0.602736</v>
+        <v>0.600974</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.864949</v>
+        <v>0.859506</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5335029999999999</v>
+        <v>0.550685</v>
       </c>
       <c r="D76" t="n">
-        <v>0.601854</v>
+        <v>0.58283</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.847706</v>
+        <v>0.860361</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5336610000000001</v>
+        <v>0.525909</v>
       </c>
       <c r="D77" t="n">
-        <v>0.576524</v>
+        <v>0.562358</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.833392</v>
+        <v>0.827313</v>
       </c>
       <c r="C78" t="n">
-        <v>0.537084</v>
+        <v>0.540377</v>
       </c>
       <c r="D78" t="n">
-        <v>0.561436</v>
+        <v>0.559948</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.809739</v>
+        <v>0.818668</v>
       </c>
       <c r="C79" t="n">
-        <v>0.515135</v>
+        <v>0.505431</v>
       </c>
       <c r="D79" t="n">
-        <v>0.560586</v>
+        <v>0.551505</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.83251</v>
+        <v>0.798042</v>
       </c>
       <c r="C80" t="n">
-        <v>0.815604</v>
+        <v>0.803166</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8803339999999999</v>
+        <v>0.873715</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.14226</v>
+        <v>1.14774</v>
       </c>
       <c r="C81" t="n">
-        <v>0.807307</v>
+        <v>0.800029</v>
       </c>
       <c r="D81" t="n">
-        <v>0.894957</v>
+        <v>0.86237</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09759</v>
+        <v>1.08776</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7678120000000001</v>
+        <v>0.770773</v>
       </c>
       <c r="D82" t="n">
-        <v>0.835085</v>
+        <v>0.846044</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.088</v>
+        <v>1.06901</v>
       </c>
       <c r="C83" t="n">
-        <v>0.774297</v>
+        <v>0.766256</v>
       </c>
       <c r="D83" t="n">
-        <v>0.833693</v>
+        <v>0.800583</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05952</v>
+        <v>1.05287</v>
       </c>
       <c r="C84" t="n">
-        <v>0.751285</v>
+        <v>0.752583</v>
       </c>
       <c r="D84" t="n">
-        <v>0.80031</v>
+        <v>0.77441</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.06813</v>
+        <v>1.05392</v>
       </c>
       <c r="C85" t="n">
-        <v>0.743822</v>
+        <v>0.736541</v>
       </c>
       <c r="D85" t="n">
-        <v>0.77851</v>
+        <v>0.785879</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.02851</v>
+        <v>1.05515</v>
       </c>
       <c r="C86" t="n">
-        <v>0.722275</v>
+        <v>0.706634</v>
       </c>
       <c r="D86" t="n">
-        <v>0.785629</v>
+        <v>0.756107</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01303</v>
+        <v>1.03023</v>
       </c>
       <c r="C87" t="n">
-        <v>0.701928</v>
+        <v>0.70352</v>
       </c>
       <c r="D87" t="n">
-        <v>0.750228</v>
+        <v>0.74503</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01208</v>
+        <v>0.981545</v>
       </c>
       <c r="C88" t="n">
-        <v>0.684671</v>
+        <v>0.663876</v>
       </c>
       <c r="D88" t="n">
-        <v>0.727694</v>
+        <v>0.729945</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.00551</v>
+        <v>1.0121</v>
       </c>
       <c r="C89" t="n">
-        <v>0.659762</v>
+        <v>0.664444</v>
       </c>
       <c r="D89" t="n">
-        <v>0.725593</v>
+        <v>0.704265</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.00228</v>
+        <v>0.980085</v>
       </c>
       <c r="C90" t="n">
-        <v>0.653933</v>
+        <v>0.643994</v>
       </c>
       <c r="D90" t="n">
-        <v>0.703101</v>
+        <v>0.7062929999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.966534</v>
+        <v>0.956804</v>
       </c>
       <c r="C91" t="n">
-        <v>0.635834</v>
+        <v>0.642161</v>
       </c>
       <c r="D91" t="n">
-        <v>0.682801</v>
+        <v>0.6759039999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9592540000000001</v>
+        <v>0.9617830000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.62719</v>
+        <v>0.641537</v>
       </c>
       <c r="D92" t="n">
-        <v>0.661678</v>
+        <v>0.672079</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949455</v>
+        <v>0.960736</v>
       </c>
       <c r="C93" t="n">
-        <v>0.622641</v>
+        <v>0.635997</v>
       </c>
       <c r="D93" t="n">
-        <v>0.658108</v>
+        <v>0.638737</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9162670000000001</v>
+        <v>0.928368</v>
       </c>
       <c r="C94" t="n">
-        <v>0.944422</v>
+        <v>0.930853</v>
       </c>
       <c r="D94" t="n">
-        <v>0.998665</v>
+        <v>0.982282</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.26903</v>
+        <v>1.24424</v>
       </c>
       <c r="C95" t="n">
-        <v>0.905222</v>
+        <v>0.9374710000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.988484</v>
+        <v>0.959408</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.22821</v>
+        <v>1.25022</v>
       </c>
       <c r="C96" t="n">
-        <v>0.899811</v>
+        <v>0.892954</v>
       </c>
       <c r="D96" t="n">
-        <v>0.949704</v>
+        <v>0.94969</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.24744</v>
+        <v>1.22475</v>
       </c>
       <c r="C97" t="n">
-        <v>0.901841</v>
+        <v>0.8858819999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.949242</v>
+        <v>0.914344</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1901</v>
+        <v>1.20672</v>
       </c>
       <c r="C98" t="n">
-        <v>0.883969</v>
+        <v>0.856774</v>
       </c>
       <c r="D98" t="n">
-        <v>0.917614</v>
+        <v>0.9047500000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20594</v>
+        <v>1.17898</v>
       </c>
       <c r="C99" t="n">
-        <v>0.860443</v>
+        <v>0.837513</v>
       </c>
       <c r="D99" t="n">
-        <v>0.901258</v>
+        <v>0.906101</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1875</v>
+        <v>1.17409</v>
       </c>
       <c r="C100" t="n">
-        <v>0.854566</v>
+        <v>0.8617359999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8824920000000001</v>
+        <v>0.895427</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16062</v>
+        <v>1.16314</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8236869999999999</v>
+        <v>0.824953</v>
       </c>
       <c r="D101" t="n">
-        <v>0.871806</v>
+        <v>0.857862</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.15744</v>
+        <v>1.14845</v>
       </c>
       <c r="C102" t="n">
-        <v>0.820743</v>
+        <v>0.817167</v>
       </c>
       <c r="D102" t="n">
-        <v>0.872837</v>
+        <v>0.834412</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.13419</v>
+        <v>1.12022</v>
       </c>
       <c r="C103" t="n">
-        <v>0.820191</v>
+        <v>0.794774</v>
       </c>
       <c r="D103" t="n">
-        <v>0.853478</v>
+        <v>0.825152</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.11509</v>
+        <v>1.1277</v>
       </c>
       <c r="C104" t="n">
-        <v>0.797239</v>
+        <v>0.779296</v>
       </c>
       <c r="D104" t="n">
-        <v>0.826471</v>
+        <v>0.817829</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12138</v>
+        <v>1.0964</v>
       </c>
       <c r="C105" t="n">
-        <v>0.771373</v>
+        <v>0.760105</v>
       </c>
       <c r="D105" t="n">
-        <v>0.807178</v>
+        <v>0.805624</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10483</v>
+        <v>1.10891</v>
       </c>
       <c r="C106" t="n">
-        <v>0.753815</v>
+        <v>0.777661</v>
       </c>
       <c r="D106" t="n">
-        <v>0.827207</v>
+        <v>0.794868</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09299</v>
+        <v>1.09308</v>
       </c>
       <c r="C107" t="n">
-        <v>0.760094</v>
+        <v>0.758603</v>
       </c>
       <c r="D107" t="n">
-        <v>0.781768</v>
+        <v>0.7861939999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.10989</v>
+        <v>1.0901</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0871</v>
+        <v>1.09112</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11881</v>
+        <v>1.13052</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09423</v>
+        <v>1.07945</v>
       </c>
       <c r="C109" t="n">
-        <v>1.08016</v>
+        <v>1.08373</v>
       </c>
       <c r="D109" t="n">
-        <v>1.11025</v>
+        <v>1.11571</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.43016</v>
+        <v>1.42541</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07555</v>
+        <v>1.05907</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09514</v>
+        <v>1.11367</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.39024</v>
+        <v>1.3737</v>
       </c>
       <c r="C111" t="n">
-        <v>1.04978</v>
+        <v>1.07425</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10684</v>
+        <v>1.11508</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.37682</v>
+        <v>1.36541</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0538</v>
+        <v>1.02525</v>
       </c>
       <c r="D112" t="n">
-        <v>1.07306</v>
+        <v>1.08531</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.38976</v>
+        <v>1.35865</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05613</v>
+        <v>1.05386</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08109</v>
+        <v>1.08057</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.39108</v>
+        <v>1.35644</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06283</v>
+        <v>1.04437</v>
       </c>
       <c r="D114" t="n">
-        <v>1.07466</v>
+        <v>1.0621</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.36151</v>
+        <v>1.36932</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05337</v>
+        <v>1.06277</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08998</v>
+        <v>1.0887</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35982</v>
+        <v>1.35985</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03652</v>
+        <v>1.02213</v>
       </c>
       <c r="D116" t="n">
-        <v>1.06309</v>
+        <v>1.04886</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.35002</v>
+        <v>1.33481</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02819</v>
+        <v>1.01908</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0933</v>
+        <v>1.04526</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.32376</v>
+        <v>1.33569</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01342</v>
+        <v>1.0328</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05766</v>
+        <v>1.0465</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.3296</v>
+        <v>1.32806</v>
       </c>
       <c r="C119" t="n">
-        <v>1.00608</v>
+        <v>1.02883</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03494</v>
+        <v>1.04478</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.31529</v>
+        <v>1.34012</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02144</v>
+        <v>1.00599</v>
       </c>
       <c r="D120" t="n">
-        <v>1.02151</v>
+        <v>1.06126</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.32233</v>
+        <v>1.34536</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00324</v>
+        <v>1.00181</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02826</v>
+        <v>1.04675</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31411</v>
+        <v>1.34069</v>
       </c>
       <c r="C122" t="n">
-        <v>0.986514</v>
+        <v>1.00692</v>
       </c>
       <c r="D122" t="n">
-        <v>1.03546</v>
+        <v>1.04573</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.29347</v>
+        <v>1.3183</v>
       </c>
       <c r="C123" t="n">
-        <v>1.34656</v>
+        <v>1.3381</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36371</v>
+        <v>1.38036</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.61677</v>
+        <v>1.65692</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33606</v>
+        <v>1.3388</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37305</v>
+        <v>1.37486</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.63711</v>
+        <v>1.67586</v>
       </c>
       <c r="C125" t="n">
-        <v>1.35285</v>
+        <v>1.33354</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3843</v>
+        <v>1.3872</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.62111</v>
+        <v>1.62772</v>
       </c>
       <c r="C126" t="n">
-        <v>1.33702</v>
+        <v>1.35721</v>
       </c>
       <c r="D126" t="n">
-        <v>1.37437</v>
+        <v>1.3795</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.62152</v>
+        <v>1.60397</v>
       </c>
       <c r="C127" t="n">
-        <v>1.33926</v>
+        <v>1.34821</v>
       </c>
       <c r="D127" t="n">
-        <v>1.37867</v>
+        <v>1.36406</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.60021</v>
+        <v>1.6254</v>
       </c>
       <c r="C128" t="n">
-        <v>1.34691</v>
+        <v>1.34251</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37703</v>
+        <v>1.38024</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.61082</v>
+        <v>1.60466</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3</v>
+        <v>1.35363</v>
       </c>
       <c r="D129" t="n">
-        <v>1.35106</v>
+        <v>1.36751</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.60892</v>
+        <v>1.61168</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36023</v>
+        <v>1.36316</v>
       </c>
       <c r="D130" t="n">
-        <v>1.36108</v>
+        <v>1.3954</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54154</v>
+        <v>1.60453</v>
       </c>
       <c r="C131" t="n">
-        <v>1.30011</v>
+        <v>1.36393</v>
       </c>
       <c r="D131" t="n">
-        <v>1.32659</v>
+        <v>1.35997</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.49274</v>
+        <v>1.60036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.2788</v>
+        <v>1.36073</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32261</v>
+        <v>1.37037</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.49514</v>
+        <v>1.61743</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29012</v>
+        <v>1.36303</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31319</v>
+        <v>1.36674</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.50275</v>
+        <v>1.5906</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28448</v>
+        <v>1.33957</v>
       </c>
       <c r="D134" t="n">
-        <v>1.28516</v>
+        <v>1.36663</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.49493</v>
+        <v>1.58359</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27599</v>
+        <v>1.35404</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31327</v>
+        <v>1.37754</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.51128</v>
+        <v>1.61079</v>
       </c>
       <c r="C136" t="n">
-        <v>1.26609</v>
+        <v>1.35175</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29253</v>
+        <v>1.37508</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.51118</v>
+        <v>1.59581</v>
       </c>
       <c r="C137" t="n">
-        <v>1.62535</v>
+        <v>1.66549</v>
       </c>
       <c r="D137" t="n">
-        <v>1.60828</v>
+        <v>1.68717</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.8964</v>
+        <v>1.93497</v>
       </c>
       <c r="C138" t="n">
-        <v>1.68021</v>
+        <v>1.73121</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74225</v>
+        <v>1.7603</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.97872</v>
+        <v>1.96763</v>
       </c>
       <c r="C139" t="n">
-        <v>1.78823</v>
+        <v>1.75148</v>
       </c>
       <c r="D139" t="n">
-        <v>1.78754</v>
+        <v>1.78476</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.01891</v>
+        <v>2.01405</v>
       </c>
       <c r="C140" t="n">
-        <v>1.80201</v>
+        <v>1.79899</v>
       </c>
       <c r="D140" t="n">
-        <v>1.83599</v>
+        <v>1.8084</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.00858</v>
+        <v>1.9983</v>
       </c>
       <c r="C141" t="n">
-        <v>1.84342</v>
+        <v>1.82319</v>
       </c>
       <c r="D141" t="n">
-        <v>1.84218</v>
+        <v>1.82374</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.04084</v>
+        <v>2.0337</v>
       </c>
       <c r="C142" t="n">
-        <v>1.85211</v>
+        <v>1.82442</v>
       </c>
       <c r="D142" t="n">
-        <v>1.85644</v>
+        <v>1.84057</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.01945</v>
+        <v>2.01679</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85434</v>
+        <v>1.85492</v>
       </c>
       <c r="D143" t="n">
-        <v>1.86925</v>
+        <v>1.85197</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542256</v>
+        <v>0.524019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230422</v>
+        <v>0.231146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244697</v>
+        <v>0.251436</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.442084</v>
+        <v>0.430737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.222787</v>
+        <v>0.216249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239841</v>
+        <v>0.248265</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.426317</v>
+        <v>0.442402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215844</v>
+        <v>0.21205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242942</v>
+        <v>0.241936</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.426473</v>
+        <v>0.417333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217845</v>
+        <v>0.212571</v>
       </c>
       <c r="D5" t="n">
-        <v>0.230447</v>
+        <v>0.240397</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427211</v>
+        <v>0.415972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206888</v>
+        <v>0.209881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232814</v>
+        <v>0.222814</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421536</v>
+        <v>0.422839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199687</v>
+        <v>0.206419</v>
       </c>
       <c r="D7" t="n">
-        <v>0.223887</v>
+        <v>0.229015</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.409228</v>
+        <v>0.404083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198473</v>
+        <v>0.198822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.226318</v>
+        <v>0.21451</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.419581</v>
+        <v>0.406246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.282501</v>
+        <v>0.291876</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317171</v>
+        <v>0.322033</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.49305</v>
+        <v>0.481412</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275493</v>
+        <v>0.283191</v>
       </c>
       <c r="D10" t="n">
-        <v>0.30749</v>
+        <v>0.308746</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.476779</v>
+        <v>0.479585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.264994</v>
+        <v>0.268256</v>
       </c>
       <c r="D11" t="n">
-        <v>0.301273</v>
+        <v>0.305949</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.484776</v>
+        <v>0.49632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.254988</v>
+        <v>0.258895</v>
       </c>
       <c r="D12" t="n">
-        <v>0.299424</v>
+        <v>0.290288</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.475185</v>
+        <v>0.463771</v>
       </c>
       <c r="C13" t="n">
-        <v>0.256647</v>
+        <v>0.252933</v>
       </c>
       <c r="D13" t="n">
-        <v>0.282327</v>
+        <v>0.283816</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.461886</v>
+        <v>0.447945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240747</v>
+        <v>0.239072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279721</v>
+        <v>0.28344</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.452413</v>
+        <v>0.461694</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236204</v>
+        <v>0.231875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268524</v>
+        <v>0.275248</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.451248</v>
+        <v>0.450792</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229665</v>
+        <v>0.224261</v>
       </c>
       <c r="D16" t="n">
-        <v>0.263898</v>
+        <v>0.263009</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.448839</v>
+        <v>0.450184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.229392</v>
+        <v>0.222478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257869</v>
+        <v>0.251077</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.440749</v>
+        <v>0.437108</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218048</v>
+        <v>0.214663</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250302</v>
+        <v>0.253272</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.442396</v>
+        <v>0.439889</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221437</v>
+        <v>0.215821</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244872</v>
+        <v>0.246027</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.439545</v>
+        <v>0.426584</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212599</v>
+        <v>0.213626</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239183</v>
+        <v>0.237571</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.427468</v>
+        <v>0.426064</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207894</v>
+        <v>0.202648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.235578</v>
+        <v>0.237814</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.42596</v>
+        <v>0.41945</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205973</v>
+        <v>0.201871</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236029</v>
+        <v>0.22894</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.420771</v>
+        <v>0.408635</v>
       </c>
       <c r="C23" t="n">
-        <v>0.448509</v>
+        <v>0.46107</v>
       </c>
       <c r="D23" t="n">
-        <v>0.571689</v>
+        <v>0.573613</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.66686</v>
+        <v>0.663009</v>
       </c>
       <c r="C24" t="n">
-        <v>0.434018</v>
+        <v>0.428679</v>
       </c>
       <c r="D24" t="n">
-        <v>0.550061</v>
+        <v>0.558835</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6577730000000001</v>
+        <v>0.637999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.426283</v>
+        <v>0.414892</v>
       </c>
       <c r="D25" t="n">
-        <v>0.533789</v>
+        <v>0.524629</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.639163</v>
+        <v>0.6242760000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.406089</v>
+        <v>0.402073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.528216</v>
+        <v>0.508937</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.631157</v>
+        <v>0.624418</v>
       </c>
       <c r="C27" t="n">
-        <v>0.385273</v>
+        <v>0.395154</v>
       </c>
       <c r="D27" t="n">
-        <v>0.502074</v>
+        <v>0.49567</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.607357</v>
+        <v>0.614335</v>
       </c>
       <c r="C28" t="n">
-        <v>0.373536</v>
+        <v>0.37576</v>
       </c>
       <c r="D28" t="n">
-        <v>0.479529</v>
+        <v>0.495598</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.612133</v>
+        <v>0.618559</v>
       </c>
       <c r="C29" t="n">
-        <v>0.359416</v>
+        <v>0.374099</v>
       </c>
       <c r="D29" t="n">
-        <v>0.465034</v>
+        <v>0.466357</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.583916</v>
+        <v>0.596307</v>
       </c>
       <c r="C30" t="n">
-        <v>0.350188</v>
+        <v>0.345186</v>
       </c>
       <c r="D30" t="n">
-        <v>0.454508</v>
+        <v>0.456673</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.57148</v>
+        <v>0.56716</v>
       </c>
       <c r="C31" t="n">
-        <v>0.335391</v>
+        <v>0.352786</v>
       </c>
       <c r="D31" t="n">
-        <v>0.422114</v>
+        <v>0.431704</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.568922</v>
+        <v>0.563347</v>
       </c>
       <c r="C32" t="n">
-        <v>0.339865</v>
+        <v>0.325681</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424692</v>
+        <v>0.418725</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.555478</v>
+        <v>0.568645</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321118</v>
+        <v>0.316152</v>
       </c>
       <c r="D33" t="n">
-        <v>0.415545</v>
+        <v>0.412929</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.551334</v>
+        <v>0.568195</v>
       </c>
       <c r="C34" t="n">
-        <v>0.321456</v>
+        <v>0.31692</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407886</v>
+        <v>0.402449</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.524751</v>
+        <v>0.53549</v>
       </c>
       <c r="C35" t="n">
-        <v>0.308655</v>
+        <v>0.306798</v>
       </c>
       <c r="D35" t="n">
-        <v>0.388436</v>
+        <v>0.38545</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.526254</v>
+        <v>0.524037</v>
       </c>
       <c r="C36" t="n">
-        <v>0.303096</v>
+        <v>0.293526</v>
       </c>
       <c r="D36" t="n">
-        <v>0.37845</v>
+        <v>0.370936</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.530129</v>
+        <v>0.527783</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56001</v>
+        <v>0.564853</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6472020000000001</v>
+        <v>0.642651</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7864</v>
+        <v>0.798449</v>
       </c>
       <c r="C38" t="n">
-        <v>0.531789</v>
+        <v>0.539239</v>
       </c>
       <c r="D38" t="n">
-        <v>0.624324</v>
+        <v>0.636294</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.783555</v>
+        <v>0.773277</v>
       </c>
       <c r="C39" t="n">
-        <v>0.519109</v>
+        <v>0.510937</v>
       </c>
       <c r="D39" t="n">
-        <v>0.615231</v>
+        <v>0.606931</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.743048</v>
+        <v>0.757661</v>
       </c>
       <c r="C40" t="n">
-        <v>0.499699</v>
+        <v>0.505961</v>
       </c>
       <c r="D40" t="n">
-        <v>0.582683</v>
+        <v>0.575835</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.724361</v>
+        <v>0.739946</v>
       </c>
       <c r="C41" t="n">
-        <v>0.47165</v>
+        <v>0.494404</v>
       </c>
       <c r="D41" t="n">
-        <v>0.56897</v>
+        <v>0.566708</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.700801</v>
+        <v>0.720777</v>
       </c>
       <c r="C42" t="n">
-        <v>0.468908</v>
+        <v>0.465033</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5474</v>
+        <v>0.5472590000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6971000000000001</v>
+        <v>0.712537</v>
       </c>
       <c r="C43" t="n">
-        <v>0.45561</v>
+        <v>0.455569</v>
       </c>
       <c r="D43" t="n">
-        <v>0.530319</v>
+        <v>0.518841</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6775060000000001</v>
+        <v>0.709032</v>
       </c>
       <c r="C44" t="n">
-        <v>0.42837</v>
+        <v>0.439512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5053800000000001</v>
+        <v>0.505564</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.688038</v>
+        <v>0.677807</v>
       </c>
       <c r="C45" t="n">
-        <v>0.408524</v>
+        <v>0.422213</v>
       </c>
       <c r="D45" t="n">
-        <v>0.499477</v>
+        <v>0.48746</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.65744</v>
+        <v>0.685029</v>
       </c>
       <c r="C46" t="n">
-        <v>0.404909</v>
+        <v>0.399744</v>
       </c>
       <c r="D46" t="n">
-        <v>0.476749</v>
+        <v>0.478814</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.631808</v>
+        <v>0.646472</v>
       </c>
       <c r="C47" t="n">
-        <v>0.38757</v>
+        <v>0.390217</v>
       </c>
       <c r="D47" t="n">
-        <v>0.461827</v>
+        <v>0.461757</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.629623</v>
+        <v>0.631277</v>
       </c>
       <c r="C48" t="n">
-        <v>0.379552</v>
+        <v>0.379533</v>
       </c>
       <c r="D48" t="n">
-        <v>0.455529</v>
+        <v>0.45544</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.602469</v>
+        <v>0.60424</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370681</v>
+        <v>0.365154</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432701</v>
+        <v>0.434283</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.602875</v>
+        <v>0.594116</v>
       </c>
       <c r="C50" t="n">
-        <v>0.367869</v>
+        <v>0.354805</v>
       </c>
       <c r="D50" t="n">
-        <v>0.426865</v>
+        <v>0.436791</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.606092</v>
+        <v>0.614051</v>
       </c>
       <c r="C51" t="n">
-        <v>0.63178</v>
+        <v>0.636429</v>
       </c>
       <c r="D51" t="n">
-        <v>0.723746</v>
+        <v>0.708323</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.591041</v>
+        <v>0.593252</v>
       </c>
       <c r="C52" t="n">
-        <v>0.624965</v>
+        <v>0.611881</v>
       </c>
       <c r="D52" t="n">
-        <v>0.708898</v>
+        <v>0.693429</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.876436</v>
+        <v>0.871988</v>
       </c>
       <c r="C53" t="n">
-        <v>0.596794</v>
+        <v>0.590244</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6779579999999999</v>
+        <v>0.665866</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.841857</v>
+        <v>0.870069</v>
       </c>
       <c r="C54" t="n">
-        <v>0.576916</v>
+        <v>0.57648</v>
       </c>
       <c r="D54" t="n">
-        <v>0.669374</v>
+        <v>0.641326</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.839816</v>
+        <v>0.84921</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5596640000000001</v>
+        <v>0.555633</v>
       </c>
       <c r="D55" t="n">
-        <v>0.615467</v>
+        <v>0.653525</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.821234</v>
+        <v>0.808974</v>
       </c>
       <c r="C56" t="n">
-        <v>0.539489</v>
+        <v>0.540963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.613446</v>
+        <v>0.5994660000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8103939999999999</v>
+        <v>0.77835</v>
       </c>
       <c r="C57" t="n">
-        <v>0.537809</v>
+        <v>0.536681</v>
       </c>
       <c r="D57" t="n">
-        <v>0.589216</v>
+        <v>0.59719</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.773304</v>
+        <v>0.787394</v>
       </c>
       <c r="C58" t="n">
-        <v>0.508226</v>
+        <v>0.5093259999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.556262</v>
+        <v>0.570599</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.766377</v>
+        <v>0.7746769999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.493996</v>
+        <v>0.485222</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551218</v>
+        <v>0.561828</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.763443</v>
+        <v>0.7614069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.488489</v>
+        <v>0.480045</v>
       </c>
       <c r="D60" t="n">
-        <v>0.528382</v>
+        <v>0.551861</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7480599999999999</v>
+        <v>0.763257</v>
       </c>
       <c r="C61" t="n">
-        <v>0.460326</v>
+        <v>0.463995</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5236459999999999</v>
+        <v>0.520844</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.747597</v>
+        <v>0.73201</v>
       </c>
       <c r="C62" t="n">
-        <v>0.452743</v>
+        <v>0.466137</v>
       </c>
       <c r="D62" t="n">
-        <v>0.509698</v>
+        <v>0.513599</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.708902</v>
+        <v>0.718125</v>
       </c>
       <c r="C63" t="n">
-        <v>0.441528</v>
+        <v>0.443488</v>
       </c>
       <c r="D63" t="n">
-        <v>0.486145</v>
+        <v>0.492909</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.718932</v>
+        <v>0.7007370000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.451106</v>
+        <v>0.442246</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486008</v>
+        <v>0.490988</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.708214</v>
+        <v>0.712422</v>
       </c>
       <c r="C65" t="n">
-        <v>0.427958</v>
+        <v>0.430765</v>
       </c>
       <c r="D65" t="n">
-        <v>0.472189</v>
+        <v>0.478636</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.702747</v>
+        <v>0.68184</v>
       </c>
       <c r="C66" t="n">
-        <v>0.701152</v>
+        <v>0.703299</v>
       </c>
       <c r="D66" t="n">
-        <v>0.770794</v>
+        <v>0.750178</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0105</v>
+        <v>0.9944499999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.684716</v>
+        <v>0.680226</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7358749999999999</v>
+        <v>0.746304</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.977668</v>
+        <v>0.955672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.668924</v>
+        <v>0.665882</v>
       </c>
       <c r="D68" t="n">
-        <v>0.754257</v>
+        <v>0.715858</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9692460000000001</v>
+        <v>0.959411</v>
       </c>
       <c r="C69" t="n">
-        <v>0.639721</v>
+        <v>0.666916</v>
       </c>
       <c r="D69" t="n">
-        <v>0.71275</v>
+        <v>0.704362</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.950612</v>
+        <v>0.918051</v>
       </c>
       <c r="C70" t="n">
-        <v>0.631888</v>
+        <v>0.619802</v>
       </c>
       <c r="D70" t="n">
-        <v>0.693016</v>
+        <v>0.679569</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.909095</v>
+        <v>0.930858</v>
       </c>
       <c r="C71" t="n">
-        <v>0.617657</v>
+        <v>0.6164269999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.678351</v>
+        <v>0.661479</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.901936</v>
+        <v>0.906239</v>
       </c>
       <c r="C72" t="n">
-        <v>0.59293</v>
+        <v>0.578223</v>
       </c>
       <c r="D72" t="n">
-        <v>0.666583</v>
+        <v>0.65817</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8688900000000001</v>
+        <v>0.896289</v>
       </c>
       <c r="C73" t="n">
-        <v>0.577739</v>
+        <v>0.601746</v>
       </c>
       <c r="D73" t="n">
-        <v>0.630286</v>
+        <v>0.63697</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.867507</v>
+        <v>0.8915920000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.562392</v>
+        <v>0.561297</v>
       </c>
       <c r="D74" t="n">
-        <v>0.61181</v>
+        <v>0.6048519999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.866202</v>
+        <v>0.8722490000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.551302</v>
+        <v>0.549409</v>
       </c>
       <c r="D75" t="n">
-        <v>0.600974</v>
+        <v>0.603678</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.859506</v>
+        <v>0.861649</v>
       </c>
       <c r="C76" t="n">
-        <v>0.550685</v>
+        <v>0.5335490000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.58283</v>
+        <v>0.586051</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.860361</v>
+        <v>0.846849</v>
       </c>
       <c r="C77" t="n">
-        <v>0.525909</v>
+        <v>0.536364</v>
       </c>
       <c r="D77" t="n">
-        <v>0.562358</v>
+        <v>0.570155</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.827313</v>
+        <v>0.8264590000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.540377</v>
+        <v>0.524484</v>
       </c>
       <c r="D78" t="n">
-        <v>0.559948</v>
+        <v>0.5479850000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.818668</v>
+        <v>0.821326</v>
       </c>
       <c r="C79" t="n">
-        <v>0.505431</v>
+        <v>0.507674</v>
       </c>
       <c r="D79" t="n">
-        <v>0.551505</v>
+        <v>0.545509</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.798042</v>
+        <v>0.811402</v>
       </c>
       <c r="C80" t="n">
-        <v>0.803166</v>
+        <v>0.82322</v>
       </c>
       <c r="D80" t="n">
-        <v>0.873715</v>
+        <v>0.88467</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.14774</v>
+        <v>1.10868</v>
       </c>
       <c r="C81" t="n">
-        <v>0.800029</v>
+        <v>0.809329</v>
       </c>
       <c r="D81" t="n">
-        <v>0.86237</v>
+        <v>0.874846</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08776</v>
+        <v>1.13517</v>
       </c>
       <c r="C82" t="n">
-        <v>0.770773</v>
+        <v>0.80259</v>
       </c>
       <c r="D82" t="n">
-        <v>0.846044</v>
+        <v>0.840398</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.06901</v>
+        <v>1.12997</v>
       </c>
       <c r="C83" t="n">
-        <v>0.766256</v>
+        <v>0.775886</v>
       </c>
       <c r="D83" t="n">
-        <v>0.800583</v>
+        <v>0.819199</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05287</v>
+        <v>1.06354</v>
       </c>
       <c r="C84" t="n">
-        <v>0.752583</v>
+        <v>0.738525</v>
       </c>
       <c r="D84" t="n">
-        <v>0.77441</v>
+        <v>0.805932</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05392</v>
+        <v>1.08423</v>
       </c>
       <c r="C85" t="n">
-        <v>0.736541</v>
+        <v>0.7430060000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.785879</v>
+        <v>0.770792</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.05515</v>
+        <v>1.03757</v>
       </c>
       <c r="C86" t="n">
-        <v>0.706634</v>
+        <v>0.7236590000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.756107</v>
+        <v>0.763774</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03023</v>
+        <v>1.03545</v>
       </c>
       <c r="C87" t="n">
-        <v>0.70352</v>
+        <v>0.70884</v>
       </c>
       <c r="D87" t="n">
-        <v>0.74503</v>
+        <v>0.759978</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.981545</v>
+        <v>1.01274</v>
       </c>
       <c r="C88" t="n">
-        <v>0.663876</v>
+        <v>0.698359</v>
       </c>
       <c r="D88" t="n">
-        <v>0.729945</v>
+        <v>0.7136479999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0121</v>
+        <v>1.02422</v>
       </c>
       <c r="C89" t="n">
-        <v>0.664444</v>
+        <v>0.693812</v>
       </c>
       <c r="D89" t="n">
-        <v>0.704265</v>
+        <v>0.698671</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.980085</v>
+        <v>0.9898749999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.643994</v>
+        <v>0.653075</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7062929999999999</v>
+        <v>0.685958</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.956804</v>
+        <v>0.9622039999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.642161</v>
+        <v>0.650937</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6759039999999999</v>
+        <v>0.68812</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9617830000000001</v>
+        <v>0.958386</v>
       </c>
       <c r="C92" t="n">
-        <v>0.641537</v>
+        <v>0.641996</v>
       </c>
       <c r="D92" t="n">
-        <v>0.672079</v>
+        <v>0.666279</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.960736</v>
+        <v>0.953763</v>
       </c>
       <c r="C93" t="n">
-        <v>0.635997</v>
+        <v>0.616822</v>
       </c>
       <c r="D93" t="n">
-        <v>0.638737</v>
+        <v>0.653367</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.928368</v>
+        <v>0.958938</v>
       </c>
       <c r="C94" t="n">
-        <v>0.930853</v>
+        <v>0.930214</v>
       </c>
       <c r="D94" t="n">
-        <v>0.982282</v>
+        <v>1.03155</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24424</v>
+        <v>1.28721</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9374710000000001</v>
+        <v>0.9123520000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.959408</v>
+        <v>0.949395</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.25022</v>
+        <v>1.24812</v>
       </c>
       <c r="C96" t="n">
-        <v>0.892954</v>
+        <v>0.91487</v>
       </c>
       <c r="D96" t="n">
-        <v>0.94969</v>
+        <v>0.975806</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.22475</v>
+        <v>1.21695</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8858819999999999</v>
+        <v>0.875644</v>
       </c>
       <c r="D97" t="n">
-        <v>0.914344</v>
+        <v>0.937821</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20672</v>
+        <v>1.18413</v>
       </c>
       <c r="C98" t="n">
-        <v>0.856774</v>
+        <v>0.852464</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9047500000000001</v>
+        <v>0.895404</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17898</v>
+        <v>1.19625</v>
       </c>
       <c r="C99" t="n">
-        <v>0.837513</v>
+        <v>0.845915</v>
       </c>
       <c r="D99" t="n">
-        <v>0.906101</v>
+        <v>0.899625</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.17409</v>
+        <v>1.17597</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8617359999999999</v>
+        <v>0.852433</v>
       </c>
       <c r="D100" t="n">
-        <v>0.895427</v>
+        <v>0.87443</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16314</v>
+        <v>1.14988</v>
       </c>
       <c r="C101" t="n">
-        <v>0.824953</v>
+        <v>0.831938</v>
       </c>
       <c r="D101" t="n">
-        <v>0.857862</v>
+        <v>0.862385</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14845</v>
+        <v>1.14925</v>
       </c>
       <c r="C102" t="n">
-        <v>0.817167</v>
+        <v>0.810244</v>
       </c>
       <c r="D102" t="n">
-        <v>0.834412</v>
+        <v>0.847905</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12022</v>
+        <v>1.14202</v>
       </c>
       <c r="C103" t="n">
-        <v>0.794774</v>
+        <v>0.804266</v>
       </c>
       <c r="D103" t="n">
-        <v>0.825152</v>
+        <v>0.850703</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.1277</v>
+        <v>1.1433</v>
       </c>
       <c r="C104" t="n">
-        <v>0.779296</v>
+        <v>0.791013</v>
       </c>
       <c r="D104" t="n">
-        <v>0.817829</v>
+        <v>0.824913</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.0964</v>
+        <v>1.09935</v>
       </c>
       <c r="C105" t="n">
-        <v>0.760105</v>
+        <v>0.802287</v>
       </c>
       <c r="D105" t="n">
-        <v>0.805624</v>
+        <v>0.817039</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10891</v>
+        <v>1.12512</v>
       </c>
       <c r="C106" t="n">
-        <v>0.777661</v>
+        <v>0.76673</v>
       </c>
       <c r="D106" t="n">
-        <v>0.794868</v>
+        <v>0.799983</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09308</v>
+        <v>1.09111</v>
       </c>
       <c r="C107" t="n">
-        <v>0.758603</v>
+        <v>0.75232</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7861939999999999</v>
+        <v>0.786255</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.0901</v>
+        <v>1.07282</v>
       </c>
       <c r="C108" t="n">
-        <v>1.09112</v>
+        <v>1.09588</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13052</v>
+        <v>1.13502</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.07945</v>
+        <v>1.08738</v>
       </c>
       <c r="C109" t="n">
-        <v>1.08373</v>
+        <v>1.06988</v>
       </c>
       <c r="D109" t="n">
-        <v>1.11571</v>
+        <v>1.13418</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42541</v>
+        <v>1.39834</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05907</v>
+        <v>1.07989</v>
       </c>
       <c r="D110" t="n">
-        <v>1.11367</v>
+        <v>1.0956</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.3737</v>
+        <v>1.40531</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07425</v>
+        <v>1.05389</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11508</v>
+        <v>1.11618</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.36541</v>
+        <v>1.36843</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02525</v>
+        <v>1.04256</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08531</v>
+        <v>1.10267</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.35865</v>
+        <v>1.35649</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05386</v>
+        <v>1.05637</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08057</v>
+        <v>1.08342</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.35644</v>
+        <v>1.36831</v>
       </c>
       <c r="C114" t="n">
-        <v>1.04437</v>
+        <v>1.03644</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0621</v>
+        <v>1.08834</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.36932</v>
+        <v>1.36457</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06277</v>
+        <v>1.05699</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0887</v>
+        <v>1.08117</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35985</v>
+        <v>1.3591</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02213</v>
+        <v>1.03537</v>
       </c>
       <c r="D116" t="n">
-        <v>1.04886</v>
+        <v>1.0638</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.33481</v>
+        <v>1.35619</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01908</v>
+        <v>1.04134</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04526</v>
+        <v>1.04564</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.33569</v>
+        <v>1.34716</v>
       </c>
       <c r="C118" t="n">
-        <v>1.0328</v>
+        <v>1.02709</v>
       </c>
       <c r="D118" t="n">
-        <v>1.0465</v>
+        <v>1.04902</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32806</v>
+        <v>1.32757</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02883</v>
+        <v>1.02344</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04478</v>
+        <v>1.03945</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.34012</v>
+        <v>1.33628</v>
       </c>
       <c r="C120" t="n">
-        <v>1.00599</v>
+        <v>1.01483</v>
       </c>
       <c r="D120" t="n">
-        <v>1.06126</v>
+        <v>1.03449</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.34536</v>
+        <v>1.32172</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00181</v>
+        <v>0.983772</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04675</v>
+        <v>1.01747</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.34069</v>
+        <v>1.31716</v>
       </c>
       <c r="C122" t="n">
-        <v>1.00692</v>
+        <v>1.00917</v>
       </c>
       <c r="D122" t="n">
-        <v>1.04573</v>
+        <v>1.02779</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.3183</v>
+        <v>1.32399</v>
       </c>
       <c r="C123" t="n">
-        <v>1.3381</v>
+        <v>1.3258</v>
       </c>
       <c r="D123" t="n">
-        <v>1.38036</v>
+        <v>1.38275</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.65692</v>
+        <v>1.62505</v>
       </c>
       <c r="C124" t="n">
-        <v>1.3388</v>
+        <v>1.33226</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37486</v>
+        <v>1.36671</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.67586</v>
+        <v>1.63726</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33354</v>
+        <v>1.33925</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3872</v>
+        <v>1.37712</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.62772</v>
+        <v>1.65041</v>
       </c>
       <c r="C126" t="n">
-        <v>1.35721</v>
+        <v>1.33248</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3795</v>
+        <v>1.38061</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.60397</v>
+        <v>1.62508</v>
       </c>
       <c r="C127" t="n">
-        <v>1.34821</v>
+        <v>1.33711</v>
       </c>
       <c r="D127" t="n">
-        <v>1.36406</v>
+        <v>1.35978</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.6254</v>
+        <v>1.61655</v>
       </c>
       <c r="C128" t="n">
-        <v>1.34251</v>
+        <v>1.37018</v>
       </c>
       <c r="D128" t="n">
-        <v>1.38024</v>
+        <v>1.38859</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.60466</v>
+        <v>1.61829</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35363</v>
+        <v>1.36163</v>
       </c>
       <c r="D129" t="n">
-        <v>1.36751</v>
+        <v>1.37108</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.61168</v>
+        <v>1.60663</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36316</v>
+        <v>1.35195</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3954</v>
+        <v>1.364</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.60453</v>
+        <v>1.60567</v>
       </c>
       <c r="C131" t="n">
-        <v>1.36393</v>
+        <v>1.36053</v>
       </c>
       <c r="D131" t="n">
-        <v>1.35997</v>
+        <v>1.37211</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.60036</v>
+        <v>1.58863</v>
       </c>
       <c r="C132" t="n">
-        <v>1.36073</v>
+        <v>1.35095</v>
       </c>
       <c r="D132" t="n">
-        <v>1.37037</v>
+        <v>1.36167</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.61743</v>
+        <v>1.5817</v>
       </c>
       <c r="C133" t="n">
-        <v>1.36303</v>
+        <v>1.36719</v>
       </c>
       <c r="D133" t="n">
-        <v>1.36674</v>
+        <v>1.36532</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.5906</v>
+        <v>1.5867</v>
       </c>
       <c r="C134" t="n">
-        <v>1.33957</v>
+        <v>1.33801</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36663</v>
+        <v>1.35491</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.58359</v>
+        <v>1.56773</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35404</v>
+        <v>1.3517</v>
       </c>
       <c r="D135" t="n">
-        <v>1.37754</v>
+        <v>1.37781</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.61079</v>
+        <v>1.59032</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35175</v>
+        <v>1.35353</v>
       </c>
       <c r="D136" t="n">
-        <v>1.37508</v>
+        <v>1.36409</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.59581</v>
+        <v>1.58024</v>
       </c>
       <c r="C137" t="n">
-        <v>1.66549</v>
+        <v>1.69538</v>
       </c>
       <c r="D137" t="n">
-        <v>1.68717</v>
+        <v>1.69159</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.93497</v>
+        <v>1.95333</v>
       </c>
       <c r="C138" t="n">
-        <v>1.73121</v>
+        <v>1.73407</v>
       </c>
       <c r="D138" t="n">
-        <v>1.7603</v>
+        <v>1.75255</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.96763</v>
+        <v>1.96512</v>
       </c>
       <c r="C139" t="n">
-        <v>1.75148</v>
+        <v>1.76484</v>
       </c>
       <c r="D139" t="n">
-        <v>1.78476</v>
+        <v>1.80671</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.01405</v>
+        <v>2.02949</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79899</v>
+        <v>1.77165</v>
       </c>
       <c r="D140" t="n">
-        <v>1.8084</v>
+        <v>1.80681</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.9983</v>
+        <v>2.02344</v>
       </c>
       <c r="C141" t="n">
-        <v>1.82319</v>
+        <v>1.82889</v>
       </c>
       <c r="D141" t="n">
-        <v>1.82374</v>
+        <v>1.81153</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.0337</v>
+        <v>2.05026</v>
       </c>
       <c r="C142" t="n">
-        <v>1.82442</v>
+        <v>1.844</v>
       </c>
       <c r="D142" t="n">
-        <v>1.84057</v>
+        <v>1.82377</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.01679</v>
+        <v>2.04633</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85492</v>
+        <v>1.84096</v>
       </c>
       <c r="D143" t="n">
-        <v>1.85197</v>
+        <v>1.84034</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578846</v>
+        <v>0.511805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236174</v>
+        <v>0.230854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.857353</v>
+        <v>0.829966</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.433314</v>
+        <v>0.444669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.226976</v>
+        <v>0.217605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.857789</v>
+        <v>0.83192</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.448647</v>
+        <v>0.44758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224432</v>
+        <v>0.215571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.850776</v>
+        <v>0.8087220000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.430475</v>
+        <v>0.421065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222421</v>
+        <v>0.210457</v>
       </c>
       <c r="D5" t="n">
-        <v>0.842102</v>
+        <v>0.790096</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.423801</v>
+        <v>0.420258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.210834</v>
+        <v>0.209291</v>
       </c>
       <c r="D6" t="n">
-        <v>0.81659</v>
+        <v>0.7860470000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.413902</v>
+        <v>0.425626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204689</v>
+        <v>0.200203</v>
       </c>
       <c r="D7" t="n">
-        <v>0.955525</v>
+        <v>0.941279</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.405433</v>
+        <v>0.411457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201401</v>
+        <v>0.195186</v>
       </c>
       <c r="D8" t="n">
-        <v>0.970388</v>
+        <v>0.945313</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416014</v>
+        <v>0.409215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.298239</v>
+        <v>0.289671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.93985</v>
+        <v>0.9460229999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.507058</v>
+        <v>0.492272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.274055</v>
+        <v>0.271305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.950103</v>
+        <v>0.90008</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.489104</v>
+        <v>0.476679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.269335</v>
+        <v>0.26912</v>
       </c>
       <c r="D11" t="n">
-        <v>0.915015</v>
+        <v>0.906292</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.481321</v>
+        <v>0.479774</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256776</v>
+        <v>0.260006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.902132</v>
+        <v>0.927926</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.47028</v>
+        <v>0.480928</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250987</v>
+        <v>0.245943</v>
       </c>
       <c r="D13" t="n">
-        <v>0.900498</v>
+        <v>0.905565</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.470926</v>
+        <v>0.453996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24923</v>
+        <v>0.249395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.865646</v>
+        <v>0.867107</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.458486</v>
+        <v>0.456894</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236183</v>
+        <v>0.231428</v>
       </c>
       <c r="D15" t="n">
-        <v>0.890935</v>
+        <v>0.89027</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.460793</v>
+        <v>0.45465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234445</v>
+        <v>0.234426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.848441</v>
+        <v>0.860525</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.439309</v>
+        <v>0.442474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224971</v>
+        <v>0.226408</v>
       </c>
       <c r="D17" t="n">
-        <v>0.846621</v>
+        <v>0.875839</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.440106</v>
+        <v>0.428318</v>
       </c>
       <c r="C18" t="n">
-        <v>0.219283</v>
+        <v>0.218555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.86229</v>
+        <v>0.876003</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4353</v>
+        <v>0.426575</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213229</v>
+        <v>0.213495</v>
       </c>
       <c r="D19" t="n">
-        <v>0.831541</v>
+        <v>0.854898</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.424658</v>
+        <v>0.429293</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214555</v>
+        <v>0.207325</v>
       </c>
       <c r="D20" t="n">
-        <v>0.836261</v>
+        <v>0.823592</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.435446</v>
+        <v>0.428398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.206838</v>
+        <v>0.20358</v>
       </c>
       <c r="D21" t="n">
-        <v>1.01326</v>
+        <v>1.03417</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.427807</v>
+        <v>0.422847</v>
       </c>
       <c r="C22" t="n">
-        <v>0.217154</v>
+        <v>0.202312</v>
       </c>
       <c r="D22" t="n">
-        <v>1.00313</v>
+        <v>1.0154</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.437789</v>
+        <v>0.41703</v>
       </c>
       <c r="C23" t="n">
-        <v>0.454361</v>
+        <v>0.449183</v>
       </c>
       <c r="D23" t="n">
-        <v>0.978976</v>
+        <v>0.988416</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.667496</v>
+        <v>0.657439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.431629</v>
+        <v>0.445991</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9695859999999999</v>
+        <v>0.983513</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.652683</v>
+        <v>0.648941</v>
       </c>
       <c r="C25" t="n">
-        <v>0.433695</v>
+        <v>0.421038</v>
       </c>
       <c r="D25" t="n">
-        <v>0.97058</v>
+        <v>0.958572</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.624781</v>
+        <v>0.647472</v>
       </c>
       <c r="C26" t="n">
-        <v>0.412439</v>
+        <v>0.400603</v>
       </c>
       <c r="D26" t="n">
-        <v>0.967692</v>
+        <v>0.952186</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.637622</v>
+        <v>0.629127</v>
       </c>
       <c r="C27" t="n">
-        <v>0.408465</v>
+        <v>0.383688</v>
       </c>
       <c r="D27" t="n">
-        <v>0.939445</v>
+        <v>0.949464</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.626704</v>
+        <v>0.617909</v>
       </c>
       <c r="C28" t="n">
-        <v>0.390768</v>
+        <v>0.377956</v>
       </c>
       <c r="D28" t="n">
-        <v>0.953285</v>
+        <v>0.9440190000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.608685</v>
+        <v>0.591856</v>
       </c>
       <c r="C29" t="n">
-        <v>0.373171</v>
+        <v>0.367394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.959117</v>
+        <v>0.944689</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.591476</v>
+        <v>0.600186</v>
       </c>
       <c r="C30" t="n">
-        <v>0.362328</v>
+        <v>0.356506</v>
       </c>
       <c r="D30" t="n">
-        <v>0.908264</v>
+        <v>0.921638</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.589033</v>
+        <v>0.56294</v>
       </c>
       <c r="C31" t="n">
-        <v>0.347947</v>
+        <v>0.344114</v>
       </c>
       <c r="D31" t="n">
-        <v>0.917983</v>
+        <v>0.936706</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.58141</v>
+        <v>0.5607529999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.331918</v>
+        <v>0.333774</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8851869999999999</v>
+        <v>0.9052</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569105</v>
+        <v>0.567346</v>
       </c>
       <c r="C33" t="n">
-        <v>0.327331</v>
+        <v>0.321364</v>
       </c>
       <c r="D33" t="n">
-        <v>0.949004</v>
+        <v>0.933858</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.552028</v>
+        <v>0.541137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.315193</v>
+        <v>0.320747</v>
       </c>
       <c r="D34" t="n">
-        <v>0.871451</v>
+        <v>0.908491</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525389</v>
+        <v>0.542401</v>
       </c>
       <c r="C35" t="n">
-        <v>0.312601</v>
+        <v>0.298693</v>
       </c>
       <c r="D35" t="n">
-        <v>1.18024</v>
+        <v>1.16072</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5389350000000001</v>
+        <v>0.524841</v>
       </c>
       <c r="C36" t="n">
-        <v>0.304003</v>
+        <v>0.295146</v>
       </c>
       <c r="D36" t="n">
-        <v>1.17497</v>
+        <v>1.15968</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.534003</v>
+        <v>0.509122</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56682</v>
+        <v>0.554275</v>
       </c>
       <c r="D37" t="n">
-        <v>1.14455</v>
+        <v>1.1632</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.791264</v>
+        <v>0.793632</v>
       </c>
       <c r="C38" t="n">
-        <v>0.54176</v>
+        <v>0.530944</v>
       </c>
       <c r="D38" t="n">
-        <v>1.12956</v>
+        <v>1.13503</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.779016</v>
+        <v>0.770262</v>
       </c>
       <c r="C39" t="n">
-        <v>0.532715</v>
+        <v>0.509022</v>
       </c>
       <c r="D39" t="n">
-        <v>1.08959</v>
+        <v>1.09524</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.775002</v>
+        <v>0.76912</v>
       </c>
       <c r="C40" t="n">
-        <v>0.513368</v>
+        <v>0.500744</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0655</v>
+        <v>1.0745</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.752738</v>
+        <v>0.72207</v>
       </c>
       <c r="C41" t="n">
-        <v>0.501288</v>
+        <v>0.46933</v>
       </c>
       <c r="D41" t="n">
-        <v>1.06706</v>
+        <v>1.0847</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.752001</v>
+        <v>0.7233000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.475102</v>
+        <v>0.461582</v>
       </c>
       <c r="D42" t="n">
-        <v>1.06805</v>
+        <v>1.06683</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.732052</v>
+        <v>0.709577</v>
       </c>
       <c r="C43" t="n">
-        <v>0.457905</v>
+        <v>0.443672</v>
       </c>
       <c r="D43" t="n">
-        <v>1.07808</v>
+        <v>1.03106</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.72306</v>
+        <v>0.677701</v>
       </c>
       <c r="C44" t="n">
-        <v>0.43686</v>
+        <v>0.43451</v>
       </c>
       <c r="D44" t="n">
-        <v>1.05145</v>
+        <v>1.01584</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.669035</v>
+        <v>0.661615</v>
       </c>
       <c r="C45" t="n">
-        <v>0.434689</v>
+        <v>0.41517</v>
       </c>
       <c r="D45" t="n">
-        <v>1.00813</v>
+        <v>1.00074</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.673397</v>
+        <v>0.641999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.407097</v>
+        <v>0.394823</v>
       </c>
       <c r="D46" t="n">
-        <v>1.00397</v>
+        <v>1.00408</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.665883</v>
+        <v>0.639961</v>
       </c>
       <c r="C47" t="n">
-        <v>0.402711</v>
+        <v>0.389033</v>
       </c>
       <c r="D47" t="n">
-        <v>1.04931</v>
+        <v>1.05153</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6323569999999999</v>
+        <v>0.63415</v>
       </c>
       <c r="C48" t="n">
-        <v>0.390038</v>
+        <v>0.384207</v>
       </c>
       <c r="D48" t="n">
-        <v>1.03361</v>
+        <v>1.00719</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.634161</v>
+        <v>0.605611</v>
       </c>
       <c r="C49" t="n">
-        <v>0.380645</v>
+        <v>0.375032</v>
       </c>
       <c r="D49" t="n">
-        <v>1.03929</v>
+        <v>1.04487</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.618981</v>
+        <v>0.605946</v>
       </c>
       <c r="C50" t="n">
-        <v>0.377278</v>
+        <v>0.364309</v>
       </c>
       <c r="D50" t="n">
-        <v>1.69393</v>
+        <v>1.69163</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.59304</v>
+        <v>0.578729</v>
       </c>
       <c r="C51" t="n">
-        <v>0.627211</v>
+        <v>0.636167</v>
       </c>
       <c r="D51" t="n">
-        <v>1.67704</v>
+        <v>1.62704</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.59399</v>
+        <v>0.591605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.629224</v>
+        <v>0.600195</v>
       </c>
       <c r="D52" t="n">
-        <v>1.689</v>
+        <v>1.57314</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.889889</v>
+        <v>0.860243</v>
       </c>
       <c r="C53" t="n">
-        <v>0.603552</v>
+        <v>0.586528</v>
       </c>
       <c r="D53" t="n">
-        <v>1.65874</v>
+        <v>1.56204</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.874181</v>
+        <v>0.837719</v>
       </c>
       <c r="C54" t="n">
-        <v>0.580021</v>
+        <v>0.559187</v>
       </c>
       <c r="D54" t="n">
-        <v>1.61709</v>
+        <v>1.53458</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.841533</v>
+        <v>0.811889</v>
       </c>
       <c r="C55" t="n">
-        <v>0.57301</v>
+        <v>0.551395</v>
       </c>
       <c r="D55" t="n">
-        <v>1.53507</v>
+        <v>1.55925</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.838521</v>
+        <v>0.809801</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5452669999999999</v>
+        <v>0.53373</v>
       </c>
       <c r="D56" t="n">
-        <v>1.57279</v>
+        <v>1.46904</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.80018</v>
+        <v>0.79989</v>
       </c>
       <c r="C57" t="n">
-        <v>0.536561</v>
+        <v>0.541995</v>
       </c>
       <c r="D57" t="n">
-        <v>1.51936</v>
+        <v>1.46029</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.79353</v>
+        <v>0.806956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.517635</v>
+        <v>0.506642</v>
       </c>
       <c r="D58" t="n">
-        <v>1.51577</v>
+        <v>1.46585</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.780489</v>
+        <v>0.755344</v>
       </c>
       <c r="C59" t="n">
-        <v>0.505458</v>
+        <v>0.487759</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52746</v>
+        <v>1.47361</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.783034</v>
+        <v>0.746688</v>
       </c>
       <c r="C60" t="n">
-        <v>0.482194</v>
+        <v>0.476568</v>
       </c>
       <c r="D60" t="n">
-        <v>1.48132</v>
+        <v>1.44221</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.77351</v>
+        <v>0.727671</v>
       </c>
       <c r="C61" t="n">
-        <v>0.491489</v>
+        <v>0.467244</v>
       </c>
       <c r="D61" t="n">
-        <v>1.46858</v>
+        <v>1.42914</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7550519999999999</v>
+        <v>0.729643</v>
       </c>
       <c r="C62" t="n">
-        <v>0.470806</v>
+        <v>0.449845</v>
       </c>
       <c r="D62" t="n">
-        <v>1.54254</v>
+        <v>1.42271</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.732423</v>
+        <v>0.726071</v>
       </c>
       <c r="C63" t="n">
-        <v>0.458546</v>
+        <v>0.441547</v>
       </c>
       <c r="D63" t="n">
-        <v>1.54209</v>
+        <v>1.43975</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.716583</v>
+        <v>0.690584</v>
       </c>
       <c r="C64" t="n">
-        <v>0.447472</v>
+        <v>0.442306</v>
       </c>
       <c r="D64" t="n">
-        <v>2.70431</v>
+        <v>2.60726</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697468</v>
+        <v>0.688455</v>
       </c>
       <c r="C65" t="n">
-        <v>0.43493</v>
+        <v>0.430774</v>
       </c>
       <c r="D65" t="n">
-        <v>2.74554</v>
+        <v>2.54553</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.690291</v>
+        <v>0.684451</v>
       </c>
       <c r="C66" t="n">
-        <v>0.71862</v>
+        <v>0.713385</v>
       </c>
       <c r="D66" t="n">
-        <v>2.61605</v>
+        <v>2.55266</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.991285</v>
+        <v>0.9855699999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.714911</v>
+        <v>0.677277</v>
       </c>
       <c r="D67" t="n">
-        <v>2.54552</v>
+        <v>2.45596</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.97564</v>
+        <v>0.974718</v>
       </c>
       <c r="C68" t="n">
-        <v>0.693357</v>
+        <v>0.674168</v>
       </c>
       <c r="D68" t="n">
-        <v>2.51436</v>
+        <v>2.39327</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.970831</v>
+        <v>0.925592</v>
       </c>
       <c r="C69" t="n">
-        <v>0.656914</v>
+        <v>0.646616</v>
       </c>
       <c r="D69" t="n">
-        <v>2.53464</v>
+        <v>2.31414</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.961193</v>
+        <v>0.924773</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6432870000000001</v>
+        <v>0.6323029999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>2.52593</v>
+        <v>2.31304</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.934729</v>
+        <v>0.89212</v>
       </c>
       <c r="C71" t="n">
-        <v>0.612548</v>
+        <v>0.621184</v>
       </c>
       <c r="D71" t="n">
-        <v>2.36683</v>
+        <v>2.24914</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.921856</v>
+        <v>0.901688</v>
       </c>
       <c r="C72" t="n">
-        <v>0.610285</v>
+        <v>0.602514</v>
       </c>
       <c r="D72" t="n">
-        <v>2.38625</v>
+        <v>2.2819</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.880244</v>
+        <v>0.877119</v>
       </c>
       <c r="C73" t="n">
-        <v>0.590587</v>
+        <v>0.573561</v>
       </c>
       <c r="D73" t="n">
-        <v>2.39194</v>
+        <v>2.31226</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.893307</v>
+        <v>0.867441</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5778720000000001</v>
+        <v>0.562175</v>
       </c>
       <c r="D74" t="n">
-        <v>2.40456</v>
+        <v>2.23796</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8625</v>
+        <v>0.861776</v>
       </c>
       <c r="C75" t="n">
-        <v>0.561808</v>
+        <v>0.56658</v>
       </c>
       <c r="D75" t="n">
-        <v>2.35664</v>
+        <v>2.1799</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8790519999999999</v>
+        <v>0.847518</v>
       </c>
       <c r="C76" t="n">
-        <v>0.552307</v>
+        <v>0.530008</v>
       </c>
       <c r="D76" t="n">
-        <v>2.33697</v>
+        <v>2.16193</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.854291</v>
+        <v>0.832056</v>
       </c>
       <c r="C77" t="n">
-        <v>0.547469</v>
+        <v>0.526987</v>
       </c>
       <c r="D77" t="n">
-        <v>2.25884</v>
+        <v>2.15283</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.805616</v>
+        <v>0.808177</v>
       </c>
       <c r="C78" t="n">
-        <v>0.506337</v>
+        <v>0.518632</v>
       </c>
       <c r="D78" t="n">
-        <v>3.59054</v>
+        <v>3.57936</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.791481</v>
+        <v>0.812123</v>
       </c>
       <c r="C79" t="n">
-        <v>0.511845</v>
+        <v>0.501045</v>
       </c>
       <c r="D79" t="n">
-        <v>3.50633</v>
+        <v>3.48762</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.767682</v>
+        <v>0.78913</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8345129999999999</v>
+        <v>0.790279</v>
       </c>
       <c r="D80" t="n">
-        <v>3.4183</v>
+        <v>3.43343</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.114</v>
+        <v>1.09607</v>
       </c>
       <c r="C81" t="n">
-        <v>0.788122</v>
+        <v>0.786396</v>
       </c>
       <c r="D81" t="n">
-        <v>3.4188</v>
+        <v>3.30254</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10353</v>
+        <v>1.08758</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7822</v>
+        <v>0.7742329999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>3.27707</v>
+        <v>3.27685</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.09023</v>
+        <v>1.0526</v>
       </c>
       <c r="C83" t="n">
-        <v>0.772828</v>
+        <v>0.76806</v>
       </c>
       <c r="D83" t="n">
-        <v>3.39573</v>
+        <v>3.17631</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02917</v>
+        <v>1.02877</v>
       </c>
       <c r="C84" t="n">
-        <v>0.724491</v>
+        <v>0.732591</v>
       </c>
       <c r="D84" t="n">
-        <v>3.2213</v>
+        <v>3.16409</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03976</v>
+        <v>1.03911</v>
       </c>
       <c r="C85" t="n">
-        <v>0.713961</v>
+        <v>0.721405</v>
       </c>
       <c r="D85" t="n">
-        <v>3.2394</v>
+        <v>3.07085</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.08109</v>
+        <v>1.01278</v>
       </c>
       <c r="C86" t="n">
-        <v>0.697383</v>
+        <v>0.690567</v>
       </c>
       <c r="D86" t="n">
-        <v>3.11932</v>
+        <v>3.01296</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.987977</v>
+        <v>0.978133</v>
       </c>
       <c r="C87" t="n">
-        <v>0.680343</v>
+        <v>0.686683</v>
       </c>
       <c r="D87" t="n">
-        <v>3.10625</v>
+        <v>2.98288</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0433</v>
+        <v>0.968539</v>
       </c>
       <c r="C88" t="n">
-        <v>0.677129</v>
+        <v>0.673952</v>
       </c>
       <c r="D88" t="n">
-        <v>3.00722</v>
+        <v>2.93289</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.966645</v>
+        <v>0.975545</v>
       </c>
       <c r="C89" t="n">
-        <v>0.644602</v>
+        <v>0.661941</v>
       </c>
       <c r="D89" t="n">
-        <v>2.92695</v>
+        <v>2.88523</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.949168</v>
+        <v>0.9464939999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6531979999999999</v>
+        <v>0.637019</v>
       </c>
       <c r="D90" t="n">
-        <v>2.8977</v>
+        <v>2.90383</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.983995</v>
+        <v>0.927633</v>
       </c>
       <c r="C91" t="n">
-        <v>0.656235</v>
+        <v>0.618635</v>
       </c>
       <c r="D91" t="n">
-        <v>2.99549</v>
+        <v>2.86759</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.92582</v>
+        <v>0.918108</v>
       </c>
       <c r="C92" t="n">
-        <v>0.615996</v>
+        <v>0.6203109999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>4.03608</v>
+        <v>4.0202</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.922288</v>
+        <v>0.935274</v>
       </c>
       <c r="C93" t="n">
-        <v>0.600131</v>
+        <v>0.60415</v>
       </c>
       <c r="D93" t="n">
-        <v>3.96523</v>
+        <v>3.88054</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.895702</v>
+        <v>0.92226</v>
       </c>
       <c r="C94" t="n">
-        <v>0.897224</v>
+        <v>0.920844</v>
       </c>
       <c r="D94" t="n">
-        <v>3.94406</v>
+        <v>3.80208</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20972</v>
+        <v>1.19447</v>
       </c>
       <c r="C95" t="n">
-        <v>0.903994</v>
+        <v>0.9219889999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>3.79444</v>
+        <v>3.66529</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21714</v>
+        <v>1.2182</v>
       </c>
       <c r="C96" t="n">
-        <v>0.899394</v>
+        <v>0.866944</v>
       </c>
       <c r="D96" t="n">
-        <v>3.69256</v>
+        <v>3.63078</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19079</v>
+        <v>1.17342</v>
       </c>
       <c r="C97" t="n">
-        <v>0.86259</v>
+        <v>0.86113</v>
       </c>
       <c r="D97" t="n">
-        <v>3.64641</v>
+        <v>3.62263</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16448</v>
+        <v>1.17818</v>
       </c>
       <c r="C98" t="n">
-        <v>0.881401</v>
+        <v>0.842989</v>
       </c>
       <c r="D98" t="n">
-        <v>3.61829</v>
+        <v>3.54177</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17265</v>
+        <v>1.12688</v>
       </c>
       <c r="C99" t="n">
-        <v>0.82899</v>
+        <v>0.824653</v>
       </c>
       <c r="D99" t="n">
-        <v>3.56423</v>
+        <v>3.46986</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.18307</v>
+        <v>1.162</v>
       </c>
       <c r="C100" t="n">
-        <v>0.819347</v>
+        <v>0.816513</v>
       </c>
       <c r="D100" t="n">
-        <v>3.46965</v>
+        <v>3.42941</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.175</v>
+        <v>1.12718</v>
       </c>
       <c r="C101" t="n">
-        <v>0.820384</v>
+        <v>0.800036</v>
       </c>
       <c r="D101" t="n">
-        <v>3.55458</v>
+        <v>3.36312</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14307</v>
+        <v>1.10929</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8321539999999999</v>
+        <v>0.784203</v>
       </c>
       <c r="D102" t="n">
-        <v>3.45064</v>
+        <v>3.34661</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.17803</v>
+        <v>1.07156</v>
       </c>
       <c r="C103" t="n">
-        <v>0.809833</v>
+        <v>0.7692830000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>3.46678</v>
+        <v>3.27524</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12048</v>
+        <v>1.07126</v>
       </c>
       <c r="C104" t="n">
-        <v>0.801608</v>
+        <v>0.775291</v>
       </c>
       <c r="D104" t="n">
-        <v>3.43494</v>
+        <v>3.22378</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10414</v>
+        <v>1.07565</v>
       </c>
       <c r="C105" t="n">
-        <v>0.773941</v>
+        <v>0.745089</v>
       </c>
       <c r="D105" t="n">
-        <v>3.33913</v>
+        <v>3.23144</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.11194</v>
+        <v>1.05749</v>
       </c>
       <c r="C106" t="n">
-        <v>0.772818</v>
+        <v>0.753802</v>
       </c>
       <c r="D106" t="n">
-        <v>3.38299</v>
+        <v>3.17053</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09146</v>
+        <v>1.0832</v>
       </c>
       <c r="C107" t="n">
-        <v>0.769501</v>
+        <v>0.748015</v>
       </c>
       <c r="D107" t="n">
-        <v>4.51572</v>
+        <v>4.37253</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07619</v>
+        <v>1.042</v>
       </c>
       <c r="C108" t="n">
-        <v>1.06906</v>
+        <v>1.05265</v>
       </c>
       <c r="D108" t="n">
-        <v>4.38478</v>
+        <v>4.27631</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.07037</v>
+        <v>1.04446</v>
       </c>
       <c r="C109" t="n">
-        <v>1.09409</v>
+        <v>1.03263</v>
       </c>
       <c r="D109" t="n">
-        <v>4.3051</v>
+        <v>4.15727</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42545</v>
+        <v>1.39361</v>
       </c>
       <c r="C110" t="n">
-        <v>1.09317</v>
+        <v>1.04435</v>
       </c>
       <c r="D110" t="n">
-        <v>4.28471</v>
+        <v>4.06558</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41079</v>
+        <v>1.34312</v>
       </c>
       <c r="C111" t="n">
-        <v>1.05189</v>
+        <v>1.03688</v>
       </c>
       <c r="D111" t="n">
-        <v>4.1737</v>
+        <v>3.99803</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.38584</v>
+        <v>1.34969</v>
       </c>
       <c r="C112" t="n">
-        <v>1.05007</v>
+        <v>1.01014</v>
       </c>
       <c r="D112" t="n">
-        <v>4.04359</v>
+        <v>3.9351</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37394</v>
+        <v>1.3059</v>
       </c>
       <c r="C113" t="n">
-        <v>1.04928</v>
+        <v>1.01061</v>
       </c>
       <c r="D113" t="n">
-        <v>4.00254</v>
+        <v>3.88754</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.41297</v>
+        <v>1.29643</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06292</v>
+        <v>0.9961370000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>3.92087</v>
+        <v>3.86497</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32517</v>
+        <v>1.3008</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06053</v>
+        <v>0.984085</v>
       </c>
       <c r="D115" t="n">
-        <v>3.86928</v>
+        <v>3.74956</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.3476</v>
+        <v>1.28842</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02253</v>
+        <v>1.00936</v>
       </c>
       <c r="D116" t="n">
-        <v>3.82785</v>
+        <v>3.7336</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.32935</v>
+        <v>1.29422</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03025</v>
+        <v>0.988486</v>
       </c>
       <c r="D117" t="n">
-        <v>3.82204</v>
+        <v>3.66183</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.31649</v>
+        <v>1.2921</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01089</v>
+        <v>1.01284</v>
       </c>
       <c r="D118" t="n">
-        <v>3.74649</v>
+        <v>3.65489</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32488</v>
+        <v>1.32703</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02267</v>
+        <v>0.998835</v>
       </c>
       <c r="D119" t="n">
-        <v>3.73961</v>
+        <v>3.71612</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.29237</v>
+        <v>1.30687</v>
       </c>
       <c r="C120" t="n">
-        <v>1.00549</v>
+        <v>1.0014</v>
       </c>
       <c r="D120" t="n">
-        <v>3.67365</v>
+        <v>3.67498</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.30435</v>
+        <v>1.29636</v>
       </c>
       <c r="C121" t="n">
-        <v>0.989793</v>
+        <v>1.00112</v>
       </c>
       <c r="D121" t="n">
-        <v>5.0891</v>
+        <v>5.13194</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31345</v>
+        <v>1.31614</v>
       </c>
       <c r="C122" t="n">
-        <v>0.977003</v>
+        <v>1.0214</v>
       </c>
       <c r="D122" t="n">
-        <v>4.95355</v>
+        <v>5.05115</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.29282</v>
+        <v>1.31491</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33651</v>
+        <v>1.35518</v>
       </c>
       <c r="D123" t="n">
-        <v>4.83763</v>
+        <v>5.06244</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58032</v>
+        <v>1.68525</v>
       </c>
       <c r="C124" t="n">
-        <v>1.30931</v>
+        <v>1.38585</v>
       </c>
       <c r="D124" t="n">
-        <v>4.74237</v>
+        <v>4.95725</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.61085</v>
+        <v>1.73769</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3338</v>
+        <v>1.41538</v>
       </c>
       <c r="D125" t="n">
-        <v>4.59633</v>
+        <v>4.91607</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.57124</v>
+        <v>1.68627</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30485</v>
+        <v>1.41072</v>
       </c>
       <c r="D126" t="n">
-        <v>4.59041</v>
+        <v>4.78436</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.59315</v>
+        <v>1.67387</v>
       </c>
       <c r="C127" t="n">
-        <v>1.28433</v>
+        <v>1.39908</v>
       </c>
       <c r="D127" t="n">
-        <v>4.4597</v>
+        <v>4.77789</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.57337</v>
+        <v>1.71701</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30508</v>
+        <v>1.40085</v>
       </c>
       <c r="D128" t="n">
-        <v>4.37927</v>
+        <v>4.69181</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.57491</v>
+        <v>1.71396</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31031</v>
+        <v>1.4096</v>
       </c>
       <c r="D129" t="n">
-        <v>4.26663</v>
+        <v>4.65432</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.58098</v>
+        <v>1.70128</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30514</v>
+        <v>1.40038</v>
       </c>
       <c r="D130" t="n">
-        <v>4.26448</v>
+        <v>4.56267</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.55971</v>
+        <v>1.68758</v>
       </c>
       <c r="C131" t="n">
-        <v>1.2918</v>
+        <v>1.4348</v>
       </c>
       <c r="D131" t="n">
-        <v>4.19155</v>
+        <v>4.49083</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55638</v>
+        <v>1.68647</v>
       </c>
       <c r="C132" t="n">
-        <v>1.2959</v>
+        <v>1.42132</v>
       </c>
       <c r="D132" t="n">
-        <v>4.13454</v>
+        <v>4.46158</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.56135</v>
+        <v>1.687</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30628</v>
+        <v>1.42052</v>
       </c>
       <c r="D133" t="n">
-        <v>4.13828</v>
+        <v>4.47182</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54809</v>
+        <v>1.70221</v>
       </c>
       <c r="C134" t="n">
-        <v>1.3241</v>
+        <v>1.45824</v>
       </c>
       <c r="D134" t="n">
-        <v>4.11286</v>
+        <v>4.41198</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.55237</v>
+        <v>1.70415</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31828</v>
+        <v>1.4477</v>
       </c>
       <c r="D135" t="n">
-        <v>5.72743</v>
+        <v>6.15643</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.5567</v>
+        <v>1.66837</v>
       </c>
       <c r="C136" t="n">
-        <v>1.31634</v>
+        <v>1.44326</v>
       </c>
       <c r="D136" t="n">
-        <v>5.58666</v>
+        <v>6.02155</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.58549</v>
+        <v>1.70795</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65694</v>
+        <v>1.82485</v>
       </c>
       <c r="D137" t="n">
-        <v>5.51093</v>
+        <v>5.99629</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.9023</v>
+        <v>2.08024</v>
       </c>
       <c r="C138" t="n">
-        <v>1.64333</v>
+        <v>1.82437</v>
       </c>
       <c r="D138" t="n">
-        <v>5.38226</v>
+        <v>5.86202</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.88615</v>
+        <v>2.06494</v>
       </c>
       <c r="C139" t="n">
-        <v>1.65655</v>
+        <v>1.83161</v>
       </c>
       <c r="D139" t="n">
-        <v>5.27119</v>
+        <v>5.72356</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.87754</v>
+        <v>2.05648</v>
       </c>
       <c r="C140" t="n">
-        <v>1.65147</v>
+        <v>1.85494</v>
       </c>
       <c r="D140" t="n">
-        <v>5.14183</v>
+        <v>5.61773</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.87317</v>
+        <v>2.03988</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67278</v>
+        <v>1.85385</v>
       </c>
       <c r="D141" t="n">
-        <v>5.06094</v>
+        <v>5.55001</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.79162</v>
+        <v>2.04604</v>
       </c>
       <c r="C142" t="n">
-        <v>1.5805</v>
+        <v>1.83576</v>
       </c>
       <c r="D142" t="n">
-        <v>4.80674</v>
+        <v>5.45589</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.74352</v>
+        <v>2.0435</v>
       </c>
       <c r="C143" t="n">
-        <v>1.57363</v>
+        <v>1.85178</v>
       </c>
       <c r="D143" t="n">
-        <v>4.79469</v>
+        <v>5.35685</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.511805</v>
+        <v>0.514171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230854</v>
+        <v>0.222582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.829966</v>
+        <v>0.869472</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.444669</v>
+        <v>0.440477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217605</v>
+        <v>0.209767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83192</v>
+        <v>0.849229</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44758</v>
+        <v>0.443407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215571</v>
+        <v>0.207176</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8087220000000001</v>
+        <v>0.837295</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421065</v>
+        <v>0.42633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210457</v>
+        <v>0.20875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.790096</v>
+        <v>0.814282</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420258</v>
+        <v>0.415094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209291</v>
+        <v>0.200894</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7860470000000001</v>
+        <v>0.837242</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425626</v>
+        <v>0.417211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200203</v>
+        <v>0.196079</v>
       </c>
       <c r="D7" t="n">
-        <v>0.941279</v>
+        <v>1.0136</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.411457</v>
+        <v>0.415255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195186</v>
+        <v>0.196728</v>
       </c>
       <c r="D8" t="n">
-        <v>0.945313</v>
+        <v>0.964073</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.409215</v>
+        <v>0.422492</v>
       </c>
       <c r="C9" t="n">
-        <v>0.289671</v>
+        <v>0.269054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9460229999999999</v>
+        <v>0.9802650000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.492272</v>
+        <v>0.505675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271305</v>
+        <v>0.260272</v>
       </c>
       <c r="D10" t="n">
-        <v>0.90008</v>
+        <v>0.947748</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.476679</v>
+        <v>0.488031</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26912</v>
+        <v>0.248766</v>
       </c>
       <c r="D11" t="n">
-        <v>0.906292</v>
+        <v>0.922256</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.479774</v>
+        <v>0.48762</v>
       </c>
       <c r="C12" t="n">
-        <v>0.260006</v>
+        <v>0.246888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.927926</v>
+        <v>0.924083</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.480928</v>
+        <v>0.469495</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245943</v>
+        <v>0.237297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.905565</v>
+        <v>0.909733</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.453996</v>
+        <v>0.46377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.249395</v>
+        <v>0.231841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.867107</v>
+        <v>0.8902600000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456894</v>
+        <v>0.460287</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231428</v>
+        <v>0.218759</v>
       </c>
       <c r="D15" t="n">
-        <v>0.89027</v>
+        <v>0.876144</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45465</v>
+        <v>0.451381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234426</v>
+        <v>0.216875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.860525</v>
+        <v>0.866286</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.442474</v>
+        <v>0.452877</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226408</v>
+        <v>0.216274</v>
       </c>
       <c r="D17" t="n">
-        <v>0.875839</v>
+        <v>0.843632</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.428318</v>
+        <v>0.432939</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218555</v>
+        <v>0.201984</v>
       </c>
       <c r="D18" t="n">
-        <v>0.876003</v>
+        <v>0.855108</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.426575</v>
+        <v>0.444039</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213495</v>
+        <v>0.200144</v>
       </c>
       <c r="D19" t="n">
-        <v>0.854898</v>
+        <v>0.839915</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429293</v>
+        <v>0.433554</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207325</v>
+        <v>0.196417</v>
       </c>
       <c r="D20" t="n">
-        <v>0.823592</v>
+        <v>0.834028</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428398</v>
+        <v>0.4172</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20358</v>
+        <v>0.194249</v>
       </c>
       <c r="D21" t="n">
-        <v>1.03417</v>
+        <v>1.0305</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422847</v>
+        <v>0.413686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202312</v>
+        <v>0.193155</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0154</v>
+        <v>0.980037</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.41703</v>
+        <v>0.417935</v>
       </c>
       <c r="C23" t="n">
-        <v>0.449183</v>
+        <v>0.437838</v>
       </c>
       <c r="D23" t="n">
-        <v>0.988416</v>
+        <v>0.999684</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.657439</v>
+        <v>0.653276</v>
       </c>
       <c r="C24" t="n">
-        <v>0.445991</v>
+        <v>0.415493</v>
       </c>
       <c r="D24" t="n">
-        <v>0.983513</v>
+        <v>0.967382</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.648941</v>
+        <v>0.6465340000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.421038</v>
+        <v>0.420834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.958572</v>
+        <v>0.962684</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.647472</v>
+        <v>0.633578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.400603</v>
+        <v>0.389391</v>
       </c>
       <c r="D26" t="n">
-        <v>0.952186</v>
+        <v>0.944406</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.629127</v>
+        <v>0.612158</v>
       </c>
       <c r="C27" t="n">
-        <v>0.383688</v>
+        <v>0.374339</v>
       </c>
       <c r="D27" t="n">
-        <v>0.949464</v>
+        <v>0.948207</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.617909</v>
+        <v>0.61354</v>
       </c>
       <c r="C28" t="n">
-        <v>0.377956</v>
+        <v>0.368627</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9440190000000001</v>
+        <v>0.93626</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.591856</v>
+        <v>0.598411</v>
       </c>
       <c r="C29" t="n">
-        <v>0.367394</v>
+        <v>0.347419</v>
       </c>
       <c r="D29" t="n">
-        <v>0.944689</v>
+        <v>0.913043</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.600186</v>
+        <v>0.579945</v>
       </c>
       <c r="C30" t="n">
-        <v>0.356506</v>
+        <v>0.33797</v>
       </c>
       <c r="D30" t="n">
-        <v>0.921638</v>
+        <v>0.907895</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.56294</v>
+        <v>0.576456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.344114</v>
+        <v>0.327656</v>
       </c>
       <c r="D31" t="n">
-        <v>0.936706</v>
+        <v>0.897115</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5607529999999999</v>
+        <v>0.550107</v>
       </c>
       <c r="C32" t="n">
-        <v>0.333774</v>
+        <v>0.317681</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9052</v>
+        <v>0.8657280000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567346</v>
+        <v>0.541249</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321364</v>
+        <v>0.312099</v>
       </c>
       <c r="D33" t="n">
-        <v>0.933858</v>
+        <v>0.8879050000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.541137</v>
+        <v>0.542258</v>
       </c>
       <c r="C34" t="n">
-        <v>0.320747</v>
+        <v>0.29919</v>
       </c>
       <c r="D34" t="n">
-        <v>0.908491</v>
+        <v>0.880304</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.542401</v>
+        <v>0.534861</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298693</v>
+        <v>0.294408</v>
       </c>
       <c r="D35" t="n">
-        <v>1.16072</v>
+        <v>1.14107</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.524841</v>
+        <v>0.523347</v>
       </c>
       <c r="C36" t="n">
-        <v>0.295146</v>
+        <v>0.293697</v>
       </c>
       <c r="D36" t="n">
-        <v>1.15968</v>
+        <v>1.12109</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.509122</v>
+        <v>0.513557</v>
       </c>
       <c r="C37" t="n">
-        <v>0.554275</v>
+        <v>0.5524480000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.1632</v>
+        <v>1.1218</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.793632</v>
+        <v>0.762715</v>
       </c>
       <c r="C38" t="n">
-        <v>0.530944</v>
+        <v>0.533415</v>
       </c>
       <c r="D38" t="n">
-        <v>1.13503</v>
+        <v>1.07814</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.770262</v>
+        <v>0.739209</v>
       </c>
       <c r="C39" t="n">
-        <v>0.509022</v>
+        <v>0.506362</v>
       </c>
       <c r="D39" t="n">
-        <v>1.09524</v>
+        <v>1.069</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.76912</v>
+        <v>0.737628</v>
       </c>
       <c r="C40" t="n">
-        <v>0.500744</v>
+        <v>0.487384</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0745</v>
+        <v>1.05875</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.72207</v>
+        <v>0.730303</v>
       </c>
       <c r="C41" t="n">
-        <v>0.46933</v>
+        <v>0.483796</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0847</v>
+        <v>1.06876</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7233000000000001</v>
+        <v>0.710665</v>
       </c>
       <c r="C42" t="n">
-        <v>0.461582</v>
+        <v>0.462806</v>
       </c>
       <c r="D42" t="n">
-        <v>1.06683</v>
+        <v>1.04984</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.709577</v>
+        <v>0.701492</v>
       </c>
       <c r="C43" t="n">
-        <v>0.443672</v>
+        <v>0.443755</v>
       </c>
       <c r="D43" t="n">
-        <v>1.03106</v>
+        <v>1.01739</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.677701</v>
+        <v>0.664462</v>
       </c>
       <c r="C44" t="n">
-        <v>0.43451</v>
+        <v>0.432701</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01584</v>
+        <v>1.04068</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.661615</v>
+        <v>0.681905</v>
       </c>
       <c r="C45" t="n">
-        <v>0.41517</v>
+        <v>0.412943</v>
       </c>
       <c r="D45" t="n">
-        <v>1.00074</v>
+        <v>1.02433</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.641999</v>
+        <v>0.639418</v>
       </c>
       <c r="C46" t="n">
-        <v>0.394823</v>
+        <v>0.391626</v>
       </c>
       <c r="D46" t="n">
-        <v>1.00408</v>
+        <v>1.02282</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.639961</v>
+        <v>0.63295</v>
       </c>
       <c r="C47" t="n">
-        <v>0.389033</v>
+        <v>0.391797</v>
       </c>
       <c r="D47" t="n">
-        <v>1.05153</v>
+        <v>1.00486</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.63415</v>
+        <v>0.623541</v>
       </c>
       <c r="C48" t="n">
-        <v>0.384207</v>
+        <v>0.37206</v>
       </c>
       <c r="D48" t="n">
-        <v>1.00719</v>
+        <v>1.01165</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605611</v>
+        <v>0.602113</v>
       </c>
       <c r="C49" t="n">
-        <v>0.375032</v>
+        <v>0.363865</v>
       </c>
       <c r="D49" t="n">
-        <v>1.04487</v>
+        <v>1.01458</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.605946</v>
+        <v>0.59562</v>
       </c>
       <c r="C50" t="n">
-        <v>0.364309</v>
+        <v>0.343315</v>
       </c>
       <c r="D50" t="n">
-        <v>1.69163</v>
+        <v>1.64453</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.578729</v>
+        <v>0.5814859999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.636167</v>
+        <v>0.615046</v>
       </c>
       <c r="D51" t="n">
-        <v>1.62704</v>
+        <v>1.59692</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.591605</v>
+        <v>0.584017</v>
       </c>
       <c r="C52" t="n">
-        <v>0.600195</v>
+        <v>0.615083</v>
       </c>
       <c r="D52" t="n">
-        <v>1.57314</v>
+        <v>1.54213</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.860243</v>
+        <v>0.854405</v>
       </c>
       <c r="C53" t="n">
-        <v>0.586528</v>
+        <v>0.578713</v>
       </c>
       <c r="D53" t="n">
-        <v>1.56204</v>
+        <v>1.54826</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.837719</v>
+        <v>0.826163</v>
       </c>
       <c r="C54" t="n">
-        <v>0.559187</v>
+        <v>0.558696</v>
       </c>
       <c r="D54" t="n">
-        <v>1.53458</v>
+        <v>1.51592</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.811889</v>
+        <v>0.787233</v>
       </c>
       <c r="C55" t="n">
-        <v>0.551395</v>
+        <v>0.554648</v>
       </c>
       <c r="D55" t="n">
-        <v>1.55925</v>
+        <v>1.48888</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.809801</v>
+        <v>0.784649</v>
       </c>
       <c r="C56" t="n">
-        <v>0.53373</v>
+        <v>0.5341360000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>1.46904</v>
+        <v>1.42904</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.79989</v>
+        <v>0.777957</v>
       </c>
       <c r="C57" t="n">
-        <v>0.541995</v>
+        <v>0.5124069999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>1.46029</v>
+        <v>1.47705</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.806956</v>
+        <v>0.763543</v>
       </c>
       <c r="C58" t="n">
-        <v>0.506642</v>
+        <v>0.499855</v>
       </c>
       <c r="D58" t="n">
-        <v>1.46585</v>
+        <v>1.47773</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755344</v>
+        <v>0.751184</v>
       </c>
       <c r="C59" t="n">
-        <v>0.487759</v>
+        <v>0.480662</v>
       </c>
       <c r="D59" t="n">
-        <v>1.47361</v>
+        <v>1.38226</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.746688</v>
+        <v>0.727826</v>
       </c>
       <c r="C60" t="n">
-        <v>0.476568</v>
+        <v>0.476669</v>
       </c>
       <c r="D60" t="n">
-        <v>1.44221</v>
+        <v>1.40158</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.727671</v>
+        <v>0.724132</v>
       </c>
       <c r="C61" t="n">
-        <v>0.467244</v>
+        <v>0.471357</v>
       </c>
       <c r="D61" t="n">
-        <v>1.42914</v>
+        <v>1.41661</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.729643</v>
+        <v>0.697979</v>
       </c>
       <c r="C62" t="n">
-        <v>0.449845</v>
+        <v>0.439948</v>
       </c>
       <c r="D62" t="n">
-        <v>1.42271</v>
+        <v>1.37516</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.726071</v>
+        <v>0.690103</v>
       </c>
       <c r="C63" t="n">
-        <v>0.441547</v>
+        <v>0.434428</v>
       </c>
       <c r="D63" t="n">
-        <v>1.43975</v>
+        <v>1.36934</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.690584</v>
+        <v>0.689658</v>
       </c>
       <c r="C64" t="n">
-        <v>0.442306</v>
+        <v>0.422626</v>
       </c>
       <c r="D64" t="n">
-        <v>2.60726</v>
+        <v>2.41735</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.688455</v>
+        <v>0.681105</v>
       </c>
       <c r="C65" t="n">
-        <v>0.430774</v>
+        <v>0.428094</v>
       </c>
       <c r="D65" t="n">
-        <v>2.54553</v>
+        <v>2.4221</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.684451</v>
+        <v>0.663986</v>
       </c>
       <c r="C66" t="n">
-        <v>0.713385</v>
+        <v>0.689532</v>
       </c>
       <c r="D66" t="n">
-        <v>2.55266</v>
+        <v>2.38106</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9855699999999999</v>
+        <v>0.972047</v>
       </c>
       <c r="C67" t="n">
-        <v>0.677277</v>
+        <v>0.665428</v>
       </c>
       <c r="D67" t="n">
-        <v>2.45596</v>
+        <v>2.45594</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.974718</v>
+        <v>0.9397759999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.674168</v>
+        <v>0.665786</v>
       </c>
       <c r="D68" t="n">
-        <v>2.39327</v>
+        <v>2.31528</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.925592</v>
+        <v>0.93293</v>
       </c>
       <c r="C69" t="n">
-        <v>0.646616</v>
+        <v>0.657432</v>
       </c>
       <c r="D69" t="n">
-        <v>2.31414</v>
+        <v>2.24963</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.924773</v>
+        <v>0.908761</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6323029999999999</v>
+        <v>0.630098</v>
       </c>
       <c r="D70" t="n">
-        <v>2.31304</v>
+        <v>2.23126</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.89212</v>
+        <v>0.9032289999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.621184</v>
+        <v>0.606046</v>
       </c>
       <c r="D71" t="n">
-        <v>2.24914</v>
+        <v>2.17249</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.901688</v>
+        <v>0.864636</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602514</v>
+        <v>0.574611</v>
       </c>
       <c r="D72" t="n">
-        <v>2.2819</v>
+        <v>2.14296</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.877119</v>
+        <v>0.874272</v>
       </c>
       <c r="C73" t="n">
-        <v>0.573561</v>
+        <v>0.567685</v>
       </c>
       <c r="D73" t="n">
-        <v>2.31226</v>
+        <v>2.14988</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.867441</v>
+        <v>0.841249</v>
       </c>
       <c r="C74" t="n">
-        <v>0.562175</v>
+        <v>0.553528</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23796</v>
+        <v>2.14578</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.861776</v>
+        <v>0.829644</v>
       </c>
       <c r="C75" t="n">
-        <v>0.56658</v>
+        <v>0.558098</v>
       </c>
       <c r="D75" t="n">
-        <v>2.1799</v>
+        <v>2.12309</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.847518</v>
+        <v>0.827182</v>
       </c>
       <c r="C76" t="n">
-        <v>0.530008</v>
+        <v>0.538481</v>
       </c>
       <c r="D76" t="n">
-        <v>2.16193</v>
+        <v>2.07053</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.832056</v>
+        <v>0.8085909999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526987</v>
+        <v>0.521367</v>
       </c>
       <c r="D77" t="n">
-        <v>2.15283</v>
+        <v>2.09326</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808177</v>
+        <v>0.808804</v>
       </c>
       <c r="C78" t="n">
-        <v>0.518632</v>
+        <v>0.511802</v>
       </c>
       <c r="D78" t="n">
-        <v>3.57936</v>
+        <v>3.47524</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.812123</v>
+        <v>0.77412</v>
       </c>
       <c r="C79" t="n">
-        <v>0.501045</v>
+        <v>0.501629</v>
       </c>
       <c r="D79" t="n">
-        <v>3.48762</v>
+        <v>3.41048</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.78913</v>
+        <v>0.782162</v>
       </c>
       <c r="C80" t="n">
-        <v>0.790279</v>
+        <v>0.807979</v>
       </c>
       <c r="D80" t="n">
-        <v>3.43343</v>
+        <v>3.32649</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09607</v>
+        <v>1.102</v>
       </c>
       <c r="C81" t="n">
-        <v>0.786396</v>
+        <v>0.776502</v>
       </c>
       <c r="D81" t="n">
-        <v>3.30254</v>
+        <v>3.24556</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08758</v>
+        <v>1.07416</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7742329999999999</v>
+        <v>0.785932</v>
       </c>
       <c r="D82" t="n">
-        <v>3.27685</v>
+        <v>3.16462</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0526</v>
+        <v>1.04714</v>
       </c>
       <c r="C83" t="n">
-        <v>0.76806</v>
+        <v>0.758346</v>
       </c>
       <c r="D83" t="n">
-        <v>3.17631</v>
+        <v>3.12439</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02877</v>
+        <v>1.03528</v>
       </c>
       <c r="C84" t="n">
-        <v>0.732591</v>
+        <v>0.747443</v>
       </c>
       <c r="D84" t="n">
-        <v>3.16409</v>
+        <v>3.11756</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03911</v>
+        <v>1.00271</v>
       </c>
       <c r="C85" t="n">
-        <v>0.721405</v>
+        <v>0.719137</v>
       </c>
       <c r="D85" t="n">
-        <v>3.07085</v>
+        <v>3.02922</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01278</v>
+        <v>1.01852</v>
       </c>
       <c r="C86" t="n">
-        <v>0.690567</v>
+        <v>0.692794</v>
       </c>
       <c r="D86" t="n">
-        <v>3.01296</v>
+        <v>3.0058</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.978133</v>
+        <v>0.99434</v>
       </c>
       <c r="C87" t="n">
-        <v>0.686683</v>
+        <v>0.69611</v>
       </c>
       <c r="D87" t="n">
-        <v>2.98288</v>
+        <v>2.99712</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.968539</v>
+        <v>0.9761300000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.673952</v>
+        <v>0.676867</v>
       </c>
       <c r="D88" t="n">
-        <v>2.93289</v>
+        <v>2.88184</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.975545</v>
+        <v>0.9673890000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.661941</v>
+        <v>0.647652</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88523</v>
+        <v>2.87037</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9464939999999999</v>
+        <v>0.9354789999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.637019</v>
+        <v>0.640752</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90383</v>
+        <v>2.81106</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.927633</v>
+        <v>0.940264</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618635</v>
+        <v>0.642267</v>
       </c>
       <c r="D91" t="n">
-        <v>2.86759</v>
+        <v>2.82789</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.918108</v>
+        <v>0.931164</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6203109999999999</v>
+        <v>0.612</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0202</v>
+        <v>3.95534</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.935274</v>
+        <v>0.908315</v>
       </c>
       <c r="C93" t="n">
-        <v>0.60415</v>
+        <v>0.613803</v>
       </c>
       <c r="D93" t="n">
-        <v>3.88054</v>
+        <v>3.90935</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.92226</v>
+        <v>0.930326</v>
       </c>
       <c r="C94" t="n">
-        <v>0.920844</v>
+        <v>1.35412</v>
       </c>
       <c r="D94" t="n">
-        <v>3.80208</v>
+        <v>3.8314</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19447</v>
+        <v>1.22903</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9219889999999999</v>
+        <v>1.31446</v>
       </c>
       <c r="D95" t="n">
-        <v>3.66529</v>
+        <v>3.70203</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2182</v>
+        <v>1.20032</v>
       </c>
       <c r="C96" t="n">
-        <v>0.866944</v>
+        <v>1.26714</v>
       </c>
       <c r="D96" t="n">
-        <v>3.63078</v>
+        <v>3.66734</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17342</v>
+        <v>1.19994</v>
       </c>
       <c r="C97" t="n">
-        <v>0.86113</v>
+        <v>1.24344</v>
       </c>
       <c r="D97" t="n">
-        <v>3.62263</v>
+        <v>3.55377</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17818</v>
+        <v>1.16995</v>
       </c>
       <c r="C98" t="n">
-        <v>0.842989</v>
+        <v>1.2149</v>
       </c>
       <c r="D98" t="n">
-        <v>3.54177</v>
+        <v>3.51526</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.12688</v>
+        <v>1.1391</v>
       </c>
       <c r="C99" t="n">
-        <v>0.824653</v>
+        <v>1.18938</v>
       </c>
       <c r="D99" t="n">
-        <v>3.46986</v>
+        <v>3.43571</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.162</v>
+        <v>1.12089</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816513</v>
+        <v>1.15091</v>
       </c>
       <c r="D100" t="n">
-        <v>3.42941</v>
+        <v>3.44638</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12718</v>
+        <v>1.12837</v>
       </c>
       <c r="C101" t="n">
-        <v>0.800036</v>
+        <v>1.11033</v>
       </c>
       <c r="D101" t="n">
-        <v>3.36312</v>
+        <v>3.38058</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10929</v>
+        <v>1.11265</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784203</v>
+        <v>1.11133</v>
       </c>
       <c r="D102" t="n">
-        <v>3.34661</v>
+        <v>3.35596</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07156</v>
+        <v>1.09897</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7692830000000001</v>
+        <v>1.06559</v>
       </c>
       <c r="D103" t="n">
-        <v>3.27524</v>
+        <v>3.31124</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07126</v>
+        <v>1.0917</v>
       </c>
       <c r="C104" t="n">
-        <v>0.775291</v>
+        <v>1.04683</v>
       </c>
       <c r="D104" t="n">
-        <v>3.22378</v>
+        <v>3.19161</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07565</v>
+        <v>1.07087</v>
       </c>
       <c r="C105" t="n">
-        <v>0.745089</v>
+        <v>1.02664</v>
       </c>
       <c r="D105" t="n">
-        <v>3.23144</v>
+        <v>3.23329</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05749</v>
+        <v>1.05478</v>
       </c>
       <c r="C106" t="n">
-        <v>0.753802</v>
+        <v>1.01992</v>
       </c>
       <c r="D106" t="n">
-        <v>3.17053</v>
+        <v>3.2312</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0832</v>
+        <v>1.05711</v>
       </c>
       <c r="C107" t="n">
-        <v>0.748015</v>
+        <v>1.00015</v>
       </c>
       <c r="D107" t="n">
-        <v>4.37253</v>
+        <v>4.40431</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.042</v>
+        <v>1.05643</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05265</v>
+        <v>1.27888</v>
       </c>
       <c r="D108" t="n">
-        <v>4.27631</v>
+        <v>4.26881</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04446</v>
+        <v>1.03953</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03263</v>
+        <v>1.25876</v>
       </c>
       <c r="D109" t="n">
-        <v>4.15727</v>
+        <v>4.19524</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39361</v>
+        <v>1.33675</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04435</v>
+        <v>1.28082</v>
       </c>
       <c r="D110" t="n">
-        <v>4.06558</v>
+        <v>4.11018</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34312</v>
+        <v>1.3105</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03688</v>
+        <v>1.26222</v>
       </c>
       <c r="D111" t="n">
-        <v>3.99803</v>
+        <v>3.98796</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.34969</v>
+        <v>1.33479</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01014</v>
+        <v>1.2188</v>
       </c>
       <c r="D112" t="n">
-        <v>3.9351</v>
+        <v>3.93049</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3059</v>
+        <v>1.3177</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01061</v>
+        <v>1.21988</v>
       </c>
       <c r="D113" t="n">
-        <v>3.88754</v>
+        <v>3.91615</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29643</v>
+        <v>1.31988</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9961370000000001</v>
+        <v>1.2489</v>
       </c>
       <c r="D114" t="n">
-        <v>3.86497</v>
+        <v>3.82035</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.3008</v>
+        <v>1.31218</v>
       </c>
       <c r="C115" t="n">
-        <v>0.984085</v>
+        <v>1.18159</v>
       </c>
       <c r="D115" t="n">
-        <v>3.74956</v>
+        <v>3.82153</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28842</v>
+        <v>1.30279</v>
       </c>
       <c r="C116" t="n">
-        <v>1.00936</v>
+        <v>1.16093</v>
       </c>
       <c r="D116" t="n">
-        <v>3.7336</v>
+        <v>3.77076</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29422</v>
+        <v>1.27252</v>
       </c>
       <c r="C117" t="n">
-        <v>0.988486</v>
+        <v>1.14796</v>
       </c>
       <c r="D117" t="n">
-        <v>3.66183</v>
+        <v>3.71142</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.2921</v>
+        <v>1.30769</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01284</v>
+        <v>1.14354</v>
       </c>
       <c r="D118" t="n">
-        <v>3.65489</v>
+        <v>3.64719</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32703</v>
+        <v>1.29647</v>
       </c>
       <c r="C119" t="n">
-        <v>0.998835</v>
+        <v>1.12503</v>
       </c>
       <c r="D119" t="n">
-        <v>3.71612</v>
+        <v>3.6185</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.30687</v>
+        <v>1.27168</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0014</v>
+        <v>1.12726</v>
       </c>
       <c r="D120" t="n">
-        <v>3.67498</v>
+        <v>3.6093</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29636</v>
+        <v>1.25133</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00112</v>
+        <v>1.09884</v>
       </c>
       <c r="D121" t="n">
-        <v>5.13194</v>
+        <v>4.94469</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31614</v>
+        <v>1.26441</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0214</v>
+        <v>1.11402</v>
       </c>
       <c r="D122" t="n">
-        <v>5.05115</v>
+        <v>4.80813</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31491</v>
+        <v>1.28482</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35518</v>
+        <v>1.41721</v>
       </c>
       <c r="D123" t="n">
-        <v>5.06244</v>
+        <v>4.78103</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.68525</v>
+        <v>1.57795</v>
       </c>
       <c r="C124" t="n">
-        <v>1.38585</v>
+        <v>1.41925</v>
       </c>
       <c r="D124" t="n">
-        <v>4.95725</v>
+        <v>4.71211</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.73769</v>
+        <v>1.57592</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41538</v>
+        <v>1.43443</v>
       </c>
       <c r="D125" t="n">
-        <v>4.91607</v>
+        <v>4.56735</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.68627</v>
+        <v>1.56642</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41072</v>
+        <v>1.44651</v>
       </c>
       <c r="D126" t="n">
-        <v>4.78436</v>
+        <v>4.50722</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.67387</v>
+        <v>1.58974</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39908</v>
+        <v>1.43078</v>
       </c>
       <c r="D127" t="n">
-        <v>4.77789</v>
+        <v>4.443</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.71701</v>
+        <v>1.57149</v>
       </c>
       <c r="C128" t="n">
-        <v>1.40085</v>
+        <v>1.4219</v>
       </c>
       <c r="D128" t="n">
-        <v>4.69181</v>
+        <v>4.39726</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.71396</v>
+        <v>1.55488</v>
       </c>
       <c r="C129" t="n">
-        <v>1.4096</v>
+        <v>1.4005</v>
       </c>
       <c r="D129" t="n">
-        <v>4.65432</v>
+        <v>4.32467</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.70128</v>
+        <v>1.56162</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40038</v>
+        <v>1.41609</v>
       </c>
       <c r="D130" t="n">
-        <v>4.56267</v>
+        <v>4.26372</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.68758</v>
+        <v>1.55249</v>
       </c>
       <c r="C131" t="n">
-        <v>1.4348</v>
+        <v>1.36838</v>
       </c>
       <c r="D131" t="n">
-        <v>4.49083</v>
+        <v>4.22187</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.68647</v>
+        <v>1.52989</v>
       </c>
       <c r="C132" t="n">
-        <v>1.42132</v>
+        <v>1.41003</v>
       </c>
       <c r="D132" t="n">
-        <v>4.46158</v>
+        <v>4.18957</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.687</v>
+        <v>1.54923</v>
       </c>
       <c r="C133" t="n">
-        <v>1.42052</v>
+        <v>1.37766</v>
       </c>
       <c r="D133" t="n">
-        <v>4.47182</v>
+        <v>4.12196</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.70221</v>
+        <v>1.553</v>
       </c>
       <c r="C134" t="n">
-        <v>1.45824</v>
+        <v>1.38452</v>
       </c>
       <c r="D134" t="n">
-        <v>4.41198</v>
+        <v>4.07662</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.70415</v>
+        <v>1.55446</v>
       </c>
       <c r="C135" t="n">
-        <v>1.4477</v>
+        <v>1.38387</v>
       </c>
       <c r="D135" t="n">
-        <v>6.15643</v>
+        <v>5.68642</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.66837</v>
+        <v>1.55653</v>
       </c>
       <c r="C136" t="n">
-        <v>1.44326</v>
+        <v>1.37403</v>
       </c>
       <c r="D136" t="n">
-        <v>6.02155</v>
+        <v>5.60499</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.70795</v>
+        <v>1.56729</v>
       </c>
       <c r="C137" t="n">
-        <v>1.82485</v>
+        <v>1.73367</v>
       </c>
       <c r="D137" t="n">
-        <v>5.99629</v>
+        <v>5.52497</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.08024</v>
+        <v>1.86426</v>
       </c>
       <c r="C138" t="n">
-        <v>1.82437</v>
+        <v>1.73085</v>
       </c>
       <c r="D138" t="n">
-        <v>5.86202</v>
+        <v>5.35687</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.06494</v>
+        <v>1.87338</v>
       </c>
       <c r="C139" t="n">
-        <v>1.83161</v>
+        <v>1.7202</v>
       </c>
       <c r="D139" t="n">
-        <v>5.72356</v>
+        <v>5.26692</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.05648</v>
+        <v>1.87135</v>
       </c>
       <c r="C140" t="n">
-        <v>1.85494</v>
+        <v>1.7144</v>
       </c>
       <c r="D140" t="n">
-        <v>5.61773</v>
+        <v>5.17701</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.03988</v>
+        <v>1.86109</v>
       </c>
       <c r="C141" t="n">
-        <v>1.85385</v>
+        <v>1.71871</v>
       </c>
       <c r="D141" t="n">
-        <v>5.55001</v>
+        <v>5.05164</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.04604</v>
+        <v>1.85802</v>
       </c>
       <c r="C142" t="n">
-        <v>1.83576</v>
+        <v>1.72104</v>
       </c>
       <c r="D142" t="n">
-        <v>5.45589</v>
+        <v>5.01191</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.0435</v>
+        <v>1.87094</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85178</v>
+        <v>1.72855</v>
       </c>
       <c r="D143" t="n">
-        <v>5.35685</v>
+        <v>4.93611</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.511805</v>
+        <v>0.506841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230854</v>
+        <v>0.220688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.829966</v>
+        <v>0.7970390000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.444669</v>
+        <v>0.421343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217605</v>
+        <v>0.20904</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83192</v>
+        <v>0.795982</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44758</v>
+        <v>0.419351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215571</v>
+        <v>0.201181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8087220000000001</v>
+        <v>0.817709</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421065</v>
+        <v>0.420804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210457</v>
+        <v>0.204264</v>
       </c>
       <c r="D5" t="n">
-        <v>0.790096</v>
+        <v>0.810822</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420258</v>
+        <v>0.423491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209291</v>
+        <v>0.197584</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7860470000000001</v>
+        <v>0.802331</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425626</v>
+        <v>0.411419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200203</v>
+        <v>0.193298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.941279</v>
+        <v>0.962639</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.411457</v>
+        <v>0.399029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195186</v>
+        <v>0.19052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.945313</v>
+        <v>0.96131</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.409215</v>
+        <v>0.396236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.289671</v>
+        <v>0.286954</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9460229999999999</v>
+        <v>0.942763</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.492272</v>
+        <v>0.497323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271305</v>
+        <v>0.270536</v>
       </c>
       <c r="D10" t="n">
-        <v>0.90008</v>
+        <v>0.942875</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.476679</v>
+        <v>0.47621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26912</v>
+        <v>0.257647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.906292</v>
+        <v>0.9148269999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.479774</v>
+        <v>0.477605</v>
       </c>
       <c r="C12" t="n">
-        <v>0.260006</v>
+        <v>0.25259</v>
       </c>
       <c r="D12" t="n">
-        <v>0.927926</v>
+        <v>0.873979</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.480928</v>
+        <v>0.462422</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245943</v>
+        <v>0.248951</v>
       </c>
       <c r="D13" t="n">
-        <v>0.905565</v>
+        <v>0.891273</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.453996</v>
+        <v>0.45342</v>
       </c>
       <c r="C14" t="n">
-        <v>0.249395</v>
+        <v>0.234436</v>
       </c>
       <c r="D14" t="n">
-        <v>0.867107</v>
+        <v>0.852254</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456894</v>
+        <v>0.454241</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231428</v>
+        <v>0.237074</v>
       </c>
       <c r="D15" t="n">
-        <v>0.89027</v>
+        <v>0.870019</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45465</v>
+        <v>0.443621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234426</v>
+        <v>0.221638</v>
       </c>
       <c r="D16" t="n">
-        <v>0.860525</v>
+        <v>0.847846</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.442474</v>
+        <v>0.45193</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226408</v>
+        <v>0.213729</v>
       </c>
       <c r="D17" t="n">
-        <v>0.875839</v>
+        <v>0.846406</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.428318</v>
+        <v>0.451984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218555</v>
+        <v>0.207903</v>
       </c>
       <c r="D18" t="n">
-        <v>0.876003</v>
+        <v>0.848279</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.426575</v>
+        <v>0.430043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213495</v>
+        <v>0.218526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.854898</v>
+        <v>0.838755</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429293</v>
+        <v>0.424529</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207325</v>
+        <v>0.199684</v>
       </c>
       <c r="D20" t="n">
-        <v>0.823592</v>
+        <v>0.813115</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428398</v>
+        <v>0.425878</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20358</v>
+        <v>0.212519</v>
       </c>
       <c r="D21" t="n">
-        <v>1.03417</v>
+        <v>1.0335</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422847</v>
+        <v>0.418296</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202312</v>
+        <v>0.19891</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0154</v>
+        <v>0.988463</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.41703</v>
+        <v>0.422279</v>
       </c>
       <c r="C23" t="n">
-        <v>0.449183</v>
+        <v>0.444576</v>
       </c>
       <c r="D23" t="n">
-        <v>0.988416</v>
+        <v>0.979123</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.657439</v>
+        <v>0.664616</v>
       </c>
       <c r="C24" t="n">
-        <v>0.445991</v>
+        <v>0.434869</v>
       </c>
       <c r="D24" t="n">
-        <v>0.983513</v>
+        <v>0.991102</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.648941</v>
+        <v>0.635757</v>
       </c>
       <c r="C25" t="n">
-        <v>0.421038</v>
+        <v>0.407206</v>
       </c>
       <c r="D25" t="n">
-        <v>0.958572</v>
+        <v>0.976845</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.647472</v>
+        <v>0.630885</v>
       </c>
       <c r="C26" t="n">
-        <v>0.400603</v>
+        <v>0.41336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.952186</v>
+        <v>0.967359</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.629127</v>
+        <v>0.614124</v>
       </c>
       <c r="C27" t="n">
-        <v>0.383688</v>
+        <v>0.385727</v>
       </c>
       <c r="D27" t="n">
-        <v>0.949464</v>
+        <v>0.939049</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.617909</v>
+        <v>0.595878</v>
       </c>
       <c r="C28" t="n">
-        <v>0.377956</v>
+        <v>0.378383</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9440190000000001</v>
+        <v>0.918142</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.591856</v>
+        <v>0.593424</v>
       </c>
       <c r="C29" t="n">
-        <v>0.367394</v>
+        <v>0.363646</v>
       </c>
       <c r="D29" t="n">
-        <v>0.944689</v>
+        <v>0.936839</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.600186</v>
+        <v>0.580445</v>
       </c>
       <c r="C30" t="n">
-        <v>0.356506</v>
+        <v>0.345145</v>
       </c>
       <c r="D30" t="n">
-        <v>0.921638</v>
+        <v>0.917735</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.56294</v>
+        <v>0.5565909999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.344114</v>
+        <v>0.335932</v>
       </c>
       <c r="D31" t="n">
-        <v>0.936706</v>
+        <v>0.895115</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5607529999999999</v>
+        <v>0.544611</v>
       </c>
       <c r="C32" t="n">
-        <v>0.333774</v>
+        <v>0.317683</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9052</v>
+        <v>0.90707</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567346</v>
+        <v>0.5591390000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321364</v>
+        <v>0.316724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.933858</v>
+        <v>0.887512</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.541137</v>
+        <v>0.542337</v>
       </c>
       <c r="C34" t="n">
-        <v>0.320747</v>
+        <v>0.30792</v>
       </c>
       <c r="D34" t="n">
-        <v>0.908491</v>
+        <v>0.898598</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.542401</v>
+        <v>0.533892</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298693</v>
+        <v>0.302849</v>
       </c>
       <c r="D35" t="n">
-        <v>1.16072</v>
+        <v>1.18363</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.524841</v>
+        <v>0.5258969999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.295146</v>
+        <v>0.289298</v>
       </c>
       <c r="D36" t="n">
-        <v>1.15968</v>
+        <v>1.17384</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.509122</v>
+        <v>0.516479</v>
       </c>
       <c r="C37" t="n">
-        <v>0.554275</v>
+        <v>0.548127</v>
       </c>
       <c r="D37" t="n">
-        <v>1.1632</v>
+        <v>1.13877</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.793632</v>
+        <v>0.798805</v>
       </c>
       <c r="C38" t="n">
-        <v>0.530944</v>
+        <v>0.518854</v>
       </c>
       <c r="D38" t="n">
-        <v>1.13503</v>
+        <v>1.11691</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.770262</v>
+        <v>0.769018</v>
       </c>
       <c r="C39" t="n">
-        <v>0.509022</v>
+        <v>0.506405</v>
       </c>
       <c r="D39" t="n">
-        <v>1.09524</v>
+        <v>1.12024</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.76912</v>
+        <v>0.7458399999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.500744</v>
+        <v>0.492532</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0745</v>
+        <v>1.09615</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.72207</v>
+        <v>0.723931</v>
       </c>
       <c r="C41" t="n">
-        <v>0.46933</v>
+        <v>0.470771</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0847</v>
+        <v>1.119</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7233000000000001</v>
+        <v>0.697917</v>
       </c>
       <c r="C42" t="n">
-        <v>0.461582</v>
+        <v>0.455491</v>
       </c>
       <c r="D42" t="n">
-        <v>1.06683</v>
+        <v>1.10278</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.709577</v>
+        <v>0.689865</v>
       </c>
       <c r="C43" t="n">
-        <v>0.443672</v>
+        <v>0.436853</v>
       </c>
       <c r="D43" t="n">
-        <v>1.03106</v>
+        <v>1.05567</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.677701</v>
+        <v>0.6813360000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.43451</v>
+        <v>0.439583</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01584</v>
+        <v>1.07272</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.661615</v>
+        <v>0.672179</v>
       </c>
       <c r="C45" t="n">
-        <v>0.41517</v>
+        <v>0.431893</v>
       </c>
       <c r="D45" t="n">
-        <v>1.00074</v>
+        <v>1.0761</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.641999</v>
+        <v>0.657424</v>
       </c>
       <c r="C46" t="n">
-        <v>0.394823</v>
+        <v>0.397831</v>
       </c>
       <c r="D46" t="n">
-        <v>1.00408</v>
+        <v>1.07355</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.639961</v>
+        <v>0.623009</v>
       </c>
       <c r="C47" t="n">
-        <v>0.389033</v>
+        <v>0.387567</v>
       </c>
       <c r="D47" t="n">
-        <v>1.05153</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.63415</v>
+        <v>0.618999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.384207</v>
+        <v>0.369056</v>
       </c>
       <c r="D48" t="n">
-        <v>1.00719</v>
+        <v>1.029</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605611</v>
+        <v>0.599445</v>
       </c>
       <c r="C49" t="n">
-        <v>0.375032</v>
+        <v>0.358033</v>
       </c>
       <c r="D49" t="n">
-        <v>1.04487</v>
+        <v>1.0418</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.605946</v>
+        <v>0.59167</v>
       </c>
       <c r="C50" t="n">
-        <v>0.364309</v>
+        <v>0.355996</v>
       </c>
       <c r="D50" t="n">
-        <v>1.69163</v>
+        <v>1.70726</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.578729</v>
+        <v>0.585901</v>
       </c>
       <c r="C51" t="n">
-        <v>0.636167</v>
+        <v>0.623498</v>
       </c>
       <c r="D51" t="n">
-        <v>1.62704</v>
+        <v>1.69914</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.591605</v>
+        <v>0.581819</v>
       </c>
       <c r="C52" t="n">
-        <v>0.600195</v>
+        <v>0.594017</v>
       </c>
       <c r="D52" t="n">
-        <v>1.57314</v>
+        <v>1.65154</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.860243</v>
+        <v>0.8487209999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.586528</v>
+        <v>0.575079</v>
       </c>
       <c r="D53" t="n">
-        <v>1.56204</v>
+        <v>1.6184</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.837719</v>
+        <v>0.843834</v>
       </c>
       <c r="C54" t="n">
-        <v>0.559187</v>
+        <v>0.557995</v>
       </c>
       <c r="D54" t="n">
-        <v>1.53458</v>
+        <v>1.57096</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.811889</v>
+        <v>0.802696</v>
       </c>
       <c r="C55" t="n">
-        <v>0.551395</v>
+        <v>0.560734</v>
       </c>
       <c r="D55" t="n">
-        <v>1.55925</v>
+        <v>1.56671</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.809801</v>
+        <v>0.806222</v>
       </c>
       <c r="C56" t="n">
-        <v>0.53373</v>
+        <v>0.532691</v>
       </c>
       <c r="D56" t="n">
-        <v>1.46904</v>
+        <v>1.59123</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.79989</v>
+        <v>0.769005</v>
       </c>
       <c r="C57" t="n">
-        <v>0.541995</v>
+        <v>0.517933</v>
       </c>
       <c r="D57" t="n">
-        <v>1.46029</v>
+        <v>1.5542</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.806956</v>
+        <v>0.7546079999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.506642</v>
+        <v>0.497018</v>
       </c>
       <c r="D58" t="n">
-        <v>1.46585</v>
+        <v>1.52156</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755344</v>
+        <v>0.751678</v>
       </c>
       <c r="C59" t="n">
-        <v>0.487759</v>
+        <v>0.476844</v>
       </c>
       <c r="D59" t="n">
-        <v>1.47361</v>
+        <v>1.50565</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.746688</v>
+        <v>0.737988</v>
       </c>
       <c r="C60" t="n">
-        <v>0.476568</v>
+        <v>0.47815</v>
       </c>
       <c r="D60" t="n">
-        <v>1.44221</v>
+        <v>1.37847</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.727671</v>
+        <v>0.716117</v>
       </c>
       <c r="C61" t="n">
-        <v>0.467244</v>
+        <v>0.464482</v>
       </c>
       <c r="D61" t="n">
-        <v>1.42914</v>
+        <v>1.4479</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.729643</v>
+        <v>0.706666</v>
       </c>
       <c r="C62" t="n">
-        <v>0.449845</v>
+        <v>0.453155</v>
       </c>
       <c r="D62" t="n">
-        <v>1.42271</v>
+        <v>1.43877</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.726071</v>
+        <v>0.716766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.441547</v>
+        <v>0.450534</v>
       </c>
       <c r="D63" t="n">
-        <v>1.43975</v>
+        <v>1.53734</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.690584</v>
+        <v>0.697187</v>
       </c>
       <c r="C64" t="n">
-        <v>0.442306</v>
+        <v>0.431247</v>
       </c>
       <c r="D64" t="n">
-        <v>2.60726</v>
+        <v>2.59527</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.688455</v>
+        <v>0.698748</v>
       </c>
       <c r="C65" t="n">
-        <v>0.430774</v>
+        <v>0.424302</v>
       </c>
       <c r="D65" t="n">
-        <v>2.54553</v>
+        <v>2.54135</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.684451</v>
+        <v>0.682685</v>
       </c>
       <c r="C66" t="n">
-        <v>0.713385</v>
+        <v>0.693062</v>
       </c>
       <c r="D66" t="n">
-        <v>2.55266</v>
+        <v>2.4828</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9855699999999999</v>
+        <v>0.95948</v>
       </c>
       <c r="C67" t="n">
-        <v>0.677277</v>
+        <v>0.656691</v>
       </c>
       <c r="D67" t="n">
-        <v>2.45596</v>
+        <v>2.53816</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.974718</v>
+        <v>0.948111</v>
       </c>
       <c r="C68" t="n">
-        <v>0.674168</v>
+        <v>0.661002</v>
       </c>
       <c r="D68" t="n">
-        <v>2.39327</v>
+        <v>2.41224</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.925592</v>
+        <v>0.926823</v>
       </c>
       <c r="C69" t="n">
-        <v>0.646616</v>
+        <v>0.624383</v>
       </c>
       <c r="D69" t="n">
-        <v>2.31414</v>
+        <v>2.36063</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.924773</v>
+        <v>0.923418</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6323029999999999</v>
+        <v>0.610766</v>
       </c>
       <c r="D70" t="n">
-        <v>2.31304</v>
+        <v>2.38852</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.89212</v>
+        <v>0.89606</v>
       </c>
       <c r="C71" t="n">
-        <v>0.621184</v>
+        <v>0.591522</v>
       </c>
       <c r="D71" t="n">
-        <v>2.24914</v>
+        <v>2.35537</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.901688</v>
+        <v>0.893937</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602514</v>
+        <v>0.583387</v>
       </c>
       <c r="D72" t="n">
-        <v>2.2819</v>
+        <v>2.3527</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.877119</v>
+        <v>0.8747549999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.573561</v>
+        <v>0.576549</v>
       </c>
       <c r="D73" t="n">
-        <v>2.31226</v>
+        <v>2.22925</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.867441</v>
+        <v>0.859475</v>
       </c>
       <c r="C74" t="n">
-        <v>0.562175</v>
+        <v>0.5545020000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23796</v>
+        <v>2.27838</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.861776</v>
+        <v>0.862413</v>
       </c>
       <c r="C75" t="n">
-        <v>0.56658</v>
+        <v>0.555212</v>
       </c>
       <c r="D75" t="n">
-        <v>2.1799</v>
+        <v>2.28011</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.847518</v>
+        <v>0.828072</v>
       </c>
       <c r="C76" t="n">
-        <v>0.530008</v>
+        <v>0.534695</v>
       </c>
       <c r="D76" t="n">
-        <v>2.16193</v>
+        <v>2.26323</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.832056</v>
+        <v>0.8039809999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526987</v>
+        <v>0.525309</v>
       </c>
       <c r="D77" t="n">
-        <v>2.15283</v>
+        <v>2.247</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808177</v>
+        <v>0.812125</v>
       </c>
       <c r="C78" t="n">
-        <v>0.518632</v>
+        <v>0.510228</v>
       </c>
       <c r="D78" t="n">
-        <v>3.57936</v>
+        <v>3.69101</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.812123</v>
+        <v>0.804049</v>
       </c>
       <c r="C79" t="n">
-        <v>0.501045</v>
+        <v>0.49536</v>
       </c>
       <c r="D79" t="n">
-        <v>3.48762</v>
+        <v>3.48301</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.78913</v>
+        <v>0.772075</v>
       </c>
       <c r="C80" t="n">
-        <v>0.790279</v>
+        <v>0.796381</v>
       </c>
       <c r="D80" t="n">
-        <v>3.43343</v>
+        <v>3.51296</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09607</v>
+        <v>1.08504</v>
       </c>
       <c r="C81" t="n">
-        <v>0.786396</v>
+        <v>0.775969</v>
       </c>
       <c r="D81" t="n">
-        <v>3.30254</v>
+        <v>3.4794</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08758</v>
+        <v>1.10714</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7742329999999999</v>
+        <v>0.759328</v>
       </c>
       <c r="D82" t="n">
-        <v>3.27685</v>
+        <v>3.34923</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0526</v>
+        <v>1.04612</v>
       </c>
       <c r="C83" t="n">
-        <v>0.76806</v>
+        <v>0.735585</v>
       </c>
       <c r="D83" t="n">
-        <v>3.17631</v>
+        <v>3.26678</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02877</v>
+        <v>1.036</v>
       </c>
       <c r="C84" t="n">
-        <v>0.732591</v>
+        <v>0.724191</v>
       </c>
       <c r="D84" t="n">
-        <v>3.16409</v>
+        <v>3.16248</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03911</v>
+        <v>1.02865</v>
       </c>
       <c r="C85" t="n">
-        <v>0.721405</v>
+        <v>0.714067</v>
       </c>
       <c r="D85" t="n">
-        <v>3.07085</v>
+        <v>3.2042</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01278</v>
+        <v>0.99365</v>
       </c>
       <c r="C86" t="n">
-        <v>0.690567</v>
+        <v>0.679011</v>
       </c>
       <c r="D86" t="n">
-        <v>3.01296</v>
+        <v>3.11728</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.978133</v>
+        <v>0.989341</v>
       </c>
       <c r="C87" t="n">
-        <v>0.686683</v>
+        <v>0.673771</v>
       </c>
       <c r="D87" t="n">
-        <v>2.98288</v>
+        <v>3.11785</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.968539</v>
+        <v>1.00549</v>
       </c>
       <c r="C88" t="n">
-        <v>0.673952</v>
+        <v>0.65624</v>
       </c>
       <c r="D88" t="n">
-        <v>2.93289</v>
+        <v>2.96003</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.975545</v>
+        <v>0.953843</v>
       </c>
       <c r="C89" t="n">
-        <v>0.661941</v>
+        <v>0.64247</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88523</v>
+        <v>2.95665</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9464939999999999</v>
+        <v>0.963571</v>
       </c>
       <c r="C90" t="n">
-        <v>0.637019</v>
+        <v>0.632282</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90383</v>
+        <v>2.89781</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.927633</v>
+        <v>0.945088</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618635</v>
+        <v>0.64001</v>
       </c>
       <c r="D91" t="n">
-        <v>2.86759</v>
+        <v>2.9106</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.918108</v>
+        <v>0.917534</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6203109999999999</v>
+        <v>0.60897</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0202</v>
+        <v>4.01102</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.935274</v>
+        <v>0.910892</v>
       </c>
       <c r="C93" t="n">
-        <v>0.60415</v>
+        <v>0.606681</v>
       </c>
       <c r="D93" t="n">
-        <v>3.88054</v>
+        <v>3.96451</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.92226</v>
+        <v>0.892676</v>
       </c>
       <c r="C94" t="n">
-        <v>0.920844</v>
+        <v>0.909899</v>
       </c>
       <c r="D94" t="n">
-        <v>3.80208</v>
+        <v>3.90553</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19447</v>
+        <v>1.2055</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9219889999999999</v>
+        <v>0.893795</v>
       </c>
       <c r="D95" t="n">
-        <v>3.66529</v>
+        <v>3.74696</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2182</v>
+        <v>1.21435</v>
       </c>
       <c r="C96" t="n">
-        <v>0.866944</v>
+        <v>0.857567</v>
       </c>
       <c r="D96" t="n">
-        <v>3.63078</v>
+        <v>3.6714</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17342</v>
+        <v>1.18742</v>
       </c>
       <c r="C97" t="n">
-        <v>0.86113</v>
+        <v>0.868054</v>
       </c>
       <c r="D97" t="n">
-        <v>3.62263</v>
+        <v>3.76553</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17818</v>
+        <v>1.21654</v>
       </c>
       <c r="C98" t="n">
-        <v>0.842989</v>
+        <v>0.841663</v>
       </c>
       <c r="D98" t="n">
-        <v>3.54177</v>
+        <v>3.66044</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.12688</v>
+        <v>1.14405</v>
       </c>
       <c r="C99" t="n">
-        <v>0.824653</v>
+        <v>0.820475</v>
       </c>
       <c r="D99" t="n">
-        <v>3.46986</v>
+        <v>3.67112</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.162</v>
+        <v>1.16387</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816513</v>
+        <v>0.8429179999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>3.42941</v>
+        <v>3.53285</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12718</v>
+        <v>1.12128</v>
       </c>
       <c r="C101" t="n">
-        <v>0.800036</v>
+        <v>0.787954</v>
       </c>
       <c r="D101" t="n">
-        <v>3.36312</v>
+        <v>3.56878</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10929</v>
+        <v>1.11316</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784203</v>
+        <v>0.786982</v>
       </c>
       <c r="D102" t="n">
-        <v>3.34661</v>
+        <v>3.36946</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07156</v>
+        <v>1.15487</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7692830000000001</v>
+        <v>0.7722</v>
       </c>
       <c r="D103" t="n">
-        <v>3.27524</v>
+        <v>3.39367</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07126</v>
+        <v>1.08705</v>
       </c>
       <c r="C104" t="n">
-        <v>0.775291</v>
+        <v>0.7552680000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>3.22378</v>
+        <v>3.28282</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07565</v>
+        <v>1.08863</v>
       </c>
       <c r="C105" t="n">
-        <v>0.745089</v>
+        <v>0.757661</v>
       </c>
       <c r="D105" t="n">
-        <v>3.23144</v>
+        <v>3.29952</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05749</v>
+        <v>1.0758</v>
       </c>
       <c r="C106" t="n">
-        <v>0.753802</v>
+        <v>0.747046</v>
       </c>
       <c r="D106" t="n">
-        <v>3.17053</v>
+        <v>3.24182</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0832</v>
+        <v>1.06662</v>
       </c>
       <c r="C107" t="n">
-        <v>0.748015</v>
+        <v>0.7410369999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>4.37253</v>
+        <v>4.44152</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.042</v>
+        <v>1.05676</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05265</v>
+        <v>1.03035</v>
       </c>
       <c r="D108" t="n">
-        <v>4.27631</v>
+        <v>4.35348</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04446</v>
+        <v>1.04574</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03263</v>
+        <v>1.03759</v>
       </c>
       <c r="D109" t="n">
-        <v>4.15727</v>
+        <v>4.29616</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39361</v>
+        <v>1.35719</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04435</v>
+        <v>1.02282</v>
       </c>
       <c r="D110" t="n">
-        <v>4.06558</v>
+        <v>4.17842</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34312</v>
+        <v>1.34594</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03688</v>
+        <v>1.02924</v>
       </c>
       <c r="D111" t="n">
-        <v>3.99803</v>
+        <v>4.0824</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.34969</v>
+        <v>1.31864</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01014</v>
+        <v>1.00913</v>
       </c>
       <c r="D112" t="n">
-        <v>3.9351</v>
+        <v>4.00383</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3059</v>
+        <v>1.32127</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01061</v>
+        <v>0.990771</v>
       </c>
       <c r="D113" t="n">
-        <v>3.88754</v>
+        <v>3.93666</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29643</v>
+        <v>1.30444</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9961370000000001</v>
+        <v>0.999298</v>
       </c>
       <c r="D114" t="n">
-        <v>3.86497</v>
+        <v>3.87965</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.3008</v>
+        <v>1.29794</v>
       </c>
       <c r="C115" t="n">
-        <v>0.984085</v>
+        <v>0.984935</v>
       </c>
       <c r="D115" t="n">
-        <v>3.74956</v>
+        <v>3.89162</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28842</v>
+        <v>1.26405</v>
       </c>
       <c r="C116" t="n">
-        <v>1.00936</v>
+        <v>0.983331</v>
       </c>
       <c r="D116" t="n">
-        <v>3.7336</v>
+        <v>3.77142</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29422</v>
+        <v>1.29385</v>
       </c>
       <c r="C117" t="n">
-        <v>0.988486</v>
+        <v>0.974423</v>
       </c>
       <c r="D117" t="n">
-        <v>3.66183</v>
+        <v>3.72734</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.2921</v>
+        <v>1.26937</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01284</v>
+        <v>0.961186</v>
       </c>
       <c r="D118" t="n">
-        <v>3.65489</v>
+        <v>3.71507</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32703</v>
+        <v>1.26901</v>
       </c>
       <c r="C119" t="n">
-        <v>0.998835</v>
+        <v>0.975612</v>
       </c>
       <c r="D119" t="n">
-        <v>3.71612</v>
+        <v>3.71101</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.30687</v>
+        <v>1.27944</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0014</v>
+        <v>0.984809</v>
       </c>
       <c r="D120" t="n">
-        <v>3.67498</v>
+        <v>3.6359</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29636</v>
+        <v>1.2469</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00112</v>
+        <v>0.9711880000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>5.13194</v>
+        <v>4.98669</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31614</v>
+        <v>1.25923</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0214</v>
+        <v>0.938377</v>
       </c>
       <c r="D122" t="n">
-        <v>5.05115</v>
+        <v>4.87172</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31491</v>
+        <v>1.24764</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35518</v>
+        <v>1.24637</v>
       </c>
       <c r="D123" t="n">
-        <v>5.06244</v>
+        <v>4.86643</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.68525</v>
+        <v>1.60922</v>
       </c>
       <c r="C124" t="n">
-        <v>1.38585</v>
+        <v>1.26493</v>
       </c>
       <c r="D124" t="n">
-        <v>4.95725</v>
+        <v>4.66587</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.73769</v>
+        <v>1.58704</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41538</v>
+        <v>1.27767</v>
       </c>
       <c r="D125" t="n">
-        <v>4.91607</v>
+        <v>4.63279</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.68627</v>
+        <v>1.54786</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41072</v>
+        <v>1.26393</v>
       </c>
       <c r="D126" t="n">
-        <v>4.78436</v>
+        <v>4.55737</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.67387</v>
+        <v>1.54269</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39908</v>
+        <v>1.27643</v>
       </c>
       <c r="D127" t="n">
-        <v>4.77789</v>
+        <v>4.46347</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.71701</v>
+        <v>1.5738</v>
       </c>
       <c r="C128" t="n">
-        <v>1.40085</v>
+        <v>1.30311</v>
       </c>
       <c r="D128" t="n">
-        <v>4.69181</v>
+        <v>4.43324</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.71396</v>
+        <v>1.56923</v>
       </c>
       <c r="C129" t="n">
-        <v>1.4096</v>
+        <v>1.27899</v>
       </c>
       <c r="D129" t="n">
-        <v>4.65432</v>
+        <v>4.39292</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.70128</v>
+        <v>1.54573</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40038</v>
+        <v>1.29244</v>
       </c>
       <c r="D130" t="n">
-        <v>4.56267</v>
+        <v>4.30794</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.68758</v>
+        <v>1.53954</v>
       </c>
       <c r="C131" t="n">
-        <v>1.4348</v>
+        <v>1.28932</v>
       </c>
       <c r="D131" t="n">
-        <v>4.49083</v>
+        <v>4.26709</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.68647</v>
+        <v>1.54121</v>
       </c>
       <c r="C132" t="n">
-        <v>1.42132</v>
+        <v>1.30026</v>
       </c>
       <c r="D132" t="n">
-        <v>4.46158</v>
+        <v>4.24484</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.687</v>
+        <v>1.54529</v>
       </c>
       <c r="C133" t="n">
-        <v>1.42052</v>
+        <v>1.30276</v>
       </c>
       <c r="D133" t="n">
-        <v>4.47182</v>
+        <v>4.15281</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.70221</v>
+        <v>1.54477</v>
       </c>
       <c r="C134" t="n">
-        <v>1.45824</v>
+        <v>1.29484</v>
       </c>
       <c r="D134" t="n">
-        <v>4.41198</v>
+        <v>4.13245</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.70415</v>
+        <v>1.55757</v>
       </c>
       <c r="C135" t="n">
-        <v>1.4477</v>
+        <v>1.30281</v>
       </c>
       <c r="D135" t="n">
-        <v>6.15643</v>
+        <v>5.74371</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.66837</v>
+        <v>1.55696</v>
       </c>
       <c r="C136" t="n">
-        <v>1.44326</v>
+        <v>1.29388</v>
       </c>
       <c r="D136" t="n">
-        <v>6.02155</v>
+        <v>5.61419</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.70795</v>
+        <v>1.55858</v>
       </c>
       <c r="C137" t="n">
-        <v>1.82485</v>
+        <v>1.64222</v>
       </c>
       <c r="D137" t="n">
-        <v>5.99629</v>
+        <v>5.5235</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.08024</v>
+        <v>1.88403</v>
       </c>
       <c r="C138" t="n">
-        <v>1.82437</v>
+        <v>1.62272</v>
       </c>
       <c r="D138" t="n">
-        <v>5.86202</v>
+        <v>5.4143</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.06494</v>
+        <v>1.86217</v>
       </c>
       <c r="C139" t="n">
-        <v>1.83161</v>
+        <v>1.62911</v>
       </c>
       <c r="D139" t="n">
-        <v>5.72356</v>
+        <v>5.30872</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.05648</v>
+        <v>1.86805</v>
       </c>
       <c r="C140" t="n">
-        <v>1.85494</v>
+        <v>1.63774</v>
       </c>
       <c r="D140" t="n">
-        <v>5.61773</v>
+        <v>5.23066</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.03988</v>
+        <v>1.83763</v>
       </c>
       <c r="C141" t="n">
-        <v>1.85385</v>
+        <v>1.64796</v>
       </c>
       <c r="D141" t="n">
-        <v>5.55001</v>
+        <v>5.12721</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.04604</v>
+        <v>1.86146</v>
       </c>
       <c r="C142" t="n">
-        <v>1.83576</v>
+        <v>1.66046</v>
       </c>
       <c r="D142" t="n">
-        <v>5.45589</v>
+        <v>5.01893</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.0435</v>
+        <v>1.84549</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85178</v>
+        <v>1.66134</v>
       </c>
       <c r="D143" t="n">
-        <v>5.35685</v>
+        <v>4.97979</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.511805</v>
+        <v>0.519041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230854</v>
+        <v>0.220113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.829966</v>
+        <v>0.8015910000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.444669</v>
+        <v>0.426777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217605</v>
+        <v>0.206404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83192</v>
+        <v>0.795833</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44758</v>
+        <v>0.425088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215571</v>
+        <v>0.205694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8087220000000001</v>
+        <v>0.807424</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421065</v>
+        <v>0.414844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210457</v>
+        <v>0.201955</v>
       </c>
       <c r="D5" t="n">
-        <v>0.790096</v>
+        <v>0.805939</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420258</v>
+        <v>0.408395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209291</v>
+        <v>0.195087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7860470000000001</v>
+        <v>0.783226</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425626</v>
+        <v>0.40761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200203</v>
+        <v>0.189449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.941279</v>
+        <v>0.93727</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.411457</v>
+        <v>0.399347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195186</v>
+        <v>0.185654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.945313</v>
+        <v>0.9668679999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.409215</v>
+        <v>0.389411</v>
       </c>
       <c r="C9" t="n">
-        <v>0.289671</v>
+        <v>0.277594</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9460229999999999</v>
+        <v>0.931679</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.492272</v>
+        <v>0.499795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271305</v>
+        <v>0.269269</v>
       </c>
       <c r="D10" t="n">
-        <v>0.90008</v>
+        <v>0.892637</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.476679</v>
+        <v>0.476205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26912</v>
+        <v>0.258679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.906292</v>
+        <v>0.888864</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.479774</v>
+        <v>0.464505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.260006</v>
+        <v>0.252394</v>
       </c>
       <c r="D12" t="n">
-        <v>0.927926</v>
+        <v>0.8934569999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.480928</v>
+        <v>0.469405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245943</v>
+        <v>0.238712</v>
       </c>
       <c r="D13" t="n">
-        <v>0.905565</v>
+        <v>0.872309</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.453996</v>
+        <v>0.455464</v>
       </c>
       <c r="C14" t="n">
-        <v>0.249395</v>
+        <v>0.23507</v>
       </c>
       <c r="D14" t="n">
-        <v>0.867107</v>
+        <v>0.850606</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456894</v>
+        <v>0.442112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231428</v>
+        <v>0.233027</v>
       </c>
       <c r="D15" t="n">
-        <v>0.89027</v>
+        <v>0.843639</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45465</v>
+        <v>0.446627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234426</v>
+        <v>0.223251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.860525</v>
+        <v>0.873618</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.442474</v>
+        <v>0.428401</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226408</v>
+        <v>0.22021</v>
       </c>
       <c r="D17" t="n">
-        <v>0.875839</v>
+        <v>0.835287</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.428318</v>
+        <v>0.442136</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218555</v>
+        <v>0.211951</v>
       </c>
       <c r="D18" t="n">
-        <v>0.876003</v>
+        <v>0.834381</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.426575</v>
+        <v>0.425802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213495</v>
+        <v>0.205428</v>
       </c>
       <c r="D19" t="n">
-        <v>0.854898</v>
+        <v>0.83844</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429293</v>
+        <v>0.438833</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207325</v>
+        <v>0.211883</v>
       </c>
       <c r="D20" t="n">
-        <v>0.823592</v>
+        <v>0.8453889999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428398</v>
+        <v>0.420378</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20358</v>
+        <v>0.199751</v>
       </c>
       <c r="D21" t="n">
-        <v>1.03417</v>
+        <v>1.00304</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422847</v>
+        <v>0.416184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202312</v>
+        <v>0.208865</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0154</v>
+        <v>1.00441</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.41703</v>
+        <v>0.418441</v>
       </c>
       <c r="C23" t="n">
-        <v>0.449183</v>
+        <v>0.444497</v>
       </c>
       <c r="D23" t="n">
-        <v>0.988416</v>
+        <v>0.978984</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.657439</v>
+        <v>0.65052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.445991</v>
+        <v>0.435016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.983513</v>
+        <v>0.976745</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.648941</v>
+        <v>0.654102</v>
       </c>
       <c r="C25" t="n">
-        <v>0.421038</v>
+        <v>0.424482</v>
       </c>
       <c r="D25" t="n">
-        <v>0.958572</v>
+        <v>0.956613</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.647472</v>
+        <v>0.642863</v>
       </c>
       <c r="C26" t="n">
-        <v>0.400603</v>
+        <v>0.410145</v>
       </c>
       <c r="D26" t="n">
-        <v>0.952186</v>
+        <v>0.939264</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.629127</v>
+        <v>0.612996</v>
       </c>
       <c r="C27" t="n">
-        <v>0.383688</v>
+        <v>0.382124</v>
       </c>
       <c r="D27" t="n">
-        <v>0.949464</v>
+        <v>0.9320889999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.617909</v>
+        <v>0.612955</v>
       </c>
       <c r="C28" t="n">
-        <v>0.377956</v>
+        <v>0.36716</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9440190000000001</v>
+        <v>0.925658</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.591856</v>
+        <v>0.601911</v>
       </c>
       <c r="C29" t="n">
-        <v>0.367394</v>
+        <v>0.371202</v>
       </c>
       <c r="D29" t="n">
-        <v>0.944689</v>
+        <v>0.927318</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.600186</v>
+        <v>0.589143</v>
       </c>
       <c r="C30" t="n">
-        <v>0.356506</v>
+        <v>0.354965</v>
       </c>
       <c r="D30" t="n">
-        <v>0.921638</v>
+        <v>0.911085</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.56294</v>
+        <v>0.571132</v>
       </c>
       <c r="C31" t="n">
-        <v>0.344114</v>
+        <v>0.33704</v>
       </c>
       <c r="D31" t="n">
-        <v>0.936706</v>
+        <v>0.913615</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5607529999999999</v>
+        <v>0.560365</v>
       </c>
       <c r="C32" t="n">
-        <v>0.333774</v>
+        <v>0.332376</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9052</v>
+        <v>0.876792</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567346</v>
+        <v>0.546486</v>
       </c>
       <c r="C33" t="n">
-        <v>0.321364</v>
+        <v>0.31529</v>
       </c>
       <c r="D33" t="n">
-        <v>0.933858</v>
+        <v>0.883683</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.541137</v>
+        <v>0.534291</v>
       </c>
       <c r="C34" t="n">
-        <v>0.320747</v>
+        <v>0.3091</v>
       </c>
       <c r="D34" t="n">
-        <v>0.908491</v>
+        <v>0.877636</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.542401</v>
+        <v>0.536806</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298693</v>
+        <v>0.303905</v>
       </c>
       <c r="D35" t="n">
-        <v>1.16072</v>
+        <v>1.13067</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.524841</v>
+        <v>0.532839</v>
       </c>
       <c r="C36" t="n">
-        <v>0.295146</v>
+        <v>0.296405</v>
       </c>
       <c r="D36" t="n">
-        <v>1.15968</v>
+        <v>1.12814</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.509122</v>
+        <v>0.521662</v>
       </c>
       <c r="C37" t="n">
-        <v>0.554275</v>
+        <v>0.560713</v>
       </c>
       <c r="D37" t="n">
-        <v>1.1632</v>
+        <v>1.12565</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.793632</v>
+        <v>0.7865259999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.530944</v>
+        <v>0.549363</v>
       </c>
       <c r="D38" t="n">
-        <v>1.13503</v>
+        <v>1.11839</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.770262</v>
+        <v>0.770607</v>
       </c>
       <c r="C39" t="n">
-        <v>0.509022</v>
+        <v>0.5212599999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>1.09524</v>
+        <v>1.09528</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.76912</v>
+        <v>0.7330719999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.500744</v>
+        <v>0.498027</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0745</v>
+        <v>1.08643</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.72207</v>
+        <v>0.73952</v>
       </c>
       <c r="C41" t="n">
-        <v>0.46933</v>
+        <v>0.480234</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0847</v>
+        <v>1.05786</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7233000000000001</v>
+        <v>0.718631</v>
       </c>
       <c r="C42" t="n">
-        <v>0.461582</v>
+        <v>0.467117</v>
       </c>
       <c r="D42" t="n">
-        <v>1.06683</v>
+        <v>1.07156</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.709577</v>
+        <v>0.691971</v>
       </c>
       <c r="C43" t="n">
-        <v>0.443672</v>
+        <v>0.450189</v>
       </c>
       <c r="D43" t="n">
-        <v>1.03106</v>
+        <v>1.04395</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.677701</v>
+        <v>0.68242</v>
       </c>
       <c r="C44" t="n">
-        <v>0.43451</v>
+        <v>0.433538</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01584</v>
+        <v>1.05787</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.661615</v>
+        <v>0.650568</v>
       </c>
       <c r="C45" t="n">
-        <v>0.41517</v>
+        <v>0.421212</v>
       </c>
       <c r="D45" t="n">
-        <v>1.00074</v>
+        <v>1.03931</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.641999</v>
+        <v>0.65926</v>
       </c>
       <c r="C46" t="n">
-        <v>0.394823</v>
+        <v>0.399089</v>
       </c>
       <c r="D46" t="n">
-        <v>1.00408</v>
+        <v>1.11855</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.639961</v>
+        <v>0.639729</v>
       </c>
       <c r="C47" t="n">
-        <v>0.389033</v>
+        <v>0.396114</v>
       </c>
       <c r="D47" t="n">
-        <v>1.05153</v>
+        <v>1.03849</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.63415</v>
+        <v>0.6138670000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.384207</v>
+        <v>0.373302</v>
       </c>
       <c r="D48" t="n">
-        <v>1.00719</v>
+        <v>1.02967</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605611</v>
+        <v>0.6087320000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.375032</v>
+        <v>0.36689</v>
       </c>
       <c r="D49" t="n">
-        <v>1.04487</v>
+        <v>1.04428</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.605946</v>
+        <v>0.6001919999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.364309</v>
+        <v>0.355926</v>
       </c>
       <c r="D50" t="n">
-        <v>1.69163</v>
+        <v>1.68976</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.578729</v>
+        <v>0.601159</v>
       </c>
       <c r="C51" t="n">
-        <v>0.636167</v>
+        <v>0.617819</v>
       </c>
       <c r="D51" t="n">
-        <v>1.62704</v>
+        <v>1.65535</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.591605</v>
+        <v>0.5966089999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.600195</v>
+        <v>0.618621</v>
       </c>
       <c r="D52" t="n">
-        <v>1.57314</v>
+        <v>1.61799</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.860243</v>
+        <v>0.845713</v>
       </c>
       <c r="C53" t="n">
-        <v>0.586528</v>
+        <v>0.58824</v>
       </c>
       <c r="D53" t="n">
-        <v>1.56204</v>
+        <v>1.60008</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.837719</v>
+        <v>0.8326710000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.559187</v>
+        <v>0.579369</v>
       </c>
       <c r="D54" t="n">
-        <v>1.53458</v>
+        <v>1.59469</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.811889</v>
+        <v>0.809762</v>
       </c>
       <c r="C55" t="n">
-        <v>0.551395</v>
+        <v>0.556462</v>
       </c>
       <c r="D55" t="n">
-        <v>1.55925</v>
+        <v>1.50422</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.809801</v>
+        <v>0.797884</v>
       </c>
       <c r="C56" t="n">
-        <v>0.53373</v>
+        <v>0.547978</v>
       </c>
       <c r="D56" t="n">
-        <v>1.46904</v>
+        <v>1.54287</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.79989</v>
+        <v>0.787647</v>
       </c>
       <c r="C57" t="n">
-        <v>0.541995</v>
+        <v>0.519648</v>
       </c>
       <c r="D57" t="n">
-        <v>1.46029</v>
+        <v>1.56444</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.806956</v>
+        <v>0.772575</v>
       </c>
       <c r="C58" t="n">
-        <v>0.506642</v>
+        <v>0.514413</v>
       </c>
       <c r="D58" t="n">
-        <v>1.46585</v>
+        <v>1.54491</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755344</v>
+        <v>0.7715109999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.487759</v>
+        <v>0.486561</v>
       </c>
       <c r="D59" t="n">
-        <v>1.47361</v>
+        <v>1.5295</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.746688</v>
+        <v>0.746185</v>
       </c>
       <c r="C60" t="n">
-        <v>0.476568</v>
+        <v>0.496369</v>
       </c>
       <c r="D60" t="n">
-        <v>1.44221</v>
+        <v>1.53597</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.727671</v>
+        <v>0.753456</v>
       </c>
       <c r="C61" t="n">
-        <v>0.467244</v>
+        <v>0.47087</v>
       </c>
       <c r="D61" t="n">
-        <v>1.42914</v>
+        <v>1.51715</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.729643</v>
+        <v>0.735751</v>
       </c>
       <c r="C62" t="n">
-        <v>0.449845</v>
+        <v>0.448375</v>
       </c>
       <c r="D62" t="n">
-        <v>1.42271</v>
+        <v>1.51265</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.726071</v>
+        <v>0.725278</v>
       </c>
       <c r="C63" t="n">
-        <v>0.441547</v>
+        <v>0.449123</v>
       </c>
       <c r="D63" t="n">
-        <v>1.43975</v>
+        <v>1.51519</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.690584</v>
+        <v>0.721504</v>
       </c>
       <c r="C64" t="n">
-        <v>0.442306</v>
+        <v>0.446631</v>
       </c>
       <c r="D64" t="n">
-        <v>2.60726</v>
+        <v>2.66937</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.688455</v>
+        <v>0.700595</v>
       </c>
       <c r="C65" t="n">
-        <v>0.430774</v>
+        <v>0.43104</v>
       </c>
       <c r="D65" t="n">
-        <v>2.54553</v>
+        <v>2.53502</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.684451</v>
+        <v>0.694009</v>
       </c>
       <c r="C66" t="n">
-        <v>0.713385</v>
+        <v>0.705108</v>
       </c>
       <c r="D66" t="n">
-        <v>2.55266</v>
+        <v>2.64408</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9855699999999999</v>
+        <v>0.980387</v>
       </c>
       <c r="C67" t="n">
-        <v>0.677277</v>
+        <v>0.670086</v>
       </c>
       <c r="D67" t="n">
-        <v>2.45596</v>
+        <v>2.44467</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.974718</v>
+        <v>0.959918</v>
       </c>
       <c r="C68" t="n">
-        <v>0.674168</v>
+        <v>0.654758</v>
       </c>
       <c r="D68" t="n">
-        <v>2.39327</v>
+        <v>2.41626</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.925592</v>
+        <v>0.943571</v>
       </c>
       <c r="C69" t="n">
-        <v>0.646616</v>
+        <v>0.6447619999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>2.31414</v>
+        <v>2.41394</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.924773</v>
+        <v>0.9149929999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6323029999999999</v>
+        <v>0.634256</v>
       </c>
       <c r="D70" t="n">
-        <v>2.31304</v>
+        <v>2.32272</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.89212</v>
+        <v>0.893486</v>
       </c>
       <c r="C71" t="n">
-        <v>0.621184</v>
+        <v>0.609641</v>
       </c>
       <c r="D71" t="n">
-        <v>2.24914</v>
+        <v>2.34294</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.901688</v>
+        <v>0.9026110000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602514</v>
+        <v>0.588284</v>
       </c>
       <c r="D72" t="n">
-        <v>2.2819</v>
+        <v>2.25673</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.877119</v>
+        <v>0.883149</v>
       </c>
       <c r="C73" t="n">
-        <v>0.573561</v>
+        <v>0.573705</v>
       </c>
       <c r="D73" t="n">
-        <v>2.31226</v>
+        <v>2.24611</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.867441</v>
+        <v>0.8546550000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.562175</v>
+        <v>0.56446</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23796</v>
+        <v>2.18864</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.861776</v>
+        <v>0.872909</v>
       </c>
       <c r="C75" t="n">
-        <v>0.56658</v>
+        <v>0.542806</v>
       </c>
       <c r="D75" t="n">
-        <v>2.1799</v>
+        <v>2.27979</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.847518</v>
+        <v>0.8334</v>
       </c>
       <c r="C76" t="n">
-        <v>0.530008</v>
+        <v>0.527349</v>
       </c>
       <c r="D76" t="n">
-        <v>2.16193</v>
+        <v>2.20743</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.832056</v>
+        <v>0.8176060000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526987</v>
+        <v>0.518593</v>
       </c>
       <c r="D77" t="n">
-        <v>2.15283</v>
+        <v>2.19667</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808177</v>
+        <v>0.820126</v>
       </c>
       <c r="C78" t="n">
-        <v>0.518632</v>
+        <v>0.527555</v>
       </c>
       <c r="D78" t="n">
-        <v>3.57936</v>
+        <v>3.69332</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.812123</v>
+        <v>0.798899</v>
       </c>
       <c r="C79" t="n">
-        <v>0.501045</v>
+        <v>0.49914</v>
       </c>
       <c r="D79" t="n">
-        <v>3.48762</v>
+        <v>3.61881</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.78913</v>
+        <v>0.7753139999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.790279</v>
+        <v>0.821439</v>
       </c>
       <c r="D80" t="n">
-        <v>3.43343</v>
+        <v>3.39442</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09607</v>
+        <v>1.07456</v>
       </c>
       <c r="C81" t="n">
-        <v>0.786396</v>
+        <v>0.78688</v>
       </c>
       <c r="D81" t="n">
-        <v>3.30254</v>
+        <v>3.3848</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08758</v>
+        <v>1.09747</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7742329999999999</v>
+        <v>0.758812</v>
       </c>
       <c r="D82" t="n">
-        <v>3.27685</v>
+        <v>3.38916</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0526</v>
+        <v>1.06557</v>
       </c>
       <c r="C83" t="n">
-        <v>0.76806</v>
+        <v>0.747934</v>
       </c>
       <c r="D83" t="n">
-        <v>3.17631</v>
+        <v>3.30883</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02877</v>
+        <v>1.08086</v>
       </c>
       <c r="C84" t="n">
-        <v>0.732591</v>
+        <v>0.719685</v>
       </c>
       <c r="D84" t="n">
-        <v>3.16409</v>
+        <v>3.16274</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03911</v>
+        <v>1.04988</v>
       </c>
       <c r="C85" t="n">
-        <v>0.721405</v>
+        <v>0.717935</v>
       </c>
       <c r="D85" t="n">
-        <v>3.07085</v>
+        <v>3.10851</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01278</v>
+        <v>1.02964</v>
       </c>
       <c r="C86" t="n">
-        <v>0.690567</v>
+        <v>0.694613</v>
       </c>
       <c r="D86" t="n">
-        <v>3.01296</v>
+        <v>3.0539</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.978133</v>
+        <v>0.992159</v>
       </c>
       <c r="C87" t="n">
-        <v>0.686683</v>
+        <v>0.699863</v>
       </c>
       <c r="D87" t="n">
-        <v>2.98288</v>
+        <v>3.11206</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.968539</v>
+        <v>0.971978</v>
       </c>
       <c r="C88" t="n">
-        <v>0.673952</v>
+        <v>0.659878</v>
       </c>
       <c r="D88" t="n">
-        <v>2.93289</v>
+        <v>3.0543</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.975545</v>
+        <v>0.986549</v>
       </c>
       <c r="C89" t="n">
-        <v>0.661941</v>
+        <v>0.660152</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88523</v>
+        <v>3.0035</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9464939999999999</v>
+        <v>0.992163</v>
       </c>
       <c r="C90" t="n">
-        <v>0.637019</v>
+        <v>0.649686</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90383</v>
+        <v>2.92248</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.927633</v>
+        <v>0.9306680000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618635</v>
+        <v>0.6481479999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>2.86759</v>
+        <v>2.83685</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.918108</v>
+        <v>0.926003</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6203109999999999</v>
+        <v>0.615464</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0202</v>
+        <v>4.06408</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.935274</v>
+        <v>0.908159</v>
       </c>
       <c r="C93" t="n">
-        <v>0.60415</v>
+        <v>0.6256159999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>3.88054</v>
+        <v>4.01607</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.92226</v>
+        <v>0.885784</v>
       </c>
       <c r="C94" t="n">
-        <v>0.920844</v>
+        <v>0.899668</v>
       </c>
       <c r="D94" t="n">
-        <v>3.80208</v>
+        <v>4.06397</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19447</v>
+        <v>1.23332</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9219889999999999</v>
+        <v>0.8877350000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>3.66529</v>
+        <v>3.72431</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2182</v>
+        <v>1.1923</v>
       </c>
       <c r="C96" t="n">
-        <v>0.866944</v>
+        <v>0.882668</v>
       </c>
       <c r="D96" t="n">
-        <v>3.63078</v>
+        <v>3.95003</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17342</v>
+        <v>1.20053</v>
       </c>
       <c r="C97" t="n">
-        <v>0.86113</v>
+        <v>0.891091</v>
       </c>
       <c r="D97" t="n">
-        <v>3.62263</v>
+        <v>3.74008</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17818</v>
+        <v>1.18599</v>
       </c>
       <c r="C98" t="n">
-        <v>0.842989</v>
+        <v>0.854607</v>
       </c>
       <c r="D98" t="n">
-        <v>3.54177</v>
+        <v>3.68071</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.12688</v>
+        <v>1.17735</v>
       </c>
       <c r="C99" t="n">
-        <v>0.824653</v>
+        <v>0.840091</v>
       </c>
       <c r="D99" t="n">
-        <v>3.46986</v>
+        <v>3.53591</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.162</v>
+        <v>1.1678</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816513</v>
+        <v>0.826369</v>
       </c>
       <c r="D100" t="n">
-        <v>3.42941</v>
+        <v>3.49866</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12718</v>
+        <v>1.15182</v>
       </c>
       <c r="C101" t="n">
-        <v>0.800036</v>
+        <v>0.814908</v>
       </c>
       <c r="D101" t="n">
-        <v>3.36312</v>
+        <v>3.38084</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10929</v>
+        <v>1.12746</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784203</v>
+        <v>0.790713</v>
       </c>
       <c r="D102" t="n">
-        <v>3.34661</v>
+        <v>3.40373</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07156</v>
+        <v>1.10605</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7692830000000001</v>
+        <v>0.777424</v>
       </c>
       <c r="D103" t="n">
-        <v>3.27524</v>
+        <v>3.43094</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07126</v>
+        <v>1.11222</v>
       </c>
       <c r="C104" t="n">
-        <v>0.775291</v>
+        <v>0.768948</v>
       </c>
       <c r="D104" t="n">
-        <v>3.22378</v>
+        <v>3.29922</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07565</v>
+        <v>1.07969</v>
       </c>
       <c r="C105" t="n">
-        <v>0.745089</v>
+        <v>0.7682</v>
       </c>
       <c r="D105" t="n">
-        <v>3.23144</v>
+        <v>3.26832</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05749</v>
+        <v>1.11334</v>
       </c>
       <c r="C106" t="n">
-        <v>0.753802</v>
+        <v>0.753315</v>
       </c>
       <c r="D106" t="n">
-        <v>3.17053</v>
+        <v>3.29754</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0832</v>
+        <v>1.07718</v>
       </c>
       <c r="C107" t="n">
-        <v>0.748015</v>
+        <v>0.758246</v>
       </c>
       <c r="D107" t="n">
-        <v>4.37253</v>
+        <v>4.52121</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.042</v>
+        <v>1.04882</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05265</v>
+        <v>1.05616</v>
       </c>
       <c r="D108" t="n">
-        <v>4.27631</v>
+        <v>4.43962</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04446</v>
+        <v>1.04719</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03263</v>
+        <v>1.0303</v>
       </c>
       <c r="D109" t="n">
-        <v>4.15727</v>
+        <v>4.36543</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39361</v>
+        <v>1.3896</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04435</v>
+        <v>1.03434</v>
       </c>
       <c r="D110" t="n">
-        <v>4.06558</v>
+        <v>4.19587</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34312</v>
+        <v>1.35307</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03688</v>
+        <v>1.01219</v>
       </c>
       <c r="D111" t="n">
-        <v>3.99803</v>
+        <v>4.09001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.34969</v>
+        <v>1.34994</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01014</v>
+        <v>1.01363</v>
       </c>
       <c r="D112" t="n">
-        <v>3.9351</v>
+        <v>4.01096</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3059</v>
+        <v>1.33993</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01061</v>
+        <v>1.02921</v>
       </c>
       <c r="D113" t="n">
-        <v>3.88754</v>
+        <v>3.98999</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29643</v>
+        <v>1.32042</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9961370000000001</v>
+        <v>0.989187</v>
       </c>
       <c r="D114" t="n">
-        <v>3.86497</v>
+        <v>3.91407</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.3008</v>
+        <v>1.33179</v>
       </c>
       <c r="C115" t="n">
-        <v>0.984085</v>
+        <v>1.002</v>
       </c>
       <c r="D115" t="n">
-        <v>3.74956</v>
+        <v>3.90357</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28842</v>
+        <v>1.29419</v>
       </c>
       <c r="C116" t="n">
-        <v>1.00936</v>
+        <v>1.00004</v>
       </c>
       <c r="D116" t="n">
-        <v>3.7336</v>
+        <v>3.78224</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29422</v>
+        <v>1.27837</v>
       </c>
       <c r="C117" t="n">
-        <v>0.988486</v>
+        <v>0.98246</v>
       </c>
       <c r="D117" t="n">
-        <v>3.66183</v>
+        <v>3.7704</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.2921</v>
+        <v>1.26583</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01284</v>
+        <v>0.990034</v>
       </c>
       <c r="D118" t="n">
-        <v>3.65489</v>
+        <v>3.76161</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32703</v>
+        <v>1.26225</v>
       </c>
       <c r="C119" t="n">
-        <v>0.998835</v>
+        <v>0.9787090000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>3.71612</v>
+        <v>3.67681</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.30687</v>
+        <v>1.27659</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0014</v>
+        <v>0.972484</v>
       </c>
       <c r="D120" t="n">
-        <v>3.67498</v>
+        <v>3.67764</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29636</v>
+        <v>1.29269</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00112</v>
+        <v>0.959084</v>
       </c>
       <c r="D121" t="n">
-        <v>5.13194</v>
+        <v>5.01139</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31614</v>
+        <v>1.26012</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0214</v>
+        <v>0.94368</v>
       </c>
       <c r="D122" t="n">
-        <v>5.05115</v>
+        <v>4.85619</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31491</v>
+        <v>1.27016</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35518</v>
+        <v>1.29955</v>
       </c>
       <c r="D123" t="n">
-        <v>5.06244</v>
+        <v>4.81131</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.68525</v>
+        <v>1.60793</v>
       </c>
       <c r="C124" t="n">
-        <v>1.38585</v>
+        <v>1.27074</v>
       </c>
       <c r="D124" t="n">
-        <v>4.95725</v>
+        <v>4.72231</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.73769</v>
+        <v>1.58306</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41538</v>
+        <v>1.29179</v>
       </c>
       <c r="D125" t="n">
-        <v>4.91607</v>
+        <v>4.60675</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.68627</v>
+        <v>1.56041</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41072</v>
+        <v>1.31697</v>
       </c>
       <c r="D126" t="n">
-        <v>4.78436</v>
+        <v>4.5524</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.67387</v>
+        <v>1.57075</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39908</v>
+        <v>1.30171</v>
       </c>
       <c r="D127" t="n">
-        <v>4.77789</v>
+        <v>4.46549</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.71701</v>
+        <v>1.54139</v>
       </c>
       <c r="C128" t="n">
-        <v>1.40085</v>
+        <v>1.29121</v>
       </c>
       <c r="D128" t="n">
-        <v>4.69181</v>
+        <v>4.39763</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.71396</v>
+        <v>1.55739</v>
       </c>
       <c r="C129" t="n">
-        <v>1.4096</v>
+        <v>1.30542</v>
       </c>
       <c r="D129" t="n">
-        <v>4.65432</v>
+        <v>4.37846</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.70128</v>
+        <v>1.57811</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40038</v>
+        <v>1.30927</v>
       </c>
       <c r="D130" t="n">
-        <v>4.56267</v>
+        <v>4.33702</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.68758</v>
+        <v>1.54777</v>
       </c>
       <c r="C131" t="n">
-        <v>1.4348</v>
+        <v>1.32951</v>
       </c>
       <c r="D131" t="n">
-        <v>4.49083</v>
+        <v>4.24212</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.68647</v>
+        <v>1.5565</v>
       </c>
       <c r="C132" t="n">
-        <v>1.42132</v>
+        <v>1.32009</v>
       </c>
       <c r="D132" t="n">
-        <v>4.46158</v>
+        <v>4.21304</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.687</v>
+        <v>1.5596</v>
       </c>
       <c r="C133" t="n">
-        <v>1.42052</v>
+        <v>1.31688</v>
       </c>
       <c r="D133" t="n">
-        <v>4.47182</v>
+        <v>4.18955</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.70221</v>
+        <v>1.53683</v>
       </c>
       <c r="C134" t="n">
-        <v>1.45824</v>
+        <v>1.30924</v>
       </c>
       <c r="D134" t="n">
-        <v>4.41198</v>
+        <v>4.19545</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.70415</v>
+        <v>1.53993</v>
       </c>
       <c r="C135" t="n">
-        <v>1.4477</v>
+        <v>1.31228</v>
       </c>
       <c r="D135" t="n">
-        <v>6.15643</v>
+        <v>5.78789</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.66837</v>
+        <v>1.5512</v>
       </c>
       <c r="C136" t="n">
-        <v>1.44326</v>
+        <v>1.28838</v>
       </c>
       <c r="D136" t="n">
-        <v>6.02155</v>
+        <v>5.64651</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.70795</v>
+        <v>1.54931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.82485</v>
+        <v>1.65698</v>
       </c>
       <c r="D137" t="n">
-        <v>5.99629</v>
+        <v>5.52674</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.08024</v>
+        <v>1.89062</v>
       </c>
       <c r="C138" t="n">
-        <v>1.82437</v>
+        <v>1.63548</v>
       </c>
       <c r="D138" t="n">
-        <v>5.86202</v>
+        <v>5.43253</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.06494</v>
+        <v>1.86491</v>
       </c>
       <c r="C139" t="n">
-        <v>1.83161</v>
+        <v>1.63324</v>
       </c>
       <c r="D139" t="n">
-        <v>5.72356</v>
+        <v>5.34262</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.05648</v>
+        <v>1.85153</v>
       </c>
       <c r="C140" t="n">
-        <v>1.85494</v>
+        <v>1.66023</v>
       </c>
       <c r="D140" t="n">
-        <v>5.61773</v>
+        <v>5.25955</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.03988</v>
+        <v>1.85188</v>
       </c>
       <c r="C141" t="n">
-        <v>1.85385</v>
+        <v>1.66189</v>
       </c>
       <c r="D141" t="n">
-        <v>5.55001</v>
+        <v>5.13339</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.04604</v>
+        <v>1.84489</v>
       </c>
       <c r="C142" t="n">
-        <v>1.83576</v>
+        <v>1.64862</v>
       </c>
       <c r="D142" t="n">
-        <v>5.45589</v>
+        <v>5.06889</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.0435</v>
+        <v>1.85701</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85178</v>
+        <v>1.68119</v>
       </c>
       <c r="D143" t="n">
-        <v>5.35685</v>
+        <v>4.98693</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.519041</v>
+        <v>0.501519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.220113</v>
+        <v>0.214165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8015910000000001</v>
+        <v>0.819902</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.426777</v>
+        <v>0.423718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206404</v>
+        <v>0.210412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.795833</v>
+        <v>0.811786</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.425088</v>
+        <v>0.414739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205694</v>
+        <v>0.209205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.807424</v>
+        <v>0.823733</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.414844</v>
+        <v>0.422821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201955</v>
+        <v>0.201867</v>
       </c>
       <c r="D5" t="n">
-        <v>0.805939</v>
+        <v>0.813734</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.408395</v>
+        <v>0.405926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195087</v>
+        <v>0.1964</v>
       </c>
       <c r="D6" t="n">
-        <v>0.783226</v>
+        <v>0.796681</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.40761</v>
+        <v>0.39779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.189449</v>
+        <v>0.188783</v>
       </c>
       <c r="D7" t="n">
-        <v>0.93727</v>
+        <v>0.958019</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.399347</v>
+        <v>0.403972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.185654</v>
+        <v>0.192654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9668679999999999</v>
+        <v>0.941739</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.389411</v>
+        <v>0.399242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277594</v>
+        <v>0.277595</v>
       </c>
       <c r="D9" t="n">
-        <v>0.931679</v>
+        <v>0.950549</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.499795</v>
+        <v>0.478966</v>
       </c>
       <c r="C10" t="n">
-        <v>0.269269</v>
+        <v>0.274939</v>
       </c>
       <c r="D10" t="n">
-        <v>0.892637</v>
+        <v>0.9203480000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.476205</v>
+        <v>0.48501</v>
       </c>
       <c r="C11" t="n">
-        <v>0.258679</v>
+        <v>0.262252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.888864</v>
+        <v>0.932005</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.464505</v>
+        <v>0.481505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252394</v>
+        <v>0.252084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8934569999999999</v>
+        <v>0.906857</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.469405</v>
+        <v>0.467091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238712</v>
+        <v>0.244491</v>
       </c>
       <c r="D13" t="n">
-        <v>0.872309</v>
+        <v>0.914893</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.455464</v>
+        <v>0.473196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23507</v>
+        <v>0.232467</v>
       </c>
       <c r="D14" t="n">
-        <v>0.850606</v>
+        <v>0.882657</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.442112</v>
+        <v>0.453869</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233027</v>
+        <v>0.230369</v>
       </c>
       <c r="D15" t="n">
-        <v>0.843639</v>
+        <v>0.879877</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446627</v>
+        <v>0.436754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223251</v>
+        <v>0.222194</v>
       </c>
       <c r="D16" t="n">
-        <v>0.873618</v>
+        <v>0.874546</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.428401</v>
+        <v>0.457264</v>
       </c>
       <c r="C17" t="n">
-        <v>0.22021</v>
+        <v>0.230015</v>
       </c>
       <c r="D17" t="n">
-        <v>0.835287</v>
+        <v>0.881398</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.442136</v>
+        <v>0.438953</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211951</v>
+        <v>0.213991</v>
       </c>
       <c r="D18" t="n">
-        <v>0.834381</v>
+        <v>0.861305</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.425802</v>
+        <v>0.431238</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205428</v>
+        <v>0.206768</v>
       </c>
       <c r="D19" t="n">
-        <v>0.83844</v>
+        <v>0.852742</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438833</v>
+        <v>0.423297</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211883</v>
+        <v>0.20831</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8453889999999999</v>
+        <v>0.868282</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.420378</v>
+        <v>0.437991</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199751</v>
+        <v>0.20327</v>
       </c>
       <c r="D21" t="n">
-        <v>1.00304</v>
+        <v>1.04963</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416184</v>
+        <v>0.420614</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208865</v>
+        <v>0.199494</v>
       </c>
       <c r="D22" t="n">
-        <v>1.00441</v>
+        <v>1.01252</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.418441</v>
+        <v>0.421148</v>
       </c>
       <c r="C23" t="n">
-        <v>0.444497</v>
+        <v>0.444745</v>
       </c>
       <c r="D23" t="n">
-        <v>0.978984</v>
+        <v>0.975297</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65052</v>
+        <v>0.652121</v>
       </c>
       <c r="C24" t="n">
-        <v>0.435016</v>
+        <v>0.429434</v>
       </c>
       <c r="D24" t="n">
-        <v>0.976745</v>
+        <v>0.96991</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.654102</v>
+        <v>0.64824</v>
       </c>
       <c r="C25" t="n">
-        <v>0.424482</v>
+        <v>0.408202</v>
       </c>
       <c r="D25" t="n">
-        <v>0.956613</v>
+        <v>0.9657480000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.642863</v>
+        <v>0.628012</v>
       </c>
       <c r="C26" t="n">
-        <v>0.410145</v>
+        <v>0.402998</v>
       </c>
       <c r="D26" t="n">
-        <v>0.939264</v>
+        <v>0.95796</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.612996</v>
+        <v>0.6118479999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.382124</v>
+        <v>0.39358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9320889999999999</v>
+        <v>0.9349229999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.612955</v>
+        <v>0.613491</v>
       </c>
       <c r="C28" t="n">
-        <v>0.36716</v>
+        <v>0.371475</v>
       </c>
       <c r="D28" t="n">
-        <v>0.925658</v>
+        <v>0.930984</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.601911</v>
+        <v>0.603474</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371202</v>
+        <v>0.360526</v>
       </c>
       <c r="D29" t="n">
-        <v>0.927318</v>
+        <v>0.928377</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.589143</v>
+        <v>0.57968</v>
       </c>
       <c r="C30" t="n">
-        <v>0.354965</v>
+        <v>0.348151</v>
       </c>
       <c r="D30" t="n">
-        <v>0.911085</v>
+        <v>0.921606</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.571132</v>
+        <v>0.568197</v>
       </c>
       <c r="C31" t="n">
-        <v>0.33704</v>
+        <v>0.337576</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913615</v>
+        <v>0.913145</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.560365</v>
+        <v>0.5647489999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.332376</v>
+        <v>0.325355</v>
       </c>
       <c r="D32" t="n">
-        <v>0.876792</v>
+        <v>0.8996</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.546486</v>
+        <v>0.5422940000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31529</v>
+        <v>0.312642</v>
       </c>
       <c r="D33" t="n">
-        <v>0.883683</v>
+        <v>0.9030280000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534291</v>
+        <v>0.528609</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3091</v>
+        <v>0.300215</v>
       </c>
       <c r="D34" t="n">
-        <v>0.877636</v>
+        <v>0.880406</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.536806</v>
+        <v>0.522033</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303905</v>
+        <v>0.289526</v>
       </c>
       <c r="D35" t="n">
-        <v>1.13067</v>
+        <v>1.15789</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.532839</v>
+        <v>0.521663</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296405</v>
+        <v>0.295822</v>
       </c>
       <c r="D36" t="n">
-        <v>1.12814</v>
+        <v>1.15474</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.521662</v>
+        <v>0.501134</v>
       </c>
       <c r="C37" t="n">
-        <v>0.560713</v>
+        <v>0.553637</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12565</v>
+        <v>1.13109</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7865259999999999</v>
+        <v>0.790978</v>
       </c>
       <c r="C38" t="n">
-        <v>0.549363</v>
+        <v>0.536286</v>
       </c>
       <c r="D38" t="n">
-        <v>1.11839</v>
+        <v>1.15781</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.770607</v>
+        <v>0.740263</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5212599999999999</v>
+        <v>0.519535</v>
       </c>
       <c r="D39" t="n">
-        <v>1.09528</v>
+        <v>1.07178</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7330719999999999</v>
+        <v>0.725725</v>
       </c>
       <c r="C40" t="n">
-        <v>0.498027</v>
+        <v>0.482481</v>
       </c>
       <c r="D40" t="n">
-        <v>1.08643</v>
+        <v>1.04982</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.73952</v>
+        <v>0.717082</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480234</v>
+        <v>0.477063</v>
       </c>
       <c r="D41" t="n">
-        <v>1.05786</v>
+        <v>1.0701</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.718631</v>
+        <v>0.704922</v>
       </c>
       <c r="C42" t="n">
-        <v>0.467117</v>
+        <v>0.455441</v>
       </c>
       <c r="D42" t="n">
-        <v>1.07156</v>
+        <v>1.06627</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.691971</v>
+        <v>0.703813</v>
       </c>
       <c r="C43" t="n">
-        <v>0.450189</v>
+        <v>0.43624</v>
       </c>
       <c r="D43" t="n">
-        <v>1.04395</v>
+        <v>1.02709</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.68242</v>
+        <v>0.673963</v>
       </c>
       <c r="C44" t="n">
-        <v>0.433538</v>
+        <v>0.440409</v>
       </c>
       <c r="D44" t="n">
-        <v>1.05787</v>
+        <v>1.04045</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.650568</v>
+        <v>0.656231</v>
       </c>
       <c r="C45" t="n">
-        <v>0.421212</v>
+        <v>0.409592</v>
       </c>
       <c r="D45" t="n">
-        <v>1.03931</v>
+        <v>1.03266</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.65926</v>
+        <v>0.636043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.399089</v>
+        <v>0.401284</v>
       </c>
       <c r="D46" t="n">
-        <v>1.11855</v>
+        <v>1.03982</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.639729</v>
+        <v>0.632296</v>
       </c>
       <c r="C47" t="n">
-        <v>0.396114</v>
+        <v>0.382962</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03849</v>
+        <v>1.05957</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6138670000000001</v>
+        <v>0.648363</v>
       </c>
       <c r="C48" t="n">
-        <v>0.373302</v>
+        <v>0.369848</v>
       </c>
       <c r="D48" t="n">
-        <v>1.02967</v>
+        <v>1.04059</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6087320000000001</v>
+        <v>0.626479</v>
       </c>
       <c r="C49" t="n">
-        <v>0.36689</v>
+        <v>0.375396</v>
       </c>
       <c r="D49" t="n">
-        <v>1.04428</v>
+        <v>1.09019</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6001919999999999</v>
+        <v>0.610286</v>
       </c>
       <c r="C50" t="n">
-        <v>0.355926</v>
+        <v>0.35037</v>
       </c>
       <c r="D50" t="n">
-        <v>1.68976</v>
+        <v>1.69809</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.601159</v>
+        <v>0.592364</v>
       </c>
       <c r="C51" t="n">
-        <v>0.617819</v>
+        <v>0.618556</v>
       </c>
       <c r="D51" t="n">
-        <v>1.65535</v>
+        <v>1.60438</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5966089999999999</v>
+        <v>0.586304</v>
       </c>
       <c r="C52" t="n">
-        <v>0.618621</v>
+        <v>0.604154</v>
       </c>
       <c r="D52" t="n">
-        <v>1.61799</v>
+        <v>1.59723</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.845713</v>
+        <v>0.855691</v>
       </c>
       <c r="C53" t="n">
-        <v>0.58824</v>
+        <v>0.580669</v>
       </c>
       <c r="D53" t="n">
-        <v>1.60008</v>
+        <v>1.58297</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8326710000000001</v>
+        <v>0.851422</v>
       </c>
       <c r="C54" t="n">
-        <v>0.579369</v>
+        <v>0.576704</v>
       </c>
       <c r="D54" t="n">
-        <v>1.59469</v>
+        <v>1.57343</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.809762</v>
+        <v>0.818676</v>
       </c>
       <c r="C55" t="n">
-        <v>0.556462</v>
+        <v>0.562639</v>
       </c>
       <c r="D55" t="n">
-        <v>1.50422</v>
+        <v>1.51104</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.797884</v>
+        <v>0.804243</v>
       </c>
       <c r="C56" t="n">
-        <v>0.547978</v>
+        <v>0.523584</v>
       </c>
       <c r="D56" t="n">
-        <v>1.54287</v>
+        <v>1.48693</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.787647</v>
+        <v>0.790788</v>
       </c>
       <c r="C57" t="n">
-        <v>0.519648</v>
+        <v>0.516734</v>
       </c>
       <c r="D57" t="n">
-        <v>1.56444</v>
+        <v>1.5319</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.772575</v>
+        <v>0.769435</v>
       </c>
       <c r="C58" t="n">
-        <v>0.514413</v>
+        <v>0.503109</v>
       </c>
       <c r="D58" t="n">
-        <v>1.54491</v>
+        <v>1.46943</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7715109999999999</v>
+        <v>0.749593</v>
       </c>
       <c r="C59" t="n">
-        <v>0.486561</v>
+        <v>0.484392</v>
       </c>
       <c r="D59" t="n">
-        <v>1.5295</v>
+        <v>1.48665</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.746185</v>
+        <v>0.758404</v>
       </c>
       <c r="C60" t="n">
-        <v>0.496369</v>
+        <v>0.475483</v>
       </c>
       <c r="D60" t="n">
-        <v>1.53597</v>
+        <v>1.4582</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.753456</v>
+        <v>0.720373</v>
       </c>
       <c r="C61" t="n">
-        <v>0.47087</v>
+        <v>0.463304</v>
       </c>
       <c r="D61" t="n">
-        <v>1.51715</v>
+        <v>1.44919</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.735751</v>
+        <v>0.719589</v>
       </c>
       <c r="C62" t="n">
-        <v>0.448375</v>
+        <v>0.452052</v>
       </c>
       <c r="D62" t="n">
-        <v>1.51265</v>
+        <v>1.49601</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.725278</v>
+        <v>0.72294</v>
       </c>
       <c r="C63" t="n">
-        <v>0.449123</v>
+        <v>0.442008</v>
       </c>
       <c r="D63" t="n">
-        <v>1.51519</v>
+        <v>1.49078</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.721504</v>
+        <v>0.695139</v>
       </c>
       <c r="C64" t="n">
-        <v>0.446631</v>
+        <v>0.433163</v>
       </c>
       <c r="D64" t="n">
-        <v>2.66937</v>
+        <v>2.62955</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.700595</v>
+        <v>0.701886</v>
       </c>
       <c r="C65" t="n">
-        <v>0.43104</v>
+        <v>0.419277</v>
       </c>
       <c r="D65" t="n">
-        <v>2.53502</v>
+        <v>2.56946</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.694009</v>
+        <v>0.681827</v>
       </c>
       <c r="C66" t="n">
-        <v>0.705108</v>
+        <v>0.714584</v>
       </c>
       <c r="D66" t="n">
-        <v>2.64408</v>
+        <v>2.53703</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.980387</v>
+        <v>0.986809</v>
       </c>
       <c r="C67" t="n">
-        <v>0.670086</v>
+        <v>0.675343</v>
       </c>
       <c r="D67" t="n">
-        <v>2.44467</v>
+        <v>2.48491</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.959918</v>
+        <v>0.95789</v>
       </c>
       <c r="C68" t="n">
-        <v>0.654758</v>
+        <v>0.675776</v>
       </c>
       <c r="D68" t="n">
-        <v>2.41626</v>
+        <v>2.41678</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.943571</v>
+        <v>0.935627</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6447619999999999</v>
+        <v>0.650241</v>
       </c>
       <c r="D69" t="n">
-        <v>2.41394</v>
+        <v>2.35369</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9149929999999999</v>
+        <v>0.906435</v>
       </c>
       <c r="C70" t="n">
-        <v>0.634256</v>
+        <v>0.651189</v>
       </c>
       <c r="D70" t="n">
-        <v>2.32272</v>
+        <v>2.33227</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.893486</v>
+        <v>0.931012</v>
       </c>
       <c r="C71" t="n">
-        <v>0.609641</v>
+        <v>0.605504</v>
       </c>
       <c r="D71" t="n">
-        <v>2.34294</v>
+        <v>2.29951</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9026110000000001</v>
+        <v>0.884002</v>
       </c>
       <c r="C72" t="n">
-        <v>0.588284</v>
+        <v>0.592475</v>
       </c>
       <c r="D72" t="n">
-        <v>2.25673</v>
+        <v>2.28179</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.883149</v>
+        <v>0.8607050000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.573705</v>
+        <v>0.577155</v>
       </c>
       <c r="D73" t="n">
-        <v>2.24611</v>
+        <v>2.29399</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8546550000000001</v>
+        <v>0.88058</v>
       </c>
       <c r="C74" t="n">
-        <v>0.56446</v>
+        <v>0.562979</v>
       </c>
       <c r="D74" t="n">
-        <v>2.18864</v>
+        <v>2.21516</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.872909</v>
+        <v>0.857795</v>
       </c>
       <c r="C75" t="n">
-        <v>0.542806</v>
+        <v>0.558042</v>
       </c>
       <c r="D75" t="n">
-        <v>2.27979</v>
+        <v>2.21597</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8334</v>
+        <v>0.85039</v>
       </c>
       <c r="C76" t="n">
-        <v>0.527349</v>
+        <v>0.526911</v>
       </c>
       <c r="D76" t="n">
-        <v>2.20743</v>
+        <v>2.1576</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8176060000000001</v>
+        <v>0.842515</v>
       </c>
       <c r="C77" t="n">
-        <v>0.518593</v>
+        <v>0.51846</v>
       </c>
       <c r="D77" t="n">
-        <v>2.19667</v>
+        <v>2.24027</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.820126</v>
+        <v>0.804795</v>
       </c>
       <c r="C78" t="n">
-        <v>0.527555</v>
+        <v>0.521919</v>
       </c>
       <c r="D78" t="n">
-        <v>3.69332</v>
+        <v>3.58221</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.798899</v>
+        <v>0.8090850000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.49914</v>
+        <v>0.500427</v>
       </c>
       <c r="D79" t="n">
-        <v>3.61881</v>
+        <v>3.53186</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7753139999999999</v>
+        <v>0.781066</v>
       </c>
       <c r="C80" t="n">
-        <v>0.821439</v>
+        <v>0.814791</v>
       </c>
       <c r="D80" t="n">
-        <v>3.39442</v>
+        <v>3.37186</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.07456</v>
+        <v>1.09218</v>
       </c>
       <c r="C81" t="n">
-        <v>0.78688</v>
+        <v>0.785559</v>
       </c>
       <c r="D81" t="n">
-        <v>3.3848</v>
+        <v>3.27609</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09747</v>
+        <v>1.08581</v>
       </c>
       <c r="C82" t="n">
-        <v>0.758812</v>
+        <v>0.753999</v>
       </c>
       <c r="D82" t="n">
-        <v>3.38916</v>
+        <v>3.21823</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.06557</v>
+        <v>1.07904</v>
       </c>
       <c r="C83" t="n">
-        <v>0.747934</v>
+        <v>0.750988</v>
       </c>
       <c r="D83" t="n">
-        <v>3.30883</v>
+        <v>3.22887</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.08086</v>
+        <v>1.0652</v>
       </c>
       <c r="C84" t="n">
-        <v>0.719685</v>
+        <v>0.746915</v>
       </c>
       <c r="D84" t="n">
-        <v>3.16274</v>
+        <v>3.19916</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.04988</v>
+        <v>1.03492</v>
       </c>
       <c r="C85" t="n">
-        <v>0.717935</v>
+        <v>0.721197</v>
       </c>
       <c r="D85" t="n">
-        <v>3.10851</v>
+        <v>3.09296</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.02964</v>
+        <v>1.04615</v>
       </c>
       <c r="C86" t="n">
-        <v>0.694613</v>
+        <v>0.713646</v>
       </c>
       <c r="D86" t="n">
-        <v>3.0539</v>
+        <v>3.18613</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.992159</v>
+        <v>0.999403</v>
       </c>
       <c r="C87" t="n">
-        <v>0.699863</v>
+        <v>0.679408</v>
       </c>
       <c r="D87" t="n">
-        <v>3.11206</v>
+        <v>3.06699</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.971978</v>
+        <v>0.9835390000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.659878</v>
+        <v>0.664794</v>
       </c>
       <c r="D88" t="n">
-        <v>3.0543</v>
+        <v>3.02206</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.986549</v>
+        <v>0.9701109999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.660152</v>
+        <v>0.648549</v>
       </c>
       <c r="D89" t="n">
-        <v>3.0035</v>
+        <v>2.93081</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.992163</v>
+        <v>0.945564</v>
       </c>
       <c r="C90" t="n">
-        <v>0.649686</v>
+        <v>0.640022</v>
       </c>
       <c r="D90" t="n">
-        <v>2.92248</v>
+        <v>2.88757</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9306680000000001</v>
+        <v>0.9470190000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6481479999999999</v>
+        <v>0.630506</v>
       </c>
       <c r="D91" t="n">
-        <v>2.83685</v>
+        <v>2.815</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.926003</v>
+        <v>0.931293</v>
       </c>
       <c r="C92" t="n">
-        <v>0.615464</v>
+        <v>0.62885</v>
       </c>
       <c r="D92" t="n">
-        <v>4.06408</v>
+        <v>4.0552</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.908159</v>
+        <v>0.922447</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6256159999999999</v>
+        <v>0.605472</v>
       </c>
       <c r="D93" t="n">
-        <v>4.01607</v>
+        <v>3.97278</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.885784</v>
+        <v>0.92906</v>
       </c>
       <c r="C94" t="n">
-        <v>0.899668</v>
+        <v>0.89551</v>
       </c>
       <c r="D94" t="n">
-        <v>4.06397</v>
+        <v>3.83284</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23332</v>
+        <v>1.22404</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8877350000000001</v>
+        <v>0.9222630000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>3.72431</v>
+        <v>3.83328</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1923</v>
+        <v>1.21071</v>
       </c>
       <c r="C96" t="n">
-        <v>0.882668</v>
+        <v>0.8681990000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>3.95003</v>
+        <v>3.73634</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20053</v>
+        <v>1.19363</v>
       </c>
       <c r="C97" t="n">
-        <v>0.891091</v>
+        <v>0.843562</v>
       </c>
       <c r="D97" t="n">
-        <v>3.74008</v>
+        <v>3.67519</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.18599</v>
+        <v>1.18009</v>
       </c>
       <c r="C98" t="n">
-        <v>0.854607</v>
+        <v>0.844556</v>
       </c>
       <c r="D98" t="n">
-        <v>3.68071</v>
+        <v>3.57933</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17735</v>
+        <v>1.16718</v>
       </c>
       <c r="C99" t="n">
-        <v>0.840091</v>
+        <v>0.823138</v>
       </c>
       <c r="D99" t="n">
-        <v>3.53591</v>
+        <v>3.49914</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1678</v>
+        <v>1.12582</v>
       </c>
       <c r="C100" t="n">
-        <v>0.826369</v>
+        <v>0.816487</v>
       </c>
       <c r="D100" t="n">
-        <v>3.49866</v>
+        <v>3.46441</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15182</v>
+        <v>1.13017</v>
       </c>
       <c r="C101" t="n">
-        <v>0.814908</v>
+        <v>0.788513</v>
       </c>
       <c r="D101" t="n">
-        <v>3.38084</v>
+        <v>3.51745</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12746</v>
+        <v>1.10951</v>
       </c>
       <c r="C102" t="n">
-        <v>0.790713</v>
+        <v>0.805366</v>
       </c>
       <c r="D102" t="n">
-        <v>3.40373</v>
+        <v>3.46319</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10605</v>
+        <v>1.11741</v>
       </c>
       <c r="C103" t="n">
-        <v>0.777424</v>
+        <v>0.784843</v>
       </c>
       <c r="D103" t="n">
-        <v>3.43094</v>
+        <v>3.32091</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.11222</v>
+        <v>1.07851</v>
       </c>
       <c r="C104" t="n">
-        <v>0.768948</v>
+        <v>0.753228</v>
       </c>
       <c r="D104" t="n">
-        <v>3.29922</v>
+        <v>3.37992</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07969</v>
+        <v>1.07894</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7682</v>
+        <v>0.7515039999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>3.26832</v>
+        <v>3.23679</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.11334</v>
+        <v>1.06357</v>
       </c>
       <c r="C106" t="n">
-        <v>0.753315</v>
+        <v>0.747927</v>
       </c>
       <c r="D106" t="n">
-        <v>3.29754</v>
+        <v>3.24982</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07718</v>
+        <v>1.06055</v>
       </c>
       <c r="C107" t="n">
-        <v>0.758246</v>
+        <v>0.755661</v>
       </c>
       <c r="D107" t="n">
-        <v>4.52121</v>
+        <v>4.42128</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04882</v>
+        <v>1.05912</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05616</v>
+        <v>1.05629</v>
       </c>
       <c r="D108" t="n">
-        <v>4.43962</v>
+        <v>4.29626</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04719</v>
+        <v>1.04512</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0303</v>
+        <v>1.02692</v>
       </c>
       <c r="D109" t="n">
-        <v>4.36543</v>
+        <v>4.17639</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3896</v>
+        <v>1.3424</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03434</v>
+        <v>1.02533</v>
       </c>
       <c r="D110" t="n">
-        <v>4.19587</v>
+        <v>4.15518</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.35307</v>
+        <v>1.36912</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01219</v>
+        <v>1.0366</v>
       </c>
       <c r="D111" t="n">
-        <v>4.09001</v>
+        <v>4.11297</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.34994</v>
+        <v>1.35162</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01363</v>
+        <v>1.01102</v>
       </c>
       <c r="D112" t="n">
-        <v>4.01096</v>
+        <v>3.97035</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.33993</v>
+        <v>1.3115</v>
       </c>
       <c r="C113" t="n">
-        <v>1.02921</v>
+        <v>1.00097</v>
       </c>
       <c r="D113" t="n">
-        <v>3.98999</v>
+        <v>3.95755</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32042</v>
+        <v>1.32307</v>
       </c>
       <c r="C114" t="n">
-        <v>0.989187</v>
+        <v>1.00881</v>
       </c>
       <c r="D114" t="n">
-        <v>3.91407</v>
+        <v>3.87474</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.33179</v>
+        <v>1.29338</v>
       </c>
       <c r="C115" t="n">
-        <v>1.002</v>
+        <v>1.00818</v>
       </c>
       <c r="D115" t="n">
-        <v>3.90357</v>
+        <v>3.80602</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.29419</v>
+        <v>1.27545</v>
       </c>
       <c r="C116" t="n">
-        <v>1.00004</v>
+        <v>0.998047</v>
       </c>
       <c r="D116" t="n">
-        <v>3.78224</v>
+        <v>3.76761</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.27837</v>
+        <v>1.29477</v>
       </c>
       <c r="C117" t="n">
-        <v>0.98246</v>
+        <v>0.98642</v>
       </c>
       <c r="D117" t="n">
-        <v>3.7704</v>
+        <v>3.7806</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.26583</v>
+        <v>1.2703</v>
       </c>
       <c r="C118" t="n">
-        <v>0.990034</v>
+        <v>0.961703</v>
       </c>
       <c r="D118" t="n">
-        <v>3.76161</v>
+        <v>3.73948</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.26225</v>
+        <v>1.28647</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9787090000000001</v>
+        <v>0.984921</v>
       </c>
       <c r="D119" t="n">
-        <v>3.67681</v>
+        <v>3.66685</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.27659</v>
+        <v>1.27388</v>
       </c>
       <c r="C120" t="n">
-        <v>0.972484</v>
+        <v>0.958525</v>
       </c>
       <c r="D120" t="n">
-        <v>3.67764</v>
+        <v>3.675</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29269</v>
+        <v>1.28118</v>
       </c>
       <c r="C121" t="n">
-        <v>0.959084</v>
+        <v>0.954613</v>
       </c>
       <c r="D121" t="n">
-        <v>5.01139</v>
+        <v>5.02076</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.26012</v>
+        <v>1.2716</v>
       </c>
       <c r="C122" t="n">
-        <v>0.94368</v>
+        <v>0.9502969999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>4.85619</v>
+        <v>4.89082</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27016</v>
+        <v>1.23588</v>
       </c>
       <c r="C123" t="n">
-        <v>1.29955</v>
+        <v>1.25819</v>
       </c>
       <c r="D123" t="n">
-        <v>4.81131</v>
+        <v>4.79082</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.60793</v>
+        <v>1.5852</v>
       </c>
       <c r="C124" t="n">
-        <v>1.27074</v>
+        <v>1.28742</v>
       </c>
       <c r="D124" t="n">
-        <v>4.72231</v>
+        <v>4.68881</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58306</v>
+        <v>1.56023</v>
       </c>
       <c r="C125" t="n">
-        <v>1.29179</v>
+        <v>1.27474</v>
       </c>
       <c r="D125" t="n">
-        <v>4.60675</v>
+        <v>4.65092</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56041</v>
+        <v>1.54162</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31697</v>
+        <v>1.28004</v>
       </c>
       <c r="D126" t="n">
-        <v>4.5524</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57075</v>
+        <v>1.58422</v>
       </c>
       <c r="C127" t="n">
-        <v>1.30171</v>
+        <v>1.32942</v>
       </c>
       <c r="D127" t="n">
-        <v>4.46549</v>
+        <v>4.49078</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.54139</v>
+        <v>1.56965</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29121</v>
+        <v>1.30778</v>
       </c>
       <c r="D128" t="n">
-        <v>4.39763</v>
+        <v>4.46571</v>
       </c>
     </row>
     <row r="129">
@@ -5027,10 +5027,10 @@
         <v>1.55739</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30542</v>
+        <v>1.29586</v>
       </c>
       <c r="D129" t="n">
-        <v>4.37846</v>
+        <v>4.3281</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.57811</v>
+        <v>1.55272</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30927</v>
+        <v>1.27336</v>
       </c>
       <c r="D130" t="n">
-        <v>4.33702</v>
+        <v>4.2905</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54777</v>
+        <v>1.55339</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32951</v>
+        <v>1.29197</v>
       </c>
       <c r="D131" t="n">
-        <v>4.24212</v>
+        <v>4.26467</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.5565</v>
+        <v>1.54401</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32009</v>
+        <v>1.29457</v>
       </c>
       <c r="D132" t="n">
-        <v>4.21304</v>
+        <v>4.21894</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.5596</v>
+        <v>1.56904</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31688</v>
+        <v>1.31593</v>
       </c>
       <c r="D133" t="n">
-        <v>4.18955</v>
+        <v>4.15994</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.53683</v>
+        <v>1.54442</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30924</v>
+        <v>1.30194</v>
       </c>
       <c r="D134" t="n">
-        <v>4.19545</v>
+        <v>4.13062</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.53993</v>
+        <v>1.53312</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31228</v>
+        <v>1.31224</v>
       </c>
       <c r="D135" t="n">
-        <v>5.78789</v>
+        <v>5.71585</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.5512</v>
+        <v>1.55387</v>
       </c>
       <c r="C136" t="n">
-        <v>1.28838</v>
+        <v>1.30821</v>
       </c>
       <c r="D136" t="n">
-        <v>5.64651</v>
+        <v>5.59121</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.54931</v>
+        <v>1.54365</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65698</v>
+        <v>1.63871</v>
       </c>
       <c r="D137" t="n">
-        <v>5.52674</v>
+        <v>5.55267</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.89062</v>
+        <v>1.8688</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63548</v>
+        <v>1.64977</v>
       </c>
       <c r="D138" t="n">
-        <v>5.43253</v>
+        <v>5.43053</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.86491</v>
+        <v>1.84553</v>
       </c>
       <c r="C139" t="n">
-        <v>1.63324</v>
+        <v>1.62372</v>
       </c>
       <c r="D139" t="n">
-        <v>5.34262</v>
+        <v>5.33444</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85153</v>
+        <v>1.86282</v>
       </c>
       <c r="C140" t="n">
-        <v>1.66023</v>
+        <v>1.64998</v>
       </c>
       <c r="D140" t="n">
-        <v>5.25955</v>
+        <v>5.24542</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.85188</v>
+        <v>1.85624</v>
       </c>
       <c r="C141" t="n">
-        <v>1.66189</v>
+        <v>1.64606</v>
       </c>
       <c r="D141" t="n">
-        <v>5.13339</v>
+        <v>5.16243</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.84489</v>
+        <v>1.85497</v>
       </c>
       <c r="C142" t="n">
-        <v>1.64862</v>
+        <v>1.66615</v>
       </c>
       <c r="D142" t="n">
-        <v>5.06889</v>
+        <v>5.0743</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85701</v>
+        <v>1.84181</v>
       </c>
       <c r="C143" t="n">
-        <v>1.68119</v>
+        <v>1.64763</v>
       </c>
       <c r="D143" t="n">
-        <v>4.98693</v>
+        <v>4.98195</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.501519</v>
+        <v>0.52324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214165</v>
+        <v>0.804959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819902</v>
+        <v>0.214907</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.621537</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.423718</v>
+        <v>0.42198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.210412</v>
+        <v>0.817723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.811786</v>
+        <v>0.212681</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.615052</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.414739</v>
+        <v>0.42841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.209205</v>
+        <v>0.804129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.823733</v>
+        <v>0.221893</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.615559</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422821</v>
+        <v>0.419724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201867</v>
+        <v>0.793461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.813734</v>
+        <v>0.204521</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.604229</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.405926</v>
+        <v>0.415796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1964</v>
+        <v>0.777045</v>
       </c>
       <c r="D6" t="n">
-        <v>0.796681</v>
+        <v>0.189401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.597929</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.39779</v>
+        <v>0.403466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188783</v>
+        <v>0.953152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.958019</v>
+        <v>0.193543</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.595006</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.403972</v>
+        <v>0.419867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192654</v>
+        <v>0.993682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.941739</v>
+        <v>0.190038</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.600963</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.399242</v>
+        <v>0.397284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277595</v>
+        <v>0.926982</v>
       </c>
       <c r="D9" t="n">
-        <v>0.950549</v>
+        <v>0.279632</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.684158</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.478966</v>
+        <v>0.481668</v>
       </c>
       <c r="C10" t="n">
-        <v>0.274939</v>
+        <v>0.901905</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9203480000000001</v>
+        <v>0.266072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.674175</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.48501</v>
+        <v>0.478845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.262252</v>
+        <v>0.890826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.932005</v>
+        <v>0.258538</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.672849</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.481505</v>
+        <v>0.46465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252084</v>
+        <v>0.86715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.906857</v>
+        <v>0.243983</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.644543</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.467091</v>
+        <v>0.452552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244491</v>
+        <v>0.894527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.914893</v>
+        <v>0.235303</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.630534</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.473196</v>
+        <v>0.444807</v>
       </c>
       <c r="C14" t="n">
-        <v>0.232467</v>
+        <v>0.826038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.882657</v>
+        <v>0.226529</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.636504</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.453869</v>
+        <v>0.450467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.230369</v>
+        <v>0.855474</v>
       </c>
       <c r="D15" t="n">
-        <v>0.879877</v>
+        <v>0.222589</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.632494</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.436754</v>
+        <v>0.436354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222194</v>
+        <v>0.848629</v>
       </c>
       <c r="D16" t="n">
-        <v>0.874546</v>
+        <v>0.218334</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.61421</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.457264</v>
+        <v>0.427536</v>
       </c>
       <c r="C17" t="n">
-        <v>0.230015</v>
+        <v>0.805681</v>
       </c>
       <c r="D17" t="n">
-        <v>0.881398</v>
+        <v>0.207166</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.605617</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.438953</v>
+        <v>0.4162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213991</v>
+        <v>0.798546</v>
       </c>
       <c r="D18" t="n">
-        <v>0.861305</v>
+        <v>0.201532</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.598038</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.431238</v>
+        <v>0.413838</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206768</v>
+        <v>0.788653</v>
       </c>
       <c r="D19" t="n">
-        <v>0.852742</v>
+        <v>0.197053</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.594898</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.423297</v>
+        <v>0.409813</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20831</v>
+        <v>0.785562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.868282</v>
+        <v>0.19281</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.590543</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.437991</v>
+        <v>0.405189</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20327</v>
+        <v>0.949981</v>
       </c>
       <c r="D21" t="n">
-        <v>1.04963</v>
+        <v>0.193911</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.586996</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420614</v>
+        <v>0.399607</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199494</v>
+        <v>0.952387</v>
       </c>
       <c r="D22" t="n">
-        <v>1.01252</v>
+        <v>0.189394</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.602683</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.421148</v>
+        <v>0.39531</v>
       </c>
       <c r="C23" t="n">
-        <v>0.444745</v>
+        <v>0.942456</v>
       </c>
       <c r="D23" t="n">
-        <v>0.975297</v>
+        <v>0.424547</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.681462</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.652121</v>
+        <v>0.663551</v>
       </c>
       <c r="C24" t="n">
-        <v>0.429434</v>
+        <v>0.9103329999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.96991</v>
+        <v>0.409849</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.676507</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.64824</v>
+        <v>0.632306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.408202</v>
+        <v>0.933034</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9657480000000001</v>
+        <v>0.397752</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.669691</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.628012</v>
+        <v>0.626606</v>
       </c>
       <c r="C26" t="n">
-        <v>0.402998</v>
+        <v>0.896336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.95796</v>
+        <v>0.383354</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.667188</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6118479999999999</v>
+        <v>0.5955510000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.39358</v>
+        <v>0.893707</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9349229999999999</v>
+        <v>0.369323</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.656668</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.613491</v>
+        <v>0.602851</v>
       </c>
       <c r="C28" t="n">
-        <v>0.371475</v>
+        <v>0.891025</v>
       </c>
       <c r="D28" t="n">
-        <v>0.930984</v>
+        <v>0.367044</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.654901</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.603474</v>
+        <v>0.572414</v>
       </c>
       <c r="C29" t="n">
-        <v>0.360526</v>
+        <v>0.89316</v>
       </c>
       <c r="D29" t="n">
-        <v>0.928377</v>
+        <v>0.345405</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.644616</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.57968</v>
+        <v>0.560943</v>
       </c>
       <c r="C30" t="n">
-        <v>0.348151</v>
+        <v>0.8601220000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.921606</v>
+        <v>0.339822</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.637636</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.568197</v>
+        <v>0.553755</v>
       </c>
       <c r="C31" t="n">
-        <v>0.337576</v>
+        <v>0.856313</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913145</v>
+        <v>0.323016</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.628515</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5647489999999999</v>
+        <v>0.540965</v>
       </c>
       <c r="C32" t="n">
-        <v>0.325355</v>
+        <v>0.852609</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8996</v>
+        <v>0.312997</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.623397</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5422940000000001</v>
+        <v>0.530377</v>
       </c>
       <c r="C33" t="n">
-        <v>0.312642</v>
+        <v>0.839715</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9030280000000001</v>
+        <v>0.303464</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6231100000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.528609</v>
+        <v>0.52074</v>
       </c>
       <c r="C34" t="n">
-        <v>0.300215</v>
+        <v>0.851588</v>
       </c>
       <c r="D34" t="n">
-        <v>0.880406</v>
+        <v>0.301207</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.632311</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.522033</v>
+        <v>0.524071</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289526</v>
+        <v>1.09861</v>
       </c>
       <c r="D35" t="n">
-        <v>1.15789</v>
+        <v>0.299705</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.620049</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.521663</v>
+        <v>0.499327</v>
       </c>
       <c r="C36" t="n">
-        <v>0.295822</v>
+        <v>1.05457</v>
       </c>
       <c r="D36" t="n">
-        <v>1.15474</v>
+        <v>0.281442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6087669999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.501134</v>
+        <v>0.494796</v>
       </c>
       <c r="C37" t="n">
-        <v>0.553637</v>
+        <v>1.08324</v>
       </c>
       <c r="D37" t="n">
-        <v>1.13109</v>
+        <v>0.53032</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.828425</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.790978</v>
+        <v>0.737403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.536286</v>
+        <v>1.01368</v>
       </c>
       <c r="D38" t="n">
-        <v>1.15781</v>
+        <v>0.505341</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.812006</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.740263</v>
+        <v>0.760804</v>
       </c>
       <c r="C39" t="n">
-        <v>0.519535</v>
+        <v>0.9977009999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07178</v>
+        <v>0.488374</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.797177</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.725725</v>
+        <v>0.7065940000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.482481</v>
+        <v>0.9942029999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04982</v>
+        <v>0.474376</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.781596</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717082</v>
+        <v>0.692758</v>
       </c>
       <c r="C41" t="n">
-        <v>0.477063</v>
+        <v>0.980506</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0701</v>
+        <v>0.452786</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.771389</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.704922</v>
+        <v>0.685468</v>
       </c>
       <c r="C42" t="n">
-        <v>0.455441</v>
+        <v>1.00938</v>
       </c>
       <c r="D42" t="n">
-        <v>1.06627</v>
+        <v>0.446376</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.76032</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.703813</v>
+        <v>0.6564720000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.43624</v>
+        <v>0.959596</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02709</v>
+        <v>0.421161</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.748521</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.673963</v>
+        <v>0.654322</v>
       </c>
       <c r="C44" t="n">
-        <v>0.440409</v>
+        <v>0.970242</v>
       </c>
       <c r="D44" t="n">
-        <v>1.04045</v>
+        <v>0.427666</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.753408</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.656231</v>
+        <v>0.650837</v>
       </c>
       <c r="C45" t="n">
-        <v>0.409592</v>
+        <v>0.964871</v>
       </c>
       <c r="D45" t="n">
-        <v>1.03266</v>
+        <v>0.414559</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.730271</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.636043</v>
+        <v>0.618525</v>
       </c>
       <c r="C46" t="n">
-        <v>0.401284</v>
+        <v>0.9753039999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>1.03982</v>
+        <v>0.383283</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.730823</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.632296</v>
+        <v>0.629488</v>
       </c>
       <c r="C47" t="n">
-        <v>0.382962</v>
+        <v>0.966898</v>
       </c>
       <c r="D47" t="n">
-        <v>1.05957</v>
+        <v>0.369774</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7312920000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.648363</v>
+        <v>0.590849</v>
       </c>
       <c r="C48" t="n">
-        <v>0.369848</v>
+        <v>0.96335</v>
       </c>
       <c r="D48" t="n">
-        <v>1.04059</v>
+        <v>0.357019</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.713898</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.626479</v>
+        <v>0.580475</v>
       </c>
       <c r="C49" t="n">
-        <v>0.375396</v>
+        <v>0.956267</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09019</v>
+        <v>0.345496</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7024629999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.610286</v>
+        <v>0.572705</v>
       </c>
       <c r="C50" t="n">
-        <v>0.35037</v>
+        <v>1.50758</v>
       </c>
       <c r="D50" t="n">
-        <v>1.69809</v>
+        <v>0.339808</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.699428</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.592364</v>
+        <v>0.561162</v>
       </c>
       <c r="C51" t="n">
-        <v>0.618556</v>
+        <v>1.48177</v>
       </c>
       <c r="D51" t="n">
-        <v>1.60438</v>
+        <v>0.58709</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.07509</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.586304</v>
+        <v>0.575493</v>
       </c>
       <c r="C52" t="n">
-        <v>0.604154</v>
+        <v>1.53299</v>
       </c>
       <c r="D52" t="n">
-        <v>1.59723</v>
+        <v>0.575983</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.04914</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.855691</v>
+        <v>0.801027</v>
       </c>
       <c r="C53" t="n">
-        <v>0.580669</v>
+        <v>1.42606</v>
       </c>
       <c r="D53" t="n">
-        <v>1.58297</v>
+        <v>0.564515</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.05132</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.851422</v>
+        <v>0.790591</v>
       </c>
       <c r="C54" t="n">
-        <v>0.576704</v>
+        <v>1.39297</v>
       </c>
       <c r="D54" t="n">
-        <v>1.57343</v>
+        <v>0.537447</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.01013</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.818676</v>
+        <v>0.77956</v>
       </c>
       <c r="C55" t="n">
-        <v>0.562639</v>
+        <v>1.38545</v>
       </c>
       <c r="D55" t="n">
-        <v>1.51104</v>
+        <v>0.526115</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.0114</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.804243</v>
+        <v>0.757861</v>
       </c>
       <c r="C56" t="n">
-        <v>0.523584</v>
+        <v>1.36253</v>
       </c>
       <c r="D56" t="n">
-        <v>1.48693</v>
+        <v>0.506845</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.01478</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.790788</v>
+        <v>0.746157</v>
       </c>
       <c r="C57" t="n">
-        <v>0.516734</v>
+        <v>1.37543</v>
       </c>
       <c r="D57" t="n">
-        <v>1.5319</v>
+        <v>0.491067</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.978869</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.769435</v>
+        <v>0.744406</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503109</v>
+        <v>1.37351</v>
       </c>
       <c r="D58" t="n">
-        <v>1.46943</v>
+        <v>0.516653</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.989364</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.749593</v>
+        <v>0.72041</v>
       </c>
       <c r="C59" t="n">
-        <v>0.484392</v>
+        <v>1.34919</v>
       </c>
       <c r="D59" t="n">
-        <v>1.48665</v>
+        <v>0.467504</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.948071</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.758404</v>
+        <v>0.713535</v>
       </c>
       <c r="C60" t="n">
-        <v>0.475483</v>
+        <v>1.34572</v>
       </c>
       <c r="D60" t="n">
-        <v>1.4582</v>
+        <v>0.451849</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9272010000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.720373</v>
+        <v>0.700097</v>
       </c>
       <c r="C61" t="n">
-        <v>0.463304</v>
+        <v>1.34308</v>
       </c>
       <c r="D61" t="n">
-        <v>1.44919</v>
+        <v>0.441649</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.913615</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.719589</v>
+        <v>0.6885599999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.452052</v>
+        <v>1.31996</v>
       </c>
       <c r="D62" t="n">
-        <v>1.49601</v>
+        <v>0.430217</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.895932</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.72294</v>
+        <v>0.675774</v>
       </c>
       <c r="C63" t="n">
-        <v>0.442008</v>
+        <v>1.33987</v>
       </c>
       <c r="D63" t="n">
-        <v>1.49078</v>
+        <v>0.433828</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.910385</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.695139</v>
+        <v>0.681978</v>
       </c>
       <c r="C64" t="n">
-        <v>0.433163</v>
+        <v>2.40452</v>
       </c>
       <c r="D64" t="n">
-        <v>2.62955</v>
+        <v>0.420339</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.893185</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.701886</v>
+        <v>0.66325</v>
       </c>
       <c r="C65" t="n">
-        <v>0.419277</v>
+        <v>2.32738</v>
       </c>
       <c r="D65" t="n">
-        <v>2.56946</v>
+        <v>0.402901</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.88326</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.681827</v>
+        <v>0.657782</v>
       </c>
       <c r="C66" t="n">
-        <v>0.714584</v>
+        <v>2.30341</v>
       </c>
       <c r="D66" t="n">
-        <v>2.53703</v>
+        <v>0.693132</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.5283</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.986809</v>
+        <v>0.92519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.675343</v>
+        <v>2.29806</v>
       </c>
       <c r="D67" t="n">
-        <v>2.48491</v>
+        <v>0.6505030000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.54531</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.95789</v>
+        <v>0.909733</v>
       </c>
       <c r="C68" t="n">
-        <v>0.675776</v>
+        <v>2.19555</v>
       </c>
       <c r="D68" t="n">
-        <v>2.41678</v>
+        <v>0.630518</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.5152</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.935627</v>
+        <v>0.974467</v>
       </c>
       <c r="C69" t="n">
-        <v>0.650241</v>
+        <v>2.21266</v>
       </c>
       <c r="D69" t="n">
-        <v>2.35369</v>
+        <v>0.616603</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.43726</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.906435</v>
+        <v>0.8788280000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.651189</v>
+        <v>2.13416</v>
       </c>
       <c r="D70" t="n">
-        <v>2.33227</v>
+        <v>0.595043</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.42929</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.931012</v>
+        <v>0.864128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.605504</v>
+        <v>2.11178</v>
       </c>
       <c r="D71" t="n">
-        <v>2.29951</v>
+        <v>0.5789069999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.39598</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.884002</v>
+        <v>0.85031</v>
       </c>
       <c r="C72" t="n">
-        <v>0.592475</v>
+        <v>2.14659</v>
       </c>
       <c r="D72" t="n">
-        <v>2.28179</v>
+        <v>0.561818</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.3702</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8607050000000001</v>
+        <v>0.835286</v>
       </c>
       <c r="C73" t="n">
-        <v>0.577155</v>
+        <v>2.06158</v>
       </c>
       <c r="D73" t="n">
-        <v>2.29399</v>
+        <v>0.548596</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.40878</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.88058</v>
+        <v>0.832222</v>
       </c>
       <c r="C74" t="n">
-        <v>0.562979</v>
+        <v>2.18285</v>
       </c>
       <c r="D74" t="n">
-        <v>2.21516</v>
+        <v>0.559017</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.29166</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.857795</v>
+        <v>0.8168800000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.558042</v>
+        <v>2.04814</v>
       </c>
       <c r="D75" t="n">
-        <v>2.21597</v>
+        <v>0.525802</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.30105</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.85039</v>
+        <v>0.805986</v>
       </c>
       <c r="C76" t="n">
-        <v>0.526911</v>
+        <v>2.03782</v>
       </c>
       <c r="D76" t="n">
-        <v>2.1576</v>
+        <v>0.519537</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.28042</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.842515</v>
+        <v>0.797529</v>
       </c>
       <c r="C77" t="n">
-        <v>0.51846</v>
+        <v>2.0032</v>
       </c>
       <c r="D77" t="n">
-        <v>2.24027</v>
+        <v>0.506429</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.2557</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.804795</v>
+        <v>0.787597</v>
       </c>
       <c r="C78" t="n">
-        <v>0.521919</v>
+        <v>3.3651</v>
       </c>
       <c r="D78" t="n">
-        <v>3.58221</v>
+        <v>0.496795</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.2253</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8090850000000001</v>
+        <v>0.772242</v>
       </c>
       <c r="C79" t="n">
-        <v>0.500427</v>
+        <v>3.2815</v>
       </c>
       <c r="D79" t="n">
-        <v>3.53186</v>
+        <v>0.48464</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.20945</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.781066</v>
+        <v>0.764591</v>
       </c>
       <c r="C80" t="n">
-        <v>0.814791</v>
+        <v>3.23905</v>
       </c>
       <c r="D80" t="n">
-        <v>3.37186</v>
+        <v>0.777797</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.151</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09218</v>
+        <v>1.0586</v>
       </c>
       <c r="C81" t="n">
-        <v>0.785559</v>
+        <v>3.19773</v>
       </c>
       <c r="D81" t="n">
-        <v>3.27609</v>
+        <v>0.758563</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.07608</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08581</v>
+        <v>1.05614</v>
       </c>
       <c r="C82" t="n">
-        <v>0.753999</v>
+        <v>3.15964</v>
       </c>
       <c r="D82" t="n">
-        <v>3.21823</v>
+        <v>0.732083</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.00508</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.07904</v>
+        <v>1.07381</v>
       </c>
       <c r="C83" t="n">
-        <v>0.750988</v>
+        <v>3.02064</v>
       </c>
       <c r="D83" t="n">
-        <v>3.22887</v>
+        <v>0.718299</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.96438</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0652</v>
+        <v>1.01202</v>
       </c>
       <c r="C84" t="n">
-        <v>0.746915</v>
+        <v>3.00824</v>
       </c>
       <c r="D84" t="n">
-        <v>3.19916</v>
+        <v>0.700183</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.94352</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03492</v>
+        <v>0.997106</v>
       </c>
       <c r="C85" t="n">
-        <v>0.721197</v>
+        <v>2.91259</v>
       </c>
       <c r="D85" t="n">
-        <v>3.09296</v>
+        <v>0.714237</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.86748</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.04615</v>
+        <v>1.01693</v>
       </c>
       <c r="C86" t="n">
-        <v>0.713646</v>
+        <v>2.8864</v>
       </c>
       <c r="D86" t="n">
-        <v>3.18613</v>
+        <v>0.697594</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.86054</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.999403</v>
+        <v>0.96726</v>
       </c>
       <c r="C87" t="n">
-        <v>0.679408</v>
+        <v>2.9313</v>
       </c>
       <c r="D87" t="n">
-        <v>3.06699</v>
+        <v>0.6587229999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.78523</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9835390000000001</v>
+        <v>0.971159</v>
       </c>
       <c r="C88" t="n">
-        <v>0.664794</v>
+        <v>2.89175</v>
       </c>
       <c r="D88" t="n">
-        <v>3.02206</v>
+        <v>0.64697</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.7564</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9701109999999999</v>
+        <v>0.943307</v>
       </c>
       <c r="C89" t="n">
-        <v>0.648549</v>
+        <v>2.84678</v>
       </c>
       <c r="D89" t="n">
-        <v>2.93081</v>
+        <v>0.63257</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.71895</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.945564</v>
+        <v>0.928338</v>
       </c>
       <c r="C90" t="n">
-        <v>0.640022</v>
+        <v>2.84599</v>
       </c>
       <c r="D90" t="n">
-        <v>2.88757</v>
+        <v>0.620741</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.67161</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9470190000000001</v>
+        <v>0.919656</v>
       </c>
       <c r="C91" t="n">
-        <v>0.630506</v>
+        <v>2.77744</v>
       </c>
       <c r="D91" t="n">
-        <v>2.815</v>
+        <v>0.606701</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.64231</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.931293</v>
+        <v>0.93021</v>
       </c>
       <c r="C92" t="n">
-        <v>0.62885</v>
+        <v>3.91228</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0552</v>
+        <v>0.639176</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.66071</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.922447</v>
+        <v>0.945172</v>
       </c>
       <c r="C93" t="n">
-        <v>0.605472</v>
+        <v>3.78178</v>
       </c>
       <c r="D93" t="n">
-        <v>3.97278</v>
+        <v>0.589815</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.56801</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.92906</v>
+        <v>0.894394</v>
       </c>
       <c r="C94" t="n">
-        <v>0.89551</v>
+        <v>3.70603</v>
       </c>
       <c r="D94" t="n">
-        <v>3.83284</v>
+        <v>0.895578</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.59092</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22404</v>
+        <v>1.21914</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9222630000000001</v>
+        <v>3.61537</v>
       </c>
       <c r="D95" t="n">
-        <v>3.83328</v>
+        <v>0.884572</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.53319</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21071</v>
+        <v>1.18467</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8681990000000001</v>
+        <v>3.56918</v>
       </c>
       <c r="D96" t="n">
-        <v>3.73634</v>
+        <v>0.87804</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.48761</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19363</v>
+        <v>1.17635</v>
       </c>
       <c r="C97" t="n">
-        <v>0.843562</v>
+        <v>3.58665</v>
       </c>
       <c r="D97" t="n">
-        <v>3.67519</v>
+        <v>0.830483</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.4008</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.18009</v>
+        <v>1.15459</v>
       </c>
       <c r="C98" t="n">
-        <v>0.844556</v>
+        <v>3.42677</v>
       </c>
       <c r="D98" t="n">
-        <v>3.57933</v>
+        <v>0.833892</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.3729</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.16718</v>
+        <v>1.14003</v>
       </c>
       <c r="C99" t="n">
-        <v>0.823138</v>
+        <v>3.44409</v>
       </c>
       <c r="D99" t="n">
-        <v>3.49914</v>
+        <v>0.830783</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.31515</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12582</v>
+        <v>1.14603</v>
       </c>
       <c r="C100" t="n">
-        <v>0.816487</v>
+        <v>3.40026</v>
       </c>
       <c r="D100" t="n">
-        <v>3.46441</v>
+        <v>0.815523</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.39433</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13017</v>
+        <v>1.13113</v>
       </c>
       <c r="C101" t="n">
-        <v>0.788513</v>
+        <v>3.30842</v>
       </c>
       <c r="D101" t="n">
-        <v>3.51745</v>
+        <v>0.789673</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.23109</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10951</v>
+        <v>1.12592</v>
       </c>
       <c r="C102" t="n">
-        <v>0.805366</v>
+        <v>3.2328</v>
       </c>
       <c r="D102" t="n">
-        <v>3.46319</v>
+        <v>0.789735</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.15707</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.11741</v>
+        <v>1.10925</v>
       </c>
       <c r="C103" t="n">
-        <v>0.784843</v>
+        <v>3.21568</v>
       </c>
       <c r="D103" t="n">
-        <v>3.32091</v>
+        <v>0.779374</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.08626</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07851</v>
+        <v>1.08576</v>
       </c>
       <c r="C104" t="n">
-        <v>0.753228</v>
+        <v>3.15071</v>
       </c>
       <c r="D104" t="n">
-        <v>3.37992</v>
+        <v>0.768898</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.06642</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07894</v>
+        <v>1.10294</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7515039999999999</v>
+        <v>3.18302</v>
       </c>
       <c r="D105" t="n">
-        <v>3.23679</v>
+        <v>0.756055</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.03206</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06357</v>
+        <v>1.09652</v>
       </c>
       <c r="C106" t="n">
-        <v>0.747927</v>
+        <v>3.11567</v>
       </c>
       <c r="D106" t="n">
-        <v>3.24982</v>
+        <v>0.727426</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.96095</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06055</v>
+        <v>1.07529</v>
       </c>
       <c r="C107" t="n">
-        <v>0.755661</v>
+        <v>4.30476</v>
       </c>
       <c r="D107" t="n">
-        <v>4.42128</v>
+        <v>0.72983</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.94727</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.05912</v>
+        <v>1.07331</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05629</v>
+        <v>4.23777</v>
       </c>
       <c r="D108" t="n">
-        <v>4.29626</v>
+        <v>1.04573</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.08656</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04512</v>
+        <v>1.06407</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02692</v>
+        <v>4.16376</v>
       </c>
       <c r="D109" t="n">
-        <v>4.17639</v>
+        <v>1.03525</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.01379</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3424</v>
+        <v>1.39364</v>
       </c>
       <c r="C110" t="n">
-        <v>1.02533</v>
+        <v>4.12504</v>
       </c>
       <c r="D110" t="n">
-        <v>4.15518</v>
+        <v>1.04615</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.9489</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.36912</v>
+        <v>1.37357</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0366</v>
+        <v>3.96966</v>
       </c>
       <c r="D111" t="n">
-        <v>4.11297</v>
+        <v>1.02224</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.83549</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.35162</v>
+        <v>1.33733</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01102</v>
+        <v>3.89598</v>
       </c>
       <c r="D112" t="n">
-        <v>3.97035</v>
+        <v>1.01116</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.80063</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3115</v>
+        <v>1.36764</v>
       </c>
       <c r="C113" t="n">
-        <v>1.00097</v>
+        <v>3.82895</v>
       </c>
       <c r="D113" t="n">
-        <v>3.95755</v>
+        <v>0.986558</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.73692</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32307</v>
+        <v>1.38676</v>
       </c>
       <c r="C114" t="n">
-        <v>1.00881</v>
+        <v>3.81353</v>
       </c>
       <c r="D114" t="n">
-        <v>3.87474</v>
+        <v>1.05291</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.70024</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29338</v>
+        <v>1.34933</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00818</v>
+        <v>3.77246</v>
       </c>
       <c r="D115" t="n">
-        <v>3.80602</v>
+        <v>0.985165</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.59804</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.27545</v>
+        <v>1.33723</v>
       </c>
       <c r="C116" t="n">
-        <v>0.998047</v>
+        <v>3.68894</v>
       </c>
       <c r="D116" t="n">
-        <v>3.76761</v>
+        <v>0.96199</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.52823</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29477</v>
+        <v>1.32759</v>
       </c>
       <c r="C117" t="n">
-        <v>0.98642</v>
+        <v>3.68938</v>
       </c>
       <c r="D117" t="n">
-        <v>3.7806</v>
+        <v>0.9733619999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.47693</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.2703</v>
+        <v>1.30107</v>
       </c>
       <c r="C118" t="n">
-        <v>0.961703</v>
+        <v>3.64258</v>
       </c>
       <c r="D118" t="n">
-        <v>3.73948</v>
+        <v>0.976776</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.45089</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28647</v>
+        <v>1.3109</v>
       </c>
       <c r="C119" t="n">
-        <v>0.984921</v>
+        <v>3.64504</v>
       </c>
       <c r="D119" t="n">
-        <v>3.66685</v>
+        <v>0.963243</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.42491</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.27388</v>
+        <v>1.32769</v>
       </c>
       <c r="C120" t="n">
-        <v>0.958525</v>
+        <v>3.60264</v>
       </c>
       <c r="D120" t="n">
-        <v>3.675</v>
+        <v>0.956166</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.39758</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.28118</v>
+        <v>1.29424</v>
       </c>
       <c r="C121" t="n">
-        <v>0.954613</v>
+        <v>4.87949</v>
       </c>
       <c r="D121" t="n">
-        <v>5.02076</v>
+        <v>0.947879</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.3556</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2716</v>
+        <v>1.31307</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9502969999999999</v>
+        <v>4.78256</v>
       </c>
       <c r="D122" t="n">
-        <v>4.89082</v>
+        <v>0.925292</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.28857</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.23588</v>
+        <v>1.29828</v>
       </c>
       <c r="C123" t="n">
-        <v>1.25819</v>
+        <v>4.68034</v>
       </c>
       <c r="D123" t="n">
-        <v>4.79082</v>
+        <v>1.26517</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.50668</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.5852</v>
+        <v>1.6189</v>
       </c>
       <c r="C124" t="n">
-        <v>1.28742</v>
+        <v>4.61418</v>
       </c>
       <c r="D124" t="n">
-        <v>4.68881</v>
+        <v>1.26263</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.47356</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.56023</v>
+        <v>1.59597</v>
       </c>
       <c r="C125" t="n">
-        <v>1.27474</v>
+        <v>4.54625</v>
       </c>
       <c r="D125" t="n">
-        <v>4.65092</v>
+        <v>1.23863</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.33043</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.54162</v>
+        <v>1.61164</v>
       </c>
       <c r="C126" t="n">
-        <v>1.28004</v>
+        <v>4.46784</v>
       </c>
       <c r="D126" t="n">
-        <v>4.61</v>
+        <v>1.2552</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.27359</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.58422</v>
+        <v>1.59864</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32942</v>
+        <v>4.39275</v>
       </c>
       <c r="D127" t="n">
-        <v>4.49078</v>
+        <v>1.26228</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.16432</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.56965</v>
+        <v>1.60206</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30778</v>
+        <v>4.33177</v>
       </c>
       <c r="D128" t="n">
-        <v>4.46571</v>
+        <v>1.25993</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.12257</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55739</v>
+        <v>1.61022</v>
       </c>
       <c r="C129" t="n">
-        <v>1.29586</v>
+        <v>4.30196</v>
       </c>
       <c r="D129" t="n">
-        <v>4.3281</v>
+        <v>1.27335</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.13465</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55272</v>
+        <v>1.61995</v>
       </c>
       <c r="C130" t="n">
-        <v>1.27336</v>
+        <v>4.2421</v>
       </c>
       <c r="D130" t="n">
-        <v>4.2905</v>
+        <v>1.28153</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.00033</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.55339</v>
+        <v>1.60287</v>
       </c>
       <c r="C131" t="n">
-        <v>1.29197</v>
+        <v>4.19812</v>
       </c>
       <c r="D131" t="n">
-        <v>4.26467</v>
+        <v>1.25987</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.96753</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54401</v>
+        <v>1.57698</v>
       </c>
       <c r="C132" t="n">
-        <v>1.29457</v>
+        <v>4.16503</v>
       </c>
       <c r="D132" t="n">
-        <v>4.21894</v>
+        <v>1.24423</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.88756</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.56904</v>
+        <v>1.59384</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31593</v>
+        <v>4.13573</v>
       </c>
       <c r="D133" t="n">
-        <v>4.15994</v>
+        <v>1.2479</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.85002</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54442</v>
+        <v>1.60199</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30194</v>
+        <v>4.09064</v>
       </c>
       <c r="D134" t="n">
-        <v>4.13062</v>
+        <v>1.2493</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.78553</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.53312</v>
+        <v>1.591</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31224</v>
+        <v>5.60267</v>
       </c>
       <c r="D135" t="n">
-        <v>5.71585</v>
+        <v>1.24348</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.74783</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.55387</v>
+        <v>1.59755</v>
       </c>
       <c r="C136" t="n">
-        <v>1.30821</v>
+        <v>5.50429</v>
       </c>
       <c r="D136" t="n">
-        <v>5.59121</v>
+        <v>1.28463</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.74215</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.54365</v>
+        <v>1.60618</v>
       </c>
       <c r="C137" t="n">
-        <v>1.63871</v>
+        <v>5.39625</v>
       </c>
       <c r="D137" t="n">
-        <v>5.55267</v>
+        <v>1.6108</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.05589</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.8688</v>
+        <v>1.89673</v>
       </c>
       <c r="C138" t="n">
-        <v>1.64977</v>
+        <v>5.31152</v>
       </c>
       <c r="D138" t="n">
-        <v>5.43053</v>
+        <v>1.56746</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.01445</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.84553</v>
+        <v>1.93725</v>
       </c>
       <c r="C139" t="n">
-        <v>1.62372</v>
+        <v>5.21014</v>
       </c>
       <c r="D139" t="n">
-        <v>5.33444</v>
+        <v>1.59551</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.87221</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.86282</v>
+        <v>1.91965</v>
       </c>
       <c r="C140" t="n">
-        <v>1.64998</v>
+        <v>5.09431</v>
       </c>
       <c r="D140" t="n">
-        <v>5.24542</v>
+        <v>1.59396</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.79535</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.85624</v>
+        <v>1.93502</v>
       </c>
       <c r="C141" t="n">
-        <v>1.64606</v>
+        <v>5.11559</v>
       </c>
       <c r="D141" t="n">
-        <v>5.16243</v>
+        <v>1.6126</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.73172</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.85497</v>
+        <v>1.92031</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66615</v>
+        <v>4.97583</v>
       </c>
       <c r="D142" t="n">
-        <v>5.0743</v>
+        <v>1.60275</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.66385</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84181</v>
+        <v>1.93314</v>
       </c>
       <c r="C143" t="n">
-        <v>1.64763</v>
+        <v>4.93247</v>
       </c>
       <c r="D143" t="n">
-        <v>4.98195</v>
+        <v>1.58893</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.58645</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15495</v>
+                  <v>0.15337</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.153545</v>
+                  <v>0.155158</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.156261</v>
+                  <v>0.159661</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.154468</v>
+                  <v>0.151036</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159997</v>
+                  <v>0.145481</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.148057</v>
+                  <v>0.143135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.149778</v>
+                  <v>0.148369</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154311</v>
+                  <v>0.150446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.223686</v>
+                  <v>0.207322</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.205186</v>
+                  <v>0.209592</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.205051</v>
+                  <v>0.195598</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.191499</v>
+                  <v>0.190781</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.185229</v>
+                  <v>0.190823</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.180374</v>
+                  <v>0.175134</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.173777</v>
+                  <v>0.168551</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174067</v>
+                  <v>0.159679</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.166807</v>
+                  <v>0.164206</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.160047</v>
+                  <v>0.167199</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.157303</v>
+                  <v>0.154037</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.156402</v>
+                  <v>0.157372</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163726</v>
+                  <v>0.151621</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160119</v>
+                  <v>0.157259</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240097</v>
+                  <v>0.238303</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231232</v>
+                  <v>0.224434</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227764</v>
+                  <v>0.224004</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219773</v>
+                  <v>0.215688</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.21386</v>
+                  <v>0.20293</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.200835</v>
+                  <v>0.198964</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.197722</v>
+                  <v>0.187941</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185452</v>
+                  <v>0.185272</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.185902</v>
+                  <v>0.178074</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179391</v>
+                  <v>0.173278</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.174647</v>
+                  <v>0.170074</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167433</v>
+                  <v>0.168305</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.173431</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169377</v>
+                  <v>0.167843</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.245427</v>
+                  <v>0.243961</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236324</v>
+                  <v>0.235067</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.228014</v>
+                  <v>0.22627</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220475</v>
+                  <v>0.218024</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.211363</v>
+                  <v>0.210212</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.205815</v>
+                  <v>0.202858</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.198957</v>
+                  <v>0.196171</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.192026</v>
+                  <v>0.190461</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.186259</v>
+                  <v>0.185034</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.182829</v>
+                  <v>0.180206</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.178498</v>
+                  <v>0.176532</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174932</v>
+                  <v>0.173492</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173529</v>
+                  <v>0.171855</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174603</v>
+                  <v>0.172451</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.178568</v>
+                  <v>0.174531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.242911</v>
+                  <v>0.241212</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233062</v>
+                  <v>0.231315</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.225756</v>
+                  <v>0.222959</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219169</v>
+                  <v>0.216001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.211266</v>
+                  <v>0.208546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.204869</v>
+                  <v>0.20144</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198465</v>
+                  <v>0.195596</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.192641</v>
+                  <v>0.189667</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.187453</v>
+                  <v>0.184353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.183317</v>
+                  <v>0.180335</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.180442</v>
+                  <v>0.178093</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.178772</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178868</v>
+                  <v>0.176322</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182404</v>
+                  <v>0.178398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246499</v>
+                  <v>0.246205</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.24057</v>
+                  <v>0.235745</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229261</v>
+                  <v>0.22844</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.222631</v>
+                  <v>0.219722</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214224</v>
+                  <v>0.211882</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.208225</v>
+                  <v>0.205851</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200051</v>
+                  <v>0.199915</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.196592</v>
+                  <v>0.19416</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.191699</v>
+                  <v>0.188783</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.187385</v>
+                  <v>0.183925</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.184281</v>
+                  <v>0.182219</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.181944</v>
+                  <v>0.178711</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181193</v>
+                  <v>0.17904</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.183598</v>
+                  <v>0.180346</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.259901</v>
+                  <v>0.257797</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.251809</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245416</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236506</v>
+                  <v>0.233789</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228865</v>
+                  <v>0.22662</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222002</v>
+                  <v>0.219911</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215267</v>
+                  <v>0.21385</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208708</v>
+                  <v>0.20712</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203164</v>
+                  <v>0.2016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198265</v>
+                  <v>0.196505</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194029</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191051</v>
+                  <v>0.190124</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.190331</v>
+                  <v>0.188597</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.190609</v>
+                  <v>0.189371</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271708</v>
+                  <v>0.270674</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265444</v>
+                  <v>0.265072</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258822</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251693</v>
+                  <v>0.251641</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245207</v>
+                  <v>0.245263</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238911</v>
+                  <v>0.238488</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233314</v>
+                  <v>0.233411</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227926</v>
+                  <v>0.227946</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.223038</v>
+                  <v>0.222458</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218392</v>
+                  <v>0.218327</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214392</v>
+                  <v>0.214176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211043</v>
+                  <v>0.211275</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208798</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208902</v>
+                  <v>0.208655</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210912</v>
+                  <v>0.210629</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.282122</v>
+                  <v>0.285509</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277332</v>
+                  <v>0.278433</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271849</v>
+                  <v>0.271806</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265643</v>
+                  <v>0.266427</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259825</v>
+                  <v>0.260565</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254755</v>
+                  <v>0.255512</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.249822</v>
+                  <v>0.250615</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.24522</v>
+                  <v>0.245594</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241839</v>
+                  <v>0.244716</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23729</v>
+                  <v>0.237814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234272</v>
+                  <v>0.234924</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232088</v>
+                  <v>0.232693</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231128</v>
+                  <v>0.231404</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232239</v>
+                  <v>0.232607</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317627</v>
+                  <v>0.316721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.312009</v>
+                  <v>0.311521</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.30586</v>
+                  <v>0.304916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.300592</v>
+                  <v>0.299863</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.295357</v>
+                  <v>0.294634</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291282</v>
+                  <v>0.290007</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.290024</v>
+                  <v>0.285681</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.292332</v>
+                  <v>0.281672</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.316529</v>
+                  <v>0.278486</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.313286</v>
+                  <v>0.275255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.269433</v>
+                  <v>0.272149</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.267928</v>
+                  <v>0.270314</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.267051</v>
+                  <v>0.269997</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267636</v>
+                  <v>0.270583</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.350842</v>
+                  <v>0.369063</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345442</v>
+                  <v>0.363506</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.341276</v>
+                  <v>0.358269</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.336592</v>
+                  <v>0.352863</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.332195</v>
+                  <v>0.34801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328062</v>
+                  <v>0.34351</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.133487</v>
+                  <v>0.312145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.128996</v>
+                  <v>0.311864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.128778</v>
+                  <v>0.311341</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.123893</v>
+                  <v>0.306772</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.115629</v>
+                  <v>0.308161</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.117525</v>
+                  <v>0.408994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.110211</v>
+                  <v>0.405189</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.176215</v>
+                  <v>0.401577</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.169618</v>
+                  <v>0.391147</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167522</v>
+                  <v>0.391102</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.164985</v>
+                  <v>0.38111</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.157948</v>
+                  <v>0.379912</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.154722</v>
+                  <v>0.376405</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.145283</v>
+                  <v>0.370044</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.14847</v>
+                  <v>0.366509</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.137933</v>
+                  <v>0.362169</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.132223</v>
+                  <v>0.364199</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.130486</v>
+                  <v>0.36117</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.124625</v>
+                  <v>0.357351</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.122399</v>
+                  <v>0.478261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.122231</v>
+                  <v>0.464696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215673</v>
+                  <v>0.456439</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209008</v>
+                  <v>0.448159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.196812</v>
+                  <v>0.440673</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.193513</v>
+                  <v>0.431649</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.186064</v>
+                  <v>0.425692</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.182841</v>
+                  <v>0.418998</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175024</v>
+                  <v>0.412593</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170131</v>
+                  <v>0.408417</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.161414</v>
+                  <v>0.40367</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.156848</v>
+                  <v>0.399719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.155946</v>
+                  <v>0.393748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14656</v>
+                  <v>0.390428</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150628</v>
+                  <v>0.499331</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.146053</v>
+                  <v>0.48684</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230175</v>
+                  <v>0.478061</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222468</v>
+                  <v>0.46875</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212657</v>
+                  <v>0.458947</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20674</v>
+                  <v>0.450864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198642</v>
+                  <v>0.443182</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191772</v>
+                  <v>0.437353</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.188281</v>
+                  <v>0.430382</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.177377</v>
+                  <v>0.424477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171985</v>
+                  <v>0.419409</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166429</v>
+                  <v>0.414636</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.166079</v>
+                  <v>0.40978</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159028</v>
+                  <v>0.406225</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.15706</v>
+                  <v>0.403185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.156108</v>
+                  <v>0.506923</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.244006</v>
+                  <v>0.49607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234167</v>
+                  <v>0.485393</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.224348</v>
+                  <v>0.47704</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216183</v>
+                  <v>0.467187</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.208516</v>
+                  <v>0.459395</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.200898</v>
+                  <v>0.452921</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.193874</v>
+                  <v>0.445497</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.186857</v>
+                  <v>0.440853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.180909</v>
+                  <v>0.434352</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.175261</v>
+                  <v>0.430313</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.170349</v>
+                  <v>0.426534</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.166078</v>
+                  <v>0.422625</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.163411</v>
+                  <v>0.419713</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.161494</v>
+                  <v>0.544347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.16251</v>
+                  <v>0.53371</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.243741</v>
+                  <v>0.523499</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233795</v>
+                  <v>0.516787</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.226048</v>
+                  <v>0.508951</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.218522</v>
+                  <v>0.500625</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.208423</v>
+                  <v>0.494779</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.20239</v>
+                  <v>0.489162</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.195978</v>
+                  <v>0.483936</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.190244</v>
+                  <v>0.481121</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.183549</v>
+                  <v>0.496074</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17921</v>
+                  <v>0.488899</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.174505</v>
+                  <v>0.486092</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.17026</v>
+                  <v>0.483301</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.168555</v>
+                  <v>0.6619080000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.167771</v>
+                  <v>0.651641</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243049</v>
+                  <v>0.6414840000000001</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.233663</v>
+                  <v>0.634898</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225806</v>
+                  <v>0.626458</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217961</v>
+                  <v>0.619111</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210345</v>
+                  <v>0.618937</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.202909</v>
+                  <v>0.616578</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.196278</v>
+                  <v>0.616543</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.190457</v>
+                  <v>0.618468</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.184578</v>
+                  <v>0.618605</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.179115</v>
+                  <v>0.631288</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.174858</v>
+                  <v>0.634706</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171276</v>
+                  <v>0.640709</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.168786</v>
+                  <v>0.853437</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169004</v>
+                  <v>0.851041</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254981</v>
+                  <v>0.846677</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247215</v>
+                  <v>0.839566</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239115</v>
+                  <v>0.837027</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230624</v>
+                  <v>0.84036</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222856</v>
+                  <v>0.840439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21591</v>
+                  <v>0.841024</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.209102</v>
+                  <v>0.84118</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.202675</v>
+                  <v>0.845235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.196973</v>
+                  <v>0.849178</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.19177</v>
+                  <v>0.859448</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.187172</v>
+                  <v>0.866117</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.183301</v>
+                  <v>0.873801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18078</v>
+                  <v>0.882031</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179522</v>
+                  <v>1.12628</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.269489</v>
+                  <v>1.11366</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262897</v>
+                  <v>1.10831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.256726</v>
+                  <v>1.09924</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247451</v>
+                  <v>1.10141</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24043</v>
+                  <v>1.09589</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233607</v>
+                  <v>1.09404</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227423</v>
+                  <v>1.09267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221229</v>
+                  <v>1.09583</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215868</v>
+                  <v>1.09592</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210591</v>
+                  <v>1.09785</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.206479</v>
+                  <v>1.10406</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202559</v>
+                  <v>1.1105</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.199773</v>
+                  <v>1.1192</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198176</v>
+                  <v>1.38021</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.198841</v>
+                  <v>1.36711</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285232</v>
+                  <v>1.35208</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276811</v>
+                  <v>1.33879</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.270839</v>
+                  <v>1.33025</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.265608</v>
+                  <v>1.32117</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260523</v>
+                  <v>1.31379</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.255044</v>
+                  <v>1.30768</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.251807</v>
+                  <v>1.30326</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.249694</v>
+                  <v>1.30056</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.266801</v>
+                  <v>1.30008</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.263743</v>
+                  <v>1.30108</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.282668</v>
+                  <v>1.30141</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.233059</v>
+                  <v>1.30559</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.231579</v>
+                  <v>1.58034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.231913</v>
+                  <v>1.55781</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.326305</v>
+                  <v>1.53836</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320686</v>
+                  <v>1.5207</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315677</v>
+                  <v>1.50344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.310855</v>
+                  <v>1.49007</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.306001</v>
+                  <v>1.47742</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.30133</v>
+                  <v>1.46587</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.297474</v>
+                  <v>1.45791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.344005</v>
+                  <v>0.142888</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.340023</v>
+                  <v>0.144159</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.339171</v>
+                  <v>0.139729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.337006</v>
+                  <v>0.130455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.334346</v>
+                  <v>0.130001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.44346</v>
+                  <v>0.114646</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.42934</v>
+                  <v>0.121203</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.422947</v>
+                  <v>0.177485</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.414834</v>
+                  <v>0.178184</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.412844</v>
+                  <v>0.167977</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.410981</v>
+                  <v>0.158496</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.402817</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.395902</v>
+                  <v>0.15716</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.389522</v>
+                  <v>0.142005</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.38781</v>
+                  <v>0.136816</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.384793</v>
+                  <v>0.139587</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.379955</v>
+                  <v>0.131545</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.378853</v>
+                  <v>0.129135</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.373582</v>
+                  <v>0.123154</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.476217</v>
+                  <v>0.1263</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.46546</v>
+                  <v>0.129065</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.464787</v>
+                  <v>0.214336</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45141</v>
+                  <v>0.21995</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.445799</v>
+                  <v>0.204141</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.434497</v>
+                  <v>0.187606</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427631</v>
+                  <v>0.185954</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.419558</v>
+                  <v>0.178845</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.411806</v>
+                  <v>0.168237</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.406268</v>
+                  <v>0.165532</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.401866</v>
+                  <v>0.164239</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.397333</v>
+                  <v>0.154562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393844</v>
+                  <v>0.153521</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.389286</v>
+                  <v>0.14963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.493518</v>
+                  <v>0.150836</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.484731</v>
+                  <v>0.14771</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.475688</v>
+                  <v>0.230768</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.463878</v>
+                  <v>0.222972</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.455129</v>
+                  <v>0.213998</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.446551</v>
+                  <v>0.205509</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.438381</v>
+                  <v>0.19903</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.43272</v>
+                  <v>0.191431</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.425374</v>
+                  <v>0.185004</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.420618</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.41841</v>
+                  <v>0.171721</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414417</v>
+                  <v>0.166785</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.412106</v>
+                  <v>0.163076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406774</v>
+                  <v>0.159074</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.402662</v>
+                  <v>0.157048</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.505211</v>
+                  <v>0.155008</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.498063</v>
+                  <v>0.241177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485203</v>
+                  <v>0.232474</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.477573</v>
+                  <v>0.222617</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.46772</v>
+                  <v>0.214052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.463373</v>
+                  <v>0.206278</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.4539</v>
+                  <v>0.198674</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.446932</v>
+                  <v>0.191601</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440617</v>
+                  <v>0.184668</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.437856</v>
+                  <v>0.179357</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.432426</v>
+                  <v>0.1736</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.428781</v>
+                  <v>0.168138</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.423174</v>
+                  <v>0.164634</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.422691</v>
+                  <v>0.161852</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.5450739999999999</v>
+                  <v>0.159915</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.540152</v>
+                  <v>0.160633</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.524844</v>
+                  <v>0.241778</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.515304</v>
+                  <v>0.234316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.507802</v>
+                  <v>0.223856</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.498374</v>
+                  <v>0.214878</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494679</v>
+                  <v>0.206553</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.495527</v>
+                  <v>0.200975</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483948</v>
+                  <v>0.194188</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481365</v>
+                  <v>0.188362</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496964</v>
+                  <v>0.182427</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.492901</v>
+                  <v>0.17682</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.489043</v>
+                  <v>0.171969</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.486233</v>
+                  <v>0.167466</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.664263</v>
+                  <v>0.166872</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.653161</v>
+                  <v>0.166623</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.643571</v>
+                  <v>0.2389</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.63595</v>
+                  <v>0.231233</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.629796</v>
+                  <v>0.222629</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.622012</v>
+                  <v>0.215057</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.619332</v>
+                  <v>0.207065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.615398</v>
+                  <v>0.200438</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.615523</v>
+                  <v>0.193262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.615955</v>
+                  <v>0.187335</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.622347</v>
+                  <v>0.182132</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631071</v>
+                  <v>0.176589</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.635074</v>
+                  <v>0.173081</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.639845</v>
+                  <v>0.169023</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.852201</v>
+                  <v>0.166908</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.847971</v>
+                  <v>0.166814</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.845392</v>
+                  <v>0.252534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.8368139999999999</v>
+                  <v>0.244438</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.834033</v>
+                  <v>0.236967</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.841704</v>
+                  <v>0.229011</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.83904</v>
+                  <v>0.220682</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.838568</v>
+                  <v>0.213943</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.839709</v>
+                  <v>0.20784</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.842832</v>
+                  <v>0.20147</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.8481</v>
+                  <v>0.195865</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.858892</v>
+                  <v>0.190898</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.865506</v>
+                  <v>0.186294</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.870801</v>
+                  <v>0.182449</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.883047</v>
+                  <v>0.180164</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.1251</v>
+                  <v>0.179211</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11268</v>
+                  <v>0.268571</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10474</v>
+                  <v>0.263123</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09904</v>
+                  <v>0.255147</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.09986</v>
+                  <v>0.248045</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09551</v>
+                  <v>0.24044</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09076</v>
+                  <v>0.234071</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09524</v>
+                  <v>0.227632</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09316</v>
+                  <v>0.22211</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09388</v>
+                  <v>0.216672</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.0979</v>
+                  <v>0.211883</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10358</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.11072</v>
+                  <v>0.204125</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.11523</v>
+                  <v>0.201067</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38026</v>
+                  <v>0.199423</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36735</v>
+                  <v>0.200191</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35413</v>
+                  <v>0.285389</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.34011</v>
+                  <v>0.279535</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33068</v>
+                  <v>0.273237</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32008</v>
+                  <v>0.267652</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.3181</v>
+                  <v>0.26304</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.31133</v>
+                  <v>0.258886</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.2952</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30043</v>
+                  <v>0.250205</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.45637</v>
+                  <v>0.24612</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.43621</v>
+                  <v>0.243283</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30867</v>
+                  <v>0.240187</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30653</v>
+                  <v>0.238426</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.581</v>
+                  <v>0.236633</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.56049</v>
+                  <v>0.23708</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53923</v>
+                  <v>0.334836</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.52452</v>
+                  <v>0.329067</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50727</v>
+                  <v>0.323726</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.4928</v>
+                  <v>0.319833</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.4814</v>
+                  <v>0.314732</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46927</v>
+                  <v>0.310756</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.46123</v>
+                  <v>0.307162</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.271192</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.269766</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.261942</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.266898</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.264205</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.261823</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.260876</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.337755</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.32141</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.306307</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.303579</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.295531</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.290788</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.286236</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27627</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.269827</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.269586</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.261332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.262818</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.25938</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.25735</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.333717</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.338816</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.31587</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.308427</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.298987</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.294611</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.288183</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.281609</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.27668</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272235</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.267661</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.264742</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.262336</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263208</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347369</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.339619</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.332237</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323095</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315365</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.308467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.302061</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296349</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.290374</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.285623</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.281956</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.278551</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.276744</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.275847</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.35945</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.352226</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342043</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334021</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329362</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.3219</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.31556</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.309051</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.303773</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298791</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.29423</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.29061</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.28855</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286849</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288573</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.368444</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.360264</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.351966</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.346137</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.338777</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.33184</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.324914</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.319398</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.313882</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.308808</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.305441</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301947</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.303099</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.303311</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.384061</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.377682</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.372194</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.364102</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360852</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.355225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.34856</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.34299</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338553</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332812</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329783</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.326459</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.325092</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32522</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.452238</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.451668</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.447145</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.442183</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.437287</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.432007</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.428233</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.423292</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.418646</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.41523</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.411758</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.409843</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.408188</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.407718</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.566439</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.564304</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.557965</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.551828</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.544925</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.5423289999999999</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.536821</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.533166</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.529174</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.526789</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.52432</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.523133</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.520985</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.520991</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.522709</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.694646</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.688746</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.685202</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.680929</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.678063</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.660381</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.669822</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.66858</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.666127</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.664091</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.662888</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.662808</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.663058</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.664988</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.847299</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.846291</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.845287</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.8449950000000001</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.844019</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.844831</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.844638</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.52324</v>
+        <v>0.525271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.804959</v>
+        <v>0.7849930000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214907</v>
+        <v>0.207141</v>
       </c>
       <c r="E2" t="n">
-        <v>0.621537</v>
+        <v>0.605716</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.42198</v>
+        <v>0.455268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.817723</v>
+        <v>0.821026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212681</v>
+        <v>0.214635</v>
       </c>
       <c r="E3" t="n">
-        <v>0.615052</v>
+        <v>0.630215</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.42841</v>
+        <v>0.419311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.804129</v>
+        <v>0.828307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221893</v>
+        <v>0.205477</v>
       </c>
       <c r="E4" t="n">
-        <v>0.615559</v>
+        <v>0.624417</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419724</v>
+        <v>0.413178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.793461</v>
+        <v>0.819028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204521</v>
+        <v>0.20131</v>
       </c>
       <c r="E5" t="n">
-        <v>0.604229</v>
+        <v>0.615232</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.415796</v>
+        <v>0.411592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777045</v>
+        <v>0.80749</v>
       </c>
       <c r="D6" t="n">
-        <v>0.189401</v>
+        <v>0.196784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.597929</v>
+        <v>0.630758</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.403466</v>
+        <v>0.402321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.953152</v>
+        <v>0.7865220000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193543</v>
+        <v>0.192322</v>
       </c>
       <c r="E7" t="n">
-        <v>0.595006</v>
+        <v>0.602699</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.419867</v>
+        <v>0.414953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.993682</v>
+        <v>0.792166</v>
       </c>
       <c r="D8" t="n">
-        <v>0.190038</v>
+        <v>0.191924</v>
       </c>
       <c r="E8" t="n">
-        <v>0.600963</v>
+        <v>0.607341</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.397284</v>
+        <v>0.392008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.926982</v>
+        <v>0.763998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.279632</v>
+        <v>0.276452</v>
       </c>
       <c r="E9" t="n">
-        <v>0.684158</v>
+        <v>0.6998220000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.481668</v>
+        <v>0.495981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.901905</v>
+        <v>0.891395</v>
       </c>
       <c r="D10" t="n">
-        <v>0.266072</v>
+        <v>0.26948</v>
       </c>
       <c r="E10" t="n">
-        <v>0.674175</v>
+        <v>0.683329</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.478845</v>
+        <v>0.482764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.890826</v>
+        <v>0.898581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258538</v>
+        <v>0.26188</v>
       </c>
       <c r="E11" t="n">
-        <v>0.672849</v>
+        <v>0.675169</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.46465</v>
+        <v>0.470718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.86715</v>
+        <v>0.867873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.243983</v>
+        <v>0.247643</v>
       </c>
       <c r="E12" t="n">
-        <v>0.644543</v>
+        <v>0.656123</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.452552</v>
+        <v>0.471575</v>
       </c>
       <c r="C13" t="n">
-        <v>0.894527</v>
+        <v>0.886068</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235303</v>
+        <v>0.240837</v>
       </c>
       <c r="E13" t="n">
-        <v>0.630534</v>
+        <v>0.647766</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.444807</v>
+        <v>0.443651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.826038</v>
+        <v>0.833435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226529</v>
+        <v>0.229537</v>
       </c>
       <c r="E14" t="n">
-        <v>0.636504</v>
+        <v>0.632764</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450467</v>
+        <v>0.44114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.855474</v>
+        <v>0.822878</v>
       </c>
       <c r="D15" t="n">
-        <v>0.222589</v>
+        <v>0.221709</v>
       </c>
       <c r="E15" t="n">
-        <v>0.632494</v>
+        <v>0.629007</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.436354</v>
+        <v>0.435832</v>
       </c>
       <c r="C16" t="n">
-        <v>0.848629</v>
+        <v>0.824283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218334</v>
+        <v>0.2171</v>
       </c>
       <c r="E16" t="n">
-        <v>0.61421</v>
+        <v>0.6286890000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.427536</v>
+        <v>0.424917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.805681</v>
+        <v>0.81447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.207166</v>
+        <v>0.210054</v>
       </c>
       <c r="E17" t="n">
-        <v>0.605617</v>
+        <v>0.60975</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4162</v>
+        <v>0.422538</v>
       </c>
       <c r="C18" t="n">
-        <v>0.798546</v>
+        <v>0.80331</v>
       </c>
       <c r="D18" t="n">
-        <v>0.201532</v>
+        <v>0.203454</v>
       </c>
       <c r="E18" t="n">
-        <v>0.598038</v>
+        <v>0.610483</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.413838</v>
+        <v>0.412924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.788653</v>
+        <v>0.794502</v>
       </c>
       <c r="D19" t="n">
-        <v>0.197053</v>
+        <v>0.198895</v>
       </c>
       <c r="E19" t="n">
-        <v>0.594898</v>
+        <v>0.603827</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.409813</v>
+        <v>0.419773</v>
       </c>
       <c r="C20" t="n">
-        <v>0.785562</v>
+        <v>0.809963</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19281</v>
+        <v>0.193904</v>
       </c>
       <c r="E20" t="n">
-        <v>0.590543</v>
+        <v>0.599325</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.405189</v>
+        <v>0.401536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.949981</v>
+        <v>0.784254</v>
       </c>
       <c r="D21" t="n">
-        <v>0.193911</v>
+        <v>0.191043</v>
       </c>
       <c r="E21" t="n">
-        <v>0.586996</v>
+        <v>0.599923</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.399607</v>
+        <v>0.397804</v>
       </c>
       <c r="C22" t="n">
-        <v>0.952387</v>
+        <v>0.7797809999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.189394</v>
+        <v>0.190654</v>
       </c>
       <c r="E22" t="n">
-        <v>0.602683</v>
+        <v>0.593431</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.39531</v>
+        <v>0.396656</v>
       </c>
       <c r="C23" t="n">
-        <v>0.942456</v>
+        <v>0.773285</v>
       </c>
       <c r="D23" t="n">
-        <v>0.424547</v>
+        <v>0.428403</v>
       </c>
       <c r="E23" t="n">
-        <v>0.681462</v>
+        <v>0.679529</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.663551</v>
+        <v>0.666026</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9103329999999999</v>
+        <v>0.881426</v>
       </c>
       <c r="D24" t="n">
-        <v>0.409849</v>
+        <v>0.415179</v>
       </c>
       <c r="E24" t="n">
-        <v>0.676507</v>
+        <v>0.680339</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.632306</v>
+        <v>0.641353</v>
       </c>
       <c r="C25" t="n">
-        <v>0.933034</v>
+        <v>0.886869</v>
       </c>
       <c r="D25" t="n">
-        <v>0.397752</v>
+        <v>0.397438</v>
       </c>
       <c r="E25" t="n">
-        <v>0.669691</v>
+        <v>0.671407</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.626606</v>
+        <v>0.608375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896336</v>
+        <v>0.864414</v>
       </c>
       <c r="D26" t="n">
-        <v>0.383354</v>
+        <v>0.382283</v>
       </c>
       <c r="E26" t="n">
-        <v>0.667188</v>
+        <v>0.661134</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5955510000000001</v>
+        <v>0.593215</v>
       </c>
       <c r="C27" t="n">
-        <v>0.893707</v>
+        <v>0.8602109999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.369323</v>
+        <v>0.371994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.656668</v>
+        <v>0.674817</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.602851</v>
+        <v>0.598983</v>
       </c>
       <c r="C28" t="n">
-        <v>0.891025</v>
+        <v>0.854415</v>
       </c>
       <c r="D28" t="n">
-        <v>0.367044</v>
+        <v>0.357461</v>
       </c>
       <c r="E28" t="n">
-        <v>0.654901</v>
+        <v>0.65145</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.572414</v>
+        <v>0.573092</v>
       </c>
       <c r="C29" t="n">
-        <v>0.89316</v>
+        <v>0.857716</v>
       </c>
       <c r="D29" t="n">
-        <v>0.345405</v>
+        <v>0.350121</v>
       </c>
       <c r="E29" t="n">
-        <v>0.644616</v>
+        <v>0.6459240000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.560943</v>
+        <v>0.561454</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8601220000000001</v>
+        <v>0.843602</v>
       </c>
       <c r="D30" t="n">
-        <v>0.339822</v>
+        <v>0.333904</v>
       </c>
       <c r="E30" t="n">
-        <v>0.637636</v>
+        <v>0.6397040000000001</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.553755</v>
+        <v>0.548085</v>
       </c>
       <c r="C31" t="n">
-        <v>0.856313</v>
+        <v>0.831288</v>
       </c>
       <c r="D31" t="n">
-        <v>0.323016</v>
+        <v>0.322358</v>
       </c>
       <c r="E31" t="n">
-        <v>0.628515</v>
+        <v>0.627481</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.540965</v>
+        <v>0.540396</v>
       </c>
       <c r="C32" t="n">
-        <v>0.852609</v>
+        <v>0.828498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.312997</v>
+        <v>0.31212</v>
       </c>
       <c r="E32" t="n">
-        <v>0.623397</v>
+        <v>0.623794</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.530377</v>
+        <v>0.527609</v>
       </c>
       <c r="C33" t="n">
-        <v>0.839715</v>
+        <v>0.82325</v>
       </c>
       <c r="D33" t="n">
-        <v>0.303464</v>
+        <v>0.317959</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6231100000000001</v>
+        <v>0.625663</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.52074</v>
+        <v>0.540026</v>
       </c>
       <c r="C34" t="n">
-        <v>0.851588</v>
+        <v>0.835601</v>
       </c>
       <c r="D34" t="n">
-        <v>0.301207</v>
+        <v>0.29626</v>
       </c>
       <c r="E34" t="n">
-        <v>0.632311</v>
+        <v>0.633168</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.524071</v>
+        <v>0.514212</v>
       </c>
       <c r="C35" t="n">
-        <v>1.09861</v>
+        <v>0.818639</v>
       </c>
       <c r="D35" t="n">
-        <v>0.299705</v>
+        <v>0.28772</v>
       </c>
       <c r="E35" t="n">
-        <v>0.620049</v>
+        <v>0.619104</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.499327</v>
+        <v>0.505799</v>
       </c>
       <c r="C36" t="n">
-        <v>1.05457</v>
+        <v>0.810119</v>
       </c>
       <c r="D36" t="n">
-        <v>0.281442</v>
+        <v>0.280923</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6087669999999999</v>
+        <v>0.611464</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.494796</v>
+        <v>0.493023</v>
       </c>
       <c r="C37" t="n">
-        <v>1.08324</v>
+        <v>0.808344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.53032</v>
+        <v>0.528776</v>
       </c>
       <c r="E37" t="n">
-        <v>0.828425</v>
+        <v>0.821089</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737403</v>
+        <v>0.741184</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01368</v>
+        <v>1.02922</v>
       </c>
       <c r="D38" t="n">
-        <v>0.505341</v>
+        <v>0.508754</v>
       </c>
       <c r="E38" t="n">
-        <v>0.812006</v>
+        <v>0.817412</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.760804</v>
+        <v>0.726259</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9977009999999999</v>
+        <v>1.0349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.488374</v>
+        <v>0.490364</v>
       </c>
       <c r="E39" t="n">
-        <v>0.797177</v>
+        <v>0.808345</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7065940000000001</v>
+        <v>0.711924</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9942029999999999</v>
+        <v>1.01462</v>
       </c>
       <c r="D40" t="n">
-        <v>0.474376</v>
+        <v>0.527971</v>
       </c>
       <c r="E40" t="n">
-        <v>0.781596</v>
+        <v>0.799635</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.692758</v>
+        <v>0.693356</v>
       </c>
       <c r="C41" t="n">
-        <v>0.980506</v>
+        <v>1.0461</v>
       </c>
       <c r="D41" t="n">
-        <v>0.452786</v>
+        <v>0.463806</v>
       </c>
       <c r="E41" t="n">
-        <v>0.771389</v>
+        <v>0.79236</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.685468</v>
+        <v>0.678266</v>
       </c>
       <c r="C42" t="n">
-        <v>1.00938</v>
+        <v>1.00955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.446376</v>
+        <v>0.4546</v>
       </c>
       <c r="E42" t="n">
-        <v>0.76032</v>
+        <v>0.77418</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6564720000000001</v>
+        <v>0.6789500000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.959596</v>
+        <v>0.982057</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421161</v>
+        <v>0.425266</v>
       </c>
       <c r="E43" t="n">
-        <v>0.748521</v>
+        <v>0.76122</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.654322</v>
+        <v>0.650156</v>
       </c>
       <c r="C44" t="n">
-        <v>0.970242</v>
+        <v>0.975488</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427666</v>
+        <v>0.412442</v>
       </c>
       <c r="E44" t="n">
-        <v>0.753408</v>
+        <v>0.752834</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.650837</v>
+        <v>0.635399</v>
       </c>
       <c r="C45" t="n">
-        <v>0.964871</v>
+        <v>0.977346</v>
       </c>
       <c r="D45" t="n">
-        <v>0.414559</v>
+        <v>0.397105</v>
       </c>
       <c r="E45" t="n">
-        <v>0.730271</v>
+        <v>0.741581</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.618525</v>
+        <v>0.620982</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9753039999999999</v>
+        <v>0.951838</v>
       </c>
       <c r="D46" t="n">
-        <v>0.383283</v>
+        <v>0.382945</v>
       </c>
       <c r="E46" t="n">
-        <v>0.730823</v>
+        <v>0.731553</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.629488</v>
+        <v>0.6135350000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.966898</v>
+        <v>0.942312</v>
       </c>
       <c r="D47" t="n">
-        <v>0.369774</v>
+        <v>0.370066</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7312920000000001</v>
+        <v>0.724587</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.590849</v>
+        <v>0.596618</v>
       </c>
       <c r="C48" t="n">
-        <v>0.96335</v>
+        <v>0.933902</v>
       </c>
       <c r="D48" t="n">
-        <v>0.357019</v>
+        <v>0.359508</v>
       </c>
       <c r="E48" t="n">
-        <v>0.713898</v>
+        <v>0.721542</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.580475</v>
+        <v>0.598106</v>
       </c>
       <c r="C49" t="n">
-        <v>0.956267</v>
+        <v>0.926471</v>
       </c>
       <c r="D49" t="n">
-        <v>0.345496</v>
+        <v>0.349315</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7024629999999999</v>
+        <v>0.710564</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.572705</v>
+        <v>0.575372</v>
       </c>
       <c r="C50" t="n">
-        <v>1.50758</v>
+        <v>0.919201</v>
       </c>
       <c r="D50" t="n">
-        <v>0.339808</v>
+        <v>0.351887</v>
       </c>
       <c r="E50" t="n">
-        <v>0.699428</v>
+        <v>0.704643</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.561162</v>
+        <v>0.5594980000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>1.48177</v>
+        <v>0.9455789999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.58709</v>
+        <v>0.60329</v>
       </c>
       <c r="E51" t="n">
-        <v>1.07509</v>
+        <v>1.12209</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575493</v>
+        <v>0.560968</v>
       </c>
       <c r="C52" t="n">
-        <v>1.53299</v>
+        <v>0.931894</v>
       </c>
       <c r="D52" t="n">
-        <v>0.575983</v>
+        <v>0.598052</v>
       </c>
       <c r="E52" t="n">
-        <v>1.04914</v>
+        <v>1.07836</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.801027</v>
+        <v>0.813524</v>
       </c>
       <c r="C53" t="n">
-        <v>1.42606</v>
+        <v>1.34813</v>
       </c>
       <c r="D53" t="n">
-        <v>0.564515</v>
+        <v>0.5622779999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>1.05132</v>
+        <v>1.04998</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.790591</v>
+        <v>0.812026</v>
       </c>
       <c r="C54" t="n">
-        <v>1.39297</v>
+        <v>1.30664</v>
       </c>
       <c r="D54" t="n">
-        <v>0.537447</v>
+        <v>0.540875</v>
       </c>
       <c r="E54" t="n">
-        <v>1.01013</v>
+        <v>1.05033</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.77956</v>
+        <v>0.776706</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38545</v>
+        <v>1.28553</v>
       </c>
       <c r="D55" t="n">
-        <v>0.526115</v>
+        <v>0.524658</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0114</v>
+        <v>1.00563</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.757861</v>
+        <v>0.762954</v>
       </c>
       <c r="C56" t="n">
-        <v>1.36253</v>
+        <v>1.27101</v>
       </c>
       <c r="D56" t="n">
-        <v>0.506845</v>
+        <v>0.506957</v>
       </c>
       <c r="E56" t="n">
-        <v>1.01478</v>
+        <v>1.00496</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.746157</v>
+        <v>0.742909</v>
       </c>
       <c r="C57" t="n">
-        <v>1.37543</v>
+        <v>1.24787</v>
       </c>
       <c r="D57" t="n">
-        <v>0.491067</v>
+        <v>0.495188</v>
       </c>
       <c r="E57" t="n">
-        <v>0.978869</v>
+        <v>0.996769</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.744406</v>
+        <v>0.742563</v>
       </c>
       <c r="C58" t="n">
-        <v>1.37351</v>
+        <v>1.23134</v>
       </c>
       <c r="D58" t="n">
-        <v>0.516653</v>
+        <v>0.477418</v>
       </c>
       <c r="E58" t="n">
-        <v>0.989364</v>
+        <v>0.9534589999999999</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.72041</v>
+        <v>0.719506</v>
       </c>
       <c r="C59" t="n">
-        <v>1.34919</v>
+        <v>1.20254</v>
       </c>
       <c r="D59" t="n">
-        <v>0.467504</v>
+        <v>0.467618</v>
       </c>
       <c r="E59" t="n">
-        <v>0.948071</v>
+        <v>0.94089</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.713535</v>
+        <v>0.711232</v>
       </c>
       <c r="C60" t="n">
-        <v>1.34572</v>
+        <v>1.19544</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451849</v>
+        <v>0.455533</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9272010000000001</v>
+        <v>0.9300079999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.700097</v>
+        <v>0.703232</v>
       </c>
       <c r="C61" t="n">
-        <v>1.34308</v>
+        <v>1.17296</v>
       </c>
       <c r="D61" t="n">
-        <v>0.441649</v>
+        <v>0.439938</v>
       </c>
       <c r="E61" t="n">
-        <v>0.913615</v>
+        <v>0.905114</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6885599999999999</v>
+        <v>0.682624</v>
       </c>
       <c r="C62" t="n">
-        <v>1.31996</v>
+        <v>1.15253</v>
       </c>
       <c r="D62" t="n">
-        <v>0.430217</v>
+        <v>0.428256</v>
       </c>
       <c r="E62" t="n">
-        <v>0.895932</v>
+        <v>0.9104950000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.675774</v>
+        <v>0.682354</v>
       </c>
       <c r="C63" t="n">
-        <v>1.33987</v>
+        <v>1.14651</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433828</v>
+        <v>0.419723</v>
       </c>
       <c r="E63" t="n">
-        <v>0.910385</v>
+        <v>0.89286</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.681978</v>
+        <v>0.672913</v>
       </c>
       <c r="C64" t="n">
-        <v>2.40452</v>
+        <v>1.14788</v>
       </c>
       <c r="D64" t="n">
-        <v>0.420339</v>
+        <v>0.415062</v>
       </c>
       <c r="E64" t="n">
-        <v>0.893185</v>
+        <v>0.8968970000000001</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.66325</v>
+        <v>0.662713</v>
       </c>
       <c r="C65" t="n">
-        <v>2.32738</v>
+        <v>1.14913</v>
       </c>
       <c r="D65" t="n">
-        <v>0.402901</v>
+        <v>0.405124</v>
       </c>
       <c r="E65" t="n">
-        <v>0.88326</v>
+        <v>0.871735</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.657782</v>
+        <v>0.657192</v>
       </c>
       <c r="C66" t="n">
-        <v>2.30341</v>
+        <v>1.11839</v>
       </c>
       <c r="D66" t="n">
-        <v>0.693132</v>
+        <v>0.698577</v>
       </c>
       <c r="E66" t="n">
-        <v>1.5283</v>
+        <v>1.51855</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.92519</v>
+        <v>0.924125</v>
       </c>
       <c r="C67" t="n">
-        <v>2.29806</v>
+        <v>1.885</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6505030000000001</v>
+        <v>0.651014</v>
       </c>
       <c r="E67" t="n">
-        <v>1.54531</v>
+        <v>1.50506</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.909733</v>
+        <v>0.921826</v>
       </c>
       <c r="C68" t="n">
-        <v>2.19555</v>
+        <v>1.85242</v>
       </c>
       <c r="D68" t="n">
-        <v>0.630518</v>
+        <v>0.640758</v>
       </c>
       <c r="E68" t="n">
-        <v>1.5152</v>
+        <v>1.48883</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.974467</v>
+        <v>0.894989</v>
       </c>
       <c r="C69" t="n">
-        <v>2.21266</v>
+        <v>1.80081</v>
       </c>
       <c r="D69" t="n">
-        <v>0.616603</v>
+        <v>0.606592</v>
       </c>
       <c r="E69" t="n">
-        <v>1.43726</v>
+        <v>1.42352</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8788280000000001</v>
+        <v>0.87935</v>
       </c>
       <c r="C70" t="n">
-        <v>2.13416</v>
+        <v>1.75805</v>
       </c>
       <c r="D70" t="n">
-        <v>0.595043</v>
+        <v>0.599035</v>
       </c>
       <c r="E70" t="n">
-        <v>1.42929</v>
+        <v>1.43031</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.864128</v>
+        <v>0.865946</v>
       </c>
       <c r="C71" t="n">
-        <v>2.11178</v>
+        <v>1.70254</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5789069999999999</v>
+        <v>0.579708</v>
       </c>
       <c r="E71" t="n">
-        <v>1.39598</v>
+        <v>1.38929</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.85031</v>
+        <v>0.852132</v>
       </c>
       <c r="C72" t="n">
-        <v>2.14659</v>
+        <v>1.71118</v>
       </c>
       <c r="D72" t="n">
-        <v>0.561818</v>
+        <v>0.568182</v>
       </c>
       <c r="E72" t="n">
-        <v>1.3702</v>
+        <v>1.37267</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.835286</v>
+        <v>0.864102</v>
       </c>
       <c r="C73" t="n">
-        <v>2.06158</v>
+        <v>1.70216</v>
       </c>
       <c r="D73" t="n">
-        <v>0.548596</v>
+        <v>0.588145</v>
       </c>
       <c r="E73" t="n">
-        <v>1.40878</v>
+        <v>1.35947</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.832222</v>
+        <v>0.870047</v>
       </c>
       <c r="C74" t="n">
-        <v>2.18285</v>
+        <v>1.65065</v>
       </c>
       <c r="D74" t="n">
-        <v>0.559017</v>
+        <v>0.56005</v>
       </c>
       <c r="E74" t="n">
-        <v>1.29166</v>
+        <v>1.31672</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8168800000000001</v>
+        <v>0.845066</v>
       </c>
       <c r="C75" t="n">
-        <v>2.04814</v>
+        <v>1.61611</v>
       </c>
       <c r="D75" t="n">
-        <v>0.525802</v>
+        <v>0.530787</v>
       </c>
       <c r="E75" t="n">
-        <v>1.30105</v>
+        <v>1.29516</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.805986</v>
+        <v>0.8083939999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>2.03782</v>
+        <v>1.56175</v>
       </c>
       <c r="D76" t="n">
-        <v>0.519537</v>
+        <v>0.506132</v>
       </c>
       <c r="E76" t="n">
-        <v>1.28042</v>
+        <v>1.26318</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.797529</v>
+        <v>0.784802</v>
       </c>
       <c r="C77" t="n">
-        <v>2.0032</v>
+        <v>1.54671</v>
       </c>
       <c r="D77" t="n">
-        <v>0.506429</v>
+        <v>0.500264</v>
       </c>
       <c r="E77" t="n">
-        <v>1.2557</v>
+        <v>1.25248</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.787597</v>
+        <v>0.774675</v>
       </c>
       <c r="C78" t="n">
-        <v>3.3651</v>
+        <v>1.51293</v>
       </c>
       <c r="D78" t="n">
-        <v>0.496795</v>
+        <v>0.493986</v>
       </c>
       <c r="E78" t="n">
-        <v>1.2253</v>
+        <v>1.20414</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.772242</v>
+        <v>0.770187</v>
       </c>
       <c r="C79" t="n">
-        <v>3.2815</v>
+        <v>1.51552</v>
       </c>
       <c r="D79" t="n">
-        <v>0.48464</v>
+        <v>0.478512</v>
       </c>
       <c r="E79" t="n">
-        <v>1.20945</v>
+        <v>1.19081</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.764591</v>
+        <v>0.775355</v>
       </c>
       <c r="C80" t="n">
-        <v>3.23905</v>
+        <v>1.48368</v>
       </c>
       <c r="D80" t="n">
-        <v>0.777797</v>
+        <v>0.775483</v>
       </c>
       <c r="E80" t="n">
-        <v>2.151</v>
+        <v>2.14553</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0586</v>
+        <v>1.07148</v>
       </c>
       <c r="C81" t="n">
-        <v>3.19773</v>
+        <v>2.43514</v>
       </c>
       <c r="D81" t="n">
-        <v>0.758563</v>
+        <v>0.776436</v>
       </c>
       <c r="E81" t="n">
-        <v>2.07608</v>
+        <v>2.08553</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05614</v>
+        <v>1.0781</v>
       </c>
       <c r="C82" t="n">
-        <v>3.15964</v>
+        <v>2.41072</v>
       </c>
       <c r="D82" t="n">
-        <v>0.732083</v>
+        <v>0.7314079999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>2.00508</v>
+        <v>2.01375</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.07381</v>
+        <v>1.04922</v>
       </c>
       <c r="C83" t="n">
-        <v>3.02064</v>
+        <v>2.33997</v>
       </c>
       <c r="D83" t="n">
-        <v>0.718299</v>
+        <v>0.717089</v>
       </c>
       <c r="E83" t="n">
-        <v>1.96438</v>
+        <v>1.96163</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.01202</v>
+        <v>1.00221</v>
       </c>
       <c r="C84" t="n">
-        <v>3.00824</v>
+        <v>2.26078</v>
       </c>
       <c r="D84" t="n">
-        <v>0.700183</v>
+        <v>0.700658</v>
       </c>
       <c r="E84" t="n">
-        <v>1.94352</v>
+        <v>1.91003</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.997106</v>
+        <v>0.984965</v>
       </c>
       <c r="C85" t="n">
-        <v>2.91259</v>
+        <v>2.25977</v>
       </c>
       <c r="D85" t="n">
-        <v>0.714237</v>
+        <v>0.707301</v>
       </c>
       <c r="E85" t="n">
-        <v>1.86748</v>
+        <v>1.874</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01693</v>
+        <v>0.991081</v>
       </c>
       <c r="C86" t="n">
-        <v>2.8864</v>
+        <v>2.18745</v>
       </c>
       <c r="D86" t="n">
-        <v>0.697594</v>
+        <v>0.670771</v>
       </c>
       <c r="E86" t="n">
-        <v>1.86054</v>
+        <v>1.85234</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.96726</v>
+        <v>0.952877</v>
       </c>
       <c r="C87" t="n">
-        <v>2.9313</v>
+        <v>2.10176</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6587229999999999</v>
+        <v>0.654779</v>
       </c>
       <c r="E87" t="n">
-        <v>1.78523</v>
+        <v>1.75387</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.971159</v>
+        <v>0.952083</v>
       </c>
       <c r="C88" t="n">
-        <v>2.89175</v>
+        <v>2.08923</v>
       </c>
       <c r="D88" t="n">
-        <v>0.64697</v>
+        <v>0.644083</v>
       </c>
       <c r="E88" t="n">
-        <v>1.7564</v>
+        <v>1.74816</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.943307</v>
+        <v>0.929868</v>
       </c>
       <c r="C89" t="n">
-        <v>2.84678</v>
+        <v>2.04289</v>
       </c>
       <c r="D89" t="n">
-        <v>0.63257</v>
+        <v>0.657994</v>
       </c>
       <c r="E89" t="n">
-        <v>1.71895</v>
+        <v>1.70079</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.928338</v>
+        <v>0.935167</v>
       </c>
       <c r="C90" t="n">
-        <v>2.84599</v>
+        <v>2.01585</v>
       </c>
       <c r="D90" t="n">
-        <v>0.620741</v>
+        <v>0.617769</v>
       </c>
       <c r="E90" t="n">
-        <v>1.67161</v>
+        <v>1.72785</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.919656</v>
+        <v>0.907116</v>
       </c>
       <c r="C91" t="n">
-        <v>2.77744</v>
+        <v>1.96422</v>
       </c>
       <c r="D91" t="n">
-        <v>0.606701</v>
+        <v>0.620758</v>
       </c>
       <c r="E91" t="n">
-        <v>1.64231</v>
+        <v>1.64492</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.93021</v>
+        <v>0.892102</v>
       </c>
       <c r="C92" t="n">
-        <v>3.91228</v>
+        <v>1.92597</v>
       </c>
       <c r="D92" t="n">
-        <v>0.639176</v>
+        <v>0.599083</v>
       </c>
       <c r="E92" t="n">
-        <v>1.66071</v>
+        <v>1.64127</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.945172</v>
+        <v>0.9045260000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>3.78178</v>
+        <v>1.93779</v>
       </c>
       <c r="D93" t="n">
-        <v>0.589815</v>
+        <v>0.598185</v>
       </c>
       <c r="E93" t="n">
-        <v>1.56801</v>
+        <v>1.59021</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.894394</v>
+        <v>0.899454</v>
       </c>
       <c r="C94" t="n">
-        <v>3.70603</v>
+        <v>1.85585</v>
       </c>
       <c r="D94" t="n">
-        <v>0.895578</v>
+        <v>0.907339</v>
       </c>
       <c r="E94" t="n">
-        <v>2.59092</v>
+        <v>2.64017</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.21914</v>
+        <v>1.17717</v>
       </c>
       <c r="C95" t="n">
-        <v>3.61537</v>
+        <v>2.93107</v>
       </c>
       <c r="D95" t="n">
-        <v>0.884572</v>
+        <v>0.864602</v>
       </c>
       <c r="E95" t="n">
-        <v>2.53319</v>
+        <v>2.53603</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18467</v>
+        <v>1.18494</v>
       </c>
       <c r="C96" t="n">
-        <v>3.56918</v>
+        <v>2.90904</v>
       </c>
       <c r="D96" t="n">
-        <v>0.87804</v>
+        <v>0.858419</v>
       </c>
       <c r="E96" t="n">
-        <v>2.48761</v>
+        <v>2.48767</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17635</v>
+        <v>1.19697</v>
       </c>
       <c r="C97" t="n">
-        <v>3.58665</v>
+        <v>2.88919</v>
       </c>
       <c r="D97" t="n">
-        <v>0.830483</v>
+        <v>0.857374</v>
       </c>
       <c r="E97" t="n">
-        <v>2.4008</v>
+        <v>2.47925</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.15459</v>
+        <v>1.1707</v>
       </c>
       <c r="C98" t="n">
-        <v>3.42677</v>
+        <v>2.78421</v>
       </c>
       <c r="D98" t="n">
-        <v>0.833892</v>
+        <v>0.8377019999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>2.3729</v>
+        <v>2.41288</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14003</v>
+        <v>1.13056</v>
       </c>
       <c r="C99" t="n">
-        <v>3.44409</v>
+        <v>2.66596</v>
       </c>
       <c r="D99" t="n">
-        <v>0.830783</v>
+        <v>0.799438</v>
       </c>
       <c r="E99" t="n">
-        <v>2.31515</v>
+        <v>2.3258</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14603</v>
+        <v>1.11372</v>
       </c>
       <c r="C100" t="n">
-        <v>3.40026</v>
+        <v>2.60553</v>
       </c>
       <c r="D100" t="n">
-        <v>0.815523</v>
+        <v>0.809304</v>
       </c>
       <c r="E100" t="n">
-        <v>2.39433</v>
+        <v>2.28084</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13113</v>
+        <v>1.09615</v>
       </c>
       <c r="C101" t="n">
-        <v>3.30842</v>
+        <v>2.64043</v>
       </c>
       <c r="D101" t="n">
-        <v>0.789673</v>
+        <v>0.783724</v>
       </c>
       <c r="E101" t="n">
-        <v>2.23109</v>
+        <v>2.2364</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12592</v>
+        <v>1.1072</v>
       </c>
       <c r="C102" t="n">
-        <v>3.2328</v>
+        <v>2.54647</v>
       </c>
       <c r="D102" t="n">
-        <v>0.789735</v>
+        <v>0.760512</v>
       </c>
       <c r="E102" t="n">
-        <v>2.15707</v>
+        <v>2.19505</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10925</v>
+        <v>1.10268</v>
       </c>
       <c r="C103" t="n">
-        <v>3.21568</v>
+        <v>2.49563</v>
       </c>
       <c r="D103" t="n">
-        <v>0.779374</v>
+        <v>0.762288</v>
       </c>
       <c r="E103" t="n">
-        <v>2.08626</v>
+        <v>2.18122</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08576</v>
+        <v>1.07701</v>
       </c>
       <c r="C104" t="n">
-        <v>3.15071</v>
+        <v>2.45157</v>
       </c>
       <c r="D104" t="n">
-        <v>0.768898</v>
+        <v>0.746194</v>
       </c>
       <c r="E104" t="n">
-        <v>2.06642</v>
+        <v>2.07268</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10294</v>
+        <v>1.05253</v>
       </c>
       <c r="C105" t="n">
-        <v>3.18302</v>
+        <v>2.4062</v>
       </c>
       <c r="D105" t="n">
-        <v>0.756055</v>
+        <v>0.736912</v>
       </c>
       <c r="E105" t="n">
-        <v>2.03206</v>
+        <v>2.02478</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09652</v>
+        <v>1.05011</v>
       </c>
       <c r="C106" t="n">
-        <v>3.11567</v>
+        <v>2.37702</v>
       </c>
       <c r="D106" t="n">
-        <v>0.727426</v>
+        <v>0.717023</v>
       </c>
       <c r="E106" t="n">
-        <v>1.96095</v>
+        <v>1.96053</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07529</v>
+        <v>1.04823</v>
       </c>
       <c r="C107" t="n">
-        <v>4.30476</v>
+        <v>2.35676</v>
       </c>
       <c r="D107" t="n">
-        <v>0.72983</v>
+        <v>0.713238</v>
       </c>
       <c r="E107" t="n">
-        <v>1.94727</v>
+        <v>1.93024</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07331</v>
+        <v>1.02805</v>
       </c>
       <c r="C108" t="n">
-        <v>4.23777</v>
+        <v>2.32257</v>
       </c>
       <c r="D108" t="n">
-        <v>1.04573</v>
+        <v>1.0457</v>
       </c>
       <c r="E108" t="n">
-        <v>3.08656</v>
+        <v>3.10604</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06407</v>
+        <v>1.01787</v>
       </c>
       <c r="C109" t="n">
-        <v>4.16376</v>
+        <v>2.22242</v>
       </c>
       <c r="D109" t="n">
-        <v>1.03525</v>
+        <v>1.0289</v>
       </c>
       <c r="E109" t="n">
-        <v>3.01379</v>
+        <v>3.00393</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39364</v>
+        <v>1.32887</v>
       </c>
       <c r="C110" t="n">
-        <v>4.12504</v>
+        <v>3.39586</v>
       </c>
       <c r="D110" t="n">
-        <v>1.04615</v>
+        <v>1.01405</v>
       </c>
       <c r="E110" t="n">
-        <v>2.9489</v>
+        <v>2.94703</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37357</v>
+        <v>1.32566</v>
       </c>
       <c r="C111" t="n">
-        <v>3.96966</v>
+        <v>3.27469</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02224</v>
+        <v>0.988357</v>
       </c>
       <c r="E111" t="n">
-        <v>2.83549</v>
+        <v>2.88229</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33733</v>
+        <v>1.29053</v>
       </c>
       <c r="C112" t="n">
-        <v>3.89598</v>
+        <v>3.21752</v>
       </c>
       <c r="D112" t="n">
-        <v>1.01116</v>
+        <v>0.981833</v>
       </c>
       <c r="E112" t="n">
-        <v>2.80063</v>
+        <v>2.79414</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36764</v>
+        <v>1.27916</v>
       </c>
       <c r="C113" t="n">
-        <v>3.82895</v>
+        <v>3.2373</v>
       </c>
       <c r="D113" t="n">
-        <v>0.986558</v>
+        <v>0.9835199999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>2.73692</v>
+        <v>2.76839</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.38676</v>
+        <v>1.31022</v>
       </c>
       <c r="C114" t="n">
-        <v>3.81353</v>
+        <v>3.13234</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05291</v>
+        <v>0.994472</v>
       </c>
       <c r="E114" t="n">
-        <v>2.70024</v>
+        <v>2.67188</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.34933</v>
+        <v>1.28726</v>
       </c>
       <c r="C115" t="n">
-        <v>3.77246</v>
+        <v>3.0238</v>
       </c>
       <c r="D115" t="n">
-        <v>0.985165</v>
+        <v>0.984088</v>
       </c>
       <c r="E115" t="n">
-        <v>2.59804</v>
+        <v>2.64398</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.33723</v>
+        <v>1.26987</v>
       </c>
       <c r="C116" t="n">
-        <v>3.68894</v>
+        <v>2.98727</v>
       </c>
       <c r="D116" t="n">
-        <v>0.96199</v>
+        <v>0.970989</v>
       </c>
       <c r="E116" t="n">
-        <v>2.52823</v>
+        <v>2.55014</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.32759</v>
+        <v>1.24253</v>
       </c>
       <c r="C117" t="n">
-        <v>3.68938</v>
+        <v>2.91073</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9733619999999999</v>
+        <v>0.9496289999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>2.47693</v>
+        <v>2.56518</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.30107</v>
+        <v>1.25659</v>
       </c>
       <c r="C118" t="n">
-        <v>3.64258</v>
+        <v>2.83275</v>
       </c>
       <c r="D118" t="n">
-        <v>0.976776</v>
+        <v>0.970508</v>
       </c>
       <c r="E118" t="n">
-        <v>2.45089</v>
+        <v>2.42525</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.3109</v>
+        <v>1.21469</v>
       </c>
       <c r="C119" t="n">
-        <v>3.64504</v>
+        <v>2.81652</v>
       </c>
       <c r="D119" t="n">
-        <v>0.963243</v>
+        <v>0.952725</v>
       </c>
       <c r="E119" t="n">
-        <v>2.42491</v>
+        <v>2.41871</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32769</v>
+        <v>1.23388</v>
       </c>
       <c r="C120" t="n">
-        <v>3.60264</v>
+        <v>2.78202</v>
       </c>
       <c r="D120" t="n">
-        <v>0.956166</v>
+        <v>0.918079</v>
       </c>
       <c r="E120" t="n">
-        <v>2.39758</v>
+        <v>2.35647</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29424</v>
+        <v>1.21216</v>
       </c>
       <c r="C121" t="n">
-        <v>4.87949</v>
+        <v>2.7242</v>
       </c>
       <c r="D121" t="n">
-        <v>0.947879</v>
+        <v>0.9138810000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>2.3556</v>
+        <v>2.31556</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31307</v>
+        <v>1.20018</v>
       </c>
       <c r="C122" t="n">
-        <v>4.78256</v>
+        <v>2.69021</v>
       </c>
       <c r="D122" t="n">
-        <v>0.925292</v>
+        <v>0.906799</v>
       </c>
       <c r="E122" t="n">
-        <v>2.28857</v>
+        <v>2.28907</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.29828</v>
+        <v>1.19032</v>
       </c>
       <c r="C123" t="n">
-        <v>4.68034</v>
+        <v>2.64734</v>
       </c>
       <c r="D123" t="n">
-        <v>1.26517</v>
+        <v>1.25515</v>
       </c>
       <c r="E123" t="n">
-        <v>3.50668</v>
+        <v>3.52301</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.6189</v>
+        <v>1.52061</v>
       </c>
       <c r="C124" t="n">
-        <v>4.61418</v>
+        <v>3.92634</v>
       </c>
       <c r="D124" t="n">
-        <v>1.26263</v>
+        <v>1.26418</v>
       </c>
       <c r="E124" t="n">
-        <v>3.47356</v>
+        <v>3.42545</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.59597</v>
+        <v>1.52711</v>
       </c>
       <c r="C125" t="n">
-        <v>4.54625</v>
+        <v>3.80762</v>
       </c>
       <c r="D125" t="n">
-        <v>1.23863</v>
+        <v>1.23884</v>
       </c>
       <c r="E125" t="n">
-        <v>3.33043</v>
+        <v>3.341</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.61164</v>
+        <v>1.50188</v>
       </c>
       <c r="C126" t="n">
-        <v>4.46784</v>
+        <v>3.73745</v>
       </c>
       <c r="D126" t="n">
-        <v>1.2552</v>
+        <v>1.26097</v>
       </c>
       <c r="E126" t="n">
-        <v>3.27359</v>
+        <v>3.25705</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.59864</v>
+        <v>1.5086</v>
       </c>
       <c r="C127" t="n">
-        <v>4.39275</v>
+        <v>3.714</v>
       </c>
       <c r="D127" t="n">
-        <v>1.26228</v>
+        <v>1.24597</v>
       </c>
       <c r="E127" t="n">
-        <v>3.16432</v>
+        <v>3.17809</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.60206</v>
+        <v>1.46266</v>
       </c>
       <c r="C128" t="n">
-        <v>4.33177</v>
+        <v>3.58648</v>
       </c>
       <c r="D128" t="n">
-        <v>1.25993</v>
+        <v>1.25092</v>
       </c>
       <c r="E128" t="n">
-        <v>3.12257</v>
+        <v>3.11417</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.61022</v>
+        <v>1.48097</v>
       </c>
       <c r="C129" t="n">
-        <v>4.30196</v>
+        <v>3.54728</v>
       </c>
       <c r="D129" t="n">
-        <v>1.27335</v>
+        <v>1.26236</v>
       </c>
       <c r="E129" t="n">
-        <v>3.13465</v>
+        <v>3.05068</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.61995</v>
+        <v>1.4616</v>
       </c>
       <c r="C130" t="n">
-        <v>4.2421</v>
+        <v>3.49426</v>
       </c>
       <c r="D130" t="n">
-        <v>1.28153</v>
+        <v>1.25609</v>
       </c>
       <c r="E130" t="n">
-        <v>3.00033</v>
+        <v>3.01081</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.60287</v>
+        <v>1.47566</v>
       </c>
       <c r="C131" t="n">
-        <v>4.19812</v>
+        <v>3.37258</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25987</v>
+        <v>1.23458</v>
       </c>
       <c r="E131" t="n">
-        <v>2.96753</v>
+        <v>2.92305</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.57698</v>
+        <v>1.4571</v>
       </c>
       <c r="C132" t="n">
-        <v>4.16503</v>
+        <v>3.35404</v>
       </c>
       <c r="D132" t="n">
-        <v>1.24423</v>
+        <v>1.2153</v>
       </c>
       <c r="E132" t="n">
-        <v>2.88756</v>
+        <v>2.89029</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.59384</v>
+        <v>1.4947</v>
       </c>
       <c r="C133" t="n">
-        <v>4.13573</v>
+        <v>3.29408</v>
       </c>
       <c r="D133" t="n">
-        <v>1.2479</v>
+        <v>1.23748</v>
       </c>
       <c r="E133" t="n">
-        <v>2.85002</v>
+        <v>2.83706</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.60199</v>
+        <v>1.4783</v>
       </c>
       <c r="C134" t="n">
-        <v>4.09064</v>
+        <v>3.25551</v>
       </c>
       <c r="D134" t="n">
-        <v>1.2493</v>
+        <v>1.2284</v>
       </c>
       <c r="E134" t="n">
-        <v>2.78553</v>
+        <v>2.81664</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.591</v>
+        <v>1.46145</v>
       </c>
       <c r="C135" t="n">
-        <v>5.60267</v>
+        <v>3.19699</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24348</v>
+        <v>1.22258</v>
       </c>
       <c r="E135" t="n">
-        <v>2.74783</v>
+        <v>2.75406</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.59755</v>
+        <v>1.46113</v>
       </c>
       <c r="C136" t="n">
-        <v>5.50429</v>
+        <v>3.19043</v>
       </c>
       <c r="D136" t="n">
-        <v>1.28463</v>
+        <v>1.25792</v>
       </c>
       <c r="E136" t="n">
-        <v>2.74215</v>
+        <v>2.73455</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.60618</v>
+        <v>1.46924</v>
       </c>
       <c r="C137" t="n">
-        <v>5.39625</v>
+        <v>3.12047</v>
       </c>
       <c r="D137" t="n">
-        <v>1.6108</v>
+        <v>1.56562</v>
       </c>
       <c r="E137" t="n">
-        <v>4.05589</v>
+        <v>4.08689</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.89673</v>
+        <v>1.79426</v>
       </c>
       <c r="C138" t="n">
-        <v>5.31152</v>
+        <v>4.55492</v>
       </c>
       <c r="D138" t="n">
-        <v>1.56746</v>
+        <v>1.56322</v>
       </c>
       <c r="E138" t="n">
-        <v>4.01445</v>
+        <v>3.97385</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.93725</v>
+        <v>1.78686</v>
       </c>
       <c r="C139" t="n">
-        <v>5.21014</v>
+        <v>4.42935</v>
       </c>
       <c r="D139" t="n">
-        <v>1.59551</v>
+        <v>1.56676</v>
       </c>
       <c r="E139" t="n">
-        <v>3.87221</v>
+        <v>3.87356</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.91965</v>
+        <v>1.76368</v>
       </c>
       <c r="C140" t="n">
-        <v>5.09431</v>
+        <v>4.36402</v>
       </c>
       <c r="D140" t="n">
-        <v>1.59396</v>
+        <v>1.58928</v>
       </c>
       <c r="E140" t="n">
-        <v>3.79535</v>
+        <v>3.81516</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.93502</v>
+        <v>1.75</v>
       </c>
       <c r="C141" t="n">
-        <v>5.11559</v>
+        <v>4.25718</v>
       </c>
       <c r="D141" t="n">
-        <v>1.6126</v>
+        <v>1.57928</v>
       </c>
       <c r="E141" t="n">
-        <v>3.73172</v>
+        <v>3.73783</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.92031</v>
+        <v>1.78213</v>
       </c>
       <c r="C142" t="n">
-        <v>4.97583</v>
+        <v>4.1611</v>
       </c>
       <c r="D142" t="n">
-        <v>1.60275</v>
+        <v>1.5683</v>
       </c>
       <c r="E142" t="n">
-        <v>3.66385</v>
+        <v>3.6426</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.93314</v>
+        <v>1.75081</v>
       </c>
       <c r="C143" t="n">
-        <v>4.93247</v>
+        <v>4.08943</v>
       </c>
       <c r="D143" t="n">
-        <v>1.58893</v>
+        <v>1.60123</v>
       </c>
       <c r="E143" t="n">
-        <v>3.58645</v>
+        <v>3.60713</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.52324</v>
+        <v>0.484508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.804959</v>
+        <v>0.767675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214907</v>
+        <v>0.213051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.621537</v>
+        <v>0.6154539999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.42198</v>
+        <v>0.442186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.817723</v>
+        <v>0.8144670000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212681</v>
+        <v>0.211858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.615052</v>
+        <v>0.636116</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.42841</v>
+        <v>0.417323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.804129</v>
+        <v>0.8383969999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221893</v>
+        <v>0.213291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.615559</v>
+        <v>0.626013</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419724</v>
+        <v>0.417496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.793461</v>
+        <v>0.810311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204521</v>
+        <v>0.201243</v>
       </c>
       <c r="E5" t="n">
-        <v>0.604229</v>
+        <v>0.660846</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.415796</v>
+        <v>0.429363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777045</v>
+        <v>0.799089</v>
       </c>
       <c r="D6" t="n">
-        <v>0.189401</v>
+        <v>0.202203</v>
       </c>
       <c r="E6" t="n">
-        <v>0.597929</v>
+        <v>0.624521</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.403466</v>
+        <v>0.415232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.953152</v>
+        <v>0.939754</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193543</v>
+        <v>0.196029</v>
       </c>
       <c r="E7" t="n">
-        <v>0.595006</v>
+        <v>0.609494</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.419867</v>
+        <v>0.403837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.993682</v>
+        <v>0.931782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.190038</v>
+        <v>0.193711</v>
       </c>
       <c r="E8" t="n">
-        <v>0.600963</v>
+        <v>0.623973</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.397284</v>
+        <v>0.396009</v>
       </c>
       <c r="C9" t="n">
-        <v>0.926982</v>
+        <v>0.941554</v>
       </c>
       <c r="D9" t="n">
-        <v>0.279632</v>
+        <v>0.295064</v>
       </c>
       <c r="E9" t="n">
-        <v>0.684158</v>
+        <v>0.718091</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.481668</v>
+        <v>0.484725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.901905</v>
+        <v>0.937643</v>
       </c>
       <c r="D10" t="n">
-        <v>0.266072</v>
+        <v>0.270003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.674175</v>
+        <v>0.695916</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.478845</v>
+        <v>0.497076</v>
       </c>
       <c r="C11" t="n">
-        <v>0.890826</v>
+        <v>0.919864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258538</v>
+        <v>0.268789</v>
       </c>
       <c r="E11" t="n">
-        <v>0.672849</v>
+        <v>0.693074</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.46465</v>
+        <v>0.467183</v>
       </c>
       <c r="C12" t="n">
-        <v>0.86715</v>
+        <v>0.856635</v>
       </c>
       <c r="D12" t="n">
-        <v>0.243983</v>
+        <v>0.248135</v>
       </c>
       <c r="E12" t="n">
-        <v>0.644543</v>
+        <v>0.671247</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.452552</v>
+        <v>0.484609</v>
       </c>
       <c r="C13" t="n">
-        <v>0.894527</v>
+        <v>0.854952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235303</v>
+        <v>0.24508</v>
       </c>
       <c r="E13" t="n">
-        <v>0.630534</v>
+        <v>0.661189</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.444807</v>
+        <v>0.460996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.826038</v>
+        <v>0.882522</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226529</v>
+        <v>0.235144</v>
       </c>
       <c r="E14" t="n">
-        <v>0.636504</v>
+        <v>0.654034</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450467</v>
+        <v>0.449763</v>
       </c>
       <c r="C15" t="n">
-        <v>0.855474</v>
+        <v>0.869822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.222589</v>
+        <v>0.226716</v>
       </c>
       <c r="E15" t="n">
-        <v>0.632494</v>
+        <v>0.626606</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.436354</v>
+        <v>0.442029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.848629</v>
+        <v>0.805944</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218334</v>
+        <v>0.22418</v>
       </c>
       <c r="E16" t="n">
-        <v>0.61421</v>
+        <v>0.649747</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.427536</v>
+        <v>0.423432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.805681</v>
+        <v>0.831359</v>
       </c>
       <c r="D17" t="n">
-        <v>0.207166</v>
+        <v>0.210228</v>
       </c>
       <c r="E17" t="n">
-        <v>0.605617</v>
+        <v>0.616053</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4162</v>
+        <v>0.416687</v>
       </c>
       <c r="C18" t="n">
-        <v>0.798546</v>
+        <v>0.798966</v>
       </c>
       <c r="D18" t="n">
-        <v>0.201532</v>
+        <v>0.205319</v>
       </c>
       <c r="E18" t="n">
-        <v>0.598038</v>
+        <v>0.619678</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.413838</v>
+        <v>0.415439</v>
       </c>
       <c r="C19" t="n">
-        <v>0.788653</v>
+        <v>0.822236</v>
       </c>
       <c r="D19" t="n">
-        <v>0.197053</v>
+        <v>0.202038</v>
       </c>
       <c r="E19" t="n">
-        <v>0.594898</v>
+        <v>0.609761</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.409813</v>
+        <v>0.431645</v>
       </c>
       <c r="C20" t="n">
-        <v>0.785562</v>
+        <v>0.804212</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19281</v>
+        <v>0.19592</v>
       </c>
       <c r="E20" t="n">
-        <v>0.590543</v>
+        <v>0.600891</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.405189</v>
+        <v>0.42666</v>
       </c>
       <c r="C21" t="n">
-        <v>0.949981</v>
+        <v>0.967927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.193911</v>
+        <v>0.194095</v>
       </c>
       <c r="E21" t="n">
-        <v>0.586996</v>
+        <v>0.614498</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.399607</v>
+        <v>0.401418</v>
       </c>
       <c r="C22" t="n">
-        <v>0.952387</v>
+        <v>0.962083</v>
       </c>
       <c r="D22" t="n">
-        <v>0.189394</v>
+        <v>0.194488</v>
       </c>
       <c r="E22" t="n">
-        <v>0.602683</v>
+        <v>0.607017</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.39531</v>
+        <v>0.395376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.942456</v>
+        <v>0.934688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.424547</v>
+        <v>0.448652</v>
       </c>
       <c r="E23" t="n">
-        <v>0.681462</v>
+        <v>0.691569</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.663551</v>
+        <v>0.641856</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9103329999999999</v>
+        <v>0.96796</v>
       </c>
       <c r="D24" t="n">
-        <v>0.409849</v>
+        <v>0.427221</v>
       </c>
       <c r="E24" t="n">
-        <v>0.676507</v>
+        <v>0.6831469999999999</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.632306</v>
+        <v>0.628889</v>
       </c>
       <c r="C25" t="n">
-        <v>0.933034</v>
+        <v>0.925834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.397752</v>
+        <v>0.398153</v>
       </c>
       <c r="E25" t="n">
-        <v>0.669691</v>
+        <v>0.67495</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.626606</v>
+        <v>0.6123769999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896336</v>
+        <v>0.936744</v>
       </c>
       <c r="D26" t="n">
-        <v>0.383354</v>
+        <v>0.388833</v>
       </c>
       <c r="E26" t="n">
-        <v>0.667188</v>
+        <v>0.6644060000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5955510000000001</v>
+        <v>0.603926</v>
       </c>
       <c r="C27" t="n">
-        <v>0.893707</v>
+        <v>0.87865</v>
       </c>
       <c r="D27" t="n">
-        <v>0.369323</v>
+        <v>0.373274</v>
       </c>
       <c r="E27" t="n">
-        <v>0.656668</v>
+        <v>0.681887</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.602851</v>
+        <v>0.594188</v>
       </c>
       <c r="C28" t="n">
-        <v>0.891025</v>
+        <v>0.8713419999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.367044</v>
+        <v>0.368584</v>
       </c>
       <c r="E28" t="n">
-        <v>0.654901</v>
+        <v>0.655081</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.572414</v>
+        <v>0.575062</v>
       </c>
       <c r="C29" t="n">
-        <v>0.89316</v>
+        <v>0.888253</v>
       </c>
       <c r="D29" t="n">
-        <v>0.345405</v>
+        <v>0.345021</v>
       </c>
       <c r="E29" t="n">
-        <v>0.644616</v>
+        <v>0.640566</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.560943</v>
+        <v>0.574852</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8601220000000001</v>
+        <v>0.84762</v>
       </c>
       <c r="D30" t="n">
-        <v>0.339822</v>
+        <v>0.33464</v>
       </c>
       <c r="E30" t="n">
-        <v>0.637636</v>
+        <v>0.664729</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.553755</v>
+        <v>0.577584</v>
       </c>
       <c r="C31" t="n">
-        <v>0.856313</v>
+        <v>0.8448</v>
       </c>
       <c r="D31" t="n">
-        <v>0.323016</v>
+        <v>0.330307</v>
       </c>
       <c r="E31" t="n">
-        <v>0.628515</v>
+        <v>0.6584140000000001</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.540965</v>
+        <v>0.549975</v>
       </c>
       <c r="C32" t="n">
-        <v>0.852609</v>
+        <v>0.850127</v>
       </c>
       <c r="D32" t="n">
-        <v>0.312997</v>
+        <v>0.317524</v>
       </c>
       <c r="E32" t="n">
-        <v>0.623397</v>
+        <v>0.648208</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.530377</v>
+        <v>0.534985</v>
       </c>
       <c r="C33" t="n">
-        <v>0.839715</v>
+        <v>0.839291</v>
       </c>
       <c r="D33" t="n">
-        <v>0.303464</v>
+        <v>0.302379</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6231100000000001</v>
+        <v>0.62109</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.52074</v>
+        <v>0.527983</v>
       </c>
       <c r="C34" t="n">
-        <v>0.851588</v>
+        <v>0.8592689999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.301207</v>
+        <v>0.30487</v>
       </c>
       <c r="E34" t="n">
-        <v>0.632311</v>
+        <v>0.619599</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.524071</v>
+        <v>0.533232</v>
       </c>
       <c r="C35" t="n">
-        <v>1.09861</v>
+        <v>1.065</v>
       </c>
       <c r="D35" t="n">
-        <v>0.299705</v>
+        <v>0.295244</v>
       </c>
       <c r="E35" t="n">
-        <v>0.620049</v>
+        <v>0.62005</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.499327</v>
+        <v>0.504771</v>
       </c>
       <c r="C36" t="n">
-        <v>1.05457</v>
+        <v>1.05758</v>
       </c>
       <c r="D36" t="n">
-        <v>0.281442</v>
+        <v>0.290266</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6087669999999999</v>
+        <v>0.638863</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.494796</v>
+        <v>0.496742</v>
       </c>
       <c r="C37" t="n">
-        <v>1.08324</v>
+        <v>1.02978</v>
       </c>
       <c r="D37" t="n">
-        <v>0.53032</v>
+        <v>0.536327</v>
       </c>
       <c r="E37" t="n">
-        <v>0.828425</v>
+        <v>0.825778</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737403</v>
+        <v>0.763149</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01368</v>
+        <v>1.00892</v>
       </c>
       <c r="D38" t="n">
-        <v>0.505341</v>
+        <v>0.512872</v>
       </c>
       <c r="E38" t="n">
-        <v>0.812006</v>
+        <v>0.821101</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.760804</v>
+        <v>0.749347</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9977009999999999</v>
+        <v>1.08754</v>
       </c>
       <c r="D39" t="n">
-        <v>0.488374</v>
+        <v>0.502537</v>
       </c>
       <c r="E39" t="n">
-        <v>0.797177</v>
+        <v>0.846845</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7065940000000001</v>
+        <v>0.709472</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9942029999999999</v>
+        <v>1.00357</v>
       </c>
       <c r="D40" t="n">
-        <v>0.474376</v>
+        <v>0.471452</v>
       </c>
       <c r="E40" t="n">
-        <v>0.781596</v>
+        <v>0.81768</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.692758</v>
+        <v>0.7056750000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.980506</v>
+        <v>0.970581</v>
       </c>
       <c r="D41" t="n">
-        <v>0.452786</v>
+        <v>0.457304</v>
       </c>
       <c r="E41" t="n">
-        <v>0.771389</v>
+        <v>0.7730050000000001</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.685468</v>
+        <v>0.676697</v>
       </c>
       <c r="C42" t="n">
-        <v>1.00938</v>
+        <v>0.969045</v>
       </c>
       <c r="D42" t="n">
-        <v>0.446376</v>
+        <v>0.44167</v>
       </c>
       <c r="E42" t="n">
-        <v>0.76032</v>
+        <v>0.772455</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6564720000000001</v>
+        <v>0.661404</v>
       </c>
       <c r="C43" t="n">
-        <v>0.959596</v>
+        <v>0.988922</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421161</v>
+        <v>0.442748</v>
       </c>
       <c r="E43" t="n">
-        <v>0.748521</v>
+        <v>0.763178</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.654322</v>
+        <v>0.686562</v>
       </c>
       <c r="C44" t="n">
-        <v>0.970242</v>
+        <v>0.948776</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427666</v>
+        <v>0.421088</v>
       </c>
       <c r="E44" t="n">
-        <v>0.753408</v>
+        <v>0.762089</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.650837</v>
+        <v>0.671418</v>
       </c>
       <c r="C45" t="n">
-        <v>0.964871</v>
+        <v>0.965551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.414559</v>
+        <v>0.403482</v>
       </c>
       <c r="E45" t="n">
-        <v>0.730271</v>
+        <v>0.730314</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.618525</v>
+        <v>0.633988</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9753039999999999</v>
+        <v>0.939237</v>
       </c>
       <c r="D46" t="n">
-        <v>0.383283</v>
+        <v>0.401655</v>
       </c>
       <c r="E46" t="n">
-        <v>0.730823</v>
+        <v>0.735361</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.629488</v>
+        <v>0.660462</v>
       </c>
       <c r="C47" t="n">
-        <v>0.966898</v>
+        <v>0.9436600000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.369774</v>
+        <v>0.380213</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7312920000000001</v>
+        <v>0.734015</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.590849</v>
+        <v>0.625112</v>
       </c>
       <c r="C48" t="n">
-        <v>0.96335</v>
+        <v>0.940675</v>
       </c>
       <c r="D48" t="n">
-        <v>0.357019</v>
+        <v>0.358546</v>
       </c>
       <c r="E48" t="n">
-        <v>0.713898</v>
+        <v>0.72374</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.580475</v>
+        <v>0.595618</v>
       </c>
       <c r="C49" t="n">
-        <v>0.956267</v>
+        <v>0.934905</v>
       </c>
       <c r="D49" t="n">
-        <v>0.345496</v>
+        <v>0.362969</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7024629999999999</v>
+        <v>0.7102889999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.572705</v>
+        <v>0.569925</v>
       </c>
       <c r="C50" t="n">
-        <v>1.50758</v>
+        <v>1.5067</v>
       </c>
       <c r="D50" t="n">
-        <v>0.339808</v>
+        <v>0.339477</v>
       </c>
       <c r="E50" t="n">
-        <v>0.699428</v>
+        <v>0.710056</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.561162</v>
+        <v>0.582919</v>
       </c>
       <c r="C51" t="n">
-        <v>1.48177</v>
+        <v>1.45211</v>
       </c>
       <c r="D51" t="n">
-        <v>0.58709</v>
+        <v>0.616184</v>
       </c>
       <c r="E51" t="n">
-        <v>1.07509</v>
+        <v>1.10586</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575493</v>
+        <v>0.556329</v>
       </c>
       <c r="C52" t="n">
-        <v>1.53299</v>
+        <v>1.4207</v>
       </c>
       <c r="D52" t="n">
-        <v>0.575983</v>
+        <v>0.581707</v>
       </c>
       <c r="E52" t="n">
-        <v>1.04914</v>
+        <v>1.11196</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.801027</v>
+        <v>0.81624</v>
       </c>
       <c r="C53" t="n">
-        <v>1.42606</v>
+        <v>1.42251</v>
       </c>
       <c r="D53" t="n">
-        <v>0.564515</v>
+        <v>0.579543</v>
       </c>
       <c r="E53" t="n">
-        <v>1.05132</v>
+        <v>1.04395</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.790591</v>
+        <v>0.801121</v>
       </c>
       <c r="C54" t="n">
-        <v>1.39297</v>
+        <v>1.40642</v>
       </c>
       <c r="D54" t="n">
-        <v>0.537447</v>
+        <v>0.5477030000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>1.01013</v>
+        <v>1.0555</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.77956</v>
+        <v>0.789665</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38545</v>
+        <v>1.43429</v>
       </c>
       <c r="D55" t="n">
-        <v>0.526115</v>
+        <v>0.529941</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0114</v>
+        <v>0.999728</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.757861</v>
+        <v>0.781682</v>
       </c>
       <c r="C56" t="n">
-        <v>1.36253</v>
+        <v>1.39424</v>
       </c>
       <c r="D56" t="n">
-        <v>0.506845</v>
+        <v>0.522466</v>
       </c>
       <c r="E56" t="n">
-        <v>1.01478</v>
+        <v>0.9896</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.746157</v>
+        <v>0.757745</v>
       </c>
       <c r="C57" t="n">
-        <v>1.37543</v>
+        <v>1.41836</v>
       </c>
       <c r="D57" t="n">
-        <v>0.491067</v>
+        <v>0.497327</v>
       </c>
       <c r="E57" t="n">
-        <v>0.978869</v>
+        <v>0.976405</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.744406</v>
+        <v>0.754398</v>
       </c>
       <c r="C58" t="n">
-        <v>1.37351</v>
+        <v>1.35058</v>
       </c>
       <c r="D58" t="n">
-        <v>0.516653</v>
+        <v>0.493115</v>
       </c>
       <c r="E58" t="n">
-        <v>0.989364</v>
+        <v>0.973477</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.72041</v>
+        <v>0.733498</v>
       </c>
       <c r="C59" t="n">
-        <v>1.34919</v>
+        <v>1.41612</v>
       </c>
       <c r="D59" t="n">
-        <v>0.467504</v>
+        <v>0.472751</v>
       </c>
       <c r="E59" t="n">
-        <v>0.948071</v>
+        <v>0.9476599999999999</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.713535</v>
+        <v>0.71207</v>
       </c>
       <c r="C60" t="n">
-        <v>1.34572</v>
+        <v>1.39295</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451849</v>
+        <v>0.458994</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9272010000000001</v>
+        <v>0.963318</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.700097</v>
+        <v>0.7318</v>
       </c>
       <c r="C61" t="n">
-        <v>1.34308</v>
+        <v>1.31079</v>
       </c>
       <c r="D61" t="n">
-        <v>0.441649</v>
+        <v>0.447145</v>
       </c>
       <c r="E61" t="n">
-        <v>0.913615</v>
+        <v>0.949746</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6885599999999999</v>
+        <v>0.709191</v>
       </c>
       <c r="C62" t="n">
-        <v>1.31996</v>
+        <v>1.39452</v>
       </c>
       <c r="D62" t="n">
-        <v>0.430217</v>
+        <v>0.440982</v>
       </c>
       <c r="E62" t="n">
-        <v>0.895932</v>
+        <v>0.934844</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.675774</v>
+        <v>0.690099</v>
       </c>
       <c r="C63" t="n">
-        <v>1.33987</v>
+        <v>1.4081</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433828</v>
+        <v>0.427468</v>
       </c>
       <c r="E63" t="n">
-        <v>0.910385</v>
+        <v>0.914283</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.681978</v>
+        <v>0.6866950000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>2.40452</v>
+        <v>2.42455</v>
       </c>
       <c r="D64" t="n">
-        <v>0.420339</v>
+        <v>0.420837</v>
       </c>
       <c r="E64" t="n">
-        <v>0.893185</v>
+        <v>0.9190390000000001</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.66325</v>
+        <v>0.672065</v>
       </c>
       <c r="C65" t="n">
-        <v>2.32738</v>
+        <v>2.40678</v>
       </c>
       <c r="D65" t="n">
-        <v>0.402901</v>
+        <v>0.413941</v>
       </c>
       <c r="E65" t="n">
-        <v>0.88326</v>
+        <v>0.914087</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.657782</v>
+        <v>0.672386</v>
       </c>
       <c r="C66" t="n">
-        <v>2.30341</v>
+        <v>2.4338</v>
       </c>
       <c r="D66" t="n">
-        <v>0.693132</v>
+        <v>0.697543</v>
       </c>
       <c r="E66" t="n">
-        <v>1.5283</v>
+        <v>1.65849</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.92519</v>
+        <v>0.971307</v>
       </c>
       <c r="C67" t="n">
-        <v>2.29806</v>
+        <v>2.35052</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6505030000000001</v>
+        <v>0.665729</v>
       </c>
       <c r="E67" t="n">
-        <v>1.54531</v>
+        <v>1.56987</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.909733</v>
+        <v>0.925918</v>
       </c>
       <c r="C68" t="n">
-        <v>2.19555</v>
+        <v>2.31807</v>
       </c>
       <c r="D68" t="n">
-        <v>0.630518</v>
+        <v>0.628932</v>
       </c>
       <c r="E68" t="n">
-        <v>1.5152</v>
+        <v>1.51274</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.974467</v>
+        <v>0.934037</v>
       </c>
       <c r="C69" t="n">
-        <v>2.21266</v>
+        <v>2.23755</v>
       </c>
       <c r="D69" t="n">
-        <v>0.616603</v>
+        <v>0.6166700000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>1.43726</v>
+        <v>1.4289</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8788280000000001</v>
+        <v>0.87729</v>
       </c>
       <c r="C70" t="n">
-        <v>2.13416</v>
+        <v>2.13243</v>
       </c>
       <c r="D70" t="n">
-        <v>0.595043</v>
+        <v>0.617904</v>
       </c>
       <c r="E70" t="n">
-        <v>1.42929</v>
+        <v>1.44304</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.864128</v>
+        <v>0.865157</v>
       </c>
       <c r="C71" t="n">
-        <v>2.11178</v>
+        <v>2.19303</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5789069999999999</v>
+        <v>0.601572</v>
       </c>
       <c r="E71" t="n">
-        <v>1.39598</v>
+        <v>1.42522</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.85031</v>
+        <v>0.866065</v>
       </c>
       <c r="C72" t="n">
-        <v>2.14659</v>
+        <v>2.14281</v>
       </c>
       <c r="D72" t="n">
-        <v>0.561818</v>
+        <v>0.570986</v>
       </c>
       <c r="E72" t="n">
-        <v>1.3702</v>
+        <v>1.36144</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.835286</v>
+        <v>0.86044</v>
       </c>
       <c r="C73" t="n">
-        <v>2.06158</v>
+        <v>2.09188</v>
       </c>
       <c r="D73" t="n">
-        <v>0.548596</v>
+        <v>0.558478</v>
       </c>
       <c r="E73" t="n">
-        <v>1.40878</v>
+        <v>1.33312</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.832222</v>
+        <v>0.8354</v>
       </c>
       <c r="C74" t="n">
-        <v>2.18285</v>
+        <v>2.0956</v>
       </c>
       <c r="D74" t="n">
-        <v>0.559017</v>
+        <v>0.536707</v>
       </c>
       <c r="E74" t="n">
-        <v>1.29166</v>
+        <v>1.3103</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8168800000000001</v>
+        <v>0.81011</v>
       </c>
       <c r="C75" t="n">
-        <v>2.04814</v>
+        <v>2.11214</v>
       </c>
       <c r="D75" t="n">
-        <v>0.525802</v>
+        <v>0.527168</v>
       </c>
       <c r="E75" t="n">
-        <v>1.30105</v>
+        <v>1.28287</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.805986</v>
+        <v>0.8083979999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>2.03782</v>
+        <v>2.07302</v>
       </c>
       <c r="D76" t="n">
-        <v>0.519537</v>
+        <v>0.522479</v>
       </c>
       <c r="E76" t="n">
-        <v>1.28042</v>
+        <v>1.27205</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.797529</v>
+        <v>0.822124</v>
       </c>
       <c r="C77" t="n">
-        <v>2.0032</v>
+        <v>2.06702</v>
       </c>
       <c r="D77" t="n">
-        <v>0.506429</v>
+        <v>0.499836</v>
       </c>
       <c r="E77" t="n">
-        <v>1.2557</v>
+        <v>1.27205</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.787597</v>
+        <v>0.788034</v>
       </c>
       <c r="C78" t="n">
-        <v>3.3651</v>
+        <v>3.52237</v>
       </c>
       <c r="D78" t="n">
-        <v>0.496795</v>
+        <v>0.512981</v>
       </c>
       <c r="E78" t="n">
-        <v>1.2253</v>
+        <v>1.24282</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.772242</v>
+        <v>0.764528</v>
       </c>
       <c r="C79" t="n">
-        <v>3.2815</v>
+        <v>3.36087</v>
       </c>
       <c r="D79" t="n">
-        <v>0.48464</v>
+        <v>0.493569</v>
       </c>
       <c r="E79" t="n">
-        <v>1.20945</v>
+        <v>1.22861</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.764591</v>
+        <v>0.767019</v>
       </c>
       <c r="C80" t="n">
-        <v>3.23905</v>
+        <v>3.3022</v>
       </c>
       <c r="D80" t="n">
-        <v>0.777797</v>
+        <v>0.770425</v>
       </c>
       <c r="E80" t="n">
-        <v>2.151</v>
+        <v>2.19272</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0586</v>
+        <v>1.08113</v>
       </c>
       <c r="C81" t="n">
-        <v>3.19773</v>
+        <v>3.31438</v>
       </c>
       <c r="D81" t="n">
-        <v>0.758563</v>
+        <v>0.754996</v>
       </c>
       <c r="E81" t="n">
-        <v>2.07608</v>
+        <v>2.12957</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05614</v>
+        <v>1.05962</v>
       </c>
       <c r="C82" t="n">
-        <v>3.15964</v>
+        <v>3.1352</v>
       </c>
       <c r="D82" t="n">
-        <v>0.732083</v>
+        <v>0.764419</v>
       </c>
       <c r="E82" t="n">
-        <v>2.00508</v>
+        <v>2.06982</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.07381</v>
+        <v>1.03611</v>
       </c>
       <c r="C83" t="n">
-        <v>3.02064</v>
+        <v>3.18178</v>
       </c>
       <c r="D83" t="n">
-        <v>0.718299</v>
+        <v>0.732453</v>
       </c>
       <c r="E83" t="n">
-        <v>1.96438</v>
+        <v>2.0376</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.01202</v>
+        <v>1.02021</v>
       </c>
       <c r="C84" t="n">
-        <v>3.00824</v>
+        <v>3.12022</v>
       </c>
       <c r="D84" t="n">
-        <v>0.700183</v>
+        <v>0.728285</v>
       </c>
       <c r="E84" t="n">
-        <v>1.94352</v>
+        <v>1.96977</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.997106</v>
+        <v>1.02135</v>
       </c>
       <c r="C85" t="n">
-        <v>2.91259</v>
+        <v>2.9838</v>
       </c>
       <c r="D85" t="n">
-        <v>0.714237</v>
+        <v>0.7045090000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>1.86748</v>
+        <v>1.93676</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01693</v>
+        <v>0.994957</v>
       </c>
       <c r="C86" t="n">
-        <v>2.8864</v>
+        <v>2.97305</v>
       </c>
       <c r="D86" t="n">
-        <v>0.697594</v>
+        <v>0.677878</v>
       </c>
       <c r="E86" t="n">
-        <v>1.86054</v>
+        <v>1.9012</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.96726</v>
+        <v>0.978621</v>
       </c>
       <c r="C87" t="n">
-        <v>2.9313</v>
+        <v>2.85953</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6587229999999999</v>
+        <v>0.6660740000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>1.78523</v>
+        <v>1.79944</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.971159</v>
+        <v>0.997217</v>
       </c>
       <c r="C88" t="n">
-        <v>2.89175</v>
+        <v>2.77684</v>
       </c>
       <c r="D88" t="n">
-        <v>0.64697</v>
+        <v>0.654855</v>
       </c>
       <c r="E88" t="n">
-        <v>1.7564</v>
+        <v>1.75838</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.943307</v>
+        <v>0.936316</v>
       </c>
       <c r="C89" t="n">
-        <v>2.84678</v>
+        <v>2.78464</v>
       </c>
       <c r="D89" t="n">
-        <v>0.63257</v>
+        <v>0.630008</v>
       </c>
       <c r="E89" t="n">
-        <v>1.71895</v>
+        <v>1.7457</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.928338</v>
+        <v>0.957488</v>
       </c>
       <c r="C90" t="n">
-        <v>2.84599</v>
+        <v>2.90016</v>
       </c>
       <c r="D90" t="n">
-        <v>0.620741</v>
+        <v>0.649814</v>
       </c>
       <c r="E90" t="n">
-        <v>1.67161</v>
+        <v>1.73074</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.919656</v>
+        <v>0.954082</v>
       </c>
       <c r="C91" t="n">
-        <v>2.77744</v>
+        <v>2.68792</v>
       </c>
       <c r="D91" t="n">
-        <v>0.606701</v>
+        <v>0.606604</v>
       </c>
       <c r="E91" t="n">
-        <v>1.64231</v>
+        <v>1.64027</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.93021</v>
+        <v>0.900142</v>
       </c>
       <c r="C92" t="n">
-        <v>3.91228</v>
+        <v>3.93071</v>
       </c>
       <c r="D92" t="n">
-        <v>0.639176</v>
+        <v>0.5998</v>
       </c>
       <c r="E92" t="n">
-        <v>1.66071</v>
+        <v>1.62574</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.945172</v>
+        <v>0.907717</v>
       </c>
       <c r="C93" t="n">
-        <v>3.78178</v>
+        <v>3.84053</v>
       </c>
       <c r="D93" t="n">
-        <v>0.589815</v>
+        <v>0.608056</v>
       </c>
       <c r="E93" t="n">
-        <v>1.56801</v>
+        <v>1.57883</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.894394</v>
+        <v>0.908342</v>
       </c>
       <c r="C94" t="n">
-        <v>3.70603</v>
+        <v>3.87552</v>
       </c>
       <c r="D94" t="n">
-        <v>0.895578</v>
+        <v>0.929289</v>
       </c>
       <c r="E94" t="n">
-        <v>2.59092</v>
+        <v>2.64239</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.21914</v>
+        <v>1.2558</v>
       </c>
       <c r="C95" t="n">
-        <v>3.61537</v>
+        <v>3.63224</v>
       </c>
       <c r="D95" t="n">
-        <v>0.884572</v>
+        <v>0.86914</v>
       </c>
       <c r="E95" t="n">
-        <v>2.53319</v>
+        <v>2.57852</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18467</v>
+        <v>1.18608</v>
       </c>
       <c r="C96" t="n">
-        <v>3.56918</v>
+        <v>3.53236</v>
       </c>
       <c r="D96" t="n">
-        <v>0.87804</v>
+        <v>0.881935</v>
       </c>
       <c r="E96" t="n">
-        <v>2.48761</v>
+        <v>2.55367</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17635</v>
+        <v>1.18625</v>
       </c>
       <c r="C97" t="n">
-        <v>3.58665</v>
+        <v>3.57321</v>
       </c>
       <c r="D97" t="n">
-        <v>0.830483</v>
+        <v>0.860436</v>
       </c>
       <c r="E97" t="n">
-        <v>2.4008</v>
+        <v>2.45166</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.15459</v>
+        <v>1.1355</v>
       </c>
       <c r="C98" t="n">
-        <v>3.42677</v>
+        <v>3.46953</v>
       </c>
       <c r="D98" t="n">
-        <v>0.833892</v>
+        <v>0.8276289999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>2.3729</v>
+        <v>2.54229</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14003</v>
+        <v>1.13127</v>
       </c>
       <c r="C99" t="n">
-        <v>3.44409</v>
+        <v>3.42154</v>
       </c>
       <c r="D99" t="n">
-        <v>0.830783</v>
+        <v>0.800712</v>
       </c>
       <c r="E99" t="n">
-        <v>2.31515</v>
+        <v>2.37276</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14603</v>
+        <v>1.11083</v>
       </c>
       <c r="C100" t="n">
-        <v>3.40026</v>
+        <v>3.39845</v>
       </c>
       <c r="D100" t="n">
-        <v>0.815523</v>
+        <v>0.799474</v>
       </c>
       <c r="E100" t="n">
-        <v>2.39433</v>
+        <v>2.28565</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13113</v>
+        <v>1.1261</v>
       </c>
       <c r="C101" t="n">
-        <v>3.30842</v>
+        <v>3.3314</v>
       </c>
       <c r="D101" t="n">
-        <v>0.789673</v>
+        <v>0.795552</v>
       </c>
       <c r="E101" t="n">
-        <v>2.23109</v>
+        <v>2.31163</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12592</v>
+        <v>1.11124</v>
       </c>
       <c r="C102" t="n">
-        <v>3.2328</v>
+        <v>3.34213</v>
       </c>
       <c r="D102" t="n">
-        <v>0.789735</v>
+        <v>0.7821630000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>2.15707</v>
+        <v>2.2468</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10925</v>
+        <v>1.09053</v>
       </c>
       <c r="C103" t="n">
-        <v>3.21568</v>
+        <v>3.21644</v>
       </c>
       <c r="D103" t="n">
-        <v>0.779374</v>
+        <v>0.769575</v>
       </c>
       <c r="E103" t="n">
-        <v>2.08626</v>
+        <v>2.15828</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08576</v>
+        <v>1.07796</v>
       </c>
       <c r="C104" t="n">
-        <v>3.15071</v>
+        <v>3.31344</v>
       </c>
       <c r="D104" t="n">
-        <v>0.768898</v>
+        <v>0.750208</v>
       </c>
       <c r="E104" t="n">
-        <v>2.06642</v>
+        <v>2.08165</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10294</v>
+        <v>1.05109</v>
       </c>
       <c r="C105" t="n">
-        <v>3.18302</v>
+        <v>3.11794</v>
       </c>
       <c r="D105" t="n">
-        <v>0.756055</v>
+        <v>0.745414</v>
       </c>
       <c r="E105" t="n">
-        <v>2.03206</v>
+        <v>2.04305</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09652</v>
+        <v>1.06949</v>
       </c>
       <c r="C106" t="n">
-        <v>3.11567</v>
+        <v>3.10595</v>
       </c>
       <c r="D106" t="n">
-        <v>0.727426</v>
+        <v>0.745175</v>
       </c>
       <c r="E106" t="n">
-        <v>1.96095</v>
+        <v>1.97737</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07529</v>
+        <v>1.04867</v>
       </c>
       <c r="C107" t="n">
-        <v>4.30476</v>
+        <v>4.24202</v>
       </c>
       <c r="D107" t="n">
-        <v>0.72983</v>
+        <v>0.7352880000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>1.94727</v>
+        <v>1.93568</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07331</v>
+        <v>1.06537</v>
       </c>
       <c r="C108" t="n">
-        <v>4.23777</v>
+        <v>4.17805</v>
       </c>
       <c r="D108" t="n">
-        <v>1.04573</v>
+        <v>1.03692</v>
       </c>
       <c r="E108" t="n">
-        <v>3.08656</v>
+        <v>3.1115</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06407</v>
+        <v>1.00082</v>
       </c>
       <c r="C109" t="n">
-        <v>4.16376</v>
+        <v>4.11343</v>
       </c>
       <c r="D109" t="n">
-        <v>1.03525</v>
+        <v>1.01136</v>
       </c>
       <c r="E109" t="n">
-        <v>3.01379</v>
+        <v>3.0458</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39364</v>
+        <v>1.32463</v>
       </c>
       <c r="C110" t="n">
-        <v>4.12504</v>
+        <v>4.03231</v>
       </c>
       <c r="D110" t="n">
-        <v>1.04615</v>
+        <v>1.05197</v>
       </c>
       <c r="E110" t="n">
-        <v>2.9489</v>
+        <v>3.00226</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37357</v>
+        <v>1.31952</v>
       </c>
       <c r="C111" t="n">
-        <v>3.96966</v>
+        <v>3.96621</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02224</v>
+        <v>1.0194</v>
       </c>
       <c r="E111" t="n">
-        <v>2.83549</v>
+        <v>2.92613</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33733</v>
+        <v>1.31112</v>
       </c>
       <c r="C112" t="n">
-        <v>3.89598</v>
+        <v>3.87369</v>
       </c>
       <c r="D112" t="n">
-        <v>1.01116</v>
+        <v>1.01828</v>
       </c>
       <c r="E112" t="n">
-        <v>2.80063</v>
+        <v>2.8023</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36764</v>
+        <v>1.34935</v>
       </c>
       <c r="C113" t="n">
-        <v>3.82895</v>
+        <v>3.78614</v>
       </c>
       <c r="D113" t="n">
-        <v>0.986558</v>
+        <v>0.993429</v>
       </c>
       <c r="E113" t="n">
-        <v>2.73692</v>
+        <v>2.77728</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.38676</v>
+        <v>1.29703</v>
       </c>
       <c r="C114" t="n">
-        <v>3.81353</v>
+        <v>3.72204</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05291</v>
+        <v>1.02171</v>
       </c>
       <c r="E114" t="n">
-        <v>2.70024</v>
+        <v>2.73085</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.34933</v>
+        <v>1.30046</v>
       </c>
       <c r="C115" t="n">
-        <v>3.77246</v>
+        <v>3.76438</v>
       </c>
       <c r="D115" t="n">
-        <v>0.985165</v>
+        <v>0.975918</v>
       </c>
       <c r="E115" t="n">
-        <v>2.59804</v>
+        <v>2.73082</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.33723</v>
+        <v>1.28066</v>
       </c>
       <c r="C116" t="n">
-        <v>3.68894</v>
+        <v>3.70913</v>
       </c>
       <c r="D116" t="n">
-        <v>0.96199</v>
+        <v>0.9780219999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>2.52823</v>
+        <v>2.59907</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.32759</v>
+        <v>1.2728</v>
       </c>
       <c r="C117" t="n">
-        <v>3.68938</v>
+        <v>3.66618</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9733619999999999</v>
+        <v>0.97143</v>
       </c>
       <c r="E117" t="n">
-        <v>2.47693</v>
+        <v>2.53963</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.30107</v>
+        <v>1.24331</v>
       </c>
       <c r="C118" t="n">
-        <v>3.64258</v>
+        <v>3.62937</v>
       </c>
       <c r="D118" t="n">
-        <v>0.976776</v>
+        <v>0.945613</v>
       </c>
       <c r="E118" t="n">
-        <v>2.45089</v>
+        <v>2.55904</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.3109</v>
+        <v>1.23916</v>
       </c>
       <c r="C119" t="n">
-        <v>3.64504</v>
+        <v>3.56423</v>
       </c>
       <c r="D119" t="n">
-        <v>0.963243</v>
+        <v>0.974506</v>
       </c>
       <c r="E119" t="n">
-        <v>2.42491</v>
+        <v>2.48177</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32769</v>
+        <v>1.26554</v>
       </c>
       <c r="C120" t="n">
-        <v>3.60264</v>
+        <v>3.55339</v>
       </c>
       <c r="D120" t="n">
-        <v>0.956166</v>
+        <v>0.9485789999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>2.39758</v>
+        <v>2.4027</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29424</v>
+        <v>1.23533</v>
       </c>
       <c r="C121" t="n">
-        <v>4.87949</v>
+        <v>4.84702</v>
       </c>
       <c r="D121" t="n">
-        <v>0.947879</v>
+        <v>0.944067</v>
       </c>
       <c r="E121" t="n">
-        <v>2.3556</v>
+        <v>2.39925</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31307</v>
+        <v>1.2389</v>
       </c>
       <c r="C122" t="n">
-        <v>4.78256</v>
+        <v>4.74703</v>
       </c>
       <c r="D122" t="n">
-        <v>0.925292</v>
+        <v>0.924612</v>
       </c>
       <c r="E122" t="n">
-        <v>2.28857</v>
+        <v>2.36611</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.29828</v>
+        <v>1.19774</v>
       </c>
       <c r="C123" t="n">
-        <v>4.68034</v>
+        <v>4.72562</v>
       </c>
       <c r="D123" t="n">
-        <v>1.26517</v>
+        <v>1.2791</v>
       </c>
       <c r="E123" t="n">
-        <v>3.50668</v>
+        <v>3.56125</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.6189</v>
+        <v>1.51618</v>
       </c>
       <c r="C124" t="n">
-        <v>4.61418</v>
+        <v>4.56842</v>
       </c>
       <c r="D124" t="n">
-        <v>1.26263</v>
+        <v>1.26377</v>
       </c>
       <c r="E124" t="n">
-        <v>3.47356</v>
+        <v>3.49395</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.59597</v>
+        <v>1.50493</v>
       </c>
       <c r="C125" t="n">
-        <v>4.54625</v>
+        <v>4.44445</v>
       </c>
       <c r="D125" t="n">
-        <v>1.23863</v>
+        <v>1.27864</v>
       </c>
       <c r="E125" t="n">
-        <v>3.33043</v>
+        <v>3.37684</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.61164</v>
+        <v>1.50097</v>
       </c>
       <c r="C126" t="n">
-        <v>4.46784</v>
+        <v>4.33285</v>
       </c>
       <c r="D126" t="n">
-        <v>1.2552</v>
+        <v>1.25844</v>
       </c>
       <c r="E126" t="n">
-        <v>3.27359</v>
+        <v>3.2916</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.59864</v>
+        <v>1.50597</v>
       </c>
       <c r="C127" t="n">
-        <v>4.39275</v>
+        <v>4.32334</v>
       </c>
       <c r="D127" t="n">
-        <v>1.26228</v>
+        <v>1.25661</v>
       </c>
       <c r="E127" t="n">
-        <v>3.16432</v>
+        <v>3.22182</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.60206</v>
+        <v>1.5126</v>
       </c>
       <c r="C128" t="n">
-        <v>4.33177</v>
+        <v>4.24792</v>
       </c>
       <c r="D128" t="n">
-        <v>1.25993</v>
+        <v>1.2579</v>
       </c>
       <c r="E128" t="n">
-        <v>3.12257</v>
+        <v>3.21153</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.61022</v>
+        <v>1.51778</v>
       </c>
       <c r="C129" t="n">
-        <v>4.30196</v>
+        <v>4.17938</v>
       </c>
       <c r="D129" t="n">
-        <v>1.27335</v>
+        <v>1.25654</v>
       </c>
       <c r="E129" t="n">
-        <v>3.13465</v>
+        <v>3.13681</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.61995</v>
+        <v>1.48648</v>
       </c>
       <c r="C130" t="n">
-        <v>4.2421</v>
+        <v>4.15039</v>
       </c>
       <c r="D130" t="n">
-        <v>1.28153</v>
+        <v>1.24593</v>
       </c>
       <c r="E130" t="n">
-        <v>3.00033</v>
+        <v>3.06271</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.60287</v>
+        <v>1.47688</v>
       </c>
       <c r="C131" t="n">
-        <v>4.19812</v>
+        <v>4.08364</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25987</v>
+        <v>1.2696</v>
       </c>
       <c r="E131" t="n">
-        <v>2.96753</v>
+        <v>2.9843</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.57698</v>
+        <v>1.49485</v>
       </c>
       <c r="C132" t="n">
-        <v>4.16503</v>
+        <v>4.06033</v>
       </c>
       <c r="D132" t="n">
-        <v>1.24423</v>
+        <v>1.24302</v>
       </c>
       <c r="E132" t="n">
-        <v>2.88756</v>
+        <v>2.92332</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.59384</v>
+        <v>1.4923</v>
       </c>
       <c r="C133" t="n">
-        <v>4.13573</v>
+        <v>4.06147</v>
       </c>
       <c r="D133" t="n">
-        <v>1.2479</v>
+        <v>1.24774</v>
       </c>
       <c r="E133" t="n">
-        <v>2.85002</v>
+        <v>2.85902</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.60199</v>
+        <v>1.69398</v>
       </c>
       <c r="C134" t="n">
-        <v>4.09064</v>
+        <v>4.02348</v>
       </c>
       <c r="D134" t="n">
-        <v>1.2493</v>
+        <v>1.23471</v>
       </c>
       <c r="E134" t="n">
-        <v>2.78553</v>
+        <v>2.8338</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.591</v>
+        <v>1.48906</v>
       </c>
       <c r="C135" t="n">
-        <v>5.60267</v>
+        <v>5.56416</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24348</v>
+        <v>1.25839</v>
       </c>
       <c r="E135" t="n">
-        <v>2.74783</v>
+        <v>2.78675</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.59755</v>
+        <v>1.45454</v>
       </c>
       <c r="C136" t="n">
-        <v>5.50429</v>
+        <v>5.3708</v>
       </c>
       <c r="D136" t="n">
-        <v>1.28463</v>
+        <v>1.25838</v>
       </c>
       <c r="E136" t="n">
-        <v>2.74215</v>
+        <v>2.76919</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.60618</v>
+        <v>1.50964</v>
       </c>
       <c r="C137" t="n">
-        <v>5.39625</v>
+        <v>5.30187</v>
       </c>
       <c r="D137" t="n">
-        <v>1.6108</v>
+        <v>1.57895</v>
       </c>
       <c r="E137" t="n">
-        <v>4.05589</v>
+        <v>4.1003</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.89673</v>
+        <v>1.78</v>
       </c>
       <c r="C138" t="n">
-        <v>5.31152</v>
+        <v>5.18755</v>
       </c>
       <c r="D138" t="n">
-        <v>1.56746</v>
+        <v>1.59952</v>
       </c>
       <c r="E138" t="n">
-        <v>4.01445</v>
+        <v>4.04529</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.93725</v>
+        <v>1.7947</v>
       </c>
       <c r="C139" t="n">
-        <v>5.21014</v>
+        <v>5.13007</v>
       </c>
       <c r="D139" t="n">
-        <v>1.59551</v>
+        <v>1.60571</v>
       </c>
       <c r="E139" t="n">
-        <v>3.87221</v>
+        <v>3.96189</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.91965</v>
+        <v>1.80365</v>
       </c>
       <c r="C140" t="n">
-        <v>5.09431</v>
+        <v>5.04842</v>
       </c>
       <c r="D140" t="n">
-        <v>1.59396</v>
+        <v>1.58761</v>
       </c>
       <c r="E140" t="n">
-        <v>3.79535</v>
+        <v>3.85921</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.93502</v>
+        <v>1.816</v>
       </c>
       <c r="C141" t="n">
-        <v>5.11559</v>
+        <v>4.94201</v>
       </c>
       <c r="D141" t="n">
-        <v>1.6126</v>
+        <v>1.59556</v>
       </c>
       <c r="E141" t="n">
-        <v>3.73172</v>
+        <v>3.80259</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.92031</v>
+        <v>1.78316</v>
       </c>
       <c r="C142" t="n">
-        <v>4.97583</v>
+        <v>4.88003</v>
       </c>
       <c r="D142" t="n">
-        <v>1.60275</v>
+        <v>1.61924</v>
       </c>
       <c r="E142" t="n">
-        <v>3.66385</v>
+        <v>3.68898</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.93314</v>
+        <v>1.77407</v>
       </c>
       <c r="C143" t="n">
-        <v>4.93247</v>
+        <v>4.80439</v>
       </c>
       <c r="D143" t="n">
-        <v>1.58893</v>
+        <v>1.61149</v>
       </c>
       <c r="E143" t="n">
-        <v>3.58645</v>
+        <v>3.63603</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484508</v>
+        <v>0.53439</v>
       </c>
       <c r="C2" t="n">
-        <v>0.767675</v>
+        <v>0.847723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213051</v>
+        <v>0.793086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6154539999999999</v>
+        <v>0.21731</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.590483</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.442186</v>
+        <v>0.416289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8144670000000001</v>
+        <v>0.845355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211858</v>
+        <v>0.760556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.636116</v>
+        <v>0.213759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.589771</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.417323</v>
+        <v>0.428726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8383969999999999</v>
+        <v>0.806418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213291</v>
+        <v>0.771806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.626013</v>
+        <v>0.209216</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.601467</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.417496</v>
+        <v>0.420874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.810311</v>
+        <v>0.813692</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201243</v>
+        <v>0.787311</v>
       </c>
       <c r="E5" t="n">
-        <v>0.660846</v>
+        <v>0.198627</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.586543</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.429363</v>
+        <v>0.433253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.799089</v>
+        <v>0.864827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202203</v>
+        <v>0.78401</v>
       </c>
       <c r="E6" t="n">
-        <v>0.624521</v>
+        <v>0.19661</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.591023</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.415232</v>
+        <v>0.41098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.939754</v>
+        <v>0.83026</v>
       </c>
       <c r="D7" t="n">
-        <v>0.196029</v>
+        <v>0.9380810000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.609494</v>
+        <v>0.196588</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.592328</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.403837</v>
+        <v>0.413073</v>
       </c>
       <c r="C8" t="n">
-        <v>0.931782</v>
+        <v>0.793832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193711</v>
+        <v>0.932772</v>
       </c>
       <c r="E8" t="n">
-        <v>0.623973</v>
+        <v>0.192202</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.60341</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.396009</v>
+        <v>0.399146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.941554</v>
+        <v>0.782604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.295064</v>
+        <v>0.907874</v>
       </c>
       <c r="E9" t="n">
-        <v>0.718091</v>
+        <v>0.279382</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6758420000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.484725</v>
+        <v>0.505999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.937643</v>
+        <v>0.897176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.270003</v>
+        <v>0.89793</v>
       </c>
       <c r="E10" t="n">
-        <v>0.695916</v>
+        <v>0.264843</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.735081</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.497076</v>
+        <v>0.483112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.919864</v>
+        <v>0.894189</v>
       </c>
       <c r="D11" t="n">
-        <v>0.268789</v>
+        <v>0.887731</v>
       </c>
       <c r="E11" t="n">
-        <v>0.693074</v>
+        <v>0.25562</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.645119</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.467183</v>
+        <v>0.464604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.856635</v>
+        <v>0.8468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248135</v>
+        <v>0.853117</v>
       </c>
       <c r="E12" t="n">
-        <v>0.671247</v>
+        <v>0.247687</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.640911</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.484609</v>
+        <v>0.452927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.854952</v>
+        <v>0.879781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24508</v>
+        <v>0.850707</v>
       </c>
       <c r="E13" t="n">
-        <v>0.661189</v>
+        <v>0.23491</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.618623</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.460996</v>
+        <v>0.462706</v>
       </c>
       <c r="C14" t="n">
-        <v>0.882522</v>
+        <v>0.825254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.235144</v>
+        <v>0.823982</v>
       </c>
       <c r="E14" t="n">
-        <v>0.654034</v>
+        <v>0.232174</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.636914</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449763</v>
+        <v>0.451195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.869822</v>
+        <v>0.827313</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226716</v>
+        <v>0.8308990000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.626606</v>
+        <v>0.220566</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.610997</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.442029</v>
+        <v>0.437416</v>
       </c>
       <c r="C16" t="n">
-        <v>0.805944</v>
+        <v>0.857185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22418</v>
+        <v>0.8088920000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.649747</v>
+        <v>0.226589</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.608233</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.423432</v>
+        <v>0.433059</v>
       </c>
       <c r="C17" t="n">
-        <v>0.831359</v>
+        <v>0.8063090000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210228</v>
+        <v>0.797119</v>
       </c>
       <c r="E17" t="n">
-        <v>0.616053</v>
+        <v>0.213824</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.605131</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.416687</v>
+        <v>0.435042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.798966</v>
+        <v>0.805765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.205319</v>
+        <v>0.798418</v>
       </c>
       <c r="E18" t="n">
-        <v>0.619678</v>
+        <v>0.204586</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.599033</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.415439</v>
+        <v>0.415561</v>
       </c>
       <c r="C19" t="n">
-        <v>0.822236</v>
+        <v>0.791282</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202038</v>
+        <v>0.783737</v>
       </c>
       <c r="E19" t="n">
-        <v>0.609761</v>
+        <v>0.198133</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.599485</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431645</v>
+        <v>0.417872</v>
       </c>
       <c r="C20" t="n">
-        <v>0.804212</v>
+        <v>0.79567</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19592</v>
+        <v>0.795364</v>
       </c>
       <c r="E20" t="n">
-        <v>0.600891</v>
+        <v>0.196074</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.616978</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42666</v>
+        <v>0.410103</v>
       </c>
       <c r="C21" t="n">
-        <v>0.967927</v>
+        <v>0.8062510000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.194095</v>
+        <v>0.953928</v>
       </c>
       <c r="E21" t="n">
-        <v>0.614498</v>
+        <v>0.196831</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.620368</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.401418</v>
+        <v>0.422863</v>
       </c>
       <c r="C22" t="n">
-        <v>0.962083</v>
+        <v>0.828369</v>
       </c>
       <c r="D22" t="n">
-        <v>0.194488</v>
+        <v>0.959431</v>
       </c>
       <c r="E22" t="n">
-        <v>0.607017</v>
+        <v>0.190168</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.609704</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.395376</v>
+        <v>0.413596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.934688</v>
+        <v>0.808078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448652</v>
+        <v>0.925804</v>
       </c>
       <c r="E23" t="n">
-        <v>0.691569</v>
+        <v>0.427388</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6853089999999999</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.641856</v>
+        <v>0.6588850000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.96796</v>
+        <v>0.896004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.427221</v>
+        <v>0.9174060000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6831469999999999</v>
+        <v>0.417501</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6850889999999999</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.628889</v>
+        <v>0.643421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.925834</v>
+        <v>0.88061</v>
       </c>
       <c r="D25" t="n">
-        <v>0.398153</v>
+        <v>0.911453</v>
       </c>
       <c r="E25" t="n">
-        <v>0.67495</v>
+        <v>0.410726</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.663988</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6123769999999999</v>
+        <v>0.6349590000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.936744</v>
+        <v>0.915548</v>
       </c>
       <c r="D26" t="n">
-        <v>0.388833</v>
+        <v>0.887002</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6644060000000001</v>
+        <v>0.397357</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.676282</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.603926</v>
+        <v>0.6033500000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.87865</v>
+        <v>0.867486</v>
       </c>
       <c r="D27" t="n">
-        <v>0.373274</v>
+        <v>0.8752450000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.681887</v>
+        <v>0.380712</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.644278</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.594188</v>
+        <v>0.602562</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8713419999999999</v>
+        <v>0.882391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.368584</v>
+        <v>0.873525</v>
       </c>
       <c r="E28" t="n">
-        <v>0.655081</v>
+        <v>0.356876</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.634002</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.575062</v>
+        <v>0.576256</v>
       </c>
       <c r="C29" t="n">
-        <v>0.888253</v>
+        <v>0.855228</v>
       </c>
       <c r="D29" t="n">
-        <v>0.345021</v>
+        <v>0.850164</v>
       </c>
       <c r="E29" t="n">
-        <v>0.640566</v>
+        <v>0.353081</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.662147</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.574852</v>
+        <v>0.566913</v>
       </c>
       <c r="C30" t="n">
-        <v>0.84762</v>
+        <v>0.846408</v>
       </c>
       <c r="D30" t="n">
-        <v>0.33464</v>
+        <v>0.85065</v>
       </c>
       <c r="E30" t="n">
-        <v>0.664729</v>
+        <v>0.337316</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.651245</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.577584</v>
+        <v>0.559066</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8448</v>
+        <v>0.836847</v>
       </c>
       <c r="D31" t="n">
-        <v>0.330307</v>
+        <v>0.842661</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6584140000000001</v>
+        <v>0.327357</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.645247</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.549975</v>
+        <v>0.55772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.850127</v>
+        <v>0.835047</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317524</v>
+        <v>0.854719</v>
       </c>
       <c r="E32" t="n">
-        <v>0.648208</v>
+        <v>0.324767</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6318319999999999</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.534985</v>
+        <v>0.53732</v>
       </c>
       <c r="C33" t="n">
-        <v>0.839291</v>
+        <v>0.8191079999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.302379</v>
+        <v>0.828647</v>
       </c>
       <c r="E33" t="n">
-        <v>0.62109</v>
+        <v>0.301103</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.611017</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.527983</v>
+        <v>0.536087</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8592689999999999</v>
+        <v>0.83379</v>
       </c>
       <c r="D34" t="n">
-        <v>0.30487</v>
+        <v>0.828896</v>
       </c>
       <c r="E34" t="n">
-        <v>0.619599</v>
+        <v>0.296804</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.603905</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.533232</v>
+        <v>0.535962</v>
       </c>
       <c r="C35" t="n">
-        <v>1.065</v>
+        <v>0.830809</v>
       </c>
       <c r="D35" t="n">
-        <v>0.295244</v>
+        <v>1.06881</v>
       </c>
       <c r="E35" t="n">
-        <v>0.62005</v>
+        <v>0.292428</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.601563</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.504771</v>
+        <v>0.515293</v>
       </c>
       <c r="C36" t="n">
-        <v>1.05758</v>
+        <v>0.824995</v>
       </c>
       <c r="D36" t="n">
-        <v>0.290266</v>
+        <v>1.06507</v>
       </c>
       <c r="E36" t="n">
-        <v>0.638863</v>
+        <v>0.283885</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.606573</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.496742</v>
+        <v>0.523742</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02978</v>
+        <v>0.809095</v>
       </c>
       <c r="D37" t="n">
-        <v>0.536327</v>
+        <v>1.04135</v>
       </c>
       <c r="E37" t="n">
-        <v>0.825778</v>
+        <v>0.527093</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8562959999999999</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.763149</v>
+        <v>0.764755</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00892</v>
+        <v>1.05642</v>
       </c>
       <c r="D38" t="n">
-        <v>0.512872</v>
+        <v>1.0166</v>
       </c>
       <c r="E38" t="n">
-        <v>0.821101</v>
+        <v>0.512794</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.808691</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.749347</v>
+        <v>0.741814</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08754</v>
+        <v>1.0564</v>
       </c>
       <c r="D39" t="n">
-        <v>0.502537</v>
+        <v>1.03236</v>
       </c>
       <c r="E39" t="n">
-        <v>0.846845</v>
+        <v>0.49769</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8290419999999999</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.709472</v>
+        <v>0.72279</v>
       </c>
       <c r="C40" t="n">
-        <v>1.00357</v>
+        <v>1.06897</v>
       </c>
       <c r="D40" t="n">
-        <v>0.471452</v>
+        <v>1.00582</v>
       </c>
       <c r="E40" t="n">
-        <v>0.81768</v>
+        <v>0.472045</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.794257</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7056750000000001</v>
+        <v>0.708918</v>
       </c>
       <c r="C41" t="n">
-        <v>0.970581</v>
+        <v>1.06058</v>
       </c>
       <c r="D41" t="n">
-        <v>0.457304</v>
+        <v>0.997862</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7730050000000001</v>
+        <v>0.453509</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.793032</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.676697</v>
+        <v>0.723865</v>
       </c>
       <c r="C42" t="n">
-        <v>0.969045</v>
+        <v>1.10041</v>
       </c>
       <c r="D42" t="n">
-        <v>0.44167</v>
+        <v>0.986096</v>
       </c>
       <c r="E42" t="n">
-        <v>0.772455</v>
+        <v>0.437741</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.761527</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.661404</v>
+        <v>0.678063</v>
       </c>
       <c r="C43" t="n">
-        <v>0.988922</v>
+        <v>0.997076</v>
       </c>
       <c r="D43" t="n">
-        <v>0.442748</v>
+        <v>1.00045</v>
       </c>
       <c r="E43" t="n">
-        <v>0.763178</v>
+        <v>0.432146</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.753673</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.686562</v>
+        <v>0.674717</v>
       </c>
       <c r="C44" t="n">
-        <v>0.948776</v>
+        <v>1.01275</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421088</v>
+        <v>0.973173</v>
       </c>
       <c r="E44" t="n">
-        <v>0.762089</v>
+        <v>0.413733</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.735814</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.671418</v>
+        <v>0.659162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.965551</v>
+        <v>0.9915580000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.403482</v>
+        <v>0.956226</v>
       </c>
       <c r="E45" t="n">
-        <v>0.730314</v>
+        <v>0.395271</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.737958</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.633988</v>
+        <v>0.652448</v>
       </c>
       <c r="C46" t="n">
-        <v>0.939237</v>
+        <v>0.9938940000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.401655</v>
+        <v>0.968175</v>
       </c>
       <c r="E46" t="n">
-        <v>0.735361</v>
+        <v>0.379337</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.726674</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.660462</v>
+        <v>0.630772</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9436600000000001</v>
+        <v>1.00275</v>
       </c>
       <c r="D47" t="n">
-        <v>0.380213</v>
+        <v>0.961024</v>
       </c>
       <c r="E47" t="n">
-        <v>0.734015</v>
+        <v>0.377398</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.731664</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.625112</v>
+        <v>0.611364</v>
       </c>
       <c r="C48" t="n">
-        <v>0.940675</v>
+        <v>0.9897089999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.358546</v>
+        <v>0.986022</v>
       </c>
       <c r="E48" t="n">
-        <v>0.72374</v>
+        <v>0.361311</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.737687</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.595618</v>
+        <v>0.635184</v>
       </c>
       <c r="C49" t="n">
-        <v>0.934905</v>
+        <v>0.967357</v>
       </c>
       <c r="D49" t="n">
-        <v>0.362969</v>
+        <v>0.957724</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7102889999999999</v>
+        <v>0.3617</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.74874</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.569925</v>
+        <v>0.623336</v>
       </c>
       <c r="C50" t="n">
-        <v>1.5067</v>
+        <v>0.979725</v>
       </c>
       <c r="D50" t="n">
-        <v>0.339477</v>
+        <v>1.51245</v>
       </c>
       <c r="E50" t="n">
-        <v>0.710056</v>
+        <v>0.347344</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7162770000000001</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.582919</v>
+        <v>0.588102</v>
       </c>
       <c r="C51" t="n">
-        <v>1.45211</v>
+        <v>0.989394</v>
       </c>
       <c r="D51" t="n">
-        <v>0.616184</v>
+        <v>1.5158</v>
       </c>
       <c r="E51" t="n">
-        <v>1.10586</v>
+        <v>0.600647</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.09947</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.556329</v>
+        <v>0.582081</v>
       </c>
       <c r="C52" t="n">
-        <v>1.4207</v>
+        <v>0.960099</v>
       </c>
       <c r="D52" t="n">
-        <v>0.581707</v>
+        <v>1.47646</v>
       </c>
       <c r="E52" t="n">
-        <v>1.11196</v>
+        <v>0.576425</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.08432</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.81624</v>
+        <v>0.878074</v>
       </c>
       <c r="C53" t="n">
-        <v>1.42251</v>
+        <v>1.41422</v>
       </c>
       <c r="D53" t="n">
-        <v>0.579543</v>
+        <v>1.46001</v>
       </c>
       <c r="E53" t="n">
-        <v>1.04395</v>
+        <v>0.5819299999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.04602</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.801121</v>
+        <v>0.836665</v>
       </c>
       <c r="C54" t="n">
-        <v>1.40642</v>
+        <v>1.36887</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5477030000000001</v>
+        <v>1.4196</v>
       </c>
       <c r="E54" t="n">
-        <v>1.0555</v>
+        <v>0.546114</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.02572</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.789665</v>
+        <v>0.84932</v>
       </c>
       <c r="C55" t="n">
-        <v>1.43429</v>
+        <v>1.38987</v>
       </c>
       <c r="D55" t="n">
-        <v>0.529941</v>
+        <v>1.40041</v>
       </c>
       <c r="E55" t="n">
-        <v>0.999728</v>
+        <v>0.530394</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.995019</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.781682</v>
+        <v>0.818831</v>
       </c>
       <c r="C56" t="n">
-        <v>1.39424</v>
+        <v>1.33734</v>
       </c>
       <c r="D56" t="n">
-        <v>0.522466</v>
+        <v>1.35975</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9896</v>
+        <v>0.51175</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0205</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.757745</v>
+        <v>0.816163</v>
       </c>
       <c r="C57" t="n">
-        <v>1.41836</v>
+        <v>1.33058</v>
       </c>
       <c r="D57" t="n">
-        <v>0.497327</v>
+        <v>1.45236</v>
       </c>
       <c r="E57" t="n">
-        <v>0.976405</v>
+        <v>0.496451</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.977344</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.754398</v>
+        <v>0.8179</v>
       </c>
       <c r="C58" t="n">
-        <v>1.35058</v>
+        <v>1.29353</v>
       </c>
       <c r="D58" t="n">
-        <v>0.493115</v>
+        <v>1.40717</v>
       </c>
       <c r="E58" t="n">
-        <v>0.973477</v>
+        <v>0.484477</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9767</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.733498</v>
+        <v>0.772783</v>
       </c>
       <c r="C59" t="n">
-        <v>1.41612</v>
+        <v>1.28036</v>
       </c>
       <c r="D59" t="n">
-        <v>0.472751</v>
+        <v>1.34245</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9476599999999999</v>
+        <v>0.469022</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.972046</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.71207</v>
+        <v>0.777677</v>
       </c>
       <c r="C60" t="n">
-        <v>1.39295</v>
+        <v>1.25377</v>
       </c>
       <c r="D60" t="n">
-        <v>0.458994</v>
+        <v>1.33838</v>
       </c>
       <c r="E60" t="n">
-        <v>0.963318</v>
+        <v>0.456891</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.95475</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7318</v>
+        <v>0.764819</v>
       </c>
       <c r="C61" t="n">
-        <v>1.31079</v>
+        <v>1.24475</v>
       </c>
       <c r="D61" t="n">
-        <v>0.447145</v>
+        <v>1.36881</v>
       </c>
       <c r="E61" t="n">
-        <v>0.949746</v>
+        <v>0.447987</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.927852</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.709191</v>
+        <v>0.747417</v>
       </c>
       <c r="C62" t="n">
-        <v>1.39452</v>
+        <v>1.2726</v>
       </c>
       <c r="D62" t="n">
-        <v>0.440982</v>
+        <v>1.343</v>
       </c>
       <c r="E62" t="n">
-        <v>0.934844</v>
+        <v>0.435036</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.937443</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.690099</v>
+        <v>0.7648160000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.4081</v>
+        <v>1.22938</v>
       </c>
       <c r="D63" t="n">
-        <v>0.427468</v>
+        <v>1.36323</v>
       </c>
       <c r="E63" t="n">
-        <v>0.914283</v>
+        <v>0.422865</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.917</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6866950000000001</v>
+        <v>0.724946</v>
       </c>
       <c r="C64" t="n">
-        <v>2.42455</v>
+        <v>1.23552</v>
       </c>
       <c r="D64" t="n">
-        <v>0.420837</v>
+        <v>2.44548</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9190390000000001</v>
+        <v>0.4121</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.889718</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.672065</v>
+        <v>0.724347</v>
       </c>
       <c r="C65" t="n">
-        <v>2.40678</v>
+        <v>1.23006</v>
       </c>
       <c r="D65" t="n">
-        <v>0.413941</v>
+        <v>2.37354</v>
       </c>
       <c r="E65" t="n">
-        <v>0.914087</v>
+        <v>0.429337</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.899653</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.672386</v>
+        <v>0.728405</v>
       </c>
       <c r="C66" t="n">
-        <v>2.4338</v>
+        <v>1.25575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.697543</v>
+        <v>2.28855</v>
       </c>
       <c r="E66" t="n">
-        <v>1.65849</v>
+        <v>0.667409</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.62589</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.971307</v>
+        <v>1.06008</v>
       </c>
       <c r="C67" t="n">
-        <v>2.35052</v>
+        <v>1.991</v>
       </c>
       <c r="D67" t="n">
-        <v>0.665729</v>
+        <v>2.32819</v>
       </c>
       <c r="E67" t="n">
-        <v>1.56987</v>
+        <v>0.649291</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.507</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.925918</v>
+        <v>1.00427</v>
       </c>
       <c r="C68" t="n">
-        <v>2.31807</v>
+        <v>1.91909</v>
       </c>
       <c r="D68" t="n">
-        <v>0.628932</v>
+        <v>2.17735</v>
       </c>
       <c r="E68" t="n">
-        <v>1.51274</v>
+        <v>0.628477</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.48423</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.934037</v>
+        <v>0.974351</v>
       </c>
       <c r="C69" t="n">
-        <v>2.23755</v>
+        <v>1.85682</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6166700000000001</v>
+        <v>2.20974</v>
       </c>
       <c r="E69" t="n">
-        <v>1.4289</v>
+        <v>0.625806</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.48372</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.87729</v>
+        <v>0.962449</v>
       </c>
       <c r="C70" t="n">
-        <v>2.13243</v>
+        <v>1.84796</v>
       </c>
       <c r="D70" t="n">
-        <v>0.617904</v>
+        <v>2.17686</v>
       </c>
       <c r="E70" t="n">
-        <v>1.44304</v>
+        <v>0.608067</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.45042</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.865157</v>
+        <v>0.954605</v>
       </c>
       <c r="C71" t="n">
-        <v>2.19303</v>
+        <v>1.80646</v>
       </c>
       <c r="D71" t="n">
-        <v>0.601572</v>
+        <v>2.14743</v>
       </c>
       <c r="E71" t="n">
-        <v>1.42522</v>
+        <v>0.581597</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.42736</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.866065</v>
+        <v>0.947642</v>
       </c>
       <c r="C72" t="n">
-        <v>2.14281</v>
+        <v>1.79356</v>
       </c>
       <c r="D72" t="n">
-        <v>0.570986</v>
+        <v>2.11644</v>
       </c>
       <c r="E72" t="n">
-        <v>1.36144</v>
+        <v>0.572813</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.37319</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.86044</v>
+        <v>0.928621</v>
       </c>
       <c r="C73" t="n">
-        <v>2.09188</v>
+        <v>1.76063</v>
       </c>
       <c r="D73" t="n">
-        <v>0.558478</v>
+        <v>2.10071</v>
       </c>
       <c r="E73" t="n">
-        <v>1.33312</v>
+        <v>0.546736</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.3805</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8354</v>
+        <v>0.918286</v>
       </c>
       <c r="C74" t="n">
-        <v>2.0956</v>
+        <v>1.72847</v>
       </c>
       <c r="D74" t="n">
-        <v>0.536707</v>
+        <v>2.11861</v>
       </c>
       <c r="E74" t="n">
-        <v>1.3103</v>
+        <v>0.584365</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.33389</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.81011</v>
+        <v>0.898633</v>
       </c>
       <c r="C75" t="n">
-        <v>2.11214</v>
+        <v>1.67833</v>
       </c>
       <c r="D75" t="n">
-        <v>0.527168</v>
+        <v>1.99662</v>
       </c>
       <c r="E75" t="n">
-        <v>1.28287</v>
+        <v>0.519966</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.30014</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8083979999999999</v>
+        <v>0.875744</v>
       </c>
       <c r="C76" t="n">
-        <v>2.07302</v>
+        <v>1.66077</v>
       </c>
       <c r="D76" t="n">
-        <v>0.522479</v>
+        <v>1.98643</v>
       </c>
       <c r="E76" t="n">
-        <v>1.27205</v>
+        <v>0.519097</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.29405</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.822124</v>
+        <v>0.861944</v>
       </c>
       <c r="C77" t="n">
-        <v>2.06702</v>
+        <v>1.61657</v>
       </c>
       <c r="D77" t="n">
-        <v>0.499836</v>
+        <v>2.02425</v>
       </c>
       <c r="E77" t="n">
-        <v>1.27205</v>
+        <v>0.500772</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.24817</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.788034</v>
+        <v>0.87498</v>
       </c>
       <c r="C78" t="n">
-        <v>3.52237</v>
+        <v>1.5986</v>
       </c>
       <c r="D78" t="n">
-        <v>0.512981</v>
+        <v>3.51194</v>
       </c>
       <c r="E78" t="n">
-        <v>1.24282</v>
+        <v>0.493018</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.25249</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.764528</v>
+        <v>0.845415</v>
       </c>
       <c r="C79" t="n">
-        <v>3.36087</v>
+        <v>1.62331</v>
       </c>
       <c r="D79" t="n">
-        <v>0.493569</v>
+        <v>3.28481</v>
       </c>
       <c r="E79" t="n">
-        <v>1.22861</v>
+        <v>0.482253</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.21379</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.767019</v>
+        <v>0.841278</v>
       </c>
       <c r="C80" t="n">
-        <v>3.3022</v>
+        <v>1.58842</v>
       </c>
       <c r="D80" t="n">
-        <v>0.770425</v>
+        <v>3.16759</v>
       </c>
       <c r="E80" t="n">
-        <v>2.19272</v>
+        <v>0.775356</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.14077</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08113</v>
+        <v>1.14539</v>
       </c>
       <c r="C81" t="n">
-        <v>3.31438</v>
+        <v>2.49982</v>
       </c>
       <c r="D81" t="n">
-        <v>0.754996</v>
+        <v>3.23554</v>
       </c>
       <c r="E81" t="n">
-        <v>2.12957</v>
+        <v>0.75513</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.07076</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05962</v>
+        <v>1.1195</v>
       </c>
       <c r="C82" t="n">
-        <v>3.1352</v>
+        <v>2.4857</v>
       </c>
       <c r="D82" t="n">
-        <v>0.764419</v>
+        <v>3.20355</v>
       </c>
       <c r="E82" t="n">
-        <v>2.06982</v>
+        <v>0.745653</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.08275</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.03611</v>
+        <v>1.09805</v>
       </c>
       <c r="C83" t="n">
-        <v>3.18178</v>
+        <v>2.42543</v>
       </c>
       <c r="D83" t="n">
-        <v>0.732453</v>
+        <v>3.03279</v>
       </c>
       <c r="E83" t="n">
-        <v>2.0376</v>
+        <v>0.762161</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.98119</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02021</v>
+        <v>1.10118</v>
       </c>
       <c r="C84" t="n">
-        <v>3.12022</v>
+        <v>2.32971</v>
       </c>
       <c r="D84" t="n">
-        <v>0.728285</v>
+        <v>2.94032</v>
       </c>
       <c r="E84" t="n">
-        <v>1.96977</v>
+        <v>0.699953</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.93075</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02135</v>
+        <v>1.06672</v>
       </c>
       <c r="C85" t="n">
-        <v>2.9838</v>
+        <v>2.30725</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7045090000000001</v>
+        <v>2.89795</v>
       </c>
       <c r="E85" t="n">
-        <v>1.93676</v>
+        <v>0.68828</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.84948</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.994957</v>
+        <v>1.09865</v>
       </c>
       <c r="C86" t="n">
-        <v>2.97305</v>
+        <v>2.29819</v>
       </c>
       <c r="D86" t="n">
-        <v>0.677878</v>
+        <v>2.87545</v>
       </c>
       <c r="E86" t="n">
-        <v>1.9012</v>
+        <v>0.683256</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.90173</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.978621</v>
+        <v>1.05333</v>
       </c>
       <c r="C87" t="n">
-        <v>2.85953</v>
+        <v>2.2615</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6660740000000001</v>
+        <v>2.84891</v>
       </c>
       <c r="E87" t="n">
-        <v>1.79944</v>
+        <v>0.697386</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.77681</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.997217</v>
+        <v>1.03025</v>
       </c>
       <c r="C88" t="n">
-        <v>2.77684</v>
+        <v>2.15065</v>
       </c>
       <c r="D88" t="n">
-        <v>0.654855</v>
+        <v>2.86523</v>
       </c>
       <c r="E88" t="n">
-        <v>1.75838</v>
+        <v>0.646226</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.7444</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.936316</v>
+        <v>1.01897</v>
       </c>
       <c r="C89" t="n">
-        <v>2.78464</v>
+        <v>2.13309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.630008</v>
+        <v>2.80386</v>
       </c>
       <c r="E89" t="n">
-        <v>1.7457</v>
+        <v>0.645653</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.74463</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.957488</v>
+        <v>0.9936430000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>2.90016</v>
+        <v>2.07794</v>
       </c>
       <c r="D90" t="n">
-        <v>0.649814</v>
+        <v>2.76663</v>
       </c>
       <c r="E90" t="n">
-        <v>1.73074</v>
+        <v>0.617579</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.66007</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.954082</v>
+        <v>0.989398</v>
       </c>
       <c r="C91" t="n">
-        <v>2.68792</v>
+        <v>2.04099</v>
       </c>
       <c r="D91" t="n">
-        <v>0.606604</v>
+        <v>2.64697</v>
       </c>
       <c r="E91" t="n">
-        <v>1.64027</v>
+        <v>0.616791</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.62771</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.900142</v>
+        <v>0.979257</v>
       </c>
       <c r="C92" t="n">
-        <v>3.93071</v>
+        <v>2.01478</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5998</v>
+        <v>3.90642</v>
       </c>
       <c r="E92" t="n">
-        <v>1.62574</v>
+        <v>0.610083</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.60063</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.907717</v>
+        <v>0.96293</v>
       </c>
       <c r="C93" t="n">
-        <v>3.84053</v>
+        <v>2.00563</v>
       </c>
       <c r="D93" t="n">
-        <v>0.608056</v>
+        <v>3.76725</v>
       </c>
       <c r="E93" t="n">
-        <v>1.57883</v>
+        <v>0.59962</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.60322</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.908342</v>
+        <v>0.943671</v>
       </c>
       <c r="C94" t="n">
-        <v>3.87552</v>
+        <v>1.93956</v>
       </c>
       <c r="D94" t="n">
-        <v>0.929289</v>
+        <v>3.65159</v>
       </c>
       <c r="E94" t="n">
-        <v>2.64239</v>
+        <v>0.913873</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.64117</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2558</v>
+        <v>1.25873</v>
       </c>
       <c r="C95" t="n">
-        <v>3.63224</v>
+        <v>3.06147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.86914</v>
+        <v>3.60459</v>
       </c>
       <c r="E95" t="n">
-        <v>2.57852</v>
+        <v>0.876889</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.5858</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18608</v>
+        <v>1.26032</v>
       </c>
       <c r="C96" t="n">
-        <v>3.53236</v>
+        <v>3.02877</v>
       </c>
       <c r="D96" t="n">
-        <v>0.881935</v>
+        <v>3.59153</v>
       </c>
       <c r="E96" t="n">
-        <v>2.55367</v>
+        <v>0.859691</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.52215</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.18625</v>
+        <v>1.25093</v>
       </c>
       <c r="C97" t="n">
-        <v>3.57321</v>
+        <v>2.89948</v>
       </c>
       <c r="D97" t="n">
-        <v>0.860436</v>
+        <v>3.48671</v>
       </c>
       <c r="E97" t="n">
-        <v>2.45166</v>
+        <v>0.877661</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.42135</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1355</v>
+        <v>1.26073</v>
       </c>
       <c r="C98" t="n">
-        <v>3.46953</v>
+        <v>2.82093</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8276289999999999</v>
+        <v>3.42311</v>
       </c>
       <c r="E98" t="n">
-        <v>2.54229</v>
+        <v>0.836962</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.37305</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.13127</v>
+        <v>1.22884</v>
       </c>
       <c r="C99" t="n">
-        <v>3.42154</v>
+        <v>2.75428</v>
       </c>
       <c r="D99" t="n">
-        <v>0.800712</v>
+        <v>3.33866</v>
       </c>
       <c r="E99" t="n">
-        <v>2.37276</v>
+        <v>0.8268219999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.35779</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11083</v>
+        <v>1.23318</v>
       </c>
       <c r="C100" t="n">
-        <v>3.39845</v>
+        <v>2.7674</v>
       </c>
       <c r="D100" t="n">
-        <v>0.799474</v>
+        <v>3.38075</v>
       </c>
       <c r="E100" t="n">
-        <v>2.28565</v>
+        <v>0.842812</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.32118</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1261</v>
+        <v>1.16908</v>
       </c>
       <c r="C101" t="n">
-        <v>3.3314</v>
+        <v>2.71413</v>
       </c>
       <c r="D101" t="n">
-        <v>0.795552</v>
+        <v>3.4339</v>
       </c>
       <c r="E101" t="n">
-        <v>2.31163</v>
+        <v>0.797588</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.30609</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.11124</v>
+        <v>1.17819</v>
       </c>
       <c r="C102" t="n">
-        <v>3.34213</v>
+        <v>2.6528</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7821630000000001</v>
+        <v>3.38448</v>
       </c>
       <c r="E102" t="n">
-        <v>2.2468</v>
+        <v>0.786023</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.19308</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09053</v>
+        <v>1.13157</v>
       </c>
       <c r="C103" t="n">
-        <v>3.21644</v>
+        <v>2.5802</v>
       </c>
       <c r="D103" t="n">
-        <v>0.769575</v>
+        <v>3.21606</v>
       </c>
       <c r="E103" t="n">
-        <v>2.15828</v>
+        <v>0.750648</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.10785</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07796</v>
+        <v>1.14974</v>
       </c>
       <c r="C104" t="n">
-        <v>3.31344</v>
+        <v>2.58601</v>
       </c>
       <c r="D104" t="n">
-        <v>0.750208</v>
+        <v>3.21991</v>
       </c>
       <c r="E104" t="n">
-        <v>2.08165</v>
+        <v>0.790384</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.06939</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05109</v>
+        <v>1.12774</v>
       </c>
       <c r="C105" t="n">
-        <v>3.11794</v>
+        <v>2.45318</v>
       </c>
       <c r="D105" t="n">
-        <v>0.745414</v>
+        <v>3.14685</v>
       </c>
       <c r="E105" t="n">
-        <v>2.04305</v>
+        <v>0.777399</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.04448</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06949</v>
+        <v>1.11749</v>
       </c>
       <c r="C106" t="n">
-        <v>3.10595</v>
+        <v>2.42979</v>
       </c>
       <c r="D106" t="n">
-        <v>0.745175</v>
+        <v>3.16717</v>
       </c>
       <c r="E106" t="n">
-        <v>1.97737</v>
+        <v>0.725658</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.01767</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.04867</v>
+        <v>1.09747</v>
       </c>
       <c r="C107" t="n">
-        <v>4.24202</v>
+        <v>2.41524</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7352880000000001</v>
+        <v>4.36119</v>
       </c>
       <c r="E107" t="n">
-        <v>1.93568</v>
+        <v>0.716965</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.96425</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.06537</v>
+        <v>1.08947</v>
       </c>
       <c r="C108" t="n">
-        <v>4.17805</v>
+        <v>2.35361</v>
       </c>
       <c r="D108" t="n">
-        <v>1.03692</v>
+        <v>4.20716</v>
       </c>
       <c r="E108" t="n">
-        <v>3.1115</v>
+        <v>1.03425</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.20698</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.00082</v>
+        <v>1.10273</v>
       </c>
       <c r="C109" t="n">
-        <v>4.11343</v>
+        <v>2.33529</v>
       </c>
       <c r="D109" t="n">
-        <v>1.01136</v>
+        <v>4.13339</v>
       </c>
       <c r="E109" t="n">
-        <v>3.0458</v>
+        <v>1.02217</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.1308</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.32463</v>
+        <v>1.43713</v>
       </c>
       <c r="C110" t="n">
-        <v>4.03231</v>
+        <v>3.50025</v>
       </c>
       <c r="D110" t="n">
-        <v>1.05197</v>
+        <v>4.01771</v>
       </c>
       <c r="E110" t="n">
-        <v>3.00226</v>
+        <v>1.01266</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.99758</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.31952</v>
+        <v>1.37407</v>
       </c>
       <c r="C111" t="n">
-        <v>3.96621</v>
+        <v>3.42195</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0194</v>
+        <v>3.94343</v>
       </c>
       <c r="E111" t="n">
-        <v>2.92613</v>
+        <v>0.998166</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.90024</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31112</v>
+        <v>1.35701</v>
       </c>
       <c r="C112" t="n">
-        <v>3.87369</v>
+        <v>3.35733</v>
       </c>
       <c r="D112" t="n">
-        <v>1.01828</v>
+        <v>4.01197</v>
       </c>
       <c r="E112" t="n">
-        <v>2.8023</v>
+        <v>1.02082</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.79772</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.34935</v>
+        <v>1.37447</v>
       </c>
       <c r="C113" t="n">
-        <v>3.78614</v>
+        <v>3.30776</v>
       </c>
       <c r="D113" t="n">
-        <v>0.993429</v>
+        <v>3.8098</v>
       </c>
       <c r="E113" t="n">
-        <v>2.77728</v>
+        <v>1.02451</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.75069</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29703</v>
+        <v>1.37699</v>
       </c>
       <c r="C114" t="n">
-        <v>3.72204</v>
+        <v>3.29101</v>
       </c>
       <c r="D114" t="n">
-        <v>1.02171</v>
+        <v>3.74814</v>
       </c>
       <c r="E114" t="n">
-        <v>2.73085</v>
+        <v>0.993587</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.6832</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.30046</v>
+        <v>1.32706</v>
       </c>
       <c r="C115" t="n">
-        <v>3.76438</v>
+        <v>3.16234</v>
       </c>
       <c r="D115" t="n">
-        <v>0.975918</v>
+        <v>3.73987</v>
       </c>
       <c r="E115" t="n">
-        <v>2.73082</v>
+        <v>0.983378</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.62656</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28066</v>
+        <v>1.32235</v>
       </c>
       <c r="C116" t="n">
-        <v>3.70913</v>
+        <v>3.12134</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9780219999999999</v>
+        <v>3.70402</v>
       </c>
       <c r="E116" t="n">
-        <v>2.59907</v>
+        <v>0.963738</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.64088</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.2728</v>
+        <v>1.3316</v>
       </c>
       <c r="C117" t="n">
-        <v>3.66618</v>
+        <v>3.0352</v>
       </c>
       <c r="D117" t="n">
-        <v>0.97143</v>
+        <v>3.62711</v>
       </c>
       <c r="E117" t="n">
-        <v>2.53963</v>
+        <v>0.9638409999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.54444</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.24331</v>
+        <v>1.31024</v>
       </c>
       <c r="C118" t="n">
-        <v>3.62937</v>
+        <v>3.01554</v>
       </c>
       <c r="D118" t="n">
-        <v>0.945613</v>
+        <v>3.59673</v>
       </c>
       <c r="E118" t="n">
-        <v>2.55904</v>
+        <v>0.958833</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.54265</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.23916</v>
+        <v>1.30231</v>
       </c>
       <c r="C119" t="n">
-        <v>3.56423</v>
+        <v>2.93438</v>
       </c>
       <c r="D119" t="n">
-        <v>0.974506</v>
+        <v>3.61277</v>
       </c>
       <c r="E119" t="n">
-        <v>2.48177</v>
+        <v>0.94828</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.43198</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.26554</v>
+        <v>1.28855</v>
       </c>
       <c r="C120" t="n">
-        <v>3.55339</v>
+        <v>2.88619</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9485789999999999</v>
+        <v>3.49539</v>
       </c>
       <c r="E120" t="n">
-        <v>2.4027</v>
+        <v>0.936097</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.44277</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.23533</v>
+        <v>1.29925</v>
       </c>
       <c r="C121" t="n">
-        <v>4.84702</v>
+        <v>2.87964</v>
       </c>
       <c r="D121" t="n">
-        <v>0.944067</v>
+        <v>4.84263</v>
       </c>
       <c r="E121" t="n">
-        <v>2.39925</v>
+        <v>0.914754</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.3714</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2389</v>
+        <v>1.30543</v>
       </c>
       <c r="C122" t="n">
-        <v>4.74703</v>
+        <v>2.81355</v>
       </c>
       <c r="D122" t="n">
-        <v>0.924612</v>
+        <v>4.78928</v>
       </c>
       <c r="E122" t="n">
-        <v>2.36611</v>
+        <v>0.932647</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.31969</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.19774</v>
+        <v>1.27206</v>
       </c>
       <c r="C123" t="n">
-        <v>4.72562</v>
+        <v>2.81253</v>
       </c>
       <c r="D123" t="n">
-        <v>1.2791</v>
+        <v>4.62504</v>
       </c>
       <c r="E123" t="n">
-        <v>3.56125</v>
+        <v>1.24431</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3.59458</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.51618</v>
+        <v>1.60777</v>
       </c>
       <c r="C124" t="n">
-        <v>4.56842</v>
+        <v>4.07894</v>
       </c>
       <c r="D124" t="n">
-        <v>1.26377</v>
+        <v>4.59379</v>
       </c>
       <c r="E124" t="n">
-        <v>3.49395</v>
+        <v>1.26319</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3.52254</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.50493</v>
+        <v>1.59838</v>
       </c>
       <c r="C125" t="n">
-        <v>4.44445</v>
+        <v>3.95669</v>
       </c>
       <c r="D125" t="n">
-        <v>1.27864</v>
+        <v>4.46983</v>
       </c>
       <c r="E125" t="n">
-        <v>3.37684</v>
+        <v>1.25664</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.42404</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.50097</v>
+        <v>1.61735</v>
       </c>
       <c r="C126" t="n">
-        <v>4.33285</v>
+        <v>3.91996</v>
       </c>
       <c r="D126" t="n">
-        <v>1.25844</v>
+        <v>4.42541</v>
       </c>
       <c r="E126" t="n">
-        <v>3.2916</v>
+        <v>1.25681</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.30553</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.50597</v>
+        <v>1.57679</v>
       </c>
       <c r="C127" t="n">
-        <v>4.32334</v>
+        <v>3.80705</v>
       </c>
       <c r="D127" t="n">
-        <v>1.25661</v>
+        <v>4.34206</v>
       </c>
       <c r="E127" t="n">
-        <v>3.22182</v>
+        <v>1.27743</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3.27658</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5126</v>
+        <v>1.59627</v>
       </c>
       <c r="C128" t="n">
-        <v>4.24792</v>
+        <v>3.78973</v>
       </c>
       <c r="D128" t="n">
-        <v>1.2579</v>
+        <v>4.28453</v>
       </c>
       <c r="E128" t="n">
-        <v>3.21153</v>
+        <v>1.25944</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.1916</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.51778</v>
+        <v>1.6158</v>
       </c>
       <c r="C129" t="n">
-        <v>4.17938</v>
+        <v>3.66451</v>
       </c>
       <c r="D129" t="n">
-        <v>1.25654</v>
+        <v>4.23638</v>
       </c>
       <c r="E129" t="n">
-        <v>3.13681</v>
+        <v>1.27584</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.11055</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.48648</v>
+        <v>1.55822</v>
       </c>
       <c r="C130" t="n">
-        <v>4.15039</v>
+        <v>3.61145</v>
       </c>
       <c r="D130" t="n">
-        <v>1.24593</v>
+        <v>4.16696</v>
       </c>
       <c r="E130" t="n">
-        <v>3.06271</v>
+        <v>1.24517</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.06928</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.47688</v>
+        <v>1.57484</v>
       </c>
       <c r="C131" t="n">
-        <v>4.08364</v>
+        <v>3.5502</v>
       </c>
       <c r="D131" t="n">
-        <v>1.2696</v>
+        <v>4.09762</v>
       </c>
       <c r="E131" t="n">
-        <v>2.9843</v>
+        <v>1.27252</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3.04025</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.49485</v>
+        <v>1.56566</v>
       </c>
       <c r="C132" t="n">
-        <v>4.06033</v>
+        <v>3.49199</v>
       </c>
       <c r="D132" t="n">
-        <v>1.24302</v>
+        <v>4.15534</v>
       </c>
       <c r="E132" t="n">
-        <v>2.92332</v>
+        <v>1.30118</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.96459</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.4923</v>
+        <v>1.5957</v>
       </c>
       <c r="C133" t="n">
-        <v>4.06147</v>
+        <v>3.40448</v>
       </c>
       <c r="D133" t="n">
-        <v>1.24774</v>
+        <v>4.09893</v>
       </c>
       <c r="E133" t="n">
-        <v>2.85902</v>
+        <v>1.26449</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.91416</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.69398</v>
+        <v>1.57993</v>
       </c>
       <c r="C134" t="n">
-        <v>4.02348</v>
+        <v>3.39528</v>
       </c>
       <c r="D134" t="n">
-        <v>1.23471</v>
+        <v>4.06716</v>
       </c>
       <c r="E134" t="n">
-        <v>2.8338</v>
+        <v>1.25174</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.84013</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.48906</v>
+        <v>1.56575</v>
       </c>
       <c r="C135" t="n">
-        <v>5.56416</v>
+        <v>3.35752</v>
       </c>
       <c r="D135" t="n">
-        <v>1.25839</v>
+        <v>5.60607</v>
       </c>
       <c r="E135" t="n">
-        <v>2.78675</v>
+        <v>1.27156</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.8151</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.45454</v>
+        <v>1.57579</v>
       </c>
       <c r="C136" t="n">
-        <v>5.3708</v>
+        <v>3.28209</v>
       </c>
       <c r="D136" t="n">
-        <v>1.25838</v>
+        <v>5.46235</v>
       </c>
       <c r="E136" t="n">
-        <v>2.76919</v>
+        <v>1.25339</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.74235</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.50964</v>
+        <v>1.5582</v>
       </c>
       <c r="C137" t="n">
-        <v>5.30187</v>
+        <v>3.2754</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57895</v>
+        <v>5.33827</v>
       </c>
       <c r="E137" t="n">
-        <v>4.1003</v>
+        <v>1.59744</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4.15397</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.78</v>
+        <v>1.87911</v>
       </c>
       <c r="C138" t="n">
-        <v>5.18755</v>
+        <v>4.65604</v>
       </c>
       <c r="D138" t="n">
-        <v>1.59952</v>
+        <v>5.19162</v>
       </c>
       <c r="E138" t="n">
-        <v>4.04529</v>
+        <v>1.61094</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4.01132</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.7947</v>
+        <v>1.87451</v>
       </c>
       <c r="C139" t="n">
-        <v>5.13007</v>
+        <v>4.58891</v>
       </c>
       <c r="D139" t="n">
-        <v>1.60571</v>
+        <v>5.12384</v>
       </c>
       <c r="E139" t="n">
-        <v>3.96189</v>
+        <v>1.61073</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.97651</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.80365</v>
+        <v>1.88483</v>
       </c>
       <c r="C140" t="n">
-        <v>5.04842</v>
+        <v>4.51766</v>
       </c>
       <c r="D140" t="n">
-        <v>1.58761</v>
+        <v>5.05206</v>
       </c>
       <c r="E140" t="n">
-        <v>3.85921</v>
+        <v>1.638</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.88669</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.816</v>
+        <v>1.89462</v>
       </c>
       <c r="C141" t="n">
-        <v>4.94201</v>
+        <v>4.37606</v>
       </c>
       <c r="D141" t="n">
-        <v>1.59556</v>
+        <v>4.91847</v>
       </c>
       <c r="E141" t="n">
-        <v>3.80259</v>
+        <v>1.59965</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.80565</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.78316</v>
+        <v>1.88472</v>
       </c>
       <c r="C142" t="n">
-        <v>4.88003</v>
+        <v>4.30349</v>
       </c>
       <c r="D142" t="n">
-        <v>1.61924</v>
+        <v>4.8434</v>
       </c>
       <c r="E142" t="n">
-        <v>3.68898</v>
+        <v>1.61212</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.68698</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.77407</v>
+        <v>1.85757</v>
       </c>
       <c r="C143" t="n">
-        <v>4.80439</v>
+        <v>4.23966</v>
       </c>
       <c r="D143" t="n">
-        <v>1.61149</v>
+        <v>4.80564</v>
       </c>
       <c r="E143" t="n">
-        <v>3.63603</v>
+        <v>1.64845</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.58384</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15337</v>
+                  <v>0.146039</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.155158</v>
+                  <v>0.148013</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159661</v>
+                  <v>0.138681</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.151036</v>
+                  <v>0.14359</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.145481</v>
+                  <v>0.135845</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.143135</v>
+                  <v>0.135477</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.148369</v>
+                  <v>0.138485</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150446</v>
+                  <v>0.146058</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207322</v>
+                  <v>0.200991</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209592</v>
+                  <v>0.199168</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.195598</v>
+                  <v>0.189428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.190781</v>
+                  <v>0.187799</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.190823</v>
+                  <v>0.184312</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.175134</v>
+                  <v>0.170536</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.168551</v>
+                  <v>0.165581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.159679</v>
+                  <v>0.161496</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164206</v>
+                  <v>0.158637</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.167199</v>
+                  <v>0.157383</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.154037</v>
+                  <v>0.155905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.157372</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.151621</v>
+                  <v>0.153328</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157259</v>
+                  <v>0.155101</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.238303</v>
+                  <v>0.237836</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224434</v>
+                  <v>0.232792</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.224004</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.215688</v>
+                  <v>0.214188</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.20293</v>
+                  <v>0.206863</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.198964</v>
+                  <v>0.198074</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.187941</v>
+                  <v>0.190476</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185272</v>
+                  <v>0.189206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.178074</v>
+                  <v>0.179889</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173278</v>
+                  <v>0.176719</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.170074</v>
+                  <v>0.171518</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168305</v>
+                  <v>0.170802</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.170652</v>
+                  <v>0.171714</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167843</v>
+                  <v>0.170411</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243961</v>
+                  <v>0.242776</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.235067</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.22627</v>
+                  <v>0.22518</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218024</v>
+                  <v>0.217734</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210212</v>
+                  <v>0.209982</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.202858</v>
+                  <v>0.202762</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196171</v>
+                  <v>0.196177</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.190461</v>
+                  <v>0.190435</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.185034</v>
+                  <v>0.185025</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.180206</v>
+                  <v>0.179638</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.176532</v>
+                  <v>0.176655</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.173492</v>
+                  <v>0.173549</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.171855</v>
+                  <v>0.171866</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172451</v>
+                  <v>0.172691</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.174531</v>
+                  <v>0.175807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.241212</v>
+                  <v>0.240716</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231315</v>
+                  <v>0.232852</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.222959</v>
+                  <v>0.224402</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.216001</v>
+                  <v>0.217265</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208546</v>
+                  <v>0.208892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20144</v>
+                  <v>0.202409</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.195596</v>
+                  <v>0.195381</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.189667</v>
+                  <v>0.190447</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.184353</v>
+                  <v>0.185342</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.180335</v>
+                  <v>0.181484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178093</v>
+                  <v>0.177209</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.176032</v>
+                  <v>0.176375</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176322</v>
+                  <v>0.17631</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178398</v>
+                  <v>0.179257</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246205</v>
+                  <v>0.244087</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235745</v>
+                  <v>0.23551</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22844</v>
+                  <v>0.228011</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219722</v>
+                  <v>0.219299</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.211882</v>
+                  <v>0.212195</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205851</v>
+                  <v>0.204906</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199915</v>
+                  <v>0.198988</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19416</v>
+                  <v>0.193473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188783</v>
+                  <v>0.188598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183925</v>
+                  <v>0.183295</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.182219</v>
+                  <v>0.180748</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178711</v>
+                  <v>0.178691</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17904</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180346</v>
+                  <v>0.180884</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257797</v>
+                  <v>0.256673</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.248989</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242374</v>
+                  <v>0.241687</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233789</v>
+                  <v>0.233823</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.22662</v>
+                  <v>0.226435</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219911</v>
+                  <v>0.219403</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21385</v>
+                  <v>0.212981</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.20712</v>
+                  <v>0.206654</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.2016</v>
+                  <v>0.201478</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.196505</v>
+                  <v>0.195737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193329</v>
+                  <v>0.192256</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190124</v>
+                  <v>0.189382</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188597</v>
+                  <v>0.188583</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189371</v>
+                  <v>0.18968</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270674</v>
+                  <v>0.271413</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265072</v>
+                  <v>0.265435</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258834</v>
+                  <v>0.258773</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251641</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245263</v>
+                  <v>0.245278</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238488</v>
+                  <v>0.239437</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233411</v>
+                  <v>0.233272</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227946</v>
+                  <v>0.227822</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222458</v>
+                  <v>0.222804</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218327</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214176</v>
+                  <v>0.214387</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211275</v>
+                  <v>0.211097</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208723</v>
+                  <v>0.209085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208655</v>
+                  <v>0.209158</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210629</v>
+                  <v>0.211426</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.285509</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.278433</v>
+                  <v>0.28665</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271806</v>
+                  <v>0.279989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266427</v>
+                  <v>0.273564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260565</v>
+                  <v>0.26764</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255512</v>
+                  <v>0.262322</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250615</v>
+                  <v>0.257025</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245594</v>
+                  <v>0.25203</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244716</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.237814</v>
+                  <v>0.243348</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234924</v>
+                  <v>0.239959</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232693</v>
+                  <v>0.237783</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231404</v>
+                  <v>0.236599</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232607</v>
+                  <v>0.237197</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.316721</v>
+                  <v>0.328962</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.311521</v>
+                  <v>0.323242</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.304916</v>
+                  <v>0.317089</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299863</v>
+                  <v>0.310426</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294634</v>
+                  <v>0.306459</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.290007</v>
+                  <v>0.301111</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285681</v>
+                  <v>0.295255</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.281672</v>
+                  <v>0.290688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278486</v>
+                  <v>0.28664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275255</v>
+                  <v>0.282957</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.272149</v>
+                  <v>0.280443</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270314</v>
+                  <v>0.277925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.269997</v>
+                  <v>0.277999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270583</v>
+                  <v>0.278357</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.369063</v>
+                  <v>0.369562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.363506</v>
+                  <v>0.360547</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.358269</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.352863</v>
+                  <v>0.352816</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34801</v>
+                  <v>0.346455</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.34351</v>
+                  <v>0.341422</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312145</v>
+                  <v>0.28211</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.311864</v>
+                  <v>0.278115</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.311341</v>
+                  <v>0.271292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.306772</v>
+                  <v>0.274151</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.308161</v>
+                  <v>0.266767</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.408994</v>
+                  <v>0.266578</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.405189</v>
+                  <v>0.266281</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.401577</v>
+                  <v>0.272086</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.391147</v>
+                  <v>0.331698</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.391102</v>
+                  <v>0.319212</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.38111</v>
+                  <v>0.308191</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.379912</v>
+                  <v>0.307945</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.376405</v>
+                  <v>0.295667</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.370044</v>
+                  <v>0.292683</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.366509</v>
+                  <v>0.283847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.362169</v>
+                  <v>0.280388</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.364199</v>
+                  <v>0.277733</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.36117</v>
+                  <v>0.273149</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.357351</v>
+                  <v>0.268271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.478261</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.464696</v>
+                  <v>0.270153</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456439</v>
+                  <v>0.273148</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.448159</v>
+                  <v>0.340388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.440673</v>
+                  <v>0.331711</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.431649</v>
+                  <v>0.323314</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.425692</v>
+                  <v>0.316365</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.418998</v>
+                  <v>0.310543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.412593</v>
+                  <v>0.301656</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.408417</v>
+                  <v>0.296089</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.40367</v>
+                  <v>0.291172</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.399719</v>
+                  <v>0.285343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393748</v>
+                  <v>0.283907</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.390428</v>
+                  <v>0.278823</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.499331</v>
+                  <v>0.280175</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.48684</v>
+                  <v>0.276888</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.478061</v>
+                  <v>0.279208</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.46875</v>
+                  <v>0.350466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.458947</v>
+                  <v>0.343127</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.450864</v>
+                  <v>0.334872</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.443182</v>
+                  <v>0.327488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.437353</v>
+                  <v>0.320628</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.430382</v>
+                  <v>0.31489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.424477</v>
+                  <v>0.309181</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.419409</v>
+                  <v>0.303399</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414636</v>
+                  <v>0.299576</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40978</v>
+                  <v>0.295042</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406225</v>
+                  <v>0.293079</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.403185</v>
+                  <v>0.290591</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.506923</v>
+                  <v>0.290977</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.49607</v>
+                  <v>0.292093</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485393</v>
+                  <v>0.297895</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.47704</v>
+                  <v>0.354931</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.467187</v>
+                  <v>0.347367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.459395</v>
+                  <v>0.342722</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.452921</v>
+                  <v>0.334916</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445497</v>
+                  <v>0.328959</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440853</v>
+                  <v>0.3234</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.434352</v>
+                  <v>0.317305</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.430313</v>
+                  <v>0.312179</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.426534</v>
+                  <v>0.308366</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422625</v>
+                  <v>0.305196</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.419713</v>
+                  <v>0.30302</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.544347</v>
+                  <v>0.302263</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.53371</v>
+                  <v>0.303818</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.523499</v>
+                  <v>0.306058</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.516787</v>
+                  <v>0.374633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.508951</v>
+                  <v>0.365677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.500625</v>
+                  <v>0.360799</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494779</v>
+                  <v>0.353591</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.489162</v>
+                  <v>0.34577</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483936</v>
+                  <v>0.339963</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481121</v>
+                  <v>0.333846</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496074</v>
+                  <v>0.329286</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.488899</v>
+                  <v>0.325082</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.486092</v>
+                  <v>0.320758</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.483301</v>
+                  <v>0.319095</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.6619080000000001</v>
+                  <v>0.319423</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.651641</v>
+                  <v>0.319311</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.6414840000000001</v>
+                  <v>0.322843</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.634898</v>
+                  <v>0.393431</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.626458</v>
+                  <v>0.389378</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.619111</v>
+                  <v>0.384671</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.618937</v>
+                  <v>0.382238</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.616578</v>
+                  <v>0.3759</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.616543</v>
+                  <v>0.371191</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.618468</v>
+                  <v>0.36512</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.618605</v>
+                  <v>0.361874</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631288</v>
+                  <v>0.356697</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.634706</v>
+                  <v>0.352438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.640709</v>
+                  <v>0.349891</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.853437</v>
+                  <v>0.35005</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.851041</v>
+                  <v>0.349669</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.846677</v>
+                  <v>0.352299</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.839566</v>
+                  <v>0.466457</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.837027</v>
+                  <v>0.465911</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.84036</v>
+                  <v>0.461742</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.840439</v>
+                  <v>0.458425</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.841024</v>
+                  <v>0.454048</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.84118</v>
+                  <v>0.450047</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.845235</v>
+                  <v>0.445345</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.849178</v>
+                  <v>0.441259</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.859448</v>
+                  <v>0.438357</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.866117</v>
+                  <v>0.435239</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.873801</v>
+                  <v>0.434282</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.882031</v>
+                  <v>0.433819</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.12628</v>
+                  <v>0.433981</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11366</v>
+                  <v>0.436931</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10831</v>
+                  <v>0.442964</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09924</v>
+                  <v>0.580354</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.10141</v>
+                  <v>0.574171</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09589</v>
+                  <v>0.569311</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09404</v>
+                  <v>0.563511</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09267</v>
+                  <v>0.558854</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09583</v>
+                  <v>0.555304</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09592</v>
+                  <v>0.551573</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.09785</v>
+                  <v>0.5418269999999999</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10406</v>
+                  <v>0.546025</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.1105</v>
+                  <v>0.544721</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.1192</v>
+                  <v>0.544034</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38021</v>
+                  <v>0.544782</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36711</v>
+                  <v>0.547028</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35208</v>
+                  <v>0.550917</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.33879</v>
+                  <v>0.714383</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33025</v>
+                  <v>0.709817</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32117</v>
+                  <v>0.703954</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.31379</v>
+                  <v>0.700326</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.30768</v>
+                  <v>0.698059</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.30326</v>
+                  <v>0.6951850000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30056</v>
+                  <v>0.6917450000000001</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.30008</v>
+                  <v>0.689099</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.30108</v>
+                  <v>0.6884</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30141</v>
+                  <v>0.687611</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30559</v>
+                  <v>0.688626</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.58034</v>
+                  <v>0.689466</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.55781</v>
+                  <v>0.6928609999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53836</v>
+                  <v>0.696013</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.5207</v>
+                  <v>0.876258</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50344</v>
+                  <v>0.866931</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.49007</v>
+                  <v>0.874781</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.47742</v>
+                  <v>0.874434</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46587</v>
+                  <v>0.87453</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.45791</v>
+                  <v>0.874256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.142888</v>
+                  <v>0.345535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.144159</v>
+                  <v>0.342328</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.139729</v>
+                  <v>0.339524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.130455</v>
+                  <v>0.338964</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.130001</v>
+                  <v>0.337026</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.114646</v>
+                  <v>0.441059</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.121203</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.177485</v>
+                  <v>0.422785</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.178184</v>
+                  <v>0.425798</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167977</v>
+                  <v>0.41258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.158496</v>
+                  <v>0.406096</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.152255</v>
+                  <v>0.399408</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.15716</v>
+                  <v>0.393713</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.142005</v>
+                  <v>0.390631</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.136816</v>
+                  <v>0.384493</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.139587</v>
+                  <v>0.382714</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.131545</v>
+                  <v>0.376462</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.129135</v>
+                  <v>0.372734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.123154</v>
+                  <v>0.371468</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1263</v>
+                  <v>0.471596</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.129065</v>
+                  <v>0.461926</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.214336</v>
+                  <v>0.453195</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.21995</v>
+                  <v>0.442569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.204141</v>
+                  <v>0.439045</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.187606</v>
+                  <v>0.428046</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.185954</v>
+                  <v>0.422639</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.178845</v>
+                  <v>0.415176</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.168237</v>
+                  <v>0.409081</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.165532</v>
+                  <v>0.404025</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.164239</v>
+                  <v>0.401541</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.154562</v>
+                  <v>0.396396</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153521</v>
+                  <v>0.392233</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14963</v>
+                  <v>0.387418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150836</v>
+                  <v>0.492552</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.14771</v>
+                  <v>0.481008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230768</v>
+                  <v>0.472016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222972</v>
+                  <v>0.462267</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.213998</v>
+                  <v>0.453779</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.205509</v>
+                  <v>0.445558</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.19903</v>
+                  <v>0.438178</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191431</v>
+                  <v>0.431525</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.185004</v>
+                  <v>0.424981</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178242</v>
+                  <v>0.417433</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171721</v>
+                  <v>0.412907</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166785</v>
+                  <v>0.40713</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.163076</v>
+                  <v>0.404255</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159074</v>
+                  <v>0.399219</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.157048</v>
+                  <v>0.398134</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155008</v>
+                  <v>0.5057199999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.241177</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.232474</v>
+                  <v>0.482606</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222617</v>
+                  <v>0.473133</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.214052</v>
+                  <v>0.46451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206278</v>
+                  <v>0.458181</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.198674</v>
+                  <v>0.449409</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191601</v>
+                  <v>0.444813</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184668</v>
+                  <v>0.437137</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.179357</v>
+                  <v>0.433472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.1736</v>
+                  <v>0.427729</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.168138</v>
+                  <v>0.423128</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.164634</v>
+                  <v>0.420407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.161852</v>
+                  <v>0.418269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.159915</v>
+                  <v>0.542173</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.160633</v>
+                  <v>0.531938</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241778</v>
+                  <v>0.521979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234316</v>
+                  <v>0.513247</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.223856</v>
+                  <v>0.507066</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.214878</v>
+                  <v>0.501045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206553</v>
+                  <v>0.491954</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.200975</v>
+                  <v>0.487567</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.194188</v>
+                  <v>0.484235</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.188362</v>
+                  <v>0.479325</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.182427</v>
+                  <v>0.49454</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17682</v>
+                  <v>0.492253</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.171969</v>
+                  <v>0.485952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.167466</v>
+                  <v>0.483849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.166872</v>
+                  <v>0.660579</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.166623</v>
+                  <v>0.651858</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.2389</v>
+                  <v>0.641418</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.231233</v>
+                  <v>0.633701</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222629</v>
+                  <v>0.628771</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.215057</v>
+                  <v>0.622203</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207065</v>
+                  <v>0.619414</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200438</v>
+                  <v>0.619362</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.193262</v>
+                  <v>0.616466</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.187335</v>
+                  <v>0.617853</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182132</v>
+                  <v>0.617096</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176589</v>
+                  <v>0.63459</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173081</v>
+                  <v>0.636581</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.169023</v>
+                  <v>0.641432</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.166908</v>
+                  <v>0.856594</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.166814</v>
+                  <v>0.849894</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252534</v>
+                  <v>0.845252</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244438</v>
+                  <v>0.841065</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236967</v>
+                  <v>0.836136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229011</v>
+                  <v>0.842166</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.220682</v>
+                  <v>0.844179</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213943</v>
+                  <v>0.841984</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.20784</v>
+                  <v>0.8411689999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20147</v>
+                  <v>0.8479989999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.195865</v>
+                  <v>0.85105</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.190898</v>
+                  <v>0.858108</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.186294</v>
+                  <v>0.865494</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.182449</v>
+                  <v>0.873856</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180164</v>
+                  <v>0.882892</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179211</v>
+                  <v>1.12623</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268571</v>
+                  <v>1.11708</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.263123</v>
+                  <v>1.10725</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.255147</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.248045</v>
+                  <v>1.09922</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24044</v>
+                  <v>1.09309</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234071</v>
+                  <v>1.09198</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227632</v>
+                  <v>1.09188</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22211</v>
+                  <v>1.09281</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.216672</v>
+                  <v>1.09812</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211883</v>
+                  <v>1.10047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.2085</v>
+                  <v>1.10279</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.204125</v>
+                  <v>1.10901</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201067</v>
+                  <v>1.11641</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199423</v>
+                  <v>1.37934</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200191</v>
+                  <v>1.36609</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285389</v>
+                  <v>1.34952</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.279535</v>
+                  <v>1.33903</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.273237</v>
+                  <v>1.33181</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267652</v>
+                  <v>1.3199</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26304</v>
+                  <v>1.31294</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258886</v>
+                  <v>1.31028</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.254448</v>
+                  <v>1.30308</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.250205</v>
+                  <v>1.30133</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24612</v>
+                  <v>1.30114</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.243283</v>
+                  <v>1.30065</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.240187</v>
+                  <v>1.30238</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.238426</v>
+                  <v>1.30428</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.236633</v>
+                  <v>1.57893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23708</v>
+                  <v>1.55759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.334836</v>
+                  <v>1.53738</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.329067</v>
+                  <v>1.52081</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.323726</v>
+                  <v>1.50381</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.319833</v>
+                  <v>1.48922</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.314732</v>
+                  <v>1.47882</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.310756</v>
+                  <v>1.46512</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.307162</v>
+                  <v>1.45783</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.271192</v>
+                  <v>0.137761</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.269766</v>
+                  <v>0.136591</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.261942</v>
+                  <v>0.130647</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.266898</v>
+                  <v>0.124825</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.264205</v>
+                  <v>0.121236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.261823</v>
+                  <v>0.120823</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.260876</v>
+                  <v>0.115242</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.337755</v>
+                  <v>0.18197</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.32141</v>
+                  <v>0.191717</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.306307</v>
+                  <v>0.171582</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.303579</v>
+                  <v>0.163208</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.295531</v>
+                  <v>0.159341</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.290788</v>
+                  <v>0.15144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.286236</v>
+                  <v>0.148414</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.27627</v>
+                  <v>0.141748</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.269827</v>
+                  <v>0.138354</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269586</v>
+                  <v>0.135532</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.261332</v>
+                  <v>0.137513</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.262818</v>
+                  <v>0.131088</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.25938</v>
+                  <v>0.129522</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.25735</v>
+                  <v>0.139204</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.333717</v>
+                  <v>0.22233</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.338816</v>
+                  <v>0.213797</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.31587</v>
+                  <v>0.207877</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.308427</v>
+                  <v>0.199287</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.298987</v>
+                  <v>0.19247</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.294611</v>
+                  <v>0.183147</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.288183</v>
+                  <v>0.175943</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.281609</v>
+                  <v>0.173927</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.27668</v>
+                  <v>0.165062</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.272235</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267661</v>
+                  <v>0.159688</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.264742</v>
+                  <v>0.153782</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.262336</v>
+                  <v>0.150904</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.263208</v>
+                  <v>0.150984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.347369</v>
+                  <v>0.230682</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.339619</v>
+                  <v>0.221791</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.332237</v>
+                  <v>0.212191</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.323095</v>
+                  <v>0.205325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.315365</v>
+                  <v>0.196669</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.308467</v>
+                  <v>0.189453</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.302061</v>
+                  <v>0.182552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.296349</v>
+                  <v>0.177439</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.290374</v>
+                  <v>0.171551</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.285623</v>
+                  <v>0.164983</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.281956</v>
+                  <v>0.161123</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.278551</v>
+                  <v>0.157815</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.276744</v>
+                  <v>0.155224</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.275847</v>
+                  <v>0.154986</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.35945</v>
+                  <v>0.239</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.352226</v>
+                  <v>0.230927</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.342043</v>
+                  <v>0.221685</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.334021</v>
+                  <v>0.212571</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.329362</v>
+                  <v>0.204879</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.3219</v>
+                  <v>0.196931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.31556</v>
+                  <v>0.190889</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.309051</v>
+                  <v>0.184201</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303773</v>
+                  <v>0.177873</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.298791</v>
+                  <v>0.172243</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.29423</v>
+                  <v>0.167354</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.29061</v>
+                  <v>0.163961</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.28855</v>
+                  <v>0.160669</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.286849</v>
+                  <v>0.159794</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.288573</v>
+                  <v>0.159922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.368444</v>
+                  <v>0.24182</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.360264</v>
+                  <v>0.231229</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.351966</v>
+                  <v>0.22419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.346137</v>
+                  <v>0.215874</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.338777</v>
+                  <v>0.206048</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.33184</v>
+                  <v>0.198942</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.324914</v>
+                  <v>0.191778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.319398</v>
+                  <v>0.185223</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.313882</v>
+                  <v>0.179302</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.308808</v>
+                  <v>0.174516</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.305441</v>
+                  <v>0.170705</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.301947</v>
+                  <v>0.167401</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.303099</v>
+                  <v>0.165988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.303311</v>
+                  <v>0.165089</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.384061</v>
+                  <v>0.238743</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.377682</v>
+                  <v>0.229209</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.372194</v>
+                  <v>0.221431</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.364102</v>
+                  <v>0.213546</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.360852</v>
+                  <v>0.206373</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.355225</v>
+                  <v>0.199238</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.34856</v>
+                  <v>0.192686</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.34299</v>
+                  <v>0.185131</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.338553</v>
+                  <v>0.180498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.332812</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.329783</v>
+                  <v>0.170999</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.326459</v>
+                  <v>0.167733</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.325092</v>
+                  <v>0.164963</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.32522</v>
+                  <v>0.165351</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.452238</v>
+                  <v>0.250369</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.451668</v>
+                  <v>0.242842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.447145</v>
+                  <v>0.235119</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.442183</v>
+                  <v>0.227356</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.437287</v>
+                  <v>0.220251</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.432007</v>
+                  <v>0.212871</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.428233</v>
+                  <v>0.206496</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.423292</v>
+                  <v>0.200455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.418646</v>
+                  <v>0.194783</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.41523</v>
+                  <v>0.189878</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.411758</v>
+                  <v>0.184885</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.409843</v>
+                  <v>0.181716</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.408188</v>
+                  <v>0.179034</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.407718</v>
+                  <v>0.177966</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.566439</v>
+                  <v>0.267166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.564304</v>
+                  <v>0.261253</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.557965</v>
+                  <v>0.25341</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.551828</v>
+                  <v>0.24629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.544925</v>
+                  <v>0.239018</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5423289999999999</v>
+                  <v>0.232958</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.536821</v>
+                  <v>0.226405</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.533166</v>
+                  <v>0.22103</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.529174</v>
+                  <v>0.215579</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.526789</v>
+                  <v>0.211122</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.52432</v>
+                  <v>0.206632</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.523133</v>
+                  <v>0.202954</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.520985</v>
+                  <v>0.200086</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.520991</v>
+                  <v>0.198735</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.522709</v>
+                  <v>0.199173</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.694646</v>
+                  <v>0.283443</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.688746</v>
+                  <v>0.277303</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.685202</v>
+                  <v>0.271758</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.680929</v>
+                  <v>0.266349</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.678063</v>
+                  <v>0.261528</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.660381</v>
+                  <v>0.256727</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.669822</v>
+                  <v>0.252371</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.66858</v>
+                  <v>0.248279</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.666127</v>
+                  <v>0.244665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.664091</v>
+                  <v>0.241331</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.662888</v>
+                  <v>0.238531</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.662808</v>
+                  <v>0.236023</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.663058</v>
+                  <v>0.234907</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.664988</v>
+                  <v>0.234963</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.847299</v>
+                  <v>0.33469</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.846291</v>
+                  <v>0.327289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.845287</v>
+                  <v>0.322215</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.8449950000000001</v>
+                  <v>0.317731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.844019</v>
+                  <v>0.313643</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.844831</v>
+                  <v>0.309114</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.844638</v>
+                  <v>0.305505</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.272824</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.263759</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.259957</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.256232</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258115</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.255855</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.325155</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.320399</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.30968</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.300998</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.293913</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.286153</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.281139</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.275524</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.274898</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2676</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.265662</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.26002</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.260183</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.262609</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.330212</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.325548</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.315918</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.310409</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.301635</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.295574</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.290029</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.282872</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278507</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272359</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.269059</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.266677</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.264372</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263709</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347984</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.340065</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.330786</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323484</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315716</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.309133</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.301912</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296867</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.291421</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.286315</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.282309</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.279336</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.27722</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.277116</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.358783</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.350324</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342116</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334006</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.328195</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.320973</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.314597</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.307473</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.302578</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298176</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.292764</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.289646</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.287274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286847</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288163</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.366526</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.358653</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.349644</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.344332</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.337322</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.329298</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.323319</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.317402</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.312372</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.306709</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.302411</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301187</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.302301</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.301667</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.38254</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.376441</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.370388</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.363729</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360141</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.354189</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.348061</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.341194</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338365</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332626</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329316</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.325646</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.324753</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.325698</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.450633</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.449133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.444822</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.440212</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.434334</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.429843</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.424907</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.4203</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.415853</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.412994</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.409492</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.407402</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.406375</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.406548</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.560538</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.560684</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.553851</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.548923</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.543926</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.538116</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.533978</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.529934</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.5271940000000001</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.524362</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.522272</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.519097</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.518203</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.517801</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.519348</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.690275</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.685513</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.681941</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.677575</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.67488</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.673596</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.668506</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.665758</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.663705</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.661956</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.661919</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.661756</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.662496</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.66482</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.845621</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.845018</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.843253</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.84311</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.842824</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.843188</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.842601</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.53439</v>
+        <v>0.48192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.847723</v>
+        <v>0.803482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.793086</v>
+        <v>0.76596</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21731</v>
+        <v>0.203953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.590483</v>
+        <v>0.583296</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.416289</v>
+        <v>0.413607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.845355</v>
+        <v>0.780883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.760556</v>
+        <v>0.764548</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213759</v>
+        <v>0.200887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.589771</v>
+        <v>0.578331</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428726</v>
+        <v>0.417767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.806418</v>
+        <v>0.795915</v>
       </c>
       <c r="D4" t="n">
-        <v>0.771806</v>
+        <v>0.793708</v>
       </c>
       <c r="E4" t="n">
-        <v>0.209216</v>
+        <v>0.191065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.601467</v>
+        <v>0.575483</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420874</v>
+        <v>0.397785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.813692</v>
+        <v>0.783269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787311</v>
+        <v>0.73761</v>
       </c>
       <c r="E5" t="n">
-        <v>0.198627</v>
+        <v>0.187343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.586543</v>
+        <v>0.568485</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.433253</v>
+        <v>0.401363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.864827</v>
+        <v>0.758535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.78401</v>
+        <v>0.751711</v>
       </c>
       <c r="E6" t="n">
-        <v>0.19661</v>
+        <v>0.18477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.591023</v>
+        <v>0.556011</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.41098</v>
+        <v>0.392046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.83026</v>
+        <v>0.756528</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9380810000000001</v>
+        <v>0.905757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.196588</v>
+        <v>0.181212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.592328</v>
+        <v>0.55271</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.413073</v>
+        <v>0.388947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.793832</v>
+        <v>0.764621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.932772</v>
+        <v>0.8864880000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.192202</v>
+        <v>0.184837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.60341</v>
+        <v>0.562923</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.399146</v>
+        <v>0.388703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.782604</v>
+        <v>0.75364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.907874</v>
+        <v>0.868153</v>
       </c>
       <c r="E9" t="n">
-        <v>0.279382</v>
+        <v>0.26003</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6758420000000001</v>
+        <v>0.659176</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.505999</v>
+        <v>0.466197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.897176</v>
+        <v>0.850452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.89793</v>
+        <v>0.8688360000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.264843</v>
+        <v>0.255261</v>
       </c>
       <c r="F10" t="n">
-        <v>0.735081</v>
+        <v>0.635594</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.483112</v>
+        <v>0.466197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.894189</v>
+        <v>0.891846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.887731</v>
+        <v>0.864375</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25562</v>
+        <v>0.247891</v>
       </c>
       <c r="F11" t="n">
-        <v>0.645119</v>
+        <v>0.652701</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.464604</v>
+        <v>0.465645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8468</v>
+        <v>0.886135</v>
       </c>
       <c r="D12" t="n">
-        <v>0.853117</v>
+        <v>0.849743</v>
       </c>
       <c r="E12" t="n">
-        <v>0.247687</v>
+        <v>0.238741</v>
       </c>
       <c r="F12" t="n">
-        <v>0.640911</v>
+        <v>0.647127</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.452927</v>
+        <v>0.457595</v>
       </c>
       <c r="C13" t="n">
-        <v>0.879781</v>
+        <v>0.8372270000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.850707</v>
+        <v>0.828494</v>
       </c>
       <c r="E13" t="n">
-        <v>0.23491</v>
+        <v>0.235963</v>
       </c>
       <c r="F13" t="n">
-        <v>0.618623</v>
+        <v>0.61788</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.462706</v>
+        <v>0.4476</v>
       </c>
       <c r="C14" t="n">
-        <v>0.825254</v>
+        <v>0.843939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.823982</v>
+        <v>0.833325</v>
       </c>
       <c r="E14" t="n">
-        <v>0.232174</v>
+        <v>0.223588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.636914</v>
+        <v>0.617821</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.451195</v>
+        <v>0.449421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.827313</v>
+        <v>0.8207680000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8308990000000001</v>
+        <v>0.82281</v>
       </c>
       <c r="E15" t="n">
-        <v>0.220566</v>
+        <v>0.223951</v>
       </c>
       <c r="F15" t="n">
-        <v>0.610997</v>
+        <v>0.615098</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.437416</v>
+        <v>0.435577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.857185</v>
+        <v>0.860923</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8088920000000001</v>
+        <v>0.824901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.226589</v>
+        <v>0.213348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.608233</v>
+        <v>0.605032</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.433059</v>
+        <v>0.441621</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8063090000000001</v>
+        <v>0.830554</v>
       </c>
       <c r="D17" t="n">
-        <v>0.797119</v>
+        <v>0.804276</v>
       </c>
       <c r="E17" t="n">
-        <v>0.213824</v>
+        <v>0.208135</v>
       </c>
       <c r="F17" t="n">
-        <v>0.605131</v>
+        <v>0.59778</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.435042</v>
+        <v>0.429907</v>
       </c>
       <c r="C18" t="n">
-        <v>0.805765</v>
+        <v>0.813591</v>
       </c>
       <c r="D18" t="n">
-        <v>0.798418</v>
+        <v>0.798949</v>
       </c>
       <c r="E18" t="n">
-        <v>0.204586</v>
+        <v>0.201905</v>
       </c>
       <c r="F18" t="n">
-        <v>0.599033</v>
+        <v>0.598978</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.415561</v>
+        <v>0.450304</v>
       </c>
       <c r="C19" t="n">
-        <v>0.791282</v>
+        <v>0.8106910000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.783737</v>
+        <v>0.819248</v>
       </c>
       <c r="E19" t="n">
-        <v>0.198133</v>
+        <v>0.197181</v>
       </c>
       <c r="F19" t="n">
-        <v>0.599485</v>
+        <v>0.590521</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.417872</v>
+        <v>0.438839</v>
       </c>
       <c r="C20" t="n">
-        <v>0.79567</v>
+        <v>0.80472</v>
       </c>
       <c r="D20" t="n">
-        <v>0.795364</v>
+        <v>0.793025</v>
       </c>
       <c r="E20" t="n">
-        <v>0.196074</v>
+        <v>0.195299</v>
       </c>
       <c r="F20" t="n">
-        <v>0.616978</v>
+        <v>0.591287</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.410103</v>
+        <v>0.415278</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8062510000000001</v>
+        <v>0.800442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.953928</v>
+        <v>0.952527</v>
       </c>
       <c r="E21" t="n">
-        <v>0.196831</v>
+        <v>0.194118</v>
       </c>
       <c r="F21" t="n">
-        <v>0.620368</v>
+        <v>0.578873</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422863</v>
+        <v>0.409983</v>
       </c>
       <c r="C22" t="n">
-        <v>0.828369</v>
+        <v>0.800202</v>
       </c>
       <c r="D22" t="n">
-        <v>0.959431</v>
+        <v>0.945319</v>
       </c>
       <c r="E22" t="n">
-        <v>0.190168</v>
+        <v>0.194684</v>
       </c>
       <c r="F22" t="n">
-        <v>0.609704</v>
+        <v>0.585097</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.413596</v>
+        <v>0.40511</v>
       </c>
       <c r="C23" t="n">
-        <v>0.808078</v>
+        <v>0.793082</v>
       </c>
       <c r="D23" t="n">
-        <v>0.925804</v>
+        <v>0.943762</v>
       </c>
       <c r="E23" t="n">
-        <v>0.427388</v>
+        <v>0.42763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6853089999999999</v>
+        <v>0.720847</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6588850000000001</v>
+        <v>0.672392</v>
       </c>
       <c r="C24" t="n">
-        <v>0.896004</v>
+        <v>0.976346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9174060000000001</v>
+        <v>0.9174949999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.417501</v>
+        <v>0.420717</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6850889999999999</v>
+        <v>0.751348</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.643421</v>
+        <v>0.633236</v>
       </c>
       <c r="C25" t="n">
-        <v>0.88061</v>
+        <v>0.894219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.911453</v>
+        <v>0.918327</v>
       </c>
       <c r="E25" t="n">
-        <v>0.410726</v>
+        <v>0.397047</v>
       </c>
       <c r="F25" t="n">
-        <v>0.663988</v>
+        <v>0.661914</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6349590000000001</v>
+        <v>0.621128</v>
       </c>
       <c r="C26" t="n">
-        <v>0.915548</v>
+        <v>0.876839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.887002</v>
+        <v>0.900118</v>
       </c>
       <c r="E26" t="n">
-        <v>0.397357</v>
+        <v>0.388179</v>
       </c>
       <c r="F26" t="n">
-        <v>0.676282</v>
+        <v>0.652736</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6033500000000001</v>
+        <v>0.630139</v>
       </c>
       <c r="C27" t="n">
-        <v>0.867486</v>
+        <v>0.8719479999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8752450000000001</v>
+        <v>0.881993</v>
       </c>
       <c r="E27" t="n">
-        <v>0.380712</v>
+        <v>0.374119</v>
       </c>
       <c r="F27" t="n">
-        <v>0.644278</v>
+        <v>0.647858</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.602562</v>
+        <v>0.588228</v>
       </c>
       <c r="C28" t="n">
-        <v>0.882391</v>
+        <v>0.8635890000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.873525</v>
+        <v>0.8772450000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.356876</v>
+        <v>0.36124</v>
       </c>
       <c r="F28" t="n">
-        <v>0.634002</v>
+        <v>0.652332</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.576256</v>
+        <v>0.579385</v>
       </c>
       <c r="C29" t="n">
-        <v>0.855228</v>
+        <v>0.859093</v>
       </c>
       <c r="D29" t="n">
-        <v>0.850164</v>
+        <v>0.883281</v>
       </c>
       <c r="E29" t="n">
-        <v>0.353081</v>
+        <v>0.35249</v>
       </c>
       <c r="F29" t="n">
-        <v>0.662147</v>
+        <v>0.635771</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.566913</v>
+        <v>0.577458</v>
       </c>
       <c r="C30" t="n">
-        <v>0.846408</v>
+        <v>0.8632919999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.85065</v>
+        <v>0.867932</v>
       </c>
       <c r="E30" t="n">
-        <v>0.337316</v>
+        <v>0.332001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.651245</v>
+        <v>0.6465070000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.559066</v>
+        <v>0.561315</v>
       </c>
       <c r="C31" t="n">
-        <v>0.836847</v>
+        <v>0.8408870000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.842661</v>
+        <v>0.8449719999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.327357</v>
+        <v>0.319588</v>
       </c>
       <c r="F31" t="n">
-        <v>0.645247</v>
+        <v>0.631279</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.55772</v>
+        <v>0.553531</v>
       </c>
       <c r="C32" t="n">
-        <v>0.835047</v>
+        <v>0.852399</v>
       </c>
       <c r="D32" t="n">
-        <v>0.854719</v>
+        <v>0.842844</v>
       </c>
       <c r="E32" t="n">
-        <v>0.324767</v>
+        <v>0.320879</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6318319999999999</v>
+        <v>0.61826</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.53732</v>
+        <v>0.533807</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8191079999999999</v>
+        <v>0.830713</v>
       </c>
       <c r="D33" t="n">
-        <v>0.828647</v>
+        <v>0.842776</v>
       </c>
       <c r="E33" t="n">
-        <v>0.301103</v>
+        <v>0.310478</v>
       </c>
       <c r="F33" t="n">
-        <v>0.611017</v>
+        <v>0.627621</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.536087</v>
+        <v>0.534656</v>
       </c>
       <c r="C34" t="n">
-        <v>0.83379</v>
+        <v>0.837732</v>
       </c>
       <c r="D34" t="n">
-        <v>0.828896</v>
+        <v>0.832028</v>
       </c>
       <c r="E34" t="n">
-        <v>0.296804</v>
+        <v>0.296947</v>
       </c>
       <c r="F34" t="n">
-        <v>0.603905</v>
+        <v>0.609051</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.535962</v>
+        <v>0.525997</v>
       </c>
       <c r="C35" t="n">
-        <v>0.830809</v>
+        <v>0.848962</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06881</v>
+        <v>1.0957</v>
       </c>
       <c r="E35" t="n">
-        <v>0.292428</v>
+        <v>0.288351</v>
       </c>
       <c r="F35" t="n">
-        <v>0.601563</v>
+        <v>0.614051</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.515293</v>
+        <v>0.51381</v>
       </c>
       <c r="C36" t="n">
-        <v>0.824995</v>
+        <v>0.82437</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06507</v>
+        <v>1.06847</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283885</v>
+        <v>0.283671</v>
       </c>
       <c r="F36" t="n">
-        <v>0.606573</v>
+        <v>0.605606</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523742</v>
+        <v>0.506538</v>
       </c>
       <c r="C37" t="n">
-        <v>0.809095</v>
+        <v>0.823074</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04135</v>
+        <v>1.04641</v>
       </c>
       <c r="E37" t="n">
-        <v>0.527093</v>
+        <v>0.541672</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8562959999999999</v>
+        <v>0.829854</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.764755</v>
+        <v>0.7611329999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>1.05642</v>
+        <v>1.06968</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0166</v>
+        <v>1.06623</v>
       </c>
       <c r="E38" t="n">
-        <v>0.512794</v>
+        <v>0.5069900000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.808691</v>
+        <v>0.810578</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.741814</v>
+        <v>0.766357</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0564</v>
+        <v>1.06264</v>
       </c>
       <c r="D39" t="n">
-        <v>1.03236</v>
+        <v>1.04109</v>
       </c>
       <c r="E39" t="n">
-        <v>0.49769</v>
+        <v>0.496029</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8290419999999999</v>
+        <v>0.805586</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.72279</v>
+        <v>0.724986</v>
       </c>
       <c r="C40" t="n">
-        <v>1.06897</v>
+        <v>1.04135</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00582</v>
+        <v>1.00488</v>
       </c>
       <c r="E40" t="n">
-        <v>0.472045</v>
+        <v>0.475422</v>
       </c>
       <c r="F40" t="n">
-        <v>0.794257</v>
+        <v>0.78887</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.708918</v>
+        <v>0.709745</v>
       </c>
       <c r="C41" t="n">
-        <v>1.06058</v>
+        <v>1.03056</v>
       </c>
       <c r="D41" t="n">
-        <v>0.997862</v>
+        <v>0.98811</v>
       </c>
       <c r="E41" t="n">
-        <v>0.453509</v>
+        <v>0.457892</v>
       </c>
       <c r="F41" t="n">
-        <v>0.793032</v>
+        <v>0.769393</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.723865</v>
+        <v>0.691329</v>
       </c>
       <c r="C42" t="n">
-        <v>1.10041</v>
+        <v>1.02806</v>
       </c>
       <c r="D42" t="n">
-        <v>0.986096</v>
+        <v>0.978858</v>
       </c>
       <c r="E42" t="n">
-        <v>0.437741</v>
+        <v>0.447521</v>
       </c>
       <c r="F42" t="n">
-        <v>0.761527</v>
+        <v>0.763099</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.678063</v>
+        <v>0.6810929999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.997076</v>
+        <v>1.01043</v>
       </c>
       <c r="D43" t="n">
-        <v>1.00045</v>
+        <v>0.987291</v>
       </c>
       <c r="E43" t="n">
-        <v>0.432146</v>
+        <v>0.422652</v>
       </c>
       <c r="F43" t="n">
-        <v>0.753673</v>
+        <v>0.7713410000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.674717</v>
+        <v>0.665151</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01275</v>
+        <v>1.02527</v>
       </c>
       <c r="D44" t="n">
-        <v>0.973173</v>
+        <v>0.97634</v>
       </c>
       <c r="E44" t="n">
-        <v>0.413733</v>
+        <v>0.410677</v>
       </c>
       <c r="F44" t="n">
-        <v>0.735814</v>
+        <v>0.739779</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.659162</v>
+        <v>0.670382</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9915580000000001</v>
+        <v>1.02615</v>
       </c>
       <c r="D45" t="n">
-        <v>0.956226</v>
+        <v>0.997162</v>
       </c>
       <c r="E45" t="n">
-        <v>0.395271</v>
+        <v>0.39523</v>
       </c>
       <c r="F45" t="n">
-        <v>0.737958</v>
+        <v>0.735001</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.652448</v>
+        <v>0.634282</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9938940000000001</v>
+        <v>0.978752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.968175</v>
+        <v>0.993157</v>
       </c>
       <c r="E46" t="n">
-        <v>0.379337</v>
+        <v>0.379844</v>
       </c>
       <c r="F46" t="n">
-        <v>0.726674</v>
+        <v>0.730594</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.630772</v>
+        <v>0.636396</v>
       </c>
       <c r="C47" t="n">
-        <v>1.00275</v>
+        <v>0.97259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.961024</v>
+        <v>0.936667</v>
       </c>
       <c r="E47" t="n">
-        <v>0.377398</v>
+        <v>0.367974</v>
       </c>
       <c r="F47" t="n">
-        <v>0.731664</v>
+        <v>0.712791</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611364</v>
+        <v>0.608272</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9897089999999999</v>
+        <v>0.9892919999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.986022</v>
+        <v>0.938778</v>
       </c>
       <c r="E48" t="n">
-        <v>0.361311</v>
+        <v>0.35676</v>
       </c>
       <c r="F48" t="n">
-        <v>0.737687</v>
+        <v>0.708324</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.635184</v>
+        <v>0.605596</v>
       </c>
       <c r="C49" t="n">
-        <v>0.967357</v>
+        <v>0.976326</v>
       </c>
       <c r="D49" t="n">
-        <v>0.957724</v>
+        <v>0.940379</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3617</v>
+        <v>0.344449</v>
       </c>
       <c r="F49" t="n">
-        <v>0.74874</v>
+        <v>0.705072</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.623336</v>
+        <v>0.609464</v>
       </c>
       <c r="C50" t="n">
-        <v>0.979725</v>
+        <v>0.9758019999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>1.51245</v>
+        <v>1.48792</v>
       </c>
       <c r="E50" t="n">
-        <v>0.347344</v>
+        <v>0.337966</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7162770000000001</v>
+        <v>0.697642</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.588102</v>
+        <v>0.577276</v>
       </c>
       <c r="C51" t="n">
-        <v>0.989394</v>
+        <v>0.957226</v>
       </c>
       <c r="D51" t="n">
-        <v>1.5158</v>
+        <v>1.43971</v>
       </c>
       <c r="E51" t="n">
-        <v>0.600647</v>
+        <v>0.584635</v>
       </c>
       <c r="F51" t="n">
-        <v>1.09947</v>
+        <v>1.05611</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.582081</v>
+        <v>0.575081</v>
       </c>
       <c r="C52" t="n">
-        <v>0.960099</v>
+        <v>0.990208</v>
       </c>
       <c r="D52" t="n">
-        <v>1.47646</v>
+        <v>1.44308</v>
       </c>
       <c r="E52" t="n">
-        <v>0.576425</v>
+        <v>0.5790650000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>1.08432</v>
+        <v>1.07726</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.878074</v>
+        <v>0.874301</v>
       </c>
       <c r="C53" t="n">
-        <v>1.41422</v>
+        <v>1.388</v>
       </c>
       <c r="D53" t="n">
-        <v>1.46001</v>
+        <v>1.43357</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5819299999999999</v>
+        <v>0.565361</v>
       </c>
       <c r="F53" t="n">
-        <v>1.04602</v>
+        <v>1.02983</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.836665</v>
+        <v>0.841596</v>
       </c>
       <c r="C54" t="n">
-        <v>1.36887</v>
+        <v>1.38812</v>
       </c>
       <c r="D54" t="n">
-        <v>1.4196</v>
+        <v>1.42287</v>
       </c>
       <c r="E54" t="n">
-        <v>0.546114</v>
+        <v>0.538516</v>
       </c>
       <c r="F54" t="n">
-        <v>1.02572</v>
+        <v>0.999241</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.84932</v>
+        <v>0.826143</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38987</v>
+        <v>1.38002</v>
       </c>
       <c r="D55" t="n">
-        <v>1.40041</v>
+        <v>1.3882</v>
       </c>
       <c r="E55" t="n">
-        <v>0.530394</v>
+        <v>0.520304</v>
       </c>
       <c r="F55" t="n">
-        <v>0.995019</v>
+        <v>0.992938</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.818831</v>
+        <v>0.858784</v>
       </c>
       <c r="C56" t="n">
-        <v>1.33734</v>
+        <v>1.36476</v>
       </c>
       <c r="D56" t="n">
-        <v>1.35975</v>
+        <v>1.35224</v>
       </c>
       <c r="E56" t="n">
-        <v>0.51175</v>
+        <v>0.503617</v>
       </c>
       <c r="F56" t="n">
-        <v>1.0205</v>
+        <v>0.969334</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.816163</v>
+        <v>0.791803</v>
       </c>
       <c r="C57" t="n">
-        <v>1.33058</v>
+        <v>1.33221</v>
       </c>
       <c r="D57" t="n">
-        <v>1.45236</v>
+        <v>1.43442</v>
       </c>
       <c r="E57" t="n">
-        <v>0.496451</v>
+        <v>0.506345</v>
       </c>
       <c r="F57" t="n">
-        <v>0.977344</v>
+        <v>0.953148</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8179</v>
+        <v>0.7861089999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>1.29353</v>
+        <v>1.30895</v>
       </c>
       <c r="D58" t="n">
-        <v>1.40717</v>
+        <v>1.3092</v>
       </c>
       <c r="E58" t="n">
-        <v>0.484477</v>
+        <v>0.475023</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9767</v>
+        <v>0.935728</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.772783</v>
+        <v>0.77506</v>
       </c>
       <c r="C59" t="n">
-        <v>1.28036</v>
+        <v>1.28919</v>
       </c>
       <c r="D59" t="n">
-        <v>1.34245</v>
+        <v>1.306</v>
       </c>
       <c r="E59" t="n">
-        <v>0.469022</v>
+        <v>0.477257</v>
       </c>
       <c r="F59" t="n">
-        <v>0.972046</v>
+        <v>0.9351</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.777677</v>
+        <v>0.797299</v>
       </c>
       <c r="C60" t="n">
-        <v>1.25377</v>
+        <v>1.32186</v>
       </c>
       <c r="D60" t="n">
-        <v>1.33838</v>
+        <v>1.28949</v>
       </c>
       <c r="E60" t="n">
-        <v>0.456891</v>
+        <v>0.449684</v>
       </c>
       <c r="F60" t="n">
-        <v>0.95475</v>
+        <v>0.9254250000000001</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.764819</v>
+        <v>0.760393</v>
       </c>
       <c r="C61" t="n">
-        <v>1.24475</v>
+        <v>1.2574</v>
       </c>
       <c r="D61" t="n">
-        <v>1.36881</v>
+        <v>1.27877</v>
       </c>
       <c r="E61" t="n">
-        <v>0.447987</v>
+        <v>0.443017</v>
       </c>
       <c r="F61" t="n">
-        <v>0.927852</v>
+        <v>0.910919</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.747417</v>
+        <v>0.756275</v>
       </c>
       <c r="C62" t="n">
-        <v>1.2726</v>
+        <v>1.27581</v>
       </c>
       <c r="D62" t="n">
-        <v>1.343</v>
+        <v>1.27989</v>
       </c>
       <c r="E62" t="n">
-        <v>0.435036</v>
+        <v>0.442902</v>
       </c>
       <c r="F62" t="n">
-        <v>0.937443</v>
+        <v>0.892587</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7648160000000001</v>
+        <v>0.760404</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22938</v>
+        <v>1.22628</v>
       </c>
       <c r="D63" t="n">
-        <v>1.36323</v>
+        <v>1.30129</v>
       </c>
       <c r="E63" t="n">
-        <v>0.422865</v>
+        <v>0.421562</v>
       </c>
       <c r="F63" t="n">
-        <v>0.917</v>
+        <v>0.889245</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.724946</v>
+        <v>0.7271260000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>1.23552</v>
+        <v>1.28719</v>
       </c>
       <c r="D64" t="n">
-        <v>2.44548</v>
+        <v>2.33222</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4121</v>
+        <v>0.411357</v>
       </c>
       <c r="F64" t="n">
-        <v>0.889718</v>
+        <v>0.880762</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.724347</v>
+        <v>0.723262</v>
       </c>
       <c r="C65" t="n">
-        <v>1.23006</v>
+        <v>1.21216</v>
       </c>
       <c r="D65" t="n">
-        <v>2.37354</v>
+        <v>2.29496</v>
       </c>
       <c r="E65" t="n">
-        <v>0.429337</v>
+        <v>0.404514</v>
       </c>
       <c r="F65" t="n">
-        <v>0.899653</v>
+        <v>0.88279</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.728405</v>
+        <v>0.715155</v>
       </c>
       <c r="C66" t="n">
-        <v>1.25575</v>
+        <v>1.20282</v>
       </c>
       <c r="D66" t="n">
-        <v>2.28855</v>
+        <v>2.28978</v>
       </c>
       <c r="E66" t="n">
-        <v>0.667409</v>
+        <v>0.685575</v>
       </c>
       <c r="F66" t="n">
-        <v>1.62589</v>
+        <v>1.56739</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.06008</v>
+        <v>1.00601</v>
       </c>
       <c r="C67" t="n">
-        <v>1.991</v>
+        <v>1.96259</v>
       </c>
       <c r="D67" t="n">
-        <v>2.32819</v>
+        <v>2.22847</v>
       </c>
       <c r="E67" t="n">
-        <v>0.649291</v>
+        <v>0.643406</v>
       </c>
       <c r="F67" t="n">
-        <v>1.507</v>
+        <v>1.61191</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.00427</v>
+        <v>0.987974</v>
       </c>
       <c r="C68" t="n">
-        <v>1.91909</v>
+        <v>1.92156</v>
       </c>
       <c r="D68" t="n">
-        <v>2.17735</v>
+        <v>2.17715</v>
       </c>
       <c r="E68" t="n">
-        <v>0.628477</v>
+        <v>0.634676</v>
       </c>
       <c r="F68" t="n">
-        <v>1.48423</v>
+        <v>1.48616</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.974351</v>
+        <v>0.967135</v>
       </c>
       <c r="C69" t="n">
-        <v>1.85682</v>
+        <v>1.86657</v>
       </c>
       <c r="D69" t="n">
-        <v>2.20974</v>
+        <v>2.15431</v>
       </c>
       <c r="E69" t="n">
-        <v>0.625806</v>
+        <v>0.642224</v>
       </c>
       <c r="F69" t="n">
-        <v>1.48372</v>
+        <v>1.46046</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.962449</v>
+        <v>0.990312</v>
       </c>
       <c r="C70" t="n">
-        <v>1.84796</v>
+        <v>1.90088</v>
       </c>
       <c r="D70" t="n">
-        <v>2.17686</v>
+        <v>2.11755</v>
       </c>
       <c r="E70" t="n">
-        <v>0.608067</v>
+        <v>0.592132</v>
       </c>
       <c r="F70" t="n">
-        <v>1.45042</v>
+        <v>1.4219</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.954605</v>
+        <v>0.971942</v>
       </c>
       <c r="C71" t="n">
-        <v>1.80646</v>
+        <v>1.82635</v>
       </c>
       <c r="D71" t="n">
-        <v>2.14743</v>
+        <v>2.05849</v>
       </c>
       <c r="E71" t="n">
-        <v>0.581597</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>1.42736</v>
+        <v>1.38176</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.947642</v>
+        <v>0.9171</v>
       </c>
       <c r="C72" t="n">
-        <v>1.79356</v>
+        <v>1.76126</v>
       </c>
       <c r="D72" t="n">
-        <v>2.11644</v>
+        <v>2.01323</v>
       </c>
       <c r="E72" t="n">
-        <v>0.572813</v>
+        <v>0.563403</v>
       </c>
       <c r="F72" t="n">
-        <v>1.37319</v>
+        <v>1.36579</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.928621</v>
+        <v>0.9023330000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>1.76063</v>
+        <v>1.76418</v>
       </c>
       <c r="D73" t="n">
-        <v>2.10071</v>
+        <v>2.01274</v>
       </c>
       <c r="E73" t="n">
-        <v>0.546736</v>
+        <v>0.560516</v>
       </c>
       <c r="F73" t="n">
-        <v>1.3805</v>
+        <v>1.33711</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.918286</v>
+        <v>0.8995919999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>1.72847</v>
+        <v>1.72251</v>
       </c>
       <c r="D74" t="n">
-        <v>2.11861</v>
+        <v>2.03143</v>
       </c>
       <c r="E74" t="n">
-        <v>0.584365</v>
+        <v>0.538111</v>
       </c>
       <c r="F74" t="n">
-        <v>1.33389</v>
+        <v>1.3107</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.898633</v>
+        <v>0.878211</v>
       </c>
       <c r="C75" t="n">
-        <v>1.67833</v>
+        <v>1.70881</v>
       </c>
       <c r="D75" t="n">
-        <v>1.99662</v>
+        <v>2.0054</v>
       </c>
       <c r="E75" t="n">
-        <v>0.519966</v>
+        <v>0.530048</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30014</v>
+        <v>1.30726</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.875744</v>
+        <v>0.8773879999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>1.66077</v>
+        <v>1.68605</v>
       </c>
       <c r="D76" t="n">
-        <v>1.98643</v>
+        <v>1.97698</v>
       </c>
       <c r="E76" t="n">
-        <v>0.519097</v>
+        <v>0.515438</v>
       </c>
       <c r="F76" t="n">
-        <v>1.29405</v>
+        <v>1.28136</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.861944</v>
+        <v>0.879552</v>
       </c>
       <c r="C77" t="n">
-        <v>1.61657</v>
+        <v>1.64117</v>
       </c>
       <c r="D77" t="n">
-        <v>2.02425</v>
+        <v>1.97857</v>
       </c>
       <c r="E77" t="n">
-        <v>0.500772</v>
+        <v>0.505283</v>
       </c>
       <c r="F77" t="n">
-        <v>1.24817</v>
+        <v>1.27281</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.87498</v>
+        <v>0.880011</v>
       </c>
       <c r="C78" t="n">
-        <v>1.5986</v>
+        <v>1.61649</v>
       </c>
       <c r="D78" t="n">
-        <v>3.51194</v>
+        <v>3.32192</v>
       </c>
       <c r="E78" t="n">
-        <v>0.493018</v>
+        <v>0.492633</v>
       </c>
       <c r="F78" t="n">
-        <v>1.25249</v>
+        <v>1.21132</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.845415</v>
+        <v>0.83056</v>
       </c>
       <c r="C79" t="n">
-        <v>1.62331</v>
+        <v>1.56754</v>
       </c>
       <c r="D79" t="n">
-        <v>3.28481</v>
+        <v>3.315</v>
       </c>
       <c r="E79" t="n">
-        <v>0.482253</v>
+        <v>0.48532</v>
       </c>
       <c r="F79" t="n">
-        <v>1.21379</v>
+        <v>1.19906</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.841278</v>
+        <v>0.830153</v>
       </c>
       <c r="C80" t="n">
-        <v>1.58842</v>
+        <v>1.55374</v>
       </c>
       <c r="D80" t="n">
-        <v>3.16759</v>
+        <v>3.16382</v>
       </c>
       <c r="E80" t="n">
-        <v>0.775356</v>
+        <v>0.7799970000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>2.14077</v>
+        <v>2.11413</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.14539</v>
+        <v>1.1235</v>
       </c>
       <c r="C81" t="n">
-        <v>2.49982</v>
+        <v>2.54635</v>
       </c>
       <c r="D81" t="n">
-        <v>3.23554</v>
+        <v>3.11278</v>
       </c>
       <c r="E81" t="n">
-        <v>0.75513</v>
+        <v>0.757182</v>
       </c>
       <c r="F81" t="n">
-        <v>2.07076</v>
+        <v>2.0635</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.1195</v>
+        <v>1.10631</v>
       </c>
       <c r="C82" t="n">
-        <v>2.4857</v>
+        <v>2.46866</v>
       </c>
       <c r="D82" t="n">
-        <v>3.20355</v>
+        <v>3.03991</v>
       </c>
       <c r="E82" t="n">
-        <v>0.745653</v>
+        <v>0.732262</v>
       </c>
       <c r="F82" t="n">
-        <v>2.08275</v>
+        <v>2.03027</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.09805</v>
+        <v>1.08465</v>
       </c>
       <c r="C83" t="n">
-        <v>2.42543</v>
+        <v>2.43871</v>
       </c>
       <c r="D83" t="n">
-        <v>3.03279</v>
+        <v>2.99651</v>
       </c>
       <c r="E83" t="n">
-        <v>0.762161</v>
+        <v>0.720483</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98119</v>
+        <v>1.98165</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.10118</v>
+        <v>1.12327</v>
       </c>
       <c r="C84" t="n">
-        <v>2.32971</v>
+        <v>2.33665</v>
       </c>
       <c r="D84" t="n">
-        <v>2.94032</v>
+        <v>2.93193</v>
       </c>
       <c r="E84" t="n">
-        <v>0.699953</v>
+        <v>0.722369</v>
       </c>
       <c r="F84" t="n">
-        <v>1.93075</v>
+        <v>1.92288</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.06672</v>
+        <v>1.09012</v>
       </c>
       <c r="C85" t="n">
-        <v>2.30725</v>
+        <v>2.31585</v>
       </c>
       <c r="D85" t="n">
-        <v>2.89795</v>
+        <v>2.90882</v>
       </c>
       <c r="E85" t="n">
-        <v>0.68828</v>
+        <v>0.702292</v>
       </c>
       <c r="F85" t="n">
-        <v>1.84948</v>
+        <v>1.85398</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.09865</v>
+        <v>1.03936</v>
       </c>
       <c r="C86" t="n">
-        <v>2.29819</v>
+        <v>2.23263</v>
       </c>
       <c r="D86" t="n">
-        <v>2.87545</v>
+        <v>2.8604</v>
       </c>
       <c r="E86" t="n">
-        <v>0.683256</v>
+        <v>0.673413</v>
       </c>
       <c r="F86" t="n">
-        <v>1.90173</v>
+        <v>1.82236</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05333</v>
+        <v>1.02233</v>
       </c>
       <c r="C87" t="n">
-        <v>2.2615</v>
+        <v>2.22673</v>
       </c>
       <c r="D87" t="n">
-        <v>2.84891</v>
+        <v>2.82225</v>
       </c>
       <c r="E87" t="n">
-        <v>0.697386</v>
+        <v>0.652786</v>
       </c>
       <c r="F87" t="n">
-        <v>1.77681</v>
+        <v>1.7688</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.03025</v>
+        <v>1.00682</v>
       </c>
       <c r="C88" t="n">
-        <v>2.15065</v>
+        <v>2.16147</v>
       </c>
       <c r="D88" t="n">
-        <v>2.86523</v>
+        <v>2.78343</v>
       </c>
       <c r="E88" t="n">
-        <v>0.646226</v>
+        <v>0.645205</v>
       </c>
       <c r="F88" t="n">
-        <v>1.7444</v>
+        <v>1.7763</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.01897</v>
+        <v>0.994754</v>
       </c>
       <c r="C89" t="n">
-        <v>2.13309</v>
+        <v>2.10644</v>
       </c>
       <c r="D89" t="n">
-        <v>2.80386</v>
+        <v>2.70388</v>
       </c>
       <c r="E89" t="n">
-        <v>0.645653</v>
+        <v>0.63486</v>
       </c>
       <c r="F89" t="n">
-        <v>1.74463</v>
+        <v>1.68359</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9936430000000001</v>
+        <v>0.987913</v>
       </c>
       <c r="C90" t="n">
-        <v>2.07794</v>
+        <v>2.07847</v>
       </c>
       <c r="D90" t="n">
-        <v>2.76663</v>
+        <v>2.69179</v>
       </c>
       <c r="E90" t="n">
-        <v>0.617579</v>
+        <v>0.617431</v>
       </c>
       <c r="F90" t="n">
-        <v>1.66007</v>
+        <v>1.6725</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.989398</v>
+        <v>0.989514</v>
       </c>
       <c r="C91" t="n">
-        <v>2.04099</v>
+        <v>2.03157</v>
       </c>
       <c r="D91" t="n">
-        <v>2.64697</v>
+        <v>2.65811</v>
       </c>
       <c r="E91" t="n">
-        <v>0.616791</v>
+        <v>0.61226</v>
       </c>
       <c r="F91" t="n">
-        <v>1.62771</v>
+        <v>1.64121</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.979257</v>
+        <v>0.958288</v>
       </c>
       <c r="C92" t="n">
-        <v>2.01478</v>
+        <v>1.98569</v>
       </c>
       <c r="D92" t="n">
-        <v>3.90642</v>
+        <v>3.79718</v>
       </c>
       <c r="E92" t="n">
-        <v>0.610083</v>
+        <v>0.592885</v>
       </c>
       <c r="F92" t="n">
-        <v>1.60063</v>
+        <v>1.57862</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.96293</v>
+        <v>0.949763</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00563</v>
+        <v>1.94377</v>
       </c>
       <c r="D93" t="n">
-        <v>3.76725</v>
+        <v>3.72392</v>
       </c>
       <c r="E93" t="n">
-        <v>0.59962</v>
+        <v>0.585001</v>
       </c>
       <c r="F93" t="n">
-        <v>1.60322</v>
+        <v>1.59523</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.943671</v>
+        <v>0.935763</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93956</v>
+        <v>1.93385</v>
       </c>
       <c r="D94" t="n">
-        <v>3.65159</v>
+        <v>3.66593</v>
       </c>
       <c r="E94" t="n">
-        <v>0.913873</v>
+        <v>0.8840209999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>2.64117</v>
+        <v>2.61054</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25873</v>
+        <v>1.27256</v>
       </c>
       <c r="C95" t="n">
-        <v>3.06147</v>
+        <v>3.01408</v>
       </c>
       <c r="D95" t="n">
-        <v>3.60459</v>
+        <v>3.58517</v>
       </c>
       <c r="E95" t="n">
-        <v>0.876889</v>
+        <v>0.879955</v>
       </c>
       <c r="F95" t="n">
-        <v>2.5858</v>
+        <v>2.54646</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.26032</v>
+        <v>1.2466</v>
       </c>
       <c r="C96" t="n">
-        <v>3.02877</v>
+        <v>2.92575</v>
       </c>
       <c r="D96" t="n">
-        <v>3.59153</v>
+        <v>3.53331</v>
       </c>
       <c r="E96" t="n">
-        <v>0.859691</v>
+        <v>0.848376</v>
       </c>
       <c r="F96" t="n">
-        <v>2.52215</v>
+        <v>2.48189</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.25093</v>
+        <v>1.21059</v>
       </c>
       <c r="C97" t="n">
-        <v>2.89948</v>
+        <v>2.86056</v>
       </c>
       <c r="D97" t="n">
-        <v>3.48671</v>
+        <v>3.46859</v>
       </c>
       <c r="E97" t="n">
-        <v>0.877661</v>
+        <v>0.861557</v>
       </c>
       <c r="F97" t="n">
-        <v>2.42135</v>
+        <v>2.40725</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.26073</v>
+        <v>1.20444</v>
       </c>
       <c r="C98" t="n">
-        <v>2.82093</v>
+        <v>2.78496</v>
       </c>
       <c r="D98" t="n">
-        <v>3.42311</v>
+        <v>3.37745</v>
       </c>
       <c r="E98" t="n">
-        <v>0.836962</v>
+        <v>0.852696</v>
       </c>
       <c r="F98" t="n">
-        <v>2.37305</v>
+        <v>2.35911</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.22884</v>
+        <v>1.20323</v>
       </c>
       <c r="C99" t="n">
-        <v>2.75428</v>
+        <v>2.7651</v>
       </c>
       <c r="D99" t="n">
-        <v>3.33866</v>
+        <v>3.35206</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8268219999999999</v>
+        <v>0.816459</v>
       </c>
       <c r="F99" t="n">
-        <v>2.35779</v>
+        <v>2.29829</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.23318</v>
+        <v>1.16213</v>
       </c>
       <c r="C100" t="n">
-        <v>2.7674</v>
+        <v>2.67838</v>
       </c>
       <c r="D100" t="n">
-        <v>3.38075</v>
+        <v>3.32828</v>
       </c>
       <c r="E100" t="n">
-        <v>0.842812</v>
+        <v>0.81382</v>
       </c>
       <c r="F100" t="n">
-        <v>2.32118</v>
+        <v>2.22679</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16908</v>
+        <v>1.15215</v>
       </c>
       <c r="C101" t="n">
-        <v>2.71413</v>
+        <v>2.62307</v>
       </c>
       <c r="D101" t="n">
-        <v>3.4339</v>
+        <v>3.29614</v>
       </c>
       <c r="E101" t="n">
-        <v>0.797588</v>
+        <v>0.798179</v>
       </c>
       <c r="F101" t="n">
-        <v>2.30609</v>
+        <v>2.16521</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.17819</v>
+        <v>1.14618</v>
       </c>
       <c r="C102" t="n">
-        <v>2.6528</v>
+        <v>2.58523</v>
       </c>
       <c r="D102" t="n">
-        <v>3.38448</v>
+        <v>3.16262</v>
       </c>
       <c r="E102" t="n">
-        <v>0.786023</v>
+        <v>0.7807770000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>2.19308</v>
+        <v>2.11756</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.13157</v>
+        <v>1.12693</v>
       </c>
       <c r="C103" t="n">
-        <v>2.5802</v>
+        <v>2.51764</v>
       </c>
       <c r="D103" t="n">
-        <v>3.21606</v>
+        <v>3.12233</v>
       </c>
       <c r="E103" t="n">
-        <v>0.750648</v>
+        <v>0.789184</v>
       </c>
       <c r="F103" t="n">
-        <v>2.10785</v>
+        <v>2.12969</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.14974</v>
+        <v>1.12343</v>
       </c>
       <c r="C104" t="n">
-        <v>2.58601</v>
+        <v>2.52593</v>
       </c>
       <c r="D104" t="n">
-        <v>3.21991</v>
+        <v>3.14681</v>
       </c>
       <c r="E104" t="n">
-        <v>0.790384</v>
+        <v>0.738707</v>
       </c>
       <c r="F104" t="n">
-        <v>2.06939</v>
+        <v>2.03221</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12774</v>
+        <v>1.14414</v>
       </c>
       <c r="C105" t="n">
-        <v>2.45318</v>
+        <v>2.4453</v>
       </c>
       <c r="D105" t="n">
-        <v>3.14685</v>
+        <v>3.09648</v>
       </c>
       <c r="E105" t="n">
-        <v>0.777399</v>
+        <v>0.721195</v>
       </c>
       <c r="F105" t="n">
-        <v>2.04448</v>
+        <v>2.01966</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.11749</v>
+        <v>1.09931</v>
       </c>
       <c r="C106" t="n">
-        <v>2.42979</v>
+        <v>2.48225</v>
       </c>
       <c r="D106" t="n">
-        <v>3.16717</v>
+        <v>3.07741</v>
       </c>
       <c r="E106" t="n">
-        <v>0.725658</v>
+        <v>0.721697</v>
       </c>
       <c r="F106" t="n">
-        <v>2.01767</v>
+        <v>2.05224</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09747</v>
+        <v>1.1014</v>
       </c>
       <c r="C107" t="n">
-        <v>2.41524</v>
+        <v>2.3443</v>
       </c>
       <c r="D107" t="n">
-        <v>4.36119</v>
+        <v>4.24633</v>
       </c>
       <c r="E107" t="n">
-        <v>0.716965</v>
+        <v>0.72446</v>
       </c>
       <c r="F107" t="n">
-        <v>1.96425</v>
+        <v>1.90951</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08947</v>
+        <v>1.08619</v>
       </c>
       <c r="C108" t="n">
-        <v>2.35361</v>
+        <v>2.33134</v>
       </c>
       <c r="D108" t="n">
-        <v>4.20716</v>
+        <v>4.1012</v>
       </c>
       <c r="E108" t="n">
-        <v>1.03425</v>
+        <v>1.0175</v>
       </c>
       <c r="F108" t="n">
-        <v>3.20698</v>
+        <v>3.12454</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.10273</v>
+        <v>1.08994</v>
       </c>
       <c r="C109" t="n">
-        <v>2.33529</v>
+        <v>2.33971</v>
       </c>
       <c r="D109" t="n">
-        <v>4.13339</v>
+        <v>4.05064</v>
       </c>
       <c r="E109" t="n">
-        <v>1.02217</v>
+        <v>1.00332</v>
       </c>
       <c r="F109" t="n">
-        <v>3.1308</v>
+        <v>2.99789</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.43713</v>
+        <v>1.42783</v>
       </c>
       <c r="C110" t="n">
-        <v>3.50025</v>
+        <v>3.4541</v>
       </c>
       <c r="D110" t="n">
-        <v>4.01771</v>
+        <v>3.97999</v>
       </c>
       <c r="E110" t="n">
-        <v>1.01266</v>
+        <v>1.0225</v>
       </c>
       <c r="F110" t="n">
-        <v>2.99758</v>
+        <v>2.92588</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37407</v>
+        <v>1.4104</v>
       </c>
       <c r="C111" t="n">
-        <v>3.42195</v>
+        <v>3.3788</v>
       </c>
       <c r="D111" t="n">
-        <v>3.94343</v>
+        <v>3.96047</v>
       </c>
       <c r="E111" t="n">
-        <v>0.998166</v>
+        <v>1.01345</v>
       </c>
       <c r="F111" t="n">
-        <v>2.90024</v>
+        <v>2.86359</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.35701</v>
+        <v>1.35181</v>
       </c>
       <c r="C112" t="n">
-        <v>3.35733</v>
+        <v>3.30534</v>
       </c>
       <c r="D112" t="n">
-        <v>4.01197</v>
+        <v>3.95093</v>
       </c>
       <c r="E112" t="n">
-        <v>1.02082</v>
+        <v>1.01117</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79772</v>
+        <v>2.79292</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37447</v>
+        <v>1.36722</v>
       </c>
       <c r="C113" t="n">
-        <v>3.30776</v>
+        <v>3.18008</v>
       </c>
       <c r="D113" t="n">
-        <v>3.8098</v>
+        <v>3.75397</v>
       </c>
       <c r="E113" t="n">
-        <v>1.02451</v>
+        <v>1.01673</v>
       </c>
       <c r="F113" t="n">
-        <v>2.75069</v>
+        <v>2.76896</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.37699</v>
+        <v>1.3665</v>
       </c>
       <c r="C114" t="n">
-        <v>3.29101</v>
+        <v>3.14652</v>
       </c>
       <c r="D114" t="n">
-        <v>3.74814</v>
+        <v>3.74576</v>
       </c>
       <c r="E114" t="n">
-        <v>0.993587</v>
+        <v>0.956162</v>
       </c>
       <c r="F114" t="n">
-        <v>2.6832</v>
+        <v>2.66212</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32706</v>
+        <v>1.35415</v>
       </c>
       <c r="C115" t="n">
-        <v>3.16234</v>
+        <v>3.14981</v>
       </c>
       <c r="D115" t="n">
-        <v>3.73987</v>
+        <v>3.67925</v>
       </c>
       <c r="E115" t="n">
-        <v>0.983378</v>
+        <v>0.953752</v>
       </c>
       <c r="F115" t="n">
-        <v>2.62656</v>
+        <v>2.58979</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.32235</v>
+        <v>1.30814</v>
       </c>
       <c r="C116" t="n">
-        <v>3.12134</v>
+        <v>3.04873</v>
       </c>
       <c r="D116" t="n">
-        <v>3.70402</v>
+        <v>3.60757</v>
       </c>
       <c r="E116" t="n">
-        <v>0.963738</v>
+        <v>1.00222</v>
       </c>
       <c r="F116" t="n">
-        <v>2.64088</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.3316</v>
+        <v>1.30498</v>
       </c>
       <c r="C117" t="n">
-        <v>3.0352</v>
+        <v>2.98347</v>
       </c>
       <c r="D117" t="n">
-        <v>3.62711</v>
+        <v>3.56574</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9638409999999999</v>
+        <v>0.966675</v>
       </c>
       <c r="F117" t="n">
-        <v>2.54444</v>
+        <v>2.51509</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.31024</v>
+        <v>1.3092</v>
       </c>
       <c r="C118" t="n">
-        <v>3.01554</v>
+        <v>2.94911</v>
       </c>
       <c r="D118" t="n">
-        <v>3.59673</v>
+        <v>3.50479</v>
       </c>
       <c r="E118" t="n">
-        <v>0.958833</v>
+        <v>0.939754</v>
       </c>
       <c r="F118" t="n">
-        <v>2.54265</v>
+        <v>2.43692</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.30231</v>
+        <v>1.28622</v>
       </c>
       <c r="C119" t="n">
-        <v>2.93438</v>
+        <v>2.86083</v>
       </c>
       <c r="D119" t="n">
-        <v>3.61277</v>
+        <v>3.45628</v>
       </c>
       <c r="E119" t="n">
-        <v>0.94828</v>
+        <v>0.93458</v>
       </c>
       <c r="F119" t="n">
-        <v>2.43198</v>
+        <v>2.43527</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.28855</v>
+        <v>1.2943</v>
       </c>
       <c r="C120" t="n">
-        <v>2.88619</v>
+        <v>2.80829</v>
       </c>
       <c r="D120" t="n">
-        <v>3.49539</v>
+        <v>3.44937</v>
       </c>
       <c r="E120" t="n">
-        <v>0.936097</v>
+        <v>0.9116</v>
       </c>
       <c r="F120" t="n">
-        <v>2.44277</v>
+        <v>2.36536</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29925</v>
+        <v>1.30072</v>
       </c>
       <c r="C121" t="n">
-        <v>2.87964</v>
+        <v>2.80846</v>
       </c>
       <c r="D121" t="n">
-        <v>4.84263</v>
+        <v>4.78357</v>
       </c>
       <c r="E121" t="n">
-        <v>0.914754</v>
+        <v>0.933023</v>
       </c>
       <c r="F121" t="n">
-        <v>2.3714</v>
+        <v>2.32912</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.30543</v>
+        <v>1.2874</v>
       </c>
       <c r="C122" t="n">
-        <v>2.81355</v>
+        <v>2.7601</v>
       </c>
       <c r="D122" t="n">
-        <v>4.78928</v>
+        <v>4.67059</v>
       </c>
       <c r="E122" t="n">
-        <v>0.932647</v>
+        <v>0.9396099999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>2.31969</v>
+        <v>2.28346</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27206</v>
+        <v>1.27097</v>
       </c>
       <c r="C123" t="n">
-        <v>2.81253</v>
+        <v>2.74013</v>
       </c>
       <c r="D123" t="n">
-        <v>4.62504</v>
+        <v>4.58431</v>
       </c>
       <c r="E123" t="n">
-        <v>1.24431</v>
+        <v>1.23172</v>
       </c>
       <c r="F123" t="n">
-        <v>3.59458</v>
+        <v>3.50101</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.60777</v>
+        <v>1.58085</v>
       </c>
       <c r="C124" t="n">
-        <v>4.07894</v>
+        <v>3.97246</v>
       </c>
       <c r="D124" t="n">
-        <v>4.59379</v>
+        <v>4.51048</v>
       </c>
       <c r="E124" t="n">
-        <v>1.26319</v>
+        <v>1.24143</v>
       </c>
       <c r="F124" t="n">
-        <v>3.52254</v>
+        <v>3.44926</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.59838</v>
+        <v>1.58352</v>
       </c>
       <c r="C125" t="n">
-        <v>3.95669</v>
+        <v>3.89206</v>
       </c>
       <c r="D125" t="n">
-        <v>4.46983</v>
+        <v>4.37148</v>
       </c>
       <c r="E125" t="n">
-        <v>1.25664</v>
+        <v>1.23736</v>
       </c>
       <c r="F125" t="n">
-        <v>3.42404</v>
+        <v>3.35754</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.61735</v>
+        <v>1.56132</v>
       </c>
       <c r="C126" t="n">
-        <v>3.91996</v>
+        <v>3.82759</v>
       </c>
       <c r="D126" t="n">
-        <v>4.42541</v>
+        <v>4.34077</v>
       </c>
       <c r="E126" t="n">
-        <v>1.25681</v>
+        <v>1.2597</v>
       </c>
       <c r="F126" t="n">
-        <v>3.30553</v>
+        <v>3.29046</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57679</v>
+        <v>1.57175</v>
       </c>
       <c r="C127" t="n">
-        <v>3.80705</v>
+        <v>3.72349</v>
       </c>
       <c r="D127" t="n">
-        <v>4.34206</v>
+        <v>4.2838</v>
       </c>
       <c r="E127" t="n">
-        <v>1.27743</v>
+        <v>1.25459</v>
       </c>
       <c r="F127" t="n">
-        <v>3.27658</v>
+        <v>3.22692</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.59627</v>
+        <v>1.5694</v>
       </c>
       <c r="C128" t="n">
-        <v>3.78973</v>
+        <v>3.67909</v>
       </c>
       <c r="D128" t="n">
-        <v>4.28453</v>
+        <v>4.2519</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25944</v>
+        <v>1.25464</v>
       </c>
       <c r="F128" t="n">
-        <v>3.1916</v>
+        <v>3.11849</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.6158</v>
+        <v>1.56019</v>
       </c>
       <c r="C129" t="n">
-        <v>3.66451</v>
+        <v>3.63092</v>
       </c>
       <c r="D129" t="n">
-        <v>4.23638</v>
+        <v>4.1597</v>
       </c>
       <c r="E129" t="n">
-        <v>1.27584</v>
+        <v>1.25565</v>
       </c>
       <c r="F129" t="n">
-        <v>3.11055</v>
+        <v>3.09018</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55822</v>
+        <v>1.53971</v>
       </c>
       <c r="C130" t="n">
-        <v>3.61145</v>
+        <v>3.56111</v>
       </c>
       <c r="D130" t="n">
-        <v>4.16696</v>
+        <v>4.10859</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24517</v>
+        <v>1.23636</v>
       </c>
       <c r="F130" t="n">
-        <v>3.06928</v>
+        <v>3.05208</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.57484</v>
+        <v>1.554</v>
       </c>
       <c r="C131" t="n">
-        <v>3.5502</v>
+        <v>3.47634</v>
       </c>
       <c r="D131" t="n">
-        <v>4.09762</v>
+        <v>4.06389</v>
       </c>
       <c r="E131" t="n">
-        <v>1.27252</v>
+        <v>1.26167</v>
       </c>
       <c r="F131" t="n">
-        <v>3.04025</v>
+        <v>2.9689</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.56566</v>
+        <v>1.55494</v>
       </c>
       <c r="C132" t="n">
-        <v>3.49199</v>
+        <v>3.41567</v>
       </c>
       <c r="D132" t="n">
-        <v>4.15534</v>
+        <v>4.0226</v>
       </c>
       <c r="E132" t="n">
-        <v>1.30118</v>
+        <v>1.24682</v>
       </c>
       <c r="F132" t="n">
-        <v>2.96459</v>
+        <v>2.90879</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.5957</v>
+        <v>1.55389</v>
       </c>
       <c r="C133" t="n">
-        <v>3.40448</v>
+        <v>3.38308</v>
       </c>
       <c r="D133" t="n">
-        <v>4.09893</v>
+        <v>3.9872</v>
       </c>
       <c r="E133" t="n">
-        <v>1.26449</v>
+        <v>1.25491</v>
       </c>
       <c r="F133" t="n">
-        <v>2.91416</v>
+        <v>2.84977</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.57993</v>
+        <v>1.52573</v>
       </c>
       <c r="C134" t="n">
-        <v>3.39528</v>
+        <v>3.37096</v>
       </c>
       <c r="D134" t="n">
-        <v>4.06716</v>
+        <v>3.95104</v>
       </c>
       <c r="E134" t="n">
-        <v>1.25174</v>
+        <v>1.23444</v>
       </c>
       <c r="F134" t="n">
-        <v>2.84013</v>
+        <v>2.80208</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.56575</v>
+        <v>1.5593</v>
       </c>
       <c r="C135" t="n">
-        <v>3.35752</v>
+        <v>3.27269</v>
       </c>
       <c r="D135" t="n">
-        <v>5.60607</v>
+        <v>5.45972</v>
       </c>
       <c r="E135" t="n">
-        <v>1.27156</v>
+        <v>1.23075</v>
       </c>
       <c r="F135" t="n">
-        <v>2.8151</v>
+        <v>2.75729</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.57579</v>
+        <v>1.56553</v>
       </c>
       <c r="C136" t="n">
-        <v>3.28209</v>
+        <v>3.1949</v>
       </c>
       <c r="D136" t="n">
-        <v>5.46235</v>
+        <v>5.32337</v>
       </c>
       <c r="E136" t="n">
-        <v>1.25339</v>
+        <v>1.24118</v>
       </c>
       <c r="F136" t="n">
-        <v>2.74235</v>
+        <v>2.75504</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.5582</v>
+        <v>1.56406</v>
       </c>
       <c r="C137" t="n">
-        <v>3.2754</v>
+        <v>3.21457</v>
       </c>
       <c r="D137" t="n">
-        <v>5.33827</v>
+        <v>5.23103</v>
       </c>
       <c r="E137" t="n">
-        <v>1.59744</v>
+        <v>1.59151</v>
       </c>
       <c r="F137" t="n">
-        <v>4.15397</v>
+        <v>4.14725</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.87911</v>
+        <v>1.84431</v>
       </c>
       <c r="C138" t="n">
-        <v>4.65604</v>
+        <v>4.61619</v>
       </c>
       <c r="D138" t="n">
-        <v>5.19162</v>
+        <v>5.16643</v>
       </c>
       <c r="E138" t="n">
-        <v>1.61094</v>
+        <v>1.57481</v>
       </c>
       <c r="F138" t="n">
-        <v>4.01132</v>
+        <v>3.95618</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.87451</v>
+        <v>1.85699</v>
       </c>
       <c r="C139" t="n">
-        <v>4.58891</v>
+        <v>4.53914</v>
       </c>
       <c r="D139" t="n">
-        <v>5.12384</v>
+        <v>5.04912</v>
       </c>
       <c r="E139" t="n">
-        <v>1.61073</v>
+        <v>1.57779</v>
       </c>
       <c r="F139" t="n">
-        <v>3.97651</v>
+        <v>3.92055</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.88483</v>
+        <v>1.84613</v>
       </c>
       <c r="C140" t="n">
-        <v>4.51766</v>
+        <v>4.39095</v>
       </c>
       <c r="D140" t="n">
-        <v>5.05206</v>
+        <v>4.99036</v>
       </c>
       <c r="E140" t="n">
-        <v>1.638</v>
+        <v>1.57948</v>
       </c>
       <c r="F140" t="n">
-        <v>3.88669</v>
+        <v>3.81256</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.89462</v>
+        <v>1.81761</v>
       </c>
       <c r="C141" t="n">
-        <v>4.37606</v>
+        <v>4.29797</v>
       </c>
       <c r="D141" t="n">
-        <v>4.91847</v>
+        <v>4.86895</v>
       </c>
       <c r="E141" t="n">
-        <v>1.59965</v>
+        <v>1.58084</v>
       </c>
       <c r="F141" t="n">
-        <v>3.80565</v>
+        <v>3.74341</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.88472</v>
+        <v>1.86125</v>
       </c>
       <c r="C142" t="n">
-        <v>4.30349</v>
+        <v>4.21</v>
       </c>
       <c r="D142" t="n">
-        <v>4.8434</v>
+        <v>4.80107</v>
       </c>
       <c r="E142" t="n">
-        <v>1.61212</v>
+        <v>1.58794</v>
       </c>
       <c r="F142" t="n">
-        <v>3.68698</v>
+        <v>3.64256</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85757</v>
+        <v>1.84139</v>
       </c>
       <c r="C143" t="n">
-        <v>4.23966</v>
+        <v>4.18315</v>
       </c>
       <c r="D143" t="n">
-        <v>4.80564</v>
+        <v>4.72921</v>
       </c>
       <c r="E143" t="n">
-        <v>1.64845</v>
+        <v>1.59682</v>
       </c>
       <c r="F143" t="n">
-        <v>3.58384</v>
+        <v>3.58543</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.48192</v>
+        <v>0.513828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.803482</v>
+        <v>0.845851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76596</v>
+        <v>0.824308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.203953</v>
+        <v>0.219777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.583296</v>
+        <v>0.619368</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413607</v>
+        <v>0.424774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.780883</v>
+        <v>0.800584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.764548</v>
+        <v>0.801158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200887</v>
+        <v>0.209117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.578331</v>
+        <v>0.59907</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.417767</v>
+        <v>0.420465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.795915</v>
+        <v>0.837691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793708</v>
+        <v>0.810458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191065</v>
+        <v>0.205352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575483</v>
+        <v>0.598646</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.397785</v>
+        <v>0.41914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783269</v>
+        <v>0.858152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73761</v>
+        <v>0.823087</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187343</v>
+        <v>0.197239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.568485</v>
+        <v>0.59224</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.401363</v>
+        <v>0.433466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758535</v>
+        <v>0.832954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.751711</v>
+        <v>0.787191</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18477</v>
+        <v>0.19391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.556011</v>
+        <v>0.595288</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.392046</v>
+        <v>0.418547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.756528</v>
+        <v>0.838262</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905757</v>
+        <v>0.955034</v>
       </c>
       <c r="E7" t="n">
-        <v>0.181212</v>
+        <v>0.192999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.55271</v>
+        <v>0.5888409999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.388947</v>
+        <v>0.406143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.764621</v>
+        <v>0.789973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8864880000000001</v>
+        <v>0.956958</v>
       </c>
       <c r="E8" t="n">
-        <v>0.184837</v>
+        <v>0.187557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.562923</v>
+        <v>0.5944739999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.388703</v>
+        <v>0.396357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75364</v>
+        <v>0.7685419999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.868153</v>
+        <v>0.908256</v>
       </c>
       <c r="E9" t="n">
-        <v>0.26003</v>
+        <v>0.270326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.659176</v>
+        <v>0.6687689999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466197</v>
+        <v>0.486401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.850452</v>
+        <v>0.894898</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8688360000000001</v>
+        <v>0.8869359999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.255261</v>
+        <v>0.25718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.635594</v>
+        <v>0.661116</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466197</v>
+        <v>0.474419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.891846</v>
+        <v>0.861187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.864375</v>
+        <v>0.870309</v>
       </c>
       <c r="E11" t="n">
-        <v>0.247891</v>
+        <v>0.249093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.652701</v>
+        <v>0.658201</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465645</v>
+        <v>0.4718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.886135</v>
+        <v>0.847221</v>
       </c>
       <c r="D12" t="n">
-        <v>0.849743</v>
+        <v>0.854218</v>
       </c>
       <c r="E12" t="n">
-        <v>0.238741</v>
+        <v>0.241186</v>
       </c>
       <c r="F12" t="n">
-        <v>0.647127</v>
+        <v>0.625979</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.457595</v>
+        <v>0.449604</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8372270000000001</v>
+        <v>0.839877</v>
       </c>
       <c r="D13" t="n">
-        <v>0.828494</v>
+        <v>0.838909</v>
       </c>
       <c r="E13" t="n">
-        <v>0.235963</v>
+        <v>0.231402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.61788</v>
+        <v>0.629417</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4476</v>
+        <v>0.453177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.843939</v>
+        <v>0.830371</v>
       </c>
       <c r="D14" t="n">
-        <v>0.833325</v>
+        <v>0.8401650000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.223588</v>
+        <v>0.229391</v>
       </c>
       <c r="F14" t="n">
-        <v>0.617821</v>
+        <v>0.6349669999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449421</v>
+        <v>0.444598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8207680000000001</v>
+        <v>0.813194</v>
       </c>
       <c r="D15" t="n">
-        <v>0.82281</v>
+        <v>0.839255</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223951</v>
+        <v>0.219015</v>
       </c>
       <c r="F15" t="n">
-        <v>0.615098</v>
+        <v>0.6394069999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435577</v>
+        <v>0.432005</v>
       </c>
       <c r="C16" t="n">
-        <v>0.860923</v>
+        <v>0.823179</v>
       </c>
       <c r="D16" t="n">
-        <v>0.824901</v>
+        <v>0.842428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.213348</v>
+        <v>0.21196</v>
       </c>
       <c r="F16" t="n">
-        <v>0.605032</v>
+        <v>0.606179</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441621</v>
+        <v>0.427634</v>
       </c>
       <c r="C17" t="n">
-        <v>0.830554</v>
+        <v>0.822289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.804276</v>
+        <v>0.810038</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208135</v>
+        <v>0.205676</v>
       </c>
       <c r="F17" t="n">
-        <v>0.59778</v>
+        <v>0.605796</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429907</v>
+        <v>0.421292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.813591</v>
+        <v>0.806639</v>
       </c>
       <c r="D18" t="n">
-        <v>0.798949</v>
+        <v>0.802076</v>
       </c>
       <c r="E18" t="n">
-        <v>0.201905</v>
+        <v>0.201355</v>
       </c>
       <c r="F18" t="n">
-        <v>0.598978</v>
+        <v>0.597724</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450304</v>
+        <v>0.417843</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8106910000000001</v>
+        <v>0.813941</v>
       </c>
       <c r="D19" t="n">
-        <v>0.819248</v>
+        <v>0.809615</v>
       </c>
       <c r="E19" t="n">
-        <v>0.197181</v>
+        <v>0.196414</v>
       </c>
       <c r="F19" t="n">
-        <v>0.590521</v>
+        <v>0.587035</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438839</v>
+        <v>0.417687</v>
       </c>
       <c r="C20" t="n">
-        <v>0.80472</v>
+        <v>0.786115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.793025</v>
+        <v>0.793554</v>
       </c>
       <c r="E20" t="n">
-        <v>0.195299</v>
+        <v>0.192494</v>
       </c>
       <c r="F20" t="n">
-        <v>0.591287</v>
+        <v>0.589394</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415278</v>
+        <v>0.407604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.800442</v>
+        <v>0.822376</v>
       </c>
       <c r="D21" t="n">
-        <v>0.952527</v>
+        <v>0.961462</v>
       </c>
       <c r="E21" t="n">
-        <v>0.194118</v>
+        <v>0.191264</v>
       </c>
       <c r="F21" t="n">
-        <v>0.578873</v>
+        <v>0.6038480000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409983</v>
+        <v>0.42311</v>
       </c>
       <c r="C22" t="n">
-        <v>0.800202</v>
+        <v>0.792468</v>
       </c>
       <c r="D22" t="n">
-        <v>0.945319</v>
+        <v>0.949478</v>
       </c>
       <c r="E22" t="n">
-        <v>0.194684</v>
+        <v>0.19461</v>
       </c>
       <c r="F22" t="n">
-        <v>0.585097</v>
+        <v>0.579962</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40511</v>
+        <v>0.402471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.793082</v>
+        <v>0.774207</v>
       </c>
       <c r="D23" t="n">
-        <v>0.943762</v>
+        <v>0.926763</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42763</v>
+        <v>0.430624</v>
       </c>
       <c r="F23" t="n">
-        <v>0.720847</v>
+        <v>0.671417</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.672392</v>
+        <v>0.647959</v>
       </c>
       <c r="C24" t="n">
-        <v>0.976346</v>
+        <v>0.896834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9174949999999999</v>
+        <v>0.943511</v>
       </c>
       <c r="E24" t="n">
-        <v>0.420717</v>
+        <v>0.421118</v>
       </c>
       <c r="F24" t="n">
-        <v>0.751348</v>
+        <v>0.6607</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.633236</v>
+        <v>0.631925</v>
       </c>
       <c r="C25" t="n">
-        <v>0.894219</v>
+        <v>0.879579</v>
       </c>
       <c r="D25" t="n">
-        <v>0.918327</v>
+        <v>0.90705</v>
       </c>
       <c r="E25" t="n">
-        <v>0.397047</v>
+        <v>0.397905</v>
       </c>
       <c r="F25" t="n">
-        <v>0.661914</v>
+        <v>0.658455</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621128</v>
+        <v>0.631236</v>
       </c>
       <c r="C26" t="n">
-        <v>0.876839</v>
+        <v>0.880125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.900118</v>
+        <v>0.9075490000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388179</v>
+        <v>0.403187</v>
       </c>
       <c r="F26" t="n">
-        <v>0.652736</v>
+        <v>0.650353</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.630139</v>
+        <v>0.600672</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8719479999999999</v>
+        <v>0.860904</v>
       </c>
       <c r="D27" t="n">
-        <v>0.881993</v>
+        <v>0.924976</v>
       </c>
       <c r="E27" t="n">
-        <v>0.374119</v>
+        <v>0.368899</v>
       </c>
       <c r="F27" t="n">
-        <v>0.647858</v>
+        <v>0.65225</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588228</v>
+        <v>0.596258</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8635890000000001</v>
+        <v>0.87925</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8772450000000001</v>
+        <v>0.881619</v>
       </c>
       <c r="E28" t="n">
-        <v>0.36124</v>
+        <v>0.356933</v>
       </c>
       <c r="F28" t="n">
-        <v>0.652332</v>
+        <v>0.640147</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579385</v>
+        <v>0.5870880000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.859093</v>
+        <v>0.849944</v>
       </c>
       <c r="D29" t="n">
-        <v>0.883281</v>
+        <v>0.885225</v>
       </c>
       <c r="E29" t="n">
-        <v>0.35249</v>
+        <v>0.350909</v>
       </c>
       <c r="F29" t="n">
-        <v>0.635771</v>
+        <v>0.627413</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.577458</v>
+        <v>0.567042</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8632919999999999</v>
+        <v>0.86142</v>
       </c>
       <c r="D30" t="n">
-        <v>0.867932</v>
+        <v>0.857229</v>
       </c>
       <c r="E30" t="n">
-        <v>0.332001</v>
+        <v>0.331843</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6465070000000001</v>
+        <v>0.64515</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.561315</v>
+        <v>0.558364</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8408870000000001</v>
+        <v>0.829688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8449719999999999</v>
+        <v>0.858743</v>
       </c>
       <c r="E31" t="n">
-        <v>0.319588</v>
+        <v>0.324293</v>
       </c>
       <c r="F31" t="n">
-        <v>0.631279</v>
+        <v>0.616305</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.553531</v>
+        <v>0.5532319999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.852399</v>
+        <v>0.836405</v>
       </c>
       <c r="D32" t="n">
-        <v>0.842844</v>
+        <v>0.842337</v>
       </c>
       <c r="E32" t="n">
-        <v>0.320879</v>
+        <v>0.311626</v>
       </c>
       <c r="F32" t="n">
-        <v>0.61826</v>
+        <v>0.6125080000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.533807</v>
+        <v>0.531216</v>
       </c>
       <c r="C33" t="n">
-        <v>0.830713</v>
+        <v>0.830893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.842776</v>
+        <v>0.857287</v>
       </c>
       <c r="E33" t="n">
-        <v>0.310478</v>
+        <v>0.303842</v>
       </c>
       <c r="F33" t="n">
-        <v>0.627621</v>
+        <v>0.606307</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534656</v>
+        <v>0.533135</v>
       </c>
       <c r="C34" t="n">
-        <v>0.837732</v>
+        <v>0.818384</v>
       </c>
       <c r="D34" t="n">
-        <v>0.832028</v>
+        <v>0.846095</v>
       </c>
       <c r="E34" t="n">
-        <v>0.296947</v>
+        <v>0.304198</v>
       </c>
       <c r="F34" t="n">
-        <v>0.609051</v>
+        <v>0.612748</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525997</v>
+        <v>0.5313600000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.848962</v>
+        <v>0.833358</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0957</v>
+        <v>1.09441</v>
       </c>
       <c r="E35" t="n">
-        <v>0.288351</v>
+        <v>0.288131</v>
       </c>
       <c r="F35" t="n">
-        <v>0.614051</v>
+        <v>0.6115119999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51381</v>
+        <v>0.513931</v>
       </c>
       <c r="C36" t="n">
-        <v>0.82437</v>
+        <v>0.815208</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06847</v>
+        <v>1.04635</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283671</v>
+        <v>0.278175</v>
       </c>
       <c r="F36" t="n">
-        <v>0.605606</v>
+        <v>0.607771</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.506538</v>
+        <v>0.5098240000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.823074</v>
+        <v>0.804376</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04641</v>
+        <v>1.02523</v>
       </c>
       <c r="E37" t="n">
-        <v>0.541672</v>
+        <v>0.5259239999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.829854</v>
+        <v>0.808075</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7611329999999999</v>
+        <v>0.755094</v>
       </c>
       <c r="C38" t="n">
-        <v>1.06968</v>
+        <v>1.04757</v>
       </c>
       <c r="D38" t="n">
-        <v>1.06623</v>
+        <v>1.01247</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5069900000000001</v>
+        <v>0.506334</v>
       </c>
       <c r="F38" t="n">
-        <v>0.810578</v>
+        <v>0.803092</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766357</v>
+        <v>0.745877</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06264</v>
+        <v>1.04395</v>
       </c>
       <c r="D39" t="n">
-        <v>1.04109</v>
+        <v>0.9945310000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.496029</v>
+        <v>0.488241</v>
       </c>
       <c r="F39" t="n">
-        <v>0.805586</v>
+        <v>0.777067</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.724986</v>
+        <v>0.724406</v>
       </c>
       <c r="C40" t="n">
-        <v>1.04135</v>
+        <v>1.02414</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00488</v>
+        <v>0.99961</v>
       </c>
       <c r="E40" t="n">
-        <v>0.475422</v>
+        <v>0.495945</v>
       </c>
       <c r="F40" t="n">
-        <v>0.78887</v>
+        <v>0.793027</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.709745</v>
+        <v>0.729121</v>
       </c>
       <c r="C41" t="n">
-        <v>1.03056</v>
+        <v>1.02381</v>
       </c>
       <c r="D41" t="n">
-        <v>0.98811</v>
+        <v>0.988432</v>
       </c>
       <c r="E41" t="n">
-        <v>0.457892</v>
+        <v>0.472615</v>
       </c>
       <c r="F41" t="n">
-        <v>0.769393</v>
+        <v>0.765414</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.691329</v>
+        <v>0.693142</v>
       </c>
       <c r="C42" t="n">
-        <v>1.02806</v>
+        <v>1.00326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.978858</v>
+        <v>0.966429</v>
       </c>
       <c r="E42" t="n">
-        <v>0.447521</v>
+        <v>0.450326</v>
       </c>
       <c r="F42" t="n">
-        <v>0.763099</v>
+        <v>0.766605</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6810929999999999</v>
+        <v>0.676356</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01043</v>
+        <v>0.992001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.987291</v>
+        <v>0.978894</v>
       </c>
       <c r="E43" t="n">
-        <v>0.422652</v>
+        <v>0.423969</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7713410000000001</v>
+        <v>0.741246</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665151</v>
+        <v>0.668245</v>
       </c>
       <c r="C44" t="n">
-        <v>1.02527</v>
+        <v>0.990371</v>
       </c>
       <c r="D44" t="n">
-        <v>0.97634</v>
+        <v>0.951667</v>
       </c>
       <c r="E44" t="n">
-        <v>0.410677</v>
+        <v>0.424248</v>
       </c>
       <c r="F44" t="n">
-        <v>0.739779</v>
+        <v>0.768501</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.670382</v>
+        <v>0.6609660000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02615</v>
+        <v>0.994699</v>
       </c>
       <c r="D45" t="n">
-        <v>0.997162</v>
+        <v>0.978783</v>
       </c>
       <c r="E45" t="n">
-        <v>0.39523</v>
+        <v>0.399337</v>
       </c>
       <c r="F45" t="n">
-        <v>0.735001</v>
+        <v>0.760521</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.634282</v>
+        <v>0.638704</v>
       </c>
       <c r="C46" t="n">
-        <v>0.978752</v>
+        <v>0.980432</v>
       </c>
       <c r="D46" t="n">
-        <v>0.993157</v>
+        <v>0.963774</v>
       </c>
       <c r="E46" t="n">
-        <v>0.379844</v>
+        <v>0.385666</v>
       </c>
       <c r="F46" t="n">
-        <v>0.730594</v>
+        <v>0.732313</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636396</v>
+        <v>0.626295</v>
       </c>
       <c r="C47" t="n">
-        <v>0.97259</v>
+        <v>0.971603</v>
       </c>
       <c r="D47" t="n">
-        <v>0.936667</v>
+        <v>0.944049</v>
       </c>
       <c r="E47" t="n">
-        <v>0.367974</v>
+        <v>0.370266</v>
       </c>
       <c r="F47" t="n">
-        <v>0.712791</v>
+        <v>0.726948</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.608272</v>
+        <v>0.614171</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9892919999999999</v>
+        <v>0.9748599999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.938778</v>
+        <v>0.936249</v>
       </c>
       <c r="E48" t="n">
-        <v>0.35676</v>
+        <v>0.357884</v>
       </c>
       <c r="F48" t="n">
-        <v>0.708324</v>
+        <v>0.707391</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605596</v>
+        <v>0.601513</v>
       </c>
       <c r="C49" t="n">
-        <v>0.976326</v>
+        <v>0.96116</v>
       </c>
       <c r="D49" t="n">
-        <v>0.940379</v>
+        <v>0.957172</v>
       </c>
       <c r="E49" t="n">
-        <v>0.344449</v>
+        <v>0.355805</v>
       </c>
       <c r="F49" t="n">
-        <v>0.705072</v>
+        <v>0.71491</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.609464</v>
+        <v>0.596571</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9758019999999999</v>
+        <v>0.958344</v>
       </c>
       <c r="D50" t="n">
-        <v>1.48792</v>
+        <v>1.5284</v>
       </c>
       <c r="E50" t="n">
-        <v>0.337966</v>
+        <v>0.343027</v>
       </c>
       <c r="F50" t="n">
-        <v>0.697642</v>
+        <v>0.723338</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.577276</v>
+        <v>0.59606</v>
       </c>
       <c r="C51" t="n">
-        <v>0.957226</v>
+        <v>0.964265</v>
       </c>
       <c r="D51" t="n">
-        <v>1.43971</v>
+        <v>1.50324</v>
       </c>
       <c r="E51" t="n">
-        <v>0.584635</v>
+        <v>0.59895</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05611</v>
+        <v>1.09552</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575081</v>
+        <v>0.584749</v>
       </c>
       <c r="C52" t="n">
-        <v>0.990208</v>
+        <v>0.958219</v>
       </c>
       <c r="D52" t="n">
-        <v>1.44308</v>
+        <v>1.47345</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5790650000000001</v>
+        <v>0.596769</v>
       </c>
       <c r="F52" t="n">
-        <v>1.07726</v>
+        <v>1.05788</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.874301</v>
+        <v>0.874493</v>
       </c>
       <c r="C53" t="n">
-        <v>1.388</v>
+        <v>1.37127</v>
       </c>
       <c r="D53" t="n">
-        <v>1.43357</v>
+        <v>1.47825</v>
       </c>
       <c r="E53" t="n">
-        <v>0.565361</v>
+        <v>0.554476</v>
       </c>
       <c r="F53" t="n">
-        <v>1.02983</v>
+        <v>1.02714</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.841596</v>
+        <v>0.837824</v>
       </c>
       <c r="C54" t="n">
-        <v>1.38812</v>
+        <v>1.34384</v>
       </c>
       <c r="D54" t="n">
-        <v>1.42287</v>
+        <v>1.41072</v>
       </c>
       <c r="E54" t="n">
-        <v>0.538516</v>
+        <v>0.539564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999241</v>
+        <v>1.02191</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.826143</v>
+        <v>0.846257</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38002</v>
+        <v>1.33985</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3882</v>
+        <v>1.40446</v>
       </c>
       <c r="E55" t="n">
-        <v>0.520304</v>
+        <v>0.547797</v>
       </c>
       <c r="F55" t="n">
-        <v>0.992938</v>
+        <v>1.00135</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.858784</v>
+        <v>0.83567</v>
       </c>
       <c r="C56" t="n">
-        <v>1.36476</v>
+        <v>1.30481</v>
       </c>
       <c r="D56" t="n">
-        <v>1.35224</v>
+        <v>1.3885</v>
       </c>
       <c r="E56" t="n">
-        <v>0.503617</v>
+        <v>0.530507</v>
       </c>
       <c r="F56" t="n">
-        <v>0.969334</v>
+        <v>0.985397</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.791803</v>
+        <v>0.804169</v>
       </c>
       <c r="C57" t="n">
-        <v>1.33221</v>
+        <v>1.29489</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43442</v>
+        <v>1.37509</v>
       </c>
       <c r="E57" t="n">
-        <v>0.506345</v>
+        <v>0.491563</v>
       </c>
       <c r="F57" t="n">
-        <v>0.953148</v>
+        <v>0.954753</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7861089999999999</v>
+        <v>0.802772</v>
       </c>
       <c r="C58" t="n">
-        <v>1.30895</v>
+        <v>1.28914</v>
       </c>
       <c r="D58" t="n">
-        <v>1.3092</v>
+        <v>1.37764</v>
       </c>
       <c r="E58" t="n">
-        <v>0.475023</v>
+        <v>0.516773</v>
       </c>
       <c r="F58" t="n">
-        <v>0.935728</v>
+        <v>0.998501</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.77506</v>
+        <v>0.785646</v>
       </c>
       <c r="C59" t="n">
-        <v>1.28919</v>
+        <v>1.27777</v>
       </c>
       <c r="D59" t="n">
-        <v>1.306</v>
+        <v>1.35754</v>
       </c>
       <c r="E59" t="n">
-        <v>0.477257</v>
+        <v>0.471192</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9351</v>
+        <v>0.967233</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.797299</v>
+        <v>0.768908</v>
       </c>
       <c r="C60" t="n">
-        <v>1.32186</v>
+        <v>1.27231</v>
       </c>
       <c r="D60" t="n">
-        <v>1.28949</v>
+        <v>1.34496</v>
       </c>
       <c r="E60" t="n">
-        <v>0.449684</v>
+        <v>0.449935</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9254250000000001</v>
+        <v>0.931222</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.760393</v>
+        <v>0.753893</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2574</v>
+        <v>1.25566</v>
       </c>
       <c r="D61" t="n">
-        <v>1.27877</v>
+        <v>1.298</v>
       </c>
       <c r="E61" t="n">
-        <v>0.443017</v>
+        <v>0.446227</v>
       </c>
       <c r="F61" t="n">
-        <v>0.910919</v>
+        <v>0.907751</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.756275</v>
+        <v>0.791936</v>
       </c>
       <c r="C62" t="n">
-        <v>1.27581</v>
+        <v>1.27607</v>
       </c>
       <c r="D62" t="n">
-        <v>1.27989</v>
+        <v>1.31635</v>
       </c>
       <c r="E62" t="n">
-        <v>0.442902</v>
+        <v>0.433981</v>
       </c>
       <c r="F62" t="n">
-        <v>0.892587</v>
+        <v>0.928904</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760404</v>
+        <v>0.740065</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22628</v>
+        <v>1.22987</v>
       </c>
       <c r="D63" t="n">
-        <v>1.30129</v>
+        <v>1.2892</v>
       </c>
       <c r="E63" t="n">
-        <v>0.421562</v>
+        <v>0.416653</v>
       </c>
       <c r="F63" t="n">
-        <v>0.889245</v>
+        <v>0.897425</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7271260000000001</v>
+        <v>0.728623</v>
       </c>
       <c r="C64" t="n">
-        <v>1.28719</v>
+        <v>1.21725</v>
       </c>
       <c r="D64" t="n">
-        <v>2.33222</v>
+        <v>2.3761</v>
       </c>
       <c r="E64" t="n">
-        <v>0.411357</v>
+        <v>0.41069</v>
       </c>
       <c r="F64" t="n">
-        <v>0.880762</v>
+        <v>0.900247</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.723262</v>
+        <v>0.7294850000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>1.21216</v>
+        <v>1.20233</v>
       </c>
       <c r="D65" t="n">
-        <v>2.29496</v>
+        <v>2.29231</v>
       </c>
       <c r="E65" t="n">
-        <v>0.404514</v>
+        <v>0.404546</v>
       </c>
       <c r="F65" t="n">
-        <v>0.88279</v>
+        <v>0.885301</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.715155</v>
+        <v>0.714588</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20282</v>
+        <v>1.21512</v>
       </c>
       <c r="D66" t="n">
-        <v>2.28978</v>
+        <v>2.32599</v>
       </c>
       <c r="E66" t="n">
-        <v>0.685575</v>
+        <v>0.661875</v>
       </c>
       <c r="F66" t="n">
-        <v>1.56739</v>
+        <v>1.55126</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00601</v>
+        <v>1.00159</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96259</v>
+        <v>1.96873</v>
       </c>
       <c r="D67" t="n">
-        <v>2.22847</v>
+        <v>2.22482</v>
       </c>
       <c r="E67" t="n">
-        <v>0.643406</v>
+        <v>0.666358</v>
       </c>
       <c r="F67" t="n">
-        <v>1.61191</v>
+        <v>1.49299</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.987974</v>
+        <v>1.01588</v>
       </c>
       <c r="C68" t="n">
-        <v>1.92156</v>
+        <v>1.88375</v>
       </c>
       <c r="D68" t="n">
-        <v>2.17715</v>
+        <v>2.24589</v>
       </c>
       <c r="E68" t="n">
-        <v>0.634676</v>
+        <v>0.624797</v>
       </c>
       <c r="F68" t="n">
-        <v>1.48616</v>
+        <v>1.45546</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.967135</v>
+        <v>0.970993</v>
       </c>
       <c r="C69" t="n">
-        <v>1.86657</v>
+        <v>1.87209</v>
       </c>
       <c r="D69" t="n">
-        <v>2.15431</v>
+        <v>2.19563</v>
       </c>
       <c r="E69" t="n">
-        <v>0.642224</v>
+        <v>0.603423</v>
       </c>
       <c r="F69" t="n">
-        <v>1.46046</v>
+        <v>1.43915</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.990312</v>
+        <v>0.94777</v>
       </c>
       <c r="C70" t="n">
-        <v>1.90088</v>
+        <v>1.79035</v>
       </c>
       <c r="D70" t="n">
-        <v>2.11755</v>
+        <v>2.14848</v>
       </c>
       <c r="E70" t="n">
-        <v>0.592132</v>
+        <v>0.589282</v>
       </c>
       <c r="F70" t="n">
-        <v>1.4219</v>
+        <v>1.37151</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.971942</v>
+        <v>0.935759</v>
       </c>
       <c r="C71" t="n">
-        <v>1.82635</v>
+        <v>1.79486</v>
       </c>
       <c r="D71" t="n">
-        <v>2.05849</v>
+        <v>2.14106</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.605056</v>
       </c>
       <c r="F71" t="n">
-        <v>1.38176</v>
+        <v>1.36859</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9171</v>
+        <v>0.920539</v>
       </c>
       <c r="C72" t="n">
-        <v>1.76126</v>
+        <v>1.72576</v>
       </c>
       <c r="D72" t="n">
-        <v>2.01323</v>
+        <v>2.093</v>
       </c>
       <c r="E72" t="n">
-        <v>0.563403</v>
+        <v>0.564854</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36579</v>
+        <v>1.36774</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9023330000000001</v>
+        <v>0.904106</v>
       </c>
       <c r="C73" t="n">
-        <v>1.76418</v>
+        <v>1.72236</v>
       </c>
       <c r="D73" t="n">
-        <v>2.01274</v>
+        <v>2.08112</v>
       </c>
       <c r="E73" t="n">
-        <v>0.560516</v>
+        <v>0.5594170000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>1.33711</v>
+        <v>1.32058</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8995919999999999</v>
+        <v>0.906668</v>
       </c>
       <c r="C74" t="n">
-        <v>1.72251</v>
+        <v>1.67323</v>
       </c>
       <c r="D74" t="n">
-        <v>2.03143</v>
+        <v>2.01729</v>
       </c>
       <c r="E74" t="n">
-        <v>0.538111</v>
+        <v>0.539845</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3107</v>
+        <v>1.30526</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.878211</v>
+        <v>0.882881</v>
       </c>
       <c r="C75" t="n">
-        <v>1.70881</v>
+        <v>1.671</v>
       </c>
       <c r="D75" t="n">
-        <v>2.0054</v>
+        <v>2.05884</v>
       </c>
       <c r="E75" t="n">
-        <v>0.530048</v>
+        <v>0.519643</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30726</v>
+        <v>1.28882</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8773879999999999</v>
+        <v>0.86499</v>
       </c>
       <c r="C76" t="n">
-        <v>1.68605</v>
+        <v>1.62707</v>
       </c>
       <c r="D76" t="n">
-        <v>1.97698</v>
+        <v>2.04043</v>
       </c>
       <c r="E76" t="n">
-        <v>0.515438</v>
+        <v>0.505433</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28136</v>
+        <v>1.24744</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.879552</v>
+        <v>0.858719</v>
       </c>
       <c r="C77" t="n">
-        <v>1.64117</v>
+        <v>1.61059</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97857</v>
+        <v>1.97835</v>
       </c>
       <c r="E77" t="n">
-        <v>0.505283</v>
+        <v>0.5029670000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27281</v>
+        <v>1.23906</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.880011</v>
+        <v>0.844352</v>
       </c>
       <c r="C78" t="n">
-        <v>1.61649</v>
+        <v>1.65817</v>
       </c>
       <c r="D78" t="n">
-        <v>3.32192</v>
+        <v>3.34653</v>
       </c>
       <c r="E78" t="n">
-        <v>0.492633</v>
+        <v>0.489234</v>
       </c>
       <c r="F78" t="n">
-        <v>1.21132</v>
+        <v>1.26043</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.83056</v>
+        <v>0.833154</v>
       </c>
       <c r="C79" t="n">
-        <v>1.56754</v>
+        <v>1.56274</v>
       </c>
       <c r="D79" t="n">
-        <v>3.315</v>
+        <v>3.26201</v>
       </c>
       <c r="E79" t="n">
-        <v>0.48532</v>
+        <v>0.492442</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19906</v>
+        <v>1.21331</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.830153</v>
+        <v>0.835877</v>
       </c>
       <c r="C80" t="n">
-        <v>1.55374</v>
+        <v>1.5708</v>
       </c>
       <c r="D80" t="n">
-        <v>3.16382</v>
+        <v>3.17827</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7799970000000001</v>
+        <v>0.785839</v>
       </c>
       <c r="F80" t="n">
-        <v>2.11413</v>
+        <v>2.16842</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1235</v>
+        <v>1.11613</v>
       </c>
       <c r="C81" t="n">
-        <v>2.54635</v>
+        <v>2.50861</v>
       </c>
       <c r="D81" t="n">
-        <v>3.11278</v>
+        <v>3.15102</v>
       </c>
       <c r="E81" t="n">
-        <v>0.757182</v>
+        <v>0.761606</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0635</v>
+        <v>2.08576</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10631</v>
+        <v>1.13682</v>
       </c>
       <c r="C82" t="n">
-        <v>2.46866</v>
+        <v>2.4427</v>
       </c>
       <c r="D82" t="n">
-        <v>3.03991</v>
+        <v>3.06992</v>
       </c>
       <c r="E82" t="n">
-        <v>0.732262</v>
+        <v>0.737365</v>
       </c>
       <c r="F82" t="n">
-        <v>2.03027</v>
+        <v>2.07951</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08465</v>
+        <v>1.10116</v>
       </c>
       <c r="C83" t="n">
-        <v>2.43871</v>
+        <v>2.42593</v>
       </c>
       <c r="D83" t="n">
-        <v>2.99651</v>
+        <v>3.10308</v>
       </c>
       <c r="E83" t="n">
-        <v>0.720483</v>
+        <v>0.737362</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98165</v>
+        <v>1.99453</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.12327</v>
+        <v>1.10784</v>
       </c>
       <c r="C84" t="n">
-        <v>2.33665</v>
+        <v>2.37135</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93193</v>
+        <v>2.93697</v>
       </c>
       <c r="E84" t="n">
-        <v>0.722369</v>
+        <v>0.724208</v>
       </c>
       <c r="F84" t="n">
-        <v>1.92288</v>
+        <v>1.9108</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09012</v>
+        <v>1.07733</v>
       </c>
       <c r="C85" t="n">
-        <v>2.31585</v>
+        <v>2.29008</v>
       </c>
       <c r="D85" t="n">
-        <v>2.90882</v>
+        <v>2.8969</v>
       </c>
       <c r="E85" t="n">
-        <v>0.702292</v>
+        <v>0.695134</v>
       </c>
       <c r="F85" t="n">
-        <v>1.85398</v>
+        <v>1.83802</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03936</v>
+        <v>1.04317</v>
       </c>
       <c r="C86" t="n">
-        <v>2.23263</v>
+        <v>2.23901</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8604</v>
+        <v>2.86377</v>
       </c>
       <c r="E86" t="n">
-        <v>0.673413</v>
+        <v>0.674346</v>
       </c>
       <c r="F86" t="n">
-        <v>1.82236</v>
+        <v>1.84756</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02233</v>
+        <v>1.03416</v>
       </c>
       <c r="C87" t="n">
-        <v>2.22673</v>
+        <v>2.22014</v>
       </c>
       <c r="D87" t="n">
-        <v>2.82225</v>
+        <v>2.85297</v>
       </c>
       <c r="E87" t="n">
-        <v>0.652786</v>
+        <v>0.660125</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7688</v>
+        <v>1.80922</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00682</v>
+        <v>1.01803</v>
       </c>
       <c r="C88" t="n">
-        <v>2.16147</v>
+        <v>2.16622</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78343</v>
+        <v>2.78065</v>
       </c>
       <c r="E88" t="n">
-        <v>0.645205</v>
+        <v>0.642746</v>
       </c>
       <c r="F88" t="n">
-        <v>1.7763</v>
+        <v>1.74419</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.994754</v>
+        <v>0.994336</v>
       </c>
       <c r="C89" t="n">
-        <v>2.10644</v>
+        <v>2.09919</v>
       </c>
       <c r="D89" t="n">
-        <v>2.70388</v>
+        <v>2.73762</v>
       </c>
       <c r="E89" t="n">
-        <v>0.63486</v>
+        <v>0.637981</v>
       </c>
       <c r="F89" t="n">
-        <v>1.68359</v>
+        <v>1.72083</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.987913</v>
+        <v>0.9834039999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>2.07847</v>
+        <v>2.08277</v>
       </c>
       <c r="D90" t="n">
-        <v>2.69179</v>
+        <v>2.72355</v>
       </c>
       <c r="E90" t="n">
-        <v>0.617431</v>
+        <v>0.647853</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6725</v>
+        <v>1.66343</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.989514</v>
+        <v>0.97955</v>
       </c>
       <c r="C91" t="n">
-        <v>2.03157</v>
+        <v>2.02338</v>
       </c>
       <c r="D91" t="n">
-        <v>2.65811</v>
+        <v>2.6962</v>
       </c>
       <c r="E91" t="n">
-        <v>0.61226</v>
+        <v>0.607033</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64121</v>
+        <v>1.64095</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.958288</v>
+        <v>0.981449</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98569</v>
+        <v>1.96698</v>
       </c>
       <c r="D92" t="n">
-        <v>3.79718</v>
+        <v>3.79759</v>
       </c>
       <c r="E92" t="n">
-        <v>0.592885</v>
+        <v>0.6172299999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>1.57862</v>
+        <v>1.60824</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949763</v>
+        <v>0.97816</v>
       </c>
       <c r="C93" t="n">
-        <v>1.94377</v>
+        <v>1.96305</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72392</v>
+        <v>3.72036</v>
       </c>
       <c r="E93" t="n">
-        <v>0.585001</v>
+        <v>0.607033</v>
       </c>
       <c r="F93" t="n">
-        <v>1.59523</v>
+        <v>1.58118</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.935763</v>
+        <v>0.964545</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93385</v>
+        <v>1.93551</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66593</v>
+        <v>3.66815</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8840209999999999</v>
+        <v>0.958649</v>
       </c>
       <c r="F94" t="n">
-        <v>2.61054</v>
+        <v>2.68459</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27256</v>
+        <v>1.24257</v>
       </c>
       <c r="C95" t="n">
-        <v>3.01408</v>
+        <v>3.00592</v>
       </c>
       <c r="D95" t="n">
-        <v>3.58517</v>
+        <v>3.59145</v>
       </c>
       <c r="E95" t="n">
-        <v>0.879955</v>
+        <v>0.913039</v>
       </c>
       <c r="F95" t="n">
-        <v>2.54646</v>
+        <v>2.54859</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2466</v>
+        <v>1.24621</v>
       </c>
       <c r="C96" t="n">
-        <v>2.92575</v>
+        <v>2.92427</v>
       </c>
       <c r="D96" t="n">
-        <v>3.53331</v>
+        <v>3.51936</v>
       </c>
       <c r="E96" t="n">
-        <v>0.848376</v>
+        <v>0.860988</v>
       </c>
       <c r="F96" t="n">
-        <v>2.48189</v>
+        <v>2.50557</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21059</v>
+        <v>1.21699</v>
       </c>
       <c r="C97" t="n">
-        <v>2.86056</v>
+        <v>2.90188</v>
       </c>
       <c r="D97" t="n">
-        <v>3.46859</v>
+        <v>3.4582</v>
       </c>
       <c r="E97" t="n">
-        <v>0.861557</v>
+        <v>0.830176</v>
       </c>
       <c r="F97" t="n">
-        <v>2.40725</v>
+        <v>2.43157</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20444</v>
+        <v>1.20834</v>
       </c>
       <c r="C98" t="n">
-        <v>2.78496</v>
+        <v>2.83257</v>
       </c>
       <c r="D98" t="n">
-        <v>3.37745</v>
+        <v>3.41008</v>
       </c>
       <c r="E98" t="n">
-        <v>0.852696</v>
+        <v>0.819318</v>
       </c>
       <c r="F98" t="n">
-        <v>2.35911</v>
+        <v>2.36678</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20323</v>
+        <v>1.21691</v>
       </c>
       <c r="C99" t="n">
-        <v>2.7651</v>
+        <v>2.77543</v>
       </c>
       <c r="D99" t="n">
-        <v>3.35206</v>
+        <v>3.41302</v>
       </c>
       <c r="E99" t="n">
-        <v>0.816459</v>
+        <v>0.836496</v>
       </c>
       <c r="F99" t="n">
-        <v>2.29829</v>
+        <v>2.33512</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16213</v>
+        <v>1.17978</v>
       </c>
       <c r="C100" t="n">
-        <v>2.67838</v>
+        <v>2.70932</v>
       </c>
       <c r="D100" t="n">
-        <v>3.32828</v>
+        <v>3.29397</v>
       </c>
       <c r="E100" t="n">
-        <v>0.81382</v>
+        <v>0.812333</v>
       </c>
       <c r="F100" t="n">
-        <v>2.22679</v>
+        <v>2.43172</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15215</v>
+        <v>1.15263</v>
       </c>
       <c r="C101" t="n">
-        <v>2.62307</v>
+        <v>2.66252</v>
       </c>
       <c r="D101" t="n">
-        <v>3.29614</v>
+        <v>3.23792</v>
       </c>
       <c r="E101" t="n">
-        <v>0.798179</v>
+        <v>0.791918</v>
       </c>
       <c r="F101" t="n">
-        <v>2.16521</v>
+        <v>2.20632</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14618</v>
+        <v>1.16808</v>
       </c>
       <c r="C102" t="n">
-        <v>2.58523</v>
+        <v>2.56289</v>
       </c>
       <c r="D102" t="n">
-        <v>3.16262</v>
+        <v>3.16506</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7807770000000001</v>
+        <v>0.784349</v>
       </c>
       <c r="F102" t="n">
-        <v>2.11756</v>
+        <v>2.13081</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12693</v>
+        <v>1.13695</v>
       </c>
       <c r="C103" t="n">
-        <v>2.51764</v>
+        <v>2.51472</v>
       </c>
       <c r="D103" t="n">
-        <v>3.12233</v>
+        <v>3.12198</v>
       </c>
       <c r="E103" t="n">
-        <v>0.789184</v>
+        <v>0.7553800000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>2.12969</v>
+        <v>2.0707</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12343</v>
+        <v>1.11638</v>
       </c>
       <c r="C104" t="n">
-        <v>2.52593</v>
+        <v>2.46954</v>
       </c>
       <c r="D104" t="n">
-        <v>3.14681</v>
+        <v>3.11177</v>
       </c>
       <c r="E104" t="n">
-        <v>0.738707</v>
+        <v>0.757571</v>
       </c>
       <c r="F104" t="n">
-        <v>2.03221</v>
+        <v>2.03823</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14414</v>
+        <v>1.15446</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4453</v>
+        <v>2.40701</v>
       </c>
       <c r="D105" t="n">
-        <v>3.09648</v>
+        <v>3.05193</v>
       </c>
       <c r="E105" t="n">
-        <v>0.721195</v>
+        <v>0.73185</v>
       </c>
       <c r="F105" t="n">
-        <v>2.01966</v>
+        <v>1.97364</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09931</v>
+        <v>1.09918</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48225</v>
+        <v>2.38357</v>
       </c>
       <c r="D106" t="n">
-        <v>3.07741</v>
+        <v>3.02642</v>
       </c>
       <c r="E106" t="n">
-        <v>0.721697</v>
+        <v>0.715628</v>
       </c>
       <c r="F106" t="n">
-        <v>2.05224</v>
+        <v>1.9339</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1014</v>
+        <v>1.09235</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3443</v>
+        <v>2.32944</v>
       </c>
       <c r="D107" t="n">
-        <v>4.24633</v>
+        <v>4.18101</v>
       </c>
       <c r="E107" t="n">
-        <v>0.72446</v>
+        <v>0.708779</v>
       </c>
       <c r="F107" t="n">
-        <v>1.90951</v>
+        <v>1.90404</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08619</v>
+        <v>1.08422</v>
       </c>
       <c r="C108" t="n">
-        <v>2.33134</v>
+        <v>2.31492</v>
       </c>
       <c r="D108" t="n">
-        <v>4.1012</v>
+        <v>4.10553</v>
       </c>
       <c r="E108" t="n">
-        <v>1.0175</v>
+        <v>1.02194</v>
       </c>
       <c r="F108" t="n">
-        <v>3.12454</v>
+        <v>3.08277</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.08994</v>
+        <v>1.0693</v>
       </c>
       <c r="C109" t="n">
-        <v>2.33971</v>
+        <v>2.27041</v>
       </c>
       <c r="D109" t="n">
-        <v>4.05064</v>
+        <v>4.01056</v>
       </c>
       <c r="E109" t="n">
-        <v>1.00332</v>
+        <v>1.01854</v>
       </c>
       <c r="F109" t="n">
-        <v>2.99789</v>
+        <v>2.98437</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42783</v>
+        <v>1.36803</v>
       </c>
       <c r="C110" t="n">
-        <v>3.4541</v>
+        <v>3.38865</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97999</v>
+        <v>3.93289</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0225</v>
+        <v>1.02168</v>
       </c>
       <c r="F110" t="n">
-        <v>2.92588</v>
+        <v>2.91928</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4104</v>
+        <v>1.40017</v>
       </c>
       <c r="C111" t="n">
-        <v>3.3788</v>
+        <v>3.36589</v>
       </c>
       <c r="D111" t="n">
-        <v>3.96047</v>
+        <v>3.88849</v>
       </c>
       <c r="E111" t="n">
-        <v>1.01345</v>
+        <v>1.00662</v>
       </c>
       <c r="F111" t="n">
-        <v>2.86359</v>
+        <v>2.86102</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.35181</v>
+        <v>1.3441</v>
       </c>
       <c r="C112" t="n">
-        <v>3.30534</v>
+        <v>3.31167</v>
       </c>
       <c r="D112" t="n">
-        <v>3.95093</v>
+        <v>3.78571</v>
       </c>
       <c r="E112" t="n">
-        <v>1.01117</v>
+        <v>1.03638</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79292</v>
+        <v>2.7492</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36722</v>
+        <v>1.37039</v>
       </c>
       <c r="C113" t="n">
-        <v>3.18008</v>
+        <v>3.18967</v>
       </c>
       <c r="D113" t="n">
-        <v>3.75397</v>
+        <v>3.74452</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01673</v>
+        <v>0.977747</v>
       </c>
       <c r="F113" t="n">
-        <v>2.76896</v>
+        <v>2.7006</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3665</v>
+        <v>1.35422</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14652</v>
+        <v>3.22614</v>
       </c>
       <c r="D114" t="n">
-        <v>3.74576</v>
+        <v>3.72291</v>
       </c>
       <c r="E114" t="n">
-        <v>0.956162</v>
+        <v>0.99413</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66212</v>
+        <v>2.66494</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35415</v>
+        <v>1.32767</v>
       </c>
       <c r="C115" t="n">
-        <v>3.14981</v>
+        <v>3.11256</v>
       </c>
       <c r="D115" t="n">
-        <v>3.67925</v>
+        <v>3.6942</v>
       </c>
       <c r="E115" t="n">
-        <v>0.953752</v>
+        <v>0.997109</v>
       </c>
       <c r="F115" t="n">
-        <v>2.58979</v>
+        <v>2.63774</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30814</v>
+        <v>1.3317</v>
       </c>
       <c r="C116" t="n">
-        <v>3.04873</v>
+        <v>3.03458</v>
       </c>
       <c r="D116" t="n">
-        <v>3.60757</v>
+        <v>3.66829</v>
       </c>
       <c r="E116" t="n">
-        <v>1.00222</v>
+        <v>0.965526</v>
       </c>
       <c r="F116" t="n">
-        <v>2.57</v>
+        <v>2.55735</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30498</v>
+        <v>1.33344</v>
       </c>
       <c r="C117" t="n">
-        <v>2.98347</v>
+        <v>2.99705</v>
       </c>
       <c r="D117" t="n">
-        <v>3.56574</v>
+        <v>3.57003</v>
       </c>
       <c r="E117" t="n">
-        <v>0.966675</v>
+        <v>0.962742</v>
       </c>
       <c r="F117" t="n">
-        <v>2.51509</v>
+        <v>2.52762</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3092</v>
+        <v>1.31296</v>
       </c>
       <c r="C118" t="n">
-        <v>2.94911</v>
+        <v>2.92969</v>
       </c>
       <c r="D118" t="n">
-        <v>3.50479</v>
+        <v>3.54344</v>
       </c>
       <c r="E118" t="n">
-        <v>0.939754</v>
+        <v>0.950017</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43692</v>
+        <v>2.48818</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28622</v>
+        <v>1.33008</v>
       </c>
       <c r="C119" t="n">
-        <v>2.86083</v>
+        <v>2.924</v>
       </c>
       <c r="D119" t="n">
-        <v>3.45628</v>
+        <v>3.50977</v>
       </c>
       <c r="E119" t="n">
-        <v>0.93458</v>
+        <v>0.932082</v>
       </c>
       <c r="F119" t="n">
-        <v>2.43527</v>
+        <v>2.47074</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2943</v>
+        <v>1.3013</v>
       </c>
       <c r="C120" t="n">
-        <v>2.80829</v>
+        <v>2.88552</v>
       </c>
       <c r="D120" t="n">
-        <v>3.44937</v>
+        <v>3.53573</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9116</v>
+        <v>0.971655</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36536</v>
+        <v>2.4267</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.30072</v>
+        <v>1.27531</v>
       </c>
       <c r="C121" t="n">
-        <v>2.80846</v>
+        <v>2.80897</v>
       </c>
       <c r="D121" t="n">
-        <v>4.78357</v>
+        <v>4.77563</v>
       </c>
       <c r="E121" t="n">
-        <v>0.933023</v>
+        <v>0.925871</v>
       </c>
       <c r="F121" t="n">
-        <v>2.32912</v>
+        <v>2.34198</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2874</v>
+        <v>1.27159</v>
       </c>
       <c r="C122" t="n">
-        <v>2.7601</v>
+        <v>2.77268</v>
       </c>
       <c r="D122" t="n">
-        <v>4.67059</v>
+        <v>4.62665</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9396099999999999</v>
+        <v>0.9197920000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>2.28346</v>
+        <v>2.27848</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27097</v>
+        <v>1.27563</v>
       </c>
       <c r="C123" t="n">
-        <v>2.74013</v>
+        <v>2.76115</v>
       </c>
       <c r="D123" t="n">
-        <v>4.58431</v>
+        <v>4.61575</v>
       </c>
       <c r="E123" t="n">
-        <v>1.23172</v>
+        <v>1.26359</v>
       </c>
       <c r="F123" t="n">
-        <v>3.50101</v>
+        <v>3.52656</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58085</v>
+        <v>1.59416</v>
       </c>
       <c r="C124" t="n">
-        <v>3.97246</v>
+        <v>4.00656</v>
       </c>
       <c r="D124" t="n">
-        <v>4.51048</v>
+        <v>4.49219</v>
       </c>
       <c r="E124" t="n">
-        <v>1.24143</v>
+        <v>1.24863</v>
       </c>
       <c r="F124" t="n">
-        <v>3.44926</v>
+        <v>3.47742</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58352</v>
+        <v>1.5461</v>
       </c>
       <c r="C125" t="n">
-        <v>3.89206</v>
+        <v>3.89648</v>
       </c>
       <c r="D125" t="n">
-        <v>4.37148</v>
+        <v>4.44301</v>
       </c>
       <c r="E125" t="n">
-        <v>1.23736</v>
+        <v>1.26106</v>
       </c>
       <c r="F125" t="n">
-        <v>3.35754</v>
+        <v>3.327</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56132</v>
+        <v>1.59145</v>
       </c>
       <c r="C126" t="n">
-        <v>3.82759</v>
+        <v>3.81707</v>
       </c>
       <c r="D126" t="n">
-        <v>4.34077</v>
+        <v>4.32348</v>
       </c>
       <c r="E126" t="n">
-        <v>1.2597</v>
+        <v>1.26988</v>
       </c>
       <c r="F126" t="n">
-        <v>3.29046</v>
+        <v>3.27533</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57175</v>
+        <v>1.57773</v>
       </c>
       <c r="C127" t="n">
-        <v>3.72349</v>
+        <v>3.74481</v>
       </c>
       <c r="D127" t="n">
-        <v>4.2838</v>
+        <v>4.2746</v>
       </c>
       <c r="E127" t="n">
-        <v>1.25459</v>
+        <v>1.26812</v>
       </c>
       <c r="F127" t="n">
-        <v>3.22692</v>
+        <v>3.19058</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5694</v>
+        <v>1.5784</v>
       </c>
       <c r="C128" t="n">
-        <v>3.67909</v>
+        <v>3.67504</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2519</v>
+        <v>4.18012</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25464</v>
+        <v>1.25396</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11849</v>
+        <v>3.12684</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.56019</v>
+        <v>1.55341</v>
       </c>
       <c r="C129" t="n">
-        <v>3.63092</v>
+        <v>3.61923</v>
       </c>
       <c r="D129" t="n">
-        <v>4.1597</v>
+        <v>4.18479</v>
       </c>
       <c r="E129" t="n">
-        <v>1.25565</v>
+        <v>1.26525</v>
       </c>
       <c r="F129" t="n">
-        <v>3.09018</v>
+        <v>3.07565</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.53971</v>
+        <v>1.56088</v>
       </c>
       <c r="C130" t="n">
-        <v>3.56111</v>
+        <v>3.53934</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10859</v>
+        <v>4.10461</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23636</v>
+        <v>1.24963</v>
       </c>
       <c r="F130" t="n">
-        <v>3.05208</v>
+        <v>3.00366</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.554</v>
+        <v>1.58012</v>
       </c>
       <c r="C131" t="n">
-        <v>3.47634</v>
+        <v>3.45291</v>
       </c>
       <c r="D131" t="n">
-        <v>4.06389</v>
+        <v>4.01607</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26167</v>
+        <v>1.24329</v>
       </c>
       <c r="F131" t="n">
-        <v>2.9689</v>
+        <v>2.95278</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55494</v>
+        <v>1.54239</v>
       </c>
       <c r="C132" t="n">
-        <v>3.41567</v>
+        <v>3.47687</v>
       </c>
       <c r="D132" t="n">
-        <v>4.0226</v>
+        <v>4.01447</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24682</v>
+        <v>1.21818</v>
       </c>
       <c r="F132" t="n">
-        <v>2.90879</v>
+        <v>2.93347</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55389</v>
+        <v>1.54459</v>
       </c>
       <c r="C133" t="n">
-        <v>3.38308</v>
+        <v>3.3522</v>
       </c>
       <c r="D133" t="n">
-        <v>3.9872</v>
+        <v>3.959</v>
       </c>
       <c r="E133" t="n">
-        <v>1.25491</v>
+        <v>1.24898</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84977</v>
+        <v>2.82653</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.52573</v>
+        <v>1.54068</v>
       </c>
       <c r="C134" t="n">
-        <v>3.37096</v>
+        <v>3.32501</v>
       </c>
       <c r="D134" t="n">
-        <v>3.95104</v>
+        <v>4.01616</v>
       </c>
       <c r="E134" t="n">
-        <v>1.23444</v>
+        <v>1.2407</v>
       </c>
       <c r="F134" t="n">
-        <v>2.80208</v>
+        <v>2.80412</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.5593</v>
+        <v>1.54015</v>
       </c>
       <c r="C135" t="n">
-        <v>3.27269</v>
+        <v>3.2923</v>
       </c>
       <c r="D135" t="n">
-        <v>5.45972</v>
+        <v>5.51892</v>
       </c>
       <c r="E135" t="n">
-        <v>1.23075</v>
+        <v>1.25803</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75729</v>
+        <v>2.79609</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.56553</v>
+        <v>1.54501</v>
       </c>
       <c r="C136" t="n">
-        <v>3.1949</v>
+        <v>3.28514</v>
       </c>
       <c r="D136" t="n">
-        <v>5.32337</v>
+        <v>5.40539</v>
       </c>
       <c r="E136" t="n">
-        <v>1.24118</v>
+        <v>1.23878</v>
       </c>
       <c r="F136" t="n">
-        <v>2.75504</v>
+        <v>2.71843</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.56406</v>
+        <v>1.54167</v>
       </c>
       <c r="C137" t="n">
-        <v>3.21457</v>
+        <v>3.21511</v>
       </c>
       <c r="D137" t="n">
-        <v>5.23103</v>
+        <v>5.27391</v>
       </c>
       <c r="E137" t="n">
-        <v>1.59151</v>
+        <v>1.57496</v>
       </c>
       <c r="F137" t="n">
-        <v>4.14725</v>
+        <v>4.13135</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.84431</v>
+        <v>1.86396</v>
       </c>
       <c r="C138" t="n">
-        <v>4.61619</v>
+        <v>4.57138</v>
       </c>
       <c r="D138" t="n">
-        <v>5.16643</v>
+        <v>5.14975</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57481</v>
+        <v>1.6085</v>
       </c>
       <c r="F138" t="n">
-        <v>3.95618</v>
+        <v>3.97275</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85699</v>
+        <v>1.87057</v>
       </c>
       <c r="C139" t="n">
-        <v>4.53914</v>
+        <v>4.49589</v>
       </c>
       <c r="D139" t="n">
-        <v>5.04912</v>
+        <v>5.06327</v>
       </c>
       <c r="E139" t="n">
-        <v>1.57779</v>
+        <v>1.56302</v>
       </c>
       <c r="F139" t="n">
-        <v>3.92055</v>
+        <v>3.92868</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.84613</v>
+        <v>1.85502</v>
       </c>
       <c r="C140" t="n">
-        <v>4.39095</v>
+        <v>4.40059</v>
       </c>
       <c r="D140" t="n">
-        <v>4.99036</v>
+        <v>4.95359</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57948</v>
+        <v>1.57876</v>
       </c>
       <c r="F140" t="n">
-        <v>3.81256</v>
+        <v>3.84737</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.81761</v>
+        <v>1.86696</v>
       </c>
       <c r="C141" t="n">
-        <v>4.29797</v>
+        <v>4.32083</v>
       </c>
       <c r="D141" t="n">
-        <v>4.86895</v>
+        <v>4.87163</v>
       </c>
       <c r="E141" t="n">
-        <v>1.58084</v>
+        <v>1.57596</v>
       </c>
       <c r="F141" t="n">
-        <v>3.74341</v>
+        <v>3.72395</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86125</v>
+        <v>1.86223</v>
       </c>
       <c r="C142" t="n">
-        <v>4.21</v>
+        <v>4.22245</v>
       </c>
       <c r="D142" t="n">
-        <v>4.80107</v>
+        <v>4.77483</v>
       </c>
       <c r="E142" t="n">
-        <v>1.58794</v>
+        <v>1.59376</v>
       </c>
       <c r="F142" t="n">
-        <v>3.64256</v>
+        <v>3.68486</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84139</v>
+        <v>1.8841</v>
       </c>
       <c r="C143" t="n">
-        <v>4.18315</v>
+        <v>4.26084</v>
       </c>
       <c r="D143" t="n">
-        <v>4.72921</v>
+        <v>4.86448</v>
       </c>
       <c r="E143" t="n">
-        <v>1.59682</v>
+        <v>1.61833</v>
       </c>
       <c r="F143" t="n">
-        <v>3.58543</v>
+        <v>3.6132</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.513828</v>
+        <v>0.509447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.845851</v>
+        <v>0.795736</v>
       </c>
       <c r="D2" t="n">
-        <v>0.824308</v>
+        <v>0.764938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.219777</v>
+        <v>0.20664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.619368</v>
+        <v>0.600016</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.424774</v>
+        <v>0.429899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.800584</v>
+        <v>0.810236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801158</v>
+        <v>0.789538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209117</v>
+        <v>0.211961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.59907</v>
+        <v>0.607544</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.420465</v>
+        <v>0.433012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.837691</v>
+        <v>0.824277</v>
       </c>
       <c r="D4" t="n">
-        <v>0.810458</v>
+        <v>0.8372579999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205352</v>
+        <v>0.201935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.598646</v>
+        <v>0.597275</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41914</v>
+        <v>0.425044</v>
       </c>
       <c r="C5" t="n">
-        <v>0.858152</v>
+        <v>0.802878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.823087</v>
+        <v>0.797278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.197239</v>
+        <v>0.198824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.59224</v>
+        <v>0.593244</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.433466</v>
+        <v>0.418482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.832954</v>
+        <v>0.796584</v>
       </c>
       <c r="D6" t="n">
-        <v>0.787191</v>
+        <v>0.800078</v>
       </c>
       <c r="E6" t="n">
-        <v>0.19391</v>
+        <v>0.19493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.595288</v>
+        <v>0.574241</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.418547</v>
+        <v>0.413859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.838262</v>
+        <v>0.81974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.955034</v>
+        <v>0.992607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.192999</v>
+        <v>0.191883</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5888409999999999</v>
+        <v>0.586679</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.406143</v>
+        <v>0.420817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.789973</v>
+        <v>0.787898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.956958</v>
+        <v>0.950719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187557</v>
+        <v>0.192354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5944739999999999</v>
+        <v>0.590906</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.396357</v>
+        <v>0.408591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7685419999999999</v>
+        <v>0.784334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.908256</v>
+        <v>0.917002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270326</v>
+        <v>0.273541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6687689999999999</v>
+        <v>0.690053</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.486401</v>
+        <v>0.510754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.894898</v>
+        <v>0.880865</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8869359999999999</v>
+        <v>0.937513</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25718</v>
+        <v>0.265879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.661116</v>
+        <v>0.669285</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.474419</v>
+        <v>0.495865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.861187</v>
+        <v>0.890353</v>
       </c>
       <c r="D11" t="n">
-        <v>0.870309</v>
+        <v>0.900665</v>
       </c>
       <c r="E11" t="n">
-        <v>0.249093</v>
+        <v>0.255156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.658201</v>
+        <v>0.6767649999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4718</v>
+        <v>0.464671</v>
       </c>
       <c r="C12" t="n">
-        <v>0.847221</v>
+        <v>0.862301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.854218</v>
+        <v>0.849033</v>
       </c>
       <c r="E12" t="n">
-        <v>0.241186</v>
+        <v>0.24174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.625979</v>
+        <v>0.668169</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.449604</v>
+        <v>0.459368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.839877</v>
+        <v>0.846137</v>
       </c>
       <c r="D13" t="n">
-        <v>0.838909</v>
+        <v>0.843347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.231402</v>
+        <v>0.240005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.629417</v>
+        <v>0.630234</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.453177</v>
+        <v>0.467061</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830371</v>
+        <v>0.8315979999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8401650000000001</v>
+        <v>0.846971</v>
       </c>
       <c r="E14" t="n">
-        <v>0.229391</v>
+        <v>0.225113</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6349669999999999</v>
+        <v>0.614933</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.444598</v>
+        <v>0.439408</v>
       </c>
       <c r="C15" t="n">
-        <v>0.813194</v>
+        <v>0.835362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.839255</v>
+        <v>0.818767</v>
       </c>
       <c r="E15" t="n">
-        <v>0.219015</v>
+        <v>0.228339</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6394069999999999</v>
+        <v>0.623183</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.432005</v>
+        <v>0.447947</v>
       </c>
       <c r="C16" t="n">
-        <v>0.823179</v>
+        <v>0.828633</v>
       </c>
       <c r="D16" t="n">
-        <v>0.842428</v>
+        <v>0.821011</v>
       </c>
       <c r="E16" t="n">
-        <v>0.21196</v>
+        <v>0.21248</v>
       </c>
       <c r="F16" t="n">
-        <v>0.606179</v>
+        <v>0.608029</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.427634</v>
+        <v>0.429463</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822289</v>
+        <v>0.832297</v>
       </c>
       <c r="D17" t="n">
-        <v>0.810038</v>
+        <v>0.80233</v>
       </c>
       <c r="E17" t="n">
-        <v>0.205676</v>
+        <v>0.209394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.605796</v>
+        <v>0.597893</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.421292</v>
+        <v>0.431463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.806639</v>
+        <v>0.809531</v>
       </c>
       <c r="D18" t="n">
-        <v>0.802076</v>
+        <v>0.812161</v>
       </c>
       <c r="E18" t="n">
-        <v>0.201355</v>
+        <v>0.208816</v>
       </c>
       <c r="F18" t="n">
-        <v>0.597724</v>
+        <v>0.6032110000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.417843</v>
+        <v>0.41986</v>
       </c>
       <c r="C19" t="n">
-        <v>0.813941</v>
+        <v>0.806231</v>
       </c>
       <c r="D19" t="n">
-        <v>0.809615</v>
+        <v>0.792849</v>
       </c>
       <c r="E19" t="n">
-        <v>0.196414</v>
+        <v>0.197076</v>
       </c>
       <c r="F19" t="n">
-        <v>0.587035</v>
+        <v>0.606067</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.417687</v>
+        <v>0.418852</v>
       </c>
       <c r="C20" t="n">
-        <v>0.786115</v>
+        <v>0.84046</v>
       </c>
       <c r="D20" t="n">
-        <v>0.793554</v>
+        <v>0.785655</v>
       </c>
       <c r="E20" t="n">
-        <v>0.192494</v>
+        <v>0.20951</v>
       </c>
       <c r="F20" t="n">
-        <v>0.589394</v>
+        <v>0.6392679999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.407604</v>
+        <v>0.426276</v>
       </c>
       <c r="C21" t="n">
-        <v>0.822376</v>
+        <v>0.827095</v>
       </c>
       <c r="D21" t="n">
-        <v>0.961462</v>
+        <v>0.946152</v>
       </c>
       <c r="E21" t="n">
-        <v>0.191264</v>
+        <v>0.194699</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6038480000000001</v>
+        <v>0.58512</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.42311</v>
+        <v>0.409906</v>
       </c>
       <c r="C22" t="n">
-        <v>0.792468</v>
+        <v>0.7980390000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.949478</v>
+        <v>0.940974</v>
       </c>
       <c r="E22" t="n">
-        <v>0.19461</v>
+        <v>0.187498</v>
       </c>
       <c r="F22" t="n">
-        <v>0.579962</v>
+        <v>0.585288</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.402471</v>
+        <v>0.41028</v>
       </c>
       <c r="C23" t="n">
-        <v>0.774207</v>
+        <v>0.798586</v>
       </c>
       <c r="D23" t="n">
-        <v>0.926763</v>
+        <v>0.970652</v>
       </c>
       <c r="E23" t="n">
-        <v>0.430624</v>
+        <v>0.430276</v>
       </c>
       <c r="F23" t="n">
-        <v>0.671417</v>
+        <v>0.668866</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.647959</v>
+        <v>0.655027</v>
       </c>
       <c r="C24" t="n">
-        <v>0.896834</v>
+        <v>0.888731</v>
       </c>
       <c r="D24" t="n">
-        <v>0.943511</v>
+        <v>0.923161</v>
       </c>
       <c r="E24" t="n">
-        <v>0.421118</v>
+        <v>0.429867</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6607</v>
+        <v>0.692858</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.631925</v>
+        <v>0.659124</v>
       </c>
       <c r="C25" t="n">
-        <v>0.879579</v>
+        <v>0.916791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.90705</v>
+        <v>0.9048119999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.397905</v>
+        <v>0.417788</v>
       </c>
       <c r="F25" t="n">
-        <v>0.658455</v>
+        <v>0.675853</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.631236</v>
+        <v>0.619667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.880125</v>
+        <v>0.873678</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9075490000000001</v>
+        <v>0.9003060000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.403187</v>
+        <v>0.388653</v>
       </c>
       <c r="F26" t="n">
-        <v>0.650353</v>
+        <v>0.651152</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.600672</v>
+        <v>0.598622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.860904</v>
+        <v>0.861792</v>
       </c>
       <c r="D27" t="n">
-        <v>0.924976</v>
+        <v>0.872653</v>
       </c>
       <c r="E27" t="n">
-        <v>0.368899</v>
+        <v>0.373002</v>
       </c>
       <c r="F27" t="n">
-        <v>0.65225</v>
+        <v>0.6373490000000001</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.596258</v>
+        <v>0.588378</v>
       </c>
       <c r="C28" t="n">
-        <v>0.87925</v>
+        <v>0.859434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.881619</v>
+        <v>0.877484</v>
       </c>
       <c r="E28" t="n">
-        <v>0.356933</v>
+        <v>0.372283</v>
       </c>
       <c r="F28" t="n">
-        <v>0.640147</v>
+        <v>0.646364</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5870880000000001</v>
+        <v>0.5785400000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.849944</v>
+        <v>0.84766</v>
       </c>
       <c r="D29" t="n">
-        <v>0.885225</v>
+        <v>0.872209</v>
       </c>
       <c r="E29" t="n">
-        <v>0.350909</v>
+        <v>0.364468</v>
       </c>
       <c r="F29" t="n">
-        <v>0.627413</v>
+        <v>0.623092</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.567042</v>
+        <v>0.569039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.86142</v>
+        <v>0.841761</v>
       </c>
       <c r="D30" t="n">
-        <v>0.857229</v>
+        <v>0.849446</v>
       </c>
       <c r="E30" t="n">
-        <v>0.331843</v>
+        <v>0.332217</v>
       </c>
       <c r="F30" t="n">
-        <v>0.64515</v>
+        <v>0.623323</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.558364</v>
+        <v>0.556395</v>
       </c>
       <c r="C31" t="n">
-        <v>0.829688</v>
+        <v>0.839491</v>
       </c>
       <c r="D31" t="n">
-        <v>0.858743</v>
+        <v>0.84842</v>
       </c>
       <c r="E31" t="n">
-        <v>0.324293</v>
+        <v>0.324309</v>
       </c>
       <c r="F31" t="n">
-        <v>0.616305</v>
+        <v>0.617618</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5532319999999999</v>
+        <v>0.5442399999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.836405</v>
+        <v>0.846537</v>
       </c>
       <c r="D32" t="n">
-        <v>0.842337</v>
+        <v>0.843673</v>
       </c>
       <c r="E32" t="n">
-        <v>0.311626</v>
+        <v>0.316025</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6125080000000001</v>
+        <v>0.609502</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.531216</v>
+        <v>0.532031</v>
       </c>
       <c r="C33" t="n">
-        <v>0.830893</v>
+        <v>0.824904</v>
       </c>
       <c r="D33" t="n">
-        <v>0.857287</v>
+        <v>0.836275</v>
       </c>
       <c r="E33" t="n">
-        <v>0.303842</v>
+        <v>0.302185</v>
       </c>
       <c r="F33" t="n">
-        <v>0.606307</v>
+        <v>0.61041</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.533135</v>
+        <v>0.52267</v>
       </c>
       <c r="C34" t="n">
-        <v>0.818384</v>
+        <v>0.814953</v>
       </c>
       <c r="D34" t="n">
-        <v>0.846095</v>
+        <v>0.81826</v>
       </c>
       <c r="E34" t="n">
-        <v>0.304198</v>
+        <v>0.294364</v>
       </c>
       <c r="F34" t="n">
-        <v>0.612748</v>
+        <v>0.603759</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5313600000000001</v>
+        <v>0.515599</v>
       </c>
       <c r="C35" t="n">
-        <v>0.833358</v>
+        <v>0.819165</v>
       </c>
       <c r="D35" t="n">
-        <v>1.09441</v>
+        <v>1.07735</v>
       </c>
       <c r="E35" t="n">
-        <v>0.288131</v>
+        <v>0.284868</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6115119999999999</v>
+        <v>0.622732</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.513931</v>
+        <v>0.505951</v>
       </c>
       <c r="C36" t="n">
-        <v>0.815208</v>
+        <v>0.808924</v>
       </c>
       <c r="D36" t="n">
-        <v>1.04635</v>
+        <v>1.03779</v>
       </c>
       <c r="E36" t="n">
-        <v>0.278175</v>
+        <v>0.278753</v>
       </c>
       <c r="F36" t="n">
-        <v>0.607771</v>
+        <v>0.600225</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5098240000000001</v>
+        <v>0.502092</v>
       </c>
       <c r="C37" t="n">
-        <v>0.804376</v>
+        <v>0.812426</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02523</v>
+        <v>1.01979</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5259239999999999</v>
+        <v>0.545636</v>
       </c>
       <c r="F37" t="n">
-        <v>0.808075</v>
+        <v>0.8237910000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.755094</v>
+        <v>0.757848</v>
       </c>
       <c r="C38" t="n">
-        <v>1.04757</v>
+        <v>1.04687</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01247</v>
+        <v>1.00717</v>
       </c>
       <c r="E38" t="n">
-        <v>0.506334</v>
+        <v>0.508758</v>
       </c>
       <c r="F38" t="n">
-        <v>0.803092</v>
+        <v>0.815489</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.745877</v>
+        <v>0.739792</v>
       </c>
       <c r="C39" t="n">
-        <v>1.04395</v>
+        <v>1.04621</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9945310000000001</v>
+        <v>0.999906</v>
       </c>
       <c r="E39" t="n">
-        <v>0.488241</v>
+        <v>0.529821</v>
       </c>
       <c r="F39" t="n">
-        <v>0.777067</v>
+        <v>0.820786</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.724406</v>
+        <v>0.723965</v>
       </c>
       <c r="C40" t="n">
-        <v>1.02414</v>
+        <v>1.0344</v>
       </c>
       <c r="D40" t="n">
-        <v>0.99961</v>
+        <v>0.99668</v>
       </c>
       <c r="E40" t="n">
-        <v>0.495945</v>
+        <v>0.48428</v>
       </c>
       <c r="F40" t="n">
-        <v>0.793027</v>
+        <v>0.794228</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.729121</v>
+        <v>0.7027099999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02381</v>
+        <v>1.02145</v>
       </c>
       <c r="D41" t="n">
-        <v>0.988432</v>
+        <v>0.97138</v>
       </c>
       <c r="E41" t="n">
-        <v>0.472615</v>
+        <v>0.453941</v>
       </c>
       <c r="F41" t="n">
-        <v>0.765414</v>
+        <v>0.751667</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.693142</v>
+        <v>0.689953</v>
       </c>
       <c r="C42" t="n">
-        <v>1.00326</v>
+        <v>1.05496</v>
       </c>
       <c r="D42" t="n">
-        <v>0.966429</v>
+        <v>0.967509</v>
       </c>
       <c r="E42" t="n">
-        <v>0.450326</v>
+        <v>0.452857</v>
       </c>
       <c r="F42" t="n">
-        <v>0.766605</v>
+        <v>0.785036</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.676356</v>
+        <v>0.669762</v>
       </c>
       <c r="C43" t="n">
-        <v>0.992001</v>
+        <v>1.00205</v>
       </c>
       <c r="D43" t="n">
-        <v>0.978894</v>
+        <v>0.961223</v>
       </c>
       <c r="E43" t="n">
-        <v>0.423969</v>
+        <v>0.422691</v>
       </c>
       <c r="F43" t="n">
-        <v>0.741246</v>
+        <v>0.742596</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.668245</v>
+        <v>0.660097</v>
       </c>
       <c r="C44" t="n">
-        <v>0.990371</v>
+        <v>1.00952</v>
       </c>
       <c r="D44" t="n">
-        <v>0.951667</v>
+        <v>0.958985</v>
       </c>
       <c r="E44" t="n">
-        <v>0.424248</v>
+        <v>0.408391</v>
       </c>
       <c r="F44" t="n">
-        <v>0.768501</v>
+        <v>0.752296</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6609660000000001</v>
+        <v>0.648024</v>
       </c>
       <c r="C45" t="n">
-        <v>0.994699</v>
+        <v>0.973371</v>
       </c>
       <c r="D45" t="n">
-        <v>0.978783</v>
+        <v>0.9400770000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.399337</v>
+        <v>0.392729</v>
       </c>
       <c r="F45" t="n">
-        <v>0.760521</v>
+        <v>0.735271</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.638704</v>
+        <v>0.636423</v>
       </c>
       <c r="C46" t="n">
-        <v>0.980432</v>
+        <v>0.997499</v>
       </c>
       <c r="D46" t="n">
-        <v>0.963774</v>
+        <v>0.939202</v>
       </c>
       <c r="E46" t="n">
-        <v>0.385666</v>
+        <v>0.382105</v>
       </c>
       <c r="F46" t="n">
-        <v>0.732313</v>
+        <v>0.724384</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.626295</v>
+        <v>0.6220909999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.971603</v>
+        <v>0.9754080000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.944049</v>
+        <v>0.944905</v>
       </c>
       <c r="E47" t="n">
-        <v>0.370266</v>
+        <v>0.368514</v>
       </c>
       <c r="F47" t="n">
-        <v>0.726948</v>
+        <v>0.72601</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.614171</v>
+        <v>0.615254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9748599999999999</v>
+        <v>0.9715009999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.936249</v>
+        <v>0.938621</v>
       </c>
       <c r="E48" t="n">
-        <v>0.357884</v>
+        <v>0.355937</v>
       </c>
       <c r="F48" t="n">
-        <v>0.707391</v>
+        <v>0.717812</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.601513</v>
+        <v>0.6049949999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.96116</v>
+        <v>0.969899</v>
       </c>
       <c r="D49" t="n">
-        <v>0.957172</v>
+        <v>0.941645</v>
       </c>
       <c r="E49" t="n">
-        <v>0.355805</v>
+        <v>0.348999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.71491</v>
+        <v>0.706666</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.596571</v>
+        <v>0.589302</v>
       </c>
       <c r="C50" t="n">
-        <v>0.958344</v>
+        <v>0.961217</v>
       </c>
       <c r="D50" t="n">
-        <v>1.5284</v>
+        <v>1.46884</v>
       </c>
       <c r="E50" t="n">
-        <v>0.343027</v>
+        <v>0.339361</v>
       </c>
       <c r="F50" t="n">
-        <v>0.723338</v>
+        <v>0.7242769999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.59606</v>
+        <v>0.59358</v>
       </c>
       <c r="C51" t="n">
-        <v>0.964265</v>
+        <v>1.0169</v>
       </c>
       <c r="D51" t="n">
-        <v>1.50324</v>
+        <v>1.44533</v>
       </c>
       <c r="E51" t="n">
-        <v>0.59895</v>
+        <v>0.596163</v>
       </c>
       <c r="F51" t="n">
-        <v>1.09552</v>
+        <v>1.09093</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.584749</v>
+        <v>0.579232</v>
       </c>
       <c r="C52" t="n">
-        <v>0.958219</v>
+        <v>0.965282</v>
       </c>
       <c r="D52" t="n">
-        <v>1.47345</v>
+        <v>1.43295</v>
       </c>
       <c r="E52" t="n">
-        <v>0.596769</v>
+        <v>0.57775</v>
       </c>
       <c r="F52" t="n">
-        <v>1.05788</v>
+        <v>1.0595</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.874493</v>
+        <v>0.877912</v>
       </c>
       <c r="C53" t="n">
-        <v>1.37127</v>
+        <v>1.39631</v>
       </c>
       <c r="D53" t="n">
-        <v>1.47825</v>
+        <v>1.40859</v>
       </c>
       <c r="E53" t="n">
-        <v>0.554476</v>
+        <v>0.584047</v>
       </c>
       <c r="F53" t="n">
-        <v>1.02714</v>
+        <v>1.04371</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.837824</v>
+        <v>0.8567709999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.34384</v>
+        <v>1.37967</v>
       </c>
       <c r="D54" t="n">
-        <v>1.41072</v>
+        <v>1.38519</v>
       </c>
       <c r="E54" t="n">
-        <v>0.539564</v>
+        <v>0.554696</v>
       </c>
       <c r="F54" t="n">
-        <v>1.02191</v>
+        <v>1.02015</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.846257</v>
+        <v>0.830098</v>
       </c>
       <c r="C55" t="n">
-        <v>1.33985</v>
+        <v>1.35827</v>
       </c>
       <c r="D55" t="n">
-        <v>1.40446</v>
+        <v>1.38366</v>
       </c>
       <c r="E55" t="n">
-        <v>0.547797</v>
+        <v>0.525069</v>
       </c>
       <c r="F55" t="n">
-        <v>1.00135</v>
+        <v>1.08499</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.83567</v>
+        <v>0.829376</v>
       </c>
       <c r="C56" t="n">
-        <v>1.30481</v>
+        <v>1.34749</v>
       </c>
       <c r="D56" t="n">
-        <v>1.3885</v>
+        <v>1.34953</v>
       </c>
       <c r="E56" t="n">
-        <v>0.530507</v>
+        <v>0.5115499999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.985397</v>
+        <v>0.9818170000000001</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.804169</v>
+        <v>0.814514</v>
       </c>
       <c r="C57" t="n">
-        <v>1.29489</v>
+        <v>1.32394</v>
       </c>
       <c r="D57" t="n">
-        <v>1.37509</v>
+        <v>1.33267</v>
       </c>
       <c r="E57" t="n">
-        <v>0.491563</v>
+        <v>0.495244</v>
       </c>
       <c r="F57" t="n">
-        <v>0.954753</v>
+        <v>0.967969</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.802772</v>
+        <v>0.802861</v>
       </c>
       <c r="C58" t="n">
-        <v>1.28914</v>
+        <v>1.33024</v>
       </c>
       <c r="D58" t="n">
-        <v>1.37764</v>
+        <v>1.38117</v>
       </c>
       <c r="E58" t="n">
-        <v>0.516773</v>
+        <v>0.487298</v>
       </c>
       <c r="F58" t="n">
-        <v>0.998501</v>
+        <v>0.95597</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.785646</v>
+        <v>0.778339</v>
       </c>
       <c r="C59" t="n">
-        <v>1.27777</v>
+        <v>1.27943</v>
       </c>
       <c r="D59" t="n">
-        <v>1.35754</v>
+        <v>1.36706</v>
       </c>
       <c r="E59" t="n">
-        <v>0.471192</v>
+        <v>0.467123</v>
       </c>
       <c r="F59" t="n">
-        <v>0.967233</v>
+        <v>0.943429</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.768908</v>
+        <v>0.766597</v>
       </c>
       <c r="C60" t="n">
-        <v>1.27231</v>
+        <v>1.2735</v>
       </c>
       <c r="D60" t="n">
-        <v>1.34496</v>
+        <v>1.36997</v>
       </c>
       <c r="E60" t="n">
-        <v>0.449935</v>
+        <v>0.45419</v>
       </c>
       <c r="F60" t="n">
-        <v>0.931222</v>
+        <v>0.958724</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.753893</v>
+        <v>0.764055</v>
       </c>
       <c r="C61" t="n">
-        <v>1.25566</v>
+        <v>1.2703</v>
       </c>
       <c r="D61" t="n">
-        <v>1.298</v>
+        <v>1.38801</v>
       </c>
       <c r="E61" t="n">
-        <v>0.446227</v>
+        <v>0.447123</v>
       </c>
       <c r="F61" t="n">
-        <v>0.907751</v>
+        <v>0.9213710000000001</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.791936</v>
+        <v>0.748918</v>
       </c>
       <c r="C62" t="n">
-        <v>1.27607</v>
+        <v>1.25735</v>
       </c>
       <c r="D62" t="n">
-        <v>1.31635</v>
+        <v>1.35279</v>
       </c>
       <c r="E62" t="n">
-        <v>0.433981</v>
+        <v>0.437488</v>
       </c>
       <c r="F62" t="n">
-        <v>0.928904</v>
+        <v>0.9109699999999999</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.740065</v>
+        <v>0.737788</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22987</v>
+        <v>1.23173</v>
       </c>
       <c r="D63" t="n">
-        <v>1.2892</v>
+        <v>1.32862</v>
       </c>
       <c r="E63" t="n">
-        <v>0.416653</v>
+        <v>0.431854</v>
       </c>
       <c r="F63" t="n">
-        <v>0.897425</v>
+        <v>0.895564</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.728623</v>
+        <v>0.73988</v>
       </c>
       <c r="C64" t="n">
-        <v>1.21725</v>
+        <v>1.26012</v>
       </c>
       <c r="D64" t="n">
-        <v>2.3761</v>
+        <v>2.45756</v>
       </c>
       <c r="E64" t="n">
-        <v>0.41069</v>
+        <v>0.420688</v>
       </c>
       <c r="F64" t="n">
-        <v>0.900247</v>
+        <v>0.916498</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7294850000000001</v>
+        <v>0.738966</v>
       </c>
       <c r="C65" t="n">
-        <v>1.20233</v>
+        <v>1.22812</v>
       </c>
       <c r="D65" t="n">
-        <v>2.29231</v>
+        <v>2.36569</v>
       </c>
       <c r="E65" t="n">
-        <v>0.404546</v>
+        <v>0.406904</v>
       </c>
       <c r="F65" t="n">
-        <v>0.885301</v>
+        <v>0.888694</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.714588</v>
+        <v>0.724628</v>
       </c>
       <c r="C66" t="n">
-        <v>1.21512</v>
+        <v>1.23617</v>
       </c>
       <c r="D66" t="n">
-        <v>2.32599</v>
+        <v>2.32539</v>
       </c>
       <c r="E66" t="n">
-        <v>0.661875</v>
+        <v>0.667469</v>
       </c>
       <c r="F66" t="n">
-        <v>1.55126</v>
+        <v>1.57022</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00159</v>
+        <v>1.05119</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96873</v>
+        <v>1.9779</v>
       </c>
       <c r="D67" t="n">
-        <v>2.22482</v>
+        <v>2.24319</v>
       </c>
       <c r="E67" t="n">
-        <v>0.666358</v>
+        <v>0.6519</v>
       </c>
       <c r="F67" t="n">
-        <v>1.49299</v>
+        <v>1.48759</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.01588</v>
+        <v>0.990185</v>
       </c>
       <c r="C68" t="n">
-        <v>1.88375</v>
+        <v>1.89723</v>
       </c>
       <c r="D68" t="n">
-        <v>2.24589</v>
+        <v>2.25695</v>
       </c>
       <c r="E68" t="n">
-        <v>0.624797</v>
+        <v>0.6538389999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>1.45546</v>
+        <v>1.48026</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.970993</v>
+        <v>0.9820410000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>1.87209</v>
+        <v>1.8718</v>
       </c>
       <c r="D69" t="n">
-        <v>2.19563</v>
+        <v>2.16636</v>
       </c>
       <c r="E69" t="n">
-        <v>0.603423</v>
+        <v>0.60723</v>
       </c>
       <c r="F69" t="n">
-        <v>1.43915</v>
+        <v>1.40749</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.94777</v>
+        <v>0.9597020000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>1.79035</v>
+        <v>1.8003</v>
       </c>
       <c r="D70" t="n">
-        <v>2.14848</v>
+        <v>2.17073</v>
       </c>
       <c r="E70" t="n">
-        <v>0.589282</v>
+        <v>0.604694</v>
       </c>
       <c r="F70" t="n">
-        <v>1.37151</v>
+        <v>1.3844</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.935759</v>
+        <v>0.939102</v>
       </c>
       <c r="C71" t="n">
-        <v>1.79486</v>
+        <v>1.77608</v>
       </c>
       <c r="D71" t="n">
-        <v>2.14106</v>
+        <v>2.15725</v>
       </c>
       <c r="E71" t="n">
-        <v>0.605056</v>
+        <v>0.583142</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36859</v>
+        <v>1.35483</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.920539</v>
+        <v>0.943251</v>
       </c>
       <c r="C72" t="n">
-        <v>1.72576</v>
+        <v>1.80416</v>
       </c>
       <c r="D72" t="n">
-        <v>2.093</v>
+        <v>2.16339</v>
       </c>
       <c r="E72" t="n">
-        <v>0.564854</v>
+        <v>0.565323</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36774</v>
+        <v>1.34361</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.904106</v>
+        <v>0.909512</v>
       </c>
       <c r="C73" t="n">
-        <v>1.72236</v>
+        <v>1.75418</v>
       </c>
       <c r="D73" t="n">
-        <v>2.08112</v>
+        <v>2.02743</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5594170000000001</v>
+        <v>0.55078</v>
       </c>
       <c r="F73" t="n">
-        <v>1.32058</v>
+        <v>1.34922</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.906668</v>
+        <v>0.898528</v>
       </c>
       <c r="C74" t="n">
-        <v>1.67323</v>
+        <v>1.72197</v>
       </c>
       <c r="D74" t="n">
-        <v>2.01729</v>
+        <v>2.08649</v>
       </c>
       <c r="E74" t="n">
-        <v>0.539845</v>
+        <v>0.533417</v>
       </c>
       <c r="F74" t="n">
-        <v>1.30526</v>
+        <v>1.30821</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.882881</v>
+        <v>0.89521</v>
       </c>
       <c r="C75" t="n">
-        <v>1.671</v>
+        <v>1.67813</v>
       </c>
       <c r="D75" t="n">
-        <v>2.05884</v>
+        <v>2.03642</v>
       </c>
       <c r="E75" t="n">
-        <v>0.519643</v>
+        <v>0.528473</v>
       </c>
       <c r="F75" t="n">
-        <v>1.28882</v>
+        <v>1.28143</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.86499</v>
+        <v>0.871498</v>
       </c>
       <c r="C76" t="n">
-        <v>1.62707</v>
+        <v>1.71347</v>
       </c>
       <c r="D76" t="n">
-        <v>2.04043</v>
+        <v>2.05792</v>
       </c>
       <c r="E76" t="n">
-        <v>0.505433</v>
+        <v>0.512815</v>
       </c>
       <c r="F76" t="n">
-        <v>1.24744</v>
+        <v>1.29081</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.858719</v>
+        <v>0.865414</v>
       </c>
       <c r="C77" t="n">
-        <v>1.61059</v>
+        <v>1.61173</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97835</v>
+        <v>1.98686</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5029670000000001</v>
+        <v>0.499609</v>
       </c>
       <c r="F77" t="n">
-        <v>1.23906</v>
+        <v>1.26213</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.844352</v>
+        <v>0.870276</v>
       </c>
       <c r="C78" t="n">
-        <v>1.65817</v>
+        <v>1.64969</v>
       </c>
       <c r="D78" t="n">
-        <v>3.34653</v>
+        <v>3.44926</v>
       </c>
       <c r="E78" t="n">
-        <v>0.489234</v>
+        <v>0.511007</v>
       </c>
       <c r="F78" t="n">
-        <v>1.26043</v>
+        <v>1.25679</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.833154</v>
+        <v>0.8482730000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>1.56274</v>
+        <v>1.60891</v>
       </c>
       <c r="D79" t="n">
-        <v>3.26201</v>
+        <v>3.35139</v>
       </c>
       <c r="E79" t="n">
-        <v>0.492442</v>
+        <v>0.490424</v>
       </c>
       <c r="F79" t="n">
-        <v>1.21331</v>
+        <v>1.20838</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.835877</v>
+        <v>0.848148</v>
       </c>
       <c r="C80" t="n">
-        <v>1.5708</v>
+        <v>1.59049</v>
       </c>
       <c r="D80" t="n">
-        <v>3.17827</v>
+        <v>3.37149</v>
       </c>
       <c r="E80" t="n">
-        <v>0.785839</v>
+        <v>0.783135</v>
       </c>
       <c r="F80" t="n">
-        <v>2.16842</v>
+        <v>2.20842</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.11613</v>
+        <v>1.12751</v>
       </c>
       <c r="C81" t="n">
-        <v>2.50861</v>
+        <v>2.56924</v>
       </c>
       <c r="D81" t="n">
-        <v>3.15102</v>
+        <v>3.2143</v>
       </c>
       <c r="E81" t="n">
-        <v>0.761606</v>
+        <v>0.763332</v>
       </c>
       <c r="F81" t="n">
-        <v>2.08576</v>
+        <v>2.13195</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.13682</v>
+        <v>1.14183</v>
       </c>
       <c r="C82" t="n">
-        <v>2.4427</v>
+        <v>2.46738</v>
       </c>
       <c r="D82" t="n">
-        <v>3.06992</v>
+        <v>3.11744</v>
       </c>
       <c r="E82" t="n">
-        <v>0.737365</v>
+        <v>0.739673</v>
       </c>
       <c r="F82" t="n">
-        <v>2.07951</v>
+        <v>2.03641</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10116</v>
+        <v>1.12818</v>
       </c>
       <c r="C83" t="n">
-        <v>2.42593</v>
+        <v>2.49728</v>
       </c>
       <c r="D83" t="n">
-        <v>3.10308</v>
+        <v>3.07234</v>
       </c>
       <c r="E83" t="n">
-        <v>0.737362</v>
+        <v>0.727936</v>
       </c>
       <c r="F83" t="n">
-        <v>1.99453</v>
+        <v>1.96861</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.10784</v>
+        <v>1.08461</v>
       </c>
       <c r="C84" t="n">
-        <v>2.37135</v>
+        <v>2.39867</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93697</v>
+        <v>3.02949</v>
       </c>
       <c r="E84" t="n">
-        <v>0.724208</v>
+        <v>0.716625</v>
       </c>
       <c r="F84" t="n">
-        <v>1.9108</v>
+        <v>1.91677</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.07733</v>
+        <v>1.10229</v>
       </c>
       <c r="C85" t="n">
-        <v>2.29008</v>
+        <v>2.33334</v>
       </c>
       <c r="D85" t="n">
-        <v>2.8969</v>
+        <v>2.98307</v>
       </c>
       <c r="E85" t="n">
-        <v>0.695134</v>
+        <v>0.716462</v>
       </c>
       <c r="F85" t="n">
-        <v>1.83802</v>
+        <v>1.87619</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.04317</v>
+        <v>1.06286</v>
       </c>
       <c r="C86" t="n">
-        <v>2.23901</v>
+        <v>2.27656</v>
       </c>
       <c r="D86" t="n">
-        <v>2.86377</v>
+        <v>2.97951</v>
       </c>
       <c r="E86" t="n">
-        <v>0.674346</v>
+        <v>0.693759</v>
       </c>
       <c r="F86" t="n">
-        <v>1.84756</v>
+        <v>1.86772</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03416</v>
+        <v>1.05229</v>
       </c>
       <c r="C87" t="n">
-        <v>2.22014</v>
+        <v>2.23015</v>
       </c>
       <c r="D87" t="n">
-        <v>2.85297</v>
+        <v>2.93502</v>
       </c>
       <c r="E87" t="n">
-        <v>0.660125</v>
+        <v>0.6627150000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>1.80922</v>
+        <v>1.79367</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01803</v>
+        <v>1.04634</v>
       </c>
       <c r="C88" t="n">
-        <v>2.16622</v>
+        <v>2.20072</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78065</v>
+        <v>2.93673</v>
       </c>
       <c r="E88" t="n">
-        <v>0.642746</v>
+        <v>0.647293</v>
       </c>
       <c r="F88" t="n">
-        <v>1.74419</v>
+        <v>1.76598</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.994336</v>
+        <v>1.0292</v>
       </c>
       <c r="C89" t="n">
-        <v>2.09919</v>
+        <v>2.14372</v>
       </c>
       <c r="D89" t="n">
-        <v>2.73762</v>
+        <v>2.82787</v>
       </c>
       <c r="E89" t="n">
-        <v>0.637981</v>
+        <v>0.636398</v>
       </c>
       <c r="F89" t="n">
-        <v>1.72083</v>
+        <v>1.72244</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9834039999999999</v>
+        <v>1.00191</v>
       </c>
       <c r="C90" t="n">
-        <v>2.08277</v>
+        <v>2.07618</v>
       </c>
       <c r="D90" t="n">
-        <v>2.72355</v>
+        <v>2.82935</v>
       </c>
       <c r="E90" t="n">
-        <v>0.647853</v>
+        <v>0.640262</v>
       </c>
       <c r="F90" t="n">
-        <v>1.66343</v>
+        <v>1.7026</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.97955</v>
+        <v>0.993998</v>
       </c>
       <c r="C91" t="n">
-        <v>2.02338</v>
+        <v>2.07938</v>
       </c>
       <c r="D91" t="n">
-        <v>2.6962</v>
+        <v>2.76024</v>
       </c>
       <c r="E91" t="n">
-        <v>0.607033</v>
+        <v>0.609297</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64095</v>
+        <v>1.65391</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.981449</v>
+        <v>0.974063</v>
       </c>
       <c r="C92" t="n">
-        <v>1.96698</v>
+        <v>2.03145</v>
       </c>
       <c r="D92" t="n">
-        <v>3.79759</v>
+        <v>3.93877</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6172299999999999</v>
+        <v>0.597987</v>
       </c>
       <c r="F92" t="n">
-        <v>1.60824</v>
+        <v>1.63173</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.97816</v>
+        <v>0.985271</v>
       </c>
       <c r="C93" t="n">
-        <v>1.96305</v>
+        <v>1.99381</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72036</v>
+        <v>3.85184</v>
       </c>
       <c r="E93" t="n">
-        <v>0.607033</v>
+        <v>0.600974</v>
       </c>
       <c r="F93" t="n">
-        <v>1.58118</v>
+        <v>1.58551</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.964545</v>
+        <v>0.957605</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93551</v>
+        <v>1.95973</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66815</v>
+        <v>3.87123</v>
       </c>
       <c r="E94" t="n">
-        <v>0.958649</v>
+        <v>0.871767</v>
       </c>
       <c r="F94" t="n">
-        <v>2.68459</v>
+        <v>2.64409</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24257</v>
+        <v>1.25007</v>
       </c>
       <c r="C95" t="n">
-        <v>3.00592</v>
+        <v>3.03304</v>
       </c>
       <c r="D95" t="n">
-        <v>3.59145</v>
+        <v>3.66322</v>
       </c>
       <c r="E95" t="n">
-        <v>0.913039</v>
+        <v>0.872011</v>
       </c>
       <c r="F95" t="n">
-        <v>2.54859</v>
+        <v>2.58594</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.24621</v>
+        <v>1.25187</v>
       </c>
       <c r="C96" t="n">
-        <v>2.92427</v>
+        <v>2.95522</v>
       </c>
       <c r="D96" t="n">
-        <v>3.51936</v>
+        <v>3.56707</v>
       </c>
       <c r="E96" t="n">
-        <v>0.860988</v>
+        <v>0.86577</v>
       </c>
       <c r="F96" t="n">
-        <v>2.50557</v>
+        <v>2.53191</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21699</v>
+        <v>1.24426</v>
       </c>
       <c r="C97" t="n">
-        <v>2.90188</v>
+        <v>2.90575</v>
       </c>
       <c r="D97" t="n">
-        <v>3.4582</v>
+        <v>3.52869</v>
       </c>
       <c r="E97" t="n">
-        <v>0.830176</v>
+        <v>0.844564</v>
       </c>
       <c r="F97" t="n">
-        <v>2.43157</v>
+        <v>2.48278</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20834</v>
+        <v>1.24591</v>
       </c>
       <c r="C98" t="n">
-        <v>2.83257</v>
+        <v>2.82806</v>
       </c>
       <c r="D98" t="n">
-        <v>3.41008</v>
+        <v>3.41622</v>
       </c>
       <c r="E98" t="n">
-        <v>0.819318</v>
+        <v>0.8397210000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>2.36678</v>
+        <v>2.36551</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.21691</v>
+        <v>1.20322</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77543</v>
+        <v>2.75628</v>
       </c>
       <c r="D99" t="n">
-        <v>3.41302</v>
+        <v>3.39439</v>
       </c>
       <c r="E99" t="n">
-        <v>0.836496</v>
+        <v>0.844641</v>
       </c>
       <c r="F99" t="n">
-        <v>2.33512</v>
+        <v>2.31327</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.17978</v>
+        <v>1.19078</v>
       </c>
       <c r="C100" t="n">
-        <v>2.70932</v>
+        <v>2.70444</v>
       </c>
       <c r="D100" t="n">
-        <v>3.29397</v>
+        <v>3.38452</v>
       </c>
       <c r="E100" t="n">
-        <v>0.812333</v>
+        <v>0.8071</v>
       </c>
       <c r="F100" t="n">
-        <v>2.43172</v>
+        <v>2.24786</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15263</v>
+        <v>1.17087</v>
       </c>
       <c r="C101" t="n">
-        <v>2.66252</v>
+        <v>2.64465</v>
       </c>
       <c r="D101" t="n">
-        <v>3.23792</v>
+        <v>3.29969</v>
       </c>
       <c r="E101" t="n">
-        <v>0.791918</v>
+        <v>0.776189</v>
       </c>
       <c r="F101" t="n">
-        <v>2.20632</v>
+        <v>2.19599</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.16808</v>
+        <v>1.15082</v>
       </c>
       <c r="C102" t="n">
-        <v>2.56289</v>
+        <v>2.60254</v>
       </c>
       <c r="D102" t="n">
-        <v>3.16506</v>
+        <v>3.2387</v>
       </c>
       <c r="E102" t="n">
-        <v>0.784349</v>
+        <v>0.769251</v>
       </c>
       <c r="F102" t="n">
-        <v>2.13081</v>
+        <v>2.18978</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.13695</v>
+        <v>1.17756</v>
       </c>
       <c r="C103" t="n">
-        <v>2.51472</v>
+        <v>2.60097</v>
       </c>
       <c r="D103" t="n">
-        <v>3.12198</v>
+        <v>3.27022</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7553800000000001</v>
+        <v>0.758648</v>
       </c>
       <c r="F103" t="n">
-        <v>2.0707</v>
+        <v>2.13623</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.11638</v>
+        <v>1.16667</v>
       </c>
       <c r="C104" t="n">
-        <v>2.46954</v>
+        <v>2.4978</v>
       </c>
       <c r="D104" t="n">
-        <v>3.11177</v>
+        <v>3.21956</v>
       </c>
       <c r="E104" t="n">
-        <v>0.757571</v>
+        <v>0.7662910000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>2.03823</v>
+        <v>2.08438</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.15446</v>
+        <v>1.14076</v>
       </c>
       <c r="C105" t="n">
-        <v>2.40701</v>
+        <v>2.49265</v>
       </c>
       <c r="D105" t="n">
-        <v>3.05193</v>
+        <v>3.13594</v>
       </c>
       <c r="E105" t="n">
-        <v>0.73185</v>
+        <v>0.73437</v>
       </c>
       <c r="F105" t="n">
-        <v>1.97364</v>
+        <v>2.01579</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09918</v>
+        <v>1.10384</v>
       </c>
       <c r="C106" t="n">
-        <v>2.38357</v>
+        <v>2.40256</v>
       </c>
       <c r="D106" t="n">
-        <v>3.02642</v>
+        <v>3.10441</v>
       </c>
       <c r="E106" t="n">
-        <v>0.715628</v>
+        <v>0.720125</v>
       </c>
       <c r="F106" t="n">
-        <v>1.9339</v>
+        <v>1.96378</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09235</v>
+        <v>1.08399</v>
       </c>
       <c r="C107" t="n">
-        <v>2.32944</v>
+        <v>2.36379</v>
       </c>
       <c r="D107" t="n">
-        <v>4.18101</v>
+        <v>4.23599</v>
       </c>
       <c r="E107" t="n">
-        <v>0.708779</v>
+        <v>0.713302</v>
       </c>
       <c r="F107" t="n">
-        <v>1.90404</v>
+        <v>1.94371</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08422</v>
+        <v>1.06915</v>
       </c>
       <c r="C108" t="n">
-        <v>2.31492</v>
+        <v>2.30829</v>
       </c>
       <c r="D108" t="n">
-        <v>4.10553</v>
+        <v>4.14263</v>
       </c>
       <c r="E108" t="n">
-        <v>1.02194</v>
+        <v>1.0312</v>
       </c>
       <c r="F108" t="n">
-        <v>3.08277</v>
+        <v>3.09746</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.0693</v>
+        <v>1.10786</v>
       </c>
       <c r="C109" t="n">
-        <v>2.27041</v>
+        <v>2.31644</v>
       </c>
       <c r="D109" t="n">
-        <v>4.01056</v>
+        <v>4.12204</v>
       </c>
       <c r="E109" t="n">
-        <v>1.01854</v>
+        <v>1.02839</v>
       </c>
       <c r="F109" t="n">
-        <v>2.98437</v>
+        <v>3.06428</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36803</v>
+        <v>1.39256</v>
       </c>
       <c r="C110" t="n">
-        <v>3.38865</v>
+        <v>3.66761</v>
       </c>
       <c r="D110" t="n">
-        <v>3.93289</v>
+        <v>4.44303</v>
       </c>
       <c r="E110" t="n">
-        <v>1.02168</v>
+        <v>1.03081</v>
       </c>
       <c r="F110" t="n">
-        <v>2.91928</v>
+        <v>2.99043</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.40017</v>
+        <v>1.38962</v>
       </c>
       <c r="C111" t="n">
-        <v>3.36589</v>
+        <v>3.42121</v>
       </c>
       <c r="D111" t="n">
-        <v>3.88849</v>
+        <v>3.96744</v>
       </c>
       <c r="E111" t="n">
-        <v>1.00662</v>
+        <v>1.03624</v>
       </c>
       <c r="F111" t="n">
-        <v>2.86102</v>
+        <v>2.91871</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.3441</v>
+        <v>1.38205</v>
       </c>
       <c r="C112" t="n">
-        <v>3.31167</v>
+        <v>3.28984</v>
       </c>
       <c r="D112" t="n">
-        <v>3.78571</v>
+        <v>3.8279</v>
       </c>
       <c r="E112" t="n">
-        <v>1.03638</v>
+        <v>1.00051</v>
       </c>
       <c r="F112" t="n">
-        <v>2.7492</v>
+        <v>2.84734</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37039</v>
+        <v>1.36846</v>
       </c>
       <c r="C113" t="n">
-        <v>3.18967</v>
+        <v>3.22201</v>
       </c>
       <c r="D113" t="n">
-        <v>3.74452</v>
+        <v>3.73765</v>
       </c>
       <c r="E113" t="n">
-        <v>0.977747</v>
+        <v>1.01689</v>
       </c>
       <c r="F113" t="n">
-        <v>2.7006</v>
+        <v>2.75859</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.35422</v>
+        <v>1.3951</v>
       </c>
       <c r="C114" t="n">
-        <v>3.22614</v>
+        <v>3.17537</v>
       </c>
       <c r="D114" t="n">
-        <v>3.72291</v>
+        <v>3.75998</v>
       </c>
       <c r="E114" t="n">
-        <v>0.99413</v>
+        <v>0.9865119999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66494</v>
+        <v>2.66558</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32767</v>
+        <v>1.35744</v>
       </c>
       <c r="C115" t="n">
-        <v>3.11256</v>
+        <v>3.12334</v>
       </c>
       <c r="D115" t="n">
-        <v>3.6942</v>
+        <v>3.67332</v>
       </c>
       <c r="E115" t="n">
-        <v>0.997109</v>
+        <v>0.980429</v>
       </c>
       <c r="F115" t="n">
-        <v>2.63774</v>
+        <v>2.64873</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.3317</v>
+        <v>1.35381</v>
       </c>
       <c r="C116" t="n">
-        <v>3.03458</v>
+        <v>3.05751</v>
       </c>
       <c r="D116" t="n">
-        <v>3.66829</v>
+        <v>3.62626</v>
       </c>
       <c r="E116" t="n">
-        <v>0.965526</v>
+        <v>0.971563</v>
       </c>
       <c r="F116" t="n">
-        <v>2.55735</v>
+        <v>2.59528</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.33344</v>
+        <v>1.33011</v>
       </c>
       <c r="C117" t="n">
-        <v>2.99705</v>
+        <v>3.01433</v>
       </c>
       <c r="D117" t="n">
-        <v>3.57003</v>
+        <v>3.61043</v>
       </c>
       <c r="E117" t="n">
-        <v>0.962742</v>
+        <v>0.962249</v>
       </c>
       <c r="F117" t="n">
-        <v>2.52762</v>
+        <v>2.51195</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.31296</v>
+        <v>1.30317</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92969</v>
+        <v>2.96343</v>
       </c>
       <c r="D118" t="n">
-        <v>3.54344</v>
+        <v>3.54776</v>
       </c>
       <c r="E118" t="n">
-        <v>0.950017</v>
+        <v>0.965326</v>
       </c>
       <c r="F118" t="n">
-        <v>2.48818</v>
+        <v>2.44888</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.33008</v>
+        <v>1.31531</v>
       </c>
       <c r="C119" t="n">
-        <v>2.924</v>
+        <v>2.91564</v>
       </c>
       <c r="D119" t="n">
-        <v>3.50977</v>
+        <v>3.50357</v>
       </c>
       <c r="E119" t="n">
-        <v>0.932082</v>
+        <v>0.944283</v>
       </c>
       <c r="F119" t="n">
-        <v>2.47074</v>
+        <v>2.38653</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.3013</v>
+        <v>1.27533</v>
       </c>
       <c r="C120" t="n">
-        <v>2.88552</v>
+        <v>2.85221</v>
       </c>
       <c r="D120" t="n">
-        <v>3.53573</v>
+        <v>3.45131</v>
       </c>
       <c r="E120" t="n">
-        <v>0.971655</v>
+        <v>0.919529</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4267</v>
+        <v>2.37086</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.27531</v>
+        <v>1.28964</v>
       </c>
       <c r="C121" t="n">
-        <v>2.80897</v>
+        <v>2.80045</v>
       </c>
       <c r="D121" t="n">
-        <v>4.77563</v>
+        <v>4.75131</v>
       </c>
       <c r="E121" t="n">
-        <v>0.925871</v>
+        <v>0.924413</v>
       </c>
       <c r="F121" t="n">
-        <v>2.34198</v>
+        <v>2.31321</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.27159</v>
+        <v>1.26422</v>
       </c>
       <c r="C122" t="n">
-        <v>2.77268</v>
+        <v>2.80499</v>
       </c>
       <c r="D122" t="n">
-        <v>4.62665</v>
+        <v>4.6895</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9197920000000001</v>
+        <v>0.923256</v>
       </c>
       <c r="F122" t="n">
-        <v>2.27848</v>
+        <v>2.28458</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27563</v>
+        <v>1.26969</v>
       </c>
       <c r="C123" t="n">
-        <v>2.76115</v>
+        <v>2.75198</v>
       </c>
       <c r="D123" t="n">
-        <v>4.61575</v>
+        <v>4.55742</v>
       </c>
       <c r="E123" t="n">
-        <v>1.26359</v>
+        <v>1.24171</v>
       </c>
       <c r="F123" t="n">
-        <v>3.52656</v>
+        <v>3.4832</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.59416</v>
+        <v>1.62615</v>
       </c>
       <c r="C124" t="n">
-        <v>4.00656</v>
+        <v>4.01806</v>
       </c>
       <c r="D124" t="n">
-        <v>4.49219</v>
+        <v>4.47074</v>
       </c>
       <c r="E124" t="n">
-        <v>1.24863</v>
+        <v>1.24609</v>
       </c>
       <c r="F124" t="n">
-        <v>3.47742</v>
+        <v>3.41523</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.5461</v>
+        <v>1.59262</v>
       </c>
       <c r="C125" t="n">
-        <v>3.89648</v>
+        <v>3.9095</v>
       </c>
       <c r="D125" t="n">
-        <v>4.44301</v>
+        <v>4.38669</v>
       </c>
       <c r="E125" t="n">
-        <v>1.26106</v>
+        <v>1.25645</v>
       </c>
       <c r="F125" t="n">
-        <v>3.327</v>
+        <v>3.34094</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.59145</v>
+        <v>1.5499</v>
       </c>
       <c r="C126" t="n">
-        <v>3.81707</v>
+        <v>3.8189</v>
       </c>
       <c r="D126" t="n">
-        <v>4.32348</v>
+        <v>4.31973</v>
       </c>
       <c r="E126" t="n">
-        <v>1.26988</v>
+        <v>1.27327</v>
       </c>
       <c r="F126" t="n">
-        <v>3.27533</v>
+        <v>3.23738</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57773</v>
+        <v>1.57747</v>
       </c>
       <c r="C127" t="n">
-        <v>3.74481</v>
+        <v>3.7217</v>
       </c>
       <c r="D127" t="n">
-        <v>4.2746</v>
+        <v>4.28281</v>
       </c>
       <c r="E127" t="n">
-        <v>1.26812</v>
+        <v>1.28481</v>
       </c>
       <c r="F127" t="n">
-        <v>3.19058</v>
+        <v>3.20259</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5784</v>
+        <v>1.56081</v>
       </c>
       <c r="C128" t="n">
-        <v>3.67504</v>
+        <v>3.63903</v>
       </c>
       <c r="D128" t="n">
-        <v>4.18012</v>
+        <v>4.15421</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25396</v>
+        <v>1.23936</v>
       </c>
       <c r="F128" t="n">
-        <v>3.12684</v>
+        <v>3.11091</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55341</v>
+        <v>1.59109</v>
       </c>
       <c r="C129" t="n">
-        <v>3.61923</v>
+        <v>3.59077</v>
       </c>
       <c r="D129" t="n">
-        <v>4.18479</v>
+        <v>4.15056</v>
       </c>
       <c r="E129" t="n">
-        <v>1.26525</v>
+        <v>1.2411</v>
       </c>
       <c r="F129" t="n">
-        <v>3.07565</v>
+        <v>3.04888</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.56088</v>
+        <v>1.56342</v>
       </c>
       <c r="C130" t="n">
-        <v>3.53934</v>
+        <v>3.53948</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10461</v>
+        <v>4.04631</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24963</v>
+        <v>1.24776</v>
       </c>
       <c r="F130" t="n">
-        <v>3.00366</v>
+        <v>2.99102</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.58012</v>
+        <v>1.55767</v>
       </c>
       <c r="C131" t="n">
-        <v>3.45291</v>
+        <v>3.45364</v>
       </c>
       <c r="D131" t="n">
-        <v>4.01607</v>
+        <v>4.01769</v>
       </c>
       <c r="E131" t="n">
-        <v>1.24329</v>
+        <v>1.24684</v>
       </c>
       <c r="F131" t="n">
-        <v>2.95278</v>
+        <v>2.94176</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54239</v>
+        <v>1.55764</v>
       </c>
       <c r="C132" t="n">
-        <v>3.47687</v>
+        <v>3.40287</v>
       </c>
       <c r="D132" t="n">
-        <v>4.01447</v>
+        <v>3.9838</v>
       </c>
       <c r="E132" t="n">
-        <v>1.21818</v>
+        <v>1.23877</v>
       </c>
       <c r="F132" t="n">
-        <v>2.93347</v>
+        <v>2.88044</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.54459</v>
+        <v>1.53956</v>
       </c>
       <c r="C133" t="n">
-        <v>3.3522</v>
+        <v>3.3293</v>
       </c>
       <c r="D133" t="n">
-        <v>3.959</v>
+        <v>4.01247</v>
       </c>
       <c r="E133" t="n">
-        <v>1.24898</v>
+        <v>1.24009</v>
       </c>
       <c r="F133" t="n">
-        <v>2.82653</v>
+        <v>2.80954</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54068</v>
+        <v>1.53945</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32501</v>
+        <v>3.32609</v>
       </c>
       <c r="D134" t="n">
-        <v>4.01616</v>
+        <v>3.95082</v>
       </c>
       <c r="E134" t="n">
-        <v>1.2407</v>
+        <v>1.23695</v>
       </c>
       <c r="F134" t="n">
-        <v>2.80412</v>
+        <v>2.7872</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54015</v>
+        <v>1.54993</v>
       </c>
       <c r="C135" t="n">
-        <v>3.2923</v>
+        <v>3.29649</v>
       </c>
       <c r="D135" t="n">
-        <v>5.51892</v>
+        <v>5.41522</v>
       </c>
       <c r="E135" t="n">
-        <v>1.25803</v>
+        <v>1.25505</v>
       </c>
       <c r="F135" t="n">
-        <v>2.79609</v>
+        <v>2.75262</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.54501</v>
+        <v>1.53106</v>
       </c>
       <c r="C136" t="n">
-        <v>3.28514</v>
+        <v>3.21231</v>
       </c>
       <c r="D136" t="n">
-        <v>5.40539</v>
+        <v>5.30848</v>
       </c>
       <c r="E136" t="n">
-        <v>1.23878</v>
+        <v>1.23096</v>
       </c>
       <c r="F136" t="n">
-        <v>2.71843</v>
+        <v>2.71359</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.54167</v>
+        <v>1.55774</v>
       </c>
       <c r="C137" t="n">
-        <v>3.21511</v>
+        <v>3.22411</v>
       </c>
       <c r="D137" t="n">
-        <v>5.27391</v>
+        <v>5.23139</v>
       </c>
       <c r="E137" t="n">
-        <v>1.57496</v>
+        <v>1.57722</v>
       </c>
       <c r="F137" t="n">
-        <v>4.13135</v>
+        <v>4.10829</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.86396</v>
+        <v>1.88503</v>
       </c>
       <c r="C138" t="n">
-        <v>4.57138</v>
+        <v>4.66905</v>
       </c>
       <c r="D138" t="n">
-        <v>5.14975</v>
+        <v>5.20151</v>
       </c>
       <c r="E138" t="n">
-        <v>1.6085</v>
+        <v>1.62401</v>
       </c>
       <c r="F138" t="n">
-        <v>3.97275</v>
+        <v>3.98425</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.87057</v>
+        <v>1.88648</v>
       </c>
       <c r="C139" t="n">
-        <v>4.49589</v>
+        <v>4.60176</v>
       </c>
       <c r="D139" t="n">
-        <v>5.06327</v>
+        <v>5.15076</v>
       </c>
       <c r="E139" t="n">
-        <v>1.56302</v>
+        <v>1.63502</v>
       </c>
       <c r="F139" t="n">
-        <v>3.92868</v>
+        <v>3.96443</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85502</v>
+        <v>1.88583</v>
       </c>
       <c r="C140" t="n">
-        <v>4.40059</v>
+        <v>4.47713</v>
       </c>
       <c r="D140" t="n">
-        <v>4.95359</v>
+        <v>4.99116</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57876</v>
+        <v>1.57061</v>
       </c>
       <c r="F140" t="n">
-        <v>3.84737</v>
+        <v>3.83244</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86696</v>
+        <v>1.89835</v>
       </c>
       <c r="C141" t="n">
-        <v>4.32083</v>
+        <v>4.32071</v>
       </c>
       <c r="D141" t="n">
-        <v>4.87163</v>
+        <v>4.91852</v>
       </c>
       <c r="E141" t="n">
-        <v>1.57596</v>
+        <v>1.61348</v>
       </c>
       <c r="F141" t="n">
-        <v>3.72395</v>
+        <v>3.74173</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86223</v>
+        <v>1.84068</v>
       </c>
       <c r="C142" t="n">
-        <v>4.22245</v>
+        <v>4.21978</v>
       </c>
       <c r="D142" t="n">
-        <v>4.77483</v>
+        <v>4.82556</v>
       </c>
       <c r="E142" t="n">
-        <v>1.59376</v>
+        <v>1.58585</v>
       </c>
       <c r="F142" t="n">
-        <v>3.68486</v>
+        <v>3.62692</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.8841</v>
+        <v>1.83244</v>
       </c>
       <c r="C143" t="n">
-        <v>4.26084</v>
+        <v>4.15714</v>
       </c>
       <c r="D143" t="n">
-        <v>4.86448</v>
+        <v>4.73526</v>
       </c>
       <c r="E143" t="n">
-        <v>1.61833</v>
+        <v>1.58911</v>
       </c>
       <c r="F143" t="n">
-        <v>3.6132</v>
+        <v>3.5753</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.48192</v>
+        <v>0.548887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.803482</v>
+        <v>0.829054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76596</v>
+        <v>0.795555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.203953</v>
+        <v>0.212178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.583296</v>
+        <v>0.610251</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413607</v>
+        <v>0.429667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.780883</v>
+        <v>0.816385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.764548</v>
+        <v>0.787249</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200887</v>
+        <v>0.213003</v>
       </c>
       <c r="F3" t="n">
-        <v>0.578331</v>
+        <v>0.6639080000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.417767</v>
+        <v>0.428506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.795915</v>
+        <v>0.823815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793708</v>
+        <v>0.788314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191065</v>
+        <v>0.204441</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575483</v>
+        <v>0.610828</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.397785</v>
+        <v>0.420233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783269</v>
+        <v>0.806262</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73761</v>
+        <v>0.818251</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187343</v>
+        <v>0.198488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.568485</v>
+        <v>0.5899450000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.401363</v>
+        <v>0.414001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758535</v>
+        <v>0.787361</v>
       </c>
       <c r="D6" t="n">
-        <v>0.751711</v>
+        <v>0.767323</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18477</v>
+        <v>0.197727</v>
       </c>
       <c r="F6" t="n">
-        <v>0.556011</v>
+        <v>0.585593</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.392046</v>
+        <v>0.42726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.756528</v>
+        <v>0.7854100000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905757</v>
+        <v>0.935599</v>
       </c>
       <c r="E7" t="n">
-        <v>0.181212</v>
+        <v>0.192645</v>
       </c>
       <c r="F7" t="n">
-        <v>0.55271</v>
+        <v>0.580321</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.388947</v>
+        <v>0.420939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.764621</v>
+        <v>0.864699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8864880000000001</v>
+        <v>0.927281</v>
       </c>
       <c r="E8" t="n">
-        <v>0.184837</v>
+        <v>0.187432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.562923</v>
+        <v>0.582611</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.388703</v>
+        <v>0.400406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75364</v>
+        <v>0.783816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.868153</v>
+        <v>0.899002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.26003</v>
+        <v>0.278224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.659176</v>
+        <v>0.696446</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466197</v>
+        <v>0.490132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.850452</v>
+        <v>0.889142</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8688360000000001</v>
+        <v>0.901191</v>
       </c>
       <c r="E10" t="n">
-        <v>0.255261</v>
+        <v>0.263892</v>
       </c>
       <c r="F10" t="n">
-        <v>0.635594</v>
+        <v>0.662951</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466197</v>
+        <v>0.474371</v>
       </c>
       <c r="C11" t="n">
-        <v>0.891846</v>
+        <v>0.860644</v>
       </c>
       <c r="D11" t="n">
-        <v>0.864375</v>
+        <v>0.8611259999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.247891</v>
+        <v>0.248844</v>
       </c>
       <c r="F11" t="n">
-        <v>0.652701</v>
+        <v>0.64135</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465645</v>
+        <v>0.460885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.886135</v>
+        <v>0.844409</v>
       </c>
       <c r="D12" t="n">
-        <v>0.849743</v>
+        <v>0.841774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.238741</v>
+        <v>0.248613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.647127</v>
+        <v>0.644167</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.457595</v>
+        <v>0.447522</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8372270000000001</v>
+        <v>0.830884</v>
       </c>
       <c r="D13" t="n">
-        <v>0.828494</v>
+        <v>0.823304</v>
       </c>
       <c r="E13" t="n">
-        <v>0.235963</v>
+        <v>0.240917</v>
       </c>
       <c r="F13" t="n">
-        <v>0.61788</v>
+        <v>0.655653</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4476</v>
+        <v>0.452289</v>
       </c>
       <c r="C14" t="n">
-        <v>0.843939</v>
+        <v>0.874528</v>
       </c>
       <c r="D14" t="n">
-        <v>0.833325</v>
+        <v>0.875627</v>
       </c>
       <c r="E14" t="n">
-        <v>0.223588</v>
+        <v>0.225389</v>
       </c>
       <c r="F14" t="n">
-        <v>0.617821</v>
+        <v>0.6225270000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449421</v>
+        <v>0.439548</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8207680000000001</v>
+        <v>0.818929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.82281</v>
+        <v>0.8118610000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223951</v>
+        <v>0.218325</v>
       </c>
       <c r="F15" t="n">
-        <v>0.615098</v>
+        <v>0.604183</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435577</v>
+        <v>0.435061</v>
       </c>
       <c r="C16" t="n">
-        <v>0.860923</v>
+        <v>0.815902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.824901</v>
+        <v>0.828531</v>
       </c>
       <c r="E16" t="n">
-        <v>0.213348</v>
+        <v>0.212225</v>
       </c>
       <c r="F16" t="n">
-        <v>0.605032</v>
+        <v>0.6251370000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441621</v>
+        <v>0.432379</v>
       </c>
       <c r="C17" t="n">
-        <v>0.830554</v>
+        <v>0.812984</v>
       </c>
       <c r="D17" t="n">
-        <v>0.804276</v>
+        <v>0.797383</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208135</v>
+        <v>0.208239</v>
       </c>
       <c r="F17" t="n">
-        <v>0.59778</v>
+        <v>0.5947480000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429907</v>
+        <v>0.422405</v>
       </c>
       <c r="C18" t="n">
-        <v>0.813591</v>
+        <v>0.826521</v>
       </c>
       <c r="D18" t="n">
-        <v>0.798949</v>
+        <v>0.800234</v>
       </c>
       <c r="E18" t="n">
-        <v>0.201905</v>
+        <v>0.203471</v>
       </c>
       <c r="F18" t="n">
-        <v>0.598978</v>
+        <v>0.594885</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450304</v>
+        <v>0.420102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8106910000000001</v>
+        <v>0.798889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.819248</v>
+        <v>0.778293</v>
       </c>
       <c r="E19" t="n">
-        <v>0.197181</v>
+        <v>0.19762</v>
       </c>
       <c r="F19" t="n">
-        <v>0.590521</v>
+        <v>0.599391</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438839</v>
+        <v>0.416777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.80472</v>
+        <v>0.802566</v>
       </c>
       <c r="D20" t="n">
-        <v>0.793025</v>
+        <v>0.778201</v>
       </c>
       <c r="E20" t="n">
-        <v>0.195299</v>
+        <v>0.193214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.591287</v>
+        <v>0.589044</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415278</v>
+        <v>0.417858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.800442</v>
+        <v>0.788216</v>
       </c>
       <c r="D21" t="n">
-        <v>0.952527</v>
+        <v>0.948053</v>
       </c>
       <c r="E21" t="n">
-        <v>0.194118</v>
+        <v>0.198788</v>
       </c>
       <c r="F21" t="n">
-        <v>0.578873</v>
+        <v>0.600012</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409983</v>
+        <v>0.406423</v>
       </c>
       <c r="C22" t="n">
-        <v>0.800202</v>
+        <v>0.784314</v>
       </c>
       <c r="D22" t="n">
-        <v>0.945319</v>
+        <v>0.937961</v>
       </c>
       <c r="E22" t="n">
-        <v>0.194684</v>
+        <v>0.189064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.585097</v>
+        <v>0.583456</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40511</v>
+        <v>0.404844</v>
       </c>
       <c r="C23" t="n">
-        <v>0.793082</v>
+        <v>0.777751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.943762</v>
+        <v>0.948716</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42763</v>
+        <v>0.436002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.720847</v>
+        <v>0.683822</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.672392</v>
+        <v>0.6699850000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.976346</v>
+        <v>0.896568</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9174949999999999</v>
+        <v>0.907231</v>
       </c>
       <c r="E24" t="n">
-        <v>0.420717</v>
+        <v>0.421513</v>
       </c>
       <c r="F24" t="n">
-        <v>0.751348</v>
+        <v>0.6627420000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.633236</v>
+        <v>0.634483</v>
       </c>
       <c r="C25" t="n">
-        <v>0.894219</v>
+        <v>0.8711370000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.918327</v>
+        <v>0.894083</v>
       </c>
       <c r="E25" t="n">
-        <v>0.397047</v>
+        <v>0.402535</v>
       </c>
       <c r="F25" t="n">
-        <v>0.661914</v>
+        <v>0.656487</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621128</v>
+        <v>0.630544</v>
       </c>
       <c r="C26" t="n">
-        <v>0.876839</v>
+        <v>1.05646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.900118</v>
+        <v>0.8821</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388179</v>
+        <v>0.403717</v>
       </c>
       <c r="F26" t="n">
-        <v>0.652736</v>
+        <v>0.646116</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.630139</v>
+        <v>0.60912</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8719479999999999</v>
+        <v>0.852607</v>
       </c>
       <c r="D27" t="n">
-        <v>0.881993</v>
+        <v>0.879072</v>
       </c>
       <c r="E27" t="n">
-        <v>0.374119</v>
+        <v>0.379562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.647858</v>
+        <v>0.642227</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588228</v>
+        <v>0.602151</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8635890000000001</v>
+        <v>0.868763</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8772450000000001</v>
+        <v>0.869013</v>
       </c>
       <c r="E28" t="n">
-        <v>0.36124</v>
+        <v>0.359935</v>
       </c>
       <c r="F28" t="n">
-        <v>0.652332</v>
+        <v>0.661775</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579385</v>
+        <v>0.595585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.859093</v>
+        <v>0.84259</v>
       </c>
       <c r="D29" t="n">
-        <v>0.883281</v>
+        <v>0.853087</v>
       </c>
       <c r="E29" t="n">
-        <v>0.35249</v>
+        <v>0.34985</v>
       </c>
       <c r="F29" t="n">
-        <v>0.635771</v>
+        <v>0.625742</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.577458</v>
+        <v>0.563712</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8632919999999999</v>
+        <v>0.847173</v>
       </c>
       <c r="D30" t="n">
-        <v>0.867932</v>
+        <v>0.865293</v>
       </c>
       <c r="E30" t="n">
-        <v>0.332001</v>
+        <v>0.337297</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6465070000000001</v>
+        <v>0.620501</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.561315</v>
+        <v>0.553728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8408870000000001</v>
+        <v>0.835319</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8449719999999999</v>
+        <v>0.84444</v>
       </c>
       <c r="E31" t="n">
-        <v>0.319588</v>
+        <v>0.32904</v>
       </c>
       <c r="F31" t="n">
-        <v>0.631279</v>
+        <v>0.615892</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.553531</v>
+        <v>0.545905</v>
       </c>
       <c r="C32" t="n">
-        <v>0.852399</v>
+        <v>0.833546</v>
       </c>
       <c r="D32" t="n">
-        <v>0.842844</v>
+        <v>0.83226</v>
       </c>
       <c r="E32" t="n">
-        <v>0.320879</v>
+        <v>0.313832</v>
       </c>
       <c r="F32" t="n">
-        <v>0.61826</v>
+        <v>0.611569</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.533807</v>
+        <v>0.544212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.830713</v>
+        <v>0.821344</v>
       </c>
       <c r="D33" t="n">
-        <v>0.842776</v>
+        <v>0.824357</v>
       </c>
       <c r="E33" t="n">
-        <v>0.310478</v>
+        <v>0.303569</v>
       </c>
       <c r="F33" t="n">
-        <v>0.627621</v>
+        <v>0.620115</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534656</v>
+        <v>0.53356</v>
       </c>
       <c r="C34" t="n">
-        <v>0.837732</v>
+        <v>0.829884</v>
       </c>
       <c r="D34" t="n">
-        <v>0.832028</v>
+        <v>0.8365629999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.296947</v>
+        <v>0.297077</v>
       </c>
       <c r="F34" t="n">
-        <v>0.609051</v>
+        <v>0.6217819999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525997</v>
+        <v>0.518591</v>
       </c>
       <c r="C35" t="n">
-        <v>0.848962</v>
+        <v>0.824411</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0957</v>
+        <v>1.0762</v>
       </c>
       <c r="E35" t="n">
-        <v>0.288351</v>
+        <v>0.2891</v>
       </c>
       <c r="F35" t="n">
-        <v>0.614051</v>
+        <v>0.605635</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51381</v>
+        <v>0.513361</v>
       </c>
       <c r="C36" t="n">
-        <v>0.82437</v>
+        <v>0.812679</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06847</v>
+        <v>1.04286</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283671</v>
+        <v>0.282802</v>
       </c>
       <c r="F36" t="n">
-        <v>0.605606</v>
+        <v>0.599633</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.506538</v>
+        <v>0.530652</v>
       </c>
       <c r="C37" t="n">
-        <v>0.823074</v>
+        <v>0.839139</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04641</v>
+        <v>1.01055</v>
       </c>
       <c r="E37" t="n">
-        <v>0.541672</v>
+        <v>0.545201</v>
       </c>
       <c r="F37" t="n">
-        <v>0.829854</v>
+        <v>0.808921</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7611329999999999</v>
+        <v>0.763868</v>
       </c>
       <c r="C38" t="n">
-        <v>1.06968</v>
+        <v>1.04305</v>
       </c>
       <c r="D38" t="n">
-        <v>1.06623</v>
+        <v>1.03512</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5069900000000001</v>
+        <v>0.527514</v>
       </c>
       <c r="F38" t="n">
-        <v>0.810578</v>
+        <v>0.818101</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766357</v>
+        <v>0.746964</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06264</v>
+        <v>1.04041</v>
       </c>
       <c r="D39" t="n">
-        <v>1.04109</v>
+        <v>1.00001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.496029</v>
+        <v>0.495112</v>
       </c>
       <c r="F39" t="n">
-        <v>0.805586</v>
+        <v>0.795144</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.724986</v>
+        <v>0.751829</v>
       </c>
       <c r="C40" t="n">
-        <v>1.04135</v>
+        <v>1.0375</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00488</v>
+        <v>0.979635</v>
       </c>
       <c r="E40" t="n">
-        <v>0.475422</v>
+        <v>0.475754</v>
       </c>
       <c r="F40" t="n">
-        <v>0.78887</v>
+        <v>0.788727</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.709745</v>
+        <v>0.714993</v>
       </c>
       <c r="C41" t="n">
-        <v>1.03056</v>
+        <v>1.02411</v>
       </c>
       <c r="D41" t="n">
-        <v>0.98811</v>
+        <v>0.994343</v>
       </c>
       <c r="E41" t="n">
-        <v>0.457892</v>
+        <v>0.470014</v>
       </c>
       <c r="F41" t="n">
-        <v>0.769393</v>
+        <v>0.780826</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.691329</v>
+        <v>0.698672</v>
       </c>
       <c r="C42" t="n">
-        <v>1.02806</v>
+        <v>1.0197</v>
       </c>
       <c r="D42" t="n">
-        <v>0.978858</v>
+        <v>0.964433</v>
       </c>
       <c r="E42" t="n">
-        <v>0.447521</v>
+        <v>0.455567</v>
       </c>
       <c r="F42" t="n">
-        <v>0.763099</v>
+        <v>0.75654</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6810929999999999</v>
+        <v>0.692751</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01043</v>
+        <v>1.00766</v>
       </c>
       <c r="D43" t="n">
-        <v>0.987291</v>
+        <v>0.958631</v>
       </c>
       <c r="E43" t="n">
-        <v>0.422652</v>
+        <v>0.430244</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7713410000000001</v>
+        <v>0.782507</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665151</v>
+        <v>0.678438</v>
       </c>
       <c r="C44" t="n">
-        <v>1.02527</v>
+        <v>1.00033</v>
       </c>
       <c r="D44" t="n">
-        <v>0.97634</v>
+        <v>0.981803</v>
       </c>
       <c r="E44" t="n">
-        <v>0.410677</v>
+        <v>0.414854</v>
       </c>
       <c r="F44" t="n">
-        <v>0.739779</v>
+        <v>0.7585460000000001</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.670382</v>
+        <v>0.66533</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02615</v>
+        <v>1.02823</v>
       </c>
       <c r="D45" t="n">
-        <v>0.997162</v>
+        <v>0.95013</v>
       </c>
       <c r="E45" t="n">
-        <v>0.39523</v>
+        <v>0.416023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.735001</v>
+        <v>0.73027</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.634282</v>
+        <v>0.64311</v>
       </c>
       <c r="C46" t="n">
-        <v>0.978752</v>
+        <v>0.979633</v>
       </c>
       <c r="D46" t="n">
-        <v>0.993157</v>
+        <v>0.958503</v>
       </c>
       <c r="E46" t="n">
-        <v>0.379844</v>
+        <v>0.390032</v>
       </c>
       <c r="F46" t="n">
-        <v>0.730594</v>
+        <v>0.719607</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636396</v>
+        <v>0.629844</v>
       </c>
       <c r="C47" t="n">
-        <v>0.97259</v>
+        <v>0.966621</v>
       </c>
       <c r="D47" t="n">
-        <v>0.936667</v>
+        <v>0.932581</v>
       </c>
       <c r="E47" t="n">
-        <v>0.367974</v>
+        <v>0.375534</v>
       </c>
       <c r="F47" t="n">
-        <v>0.712791</v>
+        <v>0.711206</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.608272</v>
+        <v>0.614034</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9892919999999999</v>
+        <v>0.972339</v>
       </c>
       <c r="D48" t="n">
-        <v>0.938778</v>
+        <v>0.919971</v>
       </c>
       <c r="E48" t="n">
-        <v>0.35676</v>
+        <v>0.361526</v>
       </c>
       <c r="F48" t="n">
-        <v>0.708324</v>
+        <v>0.711503</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605596</v>
+        <v>0.616209</v>
       </c>
       <c r="C49" t="n">
-        <v>0.976326</v>
+        <v>0.987505</v>
       </c>
       <c r="D49" t="n">
-        <v>0.940379</v>
+        <v>0.930599</v>
       </c>
       <c r="E49" t="n">
-        <v>0.344449</v>
+        <v>0.351618</v>
       </c>
       <c r="F49" t="n">
-        <v>0.705072</v>
+        <v>0.726596</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.609464</v>
+        <v>0.602252</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9758019999999999</v>
+        <v>0.973384</v>
       </c>
       <c r="D50" t="n">
-        <v>1.48792</v>
+        <v>1.49029</v>
       </c>
       <c r="E50" t="n">
-        <v>0.337966</v>
+        <v>0.34773</v>
       </c>
       <c r="F50" t="n">
-        <v>0.697642</v>
+        <v>0.715681</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.577276</v>
+        <v>0.588562</v>
       </c>
       <c r="C51" t="n">
-        <v>0.957226</v>
+        <v>0.960831</v>
       </c>
       <c r="D51" t="n">
-        <v>1.43971</v>
+        <v>1.50321</v>
       </c>
       <c r="E51" t="n">
-        <v>0.584635</v>
+        <v>0.5954930000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05611</v>
+        <v>1.05633</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575081</v>
+        <v>0.573761</v>
       </c>
       <c r="C52" t="n">
-        <v>0.990208</v>
+        <v>0.95209</v>
       </c>
       <c r="D52" t="n">
-        <v>1.44308</v>
+        <v>1.44363</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5790650000000001</v>
+        <v>0.5780650000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>1.07726</v>
+        <v>1.04425</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.874301</v>
+        <v>0.85511</v>
       </c>
       <c r="C53" t="n">
-        <v>1.388</v>
+        <v>1.3476</v>
       </c>
       <c r="D53" t="n">
-        <v>1.43357</v>
+        <v>1.4502</v>
       </c>
       <c r="E53" t="n">
-        <v>0.565361</v>
+        <v>0.568771</v>
       </c>
       <c r="F53" t="n">
-        <v>1.02983</v>
+        <v>1.02248</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.841596</v>
+        <v>0.870402</v>
       </c>
       <c r="C54" t="n">
-        <v>1.38812</v>
+        <v>1.32564</v>
       </c>
       <c r="D54" t="n">
-        <v>1.42287</v>
+        <v>1.40196</v>
       </c>
       <c r="E54" t="n">
-        <v>0.538516</v>
+        <v>0.560092</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999241</v>
+        <v>1.01529</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.826143</v>
+        <v>0.826583</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38002</v>
+        <v>1.32935</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3882</v>
+        <v>1.4173</v>
       </c>
       <c r="E55" t="n">
-        <v>0.520304</v>
+        <v>0.528092</v>
       </c>
       <c r="F55" t="n">
-        <v>0.992938</v>
+        <v>0.97955</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.858784</v>
+        <v>0.810986</v>
       </c>
       <c r="C56" t="n">
-        <v>1.36476</v>
+        <v>1.30237</v>
       </c>
       <c r="D56" t="n">
-        <v>1.35224</v>
+        <v>1.36298</v>
       </c>
       <c r="E56" t="n">
-        <v>0.503617</v>
+        <v>0.511011</v>
       </c>
       <c r="F56" t="n">
-        <v>0.969334</v>
+        <v>0.967929</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.791803</v>
+        <v>0.807326</v>
       </c>
       <c r="C57" t="n">
-        <v>1.33221</v>
+        <v>1.30047</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43442</v>
+        <v>1.32068</v>
       </c>
       <c r="E57" t="n">
-        <v>0.506345</v>
+        <v>0.5142910000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.953148</v>
+        <v>0.9588719999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7861089999999999</v>
+        <v>0.806997</v>
       </c>
       <c r="C58" t="n">
-        <v>1.30895</v>
+        <v>1.33704</v>
       </c>
       <c r="D58" t="n">
-        <v>1.3092</v>
+        <v>1.35748</v>
       </c>
       <c r="E58" t="n">
-        <v>0.475023</v>
+        <v>0.487459</v>
       </c>
       <c r="F58" t="n">
-        <v>0.935728</v>
+        <v>0.961754</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.77506</v>
+        <v>0.8171580000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>1.28919</v>
+        <v>1.27363</v>
       </c>
       <c r="D59" t="n">
-        <v>1.306</v>
+        <v>1.30961</v>
       </c>
       <c r="E59" t="n">
-        <v>0.477257</v>
+        <v>0.469836</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9351</v>
+        <v>0.938115</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.797299</v>
+        <v>0.764081</v>
       </c>
       <c r="C60" t="n">
-        <v>1.32186</v>
+        <v>1.27301</v>
       </c>
       <c r="D60" t="n">
-        <v>1.28949</v>
+        <v>1.32088</v>
       </c>
       <c r="E60" t="n">
-        <v>0.449684</v>
+        <v>0.45796</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9254250000000001</v>
+        <v>0.927633</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.760393</v>
+        <v>0.753582</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2574</v>
+        <v>1.24304</v>
       </c>
       <c r="D61" t="n">
-        <v>1.27877</v>
+        <v>1.2929</v>
       </c>
       <c r="E61" t="n">
-        <v>0.443017</v>
+        <v>0.445718</v>
       </c>
       <c r="F61" t="n">
-        <v>0.910919</v>
+        <v>0.91409</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.756275</v>
+        <v>0.752</v>
       </c>
       <c r="C62" t="n">
-        <v>1.27581</v>
+        <v>1.23318</v>
       </c>
       <c r="D62" t="n">
-        <v>1.27989</v>
+        <v>1.35746</v>
       </c>
       <c r="E62" t="n">
-        <v>0.442902</v>
+        <v>0.438413</v>
       </c>
       <c r="F62" t="n">
-        <v>0.892587</v>
+        <v>0.912454</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760404</v>
+        <v>0.740272</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22628</v>
+        <v>1.23669</v>
       </c>
       <c r="D63" t="n">
-        <v>1.30129</v>
+        <v>1.34112</v>
       </c>
       <c r="E63" t="n">
-        <v>0.421562</v>
+        <v>0.425641</v>
       </c>
       <c r="F63" t="n">
-        <v>0.889245</v>
+        <v>0.885248</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7271260000000001</v>
+        <v>0.726563</v>
       </c>
       <c r="C64" t="n">
-        <v>1.28719</v>
+        <v>1.21317</v>
       </c>
       <c r="D64" t="n">
-        <v>2.33222</v>
+        <v>2.38478</v>
       </c>
       <c r="E64" t="n">
-        <v>0.411357</v>
+        <v>0.434246</v>
       </c>
       <c r="F64" t="n">
-        <v>0.880762</v>
+        <v>0.915165</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.723262</v>
+        <v>0.722013</v>
       </c>
       <c r="C65" t="n">
-        <v>1.21216</v>
+        <v>1.20378</v>
       </c>
       <c r="D65" t="n">
-        <v>2.29496</v>
+        <v>2.30151</v>
       </c>
       <c r="E65" t="n">
-        <v>0.404514</v>
+        <v>0.42553</v>
       </c>
       <c r="F65" t="n">
-        <v>0.88279</v>
+        <v>0.901551</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.715155</v>
+        <v>0.735721</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20282</v>
+        <v>1.21215</v>
       </c>
       <c r="D66" t="n">
-        <v>2.28978</v>
+        <v>2.2833</v>
       </c>
       <c r="E66" t="n">
-        <v>0.685575</v>
+        <v>0.66788</v>
       </c>
       <c r="F66" t="n">
-        <v>1.56739</v>
+        <v>1.52071</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00601</v>
+        <v>1.01911</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96259</v>
+        <v>1.96377</v>
       </c>
       <c r="D67" t="n">
-        <v>2.22847</v>
+        <v>2.24212</v>
       </c>
       <c r="E67" t="n">
-        <v>0.643406</v>
+        <v>0.6482560000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>1.61191</v>
+        <v>1.50105</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.987974</v>
+        <v>0.994327</v>
       </c>
       <c r="C68" t="n">
-        <v>1.92156</v>
+        <v>1.9306</v>
       </c>
       <c r="D68" t="n">
-        <v>2.17715</v>
+        <v>2.2322</v>
       </c>
       <c r="E68" t="n">
-        <v>0.634676</v>
+        <v>0.646444</v>
       </c>
       <c r="F68" t="n">
-        <v>1.48616</v>
+        <v>1.44204</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.967135</v>
+        <v>0.989021</v>
       </c>
       <c r="C69" t="n">
-        <v>1.86657</v>
+        <v>1.83182</v>
       </c>
       <c r="D69" t="n">
-        <v>2.15431</v>
+        <v>2.22299</v>
       </c>
       <c r="E69" t="n">
-        <v>0.642224</v>
+        <v>0.6273</v>
       </c>
       <c r="F69" t="n">
-        <v>1.46046</v>
+        <v>1.41932</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.990312</v>
+        <v>0.958331</v>
       </c>
       <c r="C70" t="n">
-        <v>1.90088</v>
+        <v>1.80116</v>
       </c>
       <c r="D70" t="n">
-        <v>2.11755</v>
+        <v>2.06493</v>
       </c>
       <c r="E70" t="n">
-        <v>0.592132</v>
+        <v>0.6034350000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1.4219</v>
+        <v>1.39729</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.971942</v>
+        <v>0.965278</v>
       </c>
       <c r="C71" t="n">
-        <v>1.82635</v>
+        <v>1.82614</v>
       </c>
       <c r="D71" t="n">
-        <v>2.05849</v>
+        <v>2.12501</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.580435</v>
       </c>
       <c r="F71" t="n">
-        <v>1.38176</v>
+        <v>1.36782</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9171</v>
+        <v>0.9962760000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>1.76126</v>
+        <v>1.76425</v>
       </c>
       <c r="D72" t="n">
-        <v>2.01323</v>
+        <v>2.1199</v>
       </c>
       <c r="E72" t="n">
-        <v>0.563403</v>
+        <v>0.574576</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36579</v>
+        <v>1.37393</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9023330000000001</v>
+        <v>0.926708</v>
       </c>
       <c r="C73" t="n">
-        <v>1.76418</v>
+        <v>1.73492</v>
       </c>
       <c r="D73" t="n">
-        <v>2.01274</v>
+        <v>2.04288</v>
       </c>
       <c r="E73" t="n">
-        <v>0.560516</v>
+        <v>0.550256</v>
       </c>
       <c r="F73" t="n">
-        <v>1.33711</v>
+        <v>1.30492</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8995919999999999</v>
+        <v>0.906282</v>
       </c>
       <c r="C74" t="n">
-        <v>1.72251</v>
+        <v>1.70666</v>
       </c>
       <c r="D74" t="n">
-        <v>2.03143</v>
+        <v>2.10542</v>
       </c>
       <c r="E74" t="n">
-        <v>0.538111</v>
+        <v>0.551578</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3107</v>
+        <v>1.29696</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.878211</v>
+        <v>0.892818</v>
       </c>
       <c r="C75" t="n">
-        <v>1.70881</v>
+        <v>1.70803</v>
       </c>
       <c r="D75" t="n">
-        <v>2.0054</v>
+        <v>2.11756</v>
       </c>
       <c r="E75" t="n">
-        <v>0.530048</v>
+        <v>0.53148</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30726</v>
+        <v>1.27319</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8773879999999999</v>
+        <v>0.891107</v>
       </c>
       <c r="C76" t="n">
-        <v>1.68605</v>
+        <v>1.65163</v>
       </c>
       <c r="D76" t="n">
-        <v>1.97698</v>
+        <v>2.03079</v>
       </c>
       <c r="E76" t="n">
-        <v>0.515438</v>
+        <v>0.527241</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28136</v>
+        <v>1.29299</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.879552</v>
+        <v>0.86653</v>
       </c>
       <c r="C77" t="n">
-        <v>1.64117</v>
+        <v>1.62272</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97857</v>
+        <v>1.97622</v>
       </c>
       <c r="E77" t="n">
-        <v>0.505283</v>
+        <v>0.50763</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27281</v>
+        <v>1.22047</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.880011</v>
+        <v>0.868092</v>
       </c>
       <c r="C78" t="n">
-        <v>1.61649</v>
+        <v>1.60545</v>
       </c>
       <c r="D78" t="n">
-        <v>3.32192</v>
+        <v>3.3688</v>
       </c>
       <c r="E78" t="n">
-        <v>0.492633</v>
+        <v>0.504748</v>
       </c>
       <c r="F78" t="n">
-        <v>1.21132</v>
+        <v>1.21962</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.83056</v>
+        <v>0.858243</v>
       </c>
       <c r="C79" t="n">
-        <v>1.56754</v>
+        <v>1.58025</v>
       </c>
       <c r="D79" t="n">
-        <v>3.315</v>
+        <v>3.252</v>
       </c>
       <c r="E79" t="n">
-        <v>0.48532</v>
+        <v>0.492556</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19906</v>
+        <v>1.19746</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.830153</v>
+        <v>0.842699</v>
       </c>
       <c r="C80" t="n">
-        <v>1.55374</v>
+        <v>1.58038</v>
       </c>
       <c r="D80" t="n">
-        <v>3.16382</v>
+        <v>3.28307</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7799970000000001</v>
+        <v>0.781895</v>
       </c>
       <c r="F80" t="n">
-        <v>2.11413</v>
+        <v>2.14962</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1235</v>
+        <v>1.13894</v>
       </c>
       <c r="C81" t="n">
-        <v>2.54635</v>
+        <v>2.56819</v>
       </c>
       <c r="D81" t="n">
-        <v>3.11278</v>
+        <v>3.14645</v>
       </c>
       <c r="E81" t="n">
-        <v>0.757182</v>
+        <v>0.761723</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0635</v>
+        <v>2.07802</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10631</v>
+        <v>1.16563</v>
       </c>
       <c r="C82" t="n">
-        <v>2.46866</v>
+        <v>2.46529</v>
       </c>
       <c r="D82" t="n">
-        <v>3.03991</v>
+        <v>3.11725</v>
       </c>
       <c r="E82" t="n">
-        <v>0.732262</v>
+        <v>0.764865</v>
       </c>
       <c r="F82" t="n">
-        <v>2.03027</v>
+        <v>2.06206</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08465</v>
+        <v>1.12745</v>
       </c>
       <c r="C83" t="n">
-        <v>2.43871</v>
+        <v>2.41001</v>
       </c>
       <c r="D83" t="n">
-        <v>2.99651</v>
+        <v>3.02791</v>
       </c>
       <c r="E83" t="n">
-        <v>0.720483</v>
+        <v>0.753847</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98165</v>
+        <v>1.95322</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.12327</v>
+        <v>1.11169</v>
       </c>
       <c r="C84" t="n">
-        <v>2.33665</v>
+        <v>2.38834</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93193</v>
+        <v>3.0344</v>
       </c>
       <c r="E84" t="n">
-        <v>0.722369</v>
+        <v>0.7120570000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>1.92288</v>
+        <v>1.93725</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09012</v>
+        <v>1.09909</v>
       </c>
       <c r="C85" t="n">
-        <v>2.31585</v>
+        <v>2.42091</v>
       </c>
       <c r="D85" t="n">
-        <v>2.90882</v>
+        <v>2.97836</v>
       </c>
       <c r="E85" t="n">
-        <v>0.702292</v>
+        <v>0.722754</v>
       </c>
       <c r="F85" t="n">
-        <v>1.85398</v>
+        <v>1.87407</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03936</v>
+        <v>1.07583</v>
       </c>
       <c r="C86" t="n">
-        <v>2.23263</v>
+        <v>2.25574</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8604</v>
+        <v>2.86129</v>
       </c>
       <c r="E86" t="n">
-        <v>0.673413</v>
+        <v>0.680736</v>
       </c>
       <c r="F86" t="n">
-        <v>1.82236</v>
+        <v>1.91887</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02233</v>
+        <v>1.08276</v>
       </c>
       <c r="C87" t="n">
-        <v>2.22673</v>
+        <v>2.20765</v>
       </c>
       <c r="D87" t="n">
-        <v>2.82225</v>
+        <v>2.86268</v>
       </c>
       <c r="E87" t="n">
-        <v>0.652786</v>
+        <v>0.691837</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7688</v>
+        <v>1.7641</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00682</v>
+        <v>1.04072</v>
       </c>
       <c r="C88" t="n">
-        <v>2.16147</v>
+        <v>2.2159</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78343</v>
+        <v>2.82586</v>
       </c>
       <c r="E88" t="n">
-        <v>0.645205</v>
+        <v>0.651634</v>
       </c>
       <c r="F88" t="n">
-        <v>1.7763</v>
+        <v>1.8391</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.994754</v>
+        <v>1.0395</v>
       </c>
       <c r="C89" t="n">
-        <v>2.10644</v>
+        <v>2.18647</v>
       </c>
       <c r="D89" t="n">
-        <v>2.70388</v>
+        <v>2.75036</v>
       </c>
       <c r="E89" t="n">
-        <v>0.63486</v>
+        <v>0.638642</v>
       </c>
       <c r="F89" t="n">
-        <v>1.68359</v>
+        <v>1.71928</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.987913</v>
+        <v>1.02677</v>
       </c>
       <c r="C90" t="n">
-        <v>2.07847</v>
+        <v>2.07743</v>
       </c>
       <c r="D90" t="n">
-        <v>2.69179</v>
+        <v>2.67115</v>
       </c>
       <c r="E90" t="n">
-        <v>0.617431</v>
+        <v>0.637637</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6725</v>
+        <v>1.66126</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.989514</v>
+        <v>1.00638</v>
       </c>
       <c r="C91" t="n">
-        <v>2.03157</v>
+        <v>2.01993</v>
       </c>
       <c r="D91" t="n">
-        <v>2.65811</v>
+        <v>2.68432</v>
       </c>
       <c r="E91" t="n">
-        <v>0.61226</v>
+        <v>0.614327</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64121</v>
+        <v>1.64784</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.958288</v>
+        <v>0.997324</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98569</v>
+        <v>2.01144</v>
       </c>
       <c r="D92" t="n">
-        <v>3.79718</v>
+        <v>3.80353</v>
       </c>
       <c r="E92" t="n">
-        <v>0.592885</v>
+        <v>0.633632</v>
       </c>
       <c r="F92" t="n">
-        <v>1.57862</v>
+        <v>1.6116</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949763</v>
+        <v>0.990385</v>
       </c>
       <c r="C93" t="n">
-        <v>1.94377</v>
+        <v>1.9781</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72392</v>
+        <v>3.79909</v>
       </c>
       <c r="E93" t="n">
-        <v>0.585001</v>
+        <v>0.617945</v>
       </c>
       <c r="F93" t="n">
-        <v>1.59523</v>
+        <v>1.58587</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.935763</v>
+        <v>0.981908</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93385</v>
+        <v>1.94453</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66593</v>
+        <v>3.74596</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8840209999999999</v>
+        <v>0.913063</v>
       </c>
       <c r="F94" t="n">
-        <v>2.61054</v>
+        <v>2.69987</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27256</v>
+        <v>1.2921</v>
       </c>
       <c r="C95" t="n">
-        <v>3.01408</v>
+        <v>3.03657</v>
       </c>
       <c r="D95" t="n">
-        <v>3.58517</v>
+        <v>3.70261</v>
       </c>
       <c r="E95" t="n">
-        <v>0.879955</v>
+        <v>0.895826</v>
       </c>
       <c r="F95" t="n">
-        <v>2.54646</v>
+        <v>2.58551</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2466</v>
+        <v>1.3076</v>
       </c>
       <c r="C96" t="n">
-        <v>2.92575</v>
+        <v>2.99974</v>
       </c>
       <c r="D96" t="n">
-        <v>3.53331</v>
+        <v>3.66804</v>
       </c>
       <c r="E96" t="n">
-        <v>0.848376</v>
+        <v>0.864985</v>
       </c>
       <c r="F96" t="n">
-        <v>2.48189</v>
+        <v>2.50307</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21059</v>
+        <v>1.31625</v>
       </c>
       <c r="C97" t="n">
-        <v>2.86056</v>
+        <v>2.93154</v>
       </c>
       <c r="D97" t="n">
-        <v>3.46859</v>
+        <v>3.46046</v>
       </c>
       <c r="E97" t="n">
-        <v>0.861557</v>
+        <v>0.843515</v>
       </c>
       <c r="F97" t="n">
-        <v>2.40725</v>
+        <v>2.39775</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20444</v>
+        <v>1.27725</v>
       </c>
       <c r="C98" t="n">
-        <v>2.78496</v>
+        <v>2.85857</v>
       </c>
       <c r="D98" t="n">
-        <v>3.37745</v>
+        <v>3.46964</v>
       </c>
       <c r="E98" t="n">
-        <v>0.852696</v>
+        <v>0.879494</v>
       </c>
       <c r="F98" t="n">
-        <v>2.35911</v>
+        <v>2.43268</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20323</v>
+        <v>1.26967</v>
       </c>
       <c r="C99" t="n">
-        <v>2.7651</v>
+        <v>2.86674</v>
       </c>
       <c r="D99" t="n">
-        <v>3.35206</v>
+        <v>3.53119</v>
       </c>
       <c r="E99" t="n">
-        <v>0.816459</v>
+        <v>0.815735</v>
       </c>
       <c r="F99" t="n">
-        <v>2.29829</v>
+        <v>2.32136</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16213</v>
+        <v>1.23024</v>
       </c>
       <c r="C100" t="n">
-        <v>2.67838</v>
+        <v>2.75486</v>
       </c>
       <c r="D100" t="n">
-        <v>3.32828</v>
+        <v>3.34808</v>
       </c>
       <c r="E100" t="n">
-        <v>0.81382</v>
+        <v>0.804719</v>
       </c>
       <c r="F100" t="n">
-        <v>2.22679</v>
+        <v>2.38201</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15215</v>
+        <v>1.2129</v>
       </c>
       <c r="C101" t="n">
-        <v>2.62307</v>
+        <v>2.72047</v>
       </c>
       <c r="D101" t="n">
-        <v>3.29614</v>
+        <v>3.29272</v>
       </c>
       <c r="E101" t="n">
-        <v>0.798179</v>
+        <v>0.8213819999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>2.16521</v>
+        <v>2.22829</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14618</v>
+        <v>1.23239</v>
       </c>
       <c r="C102" t="n">
-        <v>2.58523</v>
+        <v>2.6835</v>
       </c>
       <c r="D102" t="n">
-        <v>3.16262</v>
+        <v>3.2494</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7807770000000001</v>
+        <v>0.789795</v>
       </c>
       <c r="F102" t="n">
-        <v>2.11756</v>
+        <v>2.17639</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12693</v>
+        <v>1.2018</v>
       </c>
       <c r="C103" t="n">
-        <v>2.51764</v>
+        <v>2.62246</v>
       </c>
       <c r="D103" t="n">
-        <v>3.12233</v>
+        <v>3.20314</v>
       </c>
       <c r="E103" t="n">
-        <v>0.789184</v>
+        <v>0.787988</v>
       </c>
       <c r="F103" t="n">
-        <v>2.12969</v>
+        <v>2.0926</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12343</v>
+        <v>1.18481</v>
       </c>
       <c r="C104" t="n">
-        <v>2.52593</v>
+        <v>2.55346</v>
       </c>
       <c r="D104" t="n">
-        <v>3.14681</v>
+        <v>3.1858</v>
       </c>
       <c r="E104" t="n">
-        <v>0.738707</v>
+        <v>0.761269</v>
       </c>
       <c r="F104" t="n">
-        <v>2.03221</v>
+        <v>2.07642</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14414</v>
+        <v>1.18645</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4453</v>
+        <v>2.51033</v>
       </c>
       <c r="D105" t="n">
-        <v>3.09648</v>
+        <v>3.13986</v>
       </c>
       <c r="E105" t="n">
-        <v>0.721195</v>
+        <v>0.745717</v>
       </c>
       <c r="F105" t="n">
-        <v>2.01966</v>
+        <v>2.07801</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09931</v>
+        <v>1.15303</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48225</v>
+        <v>2.45602</v>
       </c>
       <c r="D106" t="n">
-        <v>3.07741</v>
+        <v>3.10061</v>
       </c>
       <c r="E106" t="n">
-        <v>0.721697</v>
+        <v>0.757559</v>
       </c>
       <c r="F106" t="n">
-        <v>2.05224</v>
+        <v>1.99626</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1014</v>
+        <v>1.1766</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3443</v>
+        <v>2.41779</v>
       </c>
       <c r="D107" t="n">
-        <v>4.24633</v>
+        <v>4.25131</v>
       </c>
       <c r="E107" t="n">
-        <v>0.72446</v>
+        <v>0.754172</v>
       </c>
       <c r="F107" t="n">
-        <v>1.90951</v>
+        <v>1.92467</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08619</v>
+        <v>1.1316</v>
       </c>
       <c r="C108" t="n">
-        <v>2.33134</v>
+        <v>2.40214</v>
       </c>
       <c r="D108" t="n">
-        <v>4.1012</v>
+        <v>4.16609</v>
       </c>
       <c r="E108" t="n">
-        <v>1.0175</v>
+        <v>1.04697</v>
       </c>
       <c r="F108" t="n">
-        <v>3.12454</v>
+        <v>3.1247</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.08994</v>
+        <v>1.15505</v>
       </c>
       <c r="C109" t="n">
-        <v>2.33971</v>
+        <v>2.33829</v>
       </c>
       <c r="D109" t="n">
-        <v>4.05064</v>
+        <v>4.09357</v>
       </c>
       <c r="E109" t="n">
-        <v>1.00332</v>
+        <v>1.02211</v>
       </c>
       <c r="F109" t="n">
-        <v>2.99789</v>
+        <v>3.01121</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42783</v>
+        <v>1.47306</v>
       </c>
       <c r="C110" t="n">
-        <v>3.4541</v>
+        <v>3.50296</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97999</v>
+        <v>3.97175</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0225</v>
+        <v>1.04769</v>
       </c>
       <c r="F110" t="n">
-        <v>2.92588</v>
+        <v>2.97293</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4104</v>
+        <v>1.44743</v>
       </c>
       <c r="C111" t="n">
-        <v>3.3788</v>
+        <v>3.44712</v>
       </c>
       <c r="D111" t="n">
-        <v>3.96047</v>
+        <v>3.85727</v>
       </c>
       <c r="E111" t="n">
-        <v>1.01345</v>
+        <v>1.02094</v>
       </c>
       <c r="F111" t="n">
-        <v>2.86359</v>
+        <v>2.89004</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.35181</v>
+        <v>1.44435</v>
       </c>
       <c r="C112" t="n">
-        <v>3.30534</v>
+        <v>3.34646</v>
       </c>
       <c r="D112" t="n">
-        <v>3.95093</v>
+        <v>3.80682</v>
       </c>
       <c r="E112" t="n">
-        <v>1.01117</v>
+        <v>1.04048</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79292</v>
+        <v>2.79132</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36722</v>
+        <v>1.43525</v>
       </c>
       <c r="C113" t="n">
-        <v>3.18008</v>
+        <v>3.30894</v>
       </c>
       <c r="D113" t="n">
-        <v>3.75397</v>
+        <v>3.76231</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01673</v>
+        <v>1.01379</v>
       </c>
       <c r="F113" t="n">
-        <v>2.76896</v>
+        <v>2.78528</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3665</v>
+        <v>1.44416</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14652</v>
+        <v>3.2335</v>
       </c>
       <c r="D114" t="n">
-        <v>3.74576</v>
+        <v>3.70849</v>
       </c>
       <c r="E114" t="n">
-        <v>0.956162</v>
+        <v>0.9868440000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66212</v>
+        <v>2.6551</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35415</v>
+        <v>1.40651</v>
       </c>
       <c r="C115" t="n">
-        <v>3.14981</v>
+        <v>3.18783</v>
       </c>
       <c r="D115" t="n">
-        <v>3.67925</v>
+        <v>3.64451</v>
       </c>
       <c r="E115" t="n">
-        <v>0.953752</v>
+        <v>0.995236</v>
       </c>
       <c r="F115" t="n">
-        <v>2.58979</v>
+        <v>2.62717</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30814</v>
+        <v>1.42323</v>
       </c>
       <c r="C116" t="n">
-        <v>3.04873</v>
+        <v>3.10585</v>
       </c>
       <c r="D116" t="n">
-        <v>3.60757</v>
+        <v>3.63552</v>
       </c>
       <c r="E116" t="n">
-        <v>1.00222</v>
+        <v>0.98481</v>
       </c>
       <c r="F116" t="n">
-        <v>2.57</v>
+        <v>2.56422</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30498</v>
+        <v>1.4495</v>
       </c>
       <c r="C117" t="n">
-        <v>2.98347</v>
+        <v>3.0555</v>
       </c>
       <c r="D117" t="n">
-        <v>3.56574</v>
+        <v>3.56629</v>
       </c>
       <c r="E117" t="n">
-        <v>0.966675</v>
+        <v>0.962861</v>
       </c>
       <c r="F117" t="n">
-        <v>2.51509</v>
+        <v>2.49866</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3092</v>
+        <v>1.40173</v>
       </c>
       <c r="C118" t="n">
-        <v>2.94911</v>
+        <v>2.99033</v>
       </c>
       <c r="D118" t="n">
-        <v>3.50479</v>
+        <v>3.51008</v>
       </c>
       <c r="E118" t="n">
-        <v>0.939754</v>
+        <v>0.956125</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43692</v>
+        <v>2.46066</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28622</v>
+        <v>1.389</v>
       </c>
       <c r="C119" t="n">
-        <v>2.86083</v>
+        <v>2.95841</v>
       </c>
       <c r="D119" t="n">
-        <v>3.45628</v>
+        <v>3.50835</v>
       </c>
       <c r="E119" t="n">
-        <v>0.93458</v>
+        <v>0.974812</v>
       </c>
       <c r="F119" t="n">
-        <v>2.43527</v>
+        <v>2.39854</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2943</v>
+        <v>1.37586</v>
       </c>
       <c r="C120" t="n">
-        <v>2.80829</v>
+        <v>2.92152</v>
       </c>
       <c r="D120" t="n">
-        <v>3.44937</v>
+        <v>3.53295</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9116</v>
+        <v>0.937111</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36536</v>
+        <v>2.37173</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.30072</v>
+        <v>1.35701</v>
       </c>
       <c r="C121" t="n">
-        <v>2.80846</v>
+        <v>2.90663</v>
       </c>
       <c r="D121" t="n">
-        <v>4.78357</v>
+        <v>4.80837</v>
       </c>
       <c r="E121" t="n">
-        <v>0.933023</v>
+        <v>0.934589</v>
       </c>
       <c r="F121" t="n">
-        <v>2.32912</v>
+        <v>2.3584</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2874</v>
+        <v>1.35046</v>
       </c>
       <c r="C122" t="n">
-        <v>2.7601</v>
+        <v>2.90064</v>
       </c>
       <c r="D122" t="n">
-        <v>4.67059</v>
+        <v>4.74219</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9396099999999999</v>
+        <v>0.929655</v>
       </c>
       <c r="F122" t="n">
-        <v>2.28346</v>
+        <v>2.29501</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27097</v>
+        <v>1.35497</v>
       </c>
       <c r="C123" t="n">
-        <v>2.74013</v>
+        <v>2.85021</v>
       </c>
       <c r="D123" t="n">
-        <v>4.58431</v>
+        <v>4.59001</v>
       </c>
       <c r="E123" t="n">
-        <v>1.23172</v>
+        <v>1.29606</v>
       </c>
       <c r="F123" t="n">
-        <v>3.50101</v>
+        <v>3.5394</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58085</v>
+        <v>1.65562</v>
       </c>
       <c r="C124" t="n">
-        <v>3.97246</v>
+        <v>4.11306</v>
       </c>
       <c r="D124" t="n">
-        <v>4.51048</v>
+        <v>4.50308</v>
       </c>
       <c r="E124" t="n">
-        <v>1.24143</v>
+        <v>1.27497</v>
       </c>
       <c r="F124" t="n">
-        <v>3.44926</v>
+        <v>3.45032</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58352</v>
+        <v>1.66236</v>
       </c>
       <c r="C125" t="n">
-        <v>3.89206</v>
+        <v>4.00468</v>
       </c>
       <c r="D125" t="n">
-        <v>4.37148</v>
+        <v>4.4229</v>
       </c>
       <c r="E125" t="n">
-        <v>1.23736</v>
+        <v>1.30218</v>
       </c>
       <c r="F125" t="n">
-        <v>3.35754</v>
+        <v>3.37788</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56132</v>
+        <v>1.68181</v>
       </c>
       <c r="C126" t="n">
-        <v>3.82759</v>
+        <v>3.92713</v>
       </c>
       <c r="D126" t="n">
-        <v>4.34077</v>
+        <v>4.32414</v>
       </c>
       <c r="E126" t="n">
-        <v>1.2597</v>
+        <v>1.26579</v>
       </c>
       <c r="F126" t="n">
-        <v>3.29046</v>
+        <v>3.32545</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57175</v>
+        <v>1.6657</v>
       </c>
       <c r="C127" t="n">
-        <v>3.72349</v>
+        <v>3.86613</v>
       </c>
       <c r="D127" t="n">
-        <v>4.2838</v>
+        <v>4.29696</v>
       </c>
       <c r="E127" t="n">
-        <v>1.25459</v>
+        <v>1.2652</v>
       </c>
       <c r="F127" t="n">
-        <v>3.22692</v>
+        <v>3.22706</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5694</v>
+        <v>1.66076</v>
       </c>
       <c r="C128" t="n">
-        <v>3.67909</v>
+        <v>3.78432</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2519</v>
+        <v>4.1766</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25464</v>
+        <v>1.26843</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11849</v>
+        <v>3.14309</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.56019</v>
+        <v>1.70398</v>
       </c>
       <c r="C129" t="n">
-        <v>3.63092</v>
+        <v>3.7188</v>
       </c>
       <c r="D129" t="n">
-        <v>4.1597</v>
+        <v>4.1535</v>
       </c>
       <c r="E129" t="n">
-        <v>1.25565</v>
+        <v>1.26757</v>
       </c>
       <c r="F129" t="n">
-        <v>3.09018</v>
+        <v>3.06857</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.53971</v>
+        <v>1.68266</v>
       </c>
       <c r="C130" t="n">
-        <v>3.56111</v>
+        <v>3.62016</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10859</v>
+        <v>4.10288</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23636</v>
+        <v>1.25566</v>
       </c>
       <c r="F130" t="n">
-        <v>3.05208</v>
+        <v>3.03405</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.554</v>
+        <v>1.67597</v>
       </c>
       <c r="C131" t="n">
-        <v>3.47634</v>
+        <v>3.57411</v>
       </c>
       <c r="D131" t="n">
-        <v>4.06389</v>
+        <v>4.02345</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26167</v>
+        <v>1.26826</v>
       </c>
       <c r="F131" t="n">
-        <v>2.9689</v>
+        <v>2.94384</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55494</v>
+        <v>1.66814</v>
       </c>
       <c r="C132" t="n">
-        <v>3.41567</v>
+        <v>3.51674</v>
       </c>
       <c r="D132" t="n">
-        <v>4.0226</v>
+        <v>4.00718</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24682</v>
+        <v>1.26111</v>
       </c>
       <c r="F132" t="n">
-        <v>2.90879</v>
+        <v>2.9249</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55389</v>
+        <v>1.71026</v>
       </c>
       <c r="C133" t="n">
-        <v>3.38308</v>
+        <v>3.45155</v>
       </c>
       <c r="D133" t="n">
-        <v>3.9872</v>
+        <v>3.9543</v>
       </c>
       <c r="E133" t="n">
-        <v>1.25491</v>
+        <v>1.26796</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84977</v>
+        <v>2.85127</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.52573</v>
+        <v>1.66691</v>
       </c>
       <c r="C134" t="n">
-        <v>3.37096</v>
+        <v>3.4348</v>
       </c>
       <c r="D134" t="n">
-        <v>3.95104</v>
+        <v>3.96672</v>
       </c>
       <c r="E134" t="n">
-        <v>1.23444</v>
+        <v>1.29743</v>
       </c>
       <c r="F134" t="n">
-        <v>2.80208</v>
+        <v>2.86993</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.5593</v>
+        <v>1.67939</v>
       </c>
       <c r="C135" t="n">
-        <v>3.27269</v>
+        <v>3.48888</v>
       </c>
       <c r="D135" t="n">
-        <v>5.45972</v>
+        <v>5.66887</v>
       </c>
       <c r="E135" t="n">
-        <v>1.23075</v>
+        <v>1.31058</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75729</v>
+        <v>2.82621</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.56553</v>
+        <v>1.73974</v>
       </c>
       <c r="C136" t="n">
-        <v>3.1949</v>
+        <v>3.39907</v>
       </c>
       <c r="D136" t="n">
-        <v>5.32337</v>
+        <v>5.48474</v>
       </c>
       <c r="E136" t="n">
-        <v>1.24118</v>
+        <v>1.29836</v>
       </c>
       <c r="F136" t="n">
-        <v>2.75504</v>
+        <v>2.8261</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.56406</v>
+        <v>1.72358</v>
       </c>
       <c r="C137" t="n">
-        <v>3.21457</v>
+        <v>3.40771</v>
       </c>
       <c r="D137" t="n">
-        <v>5.23103</v>
+        <v>5.43272</v>
       </c>
       <c r="E137" t="n">
-        <v>1.59151</v>
+        <v>1.60831</v>
       </c>
       <c r="F137" t="n">
-        <v>4.14725</v>
+        <v>4.25895</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.84431</v>
+        <v>2.04686</v>
       </c>
       <c r="C138" t="n">
-        <v>4.61619</v>
+        <v>4.83665</v>
       </c>
       <c r="D138" t="n">
-        <v>5.16643</v>
+        <v>5.26113</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57481</v>
+        <v>1.5987</v>
       </c>
       <c r="F138" t="n">
-        <v>3.95618</v>
+        <v>4.02018</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85699</v>
+        <v>1.98246</v>
       </c>
       <c r="C139" t="n">
-        <v>4.53914</v>
+        <v>4.63364</v>
       </c>
       <c r="D139" t="n">
-        <v>5.04912</v>
+        <v>5.06064</v>
       </c>
       <c r="E139" t="n">
-        <v>1.57779</v>
+        <v>1.60075</v>
       </c>
       <c r="F139" t="n">
-        <v>3.92055</v>
+        <v>3.91957</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.84613</v>
+        <v>1.97517</v>
       </c>
       <c r="C140" t="n">
-        <v>4.39095</v>
+        <v>4.53374</v>
       </c>
       <c r="D140" t="n">
-        <v>4.99036</v>
+        <v>4.96817</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57948</v>
+        <v>1.60872</v>
       </c>
       <c r="F140" t="n">
-        <v>3.81256</v>
+        <v>3.8499</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.81761</v>
+        <v>2.01946</v>
       </c>
       <c r="C141" t="n">
-        <v>4.29797</v>
+        <v>4.46861</v>
       </c>
       <c r="D141" t="n">
-        <v>4.86895</v>
+        <v>4.92533</v>
       </c>
       <c r="E141" t="n">
-        <v>1.58084</v>
+        <v>1.59878</v>
       </c>
       <c r="F141" t="n">
-        <v>3.74341</v>
+        <v>3.77385</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86125</v>
+        <v>1.99255</v>
       </c>
       <c r="C142" t="n">
-        <v>4.21</v>
+        <v>4.37355</v>
       </c>
       <c r="D142" t="n">
-        <v>4.80107</v>
+        <v>4.83007</v>
       </c>
       <c r="E142" t="n">
-        <v>1.58794</v>
+        <v>1.61249</v>
       </c>
       <c r="F142" t="n">
-        <v>3.64256</v>
+        <v>3.6551</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84139</v>
+        <v>1.98336</v>
       </c>
       <c r="C143" t="n">
-        <v>4.18315</v>
+        <v>4.292</v>
       </c>
       <c r="D143" t="n">
-        <v>4.72921</v>
+        <v>4.7331</v>
       </c>
       <c r="E143" t="n">
-        <v>1.59682</v>
+        <v>1.59263</v>
       </c>
       <c r="F143" t="n">
-        <v>3.58543</v>
+        <v>3.57953</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548887</v>
+        <v>0.526374</v>
       </c>
       <c r="C2" t="n">
-        <v>0.829054</v>
+        <v>0.804482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.795555</v>
+        <v>0.768756</v>
       </c>
       <c r="E2" t="n">
-        <v>0.212178</v>
+        <v>0.212759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.610251</v>
+        <v>0.633039</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.429667</v>
+        <v>0.462662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.816385</v>
+        <v>0.813582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.787249</v>
+        <v>0.84881</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213003</v>
+        <v>0.20884</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6639080000000001</v>
+        <v>0.624541</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428506</v>
+        <v>0.422862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.823815</v>
+        <v>0.821859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.788314</v>
+        <v>0.770981</v>
       </c>
       <c r="E4" t="n">
-        <v>0.204441</v>
+        <v>0.198438</v>
       </c>
       <c r="F4" t="n">
-        <v>0.610828</v>
+        <v>0.610191</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420233</v>
+        <v>0.41784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.806262</v>
+        <v>0.7837229999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.818251</v>
+        <v>0.76194</v>
       </c>
       <c r="E5" t="n">
-        <v>0.198488</v>
+        <v>0.195583</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5899450000000001</v>
+        <v>0.612258</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.414001</v>
+        <v>0.41803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.787361</v>
+        <v>0.788369</v>
       </c>
       <c r="D6" t="n">
-        <v>0.767323</v>
+        <v>0.767324</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197727</v>
+        <v>0.192154</v>
       </c>
       <c r="F6" t="n">
-        <v>0.585593</v>
+        <v>0.591363</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.42726</v>
+        <v>0.401057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7854100000000001</v>
+        <v>0.753107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.935599</v>
+        <v>0.898176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.192645</v>
+        <v>0.183636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.580321</v>
+        <v>0.582143</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.420939</v>
+        <v>0.417494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.864699</v>
+        <v>0.750969</v>
       </c>
       <c r="D8" t="n">
-        <v>0.927281</v>
+        <v>0.887076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187432</v>
+        <v>0.183395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.582611</v>
+        <v>0.614878</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.400406</v>
+        <v>0.404911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.783816</v>
+        <v>0.778842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.899002</v>
+        <v>0.909101</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278224</v>
+        <v>0.271632</v>
       </c>
       <c r="F9" t="n">
-        <v>0.696446</v>
+        <v>0.6888919999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.490132</v>
+        <v>0.490866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.889142</v>
+        <v>0.871459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.901191</v>
+        <v>0.887836</v>
       </c>
       <c r="E10" t="n">
-        <v>0.263892</v>
+        <v>0.262316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.662951</v>
+        <v>0.672777</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.474371</v>
+        <v>0.472377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.860644</v>
+        <v>0.863379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8611259999999999</v>
+        <v>0.859472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.248844</v>
+        <v>0.253913</v>
       </c>
       <c r="F11" t="n">
-        <v>0.64135</v>
+        <v>0.667847</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.460885</v>
+        <v>0.460063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.844409</v>
+        <v>0.839921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.841774</v>
+        <v>0.842134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.248613</v>
+        <v>0.240321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.644167</v>
+        <v>0.65534</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.447522</v>
+        <v>0.476064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.830884</v>
+        <v>0.8349760000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.823304</v>
+        <v>0.824085</v>
       </c>
       <c r="E13" t="n">
-        <v>0.240917</v>
+        <v>0.231221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.655653</v>
+        <v>0.675406</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.452289</v>
+        <v>0.441603</v>
       </c>
       <c r="C14" t="n">
-        <v>0.874528</v>
+        <v>0.815966</v>
       </c>
       <c r="D14" t="n">
-        <v>0.875627</v>
+        <v>0.815974</v>
       </c>
       <c r="E14" t="n">
-        <v>0.225389</v>
+        <v>0.223339</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6225270000000001</v>
+        <v>0.638749</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.439548</v>
+        <v>0.440047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.818929</v>
+        <v>0.80723</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8118610000000001</v>
+        <v>0.803944</v>
       </c>
       <c r="E15" t="n">
-        <v>0.218325</v>
+        <v>0.216691</v>
       </c>
       <c r="F15" t="n">
-        <v>0.604183</v>
+        <v>0.627965</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435061</v>
+        <v>0.431997</v>
       </c>
       <c r="C16" t="n">
-        <v>0.815902</v>
+        <v>0.811172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.828531</v>
+        <v>0.814819</v>
       </c>
       <c r="E16" t="n">
-        <v>0.212225</v>
+        <v>0.214351</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6251370000000001</v>
+        <v>0.629548</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.432379</v>
+        <v>0.428438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.812984</v>
+        <v>0.805945</v>
       </c>
       <c r="D17" t="n">
-        <v>0.797383</v>
+        <v>0.794969</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208239</v>
+        <v>0.206568</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5947480000000001</v>
+        <v>0.630396</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.422405</v>
+        <v>0.421911</v>
       </c>
       <c r="C18" t="n">
-        <v>0.826521</v>
+        <v>0.797389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.800234</v>
+        <v>0.792122</v>
       </c>
       <c r="E18" t="n">
-        <v>0.203471</v>
+        <v>0.201603</v>
       </c>
       <c r="F18" t="n">
-        <v>0.594885</v>
+        <v>0.617185</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.420102</v>
+        <v>0.41678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.798889</v>
+        <v>0.788141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.778293</v>
+        <v>0.784223</v>
       </c>
       <c r="E19" t="n">
-        <v>0.19762</v>
+        <v>0.197484</v>
       </c>
       <c r="F19" t="n">
-        <v>0.599391</v>
+        <v>0.6106819999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.416777</v>
+        <v>0.412076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.802566</v>
+        <v>0.788029</v>
       </c>
       <c r="D20" t="n">
-        <v>0.778201</v>
+        <v>0.787687</v>
       </c>
       <c r="E20" t="n">
-        <v>0.193214</v>
+        <v>0.192705</v>
       </c>
       <c r="F20" t="n">
-        <v>0.589044</v>
+        <v>0.608636</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.417858</v>
+        <v>0.41338</v>
       </c>
       <c r="C21" t="n">
-        <v>0.788216</v>
+        <v>0.783373</v>
       </c>
       <c r="D21" t="n">
-        <v>0.948053</v>
+        <v>0.937144</v>
       </c>
       <c r="E21" t="n">
-        <v>0.198788</v>
+        <v>0.189543</v>
       </c>
       <c r="F21" t="n">
-        <v>0.600012</v>
+        <v>0.601749</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.406423</v>
+        <v>0.405791</v>
       </c>
       <c r="C22" t="n">
-        <v>0.784314</v>
+        <v>0.777581</v>
       </c>
       <c r="D22" t="n">
-        <v>0.937961</v>
+        <v>0.9253749999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.189064</v>
+        <v>0.188182</v>
       </c>
       <c r="F22" t="n">
-        <v>0.583456</v>
+        <v>0.601718</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.404844</v>
+        <v>0.402007</v>
       </c>
       <c r="C23" t="n">
-        <v>0.777751</v>
+        <v>0.770055</v>
       </c>
       <c r="D23" t="n">
-        <v>0.948716</v>
+        <v>0.909508</v>
       </c>
       <c r="E23" t="n">
-        <v>0.436002</v>
+        <v>0.421741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.683822</v>
+        <v>0.688507</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6699850000000001</v>
+        <v>0.657613</v>
       </c>
       <c r="C24" t="n">
-        <v>0.896568</v>
+        <v>0.875205</v>
       </c>
       <c r="D24" t="n">
-        <v>0.907231</v>
+        <v>0.903833</v>
       </c>
       <c r="E24" t="n">
-        <v>0.421513</v>
+        <v>0.40777</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6627420000000001</v>
+        <v>0.682741</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.634483</v>
+        <v>0.6257740000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8711370000000001</v>
+        <v>0.87677</v>
       </c>
       <c r="D25" t="n">
-        <v>0.894083</v>
+        <v>0.919718</v>
       </c>
       <c r="E25" t="n">
-        <v>0.402535</v>
+        <v>0.416632</v>
       </c>
       <c r="F25" t="n">
-        <v>0.656487</v>
+        <v>0.675913</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.630544</v>
+        <v>0.610884</v>
       </c>
       <c r="C26" t="n">
-        <v>1.05646</v>
+        <v>0.858659</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8821</v>
+        <v>0.874799</v>
       </c>
       <c r="E26" t="n">
-        <v>0.403717</v>
+        <v>0.378171</v>
       </c>
       <c r="F26" t="n">
-        <v>0.646116</v>
+        <v>0.673768</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.60912</v>
+        <v>0.5999719999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.852607</v>
+        <v>0.850876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.879072</v>
+        <v>0.869102</v>
       </c>
       <c r="E27" t="n">
-        <v>0.379562</v>
+        <v>0.365622</v>
       </c>
       <c r="F27" t="n">
-        <v>0.642227</v>
+        <v>0.666441</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.602151</v>
+        <v>0.587404</v>
       </c>
       <c r="C28" t="n">
-        <v>0.868763</v>
+        <v>0.84875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.869013</v>
+        <v>0.859167</v>
       </c>
       <c r="E28" t="n">
-        <v>0.359935</v>
+        <v>0.353409</v>
       </c>
       <c r="F28" t="n">
-        <v>0.661775</v>
+        <v>0.659206</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.595585</v>
+        <v>0.589412</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84259</v>
+        <v>0.845038</v>
       </c>
       <c r="D29" t="n">
-        <v>0.853087</v>
+        <v>0.851641</v>
       </c>
       <c r="E29" t="n">
-        <v>0.34985</v>
+        <v>0.341688</v>
       </c>
       <c r="F29" t="n">
-        <v>0.625742</v>
+        <v>0.650894</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.563712</v>
+        <v>0.565971</v>
       </c>
       <c r="C30" t="n">
-        <v>0.847173</v>
+        <v>0.837434</v>
       </c>
       <c r="D30" t="n">
-        <v>0.865293</v>
+        <v>0.8480799999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.337297</v>
+        <v>0.331246</v>
       </c>
       <c r="F30" t="n">
-        <v>0.620501</v>
+        <v>0.649374</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.553728</v>
+        <v>0.553694</v>
       </c>
       <c r="C31" t="n">
-        <v>0.835319</v>
+        <v>0.828703</v>
       </c>
       <c r="D31" t="n">
-        <v>0.84444</v>
+        <v>0.8311460000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.32904</v>
+        <v>0.316997</v>
       </c>
       <c r="F31" t="n">
-        <v>0.615892</v>
+        <v>0.637338</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.545905</v>
+        <v>0.5449270000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.833546</v>
+        <v>0.828079</v>
       </c>
       <c r="D32" t="n">
-        <v>0.83226</v>
+        <v>0.827092</v>
       </c>
       <c r="E32" t="n">
-        <v>0.313832</v>
+        <v>0.310989</v>
       </c>
       <c r="F32" t="n">
-        <v>0.611569</v>
+        <v>0.636467</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.544212</v>
+        <v>0.534031</v>
       </c>
       <c r="C33" t="n">
-        <v>0.821344</v>
+        <v>0.828579</v>
       </c>
       <c r="D33" t="n">
-        <v>0.824357</v>
+        <v>0.835132</v>
       </c>
       <c r="E33" t="n">
-        <v>0.303569</v>
+        <v>0.301696</v>
       </c>
       <c r="F33" t="n">
-        <v>0.620115</v>
+        <v>0.636652</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.53356</v>
+        <v>0.522917</v>
       </c>
       <c r="C34" t="n">
-        <v>0.829884</v>
+        <v>0.820973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8365629999999999</v>
+        <v>0.822441</v>
       </c>
       <c r="E34" t="n">
-        <v>0.297077</v>
+        <v>0.292943</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6217819999999999</v>
+        <v>0.644068</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.518591</v>
+        <v>0.52567</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824411</v>
+        <v>0.817597</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0762</v>
+        <v>1.05334</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2891</v>
+        <v>0.285152</v>
       </c>
       <c r="F35" t="n">
-        <v>0.605635</v>
+        <v>0.6321560000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.513361</v>
+        <v>0.50849</v>
       </c>
       <c r="C36" t="n">
-        <v>0.812679</v>
+        <v>0.814337</v>
       </c>
       <c r="D36" t="n">
-        <v>1.04286</v>
+        <v>1.03376</v>
       </c>
       <c r="E36" t="n">
-        <v>0.282802</v>
+        <v>0.27916</v>
       </c>
       <c r="F36" t="n">
-        <v>0.599633</v>
+        <v>0.6289360000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.530652</v>
+        <v>0.497965</v>
       </c>
       <c r="C37" t="n">
-        <v>0.839139</v>
+        <v>0.80838</v>
       </c>
       <c r="D37" t="n">
-        <v>1.01055</v>
+        <v>1.03936</v>
       </c>
       <c r="E37" t="n">
-        <v>0.545201</v>
+        <v>0.526641</v>
       </c>
       <c r="F37" t="n">
-        <v>0.808921</v>
+        <v>0.844465</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.763868</v>
+        <v>0.747777</v>
       </c>
       <c r="C38" t="n">
-        <v>1.04305</v>
+        <v>1.04056</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03512</v>
+        <v>0.9993</v>
       </c>
       <c r="E38" t="n">
-        <v>0.527514</v>
+        <v>0.503344</v>
       </c>
       <c r="F38" t="n">
-        <v>0.818101</v>
+        <v>0.8086100000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.746964</v>
+        <v>0.729911</v>
       </c>
       <c r="C39" t="n">
-        <v>1.04041</v>
+        <v>1.03144</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00001</v>
+        <v>0.987371</v>
       </c>
       <c r="E39" t="n">
-        <v>0.495112</v>
+        <v>0.48632</v>
       </c>
       <c r="F39" t="n">
-        <v>0.795144</v>
+        <v>0.820141</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.751829</v>
+        <v>0.729088</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0375</v>
+        <v>1.0736</v>
       </c>
       <c r="D40" t="n">
-        <v>0.979635</v>
+        <v>1.00597</v>
       </c>
       <c r="E40" t="n">
-        <v>0.475754</v>
+        <v>0.471946</v>
       </c>
       <c r="F40" t="n">
-        <v>0.788727</v>
+        <v>0.806161</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.714993</v>
+        <v>0.704937</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02411</v>
+        <v>1.00383</v>
       </c>
       <c r="D41" t="n">
-        <v>0.994343</v>
+        <v>0.957927</v>
       </c>
       <c r="E41" t="n">
-        <v>0.470014</v>
+        <v>0.450112</v>
       </c>
       <c r="F41" t="n">
-        <v>0.780826</v>
+        <v>0.789006</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.698672</v>
+        <v>0.705678</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0197</v>
+        <v>1.02008</v>
       </c>
       <c r="D42" t="n">
-        <v>0.964433</v>
+        <v>0.958514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.455567</v>
+        <v>0.435468</v>
       </c>
       <c r="F42" t="n">
-        <v>0.75654</v>
+        <v>0.777546</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.692751</v>
+        <v>0.667916</v>
       </c>
       <c r="C43" t="n">
-        <v>1.00766</v>
+        <v>0.99058</v>
       </c>
       <c r="D43" t="n">
-        <v>0.958631</v>
+        <v>0.952959</v>
       </c>
       <c r="E43" t="n">
-        <v>0.430244</v>
+        <v>0.420309</v>
       </c>
       <c r="F43" t="n">
-        <v>0.782507</v>
+        <v>0.765031</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.678438</v>
+        <v>0.6513910000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>1.00033</v>
+        <v>0.990721</v>
       </c>
       <c r="D44" t="n">
-        <v>0.981803</v>
+        <v>0.944364</v>
       </c>
       <c r="E44" t="n">
-        <v>0.414854</v>
+        <v>0.40752</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7585460000000001</v>
+        <v>0.767016</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.66533</v>
+        <v>0.660901</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02823</v>
+        <v>0.986498</v>
       </c>
       <c r="D45" t="n">
-        <v>0.95013</v>
+        <v>0.929481</v>
       </c>
       <c r="E45" t="n">
-        <v>0.416023</v>
+        <v>0.392226</v>
       </c>
       <c r="F45" t="n">
-        <v>0.73027</v>
+        <v>0.759217</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.64311</v>
+        <v>0.627338</v>
       </c>
       <c r="C46" t="n">
-        <v>0.979633</v>
+        <v>0.963484</v>
       </c>
       <c r="D46" t="n">
-        <v>0.958503</v>
+        <v>0.922579</v>
       </c>
       <c r="E46" t="n">
-        <v>0.390032</v>
+        <v>0.381567</v>
       </c>
       <c r="F46" t="n">
-        <v>0.719607</v>
+        <v>0.742918</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.629844</v>
+        <v>0.615314</v>
       </c>
       <c r="C47" t="n">
-        <v>0.966621</v>
+        <v>0.960678</v>
       </c>
       <c r="D47" t="n">
-        <v>0.932581</v>
+        <v>0.9248499999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.375534</v>
+        <v>0.368196</v>
       </c>
       <c r="F47" t="n">
-        <v>0.711206</v>
+        <v>0.73727</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.614034</v>
+        <v>0.6093730000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.972339</v>
+        <v>0.961033</v>
       </c>
       <c r="D48" t="n">
-        <v>0.919971</v>
+        <v>0.923221</v>
       </c>
       <c r="E48" t="n">
-        <v>0.361526</v>
+        <v>0.357236</v>
       </c>
       <c r="F48" t="n">
-        <v>0.711503</v>
+        <v>0.731687</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.616209</v>
+        <v>0.598262</v>
       </c>
       <c r="C49" t="n">
-        <v>0.987505</v>
+        <v>0.960009</v>
       </c>
       <c r="D49" t="n">
-        <v>0.930599</v>
+        <v>0.928843</v>
       </c>
       <c r="E49" t="n">
-        <v>0.351618</v>
+        <v>0.345966</v>
       </c>
       <c r="F49" t="n">
-        <v>0.726596</v>
+        <v>0.727484</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.602252</v>
+        <v>0.5869220000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.973384</v>
+        <v>0.9533700000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>1.49029</v>
+        <v>1.51612</v>
       </c>
       <c r="E50" t="n">
-        <v>0.34773</v>
+        <v>0.338076</v>
       </c>
       <c r="F50" t="n">
-        <v>0.715681</v>
+        <v>0.725274</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.588562</v>
+        <v>0.5780729999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.960831</v>
+        <v>0.951981</v>
       </c>
       <c r="D51" t="n">
-        <v>1.50321</v>
+        <v>1.49503</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5954930000000001</v>
+        <v>0.588882</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05633</v>
+        <v>1.08954</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.573761</v>
+        <v>0.57628</v>
       </c>
       <c r="C52" t="n">
-        <v>0.95209</v>
+        <v>0.959739</v>
       </c>
       <c r="D52" t="n">
-        <v>1.44363</v>
+        <v>1.44181</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5780650000000001</v>
+        <v>0.573778</v>
       </c>
       <c r="F52" t="n">
-        <v>1.04425</v>
+        <v>1.07883</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85511</v>
+        <v>0.846685</v>
       </c>
       <c r="C53" t="n">
-        <v>1.3476</v>
+        <v>1.36899</v>
       </c>
       <c r="D53" t="n">
-        <v>1.4502</v>
+        <v>1.40109</v>
       </c>
       <c r="E53" t="n">
-        <v>0.568771</v>
+        <v>0.549109</v>
       </c>
       <c r="F53" t="n">
-        <v>1.02248</v>
+        <v>1.043</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.870402</v>
+        <v>0.830421</v>
       </c>
       <c r="C54" t="n">
-        <v>1.32564</v>
+        <v>1.32838</v>
       </c>
       <c r="D54" t="n">
-        <v>1.40196</v>
+        <v>1.3573</v>
       </c>
       <c r="E54" t="n">
-        <v>0.560092</v>
+        <v>0.5325490000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>1.01529</v>
+        <v>1.02829</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.826583</v>
+        <v>0.813628</v>
       </c>
       <c r="C55" t="n">
-        <v>1.32935</v>
+        <v>1.319</v>
       </c>
       <c r="D55" t="n">
-        <v>1.4173</v>
+        <v>1.46035</v>
       </c>
       <c r="E55" t="n">
-        <v>0.528092</v>
+        <v>0.5185959999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>0.97955</v>
+        <v>1.00749</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.810986</v>
+        <v>0.807017</v>
       </c>
       <c r="C56" t="n">
-        <v>1.30237</v>
+        <v>1.32658</v>
       </c>
       <c r="D56" t="n">
-        <v>1.36298</v>
+        <v>1.33446</v>
       </c>
       <c r="E56" t="n">
-        <v>0.511011</v>
+        <v>0.50435</v>
       </c>
       <c r="F56" t="n">
-        <v>0.967929</v>
+        <v>1.0336</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.807326</v>
+        <v>0.7946299999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>1.30047</v>
+        <v>1.29245</v>
       </c>
       <c r="D57" t="n">
-        <v>1.32068</v>
+        <v>1.379</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5142910000000001</v>
+        <v>0.486122</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9588719999999999</v>
+        <v>0.993001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.806997</v>
+        <v>0.777633</v>
       </c>
       <c r="C58" t="n">
-        <v>1.33704</v>
+        <v>1.31627</v>
       </c>
       <c r="D58" t="n">
-        <v>1.35748</v>
+        <v>1.3639</v>
       </c>
       <c r="E58" t="n">
-        <v>0.487459</v>
+        <v>0.49192</v>
       </c>
       <c r="F58" t="n">
-        <v>0.961754</v>
+        <v>0.980167</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8171580000000001</v>
+        <v>0.800395</v>
       </c>
       <c r="C59" t="n">
-        <v>1.27363</v>
+        <v>1.27982</v>
       </c>
       <c r="D59" t="n">
-        <v>1.30961</v>
+        <v>1.30596</v>
       </c>
       <c r="E59" t="n">
-        <v>0.469836</v>
+        <v>0.4841</v>
       </c>
       <c r="F59" t="n">
-        <v>0.938115</v>
+        <v>0.963271</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.764081</v>
+        <v>0.752783</v>
       </c>
       <c r="C60" t="n">
-        <v>1.27301</v>
+        <v>1.25697</v>
       </c>
       <c r="D60" t="n">
-        <v>1.32088</v>
+        <v>1.3363</v>
       </c>
       <c r="E60" t="n">
-        <v>0.45796</v>
+        <v>0.450259</v>
       </c>
       <c r="F60" t="n">
-        <v>0.927633</v>
+        <v>0.941454</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.753582</v>
+        <v>0.752858</v>
       </c>
       <c r="C61" t="n">
-        <v>1.24304</v>
+        <v>1.27001</v>
       </c>
       <c r="D61" t="n">
-        <v>1.2929</v>
+        <v>1.35229</v>
       </c>
       <c r="E61" t="n">
-        <v>0.445718</v>
+        <v>0.453236</v>
       </c>
       <c r="F61" t="n">
-        <v>0.91409</v>
+        <v>0.941123</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.752</v>
+        <v>0.735509</v>
       </c>
       <c r="C62" t="n">
-        <v>1.23318</v>
+        <v>1.24392</v>
       </c>
       <c r="D62" t="n">
-        <v>1.35746</v>
+        <v>1.271</v>
       </c>
       <c r="E62" t="n">
-        <v>0.438413</v>
+        <v>0.42735</v>
       </c>
       <c r="F62" t="n">
-        <v>0.912454</v>
+        <v>0.9167380000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.740272</v>
+        <v>0.727383</v>
       </c>
       <c r="C63" t="n">
-        <v>1.23669</v>
+        <v>1.2178</v>
       </c>
       <c r="D63" t="n">
-        <v>1.34112</v>
+        <v>1.28783</v>
       </c>
       <c r="E63" t="n">
-        <v>0.425641</v>
+        <v>0.422632</v>
       </c>
       <c r="F63" t="n">
-        <v>0.885248</v>
+        <v>0.91432</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.726563</v>
+        <v>0.726021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.21317</v>
+        <v>1.23009</v>
       </c>
       <c r="D64" t="n">
-        <v>2.38478</v>
+        <v>2.39486</v>
       </c>
       <c r="E64" t="n">
-        <v>0.434246</v>
+        <v>0.411223</v>
       </c>
       <c r="F64" t="n">
-        <v>0.915165</v>
+        <v>0.920537</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.722013</v>
+        <v>0.726347</v>
       </c>
       <c r="C65" t="n">
-        <v>1.20378</v>
+        <v>1.23077</v>
       </c>
       <c r="D65" t="n">
-        <v>2.30151</v>
+        <v>2.34378</v>
       </c>
       <c r="E65" t="n">
-        <v>0.42553</v>
+        <v>0.404606</v>
       </c>
       <c r="F65" t="n">
-        <v>0.901551</v>
+        <v>0.913781</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.735721</v>
+        <v>0.712616</v>
       </c>
       <c r="C66" t="n">
-        <v>1.21215</v>
+        <v>1.21546</v>
       </c>
       <c r="D66" t="n">
-        <v>2.2833</v>
+        <v>2.34626</v>
       </c>
       <c r="E66" t="n">
-        <v>0.66788</v>
+        <v>0.671618</v>
       </c>
       <c r="F66" t="n">
-        <v>1.52071</v>
+        <v>1.51717</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01911</v>
+        <v>0.992339</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96377</v>
+        <v>1.88813</v>
       </c>
       <c r="D67" t="n">
-        <v>2.24212</v>
+        <v>2.17721</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6482560000000001</v>
+        <v>0.633745</v>
       </c>
       <c r="F67" t="n">
-        <v>1.50105</v>
+        <v>1.52166</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.994327</v>
+        <v>0.975077</v>
       </c>
       <c r="C68" t="n">
-        <v>1.9306</v>
+        <v>1.90347</v>
       </c>
       <c r="D68" t="n">
-        <v>2.2322</v>
+        <v>2.1654</v>
       </c>
       <c r="E68" t="n">
-        <v>0.646444</v>
+        <v>0.63815</v>
       </c>
       <c r="F68" t="n">
-        <v>1.44204</v>
+        <v>1.49033</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.989021</v>
+        <v>0.972217</v>
       </c>
       <c r="C69" t="n">
-        <v>1.83182</v>
+        <v>1.84762</v>
       </c>
       <c r="D69" t="n">
-        <v>2.22299</v>
+        <v>2.25358</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6273</v>
+        <v>0.6066279999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>1.41932</v>
+        <v>1.45408</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.958331</v>
+        <v>1.00089</v>
       </c>
       <c r="C70" t="n">
-        <v>1.80116</v>
+        <v>1.79814</v>
       </c>
       <c r="D70" t="n">
-        <v>2.06493</v>
+        <v>2.14431</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6034350000000001</v>
+        <v>0.595045</v>
       </c>
       <c r="F70" t="n">
-        <v>1.39729</v>
+        <v>1.42023</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.965278</v>
+        <v>0.926283</v>
       </c>
       <c r="C71" t="n">
-        <v>1.82614</v>
+        <v>1.77093</v>
       </c>
       <c r="D71" t="n">
-        <v>2.12501</v>
+        <v>2.08743</v>
       </c>
       <c r="E71" t="n">
-        <v>0.580435</v>
+        <v>0.590351</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36782</v>
+        <v>1.41557</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9962760000000001</v>
+        <v>0.9384209999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>1.76425</v>
+        <v>1.77023</v>
       </c>
       <c r="D72" t="n">
-        <v>2.1199</v>
+        <v>2.04158</v>
       </c>
       <c r="E72" t="n">
-        <v>0.574576</v>
+        <v>0.57896</v>
       </c>
       <c r="F72" t="n">
-        <v>1.37393</v>
+        <v>1.39892</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.926708</v>
+        <v>0.918647</v>
       </c>
       <c r="C73" t="n">
-        <v>1.73492</v>
+        <v>1.74766</v>
       </c>
       <c r="D73" t="n">
-        <v>2.04288</v>
+        <v>2.03893</v>
       </c>
       <c r="E73" t="n">
-        <v>0.550256</v>
+        <v>0.543836</v>
       </c>
       <c r="F73" t="n">
-        <v>1.30492</v>
+        <v>1.36222</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.906282</v>
+        <v>0.886642</v>
       </c>
       <c r="C74" t="n">
-        <v>1.70666</v>
+        <v>1.68146</v>
       </c>
       <c r="D74" t="n">
-        <v>2.10542</v>
+        <v>1.99983</v>
       </c>
       <c r="E74" t="n">
-        <v>0.551578</v>
+        <v>0.539535</v>
       </c>
       <c r="F74" t="n">
-        <v>1.29696</v>
+        <v>1.31357</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.892818</v>
+        <v>0.894493</v>
       </c>
       <c r="C75" t="n">
-        <v>1.70803</v>
+        <v>1.65653</v>
       </c>
       <c r="D75" t="n">
-        <v>2.11756</v>
+        <v>2.00473</v>
       </c>
       <c r="E75" t="n">
-        <v>0.53148</v>
+        <v>0.52205</v>
       </c>
       <c r="F75" t="n">
-        <v>1.27319</v>
+        <v>1.30575</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.891107</v>
+        <v>0.8594850000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>1.65163</v>
+        <v>1.62768</v>
       </c>
       <c r="D76" t="n">
-        <v>2.03079</v>
+        <v>1.93834</v>
       </c>
       <c r="E76" t="n">
-        <v>0.527241</v>
+        <v>0.503621</v>
       </c>
       <c r="F76" t="n">
-        <v>1.29299</v>
+        <v>1.27593</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.86653</v>
+        <v>0.8720909999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>1.62272</v>
+        <v>1.59224</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97622</v>
+        <v>1.93843</v>
       </c>
       <c r="E77" t="n">
-        <v>0.50763</v>
+        <v>0.504206</v>
       </c>
       <c r="F77" t="n">
-        <v>1.22047</v>
+        <v>1.25862</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.868092</v>
+        <v>0.840901</v>
       </c>
       <c r="C78" t="n">
-        <v>1.60545</v>
+        <v>1.58555</v>
       </c>
       <c r="D78" t="n">
-        <v>3.3688</v>
+        <v>3.39803</v>
       </c>
       <c r="E78" t="n">
-        <v>0.504748</v>
+        <v>0.489308</v>
       </c>
       <c r="F78" t="n">
-        <v>1.21962</v>
+        <v>1.23565</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.858243</v>
+        <v>0.833033</v>
       </c>
       <c r="C79" t="n">
-        <v>1.58025</v>
+        <v>1.57801</v>
       </c>
       <c r="D79" t="n">
-        <v>3.252</v>
+        <v>3.34876</v>
       </c>
       <c r="E79" t="n">
-        <v>0.492556</v>
+        <v>0.487646</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19746</v>
+        <v>1.23215</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.842699</v>
+        <v>0.826075</v>
       </c>
       <c r="C80" t="n">
-        <v>1.58038</v>
+        <v>1.54504</v>
       </c>
       <c r="D80" t="n">
-        <v>3.28307</v>
+        <v>3.17647</v>
       </c>
       <c r="E80" t="n">
-        <v>0.781895</v>
+        <v>0.800439</v>
       </c>
       <c r="F80" t="n">
-        <v>2.14962</v>
+        <v>2.1587</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13894</v>
+        <v>1.12637</v>
       </c>
       <c r="C81" t="n">
-        <v>2.56819</v>
+        <v>2.52574</v>
       </c>
       <c r="D81" t="n">
-        <v>3.14645</v>
+        <v>3.10417</v>
       </c>
       <c r="E81" t="n">
-        <v>0.761723</v>
+        <v>0.745762</v>
       </c>
       <c r="F81" t="n">
-        <v>2.07802</v>
+        <v>2.0791</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.16563</v>
+        <v>1.10521</v>
       </c>
       <c r="C82" t="n">
-        <v>2.46529</v>
+        <v>2.44189</v>
       </c>
       <c r="D82" t="n">
-        <v>3.11725</v>
+        <v>3.03627</v>
       </c>
       <c r="E82" t="n">
-        <v>0.764865</v>
+        <v>0.728083</v>
       </c>
       <c r="F82" t="n">
-        <v>2.06206</v>
+        <v>2.04922</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12745</v>
+        <v>1.12952</v>
       </c>
       <c r="C83" t="n">
-        <v>2.41001</v>
+        <v>2.41423</v>
       </c>
       <c r="D83" t="n">
-        <v>3.02791</v>
+        <v>2.98479</v>
       </c>
       <c r="E83" t="n">
-        <v>0.753847</v>
+        <v>0.712778</v>
       </c>
       <c r="F83" t="n">
-        <v>1.95322</v>
+        <v>1.98317</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.11169</v>
+        <v>1.06939</v>
       </c>
       <c r="C84" t="n">
-        <v>2.38834</v>
+        <v>2.32918</v>
       </c>
       <c r="D84" t="n">
-        <v>3.0344</v>
+        <v>2.90997</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7120570000000001</v>
+        <v>0.723858</v>
       </c>
       <c r="F84" t="n">
-        <v>1.93725</v>
+        <v>1.93202</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09909</v>
+        <v>1.08043</v>
       </c>
       <c r="C85" t="n">
-        <v>2.42091</v>
+        <v>2.31649</v>
       </c>
       <c r="D85" t="n">
-        <v>2.97836</v>
+        <v>2.85557</v>
       </c>
       <c r="E85" t="n">
-        <v>0.722754</v>
+        <v>0.684609</v>
       </c>
       <c r="F85" t="n">
-        <v>1.87407</v>
+        <v>1.87297</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.07583</v>
+        <v>1.03753</v>
       </c>
       <c r="C86" t="n">
-        <v>2.25574</v>
+        <v>2.23755</v>
       </c>
       <c r="D86" t="n">
-        <v>2.86129</v>
+        <v>2.86704</v>
       </c>
       <c r="E86" t="n">
-        <v>0.680736</v>
+        <v>0.6888300000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>1.91887</v>
+        <v>1.83097</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08276</v>
+        <v>1.04996</v>
       </c>
       <c r="C87" t="n">
-        <v>2.20765</v>
+        <v>2.18089</v>
       </c>
       <c r="D87" t="n">
-        <v>2.86268</v>
+        <v>2.77362</v>
       </c>
       <c r="E87" t="n">
-        <v>0.691837</v>
+        <v>0.650993</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7641</v>
+        <v>1.77357</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.04072</v>
+        <v>1.01309</v>
       </c>
       <c r="C88" t="n">
-        <v>2.2159</v>
+        <v>2.12122</v>
       </c>
       <c r="D88" t="n">
-        <v>2.82586</v>
+        <v>2.74833</v>
       </c>
       <c r="E88" t="n">
-        <v>0.651634</v>
+        <v>0.653077</v>
       </c>
       <c r="F88" t="n">
-        <v>1.8391</v>
+        <v>1.75942</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0395</v>
+        <v>1.00299</v>
       </c>
       <c r="C89" t="n">
-        <v>2.18647</v>
+        <v>2.12185</v>
       </c>
       <c r="D89" t="n">
-        <v>2.75036</v>
+        <v>2.71851</v>
       </c>
       <c r="E89" t="n">
-        <v>0.638642</v>
+        <v>0.628049</v>
       </c>
       <c r="F89" t="n">
-        <v>1.71928</v>
+        <v>1.71646</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.02677</v>
+        <v>0.976071</v>
       </c>
       <c r="C90" t="n">
-        <v>2.07743</v>
+        <v>2.04075</v>
       </c>
       <c r="D90" t="n">
-        <v>2.67115</v>
+        <v>2.65814</v>
       </c>
       <c r="E90" t="n">
-        <v>0.637637</v>
+        <v>0.617594</v>
       </c>
       <c r="F90" t="n">
-        <v>1.66126</v>
+        <v>1.6654</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.00638</v>
+        <v>0.973124</v>
       </c>
       <c r="C91" t="n">
-        <v>2.01993</v>
+        <v>2.03133</v>
       </c>
       <c r="D91" t="n">
-        <v>2.68432</v>
+        <v>2.67587</v>
       </c>
       <c r="E91" t="n">
-        <v>0.614327</v>
+        <v>0.613132</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64784</v>
+        <v>1.65133</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.997324</v>
+        <v>0.950092</v>
       </c>
       <c r="C92" t="n">
-        <v>2.01144</v>
+        <v>1.98477</v>
       </c>
       <c r="D92" t="n">
-        <v>3.80353</v>
+        <v>3.84375</v>
       </c>
       <c r="E92" t="n">
-        <v>0.633632</v>
+        <v>0.5929</v>
       </c>
       <c r="F92" t="n">
-        <v>1.6116</v>
+        <v>1.61631</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.990385</v>
+        <v>0.954052</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9781</v>
+        <v>1.93248</v>
       </c>
       <c r="D93" t="n">
-        <v>3.79909</v>
+        <v>3.68967</v>
       </c>
       <c r="E93" t="n">
-        <v>0.617945</v>
+        <v>0.608432</v>
       </c>
       <c r="F93" t="n">
-        <v>1.58587</v>
+        <v>1.5931</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.981908</v>
+        <v>0.96707</v>
       </c>
       <c r="C94" t="n">
-        <v>1.94453</v>
+        <v>1.91371</v>
       </c>
       <c r="D94" t="n">
-        <v>3.74596</v>
+        <v>3.6158</v>
       </c>
       <c r="E94" t="n">
-        <v>0.913063</v>
+        <v>0.903772</v>
       </c>
       <c r="F94" t="n">
-        <v>2.69987</v>
+        <v>2.64041</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2921</v>
+        <v>1.29237</v>
       </c>
       <c r="C95" t="n">
-        <v>3.03657</v>
+        <v>2.99532</v>
       </c>
       <c r="D95" t="n">
-        <v>3.70261</v>
+        <v>3.53009</v>
       </c>
       <c r="E95" t="n">
-        <v>0.895826</v>
+        <v>0.85883</v>
       </c>
       <c r="F95" t="n">
-        <v>2.58551</v>
+        <v>2.56026</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.3076</v>
+        <v>1.31819</v>
       </c>
       <c r="C96" t="n">
-        <v>2.99974</v>
+        <v>2.92287</v>
       </c>
       <c r="D96" t="n">
-        <v>3.66804</v>
+        <v>3.48275</v>
       </c>
       <c r="E96" t="n">
-        <v>0.864985</v>
+        <v>0.873109</v>
       </c>
       <c r="F96" t="n">
-        <v>2.50307</v>
+        <v>2.50703</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.31625</v>
+        <v>1.24098</v>
       </c>
       <c r="C97" t="n">
-        <v>2.93154</v>
+        <v>2.86192</v>
       </c>
       <c r="D97" t="n">
-        <v>3.46046</v>
+        <v>3.43917</v>
       </c>
       <c r="E97" t="n">
-        <v>0.843515</v>
+        <v>0.8656160000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>2.39775</v>
+        <v>2.44865</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.27725</v>
+        <v>1.22073</v>
       </c>
       <c r="C98" t="n">
-        <v>2.85857</v>
+        <v>2.80783</v>
       </c>
       <c r="D98" t="n">
-        <v>3.46964</v>
+        <v>3.36154</v>
       </c>
       <c r="E98" t="n">
-        <v>0.879494</v>
+        <v>0.827752</v>
       </c>
       <c r="F98" t="n">
-        <v>2.43268</v>
+        <v>2.37424</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.26967</v>
+        <v>1.18949</v>
       </c>
       <c r="C99" t="n">
-        <v>2.86674</v>
+        <v>2.75588</v>
       </c>
       <c r="D99" t="n">
-        <v>3.53119</v>
+        <v>3.33529</v>
       </c>
       <c r="E99" t="n">
-        <v>0.815735</v>
+        <v>0.803142</v>
       </c>
       <c r="F99" t="n">
-        <v>2.32136</v>
+        <v>2.34054</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.23024</v>
+        <v>1.17729</v>
       </c>
       <c r="C100" t="n">
-        <v>2.75486</v>
+        <v>2.69472</v>
       </c>
       <c r="D100" t="n">
-        <v>3.34808</v>
+        <v>3.28945</v>
       </c>
       <c r="E100" t="n">
-        <v>0.804719</v>
+        <v>0.814714</v>
       </c>
       <c r="F100" t="n">
-        <v>2.38201</v>
+        <v>2.29498</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.2129</v>
+        <v>1.14858</v>
       </c>
       <c r="C101" t="n">
-        <v>2.72047</v>
+        <v>2.65407</v>
       </c>
       <c r="D101" t="n">
-        <v>3.29272</v>
+        <v>3.29161</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8213819999999999</v>
+        <v>0.7674569999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>2.22829</v>
+        <v>2.21118</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23239</v>
+        <v>1.14733</v>
       </c>
       <c r="C102" t="n">
-        <v>2.6835</v>
+        <v>2.58709</v>
       </c>
       <c r="D102" t="n">
-        <v>3.2494</v>
+        <v>3.18416</v>
       </c>
       <c r="E102" t="n">
-        <v>0.789795</v>
+        <v>0.755704</v>
       </c>
       <c r="F102" t="n">
-        <v>2.17639</v>
+        <v>2.13774</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.2018</v>
+        <v>1.1409</v>
       </c>
       <c r="C103" t="n">
-        <v>2.62246</v>
+        <v>2.51603</v>
       </c>
       <c r="D103" t="n">
-        <v>3.20314</v>
+        <v>3.15749</v>
       </c>
       <c r="E103" t="n">
-        <v>0.787988</v>
+        <v>0.774961</v>
       </c>
       <c r="F103" t="n">
-        <v>2.0926</v>
+        <v>2.10717</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.18481</v>
+        <v>1.11065</v>
       </c>
       <c r="C104" t="n">
-        <v>2.55346</v>
+        <v>2.44878</v>
       </c>
       <c r="D104" t="n">
-        <v>3.1858</v>
+        <v>3.0982</v>
       </c>
       <c r="E104" t="n">
-        <v>0.761269</v>
+        <v>0.753734</v>
       </c>
       <c r="F104" t="n">
-        <v>2.07642</v>
+        <v>2.05598</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18645</v>
+        <v>1.09155</v>
       </c>
       <c r="C105" t="n">
-        <v>2.51033</v>
+        <v>2.41478</v>
       </c>
       <c r="D105" t="n">
-        <v>3.13986</v>
+        <v>3.0966</v>
       </c>
       <c r="E105" t="n">
-        <v>0.745717</v>
+        <v>0.746224</v>
       </c>
       <c r="F105" t="n">
-        <v>2.07801</v>
+        <v>2.03913</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15303</v>
+        <v>1.10136</v>
       </c>
       <c r="C106" t="n">
-        <v>2.45602</v>
+        <v>2.41408</v>
       </c>
       <c r="D106" t="n">
-        <v>3.10061</v>
+        <v>3.07546</v>
       </c>
       <c r="E106" t="n">
-        <v>0.757559</v>
+        <v>0.730024</v>
       </c>
       <c r="F106" t="n">
-        <v>1.99626</v>
+        <v>2.00443</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1766</v>
+        <v>1.11751</v>
       </c>
       <c r="C107" t="n">
-        <v>2.41779</v>
+        <v>2.41945</v>
       </c>
       <c r="D107" t="n">
-        <v>4.25131</v>
+        <v>4.23737</v>
       </c>
       <c r="E107" t="n">
-        <v>0.754172</v>
+        <v>0.727375</v>
       </c>
       <c r="F107" t="n">
-        <v>1.92467</v>
+        <v>1.95811</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.1316</v>
+        <v>1.08607</v>
       </c>
       <c r="C108" t="n">
-        <v>2.40214</v>
+        <v>2.31648</v>
       </c>
       <c r="D108" t="n">
-        <v>4.16609</v>
+        <v>4.08156</v>
       </c>
       <c r="E108" t="n">
-        <v>1.04697</v>
+        <v>1.02498</v>
       </c>
       <c r="F108" t="n">
-        <v>3.1247</v>
+        <v>3.16312</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.15505</v>
+        <v>1.07274</v>
       </c>
       <c r="C109" t="n">
-        <v>2.33829</v>
+        <v>2.27757</v>
       </c>
       <c r="D109" t="n">
-        <v>4.09357</v>
+        <v>4.02137</v>
       </c>
       <c r="E109" t="n">
-        <v>1.02211</v>
+        <v>1.025</v>
       </c>
       <c r="F109" t="n">
-        <v>3.01121</v>
+        <v>3.02296</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.47306</v>
+        <v>1.39133</v>
       </c>
       <c r="C110" t="n">
-        <v>3.50296</v>
+        <v>3.44273</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97175</v>
+        <v>3.92416</v>
       </c>
       <c r="E110" t="n">
-        <v>1.04769</v>
+        <v>1.01906</v>
       </c>
       <c r="F110" t="n">
-        <v>2.97293</v>
+        <v>2.95735</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.44743</v>
+        <v>1.34672</v>
       </c>
       <c r="C111" t="n">
-        <v>3.44712</v>
+        <v>3.35353</v>
       </c>
       <c r="D111" t="n">
-        <v>3.85727</v>
+        <v>3.87514</v>
       </c>
       <c r="E111" t="n">
-        <v>1.02094</v>
+        <v>1.01475</v>
       </c>
       <c r="F111" t="n">
-        <v>2.89004</v>
+        <v>2.88023</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.44435</v>
+        <v>1.36212</v>
       </c>
       <c r="C112" t="n">
-        <v>3.34646</v>
+        <v>3.27123</v>
       </c>
       <c r="D112" t="n">
-        <v>3.80682</v>
+        <v>3.83229</v>
       </c>
       <c r="E112" t="n">
-        <v>1.04048</v>
+        <v>1.00736</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79132</v>
+        <v>2.83317</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43525</v>
+        <v>1.33524</v>
       </c>
       <c r="C113" t="n">
-        <v>3.30894</v>
+        <v>3.29431</v>
       </c>
       <c r="D113" t="n">
-        <v>3.76231</v>
+        <v>3.74911</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01379</v>
+        <v>1.00615</v>
       </c>
       <c r="F113" t="n">
-        <v>2.78528</v>
+        <v>2.72434</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44416</v>
+        <v>1.35096</v>
       </c>
       <c r="C114" t="n">
-        <v>3.2335</v>
+        <v>3.16484</v>
       </c>
       <c r="D114" t="n">
-        <v>3.70849</v>
+        <v>3.70688</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9868440000000001</v>
+        <v>0.986846</v>
       </c>
       <c r="F114" t="n">
-        <v>2.6551</v>
+        <v>2.68921</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.40651</v>
+        <v>1.33173</v>
       </c>
       <c r="C115" t="n">
-        <v>3.18783</v>
+        <v>3.08806</v>
       </c>
       <c r="D115" t="n">
-        <v>3.64451</v>
+        <v>3.65645</v>
       </c>
       <c r="E115" t="n">
-        <v>0.995236</v>
+        <v>0.987374</v>
       </c>
       <c r="F115" t="n">
-        <v>2.62717</v>
+        <v>2.61945</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.42323</v>
+        <v>1.32583</v>
       </c>
       <c r="C116" t="n">
-        <v>3.10585</v>
+        <v>3.02958</v>
       </c>
       <c r="D116" t="n">
-        <v>3.63552</v>
+        <v>3.5744</v>
       </c>
       <c r="E116" t="n">
-        <v>0.98481</v>
+        <v>0.9721070000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>2.56422</v>
+        <v>2.5401</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.4495</v>
+        <v>1.33024</v>
       </c>
       <c r="C117" t="n">
-        <v>3.0555</v>
+        <v>2.95187</v>
       </c>
       <c r="D117" t="n">
-        <v>3.56629</v>
+        <v>3.52217</v>
       </c>
       <c r="E117" t="n">
-        <v>0.962861</v>
+        <v>0.94184</v>
       </c>
       <c r="F117" t="n">
-        <v>2.49866</v>
+        <v>2.48847</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.40173</v>
+        <v>1.29505</v>
       </c>
       <c r="C118" t="n">
-        <v>2.99033</v>
+        <v>2.8964</v>
       </c>
       <c r="D118" t="n">
-        <v>3.51008</v>
+        <v>3.48339</v>
       </c>
       <c r="E118" t="n">
-        <v>0.956125</v>
+        <v>0.955852</v>
       </c>
       <c r="F118" t="n">
-        <v>2.46066</v>
+        <v>2.47255</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.389</v>
+        <v>1.30378</v>
       </c>
       <c r="C119" t="n">
-        <v>2.95841</v>
+        <v>2.89212</v>
       </c>
       <c r="D119" t="n">
-        <v>3.50835</v>
+        <v>3.4602</v>
       </c>
       <c r="E119" t="n">
-        <v>0.974812</v>
+        <v>0.970657</v>
       </c>
       <c r="F119" t="n">
-        <v>2.39854</v>
+        <v>2.45724</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.37586</v>
+        <v>1.26219</v>
       </c>
       <c r="C120" t="n">
-        <v>2.92152</v>
+        <v>2.82806</v>
       </c>
       <c r="D120" t="n">
-        <v>3.53295</v>
+        <v>3.42814</v>
       </c>
       <c r="E120" t="n">
-        <v>0.937111</v>
+        <v>0.9386409999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>2.37173</v>
+        <v>2.37501</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.35701</v>
+        <v>1.2939</v>
       </c>
       <c r="C121" t="n">
-        <v>2.90663</v>
+        <v>2.75935</v>
       </c>
       <c r="D121" t="n">
-        <v>4.80837</v>
+        <v>4.71858</v>
       </c>
       <c r="E121" t="n">
-        <v>0.934589</v>
+        <v>0.908662</v>
       </c>
       <c r="F121" t="n">
-        <v>2.3584</v>
+        <v>2.32382</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.35046</v>
+        <v>1.26282</v>
       </c>
       <c r="C122" t="n">
-        <v>2.90064</v>
+        <v>2.75706</v>
       </c>
       <c r="D122" t="n">
-        <v>4.74219</v>
+        <v>4.63127</v>
       </c>
       <c r="E122" t="n">
-        <v>0.929655</v>
+        <v>0.907648</v>
       </c>
       <c r="F122" t="n">
-        <v>2.29501</v>
+        <v>2.29776</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.35497</v>
+        <v>1.2611</v>
       </c>
       <c r="C123" t="n">
-        <v>2.85021</v>
+        <v>2.70602</v>
       </c>
       <c r="D123" t="n">
-        <v>4.59001</v>
+        <v>4.56622</v>
       </c>
       <c r="E123" t="n">
-        <v>1.29606</v>
+        <v>1.26186</v>
       </c>
       <c r="F123" t="n">
-        <v>3.5394</v>
+        <v>3.54308</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.65562</v>
+        <v>1.59559</v>
       </c>
       <c r="C124" t="n">
-        <v>4.11306</v>
+        <v>3.98055</v>
       </c>
       <c r="D124" t="n">
-        <v>4.50308</v>
+        <v>4.51901</v>
       </c>
       <c r="E124" t="n">
-        <v>1.27497</v>
+        <v>1.27976</v>
       </c>
       <c r="F124" t="n">
-        <v>3.45032</v>
+        <v>3.45394</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.66236</v>
+        <v>1.58357</v>
       </c>
       <c r="C125" t="n">
-        <v>4.00468</v>
+        <v>3.90874</v>
       </c>
       <c r="D125" t="n">
-        <v>4.4229</v>
+        <v>4.35777</v>
       </c>
       <c r="E125" t="n">
-        <v>1.30218</v>
+        <v>1.25034</v>
       </c>
       <c r="F125" t="n">
-        <v>3.37788</v>
+        <v>3.39051</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.68181</v>
+        <v>1.58574</v>
       </c>
       <c r="C126" t="n">
-        <v>3.92713</v>
+        <v>3.80062</v>
       </c>
       <c r="D126" t="n">
-        <v>4.32414</v>
+        <v>4.28819</v>
       </c>
       <c r="E126" t="n">
-        <v>1.26579</v>
+        <v>1.23604</v>
       </c>
       <c r="F126" t="n">
-        <v>3.32545</v>
+        <v>3.28223</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.6657</v>
+        <v>1.55623</v>
       </c>
       <c r="C127" t="n">
-        <v>3.86613</v>
+        <v>3.71962</v>
       </c>
       <c r="D127" t="n">
-        <v>4.29696</v>
+        <v>4.25231</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2652</v>
+        <v>1.2663</v>
       </c>
       <c r="F127" t="n">
-        <v>3.22706</v>
+        <v>3.26114</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.66076</v>
+        <v>1.57355</v>
       </c>
       <c r="C128" t="n">
-        <v>3.78432</v>
+        <v>3.67513</v>
       </c>
       <c r="D128" t="n">
-        <v>4.1766</v>
+        <v>4.17874</v>
       </c>
       <c r="E128" t="n">
-        <v>1.26843</v>
+        <v>1.27687</v>
       </c>
       <c r="F128" t="n">
-        <v>3.14309</v>
+        <v>3.19733</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.70398</v>
+        <v>1.56749</v>
       </c>
       <c r="C129" t="n">
-        <v>3.7188</v>
+        <v>3.61557</v>
       </c>
       <c r="D129" t="n">
-        <v>4.1535</v>
+        <v>4.09488</v>
       </c>
       <c r="E129" t="n">
-        <v>1.26757</v>
+        <v>1.25614</v>
       </c>
       <c r="F129" t="n">
-        <v>3.06857</v>
+        <v>3.14277</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.68266</v>
+        <v>1.54531</v>
       </c>
       <c r="C130" t="n">
-        <v>3.62016</v>
+        <v>3.51245</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10288</v>
+        <v>4.04457</v>
       </c>
       <c r="E130" t="n">
-        <v>1.25566</v>
+        <v>1.24655</v>
       </c>
       <c r="F130" t="n">
-        <v>3.03405</v>
+        <v>3.00954</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.67597</v>
+        <v>1.55124</v>
       </c>
       <c r="C131" t="n">
-        <v>3.57411</v>
+        <v>3.4784</v>
       </c>
       <c r="D131" t="n">
-        <v>4.02345</v>
+        <v>4.01707</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26826</v>
+        <v>1.28509</v>
       </c>
       <c r="F131" t="n">
-        <v>2.94384</v>
+        <v>2.98254</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.66814</v>
+        <v>1.55173</v>
       </c>
       <c r="C132" t="n">
-        <v>3.51674</v>
+        <v>3.39224</v>
       </c>
       <c r="D132" t="n">
-        <v>4.00718</v>
+        <v>3.94849</v>
       </c>
       <c r="E132" t="n">
-        <v>1.26111</v>
+        <v>1.23889</v>
       </c>
       <c r="F132" t="n">
-        <v>2.9249</v>
+        <v>2.89211</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.71026</v>
+        <v>1.52946</v>
       </c>
       <c r="C133" t="n">
-        <v>3.45155</v>
+        <v>3.38286</v>
       </c>
       <c r="D133" t="n">
-        <v>3.9543</v>
+        <v>3.93372</v>
       </c>
       <c r="E133" t="n">
-        <v>1.26796</v>
+        <v>1.27694</v>
       </c>
       <c r="F133" t="n">
-        <v>2.85127</v>
+        <v>2.89274</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.66691</v>
+        <v>1.55852</v>
       </c>
       <c r="C134" t="n">
-        <v>3.4348</v>
+        <v>3.31582</v>
       </c>
       <c r="D134" t="n">
-        <v>3.96672</v>
+        <v>3.92091</v>
       </c>
       <c r="E134" t="n">
-        <v>1.29743</v>
+        <v>1.23278</v>
       </c>
       <c r="F134" t="n">
-        <v>2.86993</v>
+        <v>2.8687</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.67939</v>
+        <v>1.5329</v>
       </c>
       <c r="C135" t="n">
-        <v>3.48888</v>
+        <v>3.28981</v>
       </c>
       <c r="D135" t="n">
-        <v>5.66887</v>
+        <v>5.48527</v>
       </c>
       <c r="E135" t="n">
-        <v>1.31058</v>
+        <v>1.27244</v>
       </c>
       <c r="F135" t="n">
-        <v>2.82621</v>
+        <v>2.78524</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.73974</v>
+        <v>1.5261</v>
       </c>
       <c r="C136" t="n">
-        <v>3.39907</v>
+        <v>3.22779</v>
       </c>
       <c r="D136" t="n">
-        <v>5.48474</v>
+        <v>5.32824</v>
       </c>
       <c r="E136" t="n">
-        <v>1.29836</v>
+        <v>1.23269</v>
       </c>
       <c r="F136" t="n">
-        <v>2.8261</v>
+        <v>2.73155</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.72358</v>
+        <v>1.53774</v>
       </c>
       <c r="C137" t="n">
-        <v>3.40771</v>
+        <v>3.19642</v>
       </c>
       <c r="D137" t="n">
-        <v>5.43272</v>
+        <v>5.19306</v>
       </c>
       <c r="E137" t="n">
-        <v>1.60831</v>
+        <v>1.59308</v>
       </c>
       <c r="F137" t="n">
-        <v>4.25895</v>
+        <v>4.08172</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.04686</v>
+        <v>1.87167</v>
       </c>
       <c r="C138" t="n">
-        <v>4.83665</v>
+        <v>4.56962</v>
       </c>
       <c r="D138" t="n">
-        <v>5.26113</v>
+        <v>5.1474</v>
       </c>
       <c r="E138" t="n">
-        <v>1.5987</v>
+        <v>1.56889</v>
       </c>
       <c r="F138" t="n">
-        <v>4.02018</v>
+        <v>3.9678</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.98246</v>
+        <v>1.85443</v>
       </c>
       <c r="C139" t="n">
-        <v>4.63364</v>
+        <v>4.46639</v>
       </c>
       <c r="D139" t="n">
-        <v>5.06064</v>
+        <v>5.00802</v>
       </c>
       <c r="E139" t="n">
-        <v>1.60075</v>
+        <v>1.57518</v>
       </c>
       <c r="F139" t="n">
-        <v>3.91957</v>
+        <v>3.88347</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.97517</v>
+        <v>1.84319</v>
       </c>
       <c r="C140" t="n">
-        <v>4.53374</v>
+        <v>4.36487</v>
       </c>
       <c r="D140" t="n">
-        <v>4.96817</v>
+        <v>4.95912</v>
       </c>
       <c r="E140" t="n">
-        <v>1.60872</v>
+        <v>1.59057</v>
       </c>
       <c r="F140" t="n">
-        <v>3.8499</v>
+        <v>3.80954</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.01946</v>
+        <v>1.84283</v>
       </c>
       <c r="C141" t="n">
-        <v>4.46861</v>
+        <v>4.30074</v>
       </c>
       <c r="D141" t="n">
-        <v>4.92533</v>
+        <v>4.86681</v>
       </c>
       <c r="E141" t="n">
-        <v>1.59878</v>
+        <v>1.58621</v>
       </c>
       <c r="F141" t="n">
-        <v>3.77385</v>
+        <v>3.76403</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.99255</v>
+        <v>1.84214</v>
       </c>
       <c r="C142" t="n">
-        <v>4.37355</v>
+        <v>4.20529</v>
       </c>
       <c r="D142" t="n">
-        <v>4.83007</v>
+        <v>4.82463</v>
       </c>
       <c r="E142" t="n">
-        <v>1.61249</v>
+        <v>1.60013</v>
       </c>
       <c r="F142" t="n">
-        <v>3.6551</v>
+        <v>3.63178</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.98336</v>
+        <v>1.81241</v>
       </c>
       <c r="C143" t="n">
-        <v>4.292</v>
+        <v>4.13225</v>
       </c>
       <c r="D143" t="n">
-        <v>4.7331</v>
+        <v>4.70187</v>
       </c>
       <c r="E143" t="n">
-        <v>1.59263</v>
+        <v>1.60676</v>
       </c>
       <c r="F143" t="n">
-        <v>3.57953</v>
+        <v>3.5991</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.48192</v>
+        <v>0.496867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.803482</v>
+        <v>0.818809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76596</v>
+        <v>0.795747</v>
       </c>
       <c r="E2" t="n">
-        <v>0.203953</v>
+        <v>0.21885</v>
       </c>
       <c r="F2" t="n">
-        <v>0.583296</v>
+        <v>0.606301</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413607</v>
+        <v>0.432311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.780883</v>
+        <v>0.814075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.764548</v>
+        <v>0.788321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200887</v>
+        <v>0.207247</v>
       </c>
       <c r="F3" t="n">
-        <v>0.578331</v>
+        <v>0.598633</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.417767</v>
+        <v>0.417187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.795915</v>
+        <v>0.8185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793708</v>
+        <v>0.784147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191065</v>
+        <v>0.200802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575483</v>
+        <v>0.598823</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.397785</v>
+        <v>0.406394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783269</v>
+        <v>0.789404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73761</v>
+        <v>0.785709</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187343</v>
+        <v>0.199458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.568485</v>
+        <v>0.626526</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.401363</v>
+        <v>0.409959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758535</v>
+        <v>0.797994</v>
       </c>
       <c r="D6" t="n">
-        <v>0.751711</v>
+        <v>0.765333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18477</v>
+        <v>0.192675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.556011</v>
+        <v>0.586278</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.392046</v>
+        <v>0.402983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.756528</v>
+        <v>0.774306</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905757</v>
+        <v>0.916508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.181212</v>
+        <v>0.279653</v>
       </c>
       <c r="F7" t="n">
-        <v>0.55271</v>
+        <v>0.67459</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.388947</v>
+        <v>0.395285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.764621</v>
+        <v>0.775238</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8864880000000001</v>
+        <v>0.917372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.184837</v>
+        <v>0.270426</v>
       </c>
       <c r="F8" t="n">
-        <v>0.562923</v>
+        <v>0.669479</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.388703</v>
+        <v>0.392988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75364</v>
+        <v>0.76931</v>
       </c>
       <c r="D9" t="n">
-        <v>0.868153</v>
+        <v>0.903577</v>
       </c>
       <c r="E9" t="n">
-        <v>0.26003</v>
+        <v>0.258093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.659176</v>
+        <v>0.651255</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466197</v>
+        <v>0.467682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.850452</v>
+        <v>0.899085</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8688360000000001</v>
+        <v>0.911152</v>
       </c>
       <c r="E10" t="n">
-        <v>0.255261</v>
+        <v>0.249818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.635594</v>
+        <v>0.639756</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466197</v>
+        <v>0.461724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.891846</v>
+        <v>0.856775</v>
       </c>
       <c r="D11" t="n">
-        <v>0.864375</v>
+        <v>0.857744</v>
       </c>
       <c r="E11" t="n">
-        <v>0.247891</v>
+        <v>0.247915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.652701</v>
+        <v>0.665921</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465645</v>
+        <v>0.473522</v>
       </c>
       <c r="C12" t="n">
-        <v>0.886135</v>
+        <v>0.895239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.849743</v>
+        <v>0.876269</v>
       </c>
       <c r="E12" t="n">
-        <v>0.238741</v>
+        <v>0.237914</v>
       </c>
       <c r="F12" t="n">
-        <v>0.647127</v>
+        <v>0.626813</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.457595</v>
+        <v>0.448985</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8372270000000001</v>
+        <v>0.826928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.828494</v>
+        <v>0.820995</v>
       </c>
       <c r="E13" t="n">
-        <v>0.235963</v>
+        <v>0.224618</v>
       </c>
       <c r="F13" t="n">
-        <v>0.61788</v>
+        <v>0.61017</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4476</v>
+        <v>0.443432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.843939</v>
+        <v>0.8214590000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.833325</v>
+        <v>0.82509</v>
       </c>
       <c r="E14" t="n">
-        <v>0.223588</v>
+        <v>0.218277</v>
       </c>
       <c r="F14" t="n">
-        <v>0.617821</v>
+        <v>0.624632</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449421</v>
+        <v>0.43428</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8207680000000001</v>
+        <v>0.813676</v>
       </c>
       <c r="D15" t="n">
-        <v>0.82281</v>
+        <v>0.8049809999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223951</v>
+        <v>0.211106</v>
       </c>
       <c r="F15" t="n">
-        <v>0.615098</v>
+        <v>0.613332</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435577</v>
+        <v>0.427025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.860923</v>
+        <v>0.813121</v>
       </c>
       <c r="D16" t="n">
-        <v>0.824901</v>
+        <v>0.802464</v>
       </c>
       <c r="E16" t="n">
-        <v>0.213348</v>
+        <v>0.206388</v>
       </c>
       <c r="F16" t="n">
-        <v>0.605032</v>
+        <v>0.598003</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441621</v>
+        <v>0.4257</v>
       </c>
       <c r="C17" t="n">
-        <v>0.830554</v>
+        <v>0.8030969999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.804276</v>
+        <v>0.791858</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208135</v>
+        <v>0.203006</v>
       </c>
       <c r="F17" t="n">
-        <v>0.59778</v>
+        <v>0.589032</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429907</v>
+        <v>0.415603</v>
       </c>
       <c r="C18" t="n">
-        <v>0.813591</v>
+        <v>0.800631</v>
       </c>
       <c r="D18" t="n">
-        <v>0.798949</v>
+        <v>0.802724</v>
       </c>
       <c r="E18" t="n">
-        <v>0.201905</v>
+        <v>0.209038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.598978</v>
+        <v>0.593498</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450304</v>
+        <v>0.419104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8106910000000001</v>
+        <v>0.789071</v>
       </c>
       <c r="D19" t="n">
-        <v>0.819248</v>
+        <v>0.784494</v>
       </c>
       <c r="E19" t="n">
-        <v>0.197181</v>
+        <v>0.195683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.590521</v>
+        <v>0.593228</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438839</v>
+        <v>0.409762</v>
       </c>
       <c r="C20" t="n">
-        <v>0.80472</v>
+        <v>0.791663</v>
       </c>
       <c r="D20" t="n">
-        <v>0.793025</v>
+        <v>0.782674</v>
       </c>
       <c r="E20" t="n">
-        <v>0.195299</v>
+        <v>0.190606</v>
       </c>
       <c r="F20" t="n">
-        <v>0.591287</v>
+        <v>0.588373</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415278</v>
+        <v>0.405167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.800442</v>
+        <v>0.7821709999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.952527</v>
+        <v>0.942259</v>
       </c>
       <c r="E21" t="n">
-        <v>0.194118</v>
+        <v>0.522216</v>
       </c>
       <c r="F21" t="n">
-        <v>0.578873</v>
+        <v>0.679607</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409983</v>
+        <v>0.402082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.800202</v>
+        <v>0.781579</v>
       </c>
       <c r="D22" t="n">
-        <v>0.945319</v>
+        <v>0.941195</v>
       </c>
       <c r="E22" t="n">
-        <v>0.194684</v>
+        <v>0.27161</v>
       </c>
       <c r="F22" t="n">
-        <v>0.585097</v>
+        <v>0.672085</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40511</v>
+        <v>0.397911</v>
       </c>
       <c r="C23" t="n">
-        <v>0.793082</v>
+        <v>0.783377</v>
       </c>
       <c r="D23" t="n">
-        <v>0.943762</v>
+        <v>0.914524</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42763</v>
+        <v>0.262586</v>
       </c>
       <c r="F23" t="n">
-        <v>0.720847</v>
+        <v>0.68263</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.672392</v>
+        <v>0.6454800000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.976346</v>
+        <v>0.894597</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9174949999999999</v>
+        <v>0.928269</v>
       </c>
       <c r="E24" t="n">
-        <v>0.420717</v>
+        <v>0.259578</v>
       </c>
       <c r="F24" t="n">
-        <v>0.751348</v>
+        <v>0.658942</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.633236</v>
+        <v>0.62352</v>
       </c>
       <c r="C25" t="n">
-        <v>0.894219</v>
+        <v>0.872205</v>
       </c>
       <c r="D25" t="n">
-        <v>0.918327</v>
+        <v>0.888309</v>
       </c>
       <c r="E25" t="n">
-        <v>0.397047</v>
+        <v>0.247034</v>
       </c>
       <c r="F25" t="n">
-        <v>0.661914</v>
+        <v>0.6533369999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621128</v>
+        <v>0.621939</v>
       </c>
       <c r="C26" t="n">
-        <v>0.876839</v>
+        <v>0.859974</v>
       </c>
       <c r="D26" t="n">
-        <v>0.900118</v>
+        <v>0.8741</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388179</v>
+        <v>0.239448</v>
       </c>
       <c r="F26" t="n">
-        <v>0.652736</v>
+        <v>0.640624</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.630139</v>
+        <v>0.594657</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8719479999999999</v>
+        <v>0.842605</v>
       </c>
       <c r="D27" t="n">
-        <v>0.881993</v>
+        <v>0.862156</v>
       </c>
       <c r="E27" t="n">
-        <v>0.374119</v>
+        <v>0.231873</v>
       </c>
       <c r="F27" t="n">
-        <v>0.647858</v>
+        <v>0.634379</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588228</v>
+        <v>0.580113</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8635890000000001</v>
+        <v>0.847934</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8772450000000001</v>
+        <v>0.865601</v>
       </c>
       <c r="E28" t="n">
-        <v>0.36124</v>
+        <v>0.231425</v>
       </c>
       <c r="F28" t="n">
-        <v>0.652332</v>
+        <v>0.636058</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579385</v>
+        <v>0.5750690000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.859093</v>
+        <v>0.848267</v>
       </c>
       <c r="D29" t="n">
-        <v>0.883281</v>
+        <v>0.859417</v>
       </c>
       <c r="E29" t="n">
-        <v>0.35249</v>
+        <v>0.230111</v>
       </c>
       <c r="F29" t="n">
-        <v>0.635771</v>
+        <v>0.625073</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.577458</v>
+        <v>0.56558</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8632919999999999</v>
+        <v>0.838398</v>
       </c>
       <c r="D30" t="n">
-        <v>0.867932</v>
+        <v>0.842958</v>
       </c>
       <c r="E30" t="n">
-        <v>0.332001</v>
+        <v>0.21512</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6465070000000001</v>
+        <v>0.62013</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.561315</v>
+        <v>0.552297</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8408870000000001</v>
+        <v>0.824333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8449719999999999</v>
+        <v>0.836581</v>
       </c>
       <c r="E31" t="n">
-        <v>0.319588</v>
+        <v>0.209741</v>
       </c>
       <c r="F31" t="n">
-        <v>0.631279</v>
+        <v>0.612726</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.553531</v>
+        <v>0.540629</v>
       </c>
       <c r="C32" t="n">
-        <v>0.852399</v>
+        <v>0.821866</v>
       </c>
       <c r="D32" t="n">
-        <v>0.842844</v>
+        <v>0.831649</v>
       </c>
       <c r="E32" t="n">
-        <v>0.320879</v>
+        <v>0.203929</v>
       </c>
       <c r="F32" t="n">
-        <v>0.61826</v>
+        <v>0.606218</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.533807</v>
+        <v>0.527271</v>
       </c>
       <c r="C33" t="n">
-        <v>0.830713</v>
+        <v>0.815657</v>
       </c>
       <c r="D33" t="n">
-        <v>0.842776</v>
+        <v>0.827665</v>
       </c>
       <c r="E33" t="n">
-        <v>0.310478</v>
+        <v>0.201478</v>
       </c>
       <c r="F33" t="n">
-        <v>0.627621</v>
+        <v>0.607221</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534656</v>
+        <v>0.516995</v>
       </c>
       <c r="C34" t="n">
-        <v>0.837732</v>
+        <v>0.812738</v>
       </c>
       <c r="D34" t="n">
-        <v>0.832028</v>
+        <v>0.815217</v>
       </c>
       <c r="E34" t="n">
-        <v>0.296947</v>
+        <v>0.201821</v>
       </c>
       <c r="F34" t="n">
-        <v>0.609051</v>
+        <v>0.614019</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525997</v>
+        <v>0.5140980000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.848962</v>
+        <v>0.813215</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0957</v>
+        <v>1.06143</v>
       </c>
       <c r="E35" t="n">
-        <v>0.288351</v>
+        <v>0.199294</v>
       </c>
       <c r="F35" t="n">
-        <v>0.614051</v>
+        <v>0.608135</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51381</v>
+        <v>0.499911</v>
       </c>
       <c r="C36" t="n">
-        <v>0.82437</v>
+        <v>0.808873</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06847</v>
+        <v>1.03671</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283671</v>
+        <v>0.432811</v>
       </c>
       <c r="F36" t="n">
-        <v>0.605606</v>
+        <v>0.8167180000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.506538</v>
+        <v>0.491936</v>
       </c>
       <c r="C37" t="n">
-        <v>0.823074</v>
+        <v>0.799426</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04641</v>
+        <v>1.01032</v>
       </c>
       <c r="E37" t="n">
-        <v>0.541672</v>
+        <v>0.419881</v>
       </c>
       <c r="F37" t="n">
-        <v>0.829854</v>
+        <v>0.81182</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7611329999999999</v>
+        <v>0.772797</v>
       </c>
       <c r="C38" t="n">
-        <v>1.06968</v>
+        <v>1.07414</v>
       </c>
       <c r="D38" t="n">
-        <v>1.06623</v>
+        <v>1.04117</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5069900000000001</v>
+        <v>0.41004</v>
       </c>
       <c r="F38" t="n">
-        <v>0.810578</v>
+        <v>0.8085560000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766357</v>
+        <v>0.737008</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06264</v>
+        <v>1.02531</v>
       </c>
       <c r="D39" t="n">
-        <v>1.04109</v>
+        <v>0.987785</v>
       </c>
       <c r="E39" t="n">
-        <v>0.496029</v>
+        <v>0.392199</v>
       </c>
       <c r="F39" t="n">
-        <v>0.805586</v>
+        <v>0.7888269999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.724986</v>
+        <v>0.712611</v>
       </c>
       <c r="C40" t="n">
-        <v>1.04135</v>
+        <v>1.0136</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00488</v>
+        <v>0.974214</v>
       </c>
       <c r="E40" t="n">
-        <v>0.475422</v>
+        <v>0.376653</v>
       </c>
       <c r="F40" t="n">
-        <v>0.78887</v>
+        <v>0.769813</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.709745</v>
+        <v>0.6915289999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>1.03056</v>
+        <v>0.997054</v>
       </c>
       <c r="D41" t="n">
-        <v>0.98811</v>
+        <v>0.961952</v>
       </c>
       <c r="E41" t="n">
-        <v>0.457892</v>
+        <v>0.362118</v>
       </c>
       <c r="F41" t="n">
-        <v>0.769393</v>
+        <v>0.751342</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.691329</v>
+        <v>0.6766489999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1.02806</v>
+        <v>0.981823</v>
       </c>
       <c r="D42" t="n">
-        <v>0.978858</v>
+        <v>0.955251</v>
       </c>
       <c r="E42" t="n">
-        <v>0.447521</v>
+        <v>0.351467</v>
       </c>
       <c r="F42" t="n">
-        <v>0.763099</v>
+        <v>0.762302</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6810929999999999</v>
+        <v>0.7260490000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01043</v>
+        <v>0.982795</v>
       </c>
       <c r="D43" t="n">
-        <v>0.987291</v>
+        <v>0.95023</v>
       </c>
       <c r="E43" t="n">
-        <v>0.422652</v>
+        <v>0.340774</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7713410000000001</v>
+        <v>0.765221</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665151</v>
+        <v>0.649851</v>
       </c>
       <c r="C44" t="n">
-        <v>1.02527</v>
+        <v>0.97157</v>
       </c>
       <c r="D44" t="n">
-        <v>0.97634</v>
+        <v>0.945364</v>
       </c>
       <c r="E44" t="n">
-        <v>0.410677</v>
+        <v>0.329413</v>
       </c>
       <c r="F44" t="n">
-        <v>0.739779</v>
+        <v>0.745946</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.670382</v>
+        <v>0.630536</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02615</v>
+        <v>0.946507</v>
       </c>
       <c r="D45" t="n">
-        <v>0.997162</v>
+        <v>0.928427</v>
       </c>
       <c r="E45" t="n">
-        <v>0.39523</v>
+        <v>0.317494</v>
       </c>
       <c r="F45" t="n">
-        <v>0.735001</v>
+        <v>0.736885</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.634282</v>
+        <v>0.61824</v>
       </c>
       <c r="C46" t="n">
-        <v>0.978752</v>
+        <v>0.94137</v>
       </c>
       <c r="D46" t="n">
-        <v>0.993157</v>
+        <v>0.923991</v>
       </c>
       <c r="E46" t="n">
-        <v>0.379844</v>
+        <v>0.309487</v>
       </c>
       <c r="F46" t="n">
-        <v>0.730594</v>
+        <v>0.7292459999999999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636396</v>
+        <v>0.60471</v>
       </c>
       <c r="C47" t="n">
-        <v>0.97259</v>
+        <v>0.9560149999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.936667</v>
+        <v>0.9540650000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.367974</v>
+        <v>0.310379</v>
       </c>
       <c r="F47" t="n">
-        <v>0.712791</v>
+        <v>0.758981</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.608272</v>
+        <v>0.603079</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9892919999999999</v>
+        <v>0.944609</v>
       </c>
       <c r="D48" t="n">
-        <v>0.938778</v>
+        <v>0.943674</v>
       </c>
       <c r="E48" t="n">
-        <v>0.35676</v>
+        <v>0.294419</v>
       </c>
       <c r="F48" t="n">
-        <v>0.708324</v>
+        <v>0.726434</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605596</v>
+        <v>0.583701</v>
       </c>
       <c r="C49" t="n">
-        <v>0.976326</v>
+        <v>0.920845</v>
       </c>
       <c r="D49" t="n">
-        <v>0.940379</v>
+        <v>0.927891</v>
       </c>
       <c r="E49" t="n">
-        <v>0.344449</v>
+        <v>0.289962</v>
       </c>
       <c r="F49" t="n">
-        <v>0.705072</v>
+        <v>0.726247</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.609464</v>
+        <v>0.572254</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9758019999999999</v>
+        <v>0.920301</v>
       </c>
       <c r="D50" t="n">
-        <v>1.48792</v>
+        <v>1.47971</v>
       </c>
       <c r="E50" t="n">
-        <v>0.337966</v>
+        <v>0.545601</v>
       </c>
       <c r="F50" t="n">
-        <v>0.697642</v>
+        <v>1.09525</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.577276</v>
+        <v>0.5635250000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.957226</v>
+        <v>0.910617</v>
       </c>
       <c r="D51" t="n">
-        <v>1.43971</v>
+        <v>1.46998</v>
       </c>
       <c r="E51" t="n">
-        <v>0.584635</v>
+        <v>0.5288119999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05611</v>
+        <v>1.08543</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575081</v>
+        <v>0.558481</v>
       </c>
       <c r="C52" t="n">
-        <v>0.990208</v>
+        <v>0.9151359999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>1.44308</v>
+        <v>1.43561</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5790650000000001</v>
+        <v>0.514285</v>
       </c>
       <c r="F52" t="n">
-        <v>1.07726</v>
+        <v>1.04502</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.874301</v>
+        <v>0.813398</v>
       </c>
       <c r="C53" t="n">
-        <v>1.388</v>
+        <v>1.35279</v>
       </c>
       <c r="D53" t="n">
-        <v>1.43357</v>
+        <v>1.42737</v>
       </c>
       <c r="E53" t="n">
-        <v>0.565361</v>
+        <v>0.523423</v>
       </c>
       <c r="F53" t="n">
-        <v>1.02983</v>
+        <v>1.04509</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.841596</v>
+        <v>0.827881</v>
       </c>
       <c r="C54" t="n">
-        <v>1.38812</v>
+        <v>1.29915</v>
       </c>
       <c r="D54" t="n">
-        <v>1.42287</v>
+        <v>1.37376</v>
       </c>
       <c r="E54" t="n">
-        <v>0.538516</v>
+        <v>0.489115</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999241</v>
+        <v>1.03321</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.826143</v>
+        <v>0.78912</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38002</v>
+        <v>1.3201</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3882</v>
+        <v>1.41412</v>
       </c>
       <c r="E55" t="n">
-        <v>0.520304</v>
+        <v>0.468598</v>
       </c>
       <c r="F55" t="n">
-        <v>0.992938</v>
+        <v>1.00658</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.858784</v>
+        <v>0.769135</v>
       </c>
       <c r="C56" t="n">
-        <v>1.36476</v>
+        <v>1.28506</v>
       </c>
       <c r="D56" t="n">
-        <v>1.35224</v>
+        <v>1.39179</v>
       </c>
       <c r="E56" t="n">
-        <v>0.503617</v>
+        <v>0.49161</v>
       </c>
       <c r="F56" t="n">
-        <v>0.969334</v>
+        <v>1.04073</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.791803</v>
+        <v>0.766879</v>
       </c>
       <c r="C57" t="n">
+        <v>1.25071</v>
+      </c>
+      <c r="D57" t="n">
         <v>1.33221</v>
       </c>
-      <c r="D57" t="n">
-        <v>1.43442</v>
-      </c>
       <c r="E57" t="n">
-        <v>0.506345</v>
+        <v>0.447328</v>
       </c>
       <c r="F57" t="n">
-        <v>0.953148</v>
+        <v>0.986335</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7861089999999999</v>
+        <v>0.74353</v>
       </c>
       <c r="C58" t="n">
-        <v>1.30895</v>
+        <v>1.24679</v>
       </c>
       <c r="D58" t="n">
-        <v>1.3092</v>
+        <v>1.28948</v>
       </c>
       <c r="E58" t="n">
-        <v>0.475023</v>
+        <v>0.444813</v>
       </c>
       <c r="F58" t="n">
-        <v>0.935728</v>
+        <v>0.978277</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.77506</v>
+        <v>0.730353</v>
       </c>
       <c r="C59" t="n">
-        <v>1.28919</v>
+        <v>1.21125</v>
       </c>
       <c r="D59" t="n">
-        <v>1.306</v>
+        <v>1.31819</v>
       </c>
       <c r="E59" t="n">
-        <v>0.477257</v>
+        <v>0.419859</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9351</v>
+        <v>0.980535</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.797299</v>
+        <v>0.715769</v>
       </c>
       <c r="C60" t="n">
-        <v>1.32186</v>
+        <v>1.20102</v>
       </c>
       <c r="D60" t="n">
-        <v>1.28949</v>
+        <v>1.29353</v>
       </c>
       <c r="E60" t="n">
-        <v>0.449684</v>
+        <v>0.413365</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9254250000000001</v>
+        <v>0.947151</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.760393</v>
+        <v>0.740312</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2574</v>
+        <v>1.1751</v>
       </c>
       <c r="D61" t="n">
-        <v>1.27877</v>
+        <v>1.29422</v>
       </c>
       <c r="E61" t="n">
-        <v>0.443017</v>
+        <v>0.399407</v>
       </c>
       <c r="F61" t="n">
-        <v>0.910919</v>
+        <v>0.934063</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.756275</v>
+        <v>0.695737</v>
       </c>
       <c r="C62" t="n">
-        <v>1.27581</v>
+        <v>1.1681</v>
       </c>
       <c r="D62" t="n">
-        <v>1.27989</v>
+        <v>1.2809</v>
       </c>
       <c r="E62" t="n">
-        <v>0.442902</v>
+        <v>0.392438</v>
       </c>
       <c r="F62" t="n">
-        <v>0.892587</v>
+        <v>0.928548</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760404</v>
+        <v>0.67913</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22628</v>
+        <v>1.16577</v>
       </c>
       <c r="D63" t="n">
-        <v>1.30129</v>
+        <v>1.32772</v>
       </c>
       <c r="E63" t="n">
-        <v>0.421562</v>
+        <v>0.391148</v>
       </c>
       <c r="F63" t="n">
-        <v>0.889245</v>
+        <v>0.922534</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7271260000000001</v>
+        <v>0.664604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.28719</v>
+        <v>1.13921</v>
       </c>
       <c r="D64" t="n">
-        <v>2.33222</v>
+        <v>2.32474</v>
       </c>
       <c r="E64" t="n">
-        <v>0.411357</v>
+        <v>0.648562</v>
       </c>
       <c r="F64" t="n">
-        <v>0.880762</v>
+        <v>1.52929</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.723262</v>
+        <v>0.673616</v>
       </c>
       <c r="C65" t="n">
-        <v>1.21216</v>
+        <v>1.15968</v>
       </c>
       <c r="D65" t="n">
-        <v>2.29496</v>
+        <v>2.3302</v>
       </c>
       <c r="E65" t="n">
-        <v>0.404514</v>
+        <v>0.636853</v>
       </c>
       <c r="F65" t="n">
-        <v>0.88279</v>
+        <v>1.50458</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.715155</v>
+        <v>0.656464</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20282</v>
+        <v>1.13904</v>
       </c>
       <c r="D66" t="n">
-        <v>2.28978</v>
+        <v>2.27285</v>
       </c>
       <c r="E66" t="n">
-        <v>0.685575</v>
+        <v>0.614088</v>
       </c>
       <c r="F66" t="n">
-        <v>1.56739</v>
+        <v>1.48254</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00601</v>
+        <v>0.930117</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96259</v>
+        <v>1.84058</v>
       </c>
       <c r="D67" t="n">
-        <v>2.22847</v>
+        <v>2.24429</v>
       </c>
       <c r="E67" t="n">
-        <v>0.643406</v>
+        <v>0.603658</v>
       </c>
       <c r="F67" t="n">
-        <v>1.61191</v>
+        <v>1.44806</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.987974</v>
+        <v>0.912815</v>
       </c>
       <c r="C68" t="n">
-        <v>1.92156</v>
+        <v>1.80045</v>
       </c>
       <c r="D68" t="n">
-        <v>2.17715</v>
+        <v>2.20884</v>
       </c>
       <c r="E68" t="n">
-        <v>0.634676</v>
+        <v>0.58547</v>
       </c>
       <c r="F68" t="n">
-        <v>1.48616</v>
+        <v>1.42479</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.967135</v>
+        <v>0.900083</v>
       </c>
       <c r="C69" t="n">
-        <v>1.86657</v>
+        <v>1.83739</v>
       </c>
       <c r="D69" t="n">
-        <v>2.15431</v>
+        <v>2.15786</v>
       </c>
       <c r="E69" t="n">
-        <v>0.642224</v>
+        <v>0.568177</v>
       </c>
       <c r="F69" t="n">
-        <v>1.46046</v>
+        <v>1.38931</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.990312</v>
+        <v>0.8814689999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>1.90088</v>
+        <v>1.73432</v>
       </c>
       <c r="D70" t="n">
-        <v>2.11755</v>
+        <v>2.12819</v>
       </c>
       <c r="E70" t="n">
-        <v>0.592132</v>
+        <v>0.556431</v>
       </c>
       <c r="F70" t="n">
-        <v>1.4219</v>
+        <v>1.43027</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.971942</v>
+        <v>0.861863</v>
       </c>
       <c r="C71" t="n">
-        <v>1.82635</v>
+        <v>1.73533</v>
       </c>
       <c r="D71" t="n">
-        <v>2.05849</v>
+        <v>2.0472</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.546466</v>
       </c>
       <c r="F71" t="n">
-        <v>1.38176</v>
+        <v>1.36841</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9171</v>
+        <v>0.846417</v>
       </c>
       <c r="C72" t="n">
-        <v>1.76126</v>
+        <v>1.69519</v>
       </c>
       <c r="D72" t="n">
-        <v>2.01323</v>
+        <v>2.04038</v>
       </c>
       <c r="E72" t="n">
-        <v>0.563403</v>
+        <v>0.529765</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36579</v>
+        <v>1.35588</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9023330000000001</v>
+        <v>0.8394160000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>1.76418</v>
+        <v>1.69227</v>
       </c>
       <c r="D73" t="n">
-        <v>2.01274</v>
+        <v>2.06444</v>
       </c>
       <c r="E73" t="n">
-        <v>0.560516</v>
+        <v>0.517329</v>
       </c>
       <c r="F73" t="n">
-        <v>1.33711</v>
+        <v>1.35418</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8995919999999999</v>
+        <v>0.826246</v>
       </c>
       <c r="C74" t="n">
-        <v>1.72251</v>
+        <v>1.61901</v>
       </c>
       <c r="D74" t="n">
-        <v>2.03143</v>
+        <v>1.98455</v>
       </c>
       <c r="E74" t="n">
-        <v>0.538111</v>
+        <v>0.5147890000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3107</v>
+        <v>1.29241</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.878211</v>
+        <v>0.807101</v>
       </c>
       <c r="C75" t="n">
-        <v>1.70881</v>
+        <v>1.61755</v>
       </c>
       <c r="D75" t="n">
-        <v>2.0054</v>
+        <v>1.97186</v>
       </c>
       <c r="E75" t="n">
-        <v>0.530048</v>
+        <v>0.491131</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30726</v>
+        <v>1.30183</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8773879999999999</v>
+        <v>0.800605</v>
       </c>
       <c r="C76" t="n">
-        <v>1.68605</v>
+        <v>1.57414</v>
       </c>
       <c r="D76" t="n">
-        <v>1.97698</v>
+        <v>1.96975</v>
       </c>
       <c r="E76" t="n">
-        <v>0.515438</v>
+        <v>0.482232</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28136</v>
+        <v>1.29142</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.879552</v>
+        <v>0.797206</v>
       </c>
       <c r="C77" t="n">
-        <v>1.64117</v>
+        <v>1.64699</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97857</v>
+        <v>1.99227</v>
       </c>
       <c r="E77" t="n">
-        <v>0.505283</v>
+        <v>0.479203</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27281</v>
+        <v>1.31537</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.880011</v>
+        <v>0.78093</v>
       </c>
       <c r="C78" t="n">
-        <v>1.61649</v>
+        <v>1.52628</v>
       </c>
       <c r="D78" t="n">
-        <v>3.32192</v>
+        <v>3.31947</v>
       </c>
       <c r="E78" t="n">
-        <v>0.492633</v>
+        <v>0.466454</v>
       </c>
       <c r="F78" t="n">
-        <v>1.21132</v>
+        <v>1.24568</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.83056</v>
+        <v>0.775506</v>
       </c>
       <c r="C79" t="n">
-        <v>1.56754</v>
+        <v>1.53774</v>
       </c>
       <c r="D79" t="n">
-        <v>3.315</v>
+        <v>3.25269</v>
       </c>
       <c r="E79" t="n">
-        <v>0.48532</v>
+        <v>0.782256</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19906</v>
+        <v>2.13399</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.830153</v>
+        <v>0.757888</v>
       </c>
       <c r="C80" t="n">
-        <v>1.55374</v>
+        <v>1.52346</v>
       </c>
       <c r="D80" t="n">
-        <v>3.16382</v>
+        <v>3.15514</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7799970000000001</v>
+        <v>0.738654</v>
       </c>
       <c r="F80" t="n">
-        <v>2.11413</v>
+        <v>2.06308</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1235</v>
+        <v>1.08011</v>
       </c>
       <c r="C81" t="n">
-        <v>2.54635</v>
+        <v>2.47745</v>
       </c>
       <c r="D81" t="n">
-        <v>3.11278</v>
+        <v>3.13191</v>
       </c>
       <c r="E81" t="n">
-        <v>0.757182</v>
+        <v>0.720913</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0635</v>
+        <v>2.01646</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10631</v>
+        <v>1.03881</v>
       </c>
       <c r="C82" t="n">
-        <v>2.46866</v>
+        <v>2.39644</v>
       </c>
       <c r="D82" t="n">
-        <v>3.03991</v>
+        <v>3.04795</v>
       </c>
       <c r="E82" t="n">
-        <v>0.732262</v>
+        <v>0.749257</v>
       </c>
       <c r="F82" t="n">
-        <v>2.03027</v>
+        <v>2.0456</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08465</v>
+        <v>1.0262</v>
       </c>
       <c r="C83" t="n">
-        <v>2.43871</v>
+        <v>2.41631</v>
       </c>
       <c r="D83" t="n">
-        <v>2.99651</v>
+        <v>3.08619</v>
       </c>
       <c r="E83" t="n">
-        <v>0.720483</v>
+        <v>0.690364</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98165</v>
+        <v>1.91532</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.12327</v>
+        <v>1.01214</v>
       </c>
       <c r="C84" t="n">
-        <v>2.33665</v>
+        <v>2.32581</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93193</v>
+        <v>2.93925</v>
       </c>
       <c r="E84" t="n">
-        <v>0.722369</v>
+        <v>0.6980730000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>1.92288</v>
+        <v>1.87754</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09012</v>
+        <v>1.00162</v>
       </c>
       <c r="C85" t="n">
-        <v>2.31585</v>
+        <v>2.26126</v>
       </c>
       <c r="D85" t="n">
-        <v>2.90882</v>
+        <v>2.90959</v>
       </c>
       <c r="E85" t="n">
-        <v>0.702292</v>
+        <v>0.67698</v>
       </c>
       <c r="F85" t="n">
-        <v>1.85398</v>
+        <v>1.85353</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03936</v>
+        <v>0.976416</v>
       </c>
       <c r="C86" t="n">
-        <v>2.23263</v>
+        <v>2.20913</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8604</v>
+        <v>2.9011</v>
       </c>
       <c r="E86" t="n">
-        <v>0.673413</v>
+        <v>0.648933</v>
       </c>
       <c r="F86" t="n">
-        <v>1.82236</v>
+        <v>1.88775</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02233</v>
+        <v>0.975279</v>
       </c>
       <c r="C87" t="n">
-        <v>2.22673</v>
+        <v>2.1422</v>
       </c>
       <c r="D87" t="n">
-        <v>2.82225</v>
+        <v>2.78683</v>
       </c>
       <c r="E87" t="n">
-        <v>0.652786</v>
+        <v>0.637707</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7688</v>
+        <v>1.75035</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00682</v>
+        <v>0.983776</v>
       </c>
       <c r="C88" t="n">
-        <v>2.16147</v>
+        <v>2.11873</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78343</v>
+        <v>2.79285</v>
       </c>
       <c r="E88" t="n">
-        <v>0.645205</v>
+        <v>0.625101</v>
       </c>
       <c r="F88" t="n">
-        <v>1.7763</v>
+        <v>1.73915</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.994754</v>
+        <v>0.948942</v>
       </c>
       <c r="C89" t="n">
-        <v>2.10644</v>
+        <v>2.06854</v>
       </c>
       <c r="D89" t="n">
-        <v>2.70388</v>
+        <v>2.76994</v>
       </c>
       <c r="E89" t="n">
-        <v>0.63486</v>
+        <v>0.6092030000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>1.68359</v>
+        <v>1.72798</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.987913</v>
+        <v>0.943388</v>
       </c>
       <c r="C90" t="n">
-        <v>2.07847</v>
+        <v>2.02254</v>
       </c>
       <c r="D90" t="n">
-        <v>2.69179</v>
+        <v>2.70071</v>
       </c>
       <c r="E90" t="n">
-        <v>0.617431</v>
+        <v>0.59716</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6725</v>
+        <v>1.67744</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.989514</v>
+        <v>0.918702</v>
       </c>
       <c r="C91" t="n">
-        <v>2.03157</v>
+        <v>1.99629</v>
       </c>
       <c r="D91" t="n">
-        <v>2.65811</v>
+        <v>2.78319</v>
       </c>
       <c r="E91" t="n">
-        <v>0.61226</v>
+        <v>0.589344</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64121</v>
+        <v>1.68882</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.958288</v>
+        <v>0.9008389999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98569</v>
+        <v>1.96405</v>
       </c>
       <c r="D92" t="n">
-        <v>3.79718</v>
+        <v>3.84949</v>
       </c>
       <c r="E92" t="n">
-        <v>0.592885</v>
+        <v>0.581746</v>
       </c>
       <c r="F92" t="n">
-        <v>1.57862</v>
+        <v>1.6022</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949763</v>
+        <v>0.899116</v>
       </c>
       <c r="C93" t="n">
-        <v>1.94377</v>
+        <v>1.88726</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72392</v>
+        <v>3.74679</v>
       </c>
       <c r="E93" t="n">
-        <v>0.585001</v>
+        <v>0.865847</v>
       </c>
       <c r="F93" t="n">
-        <v>1.59523</v>
+        <v>2.63382</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.935763</v>
+        <v>0.8766389999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93385</v>
+        <v>1.88739</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66593</v>
+        <v>3.65797</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8840209999999999</v>
+        <v>0.860279</v>
       </c>
       <c r="F94" t="n">
-        <v>2.61054</v>
+        <v>2.55732</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27256</v>
+        <v>1.17653</v>
       </c>
       <c r="C95" t="n">
-        <v>3.01408</v>
+        <v>2.95333</v>
       </c>
       <c r="D95" t="n">
-        <v>3.58517</v>
+        <v>3.60774</v>
       </c>
       <c r="E95" t="n">
-        <v>0.879955</v>
+        <v>0.865744</v>
       </c>
       <c r="F95" t="n">
-        <v>2.54646</v>
+        <v>2.50719</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2466</v>
+        <v>1.16844</v>
       </c>
       <c r="C96" t="n">
-        <v>2.92575</v>
+        <v>2.88326</v>
       </c>
       <c r="D96" t="n">
-        <v>3.53331</v>
+        <v>3.49734</v>
       </c>
       <c r="E96" t="n">
-        <v>0.848376</v>
+        <v>0.839131</v>
       </c>
       <c r="F96" t="n">
-        <v>2.48189</v>
+        <v>2.43322</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21059</v>
+        <v>1.15635</v>
       </c>
       <c r="C97" t="n">
-        <v>2.86056</v>
+        <v>2.82804</v>
       </c>
       <c r="D97" t="n">
-        <v>3.46859</v>
+        <v>3.48528</v>
       </c>
       <c r="E97" t="n">
-        <v>0.861557</v>
+        <v>0.826623</v>
       </c>
       <c r="F97" t="n">
-        <v>2.40725</v>
+        <v>2.38764</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20444</v>
+        <v>1.14255</v>
       </c>
       <c r="C98" t="n">
-        <v>2.78496</v>
+        <v>2.80961</v>
       </c>
       <c r="D98" t="n">
-        <v>3.37745</v>
+        <v>3.42871</v>
       </c>
       <c r="E98" t="n">
-        <v>0.852696</v>
+        <v>0.798919</v>
       </c>
       <c r="F98" t="n">
-        <v>2.35911</v>
+        <v>2.33244</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20323</v>
+        <v>1.14238</v>
       </c>
       <c r="C99" t="n">
-        <v>2.7651</v>
+        <v>2.69644</v>
       </c>
       <c r="D99" t="n">
-        <v>3.35206</v>
+        <v>3.3057</v>
       </c>
       <c r="E99" t="n">
-        <v>0.816459</v>
+        <v>0.7850240000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>2.29829</v>
+        <v>2.2743</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16213</v>
+        <v>1.15913</v>
       </c>
       <c r="C100" t="n">
-        <v>2.67838</v>
+        <v>2.61883</v>
       </c>
       <c r="D100" t="n">
-        <v>3.32828</v>
+        <v>3.33217</v>
       </c>
       <c r="E100" t="n">
-        <v>0.81382</v>
+        <v>0.764625</v>
       </c>
       <c r="F100" t="n">
-        <v>2.22679</v>
+        <v>2.19791</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15215</v>
+        <v>1.09623</v>
       </c>
       <c r="C101" t="n">
-        <v>2.62307</v>
+        <v>2.61055</v>
       </c>
       <c r="D101" t="n">
-        <v>3.29614</v>
+        <v>3.29183</v>
       </c>
       <c r="E101" t="n">
-        <v>0.798179</v>
+        <v>0.764682</v>
       </c>
       <c r="F101" t="n">
-        <v>2.16521</v>
+        <v>2.1997</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14618</v>
+        <v>1.08471</v>
       </c>
       <c r="C102" t="n">
-        <v>2.58523</v>
+        <v>2.5249</v>
       </c>
       <c r="D102" t="n">
-        <v>3.16262</v>
+        <v>3.18311</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7807770000000001</v>
+        <v>0.741827</v>
       </c>
       <c r="F102" t="n">
-        <v>2.11756</v>
+        <v>2.10589</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12693</v>
+        <v>1.07575</v>
       </c>
       <c r="C103" t="n">
-        <v>2.51764</v>
+        <v>2.44017</v>
       </c>
       <c r="D103" t="n">
-        <v>3.12233</v>
+        <v>3.09965</v>
       </c>
       <c r="E103" t="n">
-        <v>0.789184</v>
+        <v>0.749327</v>
       </c>
       <c r="F103" t="n">
-        <v>2.12969</v>
+        <v>2.06335</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12343</v>
+        <v>1.06846</v>
       </c>
       <c r="C104" t="n">
-        <v>2.52593</v>
+        <v>2.4065</v>
       </c>
       <c r="D104" t="n">
-        <v>3.14681</v>
+        <v>3.07748</v>
       </c>
       <c r="E104" t="n">
-        <v>0.738707</v>
+        <v>0.720988</v>
       </c>
       <c r="F104" t="n">
-        <v>2.03221</v>
+        <v>1.99831</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14414</v>
+        <v>1.04673</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4453</v>
+        <v>2.36919</v>
       </c>
       <c r="D105" t="n">
-        <v>3.09648</v>
+        <v>3.09248</v>
       </c>
       <c r="E105" t="n">
-        <v>0.721195</v>
+        <v>0.733332</v>
       </c>
       <c r="F105" t="n">
-        <v>2.01966</v>
+        <v>1.98665</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09931</v>
+        <v>1.06022</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48225</v>
+        <v>2.30491</v>
       </c>
       <c r="D106" t="n">
-        <v>3.07741</v>
+        <v>3.03664</v>
       </c>
       <c r="E106" t="n">
-        <v>0.721697</v>
+        <v>0.722584</v>
       </c>
       <c r="F106" t="n">
-        <v>2.05224</v>
+        <v>1.94057</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1014</v>
+        <v>1.0189</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3443</v>
+        <v>2.31268</v>
       </c>
       <c r="D107" t="n">
-        <v>4.24633</v>
+        <v>4.17474</v>
       </c>
       <c r="E107" t="n">
-        <v>0.72446</v>
+        <v>1.06346</v>
       </c>
       <c r="F107" t="n">
-        <v>1.90951</v>
+        <v>3.06479</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08619</v>
+        <v>1.03521</v>
       </c>
       <c r="C108" t="n">
-        <v>2.33134</v>
+        <v>2.25101</v>
       </c>
       <c r="D108" t="n">
-        <v>4.1012</v>
+        <v>4.18411</v>
       </c>
       <c r="E108" t="n">
-        <v>1.0175</v>
+        <v>1.00637</v>
       </c>
       <c r="F108" t="n">
-        <v>3.12454</v>
+        <v>3.0156</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.08994</v>
+        <v>1.00305</v>
       </c>
       <c r="C109" t="n">
-        <v>2.33971</v>
+        <v>2.22382</v>
       </c>
       <c r="D109" t="n">
-        <v>4.05064</v>
+        <v>4.02144</v>
       </c>
       <c r="E109" t="n">
-        <v>1.00332</v>
+        <v>0.998313</v>
       </c>
       <c r="F109" t="n">
-        <v>2.99789</v>
+        <v>2.9249</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42783</v>
+        <v>1.32722</v>
       </c>
       <c r="C110" t="n">
-        <v>3.4541</v>
+        <v>3.3725</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97999</v>
+        <v>4.00895</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0225</v>
+        <v>1.01314</v>
       </c>
       <c r="F110" t="n">
-        <v>2.92588</v>
+        <v>2.89022</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4104</v>
+        <v>1.34489</v>
       </c>
       <c r="C111" t="n">
-        <v>3.3788</v>
+        <v>3.27846</v>
       </c>
       <c r="D111" t="n">
-        <v>3.96047</v>
+        <v>3.85851</v>
       </c>
       <c r="E111" t="n">
-        <v>1.01345</v>
+        <v>1.01037</v>
       </c>
       <c r="F111" t="n">
-        <v>2.86359</v>
+        <v>2.81113</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.35181</v>
+        <v>1.28491</v>
       </c>
       <c r="C112" t="n">
-        <v>3.30534</v>
+        <v>3.2156</v>
       </c>
       <c r="D112" t="n">
-        <v>3.95093</v>
+        <v>3.84157</v>
       </c>
       <c r="E112" t="n">
-        <v>1.01117</v>
+        <v>0.976477</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79292</v>
+        <v>2.71522</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36722</v>
+        <v>1.29989</v>
       </c>
       <c r="C113" t="n">
-        <v>3.18008</v>
+        <v>3.17433</v>
       </c>
       <c r="D113" t="n">
-        <v>3.75397</v>
+        <v>3.74052</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01673</v>
+        <v>0.993744</v>
       </c>
       <c r="F113" t="n">
-        <v>2.76896</v>
+        <v>2.68979</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3665</v>
+        <v>1.28425</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14652</v>
+        <v>3.08495</v>
       </c>
       <c r="D114" t="n">
-        <v>3.74576</v>
+        <v>3.66521</v>
       </c>
       <c r="E114" t="n">
-        <v>0.956162</v>
+        <v>0.979502</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66212</v>
+        <v>2.58364</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35415</v>
+        <v>1.27389</v>
       </c>
       <c r="C115" t="n">
-        <v>3.14981</v>
+        <v>3.02083</v>
       </c>
       <c r="D115" t="n">
-        <v>3.67925</v>
+        <v>3.61909</v>
       </c>
       <c r="E115" t="n">
-        <v>0.953752</v>
+        <v>0.990127</v>
       </c>
       <c r="F115" t="n">
-        <v>2.58979</v>
+        <v>2.58139</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30814</v>
+        <v>1.27482</v>
       </c>
       <c r="C116" t="n">
-        <v>3.04873</v>
+        <v>2.94005</v>
       </c>
       <c r="D116" t="n">
-        <v>3.60757</v>
+        <v>3.57309</v>
       </c>
       <c r="E116" t="n">
-        <v>1.00222</v>
+        <v>0.965832</v>
       </c>
       <c r="F116" t="n">
-        <v>2.57</v>
+        <v>2.50543</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30498</v>
+        <v>1.26174</v>
       </c>
       <c r="C117" t="n">
-        <v>2.98347</v>
+        <v>2.92129</v>
       </c>
       <c r="D117" t="n">
-        <v>3.56574</v>
+        <v>3.56478</v>
       </c>
       <c r="E117" t="n">
-        <v>0.966675</v>
+        <v>0.939667</v>
       </c>
       <c r="F117" t="n">
-        <v>2.51509</v>
+        <v>2.45918</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3092</v>
+        <v>1.23731</v>
       </c>
       <c r="C118" t="n">
-        <v>2.94911</v>
+        <v>2.89133</v>
       </c>
       <c r="D118" t="n">
-        <v>3.50479</v>
+        <v>3.49474</v>
       </c>
       <c r="E118" t="n">
-        <v>0.939754</v>
+        <v>0.929206</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43692</v>
+        <v>2.40103</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28622</v>
+        <v>1.20849</v>
       </c>
       <c r="C119" t="n">
-        <v>2.86083</v>
+        <v>2.8212</v>
       </c>
       <c r="D119" t="n">
-        <v>3.45628</v>
+        <v>3.48254</v>
       </c>
       <c r="E119" t="n">
-        <v>0.93458</v>
+        <v>0.949819</v>
       </c>
       <c r="F119" t="n">
-        <v>2.43527</v>
+        <v>2.38233</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2943</v>
+        <v>1.19813</v>
       </c>
       <c r="C120" t="n">
-        <v>2.80829</v>
+        <v>2.804</v>
       </c>
       <c r="D120" t="n">
-        <v>3.44937</v>
+        <v>3.48515</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9116</v>
+        <v>0.940838</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36536</v>
+        <v>2.36701</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.30072</v>
+        <v>1.2432</v>
       </c>
       <c r="C121" t="n">
-        <v>2.80846</v>
+        <v>2.76355</v>
       </c>
       <c r="D121" t="n">
-        <v>4.78357</v>
+        <v>4.78307</v>
       </c>
       <c r="E121" t="n">
-        <v>0.933023</v>
+        <v>1.24756</v>
       </c>
       <c r="F121" t="n">
-        <v>2.32912</v>
+        <v>3.59234</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2874</v>
+        <v>1.23251</v>
       </c>
       <c r="C122" t="n">
-        <v>2.7601</v>
+        <v>2.73482</v>
       </c>
       <c r="D122" t="n">
-        <v>4.67059</v>
+        <v>4.71191</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9396099999999999</v>
+        <v>1.26687</v>
       </c>
       <c r="F122" t="n">
-        <v>2.28346</v>
+        <v>3.50604</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27097</v>
+        <v>1.18903</v>
       </c>
       <c r="C123" t="n">
-        <v>2.74013</v>
+        <v>2.6866</v>
       </c>
       <c r="D123" t="n">
-        <v>4.58431</v>
+        <v>4.57236</v>
       </c>
       <c r="E123" t="n">
-        <v>1.23172</v>
+        <v>1.263</v>
       </c>
       <c r="F123" t="n">
-        <v>3.50101</v>
+        <v>3.41357</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58085</v>
+        <v>1.5128</v>
       </c>
       <c r="C124" t="n">
-        <v>3.97246</v>
+        <v>3.91897</v>
       </c>
       <c r="D124" t="n">
-        <v>4.51048</v>
+        <v>4.48071</v>
       </c>
       <c r="E124" t="n">
-        <v>1.24143</v>
+        <v>1.26262</v>
       </c>
       <c r="F124" t="n">
-        <v>3.44926</v>
+        <v>3.34555</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58352</v>
+        <v>1.52581</v>
       </c>
       <c r="C125" t="n">
-        <v>3.89206</v>
+        <v>3.81024</v>
       </c>
       <c r="D125" t="n">
-        <v>4.37148</v>
+        <v>4.39067</v>
       </c>
       <c r="E125" t="n">
-        <v>1.23736</v>
+        <v>1.2456</v>
       </c>
       <c r="F125" t="n">
-        <v>3.35754</v>
+        <v>3.32675</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56132</v>
+        <v>1.53329</v>
       </c>
       <c r="C126" t="n">
-        <v>3.82759</v>
+        <v>3.74801</v>
       </c>
       <c r="D126" t="n">
-        <v>4.34077</v>
+        <v>4.31611</v>
       </c>
       <c r="E126" t="n">
-        <v>1.2597</v>
+        <v>1.25625</v>
       </c>
       <c r="F126" t="n">
-        <v>3.29046</v>
+        <v>3.1697</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57175</v>
+        <v>1.48161</v>
       </c>
       <c r="C127" t="n">
-        <v>3.72349</v>
+        <v>3.6619</v>
       </c>
       <c r="D127" t="n">
-        <v>4.2838</v>
+        <v>4.21501</v>
       </c>
       <c r="E127" t="n">
-        <v>1.25459</v>
+        <v>1.2566</v>
       </c>
       <c r="F127" t="n">
-        <v>3.22692</v>
+        <v>3.1695</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5694</v>
+        <v>1.52616</v>
       </c>
       <c r="C128" t="n">
-        <v>3.67909</v>
+        <v>3.61888</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2519</v>
+        <v>4.21909</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25464</v>
+        <v>1.26124</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11849</v>
+        <v>3.05401</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.56019</v>
+        <v>1.46549</v>
       </c>
       <c r="C129" t="n">
-        <v>3.63092</v>
+        <v>3.55163</v>
       </c>
       <c r="D129" t="n">
-        <v>4.1597</v>
+        <v>4.12846</v>
       </c>
       <c r="E129" t="n">
-        <v>1.25565</v>
+        <v>1.23883</v>
       </c>
       <c r="F129" t="n">
-        <v>3.09018</v>
+        <v>3.07477</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.53971</v>
+        <v>1.47906</v>
       </c>
       <c r="C130" t="n">
-        <v>3.56111</v>
+        <v>3.48388</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10859</v>
+        <v>4.09866</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23636</v>
+        <v>1.24126</v>
       </c>
       <c r="F130" t="n">
-        <v>3.05208</v>
+        <v>2.96046</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.554</v>
+        <v>1.48569</v>
       </c>
       <c r="C131" t="n">
-        <v>3.47634</v>
+        <v>3.41102</v>
       </c>
       <c r="D131" t="n">
-        <v>4.06389</v>
+        <v>4.02463</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26167</v>
+        <v>1.22766</v>
       </c>
       <c r="F131" t="n">
-        <v>2.9689</v>
+        <v>2.92419</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55494</v>
+        <v>1.44137</v>
       </c>
       <c r="C132" t="n">
-        <v>3.41567</v>
+        <v>3.36298</v>
       </c>
       <c r="D132" t="n">
-        <v>4.0226</v>
+        <v>4.0542</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24682</v>
+        <v>1.2646</v>
       </c>
       <c r="F132" t="n">
-        <v>2.90879</v>
+        <v>2.84442</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55389</v>
+        <v>1.43001</v>
       </c>
       <c r="C133" t="n">
-        <v>3.38308</v>
+        <v>3.31013</v>
       </c>
       <c r="D133" t="n">
-        <v>3.9872</v>
+        <v>3.93478</v>
       </c>
       <c r="E133" t="n">
-        <v>1.25491</v>
+        <v>1.21577</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84977</v>
+        <v>2.8106</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.52573</v>
+        <v>1.45339</v>
       </c>
       <c r="C134" t="n">
-        <v>3.37096</v>
+        <v>3.26356</v>
       </c>
       <c r="D134" t="n">
-        <v>3.95104</v>
+        <v>3.89509</v>
       </c>
       <c r="E134" t="n">
-        <v>1.23444</v>
+        <v>1.2321</v>
       </c>
       <c r="F134" t="n">
-        <v>2.80208</v>
+        <v>2.78367</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.5593</v>
+        <v>1.44671</v>
       </c>
       <c r="C135" t="n">
-        <v>3.27269</v>
+        <v>3.20476</v>
       </c>
       <c r="D135" t="n">
-        <v>5.45972</v>
+        <v>5.44131</v>
       </c>
       <c r="E135" t="n">
-        <v>1.23075</v>
+        <v>1.54878</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75729</v>
+        <v>4.13086</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.56553</v>
+        <v>1.44253</v>
       </c>
       <c r="C136" t="n">
-        <v>3.1949</v>
+        <v>3.17949</v>
       </c>
       <c r="D136" t="n">
-        <v>5.32337</v>
+        <v>5.3172</v>
       </c>
       <c r="E136" t="n">
-        <v>1.24118</v>
+        <v>1.58023</v>
       </c>
       <c r="F136" t="n">
-        <v>2.75504</v>
+        <v>4.0589</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.56406</v>
+        <v>1.44655</v>
       </c>
       <c r="C137" t="n">
-        <v>3.21457</v>
+        <v>3.13488</v>
       </c>
       <c r="D137" t="n">
-        <v>5.23103</v>
+        <v>5.25512</v>
       </c>
       <c r="E137" t="n">
-        <v>1.59151</v>
+        <v>1.55561</v>
       </c>
       <c r="F137" t="n">
-        <v>4.14725</v>
+        <v>3.98717</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.84431</v>
+        <v>1.76493</v>
       </c>
       <c r="C138" t="n">
-        <v>4.61619</v>
+        <v>4.56808</v>
       </c>
       <c r="D138" t="n">
-        <v>5.16643</v>
+        <v>5.14395</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57481</v>
+        <v>1.58219</v>
       </c>
       <c r="F138" t="n">
-        <v>3.95618</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85699</v>
+        <v>1.76754</v>
       </c>
       <c r="C139" t="n">
-        <v>4.53914</v>
+        <v>4.45393</v>
       </c>
       <c r="D139" t="n">
-        <v>5.04912</v>
+        <v>5.03623</v>
       </c>
       <c r="E139" t="n">
-        <v>1.57779</v>
+        <v>1.56595</v>
       </c>
       <c r="F139" t="n">
-        <v>3.92055</v>
+        <v>3.77807</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.84613</v>
+        <v>1.765</v>
       </c>
       <c r="C140" t="n">
-        <v>4.39095</v>
+        <v>4.38172</v>
       </c>
       <c r="D140" t="n">
-        <v>4.99036</v>
+        <v>4.93948</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57948</v>
+        <v>1.55881</v>
       </c>
       <c r="F140" t="n">
-        <v>3.81256</v>
+        <v>3.7053</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.81761</v>
+        <v>1.76127</v>
       </c>
       <c r="C141" t="n">
-        <v>4.29797</v>
+        <v>4.25797</v>
       </c>
       <c r="D141" t="n">
-        <v>4.86895</v>
+        <v>4.85503</v>
       </c>
       <c r="E141" t="n">
-        <v>1.58084</v>
+        <v>1.58711</v>
       </c>
       <c r="F141" t="n">
-        <v>3.74341</v>
+        <v>3.61946</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86125</v>
+        <v>1.76651</v>
       </c>
       <c r="C142" t="n">
-        <v>4.21</v>
+        <v>4.18338</v>
       </c>
       <c r="D142" t="n">
-        <v>4.80107</v>
+        <v>4.76003</v>
       </c>
       <c r="E142" t="n">
-        <v>1.58794</v>
+        <v>1.56804</v>
       </c>
       <c r="F142" t="n">
-        <v>3.64256</v>
+        <v>3.57286</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84139</v>
+        <v>1.74513</v>
       </c>
       <c r="C143" t="n">
-        <v>4.18315</v>
+        <v>4.06517</v>
       </c>
       <c r="D143" t="n">
-        <v>4.72921</v>
+        <v>4.6946</v>
       </c>
       <c r="E143" t="n">
-        <v>1.59682</v>
+        <v>1.58461</v>
       </c>
       <c r="F143" t="n">
-        <v>3.58543</v>
+        <v>3.50826</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.48192</v>
+        <v>0.496742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.803482</v>
+        <v>0.804867</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76596</v>
+        <v>0.7743139999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.203953</v>
+        <v>0.207242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.583296</v>
+        <v>0.614185</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413607</v>
+        <v>0.422807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.780883</v>
+        <v>0.800204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.764548</v>
+        <v>0.761924</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200887</v>
+        <v>0.199077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.578331</v>
+        <v>0.574321</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.417767</v>
+        <v>0.398893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.795915</v>
+        <v>0.808717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793708</v>
+        <v>0.783069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191065</v>
+        <v>0.194244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575483</v>
+        <v>0.568827</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.397785</v>
+        <v>0.394287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783269</v>
+        <v>0.762047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73761</v>
+        <v>0.759731</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187343</v>
+        <v>0.188223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.568485</v>
+        <v>0.562981</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.401363</v>
+        <v>0.394849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758535</v>
+        <v>0.759817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.751711</v>
+        <v>0.749236</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18477</v>
+        <v>0.192207</v>
       </c>
       <c r="F6" t="n">
-        <v>0.556011</v>
+        <v>0.574249</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.392046</v>
+        <v>0.3836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.756528</v>
+        <v>0.74803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905757</v>
+        <v>0.898089</v>
       </c>
       <c r="E7" t="n">
-        <v>0.181212</v>
+        <v>0.184022</v>
       </c>
       <c r="F7" t="n">
-        <v>0.55271</v>
+        <v>0.5543439999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.388947</v>
+        <v>0.386945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.764621</v>
+        <v>0.755854</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8864880000000001</v>
+        <v>0.890578</v>
       </c>
       <c r="E8" t="n">
-        <v>0.184837</v>
+        <v>0.180045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.562923</v>
+        <v>0.579358</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.388703</v>
+        <v>0.38116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75364</v>
+        <v>0.75359</v>
       </c>
       <c r="D9" t="n">
-        <v>0.868153</v>
+        <v>0.905131</v>
       </c>
       <c r="E9" t="n">
-        <v>0.26003</v>
+        <v>0.263186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.659176</v>
+        <v>0.640557</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466197</v>
+        <v>0.46722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.850452</v>
+        <v>0.856776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8688360000000001</v>
+        <v>0.862013</v>
       </c>
       <c r="E10" t="n">
-        <v>0.255261</v>
+        <v>0.252572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.635594</v>
+        <v>0.6355189999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466197</v>
+        <v>0.459136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.891846</v>
+        <v>0.854557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.864375</v>
+        <v>0.868989</v>
       </c>
       <c r="E11" t="n">
-        <v>0.247891</v>
+        <v>0.245242</v>
       </c>
       <c r="F11" t="n">
-        <v>0.652701</v>
+        <v>0.632843</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465645</v>
+        <v>0.448129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.886135</v>
+        <v>0.8415010000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.849743</v>
+        <v>0.873958</v>
       </c>
       <c r="E12" t="n">
-        <v>0.238741</v>
+        <v>0.240059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.647127</v>
+        <v>0.624146</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.457595</v>
+        <v>0.444444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8372270000000001</v>
+        <v>0.824637</v>
       </c>
       <c r="D13" t="n">
-        <v>0.828494</v>
+        <v>0.8338680000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.235963</v>
+        <v>0.231539</v>
       </c>
       <c r="F13" t="n">
-        <v>0.61788</v>
+        <v>0.625753</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4476</v>
+        <v>0.441896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.843939</v>
+        <v>0.825354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.833325</v>
+        <v>0.854971</v>
       </c>
       <c r="E14" t="n">
-        <v>0.223588</v>
+        <v>0.225074</v>
       </c>
       <c r="F14" t="n">
-        <v>0.617821</v>
+        <v>0.62452</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449421</v>
+        <v>0.435182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8207680000000001</v>
+        <v>0.8192970000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.82281</v>
+        <v>0.824866</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223951</v>
+        <v>0.219016</v>
       </c>
       <c r="F15" t="n">
-        <v>0.615098</v>
+        <v>0.626623</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435577</v>
+        <v>0.439445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.860923</v>
+        <v>0.827521</v>
       </c>
       <c r="D16" t="n">
-        <v>0.824901</v>
+        <v>0.826999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.213348</v>
+        <v>0.214038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.605032</v>
+        <v>0.605369</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441621</v>
+        <v>0.423374</v>
       </c>
       <c r="C17" t="n">
-        <v>0.830554</v>
+        <v>0.803904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.804276</v>
+        <v>0.831457</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208135</v>
+        <v>0.206067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.59778</v>
+        <v>0.600257</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429907</v>
+        <v>0.417509</v>
       </c>
       <c r="C18" t="n">
-        <v>0.813591</v>
+        <v>0.829761</v>
       </c>
       <c r="D18" t="n">
-        <v>0.798949</v>
+        <v>0.822472</v>
       </c>
       <c r="E18" t="n">
-        <v>0.201905</v>
+        <v>0.206385</v>
       </c>
       <c r="F18" t="n">
-        <v>0.598978</v>
+        <v>0.614533</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450304</v>
+        <v>0.41983</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8106910000000001</v>
+        <v>0.79291</v>
       </c>
       <c r="D19" t="n">
-        <v>0.819248</v>
+        <v>0.806546</v>
       </c>
       <c r="E19" t="n">
-        <v>0.197181</v>
+        <v>0.196729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.590521</v>
+        <v>0.592767</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438839</v>
+        <v>0.406692</v>
       </c>
       <c r="C20" t="n">
-        <v>0.80472</v>
+        <v>0.803118</v>
       </c>
       <c r="D20" t="n">
-        <v>0.793025</v>
+        <v>0.813213</v>
       </c>
       <c r="E20" t="n">
-        <v>0.195299</v>
+        <v>0.193868</v>
       </c>
       <c r="F20" t="n">
-        <v>0.591287</v>
+        <v>0.59055</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415278</v>
+        <v>0.423473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.800442</v>
+        <v>0.786871</v>
       </c>
       <c r="D21" t="n">
-        <v>0.952527</v>
+        <v>0.9657559999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.194118</v>
+        <v>0.190566</v>
       </c>
       <c r="F21" t="n">
-        <v>0.578873</v>
+        <v>0.584615</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409983</v>
+        <v>0.403284</v>
       </c>
       <c r="C22" t="n">
-        <v>0.800202</v>
+        <v>0.788722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.945319</v>
+        <v>0.979942</v>
       </c>
       <c r="E22" t="n">
-        <v>0.194684</v>
+        <v>0.190924</v>
       </c>
       <c r="F22" t="n">
-        <v>0.585097</v>
+        <v>0.588739</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40511</v>
+        <v>0.43412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.793082</v>
+        <v>0.794867</v>
       </c>
       <c r="D23" t="n">
-        <v>0.943762</v>
+        <v>0.937883</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42763</v>
+        <v>0.446527</v>
       </c>
       <c r="F23" t="n">
-        <v>0.720847</v>
+        <v>0.695004</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.672392</v>
+        <v>0.646629</v>
       </c>
       <c r="C24" t="n">
-        <v>0.976346</v>
+        <v>0.894691</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9174949999999999</v>
+        <v>0.941277</v>
       </c>
       <c r="E24" t="n">
-        <v>0.420717</v>
+        <v>0.416467</v>
       </c>
       <c r="F24" t="n">
-        <v>0.751348</v>
+        <v>0.666025</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.633236</v>
+        <v>0.6471519999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.894219</v>
+        <v>0.888954</v>
       </c>
       <c r="D25" t="n">
-        <v>0.918327</v>
+        <v>0.927399</v>
       </c>
       <c r="E25" t="n">
-        <v>0.397047</v>
+        <v>0.404886</v>
       </c>
       <c r="F25" t="n">
-        <v>0.661914</v>
+        <v>0.663649</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621128</v>
+        <v>0.627153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.876839</v>
+        <v>0.887834</v>
       </c>
       <c r="D26" t="n">
-        <v>0.900118</v>
+        <v>0.927884</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388179</v>
+        <v>0.388794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.652736</v>
+        <v>0.649325</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.630139</v>
+        <v>0.612864</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8719479999999999</v>
+        <v>0.866808</v>
       </c>
       <c r="D27" t="n">
-        <v>0.881993</v>
+        <v>0.919899</v>
       </c>
       <c r="E27" t="n">
-        <v>0.374119</v>
+        <v>0.374949</v>
       </c>
       <c r="F27" t="n">
-        <v>0.647858</v>
+        <v>0.673507</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588228</v>
+        <v>0.596132</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8635890000000001</v>
+        <v>0.877922</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8772450000000001</v>
+        <v>0.9175</v>
       </c>
       <c r="E28" t="n">
-        <v>0.36124</v>
+        <v>0.361158</v>
       </c>
       <c r="F28" t="n">
-        <v>0.652332</v>
+        <v>0.637397</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579385</v>
+        <v>0.580013</v>
       </c>
       <c r="C29" t="n">
-        <v>0.859093</v>
+        <v>0.853542</v>
       </c>
       <c r="D29" t="n">
-        <v>0.883281</v>
+        <v>0.8800750000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.35249</v>
+        <v>0.347954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.635771</v>
+        <v>0.641666</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.577458</v>
+        <v>0.574162</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8632919999999999</v>
+        <v>0.887454</v>
       </c>
       <c r="D30" t="n">
-        <v>0.867932</v>
+        <v>0.870447</v>
       </c>
       <c r="E30" t="n">
-        <v>0.332001</v>
+        <v>0.338115</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6465070000000001</v>
+        <v>0.639142</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.561315</v>
+        <v>0.55693</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8408870000000001</v>
+        <v>0.839958</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8449719999999999</v>
+        <v>0.88991</v>
       </c>
       <c r="E31" t="n">
-        <v>0.319588</v>
+        <v>0.324129</v>
       </c>
       <c r="F31" t="n">
-        <v>0.631279</v>
+        <v>0.629445</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.553531</v>
+        <v>0.548839</v>
       </c>
       <c r="C32" t="n">
-        <v>0.852399</v>
+        <v>0.839403</v>
       </c>
       <c r="D32" t="n">
-        <v>0.842844</v>
+        <v>0.854217</v>
       </c>
       <c r="E32" t="n">
-        <v>0.320879</v>
+        <v>0.315206</v>
       </c>
       <c r="F32" t="n">
-        <v>0.61826</v>
+        <v>0.620274</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.533807</v>
+        <v>0.530139</v>
       </c>
       <c r="C33" t="n">
-        <v>0.830713</v>
+        <v>0.833437</v>
       </c>
       <c r="D33" t="n">
-        <v>0.842776</v>
+        <v>0.845584</v>
       </c>
       <c r="E33" t="n">
-        <v>0.310478</v>
+        <v>0.304872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.627621</v>
+        <v>0.602195</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534656</v>
+        <v>0.524008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.837732</v>
+        <v>0.822541</v>
       </c>
       <c r="D34" t="n">
-        <v>0.832028</v>
+        <v>0.839021</v>
       </c>
       <c r="E34" t="n">
-        <v>0.296947</v>
+        <v>0.301462</v>
       </c>
       <c r="F34" t="n">
-        <v>0.609051</v>
+        <v>0.6218590000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525997</v>
+        <v>0.531083</v>
       </c>
       <c r="C35" t="n">
-        <v>0.848962</v>
+        <v>0.8322040000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0957</v>
+        <v>1.14361</v>
       </c>
       <c r="E35" t="n">
-        <v>0.288351</v>
+        <v>0.289219</v>
       </c>
       <c r="F35" t="n">
-        <v>0.614051</v>
+        <v>0.607762</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51381</v>
+        <v>0.506814</v>
       </c>
       <c r="C36" t="n">
-        <v>0.82437</v>
+        <v>0.8227989999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06847</v>
+        <v>1.12449</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283671</v>
+        <v>0.282556</v>
       </c>
       <c r="F36" t="n">
-        <v>0.605606</v>
+        <v>0.627792</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.506538</v>
+        <v>0.510367</v>
       </c>
       <c r="C37" t="n">
-        <v>0.823074</v>
+        <v>0.842867</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04641</v>
+        <v>1.06234</v>
       </c>
       <c r="E37" t="n">
-        <v>0.541672</v>
+        <v>0.547611</v>
       </c>
       <c r="F37" t="n">
-        <v>0.829854</v>
+        <v>0.859024</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7611329999999999</v>
+        <v>0.7645110000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.06968</v>
+        <v>1.07225</v>
       </c>
       <c r="D38" t="n">
-        <v>1.06623</v>
+        <v>1.0274</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5069900000000001</v>
+        <v>0.5333329999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.810578</v>
+        <v>0.821667</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766357</v>
+        <v>0.742957</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06264</v>
+        <v>1.07484</v>
       </c>
       <c r="D39" t="n">
-        <v>1.04109</v>
+        <v>1.01029</v>
       </c>
       <c r="E39" t="n">
-        <v>0.496029</v>
+        <v>0.50206</v>
       </c>
       <c r="F39" t="n">
-        <v>0.805586</v>
+        <v>0.820358</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.724986</v>
+        <v>0.769031</v>
       </c>
       <c r="C40" t="n">
-        <v>1.04135</v>
+        <v>1.05511</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00488</v>
+        <v>1.00294</v>
       </c>
       <c r="E40" t="n">
-        <v>0.475422</v>
+        <v>0.4819</v>
       </c>
       <c r="F40" t="n">
-        <v>0.78887</v>
+        <v>0.809443</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.709745</v>
+        <v>0.719037</v>
       </c>
       <c r="C41" t="n">
-        <v>1.03056</v>
+        <v>1.04197</v>
       </c>
       <c r="D41" t="n">
-        <v>0.98811</v>
+        <v>0.99391</v>
       </c>
       <c r="E41" t="n">
-        <v>0.457892</v>
+        <v>0.462425</v>
       </c>
       <c r="F41" t="n">
-        <v>0.769393</v>
+        <v>0.790375</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.691329</v>
+        <v>0.693704</v>
       </c>
       <c r="C42" t="n">
-        <v>1.02806</v>
+        <v>1.03405</v>
       </c>
       <c r="D42" t="n">
-        <v>0.978858</v>
+        <v>0.987609</v>
       </c>
       <c r="E42" t="n">
-        <v>0.447521</v>
+        <v>0.446241</v>
       </c>
       <c r="F42" t="n">
-        <v>0.763099</v>
+        <v>0.768296</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6810929999999999</v>
+        <v>0.682657</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01043</v>
+        <v>1.01486</v>
       </c>
       <c r="D43" t="n">
-        <v>0.987291</v>
+        <v>0.980021</v>
       </c>
       <c r="E43" t="n">
-        <v>0.422652</v>
+        <v>0.431397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7713410000000001</v>
+        <v>0.788776</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665151</v>
+        <v>0.671609</v>
       </c>
       <c r="C44" t="n">
-        <v>1.02527</v>
+        <v>0.994831</v>
       </c>
       <c r="D44" t="n">
-        <v>0.97634</v>
+        <v>0.975428</v>
       </c>
       <c r="E44" t="n">
-        <v>0.410677</v>
+        <v>0.421327</v>
       </c>
       <c r="F44" t="n">
-        <v>0.739779</v>
+        <v>0.748592</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.670382</v>
+        <v>0.64775</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02615</v>
+        <v>0.974145</v>
       </c>
       <c r="D45" t="n">
-        <v>0.997162</v>
+        <v>0.957019</v>
       </c>
       <c r="E45" t="n">
-        <v>0.39523</v>
+        <v>0.411814</v>
       </c>
       <c r="F45" t="n">
-        <v>0.735001</v>
+        <v>0.73031</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.634282</v>
+        <v>0.639653</v>
       </c>
       <c r="C46" t="n">
-        <v>0.978752</v>
+        <v>0.978259</v>
       </c>
       <c r="D46" t="n">
-        <v>0.993157</v>
+        <v>0.95458</v>
       </c>
       <c r="E46" t="n">
-        <v>0.379844</v>
+        <v>0.38781</v>
       </c>
       <c r="F46" t="n">
-        <v>0.730594</v>
+        <v>0.739023</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636396</v>
+        <v>0.6092030000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.97259</v>
+        <v>0.964011</v>
       </c>
       <c r="D47" t="n">
-        <v>0.936667</v>
+        <v>0.9803770000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.367974</v>
+        <v>0.375304</v>
       </c>
       <c r="F47" t="n">
-        <v>0.712791</v>
+        <v>0.7189950000000001</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.608272</v>
+        <v>0.607782</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9892919999999999</v>
+        <v>0.963239</v>
       </c>
       <c r="D48" t="n">
-        <v>0.938778</v>
+        <v>0.949572</v>
       </c>
       <c r="E48" t="n">
-        <v>0.35676</v>
+        <v>0.371727</v>
       </c>
       <c r="F48" t="n">
-        <v>0.708324</v>
+        <v>0.708376</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605596</v>
+        <v>0.58695</v>
       </c>
       <c r="C49" t="n">
-        <v>0.976326</v>
+        <v>0.9548680000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.940379</v>
+        <v>0.950115</v>
       </c>
       <c r="E49" t="n">
-        <v>0.344449</v>
+        <v>0.35106</v>
       </c>
       <c r="F49" t="n">
-        <v>0.705072</v>
+        <v>0.7242729999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.609464</v>
+        <v>0.613475</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9758019999999999</v>
+        <v>0.95313</v>
       </c>
       <c r="D50" t="n">
-        <v>1.48792</v>
+        <v>1.47016</v>
       </c>
       <c r="E50" t="n">
-        <v>0.337966</v>
+        <v>0.339794</v>
       </c>
       <c r="F50" t="n">
-        <v>0.697642</v>
+        <v>0.6887760000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.577276</v>
+        <v>0.565037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.957226</v>
+        <v>0.932486</v>
       </c>
       <c r="D51" t="n">
-        <v>1.43971</v>
+        <v>1.45207</v>
       </c>
       <c r="E51" t="n">
-        <v>0.584635</v>
+        <v>0.608565</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05611</v>
+        <v>1.08502</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575081</v>
+        <v>0.5554210000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.990208</v>
+        <v>0.9662500000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>1.44308</v>
+        <v>1.43457</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5790650000000001</v>
+        <v>0.587327</v>
       </c>
       <c r="F52" t="n">
-        <v>1.07726</v>
+        <v>1.07911</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.874301</v>
+        <v>0.817424</v>
       </c>
       <c r="C53" t="n">
-        <v>1.388</v>
+        <v>1.39196</v>
       </c>
       <c r="D53" t="n">
-        <v>1.43357</v>
+        <v>1.44566</v>
       </c>
       <c r="E53" t="n">
-        <v>0.565361</v>
+        <v>0.577516</v>
       </c>
       <c r="F53" t="n">
-        <v>1.02983</v>
+        <v>1.0517</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.841596</v>
+        <v>0.796647</v>
       </c>
       <c r="C54" t="n">
-        <v>1.38812</v>
+        <v>1.38037</v>
       </c>
       <c r="D54" t="n">
-        <v>1.42287</v>
+        <v>1.44425</v>
       </c>
       <c r="E54" t="n">
-        <v>0.538516</v>
+        <v>0.543241</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999241</v>
+        <v>1.02038</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.826143</v>
+        <v>0.78404</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38002</v>
+        <v>1.32321</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3882</v>
+        <v>1.39947</v>
       </c>
       <c r="E55" t="n">
-        <v>0.520304</v>
+        <v>0.528226</v>
       </c>
       <c r="F55" t="n">
-        <v>0.992938</v>
+        <v>1.00158</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.858784</v>
+        <v>0.773597</v>
       </c>
       <c r="C56" t="n">
-        <v>1.36476</v>
+        <v>1.32665</v>
       </c>
       <c r="D56" t="n">
-        <v>1.35224</v>
+        <v>1.37879</v>
       </c>
       <c r="E56" t="n">
-        <v>0.503617</v>
+        <v>0.516885</v>
       </c>
       <c r="F56" t="n">
-        <v>0.969334</v>
+        <v>0.988637</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.791803</v>
+        <v>0.7524</v>
       </c>
       <c r="C57" t="n">
-        <v>1.33221</v>
+        <v>1.33845</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43442</v>
+        <v>1.38299</v>
       </c>
       <c r="E57" t="n">
-        <v>0.506345</v>
+        <v>0.498884</v>
       </c>
       <c r="F57" t="n">
-        <v>0.953148</v>
+        <v>0.977639</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7861089999999999</v>
+        <v>0.744771</v>
       </c>
       <c r="C58" t="n">
-        <v>1.30895</v>
+        <v>1.3195</v>
       </c>
       <c r="D58" t="n">
-        <v>1.3092</v>
+        <v>1.41688</v>
       </c>
       <c r="E58" t="n">
-        <v>0.475023</v>
+        <v>0.497384</v>
       </c>
       <c r="F58" t="n">
-        <v>0.935728</v>
+        <v>0.9475479999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.77506</v>
+        <v>0.749928</v>
       </c>
       <c r="C59" t="n">
-        <v>1.28919</v>
+        <v>1.2955</v>
       </c>
       <c r="D59" t="n">
-        <v>1.306</v>
+        <v>1.35855</v>
       </c>
       <c r="E59" t="n">
-        <v>0.477257</v>
+        <v>0.472968</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9351</v>
+        <v>0.933307</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.797299</v>
+        <v>0.721617</v>
       </c>
       <c r="C60" t="n">
-        <v>1.32186</v>
+        <v>1.27742</v>
       </c>
       <c r="D60" t="n">
-        <v>1.28949</v>
+        <v>1.36504</v>
       </c>
       <c r="E60" t="n">
-        <v>0.449684</v>
+        <v>0.456652</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9254250000000001</v>
+        <v>0.927808</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.760393</v>
+        <v>0.7223579999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2574</v>
+        <v>1.29409</v>
       </c>
       <c r="D61" t="n">
-        <v>1.27877</v>
+        <v>1.31425</v>
       </c>
       <c r="E61" t="n">
-        <v>0.443017</v>
+        <v>0.445789</v>
       </c>
       <c r="F61" t="n">
-        <v>0.910919</v>
+        <v>0.925415</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.756275</v>
+        <v>0.700498</v>
       </c>
       <c r="C62" t="n">
-        <v>1.27581</v>
+        <v>1.236</v>
       </c>
       <c r="D62" t="n">
-        <v>1.27989</v>
+        <v>1.35351</v>
       </c>
       <c r="E62" t="n">
-        <v>0.442902</v>
+        <v>0.436409</v>
       </c>
       <c r="F62" t="n">
-        <v>0.892587</v>
+        <v>0.907658</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760404</v>
+        <v>0.689638</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22628</v>
+        <v>1.28361</v>
       </c>
       <c r="D63" t="n">
-        <v>1.30129</v>
+        <v>1.35354</v>
       </c>
       <c r="E63" t="n">
-        <v>0.421562</v>
+        <v>0.429465</v>
       </c>
       <c r="F63" t="n">
-        <v>0.889245</v>
+        <v>0.898936</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7271260000000001</v>
+        <v>0.681541</v>
       </c>
       <c r="C64" t="n">
-        <v>1.28719</v>
+        <v>1.23563</v>
       </c>
       <c r="D64" t="n">
-        <v>2.33222</v>
+        <v>2.43497</v>
       </c>
       <c r="E64" t="n">
-        <v>0.411357</v>
+        <v>0.417855</v>
       </c>
       <c r="F64" t="n">
-        <v>0.880762</v>
+        <v>0.924074</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.723262</v>
+        <v>0.669963</v>
       </c>
       <c r="C65" t="n">
-        <v>1.21216</v>
+        <v>1.21779</v>
       </c>
       <c r="D65" t="n">
-        <v>2.29496</v>
+        <v>2.41456</v>
       </c>
       <c r="E65" t="n">
-        <v>0.404514</v>
+        <v>0.409437</v>
       </c>
       <c r="F65" t="n">
-        <v>0.88279</v>
+        <v>0.904747</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.715155</v>
+        <v>0.661534</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20282</v>
+        <v>1.20858</v>
       </c>
       <c r="D66" t="n">
-        <v>2.28978</v>
+        <v>2.25343</v>
       </c>
       <c r="E66" t="n">
-        <v>0.685575</v>
+        <v>0.685902</v>
       </c>
       <c r="F66" t="n">
-        <v>1.56739</v>
+        <v>1.60752</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00601</v>
+        <v>0.9347760000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96259</v>
+        <v>1.97944</v>
       </c>
       <c r="D67" t="n">
-        <v>2.22847</v>
+        <v>2.1967</v>
       </c>
       <c r="E67" t="n">
-        <v>0.643406</v>
+        <v>0.655694</v>
       </c>
       <c r="F67" t="n">
-        <v>1.61191</v>
+        <v>1.54553</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.987974</v>
+        <v>0.92979</v>
       </c>
       <c r="C68" t="n">
-        <v>1.92156</v>
+        <v>1.98596</v>
       </c>
       <c r="D68" t="n">
-        <v>2.17715</v>
+        <v>2.2205</v>
       </c>
       <c r="E68" t="n">
-        <v>0.634676</v>
+        <v>0.638174</v>
       </c>
       <c r="F68" t="n">
-        <v>1.48616</v>
+        <v>1.46201</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.967135</v>
+        <v>0.916326</v>
       </c>
       <c r="C69" t="n">
-        <v>1.86657</v>
+        <v>1.8961</v>
       </c>
       <c r="D69" t="n">
-        <v>2.15431</v>
+        <v>2.13408</v>
       </c>
       <c r="E69" t="n">
-        <v>0.642224</v>
+        <v>0.612993</v>
       </c>
       <c r="F69" t="n">
-        <v>1.46046</v>
+        <v>1.46777</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.990312</v>
+        <v>0.893142</v>
       </c>
       <c r="C70" t="n">
-        <v>1.90088</v>
+        <v>1.87647</v>
       </c>
       <c r="D70" t="n">
-        <v>2.11755</v>
+        <v>2.24732</v>
       </c>
       <c r="E70" t="n">
-        <v>0.592132</v>
+        <v>0.601982</v>
       </c>
       <c r="F70" t="n">
-        <v>1.4219</v>
+        <v>1.43868</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.971942</v>
+        <v>0.867429</v>
       </c>
       <c r="C71" t="n">
-        <v>1.82635</v>
+        <v>1.79885</v>
       </c>
       <c r="D71" t="n">
-        <v>2.05849</v>
+        <v>2.1013</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.580588</v>
       </c>
       <c r="F71" t="n">
-        <v>1.38176</v>
+        <v>1.40139</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9171</v>
+        <v>0.853396</v>
       </c>
       <c r="C72" t="n">
-        <v>1.76126</v>
+        <v>1.74628</v>
       </c>
       <c r="D72" t="n">
-        <v>2.01323</v>
+        <v>2.10415</v>
       </c>
       <c r="E72" t="n">
-        <v>0.563403</v>
+        <v>0.579297</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36579</v>
+        <v>1.35856</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9023330000000001</v>
+        <v>0.841881</v>
       </c>
       <c r="C73" t="n">
-        <v>1.76418</v>
+        <v>1.75072</v>
       </c>
       <c r="D73" t="n">
-        <v>2.01274</v>
+        <v>2.06141</v>
       </c>
       <c r="E73" t="n">
-        <v>0.560516</v>
+        <v>0.551824</v>
       </c>
       <c r="F73" t="n">
-        <v>1.33711</v>
+        <v>1.34567</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8995919999999999</v>
+        <v>0.836961</v>
       </c>
       <c r="C74" t="n">
-        <v>1.72251</v>
+        <v>1.73541</v>
       </c>
       <c r="D74" t="n">
-        <v>2.03143</v>
+        <v>2.01066</v>
       </c>
       <c r="E74" t="n">
-        <v>0.538111</v>
+        <v>0.566616</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3107</v>
+        <v>1.31497</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.878211</v>
+        <v>0.848855</v>
       </c>
       <c r="C75" t="n">
-        <v>1.70881</v>
+        <v>1.68082</v>
       </c>
       <c r="D75" t="n">
-        <v>2.0054</v>
+        <v>2.00529</v>
       </c>
       <c r="E75" t="n">
-        <v>0.530048</v>
+        <v>0.523721</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30726</v>
+        <v>1.3295</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8773879999999999</v>
+        <v>0.809868</v>
       </c>
       <c r="C76" t="n">
-        <v>1.68605</v>
+        <v>1.66867</v>
       </c>
       <c r="D76" t="n">
-        <v>1.97698</v>
+        <v>1.98064</v>
       </c>
       <c r="E76" t="n">
-        <v>0.515438</v>
+        <v>0.514198</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28136</v>
+        <v>1.27573</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.879552</v>
+        <v>0.790961</v>
       </c>
       <c r="C77" t="n">
-        <v>1.64117</v>
+        <v>1.63795</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97857</v>
+        <v>1.99286</v>
       </c>
       <c r="E77" t="n">
-        <v>0.505283</v>
+        <v>0.503111</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27281</v>
+        <v>1.29228</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.880011</v>
+        <v>0.773361</v>
       </c>
       <c r="C78" t="n">
-        <v>1.61649</v>
+        <v>1.6041</v>
       </c>
       <c r="D78" t="n">
-        <v>3.32192</v>
+        <v>3.41869</v>
       </c>
       <c r="E78" t="n">
-        <v>0.492633</v>
+        <v>0.509198</v>
       </c>
       <c r="F78" t="n">
-        <v>1.21132</v>
+        <v>1.23723</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.83056</v>
+        <v>0.774469</v>
       </c>
       <c r="C79" t="n">
-        <v>1.56754</v>
+        <v>1.58757</v>
       </c>
       <c r="D79" t="n">
-        <v>3.315</v>
+        <v>3.29993</v>
       </c>
       <c r="E79" t="n">
-        <v>0.48532</v>
+        <v>0.487375</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19906</v>
+        <v>1.22103</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.830153</v>
+        <v>0.78777</v>
       </c>
       <c r="C80" t="n">
-        <v>1.55374</v>
+        <v>1.56795</v>
       </c>
       <c r="D80" t="n">
-        <v>3.16382</v>
+        <v>3.19457</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7799970000000001</v>
+        <v>0.776905</v>
       </c>
       <c r="F80" t="n">
-        <v>2.11413</v>
+        <v>2.12943</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1235</v>
+        <v>1.07521</v>
       </c>
       <c r="C81" t="n">
-        <v>2.54635</v>
+        <v>2.53957</v>
       </c>
       <c r="D81" t="n">
-        <v>3.11278</v>
+        <v>3.29792</v>
       </c>
       <c r="E81" t="n">
-        <v>0.757182</v>
+        <v>0.758798</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0635</v>
+        <v>2.06471</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10631</v>
+        <v>1.04942</v>
       </c>
       <c r="C82" t="n">
-        <v>2.46866</v>
+        <v>2.50547</v>
       </c>
       <c r="D82" t="n">
-        <v>3.03991</v>
+        <v>3.22666</v>
       </c>
       <c r="E82" t="n">
-        <v>0.732262</v>
+        <v>0.756865</v>
       </c>
       <c r="F82" t="n">
-        <v>2.03027</v>
+        <v>2.04536</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08465</v>
+        <v>1.04223</v>
       </c>
       <c r="C83" t="n">
-        <v>2.43871</v>
+        <v>2.46083</v>
       </c>
       <c r="D83" t="n">
-        <v>2.99651</v>
+        <v>2.99217</v>
       </c>
       <c r="E83" t="n">
-        <v>0.720483</v>
+        <v>0.7319600000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98165</v>
+        <v>1.98472</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.12327</v>
+        <v>1.03048</v>
       </c>
       <c r="C84" t="n">
-        <v>2.33665</v>
+        <v>2.40701</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93193</v>
+        <v>2.9571</v>
       </c>
       <c r="E84" t="n">
-        <v>0.722369</v>
+        <v>0.709144</v>
       </c>
       <c r="F84" t="n">
-        <v>1.92288</v>
+        <v>1.90765</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09012</v>
+        <v>1.03116</v>
       </c>
       <c r="C85" t="n">
-        <v>2.31585</v>
+        <v>2.31484</v>
       </c>
       <c r="D85" t="n">
-        <v>2.90882</v>
+        <v>2.91786</v>
       </c>
       <c r="E85" t="n">
-        <v>0.702292</v>
+        <v>0.696146</v>
       </c>
       <c r="F85" t="n">
-        <v>1.85398</v>
+        <v>1.89447</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03936</v>
+        <v>0.99144</v>
       </c>
       <c r="C86" t="n">
-        <v>2.23263</v>
+        <v>2.25252</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8604</v>
+        <v>2.91659</v>
       </c>
       <c r="E86" t="n">
-        <v>0.673413</v>
+        <v>0.67461</v>
       </c>
       <c r="F86" t="n">
-        <v>1.82236</v>
+        <v>1.81499</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02233</v>
+        <v>0.986422</v>
       </c>
       <c r="C87" t="n">
-        <v>2.22673</v>
+        <v>2.21494</v>
       </c>
       <c r="D87" t="n">
-        <v>2.82225</v>
+        <v>2.89764</v>
       </c>
       <c r="E87" t="n">
-        <v>0.652786</v>
+        <v>0.665121</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7688</v>
+        <v>1.7883</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00682</v>
+        <v>0.949621</v>
       </c>
       <c r="C88" t="n">
-        <v>2.16147</v>
+        <v>2.16249</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78343</v>
+        <v>2.78263</v>
       </c>
       <c r="E88" t="n">
-        <v>0.645205</v>
+        <v>0.673224</v>
       </c>
       <c r="F88" t="n">
-        <v>1.7763</v>
+        <v>1.76607</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.994754</v>
+        <v>0.990163</v>
       </c>
       <c r="C89" t="n">
-        <v>2.10644</v>
+        <v>2.15416</v>
       </c>
       <c r="D89" t="n">
-        <v>2.70388</v>
+        <v>2.78186</v>
       </c>
       <c r="E89" t="n">
-        <v>0.63486</v>
+        <v>0.648547</v>
       </c>
       <c r="F89" t="n">
-        <v>1.68359</v>
+        <v>1.70097</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.987913</v>
+        <v>0.915135</v>
       </c>
       <c r="C90" t="n">
-        <v>2.07847</v>
+        <v>2.04872</v>
       </c>
       <c r="D90" t="n">
-        <v>2.69179</v>
+        <v>2.68386</v>
       </c>
       <c r="E90" t="n">
-        <v>0.617431</v>
+        <v>0.64225</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6725</v>
+        <v>1.66055</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.989514</v>
+        <v>0.917116</v>
       </c>
       <c r="C91" t="n">
-        <v>2.03157</v>
+        <v>2.02533</v>
       </c>
       <c r="D91" t="n">
-        <v>2.65811</v>
+        <v>2.66677</v>
       </c>
       <c r="E91" t="n">
-        <v>0.61226</v>
+        <v>0.621437</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64121</v>
+        <v>1.67348</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.958288</v>
+        <v>0.909577</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98569</v>
+        <v>1.98326</v>
       </c>
       <c r="D92" t="n">
-        <v>3.79718</v>
+        <v>3.85285</v>
       </c>
       <c r="E92" t="n">
-        <v>0.592885</v>
+        <v>0.607951</v>
       </c>
       <c r="F92" t="n">
-        <v>1.57862</v>
+        <v>1.57172</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949763</v>
+        <v>0.903199</v>
       </c>
       <c r="C93" t="n">
-        <v>1.94377</v>
+        <v>1.98768</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72392</v>
+        <v>3.82342</v>
       </c>
       <c r="E93" t="n">
-        <v>0.585001</v>
+        <v>0.590502</v>
       </c>
       <c r="F93" t="n">
-        <v>1.59523</v>
+        <v>1.56556</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.935763</v>
+        <v>0.873483</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93385</v>
+        <v>1.89772</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66593</v>
+        <v>3.66387</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8840209999999999</v>
+        <v>0.920534</v>
       </c>
       <c r="F94" t="n">
-        <v>2.61054</v>
+        <v>2.63009</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27256</v>
+        <v>1.1847</v>
       </c>
       <c r="C95" t="n">
-        <v>3.01408</v>
+        <v>3.02573</v>
       </c>
       <c r="D95" t="n">
-        <v>3.58517</v>
+        <v>3.55679</v>
       </c>
       <c r="E95" t="n">
-        <v>0.879955</v>
+        <v>0.887424</v>
       </c>
       <c r="F95" t="n">
-        <v>2.54646</v>
+        <v>2.55213</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2466</v>
+        <v>1.16836</v>
       </c>
       <c r="C96" t="n">
-        <v>2.92575</v>
+        <v>2.9921</v>
       </c>
       <c r="D96" t="n">
-        <v>3.53331</v>
+        <v>3.49976</v>
       </c>
       <c r="E96" t="n">
-        <v>0.848376</v>
+        <v>0.84753</v>
       </c>
       <c r="F96" t="n">
-        <v>2.48189</v>
+        <v>2.46007</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21059</v>
+        <v>1.16762</v>
       </c>
       <c r="C97" t="n">
-        <v>2.86056</v>
+        <v>2.8579</v>
       </c>
       <c r="D97" t="n">
-        <v>3.46859</v>
+        <v>3.43031</v>
       </c>
       <c r="E97" t="n">
-        <v>0.861557</v>
+        <v>0.8378139999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>2.40725</v>
+        <v>2.41426</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20444</v>
+        <v>1.13608</v>
       </c>
       <c r="C98" t="n">
-        <v>2.78496</v>
+        <v>2.81417</v>
       </c>
       <c r="D98" t="n">
-        <v>3.37745</v>
+        <v>3.3975</v>
       </c>
       <c r="E98" t="n">
-        <v>0.852696</v>
+        <v>0.817315</v>
       </c>
       <c r="F98" t="n">
-        <v>2.35911</v>
+        <v>2.40964</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20323</v>
+        <v>1.11583</v>
       </c>
       <c r="C99" t="n">
-        <v>2.7651</v>
+        <v>2.80822</v>
       </c>
       <c r="D99" t="n">
-        <v>3.35206</v>
+        <v>3.29982</v>
       </c>
       <c r="E99" t="n">
-        <v>0.816459</v>
+        <v>0.811652</v>
       </c>
       <c r="F99" t="n">
-        <v>2.29829</v>
+        <v>2.32234</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16213</v>
+        <v>1.13356</v>
       </c>
       <c r="C100" t="n">
-        <v>2.67838</v>
+        <v>2.68898</v>
       </c>
       <c r="D100" t="n">
-        <v>3.32828</v>
+        <v>3.26163</v>
       </c>
       <c r="E100" t="n">
-        <v>0.81382</v>
+        <v>0.811016</v>
       </c>
       <c r="F100" t="n">
-        <v>2.22679</v>
+        <v>2.24627</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15215</v>
+        <v>1.09237</v>
       </c>
       <c r="C101" t="n">
-        <v>2.62307</v>
+        <v>2.65351</v>
       </c>
       <c r="D101" t="n">
-        <v>3.29614</v>
+        <v>3.23626</v>
       </c>
       <c r="E101" t="n">
-        <v>0.798179</v>
+        <v>0.786795</v>
       </c>
       <c r="F101" t="n">
-        <v>2.16521</v>
+        <v>2.17387</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14618</v>
+        <v>1.08319</v>
       </c>
       <c r="C102" t="n">
-        <v>2.58523</v>
+        <v>2.58182</v>
       </c>
       <c r="D102" t="n">
-        <v>3.16262</v>
+        <v>3.20373</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7807770000000001</v>
+        <v>0.786367</v>
       </c>
       <c r="F102" t="n">
-        <v>2.11756</v>
+        <v>2.12622</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12693</v>
+        <v>1.09219</v>
       </c>
       <c r="C103" t="n">
-        <v>2.51764</v>
+        <v>2.54041</v>
       </c>
       <c r="D103" t="n">
-        <v>3.12233</v>
+        <v>3.18696</v>
       </c>
       <c r="E103" t="n">
-        <v>0.789184</v>
+        <v>0.756555</v>
       </c>
       <c r="F103" t="n">
-        <v>2.12969</v>
+        <v>2.08717</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12343</v>
+        <v>1.08092</v>
       </c>
       <c r="C104" t="n">
-        <v>2.52593</v>
+        <v>2.4763</v>
       </c>
       <c r="D104" t="n">
-        <v>3.14681</v>
+        <v>3.13465</v>
       </c>
       <c r="E104" t="n">
-        <v>0.738707</v>
+        <v>0.760256</v>
       </c>
       <c r="F104" t="n">
-        <v>2.03221</v>
+        <v>2.03832</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14414</v>
+        <v>1.05109</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4453</v>
+        <v>2.44607</v>
       </c>
       <c r="D105" t="n">
-        <v>3.09648</v>
+        <v>3.07847</v>
       </c>
       <c r="E105" t="n">
-        <v>0.721195</v>
+        <v>0.737938</v>
       </c>
       <c r="F105" t="n">
-        <v>2.01966</v>
+        <v>2.01973</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09931</v>
+        <v>1.02657</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48225</v>
+        <v>2.41116</v>
       </c>
       <c r="D106" t="n">
-        <v>3.07741</v>
+        <v>3.18057</v>
       </c>
       <c r="E106" t="n">
-        <v>0.721697</v>
+        <v>0.732452</v>
       </c>
       <c r="F106" t="n">
-        <v>2.05224</v>
+        <v>1.97684</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1014</v>
+        <v>1.03373</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3443</v>
+        <v>2.35467</v>
       </c>
       <c r="D107" t="n">
-        <v>4.24633</v>
+        <v>4.22777</v>
       </c>
       <c r="E107" t="n">
-        <v>0.72446</v>
+        <v>0.724116</v>
       </c>
       <c r="F107" t="n">
-        <v>1.90951</v>
+        <v>1.93017</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08619</v>
+        <v>1.02079</v>
       </c>
       <c r="C108" t="n">
-        <v>2.33134</v>
+        <v>2.32833</v>
       </c>
       <c r="D108" t="n">
-        <v>4.1012</v>
+        <v>4.17038</v>
       </c>
       <c r="E108" t="n">
-        <v>1.0175</v>
+        <v>1.07491</v>
       </c>
       <c r="F108" t="n">
-        <v>3.12454</v>
+        <v>3.10772</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.08994</v>
+        <v>1.00689</v>
       </c>
       <c r="C109" t="n">
-        <v>2.33971</v>
+        <v>2.30447</v>
       </c>
       <c r="D109" t="n">
-        <v>4.05064</v>
+        <v>4.00847</v>
       </c>
       <c r="E109" t="n">
-        <v>1.00332</v>
+        <v>1.03061</v>
       </c>
       <c r="F109" t="n">
-        <v>2.99789</v>
+        <v>2.99488</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42783</v>
+        <v>1.33772</v>
       </c>
       <c r="C110" t="n">
-        <v>3.4541</v>
+        <v>3.39408</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97999</v>
+        <v>4.03104</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0225</v>
+        <v>1.03606</v>
       </c>
       <c r="F110" t="n">
-        <v>2.92588</v>
+        <v>2.90563</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4104</v>
+        <v>1.32438</v>
       </c>
       <c r="C111" t="n">
-        <v>3.3788</v>
+        <v>3.31423</v>
       </c>
       <c r="D111" t="n">
-        <v>3.96047</v>
+        <v>3.90668</v>
       </c>
       <c r="E111" t="n">
-        <v>1.01345</v>
+        <v>1.04544</v>
       </c>
       <c r="F111" t="n">
-        <v>2.86359</v>
+        <v>2.90248</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.35181</v>
+        <v>1.27888</v>
       </c>
       <c r="C112" t="n">
-        <v>3.30534</v>
+        <v>3.27444</v>
       </c>
       <c r="D112" t="n">
-        <v>3.95093</v>
+        <v>3.78065</v>
       </c>
       <c r="E112" t="n">
-        <v>1.01117</v>
+        <v>1.02147</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79292</v>
+        <v>2.79282</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36722</v>
+        <v>1.28325</v>
       </c>
       <c r="C113" t="n">
-        <v>3.18008</v>
+        <v>3.17276</v>
       </c>
       <c r="D113" t="n">
-        <v>3.75397</v>
+        <v>3.74025</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01673</v>
+        <v>0.994125</v>
       </c>
       <c r="F113" t="n">
-        <v>2.76896</v>
+        <v>2.7145</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3665</v>
+        <v>1.25868</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14652</v>
+        <v>3.1313</v>
       </c>
       <c r="D114" t="n">
-        <v>3.74576</v>
+        <v>3.66576</v>
       </c>
       <c r="E114" t="n">
-        <v>0.956162</v>
+        <v>1.02105</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66212</v>
+        <v>2.66259</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35415</v>
+        <v>1.2511</v>
       </c>
       <c r="C115" t="n">
-        <v>3.14981</v>
+        <v>3.05351</v>
       </c>
       <c r="D115" t="n">
-        <v>3.67925</v>
+        <v>3.69317</v>
       </c>
       <c r="E115" t="n">
-        <v>0.953752</v>
+        <v>0.9717519999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>2.58979</v>
+        <v>2.62219</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30814</v>
+        <v>1.27189</v>
       </c>
       <c r="C116" t="n">
-        <v>3.04873</v>
+        <v>3.0656</v>
       </c>
       <c r="D116" t="n">
-        <v>3.60757</v>
+        <v>3.69957</v>
       </c>
       <c r="E116" t="n">
-        <v>1.00222</v>
+        <v>1.01515</v>
       </c>
       <c r="F116" t="n">
-        <v>2.57</v>
+        <v>2.55363</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30498</v>
+        <v>1.24382</v>
       </c>
       <c r="C117" t="n">
-        <v>2.98347</v>
+        <v>2.97264</v>
       </c>
       <c r="D117" t="n">
-        <v>3.56574</v>
+        <v>3.58259</v>
       </c>
       <c r="E117" t="n">
-        <v>0.966675</v>
+        <v>0.972339</v>
       </c>
       <c r="F117" t="n">
-        <v>2.51509</v>
+        <v>2.4952</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3092</v>
+        <v>1.24842</v>
       </c>
       <c r="C118" t="n">
-        <v>2.94911</v>
+        <v>2.95292</v>
       </c>
       <c r="D118" t="n">
-        <v>3.50479</v>
+        <v>3.56431</v>
       </c>
       <c r="E118" t="n">
-        <v>0.939754</v>
+        <v>0.973305</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43692</v>
+        <v>2.46284</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28622</v>
+        <v>1.23065</v>
       </c>
       <c r="C119" t="n">
-        <v>2.86083</v>
+        <v>2.91009</v>
       </c>
       <c r="D119" t="n">
-        <v>3.45628</v>
+        <v>3.51007</v>
       </c>
       <c r="E119" t="n">
-        <v>0.93458</v>
+        <v>0.981634</v>
       </c>
       <c r="F119" t="n">
-        <v>2.43527</v>
+        <v>2.4054</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2943</v>
+        <v>1.22793</v>
       </c>
       <c r="C120" t="n">
-        <v>2.80829</v>
+        <v>2.86357</v>
       </c>
       <c r="D120" t="n">
-        <v>3.44937</v>
+        <v>3.49707</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9116</v>
+        <v>0.924786</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36536</v>
+        <v>2.36376</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.30072</v>
+        <v>1.20428</v>
       </c>
       <c r="C121" t="n">
-        <v>2.80846</v>
+        <v>2.82502</v>
       </c>
       <c r="D121" t="n">
-        <v>4.78357</v>
+        <v>4.80434</v>
       </c>
       <c r="E121" t="n">
-        <v>0.933023</v>
+        <v>0.928226</v>
       </c>
       <c r="F121" t="n">
-        <v>2.32912</v>
+        <v>2.33661</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2874</v>
+        <v>1.23474</v>
       </c>
       <c r="C122" t="n">
-        <v>2.7601</v>
+        <v>2.79702</v>
       </c>
       <c r="D122" t="n">
-        <v>4.67059</v>
+        <v>4.67666</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9396099999999999</v>
+        <v>0.9566</v>
       </c>
       <c r="F122" t="n">
-        <v>2.28346</v>
+        <v>2.29415</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27097</v>
+        <v>1.19403</v>
       </c>
       <c r="C123" t="n">
-        <v>2.74013</v>
+        <v>2.73743</v>
       </c>
       <c r="D123" t="n">
-        <v>4.58431</v>
+        <v>4.5617</v>
       </c>
       <c r="E123" t="n">
-        <v>1.23172</v>
+        <v>1.24392</v>
       </c>
       <c r="F123" t="n">
-        <v>3.50101</v>
+        <v>3.52847</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58085</v>
+        <v>1.54598</v>
       </c>
       <c r="C124" t="n">
-        <v>3.97246</v>
+        <v>4.00424</v>
       </c>
       <c r="D124" t="n">
-        <v>4.51048</v>
+        <v>4.50303</v>
       </c>
       <c r="E124" t="n">
-        <v>1.24143</v>
+        <v>1.24495</v>
       </c>
       <c r="F124" t="n">
-        <v>3.44926</v>
+        <v>3.44056</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58352</v>
+        <v>1.51953</v>
       </c>
       <c r="C125" t="n">
-        <v>3.89206</v>
+        <v>3.9384</v>
       </c>
       <c r="D125" t="n">
-        <v>4.37148</v>
+        <v>4.42523</v>
       </c>
       <c r="E125" t="n">
-        <v>1.23736</v>
+        <v>1.23469</v>
       </c>
       <c r="F125" t="n">
-        <v>3.35754</v>
+        <v>3.40424</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56132</v>
+        <v>1.49318</v>
       </c>
       <c r="C126" t="n">
-        <v>3.82759</v>
+        <v>3.83333</v>
       </c>
       <c r="D126" t="n">
-        <v>4.34077</v>
+        <v>4.34902</v>
       </c>
       <c r="E126" t="n">
-        <v>1.2597</v>
+        <v>1.25912</v>
       </c>
       <c r="F126" t="n">
-        <v>3.29046</v>
+        <v>3.28285</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57175</v>
+        <v>1.52603</v>
       </c>
       <c r="C127" t="n">
-        <v>3.72349</v>
+        <v>3.75446</v>
       </c>
       <c r="D127" t="n">
-        <v>4.2838</v>
+        <v>4.25883</v>
       </c>
       <c r="E127" t="n">
-        <v>1.25459</v>
+        <v>1.293</v>
       </c>
       <c r="F127" t="n">
-        <v>3.22692</v>
+        <v>3.20485</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5694</v>
+        <v>1.50046</v>
       </c>
       <c r="C128" t="n">
-        <v>3.67909</v>
+        <v>3.67223</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2519</v>
+        <v>4.24418</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25464</v>
+        <v>1.28529</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11849</v>
+        <v>3.15426</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.56019</v>
+        <v>1.51758</v>
       </c>
       <c r="C129" t="n">
-        <v>3.63092</v>
+        <v>3.67926</v>
       </c>
       <c r="D129" t="n">
-        <v>4.1597</v>
+        <v>4.17479</v>
       </c>
       <c r="E129" t="n">
-        <v>1.25565</v>
+        <v>1.25803</v>
       </c>
       <c r="F129" t="n">
-        <v>3.09018</v>
+        <v>3.10026</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.53971</v>
+        <v>1.47447</v>
       </c>
       <c r="C130" t="n">
-        <v>3.56111</v>
+        <v>3.56378</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10859</v>
+        <v>4.10096</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23636</v>
+        <v>1.27963</v>
       </c>
       <c r="F130" t="n">
-        <v>3.05208</v>
+        <v>3.04242</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.554</v>
+        <v>1.4863</v>
       </c>
       <c r="C131" t="n">
-        <v>3.47634</v>
+        <v>3.47438</v>
       </c>
       <c r="D131" t="n">
-        <v>4.06389</v>
+        <v>4.06571</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26167</v>
+        <v>1.26907</v>
       </c>
       <c r="F131" t="n">
-        <v>2.9689</v>
+        <v>2.96565</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55494</v>
+        <v>1.50221</v>
       </c>
       <c r="C132" t="n">
-        <v>3.41567</v>
+        <v>3.42458</v>
       </c>
       <c r="D132" t="n">
-        <v>4.0226</v>
+        <v>4.02562</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24682</v>
+        <v>1.26945</v>
       </c>
       <c r="F132" t="n">
-        <v>2.90879</v>
+        <v>2.91571</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55389</v>
+        <v>1.47975</v>
       </c>
       <c r="C133" t="n">
-        <v>3.38308</v>
+        <v>3.41314</v>
       </c>
       <c r="D133" t="n">
-        <v>3.9872</v>
+        <v>4.00926</v>
       </c>
       <c r="E133" t="n">
-        <v>1.25491</v>
+        <v>1.28125</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84977</v>
+        <v>2.8561</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.52573</v>
+        <v>1.50819</v>
       </c>
       <c r="C134" t="n">
-        <v>3.37096</v>
+        <v>3.33584</v>
       </c>
       <c r="D134" t="n">
-        <v>3.95104</v>
+        <v>3.96066</v>
       </c>
       <c r="E134" t="n">
-        <v>1.23444</v>
+        <v>1.26477</v>
       </c>
       <c r="F134" t="n">
-        <v>2.80208</v>
+        <v>2.8004</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.5593</v>
+        <v>1.49689</v>
       </c>
       <c r="C135" t="n">
-        <v>3.27269</v>
+        <v>3.28683</v>
       </c>
       <c r="D135" t="n">
-        <v>5.45972</v>
+        <v>5.54038</v>
       </c>
       <c r="E135" t="n">
-        <v>1.23075</v>
+        <v>1.26207</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75729</v>
+        <v>2.8019</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.56553</v>
+        <v>1.47339</v>
       </c>
       <c r="C136" t="n">
-        <v>3.1949</v>
+        <v>3.24741</v>
       </c>
       <c r="D136" t="n">
-        <v>5.32337</v>
+        <v>5.38435</v>
       </c>
       <c r="E136" t="n">
-        <v>1.24118</v>
+        <v>1.2841</v>
       </c>
       <c r="F136" t="n">
-        <v>2.75504</v>
+        <v>2.74818</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.56406</v>
+        <v>1.47014</v>
       </c>
       <c r="C137" t="n">
-        <v>3.21457</v>
+        <v>3.22144</v>
       </c>
       <c r="D137" t="n">
-        <v>5.23103</v>
+        <v>5.28801</v>
       </c>
       <c r="E137" t="n">
-        <v>1.59151</v>
+        <v>1.61164</v>
       </c>
       <c r="F137" t="n">
-        <v>4.14725</v>
+        <v>4.13836</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.84431</v>
+        <v>1.8194</v>
       </c>
       <c r="C138" t="n">
-        <v>4.61619</v>
+        <v>4.62795</v>
       </c>
       <c r="D138" t="n">
-        <v>5.16643</v>
+        <v>5.18775</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57481</v>
+        <v>1.61854</v>
       </c>
       <c r="F138" t="n">
-        <v>3.95618</v>
+        <v>4.01021</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85699</v>
+        <v>1.78834</v>
       </c>
       <c r="C139" t="n">
-        <v>4.53914</v>
+        <v>4.5338</v>
       </c>
       <c r="D139" t="n">
-        <v>5.04912</v>
+        <v>5.08685</v>
       </c>
       <c r="E139" t="n">
-        <v>1.57779</v>
+        <v>1.58157</v>
       </c>
       <c r="F139" t="n">
-        <v>3.92055</v>
+        <v>3.94019</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.84613</v>
+        <v>1.81513</v>
       </c>
       <c r="C140" t="n">
-        <v>4.39095</v>
+        <v>4.49002</v>
       </c>
       <c r="D140" t="n">
-        <v>4.99036</v>
+        <v>5.01284</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57948</v>
+        <v>1.61895</v>
       </c>
       <c r="F140" t="n">
-        <v>3.81256</v>
+        <v>3.86349</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.81761</v>
+        <v>1.77057</v>
       </c>
       <c r="C141" t="n">
-        <v>4.29797</v>
+        <v>4.35077</v>
       </c>
       <c r="D141" t="n">
-        <v>4.86895</v>
+        <v>4.93701</v>
       </c>
       <c r="E141" t="n">
-        <v>1.58084</v>
+        <v>1.61036</v>
       </c>
       <c r="F141" t="n">
-        <v>3.74341</v>
+        <v>3.81298</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86125</v>
+        <v>1.77829</v>
       </c>
       <c r="C142" t="n">
-        <v>4.21</v>
+        <v>4.24878</v>
       </c>
       <c r="D142" t="n">
-        <v>4.80107</v>
+        <v>4.82342</v>
       </c>
       <c r="E142" t="n">
-        <v>1.58794</v>
+        <v>1.60448</v>
       </c>
       <c r="F142" t="n">
-        <v>3.64256</v>
+        <v>3.67371</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84139</v>
+        <v>1.77708</v>
       </c>
       <c r="C143" t="n">
-        <v>4.18315</v>
+        <v>4.22846</v>
       </c>
       <c r="D143" t="n">
-        <v>4.72921</v>
+        <v>4.77781</v>
       </c>
       <c r="E143" t="n">
-        <v>1.59682</v>
+        <v>1.62018</v>
       </c>
       <c r="F143" t="n">
-        <v>3.58543</v>
+        <v>3.62379</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.496742</v>
+        <v>0.486603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.804867</v>
+        <v>0.789174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7743139999999999</v>
+        <v>0.755972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.207242</v>
+        <v>0.205511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.614185</v>
+        <v>0.597364</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.422807</v>
+        <v>0.409864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.800204</v>
+        <v>0.7784489999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.761924</v>
+        <v>0.745793</v>
       </c>
       <c r="E3" t="n">
-        <v>0.199077</v>
+        <v>0.2105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.574321</v>
+        <v>0.580503</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.398893</v>
+        <v>0.402914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.808717</v>
+        <v>0.792143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.783069</v>
+        <v>0.743851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.194244</v>
+        <v>0.193772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.568827</v>
+        <v>0.5832079999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.394287</v>
+        <v>0.425186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.762047</v>
+        <v>0.778599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.759731</v>
+        <v>0.741961</v>
       </c>
       <c r="E5" t="n">
-        <v>0.188223</v>
+        <v>0.190685</v>
       </c>
       <c r="F5" t="n">
-        <v>0.562981</v>
+        <v>0.576771</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.394849</v>
+        <v>0.39455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.759817</v>
+        <v>0.766629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.749236</v>
+        <v>0.74117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.192207</v>
+        <v>0.188073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574249</v>
+        <v>0.570949</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3836</v>
+        <v>0.388658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.74803</v>
+        <v>0.762067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.898089</v>
+        <v>0.894292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.184022</v>
+        <v>0.184406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5543439999999999</v>
+        <v>0.568184</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.386945</v>
+        <v>0.388466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.755854</v>
+        <v>0.755674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.890578</v>
+        <v>0.8926230000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.180045</v>
+        <v>0.182486</v>
       </c>
       <c r="F8" t="n">
-        <v>0.579358</v>
+        <v>0.5798179999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.38116</v>
+        <v>0.385827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75359</v>
+        <v>0.759548</v>
       </c>
       <c r="D9" t="n">
-        <v>0.905131</v>
+        <v>0.87216</v>
       </c>
       <c r="E9" t="n">
-        <v>0.263186</v>
+        <v>0.264859</v>
       </c>
       <c r="F9" t="n">
-        <v>0.640557</v>
+        <v>0.66112</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.46722</v>
+        <v>0.471464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.856776</v>
+        <v>0.850046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.862013</v>
+        <v>0.856132</v>
       </c>
       <c r="E10" t="n">
-        <v>0.252572</v>
+        <v>0.25712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6355189999999999</v>
+        <v>0.651608</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.459136</v>
+        <v>0.466177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.854557</v>
+        <v>0.854652</v>
       </c>
       <c r="D11" t="n">
-        <v>0.868989</v>
+        <v>0.851154</v>
       </c>
       <c r="E11" t="n">
-        <v>0.245242</v>
+        <v>0.249781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.632843</v>
+        <v>0.6515649999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.448129</v>
+        <v>0.486245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8415010000000001</v>
+        <v>0.852537</v>
       </c>
       <c r="D12" t="n">
-        <v>0.873958</v>
+        <v>0.831862</v>
       </c>
       <c r="E12" t="n">
-        <v>0.240059</v>
+        <v>0.240484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.624146</v>
+        <v>0.639689</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.444444</v>
+        <v>0.451925</v>
       </c>
       <c r="C13" t="n">
-        <v>0.824637</v>
+        <v>0.834945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8338680000000001</v>
+        <v>0.831075</v>
       </c>
       <c r="E13" t="n">
-        <v>0.231539</v>
+        <v>0.233939</v>
       </c>
       <c r="F13" t="n">
-        <v>0.625753</v>
+        <v>0.629659</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.441896</v>
+        <v>0.444982</v>
       </c>
       <c r="C14" t="n">
-        <v>0.825354</v>
+        <v>0.827334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.854971</v>
+        <v>0.81398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.225074</v>
+        <v>0.239561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.62452</v>
+        <v>0.630392</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.435182</v>
+        <v>0.441154</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8192970000000001</v>
+        <v>0.820311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.824866</v>
+        <v>0.807307</v>
       </c>
       <c r="E15" t="n">
-        <v>0.219016</v>
+        <v>0.219777</v>
       </c>
       <c r="F15" t="n">
-        <v>0.626623</v>
+        <v>0.617495</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439445</v>
+        <v>0.432618</v>
       </c>
       <c r="C16" t="n">
-        <v>0.827521</v>
+        <v>0.841844</v>
       </c>
       <c r="D16" t="n">
-        <v>0.826999</v>
+        <v>0.82553</v>
       </c>
       <c r="E16" t="n">
-        <v>0.214038</v>
+        <v>0.214305</v>
       </c>
       <c r="F16" t="n">
-        <v>0.605369</v>
+        <v>0.619256</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.423374</v>
+        <v>0.426464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.803904</v>
+        <v>0.812958</v>
       </c>
       <c r="D17" t="n">
-        <v>0.831457</v>
+        <v>0.808821</v>
       </c>
       <c r="E17" t="n">
-        <v>0.206067</v>
+        <v>0.209658</v>
       </c>
       <c r="F17" t="n">
-        <v>0.600257</v>
+        <v>0.6328819999999999</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.417509</v>
+        <v>0.419664</v>
       </c>
       <c r="C18" t="n">
-        <v>0.829761</v>
+        <v>0.805177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.822472</v>
+        <v>0.796447</v>
       </c>
       <c r="E18" t="n">
-        <v>0.206385</v>
+        <v>0.20343</v>
       </c>
       <c r="F18" t="n">
-        <v>0.614533</v>
+        <v>0.608021</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.41983</v>
+        <v>0.419908</v>
       </c>
       <c r="C19" t="n">
-        <v>0.79291</v>
+        <v>0.802686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.806546</v>
+        <v>0.798474</v>
       </c>
       <c r="E19" t="n">
-        <v>0.196729</v>
+        <v>0.198929</v>
       </c>
       <c r="F19" t="n">
-        <v>0.592767</v>
+        <v>0.599912</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.406692</v>
+        <v>0.417054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.803118</v>
+        <v>0.804478</v>
       </c>
       <c r="D20" t="n">
-        <v>0.813213</v>
+        <v>0.790312</v>
       </c>
       <c r="E20" t="n">
-        <v>0.193868</v>
+        <v>0.195049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.59055</v>
+        <v>0.603248</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423473</v>
+        <v>0.410006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.786871</v>
+        <v>0.791879</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9657559999999999</v>
+        <v>0.953439</v>
       </c>
       <c r="E21" t="n">
-        <v>0.190566</v>
+        <v>0.192585</v>
       </c>
       <c r="F21" t="n">
-        <v>0.584615</v>
+        <v>0.595285</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.403284</v>
+        <v>0.406328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.788722</v>
+        <v>0.789268</v>
       </c>
       <c r="D22" t="n">
-        <v>0.979942</v>
+        <v>0.9356719999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.190924</v>
+        <v>0.19016</v>
       </c>
       <c r="F22" t="n">
-        <v>0.588739</v>
+        <v>0.600718</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.43412</v>
+        <v>0.405058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.794867</v>
+        <v>0.776686</v>
       </c>
       <c r="D23" t="n">
-        <v>0.937883</v>
+        <v>0.916195</v>
       </c>
       <c r="E23" t="n">
-        <v>0.446527</v>
+        <v>0.43281</v>
       </c>
       <c r="F23" t="n">
-        <v>0.695004</v>
+        <v>0.684214</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.646629</v>
+        <v>0.650991</v>
       </c>
       <c r="C24" t="n">
-        <v>0.894691</v>
+        <v>0.88432</v>
       </c>
       <c r="D24" t="n">
-        <v>0.941277</v>
+        <v>0.90205</v>
       </c>
       <c r="E24" t="n">
-        <v>0.416467</v>
+        <v>0.416762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.666025</v>
+        <v>0.690785</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6471519999999999</v>
+        <v>0.624213</v>
       </c>
       <c r="C25" t="n">
-        <v>0.888954</v>
+        <v>0.877506</v>
       </c>
       <c r="D25" t="n">
-        <v>0.927399</v>
+        <v>0.894313</v>
       </c>
       <c r="E25" t="n">
-        <v>0.404886</v>
+        <v>0.401255</v>
       </c>
       <c r="F25" t="n">
-        <v>0.663649</v>
+        <v>0.685034</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.627153</v>
+        <v>0.610755</v>
       </c>
       <c r="C26" t="n">
-        <v>0.887834</v>
+        <v>0.875956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.927884</v>
+        <v>0.885442</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388794</v>
+        <v>0.383849</v>
       </c>
       <c r="F26" t="n">
-        <v>0.649325</v>
+        <v>0.6630509999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.612864</v>
+        <v>0.598595</v>
       </c>
       <c r="C27" t="n">
-        <v>0.866808</v>
+        <v>0.874031</v>
       </c>
       <c r="D27" t="n">
-        <v>0.919899</v>
+        <v>0.868131</v>
       </c>
       <c r="E27" t="n">
-        <v>0.374949</v>
+        <v>0.376819</v>
       </c>
       <c r="F27" t="n">
-        <v>0.673507</v>
+        <v>0.6566959999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.596132</v>
+        <v>0.585664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.877922</v>
+        <v>0.8627</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9175</v>
+        <v>0.868934</v>
       </c>
       <c r="E28" t="n">
-        <v>0.361158</v>
+        <v>0.358398</v>
       </c>
       <c r="F28" t="n">
-        <v>0.637397</v>
+        <v>0.654827</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.580013</v>
+        <v>0.5892770000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.853542</v>
+        <v>0.859448</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8800750000000001</v>
+        <v>0.86265</v>
       </c>
       <c r="E29" t="n">
-        <v>0.347954</v>
+        <v>0.347096</v>
       </c>
       <c r="F29" t="n">
-        <v>0.641666</v>
+        <v>0.645424</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.574162</v>
+        <v>0.562375</v>
       </c>
       <c r="C30" t="n">
-        <v>0.887454</v>
+        <v>0.840809</v>
       </c>
       <c r="D30" t="n">
-        <v>0.870447</v>
+        <v>0.844359</v>
       </c>
       <c r="E30" t="n">
-        <v>0.338115</v>
+        <v>0.335368</v>
       </c>
       <c r="F30" t="n">
-        <v>0.639142</v>
+        <v>0.648035</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.55693</v>
+        <v>0.556549</v>
       </c>
       <c r="C31" t="n">
-        <v>0.839958</v>
+        <v>0.83835</v>
       </c>
       <c r="D31" t="n">
-        <v>0.88991</v>
+        <v>0.852025</v>
       </c>
       <c r="E31" t="n">
-        <v>0.324129</v>
+        <v>0.327161</v>
       </c>
       <c r="F31" t="n">
-        <v>0.629445</v>
+        <v>0.633621</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.548839</v>
+        <v>0.543085</v>
       </c>
       <c r="C32" t="n">
-        <v>0.839403</v>
+        <v>0.838464</v>
       </c>
       <c r="D32" t="n">
-        <v>0.854217</v>
+        <v>0.841886</v>
       </c>
       <c r="E32" t="n">
-        <v>0.315206</v>
+        <v>0.314501</v>
       </c>
       <c r="F32" t="n">
-        <v>0.620274</v>
+        <v>0.656241</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.530139</v>
+        <v>0.539382</v>
       </c>
       <c r="C33" t="n">
-        <v>0.833437</v>
+        <v>0.831389</v>
       </c>
       <c r="D33" t="n">
-        <v>0.845584</v>
+        <v>0.830751</v>
       </c>
       <c r="E33" t="n">
-        <v>0.304872</v>
+        <v>0.307324</v>
       </c>
       <c r="F33" t="n">
-        <v>0.602195</v>
+        <v>0.627306</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.524008</v>
+        <v>0.5276690000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822541</v>
+        <v>0.828454</v>
       </c>
       <c r="D34" t="n">
-        <v>0.839021</v>
+        <v>0.826105</v>
       </c>
       <c r="E34" t="n">
-        <v>0.301462</v>
+        <v>0.299694</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6218590000000001</v>
+        <v>0.633672</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.531083</v>
+        <v>0.513375</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8322040000000001</v>
+        <v>0.821221</v>
       </c>
       <c r="D35" t="n">
-        <v>1.14361</v>
+        <v>1.11056</v>
       </c>
       <c r="E35" t="n">
-        <v>0.289219</v>
+        <v>0.289314</v>
       </c>
       <c r="F35" t="n">
-        <v>0.607762</v>
+        <v>0.646566</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.506814</v>
+        <v>0.5084109999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8227989999999999</v>
+        <v>0.815259</v>
       </c>
       <c r="D36" t="n">
-        <v>1.12449</v>
+        <v>1.06432</v>
       </c>
       <c r="E36" t="n">
-        <v>0.282556</v>
+        <v>0.283133</v>
       </c>
       <c r="F36" t="n">
-        <v>0.627792</v>
+        <v>0.6208900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.510367</v>
+        <v>0.517208</v>
       </c>
       <c r="C37" t="n">
-        <v>0.842867</v>
+        <v>0.817977</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06234</v>
+        <v>1.05619</v>
       </c>
       <c r="E37" t="n">
-        <v>0.547611</v>
+        <v>0.537015</v>
       </c>
       <c r="F37" t="n">
-        <v>0.859024</v>
+        <v>0.841642</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7645110000000001</v>
+        <v>0.758632</v>
       </c>
       <c r="C38" t="n">
-        <v>1.07225</v>
+        <v>1.05642</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0274</v>
+        <v>1.07547</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5333329999999999</v>
+        <v>0.513738</v>
       </c>
       <c r="F38" t="n">
-        <v>0.821667</v>
+        <v>0.851225</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.742957</v>
+        <v>0.734659</v>
       </c>
       <c r="C39" t="n">
-        <v>1.07484</v>
+        <v>1.05184</v>
       </c>
       <c r="D39" t="n">
-        <v>1.01029</v>
+        <v>1.03581</v>
       </c>
       <c r="E39" t="n">
-        <v>0.50206</v>
+        <v>0.494144</v>
       </c>
       <c r="F39" t="n">
-        <v>0.820358</v>
+        <v>0.8199959999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.769031</v>
+        <v>0.718224</v>
       </c>
       <c r="C40" t="n">
-        <v>1.05511</v>
+        <v>1.03007</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00294</v>
+        <v>0.993397</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4819</v>
+        <v>0.476133</v>
       </c>
       <c r="F40" t="n">
-        <v>0.809443</v>
+        <v>0.834565</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.719037</v>
+        <v>0.704954</v>
       </c>
       <c r="C41" t="n">
-        <v>1.04197</v>
+        <v>1.02198</v>
       </c>
       <c r="D41" t="n">
-        <v>0.99391</v>
+        <v>0.9891990000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.462425</v>
+        <v>0.461778</v>
       </c>
       <c r="F41" t="n">
-        <v>0.790375</v>
+        <v>0.804353</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.693704</v>
+        <v>0.686431</v>
       </c>
       <c r="C42" t="n">
-        <v>1.03405</v>
+        <v>1.00128</v>
       </c>
       <c r="D42" t="n">
-        <v>0.987609</v>
+        <v>0.989105</v>
       </c>
       <c r="E42" t="n">
-        <v>0.446241</v>
+        <v>0.446656</v>
       </c>
       <c r="F42" t="n">
-        <v>0.768296</v>
+        <v>0.796784</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.682657</v>
+        <v>0.691706</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01486</v>
+        <v>1.01726</v>
       </c>
       <c r="D43" t="n">
-        <v>0.980021</v>
+        <v>0.979535</v>
       </c>
       <c r="E43" t="n">
-        <v>0.431397</v>
+        <v>0.430449</v>
       </c>
       <c r="F43" t="n">
-        <v>0.788776</v>
+        <v>0.776794</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.671609</v>
+        <v>0.659405</v>
       </c>
       <c r="C44" t="n">
-        <v>0.994831</v>
+        <v>0.986449</v>
       </c>
       <c r="D44" t="n">
-        <v>0.975428</v>
+        <v>0.965016</v>
       </c>
       <c r="E44" t="n">
-        <v>0.421327</v>
+        <v>0.413231</v>
       </c>
       <c r="F44" t="n">
-        <v>0.748592</v>
+        <v>0.76836</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.64775</v>
+        <v>0.660374</v>
       </c>
       <c r="C45" t="n">
-        <v>0.974145</v>
+        <v>0.972101</v>
       </c>
       <c r="D45" t="n">
-        <v>0.957019</v>
+        <v>0.9539069999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.411814</v>
+        <v>0.396606</v>
       </c>
       <c r="F45" t="n">
-        <v>0.73031</v>
+        <v>0.763249</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639653</v>
+        <v>0.626986</v>
       </c>
       <c r="C46" t="n">
-        <v>0.978259</v>
+        <v>0.9565360000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.95458</v>
+        <v>0.959571</v>
       </c>
       <c r="E46" t="n">
-        <v>0.38781</v>
+        <v>0.385524</v>
       </c>
       <c r="F46" t="n">
-        <v>0.739023</v>
+        <v>0.757863</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6092030000000001</v>
+        <v>0.615625</v>
       </c>
       <c r="C47" t="n">
-        <v>0.964011</v>
+        <v>0.941663</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9803770000000001</v>
+        <v>0.951437</v>
       </c>
       <c r="E47" t="n">
-        <v>0.375304</v>
+        <v>0.379743</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7189950000000001</v>
+        <v>0.75017</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.607782</v>
+        <v>0.60131</v>
       </c>
       <c r="C48" t="n">
-        <v>0.963239</v>
+        <v>0.935328</v>
       </c>
       <c r="D48" t="n">
-        <v>0.949572</v>
+        <v>0.966276</v>
       </c>
       <c r="E48" t="n">
-        <v>0.371727</v>
+        <v>0.363017</v>
       </c>
       <c r="F48" t="n">
-        <v>0.708376</v>
+        <v>0.752262</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.58695</v>
+        <v>0.584991</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9548680000000001</v>
+        <v>0.929104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.950115</v>
+        <v>0.983146</v>
       </c>
       <c r="E49" t="n">
-        <v>0.35106</v>
+        <v>0.34911</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7242729999999999</v>
+        <v>0.74433</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.613475</v>
+        <v>0.596278</v>
       </c>
       <c r="C50" t="n">
-        <v>0.95313</v>
+        <v>0.925251</v>
       </c>
       <c r="D50" t="n">
-        <v>1.47016</v>
+        <v>1.46434</v>
       </c>
       <c r="E50" t="n">
-        <v>0.339794</v>
+        <v>0.353227</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6887760000000001</v>
+        <v>0.740057</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.565037</v>
+        <v>0.568732</v>
       </c>
       <c r="C51" t="n">
-        <v>0.932486</v>
+        <v>0.936835</v>
       </c>
       <c r="D51" t="n">
-        <v>1.45207</v>
+        <v>1.4531</v>
       </c>
       <c r="E51" t="n">
-        <v>0.608565</v>
+        <v>0.597922</v>
       </c>
       <c r="F51" t="n">
-        <v>1.08502</v>
+        <v>1.15727</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5554210000000001</v>
+        <v>0.558066</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9662500000000001</v>
+        <v>0.915161</v>
       </c>
       <c r="D52" t="n">
-        <v>1.43457</v>
+        <v>1.42989</v>
       </c>
       <c r="E52" t="n">
-        <v>0.587327</v>
+        <v>0.575446</v>
       </c>
       <c r="F52" t="n">
-        <v>1.07911</v>
+        <v>1.12947</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.817424</v>
+        <v>0.811439</v>
       </c>
       <c r="C53" t="n">
-        <v>1.39196</v>
+        <v>1.34251</v>
       </c>
       <c r="D53" t="n">
-        <v>1.44566</v>
+        <v>1.41209</v>
       </c>
       <c r="E53" t="n">
-        <v>0.577516</v>
+        <v>0.561693</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0517</v>
+        <v>1.10295</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.796647</v>
+        <v>0.793974</v>
       </c>
       <c r="C54" t="n">
-        <v>1.38037</v>
+        <v>1.31622</v>
       </c>
       <c r="D54" t="n">
-        <v>1.44425</v>
+        <v>1.38543</v>
       </c>
       <c r="E54" t="n">
-        <v>0.543241</v>
+        <v>0.544795</v>
       </c>
       <c r="F54" t="n">
-        <v>1.02038</v>
+        <v>1.06026</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.78404</v>
+        <v>0.7785</v>
       </c>
       <c r="C55" t="n">
-        <v>1.32321</v>
+        <v>1.2957</v>
       </c>
       <c r="D55" t="n">
-        <v>1.39947</v>
+        <v>1.39036</v>
       </c>
       <c r="E55" t="n">
-        <v>0.528226</v>
+        <v>0.526766</v>
       </c>
       <c r="F55" t="n">
-        <v>1.00158</v>
+        <v>1.05994</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.773597</v>
+        <v>0.765634</v>
       </c>
       <c r="C56" t="n">
-        <v>1.32665</v>
+        <v>1.27774</v>
       </c>
       <c r="D56" t="n">
-        <v>1.37879</v>
+        <v>1.37504</v>
       </c>
       <c r="E56" t="n">
-        <v>0.516885</v>
+        <v>0.512537</v>
       </c>
       <c r="F56" t="n">
-        <v>0.988637</v>
+        <v>1.07259</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7524</v>
+        <v>0.751317</v>
       </c>
       <c r="C57" t="n">
-        <v>1.33845</v>
+        <v>1.2664</v>
       </c>
       <c r="D57" t="n">
-        <v>1.38299</v>
+        <v>1.37815</v>
       </c>
       <c r="E57" t="n">
-        <v>0.498884</v>
+        <v>0.5127159999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.977639</v>
+        <v>1.02884</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.744771</v>
+        <v>0.740832</v>
       </c>
       <c r="C58" t="n">
-        <v>1.3195</v>
+        <v>1.25726</v>
       </c>
       <c r="D58" t="n">
-        <v>1.41688</v>
+        <v>1.32159</v>
       </c>
       <c r="E58" t="n">
-        <v>0.497384</v>
+        <v>0.484283</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9475479999999999</v>
+        <v>1.0105</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.749928</v>
+        <v>0.72283</v>
       </c>
       <c r="C59" t="n">
-        <v>1.2955</v>
+        <v>1.20469</v>
       </c>
       <c r="D59" t="n">
-        <v>1.35855</v>
+        <v>1.28704</v>
       </c>
       <c r="E59" t="n">
-        <v>0.472968</v>
+        <v>0.467769</v>
       </c>
       <c r="F59" t="n">
-        <v>0.933307</v>
+        <v>1.02332</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.721617</v>
+        <v>0.718997</v>
       </c>
       <c r="C60" t="n">
-        <v>1.27742</v>
+        <v>1.21876</v>
       </c>
       <c r="D60" t="n">
-        <v>1.36504</v>
+        <v>1.3068</v>
       </c>
       <c r="E60" t="n">
-        <v>0.456652</v>
+        <v>0.459847</v>
       </c>
       <c r="F60" t="n">
-        <v>0.927808</v>
+        <v>1.01214</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7223579999999999</v>
+        <v>0.706135</v>
       </c>
       <c r="C61" t="n">
-        <v>1.29409</v>
+        <v>1.21459</v>
       </c>
       <c r="D61" t="n">
-        <v>1.31425</v>
+        <v>1.28879</v>
       </c>
       <c r="E61" t="n">
-        <v>0.445789</v>
+        <v>0.446247</v>
       </c>
       <c r="F61" t="n">
-        <v>0.925415</v>
+        <v>0.982417</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.700498</v>
+        <v>0.693704</v>
       </c>
       <c r="C62" t="n">
-        <v>1.236</v>
+        <v>1.1866</v>
       </c>
       <c r="D62" t="n">
-        <v>1.35351</v>
+        <v>1.28525</v>
       </c>
       <c r="E62" t="n">
-        <v>0.436409</v>
+        <v>0.436982</v>
       </c>
       <c r="F62" t="n">
-        <v>0.907658</v>
+        <v>0.982509</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.689638</v>
+        <v>0.699424</v>
       </c>
       <c r="C63" t="n">
-        <v>1.28361</v>
+        <v>1.14519</v>
       </c>
       <c r="D63" t="n">
-        <v>1.35354</v>
+        <v>1.27932</v>
       </c>
       <c r="E63" t="n">
-        <v>0.429465</v>
+        <v>0.426003</v>
       </c>
       <c r="F63" t="n">
-        <v>0.898936</v>
+        <v>0.952535</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.681541</v>
+        <v>0.670474</v>
       </c>
       <c r="C64" t="n">
-        <v>1.23563</v>
+        <v>1.14464</v>
       </c>
       <c r="D64" t="n">
-        <v>2.43497</v>
+        <v>2.31689</v>
       </c>
       <c r="E64" t="n">
-        <v>0.417855</v>
+        <v>0.416881</v>
       </c>
       <c r="F64" t="n">
-        <v>0.924074</v>
+        <v>0.966561</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.669963</v>
+        <v>0.664079</v>
       </c>
       <c r="C65" t="n">
-        <v>1.21779</v>
+        <v>1.16084</v>
       </c>
       <c r="D65" t="n">
-        <v>2.41456</v>
+        <v>2.30703</v>
       </c>
       <c r="E65" t="n">
-        <v>0.409437</v>
+        <v>0.407405</v>
       </c>
       <c r="F65" t="n">
-        <v>0.904747</v>
+        <v>0.9655280000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.661534</v>
+        <v>0.654272</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20858</v>
+        <v>1.14908</v>
       </c>
       <c r="D66" t="n">
-        <v>2.25343</v>
+        <v>2.24836</v>
       </c>
       <c r="E66" t="n">
-        <v>0.685902</v>
+        <v>0.7043509999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>1.60752</v>
+        <v>1.67668</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9347760000000001</v>
+        <v>0.942344</v>
       </c>
       <c r="C67" t="n">
-        <v>1.97944</v>
+        <v>1.90496</v>
       </c>
       <c r="D67" t="n">
-        <v>2.1967</v>
+        <v>2.17959</v>
       </c>
       <c r="E67" t="n">
-        <v>0.655694</v>
+        <v>0.644741</v>
       </c>
       <c r="F67" t="n">
-        <v>1.54553</v>
+        <v>1.62108</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.92979</v>
+        <v>0.919215</v>
       </c>
       <c r="C68" t="n">
-        <v>1.98596</v>
+        <v>1.8468</v>
       </c>
       <c r="D68" t="n">
-        <v>2.2205</v>
+        <v>2.15472</v>
       </c>
       <c r="E68" t="n">
-        <v>0.638174</v>
+        <v>0.634207</v>
       </c>
       <c r="F68" t="n">
-        <v>1.46201</v>
+        <v>1.55268</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.916326</v>
+        <v>0.902574</v>
       </c>
       <c r="C69" t="n">
-        <v>1.8961</v>
+        <v>1.82442</v>
       </c>
       <c r="D69" t="n">
-        <v>2.13408</v>
+        <v>2.11715</v>
       </c>
       <c r="E69" t="n">
-        <v>0.612993</v>
+        <v>0.626908</v>
       </c>
       <c r="F69" t="n">
-        <v>1.46777</v>
+        <v>1.56369</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.893142</v>
+        <v>0.885853</v>
       </c>
       <c r="C70" t="n">
-        <v>1.87647</v>
+        <v>1.85503</v>
       </c>
       <c r="D70" t="n">
-        <v>2.24732</v>
+        <v>2.1066</v>
       </c>
       <c r="E70" t="n">
-        <v>0.601982</v>
+        <v>0.600821</v>
       </c>
       <c r="F70" t="n">
-        <v>1.43868</v>
+        <v>1.52455</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.867429</v>
+        <v>0.884262</v>
       </c>
       <c r="C71" t="n">
-        <v>1.79885</v>
+        <v>1.73149</v>
       </c>
       <c r="D71" t="n">
-        <v>2.1013</v>
+        <v>2.04786</v>
       </c>
       <c r="E71" t="n">
-        <v>0.580588</v>
+        <v>0.588442</v>
       </c>
       <c r="F71" t="n">
-        <v>1.40139</v>
+        <v>1.48967</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.853396</v>
+        <v>0.863793</v>
       </c>
       <c r="C72" t="n">
-        <v>1.74628</v>
+        <v>1.71266</v>
       </c>
       <c r="D72" t="n">
-        <v>2.10415</v>
+        <v>2.05081</v>
       </c>
       <c r="E72" t="n">
-        <v>0.579297</v>
+        <v>0.574013</v>
       </c>
       <c r="F72" t="n">
-        <v>1.35856</v>
+        <v>1.41615</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.841881</v>
+        <v>0.842683</v>
       </c>
       <c r="C73" t="n">
-        <v>1.75072</v>
+        <v>1.67332</v>
       </c>
       <c r="D73" t="n">
-        <v>2.06141</v>
+        <v>2.0171</v>
       </c>
       <c r="E73" t="n">
-        <v>0.551824</v>
+        <v>0.560792</v>
       </c>
       <c r="F73" t="n">
-        <v>1.34567</v>
+        <v>1.41149</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.836961</v>
+        <v>0.831573</v>
       </c>
       <c r="C74" t="n">
-        <v>1.73541</v>
+        <v>1.62124</v>
       </c>
       <c r="D74" t="n">
-        <v>2.01066</v>
+        <v>1.99406</v>
       </c>
       <c r="E74" t="n">
-        <v>0.566616</v>
+        <v>0.5452939999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1.31497</v>
+        <v>1.37294</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.848855</v>
+        <v>0.825429</v>
       </c>
       <c r="C75" t="n">
-        <v>1.68082</v>
+        <v>1.6167</v>
       </c>
       <c r="D75" t="n">
-        <v>2.00529</v>
+        <v>2.00314</v>
       </c>
       <c r="E75" t="n">
-        <v>0.523721</v>
+        <v>0.529405</v>
       </c>
       <c r="F75" t="n">
-        <v>1.3295</v>
+        <v>1.36416</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.809868</v>
+        <v>0.813209</v>
       </c>
       <c r="C76" t="n">
-        <v>1.66867</v>
+        <v>1.58317</v>
       </c>
       <c r="D76" t="n">
-        <v>1.98064</v>
+        <v>2.00779</v>
       </c>
       <c r="E76" t="n">
-        <v>0.514198</v>
+        <v>0.535677</v>
       </c>
       <c r="F76" t="n">
-        <v>1.27573</v>
+        <v>1.36072</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.790961</v>
+        <v>0.799769</v>
       </c>
       <c r="C77" t="n">
-        <v>1.63795</v>
+        <v>1.57039</v>
       </c>
       <c r="D77" t="n">
-        <v>1.99286</v>
+        <v>1.97228</v>
       </c>
       <c r="E77" t="n">
-        <v>0.503111</v>
+        <v>0.519566</v>
       </c>
       <c r="F77" t="n">
-        <v>1.29228</v>
+        <v>1.3213</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.773361</v>
+        <v>0.787114</v>
       </c>
       <c r="C78" t="n">
-        <v>1.6041</v>
+        <v>1.5326</v>
       </c>
       <c r="D78" t="n">
-        <v>3.41869</v>
+        <v>3.30375</v>
       </c>
       <c r="E78" t="n">
-        <v>0.509198</v>
+        <v>0.50186</v>
       </c>
       <c r="F78" t="n">
-        <v>1.23723</v>
+        <v>1.28199</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.774469</v>
+        <v>0.785253</v>
       </c>
       <c r="C79" t="n">
-        <v>1.58757</v>
+        <v>1.51501</v>
       </c>
       <c r="D79" t="n">
-        <v>3.29993</v>
+        <v>3.22914</v>
       </c>
       <c r="E79" t="n">
-        <v>0.487375</v>
+        <v>0.497162</v>
       </c>
       <c r="F79" t="n">
-        <v>1.22103</v>
+        <v>1.28915</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.78777</v>
+        <v>0.811465</v>
       </c>
       <c r="C80" t="n">
-        <v>1.56795</v>
+        <v>1.54491</v>
       </c>
       <c r="D80" t="n">
-        <v>3.19457</v>
+        <v>3.19169</v>
       </c>
       <c r="E80" t="n">
-        <v>0.776905</v>
+        <v>0.78459</v>
       </c>
       <c r="F80" t="n">
-        <v>2.12943</v>
+        <v>2.22734</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.07521</v>
+        <v>1.12314</v>
       </c>
       <c r="C81" t="n">
-        <v>2.53957</v>
+        <v>2.44755</v>
       </c>
       <c r="D81" t="n">
-        <v>3.29792</v>
+        <v>3.09044</v>
       </c>
       <c r="E81" t="n">
-        <v>0.758798</v>
+        <v>0.764383</v>
       </c>
       <c r="F81" t="n">
-        <v>2.06471</v>
+        <v>2.1443</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.04942</v>
+        <v>1.06983</v>
       </c>
       <c r="C82" t="n">
-        <v>2.50547</v>
+        <v>2.47687</v>
       </c>
       <c r="D82" t="n">
-        <v>3.22666</v>
+        <v>3.10775</v>
       </c>
       <c r="E82" t="n">
-        <v>0.756865</v>
+        <v>0.761683</v>
       </c>
       <c r="F82" t="n">
-        <v>2.04536</v>
+        <v>2.1052</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.04223</v>
+        <v>1.07432</v>
       </c>
       <c r="C83" t="n">
-        <v>2.46083</v>
+        <v>2.3527</v>
       </c>
       <c r="D83" t="n">
-        <v>2.99217</v>
+        <v>3.02155</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7319600000000001</v>
+        <v>0.743664</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98472</v>
+        <v>2.01523</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03048</v>
+        <v>1.03209</v>
       </c>
       <c r="C84" t="n">
-        <v>2.40701</v>
+        <v>2.30539</v>
       </c>
       <c r="D84" t="n">
-        <v>2.9571</v>
+        <v>2.95235</v>
       </c>
       <c r="E84" t="n">
-        <v>0.709144</v>
+        <v>0.761532</v>
       </c>
       <c r="F84" t="n">
-        <v>1.90765</v>
+        <v>2.01113</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03116</v>
+        <v>1.0204</v>
       </c>
       <c r="C85" t="n">
-        <v>2.31484</v>
+        <v>2.25224</v>
       </c>
       <c r="D85" t="n">
-        <v>2.91786</v>
+        <v>2.86871</v>
       </c>
       <c r="E85" t="n">
-        <v>0.696146</v>
+        <v>0.696147</v>
       </c>
       <c r="F85" t="n">
-        <v>1.89447</v>
+        <v>1.95771</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.99144</v>
+        <v>0.993601</v>
       </c>
       <c r="C86" t="n">
-        <v>2.25252</v>
+        <v>2.16308</v>
       </c>
       <c r="D86" t="n">
-        <v>2.91659</v>
+        <v>2.82046</v>
       </c>
       <c r="E86" t="n">
-        <v>0.67461</v>
+        <v>0.687323</v>
       </c>
       <c r="F86" t="n">
-        <v>1.81499</v>
+        <v>1.91608</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.986422</v>
+        <v>0.992295</v>
       </c>
       <c r="C87" t="n">
-        <v>2.21494</v>
+        <v>2.13724</v>
       </c>
       <c r="D87" t="n">
-        <v>2.89764</v>
+        <v>2.77841</v>
       </c>
       <c r="E87" t="n">
-        <v>0.665121</v>
+        <v>0.697766</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7883</v>
+        <v>1.86183</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.949621</v>
+        <v>0.980573</v>
       </c>
       <c r="C88" t="n">
-        <v>2.16249</v>
+        <v>2.07358</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78263</v>
+        <v>2.72882</v>
       </c>
       <c r="E88" t="n">
-        <v>0.673224</v>
+        <v>0.65234</v>
       </c>
       <c r="F88" t="n">
-        <v>1.76607</v>
+        <v>1.82023</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.990163</v>
+        <v>0.952868</v>
       </c>
       <c r="C89" t="n">
-        <v>2.15416</v>
+        <v>2.02562</v>
       </c>
       <c r="D89" t="n">
-        <v>2.78186</v>
+        <v>2.70622</v>
       </c>
       <c r="E89" t="n">
-        <v>0.648547</v>
+        <v>0.651011</v>
       </c>
       <c r="F89" t="n">
-        <v>1.70097</v>
+        <v>1.75403</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.915135</v>
+        <v>0.956762</v>
       </c>
       <c r="C90" t="n">
-        <v>2.04872</v>
+        <v>1.99421</v>
       </c>
       <c r="D90" t="n">
-        <v>2.68386</v>
+        <v>2.68798</v>
       </c>
       <c r="E90" t="n">
-        <v>0.64225</v>
+        <v>0.6307700000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>1.66055</v>
+        <v>1.73567</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.917116</v>
+        <v>0.9844580000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>2.02533</v>
+        <v>1.97662</v>
       </c>
       <c r="D91" t="n">
-        <v>2.66677</v>
+        <v>2.64577</v>
       </c>
       <c r="E91" t="n">
-        <v>0.621437</v>
+        <v>0.6167280000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1.67348</v>
+        <v>1.74548</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.909577</v>
+        <v>0.926764</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98326</v>
+        <v>1.90896</v>
       </c>
       <c r="D92" t="n">
-        <v>3.85285</v>
+        <v>3.85204</v>
       </c>
       <c r="E92" t="n">
-        <v>0.607951</v>
+        <v>0.609243</v>
       </c>
       <c r="F92" t="n">
-        <v>1.57172</v>
+        <v>1.66014</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.903199</v>
+        <v>0.923789</v>
       </c>
       <c r="C93" t="n">
-        <v>1.98768</v>
+        <v>1.91749</v>
       </c>
       <c r="D93" t="n">
-        <v>3.82342</v>
+        <v>3.73989</v>
       </c>
       <c r="E93" t="n">
-        <v>0.590502</v>
+        <v>0.615125</v>
       </c>
       <c r="F93" t="n">
-        <v>1.56556</v>
+        <v>1.64416</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.873483</v>
+        <v>0.914134</v>
       </c>
       <c r="C94" t="n">
-        <v>1.89772</v>
+        <v>1.8787</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66387</v>
+        <v>3.60579</v>
       </c>
       <c r="E94" t="n">
-        <v>0.920534</v>
+        <v>0.882341</v>
       </c>
       <c r="F94" t="n">
-        <v>2.63009</v>
+        <v>2.67875</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1847</v>
+        <v>1.24623</v>
       </c>
       <c r="C95" t="n">
-        <v>3.02573</v>
+        <v>2.93665</v>
       </c>
       <c r="D95" t="n">
-        <v>3.55679</v>
+        <v>3.53995</v>
       </c>
       <c r="E95" t="n">
-        <v>0.887424</v>
+        <v>0.905516</v>
       </c>
       <c r="F95" t="n">
-        <v>2.55213</v>
+        <v>2.60672</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.16836</v>
+        <v>1.22752</v>
       </c>
       <c r="C96" t="n">
-        <v>2.9921</v>
+        <v>2.86456</v>
       </c>
       <c r="D96" t="n">
-        <v>3.49976</v>
+        <v>3.53973</v>
       </c>
       <c r="E96" t="n">
-        <v>0.84753</v>
+        <v>0.896567</v>
       </c>
       <c r="F96" t="n">
-        <v>2.46007</v>
+        <v>2.57146</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16762</v>
+        <v>1.2276</v>
       </c>
       <c r="C97" t="n">
-        <v>2.8579</v>
+        <v>2.79085</v>
       </c>
       <c r="D97" t="n">
-        <v>3.43031</v>
+        <v>3.52442</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8378139999999999</v>
+        <v>0.849933</v>
       </c>
       <c r="F97" t="n">
-        <v>2.41426</v>
+        <v>2.47207</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.13608</v>
+        <v>1.19679</v>
       </c>
       <c r="C98" t="n">
-        <v>2.81417</v>
+        <v>2.72454</v>
       </c>
       <c r="D98" t="n">
-        <v>3.3975</v>
+        <v>3.40136</v>
       </c>
       <c r="E98" t="n">
-        <v>0.817315</v>
+        <v>0.832005</v>
       </c>
       <c r="F98" t="n">
-        <v>2.40964</v>
+        <v>2.42458</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.11583</v>
+        <v>1.17725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.80822</v>
+        <v>2.65441</v>
       </c>
       <c r="D99" t="n">
-        <v>3.29982</v>
+        <v>3.33271</v>
       </c>
       <c r="E99" t="n">
-        <v>0.811652</v>
+        <v>0.816979</v>
       </c>
       <c r="F99" t="n">
-        <v>2.32234</v>
+        <v>2.38012</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13356</v>
+        <v>1.18492</v>
       </c>
       <c r="C100" t="n">
-        <v>2.68898</v>
+        <v>2.68155</v>
       </c>
       <c r="D100" t="n">
-        <v>3.26163</v>
+        <v>3.26219</v>
       </c>
       <c r="E100" t="n">
-        <v>0.811016</v>
+        <v>0.835032</v>
       </c>
       <c r="F100" t="n">
-        <v>2.24627</v>
+        <v>2.33734</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.09237</v>
+        <v>1.17432</v>
       </c>
       <c r="C101" t="n">
-        <v>2.65351</v>
+        <v>2.57276</v>
       </c>
       <c r="D101" t="n">
-        <v>3.23626</v>
+        <v>3.20312</v>
       </c>
       <c r="E101" t="n">
-        <v>0.786795</v>
+        <v>0.806439</v>
       </c>
       <c r="F101" t="n">
-        <v>2.17387</v>
+        <v>2.25705</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.08319</v>
+        <v>1.14241</v>
       </c>
       <c r="C102" t="n">
-        <v>2.58182</v>
+        <v>2.49924</v>
       </c>
       <c r="D102" t="n">
-        <v>3.20373</v>
+        <v>3.14325</v>
       </c>
       <c r="E102" t="n">
-        <v>0.786367</v>
+        <v>0.805823</v>
       </c>
       <c r="F102" t="n">
-        <v>2.12622</v>
+        <v>2.21185</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09219</v>
+        <v>1.12658</v>
       </c>
       <c r="C103" t="n">
-        <v>2.54041</v>
+        <v>2.45583</v>
       </c>
       <c r="D103" t="n">
-        <v>3.18696</v>
+        <v>3.11936</v>
       </c>
       <c r="E103" t="n">
-        <v>0.756555</v>
+        <v>0.8111350000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>2.08717</v>
+        <v>2.18364</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08092</v>
+        <v>1.10268</v>
       </c>
       <c r="C104" t="n">
-        <v>2.4763</v>
+        <v>2.39135</v>
       </c>
       <c r="D104" t="n">
-        <v>3.13465</v>
+        <v>3.06679</v>
       </c>
       <c r="E104" t="n">
-        <v>0.760256</v>
+        <v>0.753405</v>
       </c>
       <c r="F104" t="n">
-        <v>2.03832</v>
+        <v>2.1011</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05109</v>
+        <v>1.09183</v>
       </c>
       <c r="C105" t="n">
-        <v>2.44607</v>
+        <v>2.36187</v>
       </c>
       <c r="D105" t="n">
-        <v>3.07847</v>
+        <v>3.07834</v>
       </c>
       <c r="E105" t="n">
-        <v>0.737938</v>
+        <v>0.743671</v>
       </c>
       <c r="F105" t="n">
-        <v>2.01973</v>
+        <v>2.11452</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.02657</v>
+        <v>1.10988</v>
       </c>
       <c r="C106" t="n">
-        <v>2.41116</v>
+        <v>2.35594</v>
       </c>
       <c r="D106" t="n">
-        <v>3.18057</v>
+        <v>3.02751</v>
       </c>
       <c r="E106" t="n">
-        <v>0.732452</v>
+        <v>0.742822</v>
       </c>
       <c r="F106" t="n">
-        <v>1.97684</v>
+        <v>2.03536</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.03373</v>
+        <v>1.09762</v>
       </c>
       <c r="C107" t="n">
-        <v>2.35467</v>
+        <v>2.32006</v>
       </c>
       <c r="D107" t="n">
-        <v>4.22777</v>
+        <v>4.17536</v>
       </c>
       <c r="E107" t="n">
-        <v>0.724116</v>
+        <v>0.72329</v>
       </c>
       <c r="F107" t="n">
-        <v>1.93017</v>
+        <v>2.02425</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.02079</v>
+        <v>1.07052</v>
       </c>
       <c r="C108" t="n">
-        <v>2.32833</v>
+        <v>2.2536</v>
       </c>
       <c r="D108" t="n">
-        <v>4.17038</v>
+        <v>4.08837</v>
       </c>
       <c r="E108" t="n">
-        <v>1.07491</v>
+        <v>1.03951</v>
       </c>
       <c r="F108" t="n">
-        <v>3.10772</v>
+        <v>3.15561</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.00689</v>
+        <v>1.07218</v>
       </c>
       <c r="C109" t="n">
-        <v>2.30447</v>
+        <v>2.22297</v>
       </c>
       <c r="D109" t="n">
-        <v>4.00847</v>
+        <v>4.03868</v>
       </c>
       <c r="E109" t="n">
-        <v>1.03061</v>
+        <v>1.06418</v>
       </c>
       <c r="F109" t="n">
-        <v>2.99488</v>
+        <v>3.06878</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.33772</v>
+        <v>1.41662</v>
       </c>
       <c r="C110" t="n">
-        <v>3.39408</v>
+        <v>3.35939</v>
       </c>
       <c r="D110" t="n">
-        <v>4.03104</v>
+        <v>3.93243</v>
       </c>
       <c r="E110" t="n">
-        <v>1.03606</v>
+        <v>1.03658</v>
       </c>
       <c r="F110" t="n">
-        <v>2.90563</v>
+        <v>3.00062</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32438</v>
+        <v>1.37269</v>
       </c>
       <c r="C111" t="n">
-        <v>3.31423</v>
+        <v>3.24601</v>
       </c>
       <c r="D111" t="n">
-        <v>3.90668</v>
+        <v>3.88346</v>
       </c>
       <c r="E111" t="n">
-        <v>1.04544</v>
+        <v>1.01372</v>
       </c>
       <c r="F111" t="n">
-        <v>2.90248</v>
+        <v>2.92294</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.27888</v>
+        <v>1.36607</v>
       </c>
       <c r="C112" t="n">
-        <v>3.27444</v>
+        <v>3.22946</v>
       </c>
       <c r="D112" t="n">
-        <v>3.78065</v>
+        <v>3.79396</v>
       </c>
       <c r="E112" t="n">
-        <v>1.02147</v>
+        <v>1.02397</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79282</v>
+        <v>2.83684</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.28325</v>
+        <v>1.36898</v>
       </c>
       <c r="C113" t="n">
-        <v>3.17276</v>
+        <v>3.1384</v>
       </c>
       <c r="D113" t="n">
-        <v>3.74025</v>
+        <v>3.82452</v>
       </c>
       <c r="E113" t="n">
-        <v>0.994125</v>
+        <v>0.996295</v>
       </c>
       <c r="F113" t="n">
-        <v>2.7145</v>
+        <v>2.80482</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.25868</v>
+        <v>1.35959</v>
       </c>
       <c r="C114" t="n">
-        <v>3.1313</v>
+        <v>3.07648</v>
       </c>
       <c r="D114" t="n">
-        <v>3.66576</v>
+        <v>3.71424</v>
       </c>
       <c r="E114" t="n">
-        <v>1.02105</v>
+        <v>0.9822959999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66259</v>
+        <v>2.73608</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.2511</v>
+        <v>1.37421</v>
       </c>
       <c r="C115" t="n">
-        <v>3.05351</v>
+        <v>3.03731</v>
       </c>
       <c r="D115" t="n">
-        <v>3.69317</v>
+        <v>3.64448</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9717519999999999</v>
+        <v>0.991072</v>
       </c>
       <c r="F115" t="n">
-        <v>2.62219</v>
+        <v>2.66117</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.27189</v>
+        <v>1.34343</v>
       </c>
       <c r="C116" t="n">
-        <v>3.0656</v>
+        <v>2.99965</v>
       </c>
       <c r="D116" t="n">
-        <v>3.69957</v>
+        <v>3.56823</v>
       </c>
       <c r="E116" t="n">
-        <v>1.01515</v>
+        <v>0.967545</v>
       </c>
       <c r="F116" t="n">
-        <v>2.55363</v>
+        <v>2.64488</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.24382</v>
+        <v>1.34308</v>
       </c>
       <c r="C117" t="n">
-        <v>2.97264</v>
+        <v>2.90529</v>
       </c>
       <c r="D117" t="n">
-        <v>3.58259</v>
+        <v>3.55147</v>
       </c>
       <c r="E117" t="n">
-        <v>0.972339</v>
+        <v>0.987782</v>
       </c>
       <c r="F117" t="n">
-        <v>2.4952</v>
+        <v>2.5815</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.24842</v>
+        <v>1.32788</v>
       </c>
       <c r="C118" t="n">
-        <v>2.95292</v>
+        <v>2.8711</v>
       </c>
       <c r="D118" t="n">
-        <v>3.56431</v>
+        <v>3.54099</v>
       </c>
       <c r="E118" t="n">
-        <v>0.973305</v>
+        <v>0.9766629999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>2.46284</v>
+        <v>2.48947</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.23065</v>
+        <v>1.32217</v>
       </c>
       <c r="C119" t="n">
-        <v>2.91009</v>
+        <v>2.83187</v>
       </c>
       <c r="D119" t="n">
-        <v>3.51007</v>
+        <v>3.47527</v>
       </c>
       <c r="E119" t="n">
-        <v>0.981634</v>
+        <v>0.9691419999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>2.4054</v>
+        <v>2.44828</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.22793</v>
+        <v>1.32678</v>
       </c>
       <c r="C120" t="n">
-        <v>2.86357</v>
+        <v>2.7598</v>
       </c>
       <c r="D120" t="n">
-        <v>3.49707</v>
+        <v>3.45443</v>
       </c>
       <c r="E120" t="n">
-        <v>0.924786</v>
+        <v>0.9524010000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36376</v>
+        <v>2.41354</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.20428</v>
+        <v>1.32444</v>
       </c>
       <c r="C121" t="n">
-        <v>2.82502</v>
+        <v>2.7589</v>
       </c>
       <c r="D121" t="n">
-        <v>4.80434</v>
+        <v>4.73439</v>
       </c>
       <c r="E121" t="n">
-        <v>0.928226</v>
+        <v>0.938478</v>
       </c>
       <c r="F121" t="n">
-        <v>2.33661</v>
+        <v>2.38213</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.23474</v>
+        <v>1.31061</v>
       </c>
       <c r="C122" t="n">
-        <v>2.79702</v>
+        <v>2.68548</v>
       </c>
       <c r="D122" t="n">
-        <v>4.67666</v>
+        <v>4.62021</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9566</v>
+        <v>0.930899</v>
       </c>
       <c r="F122" t="n">
-        <v>2.29415</v>
+        <v>2.34604</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.19403</v>
+        <v>1.29064</v>
       </c>
       <c r="C123" t="n">
-        <v>2.73743</v>
+        <v>2.6511</v>
       </c>
       <c r="D123" t="n">
-        <v>4.5617</v>
+        <v>4.57332</v>
       </c>
       <c r="E123" t="n">
-        <v>1.24392</v>
+        <v>1.26796</v>
       </c>
       <c r="F123" t="n">
-        <v>3.52847</v>
+        <v>3.57218</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.54598</v>
+        <v>1.63445</v>
       </c>
       <c r="C124" t="n">
-        <v>4.00424</v>
+        <v>3.91351</v>
       </c>
       <c r="D124" t="n">
-        <v>4.50303</v>
+        <v>4.45675</v>
       </c>
       <c r="E124" t="n">
-        <v>1.24495</v>
+        <v>1.26552</v>
       </c>
       <c r="F124" t="n">
-        <v>3.44056</v>
+        <v>3.50137</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.51953</v>
+        <v>1.60215</v>
       </c>
       <c r="C125" t="n">
-        <v>3.9384</v>
+        <v>3.82685</v>
       </c>
       <c r="D125" t="n">
-        <v>4.42523</v>
+        <v>4.35631</v>
       </c>
       <c r="E125" t="n">
-        <v>1.23469</v>
+        <v>1.27688</v>
       </c>
       <c r="F125" t="n">
-        <v>3.40424</v>
+        <v>3.42514</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.49318</v>
+        <v>1.64331</v>
       </c>
       <c r="C126" t="n">
-        <v>3.83333</v>
+        <v>3.76957</v>
       </c>
       <c r="D126" t="n">
-        <v>4.34902</v>
+        <v>4.34493</v>
       </c>
       <c r="E126" t="n">
-        <v>1.25912</v>
+        <v>1.25065</v>
       </c>
       <c r="F126" t="n">
-        <v>3.28285</v>
+        <v>3.33343</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.52603</v>
+        <v>1.62357</v>
       </c>
       <c r="C127" t="n">
-        <v>3.75446</v>
+        <v>3.69955</v>
       </c>
       <c r="D127" t="n">
-        <v>4.25883</v>
+        <v>4.29232</v>
       </c>
       <c r="E127" t="n">
-        <v>1.293</v>
+        <v>1.27983</v>
       </c>
       <c r="F127" t="n">
-        <v>3.20485</v>
+        <v>3.25296</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.50046</v>
+        <v>1.65473</v>
       </c>
       <c r="C128" t="n">
-        <v>3.67223</v>
+        <v>3.59936</v>
       </c>
       <c r="D128" t="n">
-        <v>4.24418</v>
+        <v>4.18472</v>
       </c>
       <c r="E128" t="n">
-        <v>1.28529</v>
+        <v>1.26548</v>
       </c>
       <c r="F128" t="n">
-        <v>3.15426</v>
+        <v>3.18315</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.51758</v>
+        <v>1.62961</v>
       </c>
       <c r="C129" t="n">
-        <v>3.67926</v>
+        <v>3.50536</v>
       </c>
       <c r="D129" t="n">
-        <v>4.17479</v>
+        <v>4.12275</v>
       </c>
       <c r="E129" t="n">
-        <v>1.25803</v>
+        <v>1.28422</v>
       </c>
       <c r="F129" t="n">
-        <v>3.10026</v>
+        <v>3.12515</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.47447</v>
+        <v>1.62874</v>
       </c>
       <c r="C130" t="n">
-        <v>3.56378</v>
+        <v>3.47897</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10096</v>
+        <v>4.07749</v>
       </c>
       <c r="E130" t="n">
-        <v>1.27963</v>
+        <v>1.27896</v>
       </c>
       <c r="F130" t="n">
-        <v>3.04242</v>
+        <v>3.09218</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.4863</v>
+        <v>1.63601</v>
       </c>
       <c r="C131" t="n">
-        <v>3.47438</v>
+        <v>3.38071</v>
       </c>
       <c r="D131" t="n">
-        <v>4.06571</v>
+        <v>4.01856</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26907</v>
+        <v>1.26472</v>
       </c>
       <c r="F131" t="n">
-        <v>2.96565</v>
+        <v>3.01516</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.50221</v>
+        <v>1.65665</v>
       </c>
       <c r="C132" t="n">
-        <v>3.42458</v>
+        <v>3.33065</v>
       </c>
       <c r="D132" t="n">
-        <v>4.02562</v>
+        <v>3.96398</v>
       </c>
       <c r="E132" t="n">
-        <v>1.26945</v>
+        <v>1.2694</v>
       </c>
       <c r="F132" t="n">
-        <v>2.91571</v>
+        <v>2.96037</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.47975</v>
+        <v>1.64383</v>
       </c>
       <c r="C133" t="n">
-        <v>3.41314</v>
+        <v>3.30289</v>
       </c>
       <c r="D133" t="n">
-        <v>4.00926</v>
+        <v>3.91579</v>
       </c>
       <c r="E133" t="n">
-        <v>1.28125</v>
+        <v>1.27165</v>
       </c>
       <c r="F133" t="n">
-        <v>2.8561</v>
+        <v>2.90125</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.50819</v>
+        <v>1.64241</v>
       </c>
       <c r="C134" t="n">
-        <v>3.33584</v>
+        <v>3.22927</v>
       </c>
       <c r="D134" t="n">
-        <v>3.96066</v>
+        <v>3.89373</v>
       </c>
       <c r="E134" t="n">
-        <v>1.26477</v>
+        <v>1.24687</v>
       </c>
       <c r="F134" t="n">
-        <v>2.8004</v>
+        <v>2.86585</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.49689</v>
+        <v>1.60883</v>
       </c>
       <c r="C135" t="n">
-        <v>3.28683</v>
+        <v>3.23551</v>
       </c>
       <c r="D135" t="n">
-        <v>5.54038</v>
+        <v>5.48594</v>
       </c>
       <c r="E135" t="n">
-        <v>1.26207</v>
+        <v>1.26508</v>
       </c>
       <c r="F135" t="n">
-        <v>2.8019</v>
+        <v>2.81463</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.47339</v>
+        <v>1.63712</v>
       </c>
       <c r="C136" t="n">
-        <v>3.24741</v>
+        <v>3.18664</v>
       </c>
       <c r="D136" t="n">
-        <v>5.38435</v>
+        <v>5.3666</v>
       </c>
       <c r="E136" t="n">
-        <v>1.2841</v>
+        <v>1.24617</v>
       </c>
       <c r="F136" t="n">
-        <v>2.74818</v>
+        <v>2.76628</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.47014</v>
+        <v>1.63197</v>
       </c>
       <c r="C137" t="n">
-        <v>3.22144</v>
+        <v>3.10668</v>
       </c>
       <c r="D137" t="n">
-        <v>5.28801</v>
+        <v>5.2336</v>
       </c>
       <c r="E137" t="n">
-        <v>1.61164</v>
+        <v>1.58635</v>
       </c>
       <c r="F137" t="n">
-        <v>4.13836</v>
+        <v>4.13373</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.8194</v>
+        <v>1.97047</v>
       </c>
       <c r="C138" t="n">
-        <v>4.62795</v>
+        <v>4.53461</v>
       </c>
       <c r="D138" t="n">
-        <v>5.18775</v>
+        <v>5.1519</v>
       </c>
       <c r="E138" t="n">
-        <v>1.61854</v>
+        <v>1.60168</v>
       </c>
       <c r="F138" t="n">
-        <v>4.01021</v>
+        <v>4.07456</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.78834</v>
+        <v>1.9879</v>
       </c>
       <c r="C139" t="n">
-        <v>4.5338</v>
+        <v>4.47753</v>
       </c>
       <c r="D139" t="n">
-        <v>5.08685</v>
+        <v>5.08736</v>
       </c>
       <c r="E139" t="n">
-        <v>1.58157</v>
+        <v>1.61179</v>
       </c>
       <c r="F139" t="n">
-        <v>3.94019</v>
+        <v>3.98992</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.81513</v>
+        <v>1.95019</v>
       </c>
       <c r="C140" t="n">
-        <v>4.49002</v>
+        <v>4.33112</v>
       </c>
       <c r="D140" t="n">
-        <v>5.01284</v>
+        <v>4.96671</v>
       </c>
       <c r="E140" t="n">
-        <v>1.61895</v>
+        <v>1.58768</v>
       </c>
       <c r="F140" t="n">
-        <v>3.86349</v>
+        <v>3.82692</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.77057</v>
+        <v>1.95392</v>
       </c>
       <c r="C141" t="n">
-        <v>4.35077</v>
+        <v>4.23394</v>
       </c>
       <c r="D141" t="n">
-        <v>4.93701</v>
+        <v>4.88928</v>
       </c>
       <c r="E141" t="n">
-        <v>1.61036</v>
+        <v>1.63349</v>
       </c>
       <c r="F141" t="n">
-        <v>3.81298</v>
+        <v>3.79294</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.77829</v>
+        <v>1.95796</v>
       </c>
       <c r="C142" t="n">
-        <v>4.24878</v>
+        <v>4.16073</v>
       </c>
       <c r="D142" t="n">
-        <v>4.82342</v>
+        <v>4.80627</v>
       </c>
       <c r="E142" t="n">
-        <v>1.60448</v>
+        <v>1.6228</v>
       </c>
       <c r="F142" t="n">
-        <v>3.67371</v>
+        <v>3.68808</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.77708</v>
+        <v>1.97058</v>
       </c>
       <c r="C143" t="n">
-        <v>4.22846</v>
+        <v>4.02738</v>
       </c>
       <c r="D143" t="n">
-        <v>4.77781</v>
+        <v>4.70619</v>
       </c>
       <c r="E143" t="n">
-        <v>1.62018</v>
+        <v>1.61779</v>
       </c>
       <c r="F143" t="n">
-        <v>3.62379</v>
+        <v>3.64025</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.486603</v>
+        <v>0.509139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.789174</v>
+        <v>0.874177</v>
       </c>
       <c r="D2" t="n">
-        <v>0.755972</v>
+        <v>0.777847</v>
       </c>
       <c r="E2" t="n">
-        <v>0.205511</v>
+        <v>0.215674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.597364</v>
+        <v>0.601187</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.409864</v>
+        <v>0.444638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7784489999999999</v>
+        <v>0.815496</v>
       </c>
       <c r="D3" t="n">
-        <v>0.745793</v>
+        <v>0.7849969999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2105</v>
+        <v>0.213347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.580503</v>
+        <v>0.607946</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.402914</v>
+        <v>0.420465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.792143</v>
+        <v>0.843444</v>
       </c>
       <c r="D4" t="n">
-        <v>0.743851</v>
+        <v>0.799148</v>
       </c>
       <c r="E4" t="n">
-        <v>0.193772</v>
+        <v>0.208396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5832079999999999</v>
+        <v>0.6104349999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.425186</v>
+        <v>0.427916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.778599</v>
+        <v>0.821981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.741961</v>
+        <v>0.8436979999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.190685</v>
+        <v>0.201947</v>
       </c>
       <c r="F5" t="n">
-        <v>0.576771</v>
+        <v>0.609244</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.39455</v>
+        <v>0.410199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.766629</v>
+        <v>0.797164</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74117</v>
+        <v>0.821193</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188073</v>
+        <v>0.200539</v>
       </c>
       <c r="F6" t="n">
-        <v>0.570949</v>
+        <v>0.594417</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.388658</v>
+        <v>0.425251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.762067</v>
+        <v>0.797009</v>
       </c>
       <c r="D7" t="n">
-        <v>0.894292</v>
+        <v>0.944582</v>
       </c>
       <c r="E7" t="n">
-        <v>0.184406</v>
+        <v>0.20137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.568184</v>
+        <v>0.589403</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.388466</v>
+        <v>0.401118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.755674</v>
+        <v>0.79582</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8926230000000001</v>
+        <v>0.9486790000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.182486</v>
+        <v>0.191725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5798179999999999</v>
+        <v>0.597292</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.385827</v>
+        <v>0.408981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.759548</v>
+        <v>0.795863</v>
       </c>
       <c r="D9" t="n">
-        <v>0.87216</v>
+        <v>0.911067</v>
       </c>
       <c r="E9" t="n">
-        <v>0.264859</v>
+        <v>0.297971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.66112</v>
+        <v>0.702226</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.471464</v>
+        <v>0.492335</v>
       </c>
       <c r="C10" t="n">
-        <v>0.850046</v>
+        <v>0.896848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.856132</v>
+        <v>0.918247</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25712</v>
+        <v>0.27285</v>
       </c>
       <c r="F10" t="n">
-        <v>0.651608</v>
+        <v>0.684747</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466177</v>
+        <v>0.472467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.854652</v>
+        <v>0.890948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.851154</v>
+        <v>0.872146</v>
       </c>
       <c r="E11" t="n">
-        <v>0.249781</v>
+        <v>0.250994</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6515649999999999</v>
+        <v>0.648188</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.486245</v>
+        <v>0.458228</v>
       </c>
       <c r="C12" t="n">
-        <v>0.852537</v>
+        <v>0.844686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.831862</v>
+        <v>0.881316</v>
       </c>
       <c r="E12" t="n">
-        <v>0.240484</v>
+        <v>0.244574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.639689</v>
+        <v>0.649683</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.451925</v>
+        <v>0.44696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.834945</v>
+        <v>0.846547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831075</v>
+        <v>0.872299</v>
       </c>
       <c r="E13" t="n">
-        <v>0.233939</v>
+        <v>0.237204</v>
       </c>
       <c r="F13" t="n">
-        <v>0.629659</v>
+        <v>0.654455</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.444982</v>
+        <v>0.438187</v>
       </c>
       <c r="C14" t="n">
-        <v>0.827334</v>
+        <v>0.827608</v>
       </c>
       <c r="D14" t="n">
-        <v>0.81398</v>
+        <v>0.821307</v>
       </c>
       <c r="E14" t="n">
-        <v>0.239561</v>
+        <v>0.240592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.630392</v>
+        <v>0.65672</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.441154</v>
+        <v>0.452332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.820311</v>
+        <v>0.829927</v>
       </c>
       <c r="D15" t="n">
-        <v>0.807307</v>
+        <v>0.806301</v>
       </c>
       <c r="E15" t="n">
-        <v>0.219777</v>
+        <v>0.222945</v>
       </c>
       <c r="F15" t="n">
-        <v>0.617495</v>
+        <v>0.627086</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.432618</v>
+        <v>0.427538</v>
       </c>
       <c r="C16" t="n">
-        <v>0.841844</v>
+        <v>0.808638</v>
       </c>
       <c r="D16" t="n">
-        <v>0.82553</v>
+        <v>0.816379</v>
       </c>
       <c r="E16" t="n">
-        <v>0.214305</v>
+        <v>0.218151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.619256</v>
+        <v>0.629629</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.426464</v>
+        <v>0.426699</v>
       </c>
       <c r="C17" t="n">
-        <v>0.812958</v>
+        <v>0.820834</v>
       </c>
       <c r="D17" t="n">
-        <v>0.808821</v>
+        <v>0.797637</v>
       </c>
       <c r="E17" t="n">
-        <v>0.209658</v>
+        <v>0.215547</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6328819999999999</v>
+        <v>0.620877</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.419664</v>
+        <v>0.459298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.805177</v>
+        <v>0.819748</v>
       </c>
       <c r="D18" t="n">
-        <v>0.796447</v>
+        <v>0.796651</v>
       </c>
       <c r="E18" t="n">
-        <v>0.20343</v>
+        <v>0.207883</v>
       </c>
       <c r="F18" t="n">
-        <v>0.608021</v>
+        <v>0.626483</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.419908</v>
+        <v>0.416198</v>
       </c>
       <c r="C19" t="n">
-        <v>0.802686</v>
+        <v>0.79388</v>
       </c>
       <c r="D19" t="n">
-        <v>0.798474</v>
+        <v>0.798437</v>
       </c>
       <c r="E19" t="n">
-        <v>0.198929</v>
+        <v>0.200183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.599912</v>
+        <v>0.590513</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.417054</v>
+        <v>0.413031</v>
       </c>
       <c r="C20" t="n">
-        <v>0.804478</v>
+        <v>0.794704</v>
       </c>
       <c r="D20" t="n">
-        <v>0.790312</v>
+        <v>0.779825</v>
       </c>
       <c r="E20" t="n">
-        <v>0.195049</v>
+        <v>0.198445</v>
       </c>
       <c r="F20" t="n">
-        <v>0.603248</v>
+        <v>0.607802</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.410006</v>
+        <v>0.417016</v>
       </c>
       <c r="C21" t="n">
-        <v>0.791879</v>
+        <v>0.785184</v>
       </c>
       <c r="D21" t="n">
-        <v>0.953439</v>
+        <v>0.943638</v>
       </c>
       <c r="E21" t="n">
-        <v>0.192585</v>
+        <v>0.197449</v>
       </c>
       <c r="F21" t="n">
-        <v>0.595285</v>
+        <v>0.587351</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.406328</v>
+        <v>0.402652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.789268</v>
+        <v>0.784023</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9356719999999999</v>
+        <v>0.925417</v>
       </c>
       <c r="E22" t="n">
-        <v>0.19016</v>
+        <v>0.199217</v>
       </c>
       <c r="F22" t="n">
-        <v>0.600718</v>
+        <v>0.593673</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.405058</v>
+        <v>0.415097</v>
       </c>
       <c r="C23" t="n">
-        <v>0.776686</v>
+        <v>0.791624</v>
       </c>
       <c r="D23" t="n">
-        <v>0.916195</v>
+        <v>0.9379459999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.43281</v>
+        <v>0.4377</v>
       </c>
       <c r="F23" t="n">
-        <v>0.684214</v>
+        <v>0.680271</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.650991</v>
+        <v>0.639775</v>
       </c>
       <c r="C24" t="n">
-        <v>0.88432</v>
+        <v>0.897769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.90205</v>
+        <v>0.908547</v>
       </c>
       <c r="E24" t="n">
-        <v>0.416762</v>
+        <v>0.424239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.690785</v>
+        <v>0.6972699999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.624213</v>
+        <v>0.625252</v>
       </c>
       <c r="C25" t="n">
-        <v>0.877506</v>
+        <v>0.887342</v>
       </c>
       <c r="D25" t="n">
-        <v>0.894313</v>
+        <v>0.8902870000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.401255</v>
+        <v>0.411467</v>
       </c>
       <c r="F25" t="n">
-        <v>0.685034</v>
+        <v>0.698027</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.610755</v>
+        <v>0.61673</v>
       </c>
       <c r="C26" t="n">
-        <v>0.875956</v>
+        <v>0.864245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.885442</v>
+        <v>0.892705</v>
       </c>
       <c r="E26" t="n">
-        <v>0.383849</v>
+        <v>0.396778</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6630509999999999</v>
+        <v>0.6646030000000001</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.598595</v>
+        <v>0.600506</v>
       </c>
       <c r="C27" t="n">
-        <v>0.874031</v>
+        <v>0.878297</v>
       </c>
       <c r="D27" t="n">
-        <v>0.868131</v>
+        <v>0.876107</v>
       </c>
       <c r="E27" t="n">
-        <v>0.376819</v>
+        <v>0.387258</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6566959999999999</v>
+        <v>0.659794</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585664</v>
+        <v>0.61294</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8627</v>
+        <v>0.87882</v>
       </c>
       <c r="D28" t="n">
-        <v>0.868934</v>
+        <v>0.861905</v>
       </c>
       <c r="E28" t="n">
-        <v>0.358398</v>
+        <v>0.365355</v>
       </c>
       <c r="F28" t="n">
-        <v>0.654827</v>
+        <v>0.650682</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5892770000000001</v>
+        <v>0.578478</v>
       </c>
       <c r="C29" t="n">
-        <v>0.859448</v>
+        <v>0.866002</v>
       </c>
       <c r="D29" t="n">
-        <v>0.86265</v>
+        <v>0.851405</v>
       </c>
       <c r="E29" t="n">
-        <v>0.347096</v>
+        <v>0.366172</v>
       </c>
       <c r="F29" t="n">
-        <v>0.645424</v>
+        <v>0.650079</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.562375</v>
+        <v>0.577191</v>
       </c>
       <c r="C30" t="n">
-        <v>0.840809</v>
+        <v>0.833937</v>
       </c>
       <c r="D30" t="n">
-        <v>0.844359</v>
+        <v>0.872764</v>
       </c>
       <c r="E30" t="n">
-        <v>0.335368</v>
+        <v>0.33992</v>
       </c>
       <c r="F30" t="n">
-        <v>0.648035</v>
+        <v>0.6437349999999999</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.556549</v>
+        <v>0.559872</v>
       </c>
       <c r="C31" t="n">
-        <v>0.83835</v>
+        <v>0.840035</v>
       </c>
       <c r="D31" t="n">
-        <v>0.852025</v>
+        <v>0.8504890000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.327161</v>
+        <v>0.337222</v>
       </c>
       <c r="F31" t="n">
-        <v>0.633621</v>
+        <v>0.629506</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.543085</v>
+        <v>0.542528</v>
       </c>
       <c r="C32" t="n">
-        <v>0.838464</v>
+        <v>0.878449</v>
       </c>
       <c r="D32" t="n">
-        <v>0.841886</v>
+        <v>0.866243</v>
       </c>
       <c r="E32" t="n">
-        <v>0.314501</v>
+        <v>0.325703</v>
       </c>
       <c r="F32" t="n">
-        <v>0.656241</v>
+        <v>0.6267</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.539382</v>
+        <v>0.5452050000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.831389</v>
+        <v>0.825285</v>
       </c>
       <c r="D33" t="n">
-        <v>0.830751</v>
+        <v>0.831353</v>
       </c>
       <c r="E33" t="n">
-        <v>0.307324</v>
+        <v>0.30991</v>
       </c>
       <c r="F33" t="n">
-        <v>0.627306</v>
+        <v>0.622618</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5276690000000001</v>
+        <v>0.534195</v>
       </c>
       <c r="C34" t="n">
-        <v>0.828454</v>
+        <v>0.856868</v>
       </c>
       <c r="D34" t="n">
-        <v>0.826105</v>
+        <v>0.823464</v>
       </c>
       <c r="E34" t="n">
-        <v>0.299694</v>
+        <v>0.317856</v>
       </c>
       <c r="F34" t="n">
-        <v>0.633672</v>
+        <v>0.635143</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.513375</v>
+        <v>0.530938</v>
       </c>
       <c r="C35" t="n">
-        <v>0.821221</v>
+        <v>0.817611</v>
       </c>
       <c r="D35" t="n">
-        <v>1.11056</v>
+        <v>1.0781</v>
       </c>
       <c r="E35" t="n">
-        <v>0.289314</v>
+        <v>0.305642</v>
       </c>
       <c r="F35" t="n">
-        <v>0.646566</v>
+        <v>0.620969</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5084109999999999</v>
+        <v>0.521923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.815259</v>
+        <v>0.830225</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06432</v>
+        <v>1.07526</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283133</v>
+        <v>0.295375</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6208900000000001</v>
+        <v>0.652656</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.517208</v>
+        <v>0.498736</v>
       </c>
       <c r="C37" t="n">
-        <v>0.817977</v>
+        <v>0.827345</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05619</v>
+        <v>1.03776</v>
       </c>
       <c r="E37" t="n">
-        <v>0.537015</v>
+        <v>0.549053</v>
       </c>
       <c r="F37" t="n">
-        <v>0.841642</v>
+        <v>0.848492</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.758632</v>
+        <v>0.794391</v>
       </c>
       <c r="C38" t="n">
-        <v>1.05642</v>
+        <v>1.07002</v>
       </c>
       <c r="D38" t="n">
-        <v>1.07547</v>
+        <v>1.0164</v>
       </c>
       <c r="E38" t="n">
-        <v>0.513738</v>
+        <v>0.532867</v>
       </c>
       <c r="F38" t="n">
-        <v>0.851225</v>
+        <v>0.825122</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.734659</v>
+        <v>0.75547</v>
       </c>
       <c r="C39" t="n">
-        <v>1.05184</v>
+        <v>1.07075</v>
       </c>
       <c r="D39" t="n">
-        <v>1.03581</v>
+        <v>1.02416</v>
       </c>
       <c r="E39" t="n">
-        <v>0.494144</v>
+        <v>0.5024459999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8199959999999999</v>
+        <v>0.821859</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.718224</v>
+        <v>0.757961</v>
       </c>
       <c r="C40" t="n">
-        <v>1.03007</v>
+        <v>1.0397</v>
       </c>
       <c r="D40" t="n">
-        <v>0.993397</v>
+        <v>1.01606</v>
       </c>
       <c r="E40" t="n">
-        <v>0.476133</v>
+        <v>0.498479</v>
       </c>
       <c r="F40" t="n">
-        <v>0.834565</v>
+        <v>0.791005</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704954</v>
+        <v>0.700331</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02198</v>
+        <v>1.02706</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9891990000000001</v>
+        <v>0.989022</v>
       </c>
       <c r="E41" t="n">
-        <v>0.461778</v>
+        <v>0.468783</v>
       </c>
       <c r="F41" t="n">
-        <v>0.804353</v>
+        <v>0.786636</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.686431</v>
+        <v>0.685381</v>
       </c>
       <c r="C42" t="n">
-        <v>1.00128</v>
+        <v>1.0204</v>
       </c>
       <c r="D42" t="n">
-        <v>0.989105</v>
+        <v>0.993447</v>
       </c>
       <c r="E42" t="n">
-        <v>0.446656</v>
+        <v>0.4486</v>
       </c>
       <c r="F42" t="n">
-        <v>0.796784</v>
+        <v>0.782126</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.691706</v>
+        <v>0.664597</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01726</v>
+        <v>1.00488</v>
       </c>
       <c r="D43" t="n">
-        <v>0.979535</v>
+        <v>0.951672</v>
       </c>
       <c r="E43" t="n">
-        <v>0.430449</v>
+        <v>0.43111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.776794</v>
+        <v>0.762812</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.659405</v>
+        <v>0.65276</v>
       </c>
       <c r="C44" t="n">
-        <v>0.986449</v>
+        <v>1.01422</v>
       </c>
       <c r="D44" t="n">
-        <v>0.965016</v>
+        <v>0.943931</v>
       </c>
       <c r="E44" t="n">
-        <v>0.413231</v>
+        <v>0.420911</v>
       </c>
       <c r="F44" t="n">
-        <v>0.76836</v>
+        <v>0.739059</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.660374</v>
+        <v>0.634298</v>
       </c>
       <c r="C45" t="n">
-        <v>0.972101</v>
+        <v>0.974453</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9539069999999999</v>
+        <v>0.93953</v>
       </c>
       <c r="E45" t="n">
-        <v>0.396606</v>
+        <v>0.40762</v>
       </c>
       <c r="F45" t="n">
-        <v>0.763249</v>
+        <v>0.7451950000000001</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.626986</v>
+        <v>0.645997</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9565360000000001</v>
+        <v>0.980352</v>
       </c>
       <c r="D46" t="n">
-        <v>0.959571</v>
+        <v>0.961439</v>
       </c>
       <c r="E46" t="n">
-        <v>0.385524</v>
+        <v>0.39869</v>
       </c>
       <c r="F46" t="n">
-        <v>0.757863</v>
+        <v>0.741406</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.615625</v>
+        <v>0.616876</v>
       </c>
       <c r="C47" t="n">
-        <v>0.941663</v>
+        <v>0.997606</v>
       </c>
       <c r="D47" t="n">
-        <v>0.951437</v>
+        <v>0.94531</v>
       </c>
       <c r="E47" t="n">
-        <v>0.379743</v>
+        <v>0.37623</v>
       </c>
       <c r="F47" t="n">
-        <v>0.75017</v>
+        <v>0.744882</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.60131</v>
+        <v>0.599368</v>
       </c>
       <c r="C48" t="n">
-        <v>0.935328</v>
+        <v>0.962077</v>
       </c>
       <c r="D48" t="n">
-        <v>0.966276</v>
+        <v>1.00153</v>
       </c>
       <c r="E48" t="n">
-        <v>0.363017</v>
+        <v>0.379959</v>
       </c>
       <c r="F48" t="n">
-        <v>0.752262</v>
+        <v>0.71661</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.584991</v>
+        <v>0.582383</v>
       </c>
       <c r="C49" t="n">
-        <v>0.929104</v>
+        <v>0.966808</v>
       </c>
       <c r="D49" t="n">
-        <v>0.983146</v>
+        <v>0.9565439999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.34911</v>
+        <v>0.35784</v>
       </c>
       <c r="F49" t="n">
-        <v>0.74433</v>
+        <v>0.722283</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.596278</v>
+        <v>0.589436</v>
       </c>
       <c r="C50" t="n">
-        <v>0.925251</v>
+        <v>0.957736</v>
       </c>
       <c r="D50" t="n">
-        <v>1.46434</v>
+        <v>1.50638</v>
       </c>
       <c r="E50" t="n">
-        <v>0.353227</v>
+        <v>0.352026</v>
       </c>
       <c r="F50" t="n">
-        <v>0.740057</v>
+        <v>0.7341760000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.568732</v>
+        <v>0.577103</v>
       </c>
       <c r="C51" t="n">
-        <v>0.936835</v>
+        <v>0.962215</v>
       </c>
       <c r="D51" t="n">
-        <v>1.4531</v>
+        <v>1.46805</v>
       </c>
       <c r="E51" t="n">
-        <v>0.597922</v>
+        <v>0.628603</v>
       </c>
       <c r="F51" t="n">
-        <v>1.15727</v>
+        <v>1.11715</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.558066</v>
+        <v>0.578196</v>
       </c>
       <c r="C52" t="n">
-        <v>0.915161</v>
+        <v>0.976762</v>
       </c>
       <c r="D52" t="n">
-        <v>1.42989</v>
+        <v>1.43868</v>
       </c>
       <c r="E52" t="n">
-        <v>0.575446</v>
+        <v>0.592426</v>
       </c>
       <c r="F52" t="n">
-        <v>1.12947</v>
+        <v>1.09678</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.811439</v>
+        <v>0.836095</v>
       </c>
       <c r="C53" t="n">
-        <v>1.34251</v>
+        <v>1.40202</v>
       </c>
       <c r="D53" t="n">
-        <v>1.41209</v>
+        <v>1.41493</v>
       </c>
       <c r="E53" t="n">
-        <v>0.561693</v>
+        <v>0.568475</v>
       </c>
       <c r="F53" t="n">
-        <v>1.10295</v>
+        <v>1.05173</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.793974</v>
+        <v>0.8019849999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.31622</v>
+        <v>1.44461</v>
       </c>
       <c r="D54" t="n">
-        <v>1.38543</v>
+        <v>1.40698</v>
       </c>
       <c r="E54" t="n">
-        <v>0.544795</v>
+        <v>0.552213</v>
       </c>
       <c r="F54" t="n">
-        <v>1.06026</v>
+        <v>1.03165</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7785</v>
+        <v>0.783991</v>
       </c>
       <c r="C55" t="n">
-        <v>1.2957</v>
+        <v>1.3772</v>
       </c>
       <c r="D55" t="n">
-        <v>1.39036</v>
+        <v>1.3545</v>
       </c>
       <c r="E55" t="n">
-        <v>0.526766</v>
+        <v>0.569537</v>
       </c>
       <c r="F55" t="n">
-        <v>1.05994</v>
+        <v>1.06713</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.765634</v>
+        <v>0.778651</v>
       </c>
       <c r="C56" t="n">
-        <v>1.27774</v>
+        <v>1.35085</v>
       </c>
       <c r="D56" t="n">
-        <v>1.37504</v>
+        <v>1.36856</v>
       </c>
       <c r="E56" t="n">
-        <v>0.512537</v>
+        <v>0.520935</v>
       </c>
       <c r="F56" t="n">
-        <v>1.07259</v>
+        <v>1.0105</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.751317</v>
+        <v>0.765249</v>
       </c>
       <c r="C57" t="n">
-        <v>1.2664</v>
+        <v>1.31943</v>
       </c>
       <c r="D57" t="n">
-        <v>1.37815</v>
+        <v>1.3962</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5127159999999999</v>
+        <v>0.510856</v>
       </c>
       <c r="F57" t="n">
-        <v>1.02884</v>
+        <v>0.98652</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.740832</v>
+        <v>0.749576</v>
       </c>
       <c r="C58" t="n">
-        <v>1.25726</v>
+        <v>1.31082</v>
       </c>
       <c r="D58" t="n">
-        <v>1.32159</v>
+        <v>1.36208</v>
       </c>
       <c r="E58" t="n">
-        <v>0.484283</v>
+        <v>0.501316</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0105</v>
+        <v>0.96496</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.72283</v>
+        <v>0.736946</v>
       </c>
       <c r="C59" t="n">
-        <v>1.20469</v>
+        <v>1.29319</v>
       </c>
       <c r="D59" t="n">
-        <v>1.28704</v>
+        <v>1.34598</v>
       </c>
       <c r="E59" t="n">
-        <v>0.467769</v>
+        <v>0.480954</v>
       </c>
       <c r="F59" t="n">
-        <v>1.02332</v>
+        <v>0.9598179999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.718997</v>
+        <v>0.7282419999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.21876</v>
+        <v>1.27866</v>
       </c>
       <c r="D60" t="n">
-        <v>1.3068</v>
+        <v>1.3227</v>
       </c>
       <c r="E60" t="n">
-        <v>0.459847</v>
+        <v>0.467836</v>
       </c>
       <c r="F60" t="n">
-        <v>1.01214</v>
+        <v>0.9485789999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.706135</v>
+        <v>0.71635</v>
       </c>
       <c r="C61" t="n">
-        <v>1.21459</v>
+        <v>1.27385</v>
       </c>
       <c r="D61" t="n">
-        <v>1.28879</v>
+        <v>1.36222</v>
       </c>
       <c r="E61" t="n">
-        <v>0.446247</v>
+        <v>0.464571</v>
       </c>
       <c r="F61" t="n">
-        <v>0.982417</v>
+        <v>0.967252</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.693704</v>
+        <v>0.726618</v>
       </c>
       <c r="C62" t="n">
-        <v>1.1866</v>
+        <v>1.26481</v>
       </c>
       <c r="D62" t="n">
-        <v>1.28525</v>
+        <v>1.34516</v>
       </c>
       <c r="E62" t="n">
-        <v>0.436982</v>
+        <v>0.454406</v>
       </c>
       <c r="F62" t="n">
-        <v>0.982509</v>
+        <v>0.910012</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.699424</v>
+        <v>0.733535</v>
       </c>
       <c r="C63" t="n">
-        <v>1.14519</v>
+        <v>1.29081</v>
       </c>
       <c r="D63" t="n">
-        <v>1.27932</v>
+        <v>1.29012</v>
       </c>
       <c r="E63" t="n">
-        <v>0.426003</v>
+        <v>0.430122</v>
       </c>
       <c r="F63" t="n">
-        <v>0.952535</v>
+        <v>0.925964</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.670474</v>
+        <v>0.72214</v>
       </c>
       <c r="C64" t="n">
-        <v>1.14464</v>
+        <v>1.23163</v>
       </c>
       <c r="D64" t="n">
-        <v>2.31689</v>
+        <v>2.34893</v>
       </c>
       <c r="E64" t="n">
-        <v>0.416881</v>
+        <v>0.437086</v>
       </c>
       <c r="F64" t="n">
-        <v>0.966561</v>
+        <v>0.928384</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.664079</v>
+        <v>0.693145</v>
       </c>
       <c r="C65" t="n">
-        <v>1.16084</v>
+        <v>1.24879</v>
       </c>
       <c r="D65" t="n">
-        <v>2.30703</v>
+        <v>2.39228</v>
       </c>
       <c r="E65" t="n">
-        <v>0.407405</v>
+        <v>0.417407</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9655280000000001</v>
+        <v>0.923463</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.654272</v>
+        <v>0.663785</v>
       </c>
       <c r="C66" t="n">
-        <v>1.14908</v>
+        <v>1.24671</v>
       </c>
       <c r="D66" t="n">
-        <v>2.24836</v>
+        <v>2.35695</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7043509999999999</v>
+        <v>0.69058</v>
       </c>
       <c r="F66" t="n">
-        <v>1.67668</v>
+        <v>1.5571</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.942344</v>
+        <v>0.942986</v>
       </c>
       <c r="C67" t="n">
-        <v>1.90496</v>
+        <v>1.9684</v>
       </c>
       <c r="D67" t="n">
-        <v>2.17959</v>
+        <v>2.24687</v>
       </c>
       <c r="E67" t="n">
-        <v>0.644741</v>
+        <v>0.668944</v>
       </c>
       <c r="F67" t="n">
-        <v>1.62108</v>
+        <v>1.53962</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.919215</v>
+        <v>0.926719</v>
       </c>
       <c r="C68" t="n">
-        <v>1.8468</v>
+        <v>1.99174</v>
       </c>
       <c r="D68" t="n">
-        <v>2.15472</v>
+        <v>2.18631</v>
       </c>
       <c r="E68" t="n">
-        <v>0.634207</v>
+        <v>0.642218</v>
       </c>
       <c r="F68" t="n">
-        <v>1.55268</v>
+        <v>1.51596</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.902574</v>
+        <v>0.917532</v>
       </c>
       <c r="C69" t="n">
-        <v>1.82442</v>
+        <v>1.9249</v>
       </c>
       <c r="D69" t="n">
-        <v>2.11715</v>
+        <v>2.21793</v>
       </c>
       <c r="E69" t="n">
-        <v>0.626908</v>
+        <v>0.625317</v>
       </c>
       <c r="F69" t="n">
-        <v>1.56369</v>
+        <v>1.49637</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.885853</v>
+        <v>0.9097</v>
       </c>
       <c r="C70" t="n">
-        <v>1.85503</v>
+        <v>1.86267</v>
       </c>
       <c r="D70" t="n">
-        <v>2.1066</v>
+        <v>2.17904</v>
       </c>
       <c r="E70" t="n">
-        <v>0.600821</v>
+        <v>0.624492</v>
       </c>
       <c r="F70" t="n">
-        <v>1.52455</v>
+        <v>1.48415</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.884262</v>
+        <v>0.883285</v>
       </c>
       <c r="C71" t="n">
-        <v>1.73149</v>
+        <v>1.7917</v>
       </c>
       <c r="D71" t="n">
-        <v>2.04786</v>
+        <v>2.17872</v>
       </c>
       <c r="E71" t="n">
-        <v>0.588442</v>
+        <v>0.595733</v>
       </c>
       <c r="F71" t="n">
-        <v>1.48967</v>
+        <v>1.40296</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.863793</v>
+        <v>0.855371</v>
       </c>
       <c r="C72" t="n">
-        <v>1.71266</v>
+        <v>1.76694</v>
       </c>
       <c r="D72" t="n">
-        <v>2.05081</v>
+        <v>2.13099</v>
       </c>
       <c r="E72" t="n">
-        <v>0.574013</v>
+        <v>0.581647</v>
       </c>
       <c r="F72" t="n">
-        <v>1.41615</v>
+        <v>1.39541</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.842683</v>
+        <v>0.848718</v>
       </c>
       <c r="C73" t="n">
-        <v>1.67332</v>
+        <v>1.73811</v>
       </c>
       <c r="D73" t="n">
-        <v>2.0171</v>
+        <v>2.0689</v>
       </c>
       <c r="E73" t="n">
-        <v>0.560792</v>
+        <v>0.567346</v>
       </c>
       <c r="F73" t="n">
-        <v>1.41149</v>
+        <v>1.34958</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.831573</v>
+        <v>0.847922</v>
       </c>
       <c r="C74" t="n">
-        <v>1.62124</v>
+        <v>1.76327</v>
       </c>
       <c r="D74" t="n">
-        <v>1.99406</v>
+        <v>2.0886</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5452939999999999</v>
+        <v>0.550177</v>
       </c>
       <c r="F74" t="n">
-        <v>1.37294</v>
+        <v>1.32393</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.825429</v>
+        <v>0.8129690000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>1.6167</v>
+        <v>1.6888</v>
       </c>
       <c r="D75" t="n">
-        <v>2.00314</v>
+        <v>2.06574</v>
       </c>
       <c r="E75" t="n">
-        <v>0.529405</v>
+        <v>0.543417</v>
       </c>
       <c r="F75" t="n">
-        <v>1.36416</v>
+        <v>1.28436</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.813209</v>
+        <v>0.812653</v>
       </c>
       <c r="C76" t="n">
-        <v>1.58317</v>
+        <v>1.69205</v>
       </c>
       <c r="D76" t="n">
-        <v>2.00779</v>
+        <v>2.07859</v>
       </c>
       <c r="E76" t="n">
-        <v>0.535677</v>
+        <v>0.5309970000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>1.36072</v>
+        <v>1.26421</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.799769</v>
+        <v>0.791983</v>
       </c>
       <c r="C77" t="n">
-        <v>1.57039</v>
+        <v>1.6889</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97228</v>
+        <v>2.05586</v>
       </c>
       <c r="E77" t="n">
-        <v>0.519566</v>
+        <v>0.512344</v>
       </c>
       <c r="F77" t="n">
-        <v>1.3213</v>
+        <v>1.2979</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.787114</v>
+        <v>0.77893</v>
       </c>
       <c r="C78" t="n">
-        <v>1.5326</v>
+        <v>1.62739</v>
       </c>
       <c r="D78" t="n">
-        <v>3.30375</v>
+        <v>3.3365</v>
       </c>
       <c r="E78" t="n">
-        <v>0.50186</v>
+        <v>0.504101</v>
       </c>
       <c r="F78" t="n">
-        <v>1.28199</v>
+        <v>1.31732</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.785253</v>
+        <v>0.774542</v>
       </c>
       <c r="C79" t="n">
-        <v>1.51501</v>
+        <v>1.60612</v>
       </c>
       <c r="D79" t="n">
-        <v>3.22914</v>
+        <v>3.29293</v>
       </c>
       <c r="E79" t="n">
-        <v>0.497162</v>
+        <v>0.507336</v>
       </c>
       <c r="F79" t="n">
-        <v>1.28915</v>
+        <v>1.24996</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.811465</v>
+        <v>0.762563</v>
       </c>
       <c r="C80" t="n">
-        <v>1.54491</v>
+        <v>1.61426</v>
       </c>
       <c r="D80" t="n">
-        <v>3.19169</v>
+        <v>3.16579</v>
       </c>
       <c r="E80" t="n">
-        <v>0.78459</v>
+        <v>0.805072</v>
       </c>
       <c r="F80" t="n">
-        <v>2.22734</v>
+        <v>2.26049</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12314</v>
+        <v>1.07132</v>
       </c>
       <c r="C81" t="n">
-        <v>2.44755</v>
+        <v>2.54286</v>
       </c>
       <c r="D81" t="n">
-        <v>3.09044</v>
+        <v>3.13701</v>
       </c>
       <c r="E81" t="n">
-        <v>0.764383</v>
+        <v>0.7777539999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>2.1443</v>
+        <v>2.15494</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06983</v>
+        <v>1.06221</v>
       </c>
       <c r="C82" t="n">
-        <v>2.47687</v>
+        <v>2.49332</v>
       </c>
       <c r="D82" t="n">
-        <v>3.10775</v>
+        <v>3.11044</v>
       </c>
       <c r="E82" t="n">
-        <v>0.761683</v>
+        <v>0.755865</v>
       </c>
       <c r="F82" t="n">
-        <v>2.1052</v>
+        <v>2.08766</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.07432</v>
+        <v>1.07445</v>
       </c>
       <c r="C83" t="n">
-        <v>2.3527</v>
+        <v>2.48234</v>
       </c>
       <c r="D83" t="n">
-        <v>3.02155</v>
+        <v>3.11286</v>
       </c>
       <c r="E83" t="n">
-        <v>0.743664</v>
+        <v>0.736482</v>
       </c>
       <c r="F83" t="n">
-        <v>2.01523</v>
+        <v>2.04025</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03209</v>
+        <v>1.01369</v>
       </c>
       <c r="C84" t="n">
-        <v>2.30539</v>
+        <v>2.42535</v>
       </c>
       <c r="D84" t="n">
-        <v>2.95235</v>
+        <v>3.08488</v>
       </c>
       <c r="E84" t="n">
-        <v>0.761532</v>
+        <v>0.737246</v>
       </c>
       <c r="F84" t="n">
-        <v>2.01113</v>
+        <v>1.95578</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0204</v>
+        <v>1.02093</v>
       </c>
       <c r="C85" t="n">
-        <v>2.25224</v>
+        <v>2.46501</v>
       </c>
       <c r="D85" t="n">
-        <v>2.86871</v>
+        <v>2.96718</v>
       </c>
       <c r="E85" t="n">
-        <v>0.696147</v>
+        <v>0.713577</v>
       </c>
       <c r="F85" t="n">
-        <v>1.95771</v>
+        <v>1.93097</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.993601</v>
+        <v>1.02339</v>
       </c>
       <c r="C86" t="n">
-        <v>2.16308</v>
+        <v>2.2754</v>
       </c>
       <c r="D86" t="n">
-        <v>2.82046</v>
+        <v>2.87862</v>
       </c>
       <c r="E86" t="n">
-        <v>0.687323</v>
+        <v>0.687563</v>
       </c>
       <c r="F86" t="n">
-        <v>1.91608</v>
+        <v>1.88706</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.992295</v>
+        <v>0.968422</v>
       </c>
       <c r="C87" t="n">
-        <v>2.13724</v>
+        <v>2.23181</v>
       </c>
       <c r="D87" t="n">
-        <v>2.77841</v>
+        <v>2.83598</v>
       </c>
       <c r="E87" t="n">
-        <v>0.697766</v>
+        <v>0.680619</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86183</v>
+        <v>1.84293</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.980573</v>
+        <v>0.9565129999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>2.07358</v>
+        <v>2.19228</v>
       </c>
       <c r="D88" t="n">
-        <v>2.72882</v>
+        <v>2.78758</v>
       </c>
       <c r="E88" t="n">
-        <v>0.65234</v>
+        <v>0.660142</v>
       </c>
       <c r="F88" t="n">
-        <v>1.82023</v>
+        <v>1.75848</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.952868</v>
+        <v>0.943237</v>
       </c>
       <c r="C89" t="n">
-        <v>2.02562</v>
+        <v>2.12794</v>
       </c>
       <c r="D89" t="n">
-        <v>2.70622</v>
+        <v>2.82601</v>
       </c>
       <c r="E89" t="n">
-        <v>0.651011</v>
+        <v>0.656162</v>
       </c>
       <c r="F89" t="n">
-        <v>1.75403</v>
+        <v>1.74778</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.956762</v>
+        <v>0.937057</v>
       </c>
       <c r="C90" t="n">
-        <v>1.99421</v>
+        <v>2.06837</v>
       </c>
       <c r="D90" t="n">
-        <v>2.68798</v>
+        <v>2.82358</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6307700000000001</v>
+        <v>0.649167</v>
       </c>
       <c r="F90" t="n">
-        <v>1.73567</v>
+        <v>1.74427</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9844580000000001</v>
+        <v>0.924246</v>
       </c>
       <c r="C91" t="n">
-        <v>1.97662</v>
+        <v>2.10648</v>
       </c>
       <c r="D91" t="n">
-        <v>2.64577</v>
+        <v>2.69657</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6167280000000001</v>
+        <v>0.6229980000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1.74548</v>
+        <v>1.69227</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.926764</v>
+        <v>0.923507</v>
       </c>
       <c r="C92" t="n">
-        <v>1.90896</v>
+        <v>2.00909</v>
       </c>
       <c r="D92" t="n">
-        <v>3.85204</v>
+        <v>3.96951</v>
       </c>
       <c r="E92" t="n">
-        <v>0.609243</v>
+        <v>0.609125</v>
       </c>
       <c r="F92" t="n">
-        <v>1.66014</v>
+        <v>1.62911</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.923789</v>
+        <v>0.923086</v>
       </c>
       <c r="C93" t="n">
-        <v>1.91749</v>
+        <v>1.97793</v>
       </c>
       <c r="D93" t="n">
-        <v>3.73989</v>
+        <v>3.74164</v>
       </c>
       <c r="E93" t="n">
-        <v>0.615125</v>
+        <v>0.604534</v>
       </c>
       <c r="F93" t="n">
-        <v>1.64416</v>
+        <v>1.60938</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.914134</v>
+        <v>0.8828</v>
       </c>
       <c r="C94" t="n">
-        <v>1.8787</v>
+        <v>1.94008</v>
       </c>
       <c r="D94" t="n">
-        <v>3.60579</v>
+        <v>3.67571</v>
       </c>
       <c r="E94" t="n">
-        <v>0.882341</v>
+        <v>0.914147</v>
       </c>
       <c r="F94" t="n">
-        <v>2.67875</v>
+        <v>2.66684</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24623</v>
+        <v>1.18772</v>
       </c>
       <c r="C95" t="n">
-        <v>2.93665</v>
+        <v>3.04187</v>
       </c>
       <c r="D95" t="n">
-        <v>3.53995</v>
+        <v>3.5779</v>
       </c>
       <c r="E95" t="n">
-        <v>0.905516</v>
+        <v>0.934434</v>
       </c>
       <c r="F95" t="n">
-        <v>2.60672</v>
+        <v>2.58303</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.22752</v>
+        <v>1.21034</v>
       </c>
       <c r="C96" t="n">
-        <v>2.86456</v>
+        <v>3.04954</v>
       </c>
       <c r="D96" t="n">
-        <v>3.53973</v>
+        <v>3.56895</v>
       </c>
       <c r="E96" t="n">
-        <v>0.896567</v>
+        <v>0.871178</v>
       </c>
       <c r="F96" t="n">
-        <v>2.57146</v>
+        <v>2.60939</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.2276</v>
+        <v>1.19777</v>
       </c>
       <c r="C97" t="n">
-        <v>2.79085</v>
+        <v>2.94121</v>
       </c>
       <c r="D97" t="n">
-        <v>3.52442</v>
+        <v>3.51301</v>
       </c>
       <c r="E97" t="n">
-        <v>0.849933</v>
+        <v>0.856747</v>
       </c>
       <c r="F97" t="n">
-        <v>2.47207</v>
+        <v>2.45305</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.19679</v>
+        <v>1.14469</v>
       </c>
       <c r="C98" t="n">
-        <v>2.72454</v>
+        <v>2.83663</v>
       </c>
       <c r="D98" t="n">
-        <v>3.40136</v>
+        <v>3.51314</v>
       </c>
       <c r="E98" t="n">
-        <v>0.832005</v>
+        <v>0.849808</v>
       </c>
       <c r="F98" t="n">
-        <v>2.42458</v>
+        <v>2.47365</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17725</v>
+        <v>1.14657</v>
       </c>
       <c r="C99" t="n">
-        <v>2.65441</v>
+        <v>2.77435</v>
       </c>
       <c r="D99" t="n">
-        <v>3.33271</v>
+        <v>3.32454</v>
       </c>
       <c r="E99" t="n">
-        <v>0.816979</v>
+        <v>0.838906</v>
       </c>
       <c r="F99" t="n">
-        <v>2.38012</v>
+        <v>2.31756</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.18492</v>
+        <v>1.1536</v>
       </c>
       <c r="C100" t="n">
-        <v>2.68155</v>
+        <v>2.75381</v>
       </c>
       <c r="D100" t="n">
-        <v>3.26219</v>
+        <v>3.43335</v>
       </c>
       <c r="E100" t="n">
-        <v>0.835032</v>
+        <v>0.80654</v>
       </c>
       <c r="F100" t="n">
-        <v>2.33734</v>
+        <v>2.33096</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.17432</v>
+        <v>1.10557</v>
       </c>
       <c r="C101" t="n">
-        <v>2.57276</v>
+        <v>2.67779</v>
       </c>
       <c r="D101" t="n">
-        <v>3.20312</v>
+        <v>3.31965</v>
       </c>
       <c r="E101" t="n">
-        <v>0.806439</v>
+        <v>0.818804</v>
       </c>
       <c r="F101" t="n">
-        <v>2.25705</v>
+        <v>2.23301</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14241</v>
+        <v>1.11253</v>
       </c>
       <c r="C102" t="n">
-        <v>2.49924</v>
+        <v>2.63065</v>
       </c>
       <c r="D102" t="n">
-        <v>3.14325</v>
+        <v>3.2764</v>
       </c>
       <c r="E102" t="n">
-        <v>0.805823</v>
+        <v>0.802091</v>
       </c>
       <c r="F102" t="n">
-        <v>2.21185</v>
+        <v>2.22615</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12658</v>
+        <v>1.08148</v>
       </c>
       <c r="C103" t="n">
-        <v>2.45583</v>
+        <v>2.60472</v>
       </c>
       <c r="D103" t="n">
-        <v>3.11936</v>
+        <v>3.25096</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8111350000000001</v>
+        <v>0.768214</v>
       </c>
       <c r="F103" t="n">
-        <v>2.18364</v>
+        <v>2.23416</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.10268</v>
+        <v>1.05979</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39135</v>
+        <v>2.53726</v>
       </c>
       <c r="D104" t="n">
-        <v>3.06679</v>
+        <v>3.19906</v>
       </c>
       <c r="E104" t="n">
-        <v>0.753405</v>
+        <v>0.7591560000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>2.1011</v>
+        <v>2.12836</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.09183</v>
+        <v>1.04997</v>
       </c>
       <c r="C105" t="n">
-        <v>2.36187</v>
+        <v>2.49124</v>
       </c>
       <c r="D105" t="n">
-        <v>3.07834</v>
+        <v>3.2165</v>
       </c>
       <c r="E105" t="n">
-        <v>0.743671</v>
+        <v>0.772981</v>
       </c>
       <c r="F105" t="n">
-        <v>2.11452</v>
+        <v>2.08297</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10988</v>
+        <v>1.07056</v>
       </c>
       <c r="C106" t="n">
-        <v>2.35594</v>
+        <v>2.50055</v>
       </c>
       <c r="D106" t="n">
-        <v>3.02751</v>
+        <v>3.1526</v>
       </c>
       <c r="E106" t="n">
-        <v>0.742822</v>
+        <v>0.737343</v>
       </c>
       <c r="F106" t="n">
-        <v>2.03536</v>
+        <v>2.02583</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09762</v>
+        <v>1.0317</v>
       </c>
       <c r="C107" t="n">
-        <v>2.32006</v>
+        <v>2.43229</v>
       </c>
       <c r="D107" t="n">
-        <v>4.17536</v>
+        <v>4.37087</v>
       </c>
       <c r="E107" t="n">
-        <v>0.72329</v>
+        <v>0.723668</v>
       </c>
       <c r="F107" t="n">
-        <v>2.02425</v>
+        <v>1.97365</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07052</v>
+        <v>1.05267</v>
       </c>
       <c r="C108" t="n">
-        <v>2.2536</v>
+        <v>2.36428</v>
       </c>
       <c r="D108" t="n">
-        <v>4.08837</v>
+        <v>4.24573</v>
       </c>
       <c r="E108" t="n">
-        <v>1.03951</v>
+        <v>1.03084</v>
       </c>
       <c r="F108" t="n">
-        <v>3.15561</v>
+        <v>3.15176</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.07218</v>
+        <v>1.02652</v>
       </c>
       <c r="C109" t="n">
-        <v>2.22297</v>
+        <v>2.36475</v>
       </c>
       <c r="D109" t="n">
-        <v>4.03868</v>
+        <v>4.14611</v>
       </c>
       <c r="E109" t="n">
-        <v>1.06418</v>
+        <v>1.0721</v>
       </c>
       <c r="F109" t="n">
-        <v>3.06878</v>
+        <v>3.11043</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.41662</v>
+        <v>1.32571</v>
       </c>
       <c r="C110" t="n">
-        <v>3.35939</v>
+        <v>3.4615</v>
       </c>
       <c r="D110" t="n">
-        <v>3.93243</v>
+        <v>4.00116</v>
       </c>
       <c r="E110" t="n">
-        <v>1.03658</v>
+        <v>1.03459</v>
       </c>
       <c r="F110" t="n">
-        <v>3.00062</v>
+        <v>2.98033</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.37269</v>
+        <v>1.33213</v>
       </c>
       <c r="C111" t="n">
-        <v>3.24601</v>
+        <v>3.39731</v>
       </c>
       <c r="D111" t="n">
-        <v>3.88346</v>
+        <v>3.93724</v>
       </c>
       <c r="E111" t="n">
-        <v>1.01372</v>
+        <v>1.0375</v>
       </c>
       <c r="F111" t="n">
-        <v>2.92294</v>
+        <v>2.9657</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.36607</v>
+        <v>1.30812</v>
       </c>
       <c r="C112" t="n">
-        <v>3.22946</v>
+        <v>3.36508</v>
       </c>
       <c r="D112" t="n">
-        <v>3.79396</v>
+        <v>3.86177</v>
       </c>
       <c r="E112" t="n">
-        <v>1.02397</v>
+        <v>1.02695</v>
       </c>
       <c r="F112" t="n">
-        <v>2.83684</v>
+        <v>2.84258</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36898</v>
+        <v>1.30416</v>
       </c>
       <c r="C113" t="n">
-        <v>3.1384</v>
+        <v>3.26171</v>
       </c>
       <c r="D113" t="n">
-        <v>3.82452</v>
+        <v>3.81246</v>
       </c>
       <c r="E113" t="n">
-        <v>0.996295</v>
+        <v>0.999597</v>
       </c>
       <c r="F113" t="n">
-        <v>2.80482</v>
+        <v>2.82986</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.35959</v>
+        <v>1.28568</v>
       </c>
       <c r="C114" t="n">
-        <v>3.07648</v>
+        <v>3.17579</v>
       </c>
       <c r="D114" t="n">
-        <v>3.71424</v>
+        <v>3.78981</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9822959999999999</v>
+        <v>1.01742</v>
       </c>
       <c r="F114" t="n">
-        <v>2.73608</v>
+        <v>2.69364</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.37421</v>
+        <v>1.2573</v>
       </c>
       <c r="C115" t="n">
-        <v>3.03731</v>
+        <v>3.09858</v>
       </c>
       <c r="D115" t="n">
-        <v>3.64448</v>
+        <v>3.68013</v>
       </c>
       <c r="E115" t="n">
-        <v>0.991072</v>
+        <v>0.983868</v>
       </c>
       <c r="F115" t="n">
-        <v>2.66117</v>
+        <v>2.66889</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.34343</v>
+        <v>1.27811</v>
       </c>
       <c r="C116" t="n">
-        <v>2.99965</v>
+        <v>3.1171</v>
       </c>
       <c r="D116" t="n">
-        <v>3.56823</v>
+        <v>3.65714</v>
       </c>
       <c r="E116" t="n">
-        <v>0.967545</v>
+        <v>0.990526</v>
       </c>
       <c r="F116" t="n">
-        <v>2.64488</v>
+        <v>2.61046</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.34308</v>
+        <v>1.27503</v>
       </c>
       <c r="C117" t="n">
-        <v>2.90529</v>
+        <v>3.03703</v>
       </c>
       <c r="D117" t="n">
-        <v>3.55147</v>
+        <v>3.61696</v>
       </c>
       <c r="E117" t="n">
-        <v>0.987782</v>
+        <v>0.964525</v>
       </c>
       <c r="F117" t="n">
-        <v>2.5815</v>
+        <v>2.53918</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.32788</v>
+        <v>1.26699</v>
       </c>
       <c r="C118" t="n">
-        <v>2.8711</v>
+        <v>2.93373</v>
       </c>
       <c r="D118" t="n">
-        <v>3.54099</v>
+        <v>3.54112</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9766629999999999</v>
+        <v>0.972241</v>
       </c>
       <c r="F118" t="n">
-        <v>2.48947</v>
+        <v>2.4825</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32217</v>
+        <v>1.23432</v>
       </c>
       <c r="C119" t="n">
-        <v>2.83187</v>
+        <v>2.92427</v>
       </c>
       <c r="D119" t="n">
-        <v>3.47527</v>
+        <v>3.51851</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9691419999999999</v>
+        <v>0.958882</v>
       </c>
       <c r="F119" t="n">
-        <v>2.44828</v>
+        <v>2.50274</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32678</v>
+        <v>1.23059</v>
       </c>
       <c r="C120" t="n">
-        <v>2.7598</v>
+        <v>2.86228</v>
       </c>
       <c r="D120" t="n">
-        <v>3.45443</v>
+        <v>3.51169</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9524010000000001</v>
+        <v>0.941177</v>
       </c>
       <c r="F120" t="n">
-        <v>2.41354</v>
+        <v>2.41753</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.32444</v>
+        <v>1.25001</v>
       </c>
       <c r="C121" t="n">
-        <v>2.7589</v>
+        <v>2.82723</v>
       </c>
       <c r="D121" t="n">
-        <v>4.73439</v>
+        <v>4.81545</v>
       </c>
       <c r="E121" t="n">
-        <v>0.938478</v>
+        <v>0.944496</v>
       </c>
       <c r="F121" t="n">
-        <v>2.38213</v>
+        <v>2.40323</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.31061</v>
+        <v>1.23284</v>
       </c>
       <c r="C122" t="n">
-        <v>2.68548</v>
+        <v>2.80065</v>
       </c>
       <c r="D122" t="n">
-        <v>4.62021</v>
+        <v>4.75238</v>
       </c>
       <c r="E122" t="n">
-        <v>0.930899</v>
+        <v>0.931805</v>
       </c>
       <c r="F122" t="n">
-        <v>2.34604</v>
+        <v>2.34712</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.29064</v>
+        <v>1.22131</v>
       </c>
       <c r="C123" t="n">
-        <v>2.6511</v>
+        <v>2.78428</v>
       </c>
       <c r="D123" t="n">
-        <v>4.57332</v>
+        <v>4.64842</v>
       </c>
       <c r="E123" t="n">
-        <v>1.26796</v>
+        <v>1.29457</v>
       </c>
       <c r="F123" t="n">
-        <v>3.57218</v>
+        <v>3.59364</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.63445</v>
+        <v>1.51957</v>
       </c>
       <c r="C124" t="n">
-        <v>3.91351</v>
+        <v>4.01741</v>
       </c>
       <c r="D124" t="n">
-        <v>4.45675</v>
+        <v>4.54414</v>
       </c>
       <c r="E124" t="n">
-        <v>1.26552</v>
+        <v>1.28291</v>
       </c>
       <c r="F124" t="n">
-        <v>3.50137</v>
+        <v>3.51194</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.60215</v>
+        <v>1.51165</v>
       </c>
       <c r="C125" t="n">
-        <v>3.82685</v>
+        <v>3.94781</v>
       </c>
       <c r="D125" t="n">
-        <v>4.35631</v>
+        <v>4.47319</v>
       </c>
       <c r="E125" t="n">
-        <v>1.27688</v>
+        <v>1.27212</v>
       </c>
       <c r="F125" t="n">
-        <v>3.42514</v>
+        <v>3.38127</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.64331</v>
+        <v>1.51661</v>
       </c>
       <c r="C126" t="n">
-        <v>3.76957</v>
+        <v>3.91917</v>
       </c>
       <c r="D126" t="n">
-        <v>4.34493</v>
+        <v>4.35723</v>
       </c>
       <c r="E126" t="n">
-        <v>1.25065</v>
+        <v>1.26614</v>
       </c>
       <c r="F126" t="n">
-        <v>3.33343</v>
+        <v>3.31856</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.62357</v>
+        <v>1.53994</v>
       </c>
       <c r="C127" t="n">
-        <v>3.69955</v>
+        <v>3.83107</v>
       </c>
       <c r="D127" t="n">
-        <v>4.29232</v>
+        <v>4.34759</v>
       </c>
       <c r="E127" t="n">
-        <v>1.27983</v>
+        <v>1.28312</v>
       </c>
       <c r="F127" t="n">
-        <v>3.25296</v>
+        <v>3.25105</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.65473</v>
+        <v>1.53419</v>
       </c>
       <c r="C128" t="n">
-        <v>3.59936</v>
+        <v>3.70607</v>
       </c>
       <c r="D128" t="n">
-        <v>4.18472</v>
+        <v>4.26016</v>
       </c>
       <c r="E128" t="n">
-        <v>1.26548</v>
+        <v>1.28894</v>
       </c>
       <c r="F128" t="n">
-        <v>3.18315</v>
+        <v>3.18302</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.62961</v>
+        <v>1.53936</v>
       </c>
       <c r="C129" t="n">
-        <v>3.50536</v>
+        <v>3.63796</v>
       </c>
       <c r="D129" t="n">
-        <v>4.12275</v>
+        <v>4.18352</v>
       </c>
       <c r="E129" t="n">
-        <v>1.28422</v>
+        <v>1.26257</v>
       </c>
       <c r="F129" t="n">
-        <v>3.12515</v>
+        <v>3.12109</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.62874</v>
+        <v>1.51948</v>
       </c>
       <c r="C130" t="n">
-        <v>3.47897</v>
+        <v>3.57996</v>
       </c>
       <c r="D130" t="n">
-        <v>4.07749</v>
+        <v>4.14245</v>
       </c>
       <c r="E130" t="n">
-        <v>1.27896</v>
+        <v>1.2957</v>
       </c>
       <c r="F130" t="n">
-        <v>3.09218</v>
+        <v>3.08257</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.63601</v>
+        <v>1.51719</v>
       </c>
       <c r="C131" t="n">
-        <v>3.38071</v>
+        <v>3.54232</v>
       </c>
       <c r="D131" t="n">
-        <v>4.01856</v>
+        <v>4.11524</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26472</v>
+        <v>1.27283</v>
       </c>
       <c r="F131" t="n">
-        <v>3.01516</v>
+        <v>3.06822</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.65665</v>
+        <v>1.47916</v>
       </c>
       <c r="C132" t="n">
-        <v>3.33065</v>
+        <v>3.44864</v>
       </c>
       <c r="D132" t="n">
-        <v>3.96398</v>
+        <v>4.03533</v>
       </c>
       <c r="E132" t="n">
-        <v>1.2694</v>
+        <v>1.29467</v>
       </c>
       <c r="F132" t="n">
-        <v>2.96037</v>
+        <v>2.93814</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.64383</v>
+        <v>1.46765</v>
       </c>
       <c r="C133" t="n">
-        <v>3.30289</v>
+        <v>3.42168</v>
       </c>
       <c r="D133" t="n">
-        <v>3.91579</v>
+        <v>4.02589</v>
       </c>
       <c r="E133" t="n">
-        <v>1.27165</v>
+        <v>1.2666</v>
       </c>
       <c r="F133" t="n">
-        <v>2.90125</v>
+        <v>2.937</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.64241</v>
+        <v>1.49585</v>
       </c>
       <c r="C134" t="n">
-        <v>3.22927</v>
+        <v>3.37265</v>
       </c>
       <c r="D134" t="n">
-        <v>3.89373</v>
+        <v>3.99287</v>
       </c>
       <c r="E134" t="n">
-        <v>1.24687</v>
+        <v>1.27937</v>
       </c>
       <c r="F134" t="n">
-        <v>2.86585</v>
+        <v>2.85363</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.60883</v>
+        <v>1.48852</v>
       </c>
       <c r="C135" t="n">
-        <v>3.23551</v>
+        <v>3.34037</v>
       </c>
       <c r="D135" t="n">
-        <v>5.48594</v>
+        <v>5.54296</v>
       </c>
       <c r="E135" t="n">
-        <v>1.26508</v>
+        <v>1.24889</v>
       </c>
       <c r="F135" t="n">
-        <v>2.81463</v>
+        <v>2.81488</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.63712</v>
+        <v>1.47722</v>
       </c>
       <c r="C136" t="n">
-        <v>3.18664</v>
+        <v>3.27317</v>
       </c>
       <c r="D136" t="n">
-        <v>5.3666</v>
+        <v>5.45133</v>
       </c>
       <c r="E136" t="n">
-        <v>1.24617</v>
+        <v>1.28203</v>
       </c>
       <c r="F136" t="n">
-        <v>2.76628</v>
+        <v>2.81702</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.63197</v>
+        <v>1.49146</v>
       </c>
       <c r="C137" t="n">
-        <v>3.10668</v>
+        <v>3.25883</v>
       </c>
       <c r="D137" t="n">
-        <v>5.2336</v>
+        <v>5.34411</v>
       </c>
       <c r="E137" t="n">
-        <v>1.58635</v>
+        <v>1.62484</v>
       </c>
       <c r="F137" t="n">
-        <v>4.13373</v>
+        <v>4.18611</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.97047</v>
+        <v>1.80913</v>
       </c>
       <c r="C138" t="n">
-        <v>4.53461</v>
+        <v>4.67404</v>
       </c>
       <c r="D138" t="n">
-        <v>5.1519</v>
+        <v>5.20468</v>
       </c>
       <c r="E138" t="n">
-        <v>1.60168</v>
+        <v>1.5938</v>
       </c>
       <c r="F138" t="n">
-        <v>4.07456</v>
+        <v>4.06455</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.9879</v>
+        <v>1.80282</v>
       </c>
       <c r="C139" t="n">
-        <v>4.47753</v>
+        <v>4.59258</v>
       </c>
       <c r="D139" t="n">
-        <v>5.08736</v>
+        <v>5.13998</v>
       </c>
       <c r="E139" t="n">
-        <v>1.61179</v>
+        <v>1.64979</v>
       </c>
       <c r="F139" t="n">
-        <v>3.98992</v>
+        <v>3.97256</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.95019</v>
+        <v>1.77543</v>
       </c>
       <c r="C140" t="n">
-        <v>4.33112</v>
+        <v>4.49189</v>
       </c>
       <c r="D140" t="n">
-        <v>4.96671</v>
+        <v>5.06966</v>
       </c>
       <c r="E140" t="n">
-        <v>1.58768</v>
+        <v>1.61423</v>
       </c>
       <c r="F140" t="n">
-        <v>3.82692</v>
+        <v>3.87869</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.95392</v>
+        <v>1.83017</v>
       </c>
       <c r="C141" t="n">
-        <v>4.23394</v>
+        <v>4.41408</v>
       </c>
       <c r="D141" t="n">
-        <v>4.88928</v>
+        <v>4.99297</v>
       </c>
       <c r="E141" t="n">
-        <v>1.63349</v>
+        <v>1.59609</v>
       </c>
       <c r="F141" t="n">
-        <v>3.79294</v>
+        <v>3.80881</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.95796</v>
+        <v>1.79316</v>
       </c>
       <c r="C142" t="n">
-        <v>4.16073</v>
+        <v>4.28719</v>
       </c>
       <c r="D142" t="n">
-        <v>4.80627</v>
+        <v>4.86083</v>
       </c>
       <c r="E142" t="n">
-        <v>1.6228</v>
+        <v>1.61022</v>
       </c>
       <c r="F142" t="n">
-        <v>3.68808</v>
+        <v>3.72984</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.97058</v>
+        <v>1.77332</v>
       </c>
       <c r="C143" t="n">
-        <v>4.02738</v>
+        <v>4.22363</v>
       </c>
       <c r="D143" t="n">
-        <v>4.70619</v>
+        <v>4.82576</v>
       </c>
       <c r="E143" t="n">
-        <v>1.61779</v>
+        <v>1.60797</v>
       </c>
       <c r="F143" t="n">
-        <v>3.64025</v>
+        <v>3.62718</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.48192</v>
+        <v>0.554051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.803482</v>
+        <v>0.74881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76596</v>
+        <v>0.5871189999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.203953</v>
+        <v>0.282573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.583296</v>
+        <v>1.00428</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413607</v>
+        <v>0.415224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.780883</v>
+        <v>1.13148</v>
       </c>
       <c r="D3" t="n">
-        <v>0.764548</v>
+        <v>1.07817</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200887</v>
+        <v>0.332452</v>
       </c>
       <c r="F3" t="n">
-        <v>0.578331</v>
+        <v>0.664863</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.417767</v>
+        <v>0.316908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.795915</v>
+        <v>0.6795099999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793708</v>
+        <v>0.772451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191065</v>
+        <v>0.231846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575483</v>
+        <v>0.794973</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.397785</v>
+        <v>0.422395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783269</v>
+        <v>0.912339</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73761</v>
+        <v>0.830881</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187343</v>
+        <v>0.280724</v>
       </c>
       <c r="F5" t="n">
-        <v>0.568485</v>
+        <v>0.871499</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.401363</v>
+        <v>0.306557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758535</v>
+        <v>0.877003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.751711</v>
+        <v>0.865974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18477</v>
+        <v>0.267554</v>
       </c>
       <c r="F6" t="n">
-        <v>0.556011</v>
+        <v>0.729477</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.392046</v>
+        <v>0.429549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.756528</v>
+        <v>0.710956</v>
       </c>
       <c r="D7" t="n">
-        <v>0.905757</v>
+        <v>1.74959</v>
       </c>
       <c r="E7" t="n">
-        <v>0.181212</v>
+        <v>0.385715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.55271</v>
+        <v>1.05924</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.388947</v>
+        <v>0.239646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.764621</v>
+        <v>0.745231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8864880000000001</v>
+        <v>1.32452</v>
       </c>
       <c r="E8" t="n">
-        <v>0.184837</v>
+        <v>0.153156</v>
       </c>
       <c r="F8" t="n">
-        <v>0.562923</v>
+        <v>0.798367</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.388703</v>
+        <v>0.261958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75364</v>
+        <v>0.835656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.868153</v>
+        <v>0.8596279999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.26003</v>
+        <v>0.245708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.659176</v>
+        <v>0.963471</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466197</v>
+        <v>0.485039</v>
       </c>
       <c r="C10" t="n">
-        <v>0.850452</v>
+        <v>0.869275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8688360000000001</v>
+        <v>0.861878</v>
       </c>
       <c r="E10" t="n">
-        <v>0.255261</v>
+        <v>0.258726</v>
       </c>
       <c r="F10" t="n">
-        <v>0.635594</v>
+        <v>0.705972</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466197</v>
+        <v>0.474368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.891846</v>
+        <v>1.09033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.864375</v>
+        <v>0.974641</v>
       </c>
       <c r="E11" t="n">
-        <v>0.247891</v>
+        <v>0.363168</v>
       </c>
       <c r="F11" t="n">
-        <v>0.652701</v>
+        <v>1.23053</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465645</v>
+        <v>0.617475</v>
       </c>
       <c r="C12" t="n">
-        <v>0.886135</v>
+        <v>1.0157</v>
       </c>
       <c r="D12" t="n">
-        <v>0.849743</v>
+        <v>1.25184</v>
       </c>
       <c r="E12" t="n">
-        <v>0.238741</v>
+        <v>0.332583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.647127</v>
+        <v>0.956195</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.457595</v>
+        <v>0.573146</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8372270000000001</v>
+        <v>0.840573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.828494</v>
+        <v>0.89281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.235963</v>
+        <v>0.300753</v>
       </c>
       <c r="F13" t="n">
-        <v>0.61788</v>
+        <v>0.654548</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4476</v>
+        <v>0.399237</v>
       </c>
       <c r="C14" t="n">
-        <v>0.843939</v>
+        <v>0.684115</v>
       </c>
       <c r="D14" t="n">
-        <v>0.833325</v>
+        <v>0.938222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.223588</v>
+        <v>0.241439</v>
       </c>
       <c r="F14" t="n">
-        <v>0.617821</v>
+        <v>0.698596</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449421</v>
+        <v>0.422654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8207680000000001</v>
+        <v>0.789567</v>
       </c>
       <c r="D15" t="n">
-        <v>0.82281</v>
+        <v>0.681782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223951</v>
+        <v>0.375329</v>
       </c>
       <c r="F15" t="n">
-        <v>0.615098</v>
+        <v>0.766078</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435577</v>
+        <v>0.239858</v>
       </c>
       <c r="C16" t="n">
-        <v>0.860923</v>
+        <v>0.5419389999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.824901</v>
+        <v>1.19836</v>
       </c>
       <c r="E16" t="n">
-        <v>0.213348</v>
+        <v>0.45643</v>
       </c>
       <c r="F16" t="n">
-        <v>0.605032</v>
+        <v>0.685569</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441621</v>
+        <v>0.313854</v>
       </c>
       <c r="C17" t="n">
-        <v>0.830554</v>
+        <v>0.8337290000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.804276</v>
+        <v>1.24079</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208135</v>
+        <v>0.168583</v>
       </c>
       <c r="F17" t="n">
-        <v>0.59778</v>
+        <v>0.787034</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429907</v>
+        <v>0.310055</v>
       </c>
       <c r="C18" t="n">
-        <v>0.813591</v>
+        <v>0.8616279999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.798949</v>
+        <v>0.710966</v>
       </c>
       <c r="E18" t="n">
-        <v>0.201905</v>
+        <v>0.221672</v>
       </c>
       <c r="F18" t="n">
-        <v>0.598978</v>
+        <v>0.5734939999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450304</v>
+        <v>0.277827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8106910000000001</v>
+        <v>0.839637</v>
       </c>
       <c r="D19" t="n">
-        <v>0.819248</v>
+        <v>0.914985</v>
       </c>
       <c r="E19" t="n">
-        <v>0.197181</v>
+        <v>0.256842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.590521</v>
+        <v>0.530377</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438839</v>
+        <v>0.346907</v>
       </c>
       <c r="C20" t="n">
-        <v>0.80472</v>
+        <v>0.766956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.793025</v>
+        <v>0.917947</v>
       </c>
       <c r="E20" t="n">
-        <v>0.195299</v>
+        <v>0.252498</v>
       </c>
       <c r="F20" t="n">
-        <v>0.591287</v>
+        <v>0.727544</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415278</v>
+        <v>0.433855</v>
       </c>
       <c r="C21" t="n">
-        <v>0.800442</v>
+        <v>0.699346</v>
       </c>
       <c r="D21" t="n">
-        <v>0.952527</v>
+        <v>0.968735</v>
       </c>
       <c r="E21" t="n">
-        <v>0.194118</v>
+        <v>0.21775</v>
       </c>
       <c r="F21" t="n">
-        <v>0.578873</v>
+        <v>0.462956</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409983</v>
+        <v>0.491029</v>
       </c>
       <c r="C22" t="n">
-        <v>0.800202</v>
+        <v>0.726194</v>
       </c>
       <c r="D22" t="n">
-        <v>0.945319</v>
+        <v>0.879072</v>
       </c>
       <c r="E22" t="n">
-        <v>0.194684</v>
+        <v>0.193131</v>
       </c>
       <c r="F22" t="n">
-        <v>0.585097</v>
+        <v>0.639785</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40511</v>
+        <v>0.307585</v>
       </c>
       <c r="C23" t="n">
-        <v>0.793082</v>
+        <v>0.999076</v>
       </c>
       <c r="D23" t="n">
-        <v>0.943762</v>
+        <v>1.47504</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42763</v>
+        <v>0.582263</v>
       </c>
       <c r="F23" t="n">
-        <v>0.720847</v>
+        <v>0.710692</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.672392</v>
+        <v>0.757526</v>
       </c>
       <c r="C24" t="n">
-        <v>0.976346</v>
+        <v>0.8630640000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9174949999999999</v>
+        <v>0.834348</v>
       </c>
       <c r="E24" t="n">
-        <v>0.420717</v>
+        <v>0.505619</v>
       </c>
       <c r="F24" t="n">
-        <v>0.751348</v>
+        <v>0.811257</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.633236</v>
+        <v>0.671013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.894219</v>
+        <v>1.06345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.918327</v>
+        <v>0.909338</v>
       </c>
       <c r="E25" t="n">
-        <v>0.397047</v>
+        <v>0.580583</v>
       </c>
       <c r="F25" t="n">
-        <v>0.661914</v>
+        <v>0.697219</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.621128</v>
+        <v>0.5698299999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.876839</v>
+        <v>1.11916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.900118</v>
+        <v>0.99363</v>
       </c>
       <c r="E26" t="n">
-        <v>0.388179</v>
+        <v>0.430359</v>
       </c>
       <c r="F26" t="n">
-        <v>0.652736</v>
+        <v>0.8767509999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.630139</v>
+        <v>0.660657</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8719479999999999</v>
+        <v>1.06213</v>
       </c>
       <c r="D27" t="n">
-        <v>0.881993</v>
+        <v>0.65289</v>
       </c>
       <c r="E27" t="n">
-        <v>0.374119</v>
+        <v>0.539084</v>
       </c>
       <c r="F27" t="n">
-        <v>0.647858</v>
+        <v>1.01138</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588228</v>
+        <v>0.707241</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8635890000000001</v>
+        <v>1.0573</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8772450000000001</v>
+        <v>1.04906</v>
       </c>
       <c r="E28" t="n">
-        <v>0.36124</v>
+        <v>0.377383</v>
       </c>
       <c r="F28" t="n">
-        <v>0.652332</v>
+        <v>0.8214939999999999</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579385</v>
+        <v>0.579393</v>
       </c>
       <c r="C29" t="n">
-        <v>0.859093</v>
+        <v>1.31486</v>
       </c>
       <c r="D29" t="n">
-        <v>0.883281</v>
+        <v>1.50069</v>
       </c>
       <c r="E29" t="n">
-        <v>0.35249</v>
+        <v>0.518846</v>
       </c>
       <c r="F29" t="n">
-        <v>0.635771</v>
+        <v>1.02764</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.577458</v>
+        <v>0.667133</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8632919999999999</v>
+        <v>0.853036</v>
       </c>
       <c r="D30" t="n">
-        <v>0.867932</v>
+        <v>0.709907</v>
       </c>
       <c r="E30" t="n">
-        <v>0.332001</v>
+        <v>0.451424</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6465070000000001</v>
+        <v>0.620683</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.561315</v>
+        <v>0.546959</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8408870000000001</v>
+        <v>0.979505</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8449719999999999</v>
+        <v>0.845967</v>
       </c>
       <c r="E31" t="n">
-        <v>0.319588</v>
+        <v>0.369215</v>
       </c>
       <c r="F31" t="n">
-        <v>0.631279</v>
+        <v>0.914336</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.553531</v>
+        <v>0.668999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.852399</v>
+        <v>0.979753</v>
       </c>
       <c r="D32" t="n">
-        <v>0.842844</v>
+        <v>0.889239</v>
       </c>
       <c r="E32" t="n">
-        <v>0.320879</v>
+        <v>0.447658</v>
       </c>
       <c r="F32" t="n">
-        <v>0.61826</v>
+        <v>0.908177</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.533807</v>
+        <v>0.486271</v>
       </c>
       <c r="C33" t="n">
-        <v>0.830713</v>
+        <v>1.01208</v>
       </c>
       <c r="D33" t="n">
-        <v>0.842776</v>
+        <v>0.706705</v>
       </c>
       <c r="E33" t="n">
-        <v>0.310478</v>
+        <v>0.333666</v>
       </c>
       <c r="F33" t="n">
-        <v>0.627621</v>
+        <v>0.821022</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534656</v>
+        <v>0.470411</v>
       </c>
       <c r="C34" t="n">
-        <v>0.837732</v>
+        <v>0.927648</v>
       </c>
       <c r="D34" t="n">
-        <v>0.832028</v>
+        <v>0.98459</v>
       </c>
       <c r="E34" t="n">
-        <v>0.296947</v>
+        <v>0.32993</v>
       </c>
       <c r="F34" t="n">
-        <v>0.609051</v>
+        <v>0.758506</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525997</v>
+        <v>0.592624</v>
       </c>
       <c r="C35" t="n">
-        <v>0.848962</v>
+        <v>1.20933</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0957</v>
+        <v>1.69098</v>
       </c>
       <c r="E35" t="n">
-        <v>0.288351</v>
+        <v>0.430304</v>
       </c>
       <c r="F35" t="n">
-        <v>0.614051</v>
+        <v>0.770529</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51381</v>
+        <v>0.589272</v>
       </c>
       <c r="C36" t="n">
-        <v>0.82437</v>
+        <v>1.12326</v>
       </c>
       <c r="D36" t="n">
-        <v>1.06847</v>
+        <v>1.52546</v>
       </c>
       <c r="E36" t="n">
-        <v>0.283671</v>
+        <v>0.225711</v>
       </c>
       <c r="F36" t="n">
-        <v>0.605606</v>
+        <v>0.8467710000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.506538</v>
+        <v>0.499389</v>
       </c>
       <c r="C37" t="n">
-        <v>0.823074</v>
+        <v>0.779097</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04641</v>
+        <v>1.02599</v>
       </c>
       <c r="E37" t="n">
-        <v>0.541672</v>
+        <v>0.591854</v>
       </c>
       <c r="F37" t="n">
-        <v>0.829854</v>
+        <v>1.07363</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7611329999999999</v>
+        <v>0.820678</v>
       </c>
       <c r="C38" t="n">
-        <v>1.06968</v>
+        <v>1.1512</v>
       </c>
       <c r="D38" t="n">
-        <v>1.06623</v>
+        <v>1.57616</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5069900000000001</v>
+        <v>0.620885</v>
       </c>
       <c r="F38" t="n">
-        <v>0.810578</v>
+        <v>1.08624</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766357</v>
+        <v>0.87888</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06264</v>
+        <v>1.35054</v>
       </c>
       <c r="D39" t="n">
-        <v>1.04109</v>
+        <v>1.11544</v>
       </c>
       <c r="E39" t="n">
-        <v>0.496029</v>
+        <v>0.506482</v>
       </c>
       <c r="F39" t="n">
-        <v>0.805586</v>
+        <v>1.1951</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.724986</v>
+        <v>0.767251</v>
       </c>
       <c r="C40" t="n">
-        <v>1.04135</v>
+        <v>1.36592</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00488</v>
+        <v>1.16148</v>
       </c>
       <c r="E40" t="n">
-        <v>0.475422</v>
+        <v>0.514033</v>
       </c>
       <c r="F40" t="n">
-        <v>0.78887</v>
+        <v>0.923893</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.709745</v>
+        <v>0.914154</v>
       </c>
       <c r="C41" t="n">
-        <v>1.03056</v>
+        <v>1.19248</v>
       </c>
       <c r="D41" t="n">
-        <v>0.98811</v>
+        <v>0.951074</v>
       </c>
       <c r="E41" t="n">
-        <v>0.457892</v>
+        <v>0.619228</v>
       </c>
       <c r="F41" t="n">
-        <v>0.769393</v>
+        <v>0.942343</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.691329</v>
+        <v>0.708877</v>
       </c>
       <c r="C42" t="n">
-        <v>1.02806</v>
+        <v>1.13237</v>
       </c>
       <c r="D42" t="n">
-        <v>0.978858</v>
+        <v>1.56109</v>
       </c>
       <c r="E42" t="n">
-        <v>0.447521</v>
+        <v>0.613267</v>
       </c>
       <c r="F42" t="n">
-        <v>0.763099</v>
+        <v>0.860367</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6810929999999999</v>
+        <v>0.804305</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01043</v>
+        <v>1.45565</v>
       </c>
       <c r="D43" t="n">
-        <v>0.987291</v>
+        <v>0.861721</v>
       </c>
       <c r="E43" t="n">
-        <v>0.422652</v>
+        <v>0.539398</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7713410000000001</v>
+        <v>0.79034</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665151</v>
+        <v>0.730107</v>
       </c>
       <c r="C44" t="n">
-        <v>1.02527</v>
+        <v>1.36453</v>
       </c>
       <c r="D44" t="n">
-        <v>0.97634</v>
+        <v>0.820151</v>
       </c>
       <c r="E44" t="n">
-        <v>0.410677</v>
+        <v>0.429012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.739779</v>
+        <v>1.03748</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.670382</v>
+        <v>0.701938</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02615</v>
+        <v>1.16514</v>
       </c>
       <c r="D45" t="n">
-        <v>0.997162</v>
+        <v>0.983845</v>
       </c>
       <c r="E45" t="n">
-        <v>0.39523</v>
+        <v>0.498522</v>
       </c>
       <c r="F45" t="n">
-        <v>0.735001</v>
+        <v>1.03173</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.634282</v>
+        <v>0.674892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.978752</v>
+        <v>1.16385</v>
       </c>
       <c r="D46" t="n">
-        <v>0.993157</v>
+        <v>1.30819</v>
       </c>
       <c r="E46" t="n">
-        <v>0.379844</v>
+        <v>0.512567</v>
       </c>
       <c r="F46" t="n">
-        <v>0.730594</v>
+        <v>0.886729</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636396</v>
+        <v>0.715622</v>
       </c>
       <c r="C47" t="n">
-        <v>0.97259</v>
+        <v>1.18394</v>
       </c>
       <c r="D47" t="n">
-        <v>0.936667</v>
+        <v>1.44023</v>
       </c>
       <c r="E47" t="n">
-        <v>0.367974</v>
+        <v>0.454176</v>
       </c>
       <c r="F47" t="n">
-        <v>0.712791</v>
+        <v>0.892967</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.608272</v>
+        <v>0.631556</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9892919999999999</v>
+        <v>1.1365</v>
       </c>
       <c r="D48" t="n">
-        <v>0.938778</v>
+        <v>1.0828</v>
       </c>
       <c r="E48" t="n">
-        <v>0.35676</v>
+        <v>0.469317</v>
       </c>
       <c r="F48" t="n">
-        <v>0.708324</v>
+        <v>1.02366</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605596</v>
+        <v>0.519188</v>
       </c>
       <c r="C49" t="n">
-        <v>0.976326</v>
+        <v>1.302</v>
       </c>
       <c r="D49" t="n">
-        <v>0.940379</v>
+        <v>0.90217</v>
       </c>
       <c r="E49" t="n">
-        <v>0.344449</v>
+        <v>0.298196</v>
       </c>
       <c r="F49" t="n">
-        <v>0.705072</v>
+        <v>0.622568</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.609464</v>
+        <v>0.683248</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9758019999999999</v>
+        <v>1.10917</v>
       </c>
       <c r="D50" t="n">
-        <v>1.48792</v>
+        <v>1.2713</v>
       </c>
       <c r="E50" t="n">
-        <v>0.337966</v>
+        <v>0.34487</v>
       </c>
       <c r="F50" t="n">
-        <v>0.697642</v>
+        <v>0.759735</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.577276</v>
+        <v>0.651873</v>
       </c>
       <c r="C51" t="n">
-        <v>0.957226</v>
+        <v>1.15059</v>
       </c>
       <c r="D51" t="n">
-        <v>1.43971</v>
+        <v>1.47226</v>
       </c>
       <c r="E51" t="n">
-        <v>0.584635</v>
+        <v>0.747967</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05611</v>
+        <v>1.24028</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575081</v>
+        <v>0.498833</v>
       </c>
       <c r="C52" t="n">
-        <v>0.990208</v>
+        <v>1.17485</v>
       </c>
       <c r="D52" t="n">
-        <v>1.44308</v>
+        <v>1.62598</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5790650000000001</v>
+        <v>0.548845</v>
       </c>
       <c r="F52" t="n">
-        <v>1.07726</v>
+        <v>0.790007</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.874301</v>
+        <v>1.0286</v>
       </c>
       <c r="C53" t="n">
-        <v>1.388</v>
+        <v>1.36064</v>
       </c>
       <c r="D53" t="n">
-        <v>1.43357</v>
+        <v>1.43236</v>
       </c>
       <c r="E53" t="n">
-        <v>0.565361</v>
+        <v>0.716437</v>
       </c>
       <c r="F53" t="n">
-        <v>1.02983</v>
+        <v>1.06626</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.841596</v>
+        <v>0.991026</v>
       </c>
       <c r="C54" t="n">
-        <v>1.38812</v>
+        <v>1.46373</v>
       </c>
       <c r="D54" t="n">
-        <v>1.42287</v>
+        <v>1.15192</v>
       </c>
       <c r="E54" t="n">
-        <v>0.538516</v>
+        <v>0.603726</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999241</v>
+        <v>0.950029</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.826143</v>
+        <v>1.00345</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38002</v>
+        <v>1.22886</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3882</v>
+        <v>1.52871</v>
       </c>
       <c r="E55" t="n">
-        <v>0.520304</v>
+        <v>0.585999</v>
       </c>
       <c r="F55" t="n">
-        <v>0.992938</v>
+        <v>0.930779</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.858784</v>
+        <v>0.754628</v>
       </c>
       <c r="C56" t="n">
-        <v>1.36476</v>
+        <v>1.07416</v>
       </c>
       <c r="D56" t="n">
-        <v>1.35224</v>
+        <v>1.4636</v>
       </c>
       <c r="E56" t="n">
-        <v>0.503617</v>
+        <v>0.529509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.969334</v>
+        <v>1.23422</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.791803</v>
+        <v>0.801553</v>
       </c>
       <c r="C57" t="n">
-        <v>1.33221</v>
+        <v>1.46122</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43442</v>
+        <v>1.54095</v>
       </c>
       <c r="E57" t="n">
-        <v>0.506345</v>
+        <v>0.5694</v>
       </c>
       <c r="F57" t="n">
-        <v>0.953148</v>
+        <v>1.089</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7861089999999999</v>
+        <v>0.922552</v>
       </c>
       <c r="C58" t="n">
-        <v>1.30895</v>
+        <v>1.32459</v>
       </c>
       <c r="D58" t="n">
-        <v>1.3092</v>
+        <v>1.55277</v>
       </c>
       <c r="E58" t="n">
-        <v>0.475023</v>
+        <v>0.552285</v>
       </c>
       <c r="F58" t="n">
-        <v>0.935728</v>
+        <v>0.875877</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.77506</v>
+        <v>0.811388</v>
       </c>
       <c r="C59" t="n">
-        <v>1.28919</v>
+        <v>1.10594</v>
       </c>
       <c r="D59" t="n">
-        <v>1.306</v>
+        <v>1.37392</v>
       </c>
       <c r="E59" t="n">
-        <v>0.477257</v>
+        <v>0.597944</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9351</v>
+        <v>0.968278</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.797299</v>
+        <v>0.882515</v>
       </c>
       <c r="C60" t="n">
-        <v>1.32186</v>
+        <v>1.35506</v>
       </c>
       <c r="D60" t="n">
-        <v>1.28949</v>
+        <v>1.31144</v>
       </c>
       <c r="E60" t="n">
-        <v>0.449684</v>
+        <v>0.463043</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9254250000000001</v>
+        <v>1.12538</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.760393</v>
+        <v>0.879224</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2574</v>
+        <v>1.29706</v>
       </c>
       <c r="D61" t="n">
-        <v>1.27877</v>
+        <v>1.46777</v>
       </c>
       <c r="E61" t="n">
-        <v>0.443017</v>
+        <v>0.526967</v>
       </c>
       <c r="F61" t="n">
-        <v>0.910919</v>
+        <v>0.876001</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.756275</v>
+        <v>0.709578</v>
       </c>
       <c r="C62" t="n">
-        <v>1.27581</v>
+        <v>0.830746</v>
       </c>
       <c r="D62" t="n">
-        <v>1.27989</v>
+        <v>1.50712</v>
       </c>
       <c r="E62" t="n">
-        <v>0.442902</v>
+        <v>0.477448</v>
       </c>
       <c r="F62" t="n">
-        <v>0.892587</v>
+        <v>1.11668</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760404</v>
+        <v>0.613985</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22628</v>
+        <v>1.22306</v>
       </c>
       <c r="D63" t="n">
-        <v>1.30129</v>
+        <v>1.58747</v>
       </c>
       <c r="E63" t="n">
-        <v>0.421562</v>
+        <v>0.288165</v>
       </c>
       <c r="F63" t="n">
-        <v>0.889245</v>
+        <v>0.719104</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7271260000000001</v>
+        <v>0.753933</v>
       </c>
       <c r="C64" t="n">
-        <v>1.28719</v>
+        <v>1.08455</v>
       </c>
       <c r="D64" t="n">
-        <v>2.33222</v>
+        <v>1.92534</v>
       </c>
       <c r="E64" t="n">
-        <v>0.411357</v>
+        <v>0.477677</v>
       </c>
       <c r="F64" t="n">
-        <v>0.880762</v>
+        <v>1.07036</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.723262</v>
+        <v>0.625763</v>
       </c>
       <c r="C65" t="n">
-        <v>1.21216</v>
+        <v>1.02821</v>
       </c>
       <c r="D65" t="n">
-        <v>2.29496</v>
+        <v>1.90973</v>
       </c>
       <c r="E65" t="n">
-        <v>0.404514</v>
+        <v>0.431745</v>
       </c>
       <c r="F65" t="n">
-        <v>0.88279</v>
+        <v>1.12396</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.715155</v>
+        <v>0.696476</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20282</v>
+        <v>1.12637</v>
       </c>
       <c r="D66" t="n">
-        <v>2.28978</v>
+        <v>1.61214</v>
       </c>
       <c r="E66" t="n">
-        <v>0.685575</v>
+        <v>0.703526</v>
       </c>
       <c r="F66" t="n">
-        <v>1.56739</v>
+        <v>1.03519</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00601</v>
+        <v>1.16052</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96259</v>
+        <v>1.51474</v>
       </c>
       <c r="D67" t="n">
-        <v>2.22847</v>
+        <v>1.82857</v>
       </c>
       <c r="E67" t="n">
-        <v>0.643406</v>
+        <v>0.715392</v>
       </c>
       <c r="F67" t="n">
-        <v>1.61191</v>
+        <v>1.24547</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.987974</v>
+        <v>1.06337</v>
       </c>
       <c r="C68" t="n">
-        <v>1.92156</v>
+        <v>1.18589</v>
       </c>
       <c r="D68" t="n">
-        <v>2.17715</v>
+        <v>1.57796</v>
       </c>
       <c r="E68" t="n">
-        <v>0.634676</v>
+        <v>0.680296</v>
       </c>
       <c r="F68" t="n">
-        <v>1.48616</v>
+        <v>1.19878</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.967135</v>
+        <v>1.00523</v>
       </c>
       <c r="C69" t="n">
-        <v>1.86657</v>
+        <v>1.46618</v>
       </c>
       <c r="D69" t="n">
-        <v>2.15431</v>
+        <v>1.65537</v>
       </c>
       <c r="E69" t="n">
-        <v>0.642224</v>
+        <v>0.574841</v>
       </c>
       <c r="F69" t="n">
-        <v>1.46046</v>
+        <v>1.24751</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.990312</v>
+        <v>0.977175</v>
       </c>
       <c r="C70" t="n">
-        <v>1.90088</v>
+        <v>1.45296</v>
       </c>
       <c r="D70" t="n">
-        <v>2.11755</v>
+        <v>1.47086</v>
       </c>
       <c r="E70" t="n">
-        <v>0.592132</v>
+        <v>0.646258</v>
       </c>
       <c r="F70" t="n">
-        <v>1.4219</v>
+        <v>1.18056</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.971942</v>
+        <v>1.07261</v>
       </c>
       <c r="C71" t="n">
-        <v>1.82635</v>
+        <v>1.55239</v>
       </c>
       <c r="D71" t="n">
-        <v>2.05849</v>
+        <v>1.66603</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.52935</v>
       </c>
       <c r="F71" t="n">
-        <v>1.38176</v>
+        <v>1.17058</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9171</v>
+        <v>0.8337639999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>1.76126</v>
+        <v>1.44281</v>
       </c>
       <c r="D72" t="n">
-        <v>2.01323</v>
+        <v>1.47633</v>
       </c>
       <c r="E72" t="n">
-        <v>0.563403</v>
+        <v>0.476396</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36579</v>
+        <v>1.02689</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9023330000000001</v>
+        <v>1.00863</v>
       </c>
       <c r="C73" t="n">
-        <v>1.76418</v>
+        <v>1.49414</v>
       </c>
       <c r="D73" t="n">
-        <v>2.01274</v>
+        <v>1.33886</v>
       </c>
       <c r="E73" t="n">
-        <v>0.560516</v>
+        <v>0.54383</v>
       </c>
       <c r="F73" t="n">
-        <v>1.33711</v>
+        <v>0.974777</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8995919999999999</v>
+        <v>0.991463</v>
       </c>
       <c r="C74" t="n">
-        <v>1.72251</v>
+        <v>1.33886</v>
       </c>
       <c r="D74" t="n">
-        <v>2.03143</v>
+        <v>1.48574</v>
       </c>
       <c r="E74" t="n">
-        <v>0.538111</v>
+        <v>0.585672</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3107</v>
+        <v>1.14087</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.878211</v>
+        <v>0.953824</v>
       </c>
       <c r="C75" t="n">
-        <v>1.70881</v>
+        <v>1.49463</v>
       </c>
       <c r="D75" t="n">
-        <v>2.0054</v>
+        <v>1.44535</v>
       </c>
       <c r="E75" t="n">
-        <v>0.530048</v>
+        <v>0.544699</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30726</v>
+        <v>1.11743</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8773879999999999</v>
+        <v>0.871499</v>
       </c>
       <c r="C76" t="n">
-        <v>1.68605</v>
+        <v>1.50069</v>
       </c>
       <c r="D76" t="n">
-        <v>1.97698</v>
+        <v>1.23234</v>
       </c>
       <c r="E76" t="n">
-        <v>0.515438</v>
+        <v>0.501725</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28136</v>
+        <v>1.12099</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.879552</v>
+        <v>0.8725889999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>1.64117</v>
+        <v>1.21696</v>
       </c>
       <c r="D77" t="n">
-        <v>1.97857</v>
+        <v>1.03284</v>
       </c>
       <c r="E77" t="n">
-        <v>0.505283</v>
+        <v>0.448735</v>
       </c>
       <c r="F77" t="n">
-        <v>1.27281</v>
+        <v>0.890456</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.880011</v>
+        <v>0.762118</v>
       </c>
       <c r="C78" t="n">
-        <v>1.61649</v>
+        <v>1.2614</v>
       </c>
       <c r="D78" t="n">
-        <v>3.32192</v>
+        <v>1.47655</v>
       </c>
       <c r="E78" t="n">
-        <v>0.492633</v>
+        <v>0.502663</v>
       </c>
       <c r="F78" t="n">
-        <v>1.21132</v>
+        <v>0.94901</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.83056</v>
+        <v>0.854208</v>
       </c>
       <c r="C79" t="n">
-        <v>1.56754</v>
+        <v>1.18002</v>
       </c>
       <c r="D79" t="n">
-        <v>3.315</v>
+        <v>2.14175</v>
       </c>
       <c r="E79" t="n">
-        <v>0.48532</v>
+        <v>0.490905</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19906</v>
+        <v>1.17919</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.830153</v>
+        <v>0.781099</v>
       </c>
       <c r="C80" t="n">
-        <v>1.55374</v>
+        <v>1.25941</v>
       </c>
       <c r="D80" t="n">
-        <v>3.16382</v>
+        <v>2.00748</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7799970000000001</v>
+        <v>0.680329</v>
       </c>
       <c r="F80" t="n">
-        <v>2.11413</v>
+        <v>1.22277</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1235</v>
+        <v>1.00783</v>
       </c>
       <c r="C81" t="n">
-        <v>2.54635</v>
+        <v>1.79607</v>
       </c>
       <c r="D81" t="n">
-        <v>3.11278</v>
+        <v>1.95554</v>
       </c>
       <c r="E81" t="n">
-        <v>0.757182</v>
+        <v>0.739993</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0635</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10631</v>
+        <v>1.05797</v>
       </c>
       <c r="C82" t="n">
-        <v>2.46866</v>
+        <v>1.71105</v>
       </c>
       <c r="D82" t="n">
-        <v>3.03991</v>
+        <v>1.9742</v>
       </c>
       <c r="E82" t="n">
-        <v>0.732262</v>
+        <v>0.751312</v>
       </c>
       <c r="F82" t="n">
-        <v>2.03027</v>
+        <v>1.2494</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.08465</v>
+        <v>1.09396</v>
       </c>
       <c r="C83" t="n">
-        <v>2.43871</v>
+        <v>1.77584</v>
       </c>
       <c r="D83" t="n">
-        <v>2.99651</v>
+        <v>1.46351</v>
       </c>
       <c r="E83" t="n">
-        <v>0.720483</v>
+        <v>0.551069</v>
       </c>
       <c r="F83" t="n">
-        <v>1.98165</v>
+        <v>1.23764</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.12327</v>
+        <v>1.07751</v>
       </c>
       <c r="C84" t="n">
-        <v>2.33665</v>
+        <v>1.87414</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93193</v>
+        <v>1.7724</v>
       </c>
       <c r="E84" t="n">
-        <v>0.722369</v>
+        <v>0.712723</v>
       </c>
       <c r="F84" t="n">
-        <v>1.92288</v>
+        <v>1.34237</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09012</v>
+        <v>0.951804</v>
       </c>
       <c r="C85" t="n">
-        <v>2.31585</v>
+        <v>1.24488</v>
       </c>
       <c r="D85" t="n">
-        <v>2.90882</v>
+        <v>1.78262</v>
       </c>
       <c r="E85" t="n">
-        <v>0.702292</v>
+        <v>0.488465</v>
       </c>
       <c r="F85" t="n">
-        <v>1.85398</v>
+        <v>1.45999</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03936</v>
+        <v>1.03251</v>
       </c>
       <c r="C86" t="n">
-        <v>2.23263</v>
+        <v>1.55879</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8604</v>
+        <v>1.88918</v>
       </c>
       <c r="E86" t="n">
-        <v>0.673413</v>
+        <v>0.557867</v>
       </c>
       <c r="F86" t="n">
-        <v>1.82236</v>
+        <v>1.23094</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02233</v>
+        <v>1.08329</v>
       </c>
       <c r="C87" t="n">
-        <v>2.22673</v>
+        <v>1.62831</v>
       </c>
       <c r="D87" t="n">
-        <v>2.82225</v>
+        <v>1.43832</v>
       </c>
       <c r="E87" t="n">
-        <v>0.652786</v>
+        <v>0.540501</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7688</v>
+        <v>1.27694</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00682</v>
+        <v>0.946348</v>
       </c>
       <c r="C88" t="n">
-        <v>2.16147</v>
+        <v>1.49939</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78343</v>
+        <v>1.9478</v>
       </c>
       <c r="E88" t="n">
-        <v>0.645205</v>
+        <v>0.483705</v>
       </c>
       <c r="F88" t="n">
-        <v>1.7763</v>
+        <v>0.923442</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.994754</v>
+        <v>1.03214</v>
       </c>
       <c r="C89" t="n">
-        <v>2.10644</v>
+        <v>1.35982</v>
       </c>
       <c r="D89" t="n">
-        <v>2.70388</v>
+        <v>1.67163</v>
       </c>
       <c r="E89" t="n">
-        <v>0.63486</v>
+        <v>0.465409</v>
       </c>
       <c r="F89" t="n">
-        <v>1.68359</v>
+        <v>1.02152</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.987913</v>
+        <v>1.08645</v>
       </c>
       <c r="C90" t="n">
-        <v>2.07847</v>
+        <v>1.48028</v>
       </c>
       <c r="D90" t="n">
-        <v>2.69179</v>
+        <v>2.05415</v>
       </c>
       <c r="E90" t="n">
-        <v>0.617431</v>
+        <v>0.465894</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6725</v>
+        <v>1.13374</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.989514</v>
+        <v>0.911309</v>
       </c>
       <c r="C91" t="n">
-        <v>2.03157</v>
+        <v>1.29207</v>
       </c>
       <c r="D91" t="n">
-        <v>2.65811</v>
+        <v>1.88423</v>
       </c>
       <c r="E91" t="n">
-        <v>0.61226</v>
+        <v>0.468236</v>
       </c>
       <c r="F91" t="n">
-        <v>1.64121</v>
+        <v>1.32169</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.958288</v>
+        <v>0.9051169999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98569</v>
+        <v>1.5307</v>
       </c>
       <c r="D92" t="n">
-        <v>3.79718</v>
+        <v>2.36938</v>
       </c>
       <c r="E92" t="n">
-        <v>0.592885</v>
+        <v>0.53206</v>
       </c>
       <c r="F92" t="n">
-        <v>1.57862</v>
+        <v>1.30042</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949763</v>
+        <v>0.834214</v>
       </c>
       <c r="C93" t="n">
-        <v>1.94377</v>
+        <v>1.28573</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72392</v>
+        <v>2.66677</v>
       </c>
       <c r="E93" t="n">
-        <v>0.585001</v>
+        <v>0.41311</v>
       </c>
       <c r="F93" t="n">
-        <v>1.59523</v>
+        <v>1.27653</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.935763</v>
+        <v>0.88989</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93385</v>
+        <v>1.54411</v>
       </c>
       <c r="D94" t="n">
-        <v>3.66593</v>
+        <v>2.81686</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8840209999999999</v>
+        <v>0.818265</v>
       </c>
       <c r="F94" t="n">
-        <v>2.61054</v>
+        <v>1.72847</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27256</v>
+        <v>1.30826</v>
       </c>
       <c r="C95" t="n">
-        <v>3.01408</v>
+        <v>2.36335</v>
       </c>
       <c r="D95" t="n">
-        <v>3.58517</v>
+        <v>2.53021</v>
       </c>
       <c r="E95" t="n">
-        <v>0.879955</v>
+        <v>0.764791</v>
       </c>
       <c r="F95" t="n">
-        <v>2.54646</v>
+        <v>1.68873</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2466</v>
+        <v>1.31393</v>
       </c>
       <c r="C96" t="n">
-        <v>2.92575</v>
+        <v>2.08508</v>
       </c>
       <c r="D96" t="n">
-        <v>3.53331</v>
+        <v>2.05426</v>
       </c>
       <c r="E96" t="n">
-        <v>0.848376</v>
+        <v>0.509827</v>
       </c>
       <c r="F96" t="n">
-        <v>2.48189</v>
+        <v>1.60594</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21059</v>
+        <v>1.02312</v>
       </c>
       <c r="C97" t="n">
-        <v>2.86056</v>
+        <v>2.14414</v>
       </c>
       <c r="D97" t="n">
-        <v>3.46859</v>
+        <v>2.09234</v>
       </c>
       <c r="E97" t="n">
-        <v>0.861557</v>
+        <v>0.580453</v>
       </c>
       <c r="F97" t="n">
-        <v>2.40725</v>
+        <v>1.63608</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20444</v>
+        <v>1.00704</v>
       </c>
       <c r="C98" t="n">
-        <v>2.78496</v>
+        <v>1.76962</v>
       </c>
       <c r="D98" t="n">
-        <v>3.37745</v>
+        <v>2.34798</v>
       </c>
       <c r="E98" t="n">
-        <v>0.852696</v>
+        <v>0.704547</v>
       </c>
       <c r="F98" t="n">
-        <v>2.35911</v>
+        <v>1.66608</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20323</v>
+        <v>0.96835</v>
       </c>
       <c r="C99" t="n">
-        <v>2.7651</v>
+        <v>2.24294</v>
       </c>
       <c r="D99" t="n">
-        <v>3.35206</v>
+        <v>2.40963</v>
       </c>
       <c r="E99" t="n">
-        <v>0.816459</v>
+        <v>0.713235</v>
       </c>
       <c r="F99" t="n">
-        <v>2.29829</v>
+        <v>1.2657</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16213</v>
+        <v>1.08491</v>
       </c>
       <c r="C100" t="n">
-        <v>2.67838</v>
+        <v>2.00007</v>
       </c>
       <c r="D100" t="n">
-        <v>3.32828</v>
+        <v>2.10072</v>
       </c>
       <c r="E100" t="n">
-        <v>0.81382</v>
+        <v>0.410744</v>
       </c>
       <c r="F100" t="n">
-        <v>2.22679</v>
+        <v>1.40976</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15215</v>
+        <v>0.975869</v>
       </c>
       <c r="C101" t="n">
-        <v>2.62307</v>
+        <v>1.93443</v>
       </c>
       <c r="D101" t="n">
-        <v>3.29614</v>
+        <v>2.4993</v>
       </c>
       <c r="E101" t="n">
-        <v>0.798179</v>
+        <v>0.522387</v>
       </c>
       <c r="F101" t="n">
-        <v>2.16521</v>
+        <v>1.4051</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14618</v>
+        <v>1.08675</v>
       </c>
       <c r="C102" t="n">
-        <v>2.58523</v>
+        <v>2.01197</v>
       </c>
       <c r="D102" t="n">
-        <v>3.16262</v>
+        <v>2.10625</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7807770000000001</v>
+        <v>0.623823</v>
       </c>
       <c r="F102" t="n">
-        <v>2.11756</v>
+        <v>1.57342</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12693</v>
+        <v>0.951503</v>
       </c>
       <c r="C103" t="n">
-        <v>2.51764</v>
+        <v>1.65701</v>
       </c>
       <c r="D103" t="n">
-        <v>3.12233</v>
+        <v>2.09264</v>
       </c>
       <c r="E103" t="n">
-        <v>0.789184</v>
+        <v>0.570291</v>
       </c>
       <c r="F103" t="n">
-        <v>2.12969</v>
+        <v>1.22892</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12343</v>
+        <v>1.0612</v>
       </c>
       <c r="C104" t="n">
-        <v>2.52593</v>
+        <v>1.63681</v>
       </c>
       <c r="D104" t="n">
-        <v>3.14681</v>
+        <v>2.24554</v>
       </c>
       <c r="E104" t="n">
-        <v>0.738707</v>
+        <v>0.431745</v>
       </c>
       <c r="F104" t="n">
-        <v>2.03221</v>
+        <v>1.50861</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14414</v>
+        <v>1.03324</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4453</v>
+        <v>1.7574</v>
       </c>
       <c r="D105" t="n">
-        <v>3.09648</v>
+        <v>2.12585</v>
       </c>
       <c r="E105" t="n">
-        <v>0.721195</v>
+        <v>0.514007</v>
       </c>
       <c r="F105" t="n">
-        <v>2.01966</v>
+        <v>1.47419</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.09931</v>
+        <v>1.14208</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48225</v>
+        <v>2.08354</v>
       </c>
       <c r="D106" t="n">
-        <v>3.07741</v>
+        <v>2.32775</v>
       </c>
       <c r="E106" t="n">
-        <v>0.721697</v>
+        <v>0.44591</v>
       </c>
       <c r="F106" t="n">
-        <v>2.05224</v>
+        <v>1.2742</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1014</v>
+        <v>1.03077</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3443</v>
+        <v>1.87896</v>
       </c>
       <c r="D107" t="n">
-        <v>4.24633</v>
+        <v>2.61414</v>
       </c>
       <c r="E107" t="n">
-        <v>0.72446</v>
+        <v>0.599316</v>
       </c>
       <c r="F107" t="n">
-        <v>1.90951</v>
+        <v>1.49715</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08619</v>
+        <v>1.15989</v>
       </c>
       <c r="C108" t="n">
-        <v>2.33134</v>
+        <v>1.7977</v>
       </c>
       <c r="D108" t="n">
-        <v>4.1012</v>
+        <v>3.08888</v>
       </c>
       <c r="E108" t="n">
-        <v>1.0175</v>
+        <v>0.669354</v>
       </c>
       <c r="F108" t="n">
-        <v>3.12454</v>
+        <v>1.81632</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.08994</v>
+        <v>1.14734</v>
       </c>
       <c r="C109" t="n">
-        <v>2.33971</v>
+        <v>1.80042</v>
       </c>
       <c r="D109" t="n">
-        <v>4.05064</v>
+        <v>2.56006</v>
       </c>
       <c r="E109" t="n">
-        <v>1.00332</v>
+        <v>0.648505</v>
       </c>
       <c r="F109" t="n">
-        <v>2.99789</v>
+        <v>1.76402</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42783</v>
+        <v>1.44874</v>
       </c>
       <c r="C110" t="n">
-        <v>3.4541</v>
+        <v>2.42964</v>
       </c>
       <c r="D110" t="n">
-        <v>3.97999</v>
+        <v>3.13992</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0225</v>
+        <v>0.840241</v>
       </c>
       <c r="F110" t="n">
-        <v>2.92588</v>
+        <v>1.80443</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4104</v>
+        <v>1.3786</v>
       </c>
       <c r="C111" t="n">
-        <v>3.3788</v>
+        <v>2.39911</v>
       </c>
       <c r="D111" t="n">
-        <v>3.96047</v>
+        <v>2.72207</v>
       </c>
       <c r="E111" t="n">
-        <v>1.01345</v>
+        <v>0.56723</v>
       </c>
       <c r="F111" t="n">
-        <v>2.86359</v>
+        <v>1.6915</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.35181</v>
+        <v>1.37735</v>
       </c>
       <c r="C112" t="n">
-        <v>3.30534</v>
+        <v>2.43536</v>
       </c>
       <c r="D112" t="n">
-        <v>3.95093</v>
+        <v>2.55684</v>
       </c>
       <c r="E112" t="n">
-        <v>1.01117</v>
+        <v>0.7202809999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>2.79292</v>
+        <v>1.71663</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.36722</v>
+        <v>1.26207</v>
       </c>
       <c r="C113" t="n">
-        <v>3.18008</v>
+        <v>2.36194</v>
       </c>
       <c r="D113" t="n">
-        <v>3.75397</v>
+        <v>2.70533</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01673</v>
+        <v>0.607608</v>
       </c>
       <c r="F113" t="n">
-        <v>2.76896</v>
+        <v>1.51781</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3665</v>
+        <v>1.01732</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14652</v>
+        <v>2.4177</v>
       </c>
       <c r="D114" t="n">
-        <v>3.74576</v>
+        <v>2.76747</v>
       </c>
       <c r="E114" t="n">
-        <v>0.956162</v>
+        <v>0.6859769999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>2.66212</v>
+        <v>1.63252</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35415</v>
+        <v>1.24227</v>
       </c>
       <c r="C115" t="n">
-        <v>3.14981</v>
+        <v>2.33191</v>
       </c>
       <c r="D115" t="n">
-        <v>3.67925</v>
+        <v>2.72973</v>
       </c>
       <c r="E115" t="n">
-        <v>0.953752</v>
+        <v>0.522512</v>
       </c>
       <c r="F115" t="n">
-        <v>2.58979</v>
+        <v>1.76168</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30814</v>
+        <v>1.04003</v>
       </c>
       <c r="C116" t="n">
-        <v>3.04873</v>
+        <v>2.37268</v>
       </c>
       <c r="D116" t="n">
-        <v>3.60757</v>
+        <v>2.56301</v>
       </c>
       <c r="E116" t="n">
-        <v>1.00222</v>
+        <v>0.668611</v>
       </c>
       <c r="F116" t="n">
-        <v>2.57</v>
+        <v>1.75619</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30498</v>
+        <v>1.02883</v>
       </c>
       <c r="C117" t="n">
-        <v>2.98347</v>
+        <v>1.98008</v>
       </c>
       <c r="D117" t="n">
-        <v>3.56574</v>
+        <v>2.35258</v>
       </c>
       <c r="E117" t="n">
-        <v>0.966675</v>
+        <v>0.721321</v>
       </c>
       <c r="F117" t="n">
-        <v>2.51509</v>
+        <v>1.83208</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3092</v>
+        <v>1.28162</v>
       </c>
       <c r="C118" t="n">
-        <v>2.94911</v>
+        <v>2.21205</v>
       </c>
       <c r="D118" t="n">
-        <v>3.50479</v>
+        <v>2.76315</v>
       </c>
       <c r="E118" t="n">
-        <v>0.939754</v>
+        <v>0.634899</v>
       </c>
       <c r="F118" t="n">
-        <v>2.43692</v>
+        <v>1.54881</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28622</v>
+        <v>1.36005</v>
       </c>
       <c r="C119" t="n">
-        <v>2.86083</v>
+        <v>2.10993</v>
       </c>
       <c r="D119" t="n">
-        <v>3.45628</v>
+        <v>2.6499</v>
       </c>
       <c r="E119" t="n">
-        <v>0.93458</v>
+        <v>0.61596</v>
       </c>
       <c r="F119" t="n">
-        <v>2.43527</v>
+        <v>1.69537</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2943</v>
+        <v>1.15356</v>
       </c>
       <c r="C120" t="n">
-        <v>2.80829</v>
+        <v>2.04313</v>
       </c>
       <c r="D120" t="n">
-        <v>3.44937</v>
+        <v>2.49275</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9116</v>
+        <v>0.583049</v>
       </c>
       <c r="F120" t="n">
-        <v>2.36536</v>
+        <v>1.50737</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.30072</v>
+        <v>1.14757</v>
       </c>
       <c r="C121" t="n">
-        <v>2.80846</v>
+        <v>2.04513</v>
       </c>
       <c r="D121" t="n">
-        <v>4.78357</v>
+        <v>3.13798</v>
       </c>
       <c r="E121" t="n">
-        <v>0.933023</v>
+        <v>0.448269</v>
       </c>
       <c r="F121" t="n">
-        <v>2.32912</v>
+        <v>1.74631</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2874</v>
+        <v>1.2047</v>
       </c>
       <c r="C122" t="n">
-        <v>2.7601</v>
+        <v>2.19458</v>
       </c>
       <c r="D122" t="n">
-        <v>4.67059</v>
+        <v>3.27054</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9396099999999999</v>
+        <v>0.646726</v>
       </c>
       <c r="F122" t="n">
-        <v>2.28346</v>
+        <v>1.70261</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27097</v>
+        <v>1.18497</v>
       </c>
       <c r="C123" t="n">
-        <v>2.74013</v>
+        <v>2.08902</v>
       </c>
       <c r="D123" t="n">
-        <v>4.58431</v>
+        <v>3.13489</v>
       </c>
       <c r="E123" t="n">
-        <v>1.23172</v>
+        <v>0.723563</v>
       </c>
       <c r="F123" t="n">
-        <v>3.50101</v>
+        <v>1.98689</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58085</v>
+        <v>1.52798</v>
       </c>
       <c r="C124" t="n">
-        <v>3.97246</v>
+        <v>2.68796</v>
       </c>
       <c r="D124" t="n">
-        <v>4.51048</v>
+        <v>3.0191</v>
       </c>
       <c r="E124" t="n">
-        <v>1.24143</v>
+        <v>0.650042</v>
       </c>
       <c r="F124" t="n">
-        <v>3.44926</v>
+        <v>2.16118</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58352</v>
+        <v>1.57641</v>
       </c>
       <c r="C125" t="n">
-        <v>3.89206</v>
+        <v>2.6701</v>
       </c>
       <c r="D125" t="n">
-        <v>4.37148</v>
+        <v>2.823</v>
       </c>
       <c r="E125" t="n">
-        <v>1.23736</v>
+        <v>0.625914</v>
       </c>
       <c r="F125" t="n">
-        <v>3.35754</v>
+        <v>1.95642</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56132</v>
+        <v>1.48129</v>
       </c>
       <c r="C126" t="n">
-        <v>3.82759</v>
+        <v>2.55606</v>
       </c>
       <c r="D126" t="n">
-        <v>4.34077</v>
+        <v>3.24217</v>
       </c>
       <c r="E126" t="n">
-        <v>1.2597</v>
+        <v>0.833848</v>
       </c>
       <c r="F126" t="n">
-        <v>3.29046</v>
+        <v>2.06804</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57175</v>
+        <v>1.35442</v>
       </c>
       <c r="C127" t="n">
-        <v>3.72349</v>
+        <v>2.72265</v>
       </c>
       <c r="D127" t="n">
-        <v>4.2838</v>
+        <v>2.96759</v>
       </c>
       <c r="E127" t="n">
-        <v>1.25459</v>
+        <v>0.767921</v>
       </c>
       <c r="F127" t="n">
-        <v>3.22692</v>
+        <v>2.14198</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5694</v>
+        <v>1.42544</v>
       </c>
       <c r="C128" t="n">
-        <v>3.67909</v>
+        <v>2.57949</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2519</v>
+        <v>3.13655</v>
       </c>
       <c r="E128" t="n">
-        <v>1.25464</v>
+        <v>0.734572</v>
       </c>
       <c r="F128" t="n">
-        <v>3.11849</v>
+        <v>2.0831</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.56019</v>
+        <v>1.36023</v>
       </c>
       <c r="C129" t="n">
-        <v>3.63092</v>
+        <v>2.54279</v>
       </c>
       <c r="D129" t="n">
-        <v>4.1597</v>
+        <v>3.32733</v>
       </c>
       <c r="E129" t="n">
-        <v>1.25565</v>
+        <v>0.636607</v>
       </c>
       <c r="F129" t="n">
-        <v>3.09018</v>
+        <v>1.73497</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.53971</v>
+        <v>1.37344</v>
       </c>
       <c r="C130" t="n">
-        <v>3.56111</v>
+        <v>2.44902</v>
       </c>
       <c r="D130" t="n">
-        <v>4.10859</v>
+        <v>3.08849</v>
       </c>
       <c r="E130" t="n">
-        <v>1.23636</v>
+        <v>0.809827</v>
       </c>
       <c r="F130" t="n">
-        <v>3.05208</v>
+        <v>2.01258</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.554</v>
+        <v>1.44755</v>
       </c>
       <c r="C131" t="n">
-        <v>3.47634</v>
+        <v>2.57726</v>
       </c>
       <c r="D131" t="n">
-        <v>4.06389</v>
+        <v>3.1524</v>
       </c>
       <c r="E131" t="n">
-        <v>1.26167</v>
+        <v>0.686634</v>
       </c>
       <c r="F131" t="n">
-        <v>2.9689</v>
+        <v>1.75394</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55494</v>
+        <v>1.38879</v>
       </c>
       <c r="C132" t="n">
-        <v>3.41567</v>
+        <v>2.3345</v>
       </c>
       <c r="D132" t="n">
-        <v>4.0226</v>
+        <v>3.02139</v>
       </c>
       <c r="E132" t="n">
-        <v>1.24682</v>
+        <v>0.661349</v>
       </c>
       <c r="F132" t="n">
-        <v>2.90879</v>
+        <v>2.02366</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55389</v>
+        <v>1.38952</v>
       </c>
       <c r="C133" t="n">
-        <v>3.38308</v>
+        <v>2.56069</v>
       </c>
       <c r="D133" t="n">
-        <v>3.9872</v>
+        <v>3.33689</v>
       </c>
       <c r="E133" t="n">
-        <v>1.25491</v>
+        <v>0.733366</v>
       </c>
       <c r="F133" t="n">
-        <v>2.84977</v>
+        <v>2.09999</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.52573</v>
+        <v>1.28916</v>
       </c>
       <c r="C134" t="n">
-        <v>3.37096</v>
+        <v>2.37223</v>
       </c>
       <c r="D134" t="n">
-        <v>3.95104</v>
+        <v>3.24111</v>
       </c>
       <c r="E134" t="n">
-        <v>1.23444</v>
+        <v>0.728096</v>
       </c>
       <c r="F134" t="n">
-        <v>2.80208</v>
+        <v>1.90337</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.5593</v>
+        <v>1.2775</v>
       </c>
       <c r="C135" t="n">
-        <v>3.27269</v>
+        <v>2.55136</v>
       </c>
       <c r="D135" t="n">
-        <v>5.45972</v>
+        <v>3.81981</v>
       </c>
       <c r="E135" t="n">
-        <v>1.23075</v>
+        <v>0.684998</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75729</v>
+        <v>2.00197</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.56553</v>
+        <v>1.30829</v>
       </c>
       <c r="C136" t="n">
-        <v>3.1949</v>
+        <v>2.48878</v>
       </c>
       <c r="D136" t="n">
-        <v>5.32337</v>
+        <v>3.87672</v>
       </c>
       <c r="E136" t="n">
-        <v>1.24118</v>
+        <v>0.695946</v>
       </c>
       <c r="F136" t="n">
-        <v>2.75504</v>
+        <v>1.98797</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.56406</v>
+        <v>1.27799</v>
       </c>
       <c r="C137" t="n">
-        <v>3.21457</v>
+        <v>2.41599</v>
       </c>
       <c r="D137" t="n">
-        <v>5.23103</v>
+        <v>3.71993</v>
       </c>
       <c r="E137" t="n">
-        <v>1.59151</v>
+        <v>0.894875</v>
       </c>
       <c r="F137" t="n">
-        <v>4.14725</v>
+        <v>2.3772</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.84431</v>
+        <v>1.5741</v>
       </c>
       <c r="C138" t="n">
-        <v>4.61619</v>
+        <v>3.1969</v>
       </c>
       <c r="D138" t="n">
-        <v>5.16643</v>
+        <v>3.5623</v>
       </c>
       <c r="E138" t="n">
-        <v>1.57481</v>
+        <v>0.857357</v>
       </c>
       <c r="F138" t="n">
-        <v>3.95618</v>
+        <v>2.46032</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85699</v>
+        <v>1.60243</v>
       </c>
       <c r="C139" t="n">
-        <v>4.53914</v>
+        <v>2.92531</v>
       </c>
       <c r="D139" t="n">
-        <v>5.04912</v>
+        <v>3.65425</v>
       </c>
       <c r="E139" t="n">
-        <v>1.57779</v>
+        <v>0.796526</v>
       </c>
       <c r="F139" t="n">
-        <v>3.92055</v>
+        <v>2.31728</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.84613</v>
+        <v>1.64518</v>
       </c>
       <c r="C140" t="n">
-        <v>4.39095</v>
+        <v>3.03013</v>
       </c>
       <c r="D140" t="n">
-        <v>4.99036</v>
+        <v>3.67995</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57948</v>
+        <v>0.761415</v>
       </c>
       <c r="F140" t="n">
-        <v>3.81256</v>
+        <v>2.20165</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.81761</v>
+        <v>1.57328</v>
       </c>
       <c r="C141" t="n">
-        <v>4.29797</v>
+        <v>2.83658</v>
       </c>
       <c r="D141" t="n">
-        <v>4.86895</v>
+        <v>3.58845</v>
       </c>
       <c r="E141" t="n">
-        <v>1.58084</v>
+        <v>0.785045</v>
       </c>
       <c r="F141" t="n">
-        <v>3.74341</v>
+        <v>2.42753</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86125</v>
+        <v>1.62087</v>
       </c>
       <c r="C142" t="n">
-        <v>4.21</v>
+        <v>2.81895</v>
       </c>
       <c r="D142" t="n">
-        <v>4.80107</v>
+        <v>3.49863</v>
       </c>
       <c r="E142" t="n">
-        <v>1.58794</v>
+        <v>0.763117</v>
       </c>
       <c r="F142" t="n">
-        <v>3.64256</v>
+        <v>2.26105</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84139</v>
+        <v>1.64085</v>
       </c>
       <c r="C143" t="n">
-        <v>4.18315</v>
+        <v>2.73089</v>
       </c>
       <c r="D143" t="n">
-        <v>4.72921</v>
+        <v>3.34506</v>
       </c>
       <c r="E143" t="n">
-        <v>1.59682</v>
+        <v>0.799284</v>
       </c>
       <c r="F143" t="n">
-        <v>3.58543</v>
+        <v>2.16741</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.554051</v>
+        <v>0.540781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.74881</v>
+        <v>1.08814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5871189999999999</v>
+        <v>1.11297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.282573</v>
+        <v>0.386684</v>
       </c>
       <c r="F2" t="n">
-        <v>1.00428</v>
+        <v>0.613111</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.415224</v>
+        <v>0.414235</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13148</v>
+        <v>1.20574</v>
       </c>
       <c r="D3" t="n">
-        <v>1.07817</v>
+        <v>1.401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.332452</v>
+        <v>0.382541</v>
       </c>
       <c r="F3" t="n">
-        <v>0.664863</v>
+        <v>1.09301</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.316908</v>
+        <v>0.566596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6795099999999999</v>
+        <v>0.957844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.772451</v>
+        <v>1.2555</v>
       </c>
       <c r="E4" t="n">
-        <v>0.231846</v>
+        <v>0.387643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.794973</v>
+        <v>0.879235</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422395</v>
+        <v>0.496948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.912339</v>
+        <v>1.1127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.830881</v>
+        <v>1.33175</v>
       </c>
       <c r="E5" t="n">
-        <v>0.280724</v>
+        <v>0.34973</v>
       </c>
       <c r="F5" t="n">
-        <v>0.871499</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.306557</v>
+        <v>0.520598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.877003</v>
+        <v>1.20601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.865974</v>
+        <v>1.23104</v>
       </c>
       <c r="E6" t="n">
-        <v>0.267554</v>
+        <v>0.354388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.729477</v>
+        <v>1.00937</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.429549</v>
+        <v>0.359174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.710956</v>
+        <v>1.16535</v>
       </c>
       <c r="D7" t="n">
-        <v>1.74959</v>
+        <v>1.56256</v>
       </c>
       <c r="E7" t="n">
-        <v>0.385715</v>
+        <v>0.359848</v>
       </c>
       <c r="F7" t="n">
-        <v>1.05924</v>
+        <v>1.04402</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239646</v>
+        <v>0.529438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.745231</v>
+        <v>1.12462</v>
       </c>
       <c r="D8" t="n">
-        <v>1.32452</v>
+        <v>1.59383</v>
       </c>
       <c r="E8" t="n">
-        <v>0.153156</v>
+        <v>0.358784</v>
       </c>
       <c r="F8" t="n">
-        <v>0.798367</v>
+        <v>1.05625</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261958</v>
+        <v>0.538767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.835656</v>
+        <v>1.114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8596279999999999</v>
+        <v>1.31329</v>
       </c>
       <c r="E9" t="n">
-        <v>0.245708</v>
+        <v>0.524826</v>
       </c>
       <c r="F9" t="n">
-        <v>0.963471</v>
+        <v>1.20776</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.485039</v>
+        <v>0.652228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.869275</v>
+        <v>1.31518</v>
       </c>
       <c r="D10" t="n">
-        <v>0.861878</v>
+        <v>1.48675</v>
       </c>
       <c r="E10" t="n">
-        <v>0.258726</v>
+        <v>0.462398</v>
       </c>
       <c r="F10" t="n">
-        <v>0.705972</v>
+        <v>1.11606</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.474368</v>
+        <v>0.568283</v>
       </c>
       <c r="C11" t="n">
-        <v>1.09033</v>
+        <v>1.34515</v>
       </c>
       <c r="D11" t="n">
-        <v>0.974641</v>
+        <v>1.44476</v>
       </c>
       <c r="E11" t="n">
-        <v>0.363168</v>
+        <v>0.443186</v>
       </c>
       <c r="F11" t="n">
-        <v>1.23053</v>
+        <v>0.758204</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.617475</v>
+        <v>0.47835</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0157</v>
+        <v>1.21688</v>
       </c>
       <c r="D12" t="n">
-        <v>1.25184</v>
+        <v>1.3792</v>
       </c>
       <c r="E12" t="n">
-        <v>0.332583</v>
+        <v>0.441684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.956195</v>
+        <v>1.12152</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.573146</v>
+        <v>0.583311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.840573</v>
+        <v>1.30719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.89281</v>
+        <v>0.913072</v>
       </c>
       <c r="E13" t="n">
-        <v>0.300753</v>
+        <v>0.431801</v>
       </c>
       <c r="F13" t="n">
-        <v>0.654548</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.399237</v>
+        <v>0.596113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.684115</v>
+        <v>0.994512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.938222</v>
+        <v>1.38707</v>
       </c>
       <c r="E14" t="n">
-        <v>0.241439</v>
+        <v>0.292137</v>
       </c>
       <c r="F14" t="n">
-        <v>0.698596</v>
+        <v>0.957589</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.422654</v>
+        <v>0.58345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.789567</v>
+        <v>1.16093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.681782</v>
+        <v>1.36106</v>
       </c>
       <c r="E15" t="n">
-        <v>0.375329</v>
+        <v>0.263774</v>
       </c>
       <c r="F15" t="n">
-        <v>0.766078</v>
+        <v>1.10216</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.239858</v>
+        <v>0.536276</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5419389999999999</v>
+        <v>1.21153</v>
       </c>
       <c r="D16" t="n">
-        <v>1.19836</v>
+        <v>0.916066</v>
       </c>
       <c r="E16" t="n">
-        <v>0.45643</v>
+        <v>0.400662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.685569</v>
+        <v>0.907534</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.313854</v>
+        <v>0.516222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8337290000000001</v>
+        <v>1.08692</v>
       </c>
       <c r="D17" t="n">
-        <v>1.24079</v>
+        <v>1.36935</v>
       </c>
       <c r="E17" t="n">
-        <v>0.168583</v>
+        <v>0.419775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.787034</v>
+        <v>1.13253</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.310055</v>
+        <v>0.443243</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8616279999999999</v>
+        <v>1.24751</v>
       </c>
       <c r="D18" t="n">
-        <v>0.710966</v>
+        <v>1.31591</v>
       </c>
       <c r="E18" t="n">
-        <v>0.221672</v>
+        <v>0.397608</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5734939999999999</v>
+        <v>0.989969</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277827</v>
+        <v>0.574511</v>
       </c>
       <c r="C19" t="n">
-        <v>0.839637</v>
+        <v>0.919729</v>
       </c>
       <c r="D19" t="n">
-        <v>0.914985</v>
+        <v>1.38749</v>
       </c>
       <c r="E19" t="n">
-        <v>0.256842</v>
+        <v>0.386961</v>
       </c>
       <c r="F19" t="n">
-        <v>0.530377</v>
+        <v>0.948712</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.346907</v>
+        <v>0.533382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.766956</v>
+        <v>1.19816</v>
       </c>
       <c r="D20" t="n">
-        <v>0.917947</v>
+        <v>0.7350410000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.252498</v>
+        <v>0.22157</v>
       </c>
       <c r="F20" t="n">
-        <v>0.727544</v>
+        <v>0.685709</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433855</v>
+        <v>0.37785</v>
       </c>
       <c r="C21" t="n">
-        <v>0.699346</v>
+        <v>0.69218</v>
       </c>
       <c r="D21" t="n">
-        <v>0.968735</v>
+        <v>1.30072</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21775</v>
+        <v>0.254564</v>
       </c>
       <c r="F21" t="n">
-        <v>0.462956</v>
+        <v>0.6968</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.491029</v>
+        <v>0.381377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.726194</v>
+        <v>0.6542480000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.879072</v>
+        <v>0.953558</v>
       </c>
       <c r="E22" t="n">
-        <v>0.193131</v>
+        <v>0.170081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.639785</v>
+        <v>0.574666</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.307585</v>
+        <v>0.316205</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999076</v>
+        <v>0.628157</v>
       </c>
       <c r="D23" t="n">
-        <v>1.47504</v>
+        <v>0.886158</v>
       </c>
       <c r="E23" t="n">
-        <v>0.582263</v>
+        <v>0.416483</v>
       </c>
       <c r="F23" t="n">
-        <v>0.710692</v>
+        <v>0.956114</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.757526</v>
+        <v>0.741038</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8630640000000001</v>
+        <v>1.36232</v>
       </c>
       <c r="D24" t="n">
-        <v>0.834348</v>
+        <v>1.38559</v>
       </c>
       <c r="E24" t="n">
-        <v>0.505619</v>
+        <v>0.441894</v>
       </c>
       <c r="F24" t="n">
-        <v>0.811257</v>
+        <v>0.963665</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.671013</v>
+        <v>0.650108</v>
       </c>
       <c r="C25" t="n">
-        <v>1.06345</v>
+        <v>0.918023</v>
       </c>
       <c r="D25" t="n">
-        <v>0.909338</v>
+        <v>0.851285</v>
       </c>
       <c r="E25" t="n">
-        <v>0.580583</v>
+        <v>0.413729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.697219</v>
+        <v>0.9771030000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5698299999999999</v>
+        <v>0.788129</v>
       </c>
       <c r="C26" t="n">
-        <v>1.11916</v>
+        <v>1.11376</v>
       </c>
       <c r="D26" t="n">
-        <v>0.99363</v>
+        <v>1.16551</v>
       </c>
       <c r="E26" t="n">
-        <v>0.430359</v>
+        <v>0.354275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8767509999999999</v>
+        <v>0.918639</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.660657</v>
+        <v>0.771662</v>
       </c>
       <c r="C27" t="n">
-        <v>1.06213</v>
+        <v>1.04028</v>
       </c>
       <c r="D27" t="n">
-        <v>0.65289</v>
+        <v>0.907532</v>
       </c>
       <c r="E27" t="n">
-        <v>0.539084</v>
+        <v>0.420598</v>
       </c>
       <c r="F27" t="n">
-        <v>1.01138</v>
+        <v>0.703519</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.707241</v>
+        <v>0.563454</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0573</v>
+        <v>1.0321</v>
       </c>
       <c r="D28" t="n">
-        <v>1.04906</v>
+        <v>1.40983</v>
       </c>
       <c r="E28" t="n">
-        <v>0.377383</v>
+        <v>0.345155</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8214939999999999</v>
+        <v>1.08818</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579393</v>
+        <v>0.589238</v>
       </c>
       <c r="C29" t="n">
-        <v>1.31486</v>
+        <v>0.870831</v>
       </c>
       <c r="D29" t="n">
-        <v>1.50069</v>
+        <v>1.57739</v>
       </c>
       <c r="E29" t="n">
-        <v>0.518846</v>
+        <v>0.465942</v>
       </c>
       <c r="F29" t="n">
-        <v>1.02764</v>
+        <v>0.881874</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.667133</v>
+        <v>0.667945</v>
       </c>
       <c r="C30" t="n">
-        <v>0.853036</v>
+        <v>1.21105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.709907</v>
+        <v>1.45205</v>
       </c>
       <c r="E30" t="n">
-        <v>0.451424</v>
+        <v>0.405409</v>
       </c>
       <c r="F30" t="n">
-        <v>0.620683</v>
+        <v>1.08265</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.546959</v>
+        <v>0.6291</v>
       </c>
       <c r="C31" t="n">
-        <v>0.979505</v>
+        <v>1.07505</v>
       </c>
       <c r="D31" t="n">
-        <v>0.845967</v>
+        <v>1.29294</v>
       </c>
       <c r="E31" t="n">
-        <v>0.369215</v>
+        <v>0.37756</v>
       </c>
       <c r="F31" t="n">
-        <v>0.914336</v>
+        <v>0.969276</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.668999</v>
+        <v>0.645065</v>
       </c>
       <c r="C32" t="n">
-        <v>0.979753</v>
+        <v>0.925004</v>
       </c>
       <c r="D32" t="n">
-        <v>0.889239</v>
+        <v>1.40212</v>
       </c>
       <c r="E32" t="n">
-        <v>0.447658</v>
+        <v>0.482659</v>
       </c>
       <c r="F32" t="n">
-        <v>0.908177</v>
+        <v>0.814334</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.486271</v>
+        <v>0.489523</v>
       </c>
       <c r="C33" t="n">
-        <v>1.01208</v>
+        <v>1.14957</v>
       </c>
       <c r="D33" t="n">
-        <v>0.706705</v>
+        <v>1.24535</v>
       </c>
       <c r="E33" t="n">
-        <v>0.333666</v>
+        <v>0.383028</v>
       </c>
       <c r="F33" t="n">
-        <v>0.821022</v>
+        <v>0.743426</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.470411</v>
+        <v>0.601936</v>
       </c>
       <c r="C34" t="n">
-        <v>0.927648</v>
+        <v>1.14226</v>
       </c>
       <c r="D34" t="n">
-        <v>0.98459</v>
+        <v>1.1978</v>
       </c>
       <c r="E34" t="n">
-        <v>0.32993</v>
+        <v>0.425421</v>
       </c>
       <c r="F34" t="n">
-        <v>0.758506</v>
+        <v>0.9181510000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.592624</v>
+        <v>0.553243</v>
       </c>
       <c r="C35" t="n">
-        <v>1.20933</v>
+        <v>1.18222</v>
       </c>
       <c r="D35" t="n">
-        <v>1.69098</v>
+        <v>1.78375</v>
       </c>
       <c r="E35" t="n">
-        <v>0.430304</v>
+        <v>0.437661</v>
       </c>
       <c r="F35" t="n">
-        <v>0.770529</v>
+        <v>0.841866</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.589272</v>
+        <v>0.647488</v>
       </c>
       <c r="C36" t="n">
-        <v>1.12326</v>
+        <v>1.09981</v>
       </c>
       <c r="D36" t="n">
-        <v>1.52546</v>
+        <v>1.31453</v>
       </c>
       <c r="E36" t="n">
-        <v>0.225711</v>
+        <v>0.394857</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8467710000000001</v>
+        <v>0.903709</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.499389</v>
+        <v>0.68996</v>
       </c>
       <c r="C37" t="n">
-        <v>0.779097</v>
+        <v>1.05397</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02599</v>
+        <v>1.43073</v>
       </c>
       <c r="E37" t="n">
-        <v>0.591854</v>
+        <v>0.669968</v>
       </c>
       <c r="F37" t="n">
-        <v>1.07363</v>
+        <v>1.18924</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.820678</v>
+        <v>1.06497</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1512</v>
+        <v>1.46372</v>
       </c>
       <c r="D38" t="n">
-        <v>1.57616</v>
+        <v>1.05961</v>
       </c>
       <c r="E38" t="n">
-        <v>0.620885</v>
+        <v>0.543939</v>
       </c>
       <c r="F38" t="n">
-        <v>1.08624</v>
+        <v>1.09304</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.87888</v>
+        <v>0.966373</v>
       </c>
       <c r="C39" t="n">
-        <v>1.35054</v>
+        <v>1.43805</v>
       </c>
       <c r="D39" t="n">
-        <v>1.11544</v>
+        <v>1.55608</v>
       </c>
       <c r="E39" t="n">
-        <v>0.506482</v>
+        <v>0.640364</v>
       </c>
       <c r="F39" t="n">
-        <v>1.1951</v>
+        <v>1.15946</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.767251</v>
+        <v>0.9306410000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1.36592</v>
+        <v>1.15832</v>
       </c>
       <c r="D40" t="n">
-        <v>1.16148</v>
+        <v>1.48442</v>
       </c>
       <c r="E40" t="n">
-        <v>0.514033</v>
+        <v>0.633981</v>
       </c>
       <c r="F40" t="n">
-        <v>0.923893</v>
+        <v>1.05455</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.914154</v>
+        <v>0.90955</v>
       </c>
       <c r="C41" t="n">
-        <v>1.19248</v>
+        <v>1.20027</v>
       </c>
       <c r="D41" t="n">
-        <v>0.951074</v>
+        <v>1.14062</v>
       </c>
       <c r="E41" t="n">
-        <v>0.619228</v>
+        <v>0.41762</v>
       </c>
       <c r="F41" t="n">
-        <v>0.942343</v>
+        <v>1.03388</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.708877</v>
+        <v>0.934218</v>
       </c>
       <c r="C42" t="n">
-        <v>1.13237</v>
+        <v>1.37114</v>
       </c>
       <c r="D42" t="n">
-        <v>1.56109</v>
+        <v>1.08433</v>
       </c>
       <c r="E42" t="n">
-        <v>0.613267</v>
+        <v>0.490194</v>
       </c>
       <c r="F42" t="n">
-        <v>0.860367</v>
+        <v>1.15116</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.804305</v>
+        <v>0.9029509999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>1.45565</v>
+        <v>1.37345</v>
       </c>
       <c r="D43" t="n">
-        <v>0.861721</v>
+        <v>0.850811</v>
       </c>
       <c r="E43" t="n">
-        <v>0.539398</v>
+        <v>0.542533</v>
       </c>
       <c r="F43" t="n">
-        <v>0.79034</v>
+        <v>1.05509</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.730107</v>
+        <v>0.885472</v>
       </c>
       <c r="C44" t="n">
-        <v>1.36453</v>
+        <v>1.32179</v>
       </c>
       <c r="D44" t="n">
-        <v>0.820151</v>
+        <v>1.6777</v>
       </c>
       <c r="E44" t="n">
-        <v>0.429012</v>
+        <v>0.556498</v>
       </c>
       <c r="F44" t="n">
-        <v>1.03748</v>
+        <v>1.0072</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.701938</v>
+        <v>0.866458</v>
       </c>
       <c r="C45" t="n">
-        <v>1.16514</v>
+        <v>1.41347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.983845</v>
+        <v>0.946565</v>
       </c>
       <c r="E45" t="n">
-        <v>0.498522</v>
+        <v>0.519321</v>
       </c>
       <c r="F45" t="n">
-        <v>1.03173</v>
+        <v>0.910753</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.674892</v>
+        <v>0.830094</v>
       </c>
       <c r="C46" t="n">
-        <v>1.16385</v>
+        <v>1.30801</v>
       </c>
       <c r="D46" t="n">
-        <v>1.30819</v>
+        <v>1.11782</v>
       </c>
       <c r="E46" t="n">
-        <v>0.512567</v>
+        <v>0.488976</v>
       </c>
       <c r="F46" t="n">
-        <v>0.886729</v>
+        <v>1.09657</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.715622</v>
+        <v>0.858942</v>
       </c>
       <c r="C47" t="n">
-        <v>1.18394</v>
+        <v>1.31279</v>
       </c>
       <c r="D47" t="n">
-        <v>1.44023</v>
+        <v>1.50394</v>
       </c>
       <c r="E47" t="n">
-        <v>0.454176</v>
+        <v>0.492288</v>
       </c>
       <c r="F47" t="n">
-        <v>0.892967</v>
+        <v>1.07868</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.631556</v>
+        <v>0.820838</v>
       </c>
       <c r="C48" t="n">
-        <v>1.1365</v>
+        <v>1.28879</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0828</v>
+        <v>1.3952</v>
       </c>
       <c r="E48" t="n">
-        <v>0.469317</v>
+        <v>0.477864</v>
       </c>
       <c r="F48" t="n">
-        <v>1.02366</v>
+        <v>0.98972</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.519188</v>
+        <v>0.749119</v>
       </c>
       <c r="C49" t="n">
-        <v>1.302</v>
+        <v>1.03652</v>
       </c>
       <c r="D49" t="n">
-        <v>0.90217</v>
+        <v>1.6115</v>
       </c>
       <c r="E49" t="n">
-        <v>0.298196</v>
+        <v>0.40104</v>
       </c>
       <c r="F49" t="n">
-        <v>0.622568</v>
+        <v>0.983944</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.683248</v>
+        <v>0.725432</v>
       </c>
       <c r="C50" t="n">
-        <v>1.10917</v>
+        <v>1.17416</v>
       </c>
       <c r="D50" t="n">
-        <v>1.2713</v>
+        <v>1.82925</v>
       </c>
       <c r="E50" t="n">
-        <v>0.34487</v>
+        <v>0.364954</v>
       </c>
       <c r="F50" t="n">
-        <v>0.759735</v>
+        <v>0.922138</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.651873</v>
+        <v>0.595875</v>
       </c>
       <c r="C51" t="n">
-        <v>1.15059</v>
+        <v>1.1112</v>
       </c>
       <c r="D51" t="n">
-        <v>1.47226</v>
+        <v>1.50206</v>
       </c>
       <c r="E51" t="n">
-        <v>0.747967</v>
+        <v>0.627838</v>
       </c>
       <c r="F51" t="n">
-        <v>1.24028</v>
+        <v>0.944783</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.498833</v>
+        <v>0.74953</v>
       </c>
       <c r="C52" t="n">
-        <v>1.17485</v>
+        <v>1.10535</v>
       </c>
       <c r="D52" t="n">
-        <v>1.62598</v>
+        <v>1.61773</v>
       </c>
       <c r="E52" t="n">
-        <v>0.548845</v>
+        <v>0.463392</v>
       </c>
       <c r="F52" t="n">
-        <v>0.790007</v>
+        <v>1.09552</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.0286</v>
+        <v>0.873977</v>
       </c>
       <c r="C53" t="n">
-        <v>1.36064</v>
+        <v>1.52621</v>
       </c>
       <c r="D53" t="n">
-        <v>1.43236</v>
+        <v>1.47906</v>
       </c>
       <c r="E53" t="n">
-        <v>0.716437</v>
+        <v>0.618902</v>
       </c>
       <c r="F53" t="n">
-        <v>1.06626</v>
+        <v>0.854125</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.991026</v>
+        <v>0.976963</v>
       </c>
       <c r="C54" t="n">
-        <v>1.46373</v>
+        <v>1.39334</v>
       </c>
       <c r="D54" t="n">
-        <v>1.15192</v>
+        <v>1.59338</v>
       </c>
       <c r="E54" t="n">
-        <v>0.603726</v>
+        <v>0.673359</v>
       </c>
       <c r="F54" t="n">
-        <v>0.950029</v>
+        <v>1.22294</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00345</v>
+        <v>0.980895</v>
       </c>
       <c r="C55" t="n">
-        <v>1.22886</v>
+        <v>1.27147</v>
       </c>
       <c r="D55" t="n">
-        <v>1.52871</v>
+        <v>1.74562</v>
       </c>
       <c r="E55" t="n">
-        <v>0.585999</v>
+        <v>0.668879</v>
       </c>
       <c r="F55" t="n">
-        <v>0.930779</v>
+        <v>1.23194</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.754628</v>
+        <v>0.983165</v>
       </c>
       <c r="C56" t="n">
-        <v>1.07416</v>
+        <v>1.3991</v>
       </c>
       <c r="D56" t="n">
-        <v>1.4636</v>
+        <v>1.49933</v>
       </c>
       <c r="E56" t="n">
-        <v>0.529509</v>
+        <v>0.522997</v>
       </c>
       <c r="F56" t="n">
-        <v>1.23422</v>
+        <v>1.17515</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.801553</v>
+        <v>0.968146</v>
       </c>
       <c r="C57" t="n">
-        <v>1.46122</v>
+        <v>1.27316</v>
       </c>
       <c r="D57" t="n">
-        <v>1.54095</v>
+        <v>1.49612</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5694</v>
+        <v>0.479965</v>
       </c>
       <c r="F57" t="n">
-        <v>1.089</v>
+        <v>1.13621</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.922552</v>
+        <v>0.9736359999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>1.32459</v>
+        <v>1.45614</v>
       </c>
       <c r="D58" t="n">
-        <v>1.55277</v>
+        <v>1.58672</v>
       </c>
       <c r="E58" t="n">
-        <v>0.552285</v>
+        <v>0.570685</v>
       </c>
       <c r="F58" t="n">
-        <v>0.875877</v>
+        <v>1.02487</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.811388</v>
+        <v>0.903189</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10594</v>
+        <v>1.42075</v>
       </c>
       <c r="D59" t="n">
-        <v>1.37392</v>
+        <v>1.66755</v>
       </c>
       <c r="E59" t="n">
-        <v>0.597944</v>
+        <v>0.504488</v>
       </c>
       <c r="F59" t="n">
-        <v>0.968278</v>
+        <v>1.21602</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.882515</v>
+        <v>0.746371</v>
       </c>
       <c r="C60" t="n">
-        <v>1.35506</v>
+        <v>1.39579</v>
       </c>
       <c r="D60" t="n">
-        <v>1.31144</v>
+        <v>1.55636</v>
       </c>
       <c r="E60" t="n">
-        <v>0.463043</v>
+        <v>0.510561</v>
       </c>
       <c r="F60" t="n">
-        <v>1.12538</v>
+        <v>1.13836</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.879224</v>
+        <v>0.763189</v>
       </c>
       <c r="C61" t="n">
-        <v>1.29706</v>
+        <v>1.37163</v>
       </c>
       <c r="D61" t="n">
-        <v>1.46777</v>
+        <v>1.44517</v>
       </c>
       <c r="E61" t="n">
-        <v>0.526967</v>
+        <v>0.543042</v>
       </c>
       <c r="F61" t="n">
-        <v>0.876001</v>
+        <v>0.916359</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.709578</v>
+        <v>0.805295</v>
       </c>
       <c r="C62" t="n">
-        <v>0.830746</v>
+        <v>1.30909</v>
       </c>
       <c r="D62" t="n">
-        <v>1.50712</v>
+        <v>1.23511</v>
       </c>
       <c r="E62" t="n">
-        <v>0.477448</v>
+        <v>0.487069</v>
       </c>
       <c r="F62" t="n">
-        <v>1.11668</v>
+        <v>1.21731</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.613985</v>
+        <v>0.813591</v>
       </c>
       <c r="C63" t="n">
-        <v>1.22306</v>
+        <v>1.05365</v>
       </c>
       <c r="D63" t="n">
-        <v>1.58747</v>
+        <v>1.45577</v>
       </c>
       <c r="E63" t="n">
-        <v>0.288165</v>
+        <v>0.495657</v>
       </c>
       <c r="F63" t="n">
-        <v>0.719104</v>
+        <v>0.728028</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.753933</v>
+        <v>0.777774</v>
       </c>
       <c r="C64" t="n">
-        <v>1.08455</v>
+        <v>1.20338</v>
       </c>
       <c r="D64" t="n">
-        <v>1.92534</v>
+        <v>1.79962</v>
       </c>
       <c r="E64" t="n">
-        <v>0.477677</v>
+        <v>0.384734</v>
       </c>
       <c r="F64" t="n">
-        <v>1.07036</v>
+        <v>0.938681</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.625763</v>
+        <v>0.757056</v>
       </c>
       <c r="C65" t="n">
-        <v>1.02821</v>
+        <v>0.994252</v>
       </c>
       <c r="D65" t="n">
-        <v>1.90973</v>
+        <v>1.22833</v>
       </c>
       <c r="E65" t="n">
-        <v>0.431745</v>
+        <v>0.462137</v>
       </c>
       <c r="F65" t="n">
-        <v>1.12396</v>
+        <v>0.86503</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.696476</v>
+        <v>0.682358</v>
       </c>
       <c r="C66" t="n">
-        <v>1.12637</v>
+        <v>1.11934</v>
       </c>
       <c r="D66" t="n">
-        <v>1.61214</v>
+        <v>1.76299</v>
       </c>
       <c r="E66" t="n">
-        <v>0.703526</v>
+        <v>0.735718</v>
       </c>
       <c r="F66" t="n">
-        <v>1.03519</v>
+        <v>1.15776</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.16052</v>
+        <v>1.08742</v>
       </c>
       <c r="C67" t="n">
-        <v>1.51474</v>
+        <v>1.46573</v>
       </c>
       <c r="D67" t="n">
-        <v>1.82857</v>
+        <v>1.77561</v>
       </c>
       <c r="E67" t="n">
-        <v>0.715392</v>
+        <v>0.65926</v>
       </c>
       <c r="F67" t="n">
-        <v>1.24547</v>
+        <v>1.15891</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.06337</v>
+        <v>1.00783</v>
       </c>
       <c r="C68" t="n">
-        <v>1.18589</v>
+        <v>1.27179</v>
       </c>
       <c r="D68" t="n">
-        <v>1.57796</v>
+        <v>1.78149</v>
       </c>
       <c r="E68" t="n">
-        <v>0.680296</v>
+        <v>0.564706</v>
       </c>
       <c r="F68" t="n">
-        <v>1.19878</v>
+        <v>1.30169</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00523</v>
+        <v>0.7961</v>
       </c>
       <c r="C69" t="n">
-        <v>1.46618</v>
+        <v>1.16473</v>
       </c>
       <c r="D69" t="n">
-        <v>1.65537</v>
+        <v>1.70574</v>
       </c>
       <c r="E69" t="n">
-        <v>0.574841</v>
+        <v>0.571959</v>
       </c>
       <c r="F69" t="n">
-        <v>1.24751</v>
+        <v>1.02239</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.977175</v>
+        <v>0.839329</v>
       </c>
       <c r="C70" t="n">
-        <v>1.45296</v>
+        <v>1.28499</v>
       </c>
       <c r="D70" t="n">
-        <v>1.47086</v>
+        <v>1.21204</v>
       </c>
       <c r="E70" t="n">
-        <v>0.646258</v>
+        <v>0.460847</v>
       </c>
       <c r="F70" t="n">
-        <v>1.18056</v>
+        <v>1.00482</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07261</v>
+        <v>0.8864649999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>1.55239</v>
+        <v>1.68119</v>
       </c>
       <c r="D71" t="n">
-        <v>1.66603</v>
+        <v>1.11142</v>
       </c>
       <c r="E71" t="n">
-        <v>0.52935</v>
+        <v>0.599963</v>
       </c>
       <c r="F71" t="n">
-        <v>1.17058</v>
+        <v>1.23431</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8337639999999999</v>
+        <v>0.85164</v>
       </c>
       <c r="C72" t="n">
-        <v>1.44281</v>
+        <v>1.53037</v>
       </c>
       <c r="D72" t="n">
-        <v>1.47633</v>
+        <v>1.51523</v>
       </c>
       <c r="E72" t="n">
-        <v>0.476396</v>
+        <v>0.58984</v>
       </c>
       <c r="F72" t="n">
-        <v>1.02689</v>
+        <v>1.34518</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.00863</v>
+        <v>1.08922</v>
       </c>
       <c r="C73" t="n">
-        <v>1.49414</v>
+        <v>1.06456</v>
       </c>
       <c r="D73" t="n">
-        <v>1.33886</v>
+        <v>1.26712</v>
       </c>
       <c r="E73" t="n">
-        <v>0.54383</v>
+        <v>0.594731</v>
       </c>
       <c r="F73" t="n">
-        <v>0.974777</v>
+        <v>1.07442</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.991463</v>
+        <v>0.832503</v>
       </c>
       <c r="C74" t="n">
-        <v>1.33886</v>
+        <v>1.21283</v>
       </c>
       <c r="D74" t="n">
-        <v>1.48574</v>
+        <v>1.34201</v>
       </c>
       <c r="E74" t="n">
-        <v>0.585672</v>
+        <v>0.468174</v>
       </c>
       <c r="F74" t="n">
-        <v>1.14087</v>
+        <v>0.962877</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.953824</v>
+        <v>0.675069</v>
       </c>
       <c r="C75" t="n">
-        <v>1.49463</v>
+        <v>1.03065</v>
       </c>
       <c r="D75" t="n">
-        <v>1.44535</v>
+        <v>1.41413</v>
       </c>
       <c r="E75" t="n">
-        <v>0.544699</v>
+        <v>0.5331320000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>1.11743</v>
+        <v>1.01075</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.871499</v>
+        <v>0.773076</v>
       </c>
       <c r="C76" t="n">
-        <v>1.50069</v>
+        <v>1.41494</v>
       </c>
       <c r="D76" t="n">
-        <v>1.23234</v>
+        <v>1.55767</v>
       </c>
       <c r="E76" t="n">
-        <v>0.501725</v>
+        <v>0.575146</v>
       </c>
       <c r="F76" t="n">
-        <v>1.12099</v>
+        <v>0.935647</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8725889999999999</v>
+        <v>0.690743</v>
       </c>
       <c r="C77" t="n">
-        <v>1.21696</v>
+        <v>1.28507</v>
       </c>
       <c r="D77" t="n">
-        <v>1.03284</v>
+        <v>1.54712</v>
       </c>
       <c r="E77" t="n">
-        <v>0.448735</v>
+        <v>0.4938</v>
       </c>
       <c r="F77" t="n">
-        <v>0.890456</v>
+        <v>1.02942</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.762118</v>
+        <v>0.709871</v>
       </c>
       <c r="C78" t="n">
-        <v>1.2614</v>
+        <v>1.07968</v>
       </c>
       <c r="D78" t="n">
-        <v>1.47655</v>
+        <v>1.9181</v>
       </c>
       <c r="E78" t="n">
-        <v>0.502663</v>
+        <v>0.347674</v>
       </c>
       <c r="F78" t="n">
-        <v>0.94901</v>
+        <v>1.08589</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.854208</v>
+        <v>0.903033</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18002</v>
+        <v>1.21893</v>
       </c>
       <c r="D79" t="n">
-        <v>2.14175</v>
+        <v>1.5254</v>
       </c>
       <c r="E79" t="n">
-        <v>0.490905</v>
+        <v>0.402249</v>
       </c>
       <c r="F79" t="n">
-        <v>1.17919</v>
+        <v>0.949546</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.781099</v>
+        <v>0.729075</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25941</v>
+        <v>1.25438</v>
       </c>
       <c r="D80" t="n">
-        <v>2.00748</v>
+        <v>2.17633</v>
       </c>
       <c r="E80" t="n">
-        <v>0.680329</v>
+        <v>0.747015</v>
       </c>
       <c r="F80" t="n">
-        <v>1.22277</v>
+        <v>1.43035</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00783</v>
+        <v>1.19516</v>
       </c>
       <c r="C81" t="n">
-        <v>1.79607</v>
+        <v>1.91492</v>
       </c>
       <c r="D81" t="n">
-        <v>1.95554</v>
+        <v>1.81457</v>
       </c>
       <c r="E81" t="n">
-        <v>0.739993</v>
+        <v>0.61165</v>
       </c>
       <c r="F81" t="n">
-        <v>1.473</v>
+        <v>1.47263</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05797</v>
+        <v>0.7730359999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.71105</v>
+        <v>2.0575</v>
       </c>
       <c r="D82" t="n">
-        <v>1.9742</v>
+        <v>2.16784</v>
       </c>
       <c r="E82" t="n">
-        <v>0.751312</v>
+        <v>0.645105</v>
       </c>
       <c r="F82" t="n">
-        <v>1.2494</v>
+        <v>1.51217</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.09396</v>
+        <v>1.0897</v>
       </c>
       <c r="C83" t="n">
-        <v>1.77584</v>
+        <v>1.76794</v>
       </c>
       <c r="D83" t="n">
-        <v>1.46351</v>
+        <v>2.05235</v>
       </c>
       <c r="E83" t="n">
-        <v>0.551069</v>
+        <v>0.665151</v>
       </c>
       <c r="F83" t="n">
-        <v>1.23764</v>
+        <v>1.39046</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.07751</v>
+        <v>1.07373</v>
       </c>
       <c r="C84" t="n">
-        <v>1.87414</v>
+        <v>1.93039</v>
       </c>
       <c r="D84" t="n">
-        <v>1.7724</v>
+        <v>2.00617</v>
       </c>
       <c r="E84" t="n">
-        <v>0.712723</v>
+        <v>0.563846</v>
       </c>
       <c r="F84" t="n">
-        <v>1.34237</v>
+        <v>1.33056</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.951804</v>
+        <v>0.973712</v>
       </c>
       <c r="C85" t="n">
-        <v>1.24488</v>
+        <v>1.82482</v>
       </c>
       <c r="D85" t="n">
-        <v>1.78262</v>
+        <v>1.91752</v>
       </c>
       <c r="E85" t="n">
-        <v>0.488465</v>
+        <v>0.423005</v>
       </c>
       <c r="F85" t="n">
-        <v>1.45999</v>
+        <v>1.38643</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03251</v>
+        <v>0.967719</v>
       </c>
       <c r="C86" t="n">
-        <v>1.55879</v>
+        <v>1.86267</v>
       </c>
       <c r="D86" t="n">
-        <v>1.88918</v>
+        <v>1.86577</v>
       </c>
       <c r="E86" t="n">
-        <v>0.557867</v>
+        <v>0.537876</v>
       </c>
       <c r="F86" t="n">
-        <v>1.23094</v>
+        <v>1.29664</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08329</v>
+        <v>0.952694</v>
       </c>
       <c r="C87" t="n">
-        <v>1.62831</v>
+        <v>1.58974</v>
       </c>
       <c r="D87" t="n">
-        <v>1.43832</v>
+        <v>2.06443</v>
       </c>
       <c r="E87" t="n">
-        <v>0.540501</v>
+        <v>0.486577</v>
       </c>
       <c r="F87" t="n">
-        <v>1.27694</v>
+        <v>1.39445</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.946348</v>
+        <v>0.935369</v>
       </c>
       <c r="C88" t="n">
-        <v>1.49939</v>
+        <v>1.81899</v>
       </c>
       <c r="D88" t="n">
-        <v>1.9478</v>
+        <v>1.92935</v>
       </c>
       <c r="E88" t="n">
-        <v>0.483705</v>
+        <v>0.553411</v>
       </c>
       <c r="F88" t="n">
-        <v>0.923442</v>
+        <v>1.26147</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.03214</v>
+        <v>1.02215</v>
       </c>
       <c r="C89" t="n">
-        <v>1.35982</v>
+        <v>1.55587</v>
       </c>
       <c r="D89" t="n">
-        <v>1.67163</v>
+        <v>1.65072</v>
       </c>
       <c r="E89" t="n">
-        <v>0.465409</v>
+        <v>0.570233</v>
       </c>
       <c r="F89" t="n">
-        <v>1.02152</v>
+        <v>1.38334</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.08645</v>
+        <v>1.08106</v>
       </c>
       <c r="C90" t="n">
-        <v>1.48028</v>
+        <v>1.72749</v>
       </c>
       <c r="D90" t="n">
-        <v>2.05415</v>
+        <v>1.69502</v>
       </c>
       <c r="E90" t="n">
-        <v>0.465894</v>
+        <v>0.5397149999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1.13374</v>
+        <v>1.32717</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.911309</v>
+        <v>1.01434</v>
       </c>
       <c r="C91" t="n">
-        <v>1.29207</v>
+        <v>1.59586</v>
       </c>
       <c r="D91" t="n">
-        <v>1.88423</v>
+        <v>1.63759</v>
       </c>
       <c r="E91" t="n">
-        <v>0.468236</v>
+        <v>0.497516</v>
       </c>
       <c r="F91" t="n">
-        <v>1.32169</v>
+        <v>1.29942</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9051169999999999</v>
+        <v>0.870358</v>
       </c>
       <c r="C92" t="n">
-        <v>1.5307</v>
+        <v>1.58875</v>
       </c>
       <c r="D92" t="n">
-        <v>2.36938</v>
+        <v>2.45384</v>
       </c>
       <c r="E92" t="n">
-        <v>0.53206</v>
+        <v>0.5209780000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>1.30042</v>
+        <v>1.29544</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.834214</v>
+        <v>0.962302</v>
       </c>
       <c r="C93" t="n">
-        <v>1.28573</v>
+        <v>1.50053</v>
       </c>
       <c r="D93" t="n">
-        <v>2.66677</v>
+        <v>2.49935</v>
       </c>
       <c r="E93" t="n">
-        <v>0.41311</v>
+        <v>0.545183</v>
       </c>
       <c r="F93" t="n">
-        <v>1.27653</v>
+        <v>1.25786</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.88989</v>
+        <v>0.7938770000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>1.54411</v>
+        <v>1.52143</v>
       </c>
       <c r="D94" t="n">
-        <v>2.81686</v>
+        <v>2.33098</v>
       </c>
       <c r="E94" t="n">
-        <v>0.818265</v>
+        <v>0.768284</v>
       </c>
       <c r="F94" t="n">
-        <v>1.72847</v>
+        <v>1.68126</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.30826</v>
+        <v>1.32714</v>
       </c>
       <c r="C95" t="n">
-        <v>2.36335</v>
+        <v>2.20384</v>
       </c>
       <c r="D95" t="n">
-        <v>2.53021</v>
+        <v>2.63366</v>
       </c>
       <c r="E95" t="n">
-        <v>0.764791</v>
+        <v>0.639466</v>
       </c>
       <c r="F95" t="n">
-        <v>1.68873</v>
+        <v>1.71686</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.31393</v>
+        <v>1.30485</v>
       </c>
       <c r="C96" t="n">
-        <v>2.08508</v>
+        <v>2.11631</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05426</v>
+        <v>2.47342</v>
       </c>
       <c r="E96" t="n">
-        <v>0.509827</v>
+        <v>0.774058</v>
       </c>
       <c r="F96" t="n">
-        <v>1.60594</v>
+        <v>1.60287</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02312</v>
+        <v>1.2066</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14414</v>
+        <v>2.25491</v>
       </c>
       <c r="D97" t="n">
-        <v>2.09234</v>
+        <v>2.37361</v>
       </c>
       <c r="E97" t="n">
-        <v>0.580453</v>
+        <v>0.718161</v>
       </c>
       <c r="F97" t="n">
-        <v>1.63608</v>
+        <v>1.69378</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00704</v>
+        <v>1.23665</v>
       </c>
       <c r="C98" t="n">
-        <v>1.76962</v>
+        <v>2.14045</v>
       </c>
       <c r="D98" t="n">
-        <v>2.34798</v>
+        <v>2.24796</v>
       </c>
       <c r="E98" t="n">
-        <v>0.704547</v>
+        <v>0.708556</v>
       </c>
       <c r="F98" t="n">
-        <v>1.66608</v>
+        <v>1.69769</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96835</v>
+        <v>1.09972</v>
       </c>
       <c r="C99" t="n">
-        <v>2.24294</v>
+        <v>1.99316</v>
       </c>
       <c r="D99" t="n">
-        <v>2.40963</v>
+        <v>2.39365</v>
       </c>
       <c r="E99" t="n">
-        <v>0.713235</v>
+        <v>0.621039</v>
       </c>
       <c r="F99" t="n">
-        <v>1.2657</v>
+        <v>1.67551</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.08491</v>
+        <v>1.03224</v>
       </c>
       <c r="C100" t="n">
-        <v>2.00007</v>
+        <v>1.97044</v>
       </c>
       <c r="D100" t="n">
-        <v>2.10072</v>
+        <v>2.12858</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410744</v>
+        <v>0.645454</v>
       </c>
       <c r="F100" t="n">
-        <v>1.40976</v>
+        <v>1.47539</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.975869</v>
+        <v>1.2785</v>
       </c>
       <c r="C101" t="n">
-        <v>1.93443</v>
+        <v>2.15498</v>
       </c>
       <c r="D101" t="n">
-        <v>2.4993</v>
+        <v>2.31007</v>
       </c>
       <c r="E101" t="n">
-        <v>0.522387</v>
+        <v>0.555577</v>
       </c>
       <c r="F101" t="n">
-        <v>1.4051</v>
+        <v>1.56576</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.08675</v>
+        <v>1.15453</v>
       </c>
       <c r="C102" t="n">
-        <v>2.01197</v>
+        <v>2.05465</v>
       </c>
       <c r="D102" t="n">
-        <v>2.10625</v>
+        <v>2.06939</v>
       </c>
       <c r="E102" t="n">
-        <v>0.623823</v>
+        <v>0.634137</v>
       </c>
       <c r="F102" t="n">
-        <v>1.57342</v>
+        <v>1.46496</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.951503</v>
+        <v>1.07562</v>
       </c>
       <c r="C103" t="n">
-        <v>1.65701</v>
+        <v>1.86319</v>
       </c>
       <c r="D103" t="n">
-        <v>2.09264</v>
+        <v>2.53161</v>
       </c>
       <c r="E103" t="n">
-        <v>0.570291</v>
+        <v>0.611263</v>
       </c>
       <c r="F103" t="n">
-        <v>1.22892</v>
+        <v>1.54785</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.0612</v>
+        <v>1.1575</v>
       </c>
       <c r="C104" t="n">
-        <v>1.63681</v>
+        <v>1.97558</v>
       </c>
       <c r="D104" t="n">
-        <v>2.24554</v>
+        <v>2.29581</v>
       </c>
       <c r="E104" t="n">
-        <v>0.431745</v>
+        <v>0.643831</v>
       </c>
       <c r="F104" t="n">
-        <v>1.50861</v>
+        <v>1.60286</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.03324</v>
+        <v>1.0617</v>
       </c>
       <c r="C105" t="n">
-        <v>1.7574</v>
+        <v>1.77289</v>
       </c>
       <c r="D105" t="n">
-        <v>2.12585</v>
+        <v>2.46277</v>
       </c>
       <c r="E105" t="n">
-        <v>0.514007</v>
+        <v>0.562103</v>
       </c>
       <c r="F105" t="n">
-        <v>1.47419</v>
+        <v>1.32985</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.14208</v>
+        <v>0.972956</v>
       </c>
       <c r="C106" t="n">
-        <v>2.08354</v>
+        <v>2.0201</v>
       </c>
       <c r="D106" t="n">
-        <v>2.32775</v>
+        <v>2.26195</v>
       </c>
       <c r="E106" t="n">
-        <v>0.44591</v>
+        <v>0.573858</v>
       </c>
       <c r="F106" t="n">
-        <v>1.2742</v>
+        <v>1.40673</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.03077</v>
+        <v>1.24005</v>
       </c>
       <c r="C107" t="n">
-        <v>1.87896</v>
+        <v>1.78959</v>
       </c>
       <c r="D107" t="n">
-        <v>2.61414</v>
+        <v>3.00078</v>
       </c>
       <c r="E107" t="n">
-        <v>0.599316</v>
+        <v>0.535642</v>
       </c>
       <c r="F107" t="n">
-        <v>1.49715</v>
+        <v>1.46085</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.15989</v>
+        <v>1.20833</v>
       </c>
       <c r="C108" t="n">
-        <v>1.7977</v>
+        <v>1.9632</v>
       </c>
       <c r="D108" t="n">
-        <v>3.08888</v>
+        <v>3.00336</v>
       </c>
       <c r="E108" t="n">
-        <v>0.669354</v>
+        <v>0.840857</v>
       </c>
       <c r="F108" t="n">
-        <v>1.81632</v>
+        <v>1.94672</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.14734</v>
+        <v>1.00407</v>
       </c>
       <c r="C109" t="n">
-        <v>1.80042</v>
+        <v>2.06296</v>
       </c>
       <c r="D109" t="n">
-        <v>2.56006</v>
+        <v>2.81822</v>
       </c>
       <c r="E109" t="n">
-        <v>0.648505</v>
+        <v>0.7956839999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>1.76402</v>
+        <v>1.59977</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.44874</v>
+        <v>1.48454</v>
       </c>
       <c r="C110" t="n">
-        <v>2.42964</v>
+        <v>2.41379</v>
       </c>
       <c r="D110" t="n">
-        <v>3.13992</v>
+        <v>2.86007</v>
       </c>
       <c r="E110" t="n">
-        <v>0.840241</v>
+        <v>0.738453</v>
       </c>
       <c r="F110" t="n">
-        <v>1.80443</v>
+        <v>1.52599</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.3786</v>
+        <v>1.22026</v>
       </c>
       <c r="C111" t="n">
-        <v>2.39911</v>
+        <v>2.33072</v>
       </c>
       <c r="D111" t="n">
-        <v>2.72207</v>
+        <v>2.85865</v>
       </c>
       <c r="E111" t="n">
-        <v>0.56723</v>
+        <v>0.623428</v>
       </c>
       <c r="F111" t="n">
-        <v>1.6915</v>
+        <v>1.83784</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.37735</v>
+        <v>1.37203</v>
       </c>
       <c r="C112" t="n">
-        <v>2.43536</v>
+        <v>2.35566</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55684</v>
+        <v>2.85854</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7202809999999999</v>
+        <v>0.757876</v>
       </c>
       <c r="F112" t="n">
-        <v>1.71663</v>
+        <v>1.60381</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.26207</v>
+        <v>1.41307</v>
       </c>
       <c r="C113" t="n">
-        <v>2.36194</v>
+        <v>2.10834</v>
       </c>
       <c r="D113" t="n">
-        <v>2.70533</v>
+        <v>3.09496</v>
       </c>
       <c r="E113" t="n">
-        <v>0.607608</v>
+        <v>0.772289</v>
       </c>
       <c r="F113" t="n">
-        <v>1.51781</v>
+        <v>1.77335</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.01732</v>
+        <v>1.29284</v>
       </c>
       <c r="C114" t="n">
-        <v>2.4177</v>
+        <v>2.42359</v>
       </c>
       <c r="D114" t="n">
-        <v>2.76747</v>
+        <v>3.04501</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6859769999999999</v>
+        <v>0.568294</v>
       </c>
       <c r="F114" t="n">
-        <v>1.63252</v>
+        <v>1.87089</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.24227</v>
+        <v>1.41286</v>
       </c>
       <c r="C115" t="n">
-        <v>2.33191</v>
+        <v>2.19685</v>
       </c>
       <c r="D115" t="n">
-        <v>2.72973</v>
+        <v>2.9782</v>
       </c>
       <c r="E115" t="n">
-        <v>0.522512</v>
+        <v>0.682678</v>
       </c>
       <c r="F115" t="n">
-        <v>1.76168</v>
+        <v>1.65725</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04003</v>
+        <v>1.32535</v>
       </c>
       <c r="C116" t="n">
-        <v>2.37268</v>
+        <v>2.11578</v>
       </c>
       <c r="D116" t="n">
-        <v>2.56301</v>
+        <v>2.85458</v>
       </c>
       <c r="E116" t="n">
-        <v>0.668611</v>
+        <v>0.578163</v>
       </c>
       <c r="F116" t="n">
-        <v>1.75619</v>
+        <v>1.68877</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.02883</v>
+        <v>1.36961</v>
       </c>
       <c r="C117" t="n">
-        <v>1.98008</v>
+        <v>2.1844</v>
       </c>
       <c r="D117" t="n">
-        <v>2.35258</v>
+        <v>2.79259</v>
       </c>
       <c r="E117" t="n">
-        <v>0.721321</v>
+        <v>0.589792</v>
       </c>
       <c r="F117" t="n">
-        <v>1.83208</v>
+        <v>1.76254</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.28162</v>
+        <v>1.21025</v>
       </c>
       <c r="C118" t="n">
-        <v>2.21205</v>
+        <v>2.09897</v>
       </c>
       <c r="D118" t="n">
-        <v>2.76315</v>
+        <v>2.91653</v>
       </c>
       <c r="E118" t="n">
-        <v>0.634899</v>
+        <v>0.613419</v>
       </c>
       <c r="F118" t="n">
-        <v>1.54881</v>
+        <v>1.80556</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.36005</v>
+        <v>1.22306</v>
       </c>
       <c r="C119" t="n">
-        <v>2.10993</v>
+        <v>2.37366</v>
       </c>
       <c r="D119" t="n">
-        <v>2.6499</v>
+        <v>2.60802</v>
       </c>
       <c r="E119" t="n">
-        <v>0.61596</v>
+        <v>0.697001</v>
       </c>
       <c r="F119" t="n">
-        <v>1.69537</v>
+        <v>1.89125</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.15356</v>
+        <v>1.15557</v>
       </c>
       <c r="C120" t="n">
-        <v>2.04313</v>
+        <v>2.47092</v>
       </c>
       <c r="D120" t="n">
-        <v>2.49275</v>
+        <v>2.68879</v>
       </c>
       <c r="E120" t="n">
-        <v>0.583049</v>
+        <v>0.571577</v>
       </c>
       <c r="F120" t="n">
-        <v>1.50737</v>
+        <v>1.6605</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.14757</v>
+        <v>1.19881</v>
       </c>
       <c r="C121" t="n">
-        <v>2.04513</v>
+        <v>2.19158</v>
       </c>
       <c r="D121" t="n">
-        <v>3.13798</v>
+        <v>3.25322</v>
       </c>
       <c r="E121" t="n">
-        <v>0.448269</v>
+        <v>0.430905</v>
       </c>
       <c r="F121" t="n">
-        <v>1.74631</v>
+        <v>1.7204</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2047</v>
+        <v>1.24507</v>
       </c>
       <c r="C122" t="n">
-        <v>2.19458</v>
+        <v>2.29266</v>
       </c>
       <c r="D122" t="n">
-        <v>3.27054</v>
+        <v>3.36426</v>
       </c>
       <c r="E122" t="n">
-        <v>0.646726</v>
+        <v>0.59193</v>
       </c>
       <c r="F122" t="n">
-        <v>1.70261</v>
+        <v>1.81704</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.18497</v>
+        <v>1.15699</v>
       </c>
       <c r="C123" t="n">
-        <v>2.08902</v>
+        <v>2.1171</v>
       </c>
       <c r="D123" t="n">
-        <v>3.13489</v>
+        <v>3.37813</v>
       </c>
       <c r="E123" t="n">
-        <v>0.723563</v>
+        <v>0.80558</v>
       </c>
       <c r="F123" t="n">
-        <v>1.98689</v>
+        <v>2.20452</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.52798</v>
+        <v>1.61119</v>
       </c>
       <c r="C124" t="n">
-        <v>2.68796</v>
+        <v>2.91892</v>
       </c>
       <c r="D124" t="n">
-        <v>3.0191</v>
+        <v>3.16047</v>
       </c>
       <c r="E124" t="n">
-        <v>0.650042</v>
+        <v>0.814163</v>
       </c>
       <c r="F124" t="n">
-        <v>2.16118</v>
+        <v>2.23189</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.57641</v>
+        <v>1.48656</v>
       </c>
       <c r="C125" t="n">
-        <v>2.6701</v>
+        <v>2.88515</v>
       </c>
       <c r="D125" t="n">
-        <v>2.823</v>
+        <v>3.41577</v>
       </c>
       <c r="E125" t="n">
-        <v>0.625914</v>
+        <v>0.657991</v>
       </c>
       <c r="F125" t="n">
-        <v>1.95642</v>
+        <v>2.08736</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.48129</v>
+        <v>1.4824</v>
       </c>
       <c r="C126" t="n">
-        <v>2.55606</v>
+        <v>2.74863</v>
       </c>
       <c r="D126" t="n">
-        <v>3.24217</v>
+        <v>3.31811</v>
       </c>
       <c r="E126" t="n">
-        <v>0.833848</v>
+        <v>0.876121</v>
       </c>
       <c r="F126" t="n">
-        <v>2.06804</v>
+        <v>2.20249</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.35442</v>
+        <v>1.41531</v>
       </c>
       <c r="C127" t="n">
-        <v>2.72265</v>
+        <v>2.77992</v>
       </c>
       <c r="D127" t="n">
-        <v>2.96759</v>
+        <v>3.23883</v>
       </c>
       <c r="E127" t="n">
-        <v>0.767921</v>
+        <v>0.862405</v>
       </c>
       <c r="F127" t="n">
-        <v>2.14198</v>
+        <v>2.1226</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.42544</v>
+        <v>1.44182</v>
       </c>
       <c r="C128" t="n">
-        <v>2.57949</v>
+        <v>2.66005</v>
       </c>
       <c r="D128" t="n">
-        <v>3.13655</v>
+        <v>3.27619</v>
       </c>
       <c r="E128" t="n">
-        <v>0.734572</v>
+        <v>0.605946</v>
       </c>
       <c r="F128" t="n">
-        <v>2.0831</v>
+        <v>2.08645</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.36023</v>
+        <v>1.49233</v>
       </c>
       <c r="C129" t="n">
-        <v>2.54279</v>
+        <v>2.64703</v>
       </c>
       <c r="D129" t="n">
-        <v>3.32733</v>
+        <v>3.27491</v>
       </c>
       <c r="E129" t="n">
-        <v>0.636607</v>
+        <v>0.701285</v>
       </c>
       <c r="F129" t="n">
-        <v>1.73497</v>
+        <v>2.05357</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.37344</v>
+        <v>1.47302</v>
       </c>
       <c r="C130" t="n">
-        <v>2.44902</v>
+        <v>2.65398</v>
       </c>
       <c r="D130" t="n">
-        <v>3.08849</v>
+        <v>3.27775</v>
       </c>
       <c r="E130" t="n">
-        <v>0.809827</v>
+        <v>0.675682</v>
       </c>
       <c r="F130" t="n">
-        <v>2.01258</v>
+        <v>2.0973</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.44755</v>
+        <v>1.41121</v>
       </c>
       <c r="C131" t="n">
-        <v>2.57726</v>
+        <v>2.5924</v>
       </c>
       <c r="D131" t="n">
-        <v>3.1524</v>
+        <v>3.21577</v>
       </c>
       <c r="E131" t="n">
-        <v>0.686634</v>
+        <v>0.705217</v>
       </c>
       <c r="F131" t="n">
-        <v>1.75394</v>
+        <v>2.16966</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.38879</v>
+        <v>1.41682</v>
       </c>
       <c r="C132" t="n">
-        <v>2.3345</v>
+        <v>2.49493</v>
       </c>
       <c r="D132" t="n">
-        <v>3.02139</v>
+        <v>3.20652</v>
       </c>
       <c r="E132" t="n">
-        <v>0.661349</v>
+        <v>0.75518</v>
       </c>
       <c r="F132" t="n">
-        <v>2.02366</v>
+        <v>2.12206</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.38952</v>
+        <v>1.45576</v>
       </c>
       <c r="C133" t="n">
-        <v>2.56069</v>
+        <v>2.47143</v>
       </c>
       <c r="D133" t="n">
-        <v>3.33689</v>
+        <v>3.2463</v>
       </c>
       <c r="E133" t="n">
-        <v>0.733366</v>
+        <v>0.7482259999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>2.09999</v>
+        <v>2.22847</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28916</v>
+        <v>1.43392</v>
       </c>
       <c r="C134" t="n">
-        <v>2.37223</v>
+        <v>2.50185</v>
       </c>
       <c r="D134" t="n">
-        <v>3.24111</v>
+        <v>3.15974</v>
       </c>
       <c r="E134" t="n">
-        <v>0.728096</v>
+        <v>0.740054</v>
       </c>
       <c r="F134" t="n">
-        <v>1.90337</v>
+        <v>2.06955</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.2775</v>
+        <v>1.2655</v>
       </c>
       <c r="C135" t="n">
-        <v>2.55136</v>
+        <v>2.43441</v>
       </c>
       <c r="D135" t="n">
-        <v>3.81981</v>
+        <v>3.74802</v>
       </c>
       <c r="E135" t="n">
-        <v>0.684998</v>
+        <v>0.730407</v>
       </c>
       <c r="F135" t="n">
-        <v>2.00197</v>
+        <v>1.96808</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.30829</v>
+        <v>1.39429</v>
       </c>
       <c r="C136" t="n">
-        <v>2.48878</v>
+        <v>2.52564</v>
       </c>
       <c r="D136" t="n">
-        <v>3.87672</v>
+        <v>3.83606</v>
       </c>
       <c r="E136" t="n">
-        <v>0.695946</v>
+        <v>0.634054</v>
       </c>
       <c r="F136" t="n">
-        <v>1.98797</v>
+        <v>2.11487</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27799</v>
+        <v>1.33968</v>
       </c>
       <c r="C137" t="n">
-        <v>2.41599</v>
+        <v>2.49625</v>
       </c>
       <c r="D137" t="n">
-        <v>3.71993</v>
+        <v>3.7764</v>
       </c>
       <c r="E137" t="n">
-        <v>0.894875</v>
+        <v>0.8747819999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>2.3772</v>
+        <v>2.57789</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.5741</v>
+        <v>1.72872</v>
       </c>
       <c r="C138" t="n">
-        <v>3.1969</v>
+        <v>2.94314</v>
       </c>
       <c r="D138" t="n">
-        <v>3.5623</v>
+        <v>3.78737</v>
       </c>
       <c r="E138" t="n">
-        <v>0.857357</v>
+        <v>0.960241</v>
       </c>
       <c r="F138" t="n">
-        <v>2.46032</v>
+        <v>2.43152</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.60243</v>
+        <v>1.64311</v>
       </c>
       <c r="C139" t="n">
-        <v>2.92531</v>
+        <v>3.04678</v>
       </c>
       <c r="D139" t="n">
-        <v>3.65425</v>
+        <v>3.76034</v>
       </c>
       <c r="E139" t="n">
-        <v>0.796526</v>
+        <v>0.901406</v>
       </c>
       <c r="F139" t="n">
-        <v>2.31728</v>
+        <v>2.51886</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64518</v>
+        <v>1.63721</v>
       </c>
       <c r="C140" t="n">
-        <v>3.03013</v>
+        <v>2.93655</v>
       </c>
       <c r="D140" t="n">
-        <v>3.67995</v>
+        <v>3.68824</v>
       </c>
       <c r="E140" t="n">
-        <v>0.761415</v>
+        <v>0.856759</v>
       </c>
       <c r="F140" t="n">
-        <v>2.20165</v>
+        <v>2.40929</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.57328</v>
+        <v>1.76494</v>
       </c>
       <c r="C141" t="n">
-        <v>2.83658</v>
+        <v>3.03907</v>
       </c>
       <c r="D141" t="n">
-        <v>3.58845</v>
+        <v>3.5526</v>
       </c>
       <c r="E141" t="n">
-        <v>0.785045</v>
+        <v>0.870829</v>
       </c>
       <c r="F141" t="n">
-        <v>2.42753</v>
+        <v>2.41967</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.62087</v>
+        <v>1.68539</v>
       </c>
       <c r="C142" t="n">
-        <v>2.81895</v>
+        <v>2.94308</v>
       </c>
       <c r="D142" t="n">
-        <v>3.49863</v>
+        <v>3.58583</v>
       </c>
       <c r="E142" t="n">
-        <v>0.763117</v>
+        <v>0.887186</v>
       </c>
       <c r="F142" t="n">
-        <v>2.26105</v>
+        <v>2.23526</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.64085</v>
+        <v>1.60412</v>
       </c>
       <c r="C143" t="n">
-        <v>2.73089</v>
+        <v>2.94006</v>
       </c>
       <c r="D143" t="n">
-        <v>3.34506</v>
+        <v>3.42836</v>
       </c>
       <c r="E143" t="n">
-        <v>0.799284</v>
+        <v>0.861521</v>
       </c>
       <c r="F143" t="n">
-        <v>2.16741</v>
+        <v>2.37247</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.509139</v>
+        <v>0.528905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.874177</v>
+        <v>0.634552</v>
       </c>
       <c r="D2" t="n">
-        <v>0.777847</v>
+        <v>0.634491</v>
       </c>
       <c r="E2" t="n">
-        <v>0.215674</v>
+        <v>0.309887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.601187</v>
+        <v>0.714128</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.444638</v>
+        <v>0.378956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.815496</v>
+        <v>0.709501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7849969999999999</v>
+        <v>1.03934</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213347</v>
+        <v>0.338281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.607946</v>
+        <v>1.06671</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.420465</v>
+        <v>0.466102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.843444</v>
+        <v>1.18605</v>
       </c>
       <c r="D4" t="n">
-        <v>0.799148</v>
+        <v>0.763917</v>
       </c>
       <c r="E4" t="n">
-        <v>0.208396</v>
+        <v>0.223711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6104349999999999</v>
+        <v>0.763115</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.427916</v>
+        <v>0.375482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.821981</v>
+        <v>0.843566</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8436979999999999</v>
+        <v>0.933968</v>
       </c>
       <c r="E5" t="n">
-        <v>0.201947</v>
+        <v>0.26154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.609244</v>
+        <v>0.534266</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.410199</v>
+        <v>0.299454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.797164</v>
+        <v>0.617498</v>
       </c>
       <c r="D6" t="n">
-        <v>0.821193</v>
+        <v>0.993496</v>
       </c>
       <c r="E6" t="n">
-        <v>0.200539</v>
+        <v>0.24827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.594417</v>
+        <v>0.619634</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425251</v>
+        <v>0.247825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.797009</v>
+        <v>0.699392</v>
       </c>
       <c r="D7" t="n">
-        <v>0.944582</v>
+        <v>1.19773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.20137</v>
+        <v>0.344554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.589403</v>
+        <v>0.576674</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.401118</v>
+        <v>0.305679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.79582</v>
+        <v>0.699646</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9486790000000001</v>
+        <v>1.34952</v>
       </c>
       <c r="E8" t="n">
-        <v>0.191725</v>
+        <v>0.245261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.597292</v>
+        <v>0.5637799999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.408981</v>
+        <v>0.280182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.795863</v>
+        <v>0.639031</v>
       </c>
       <c r="D9" t="n">
-        <v>0.911067</v>
+        <v>0.964181</v>
       </c>
       <c r="E9" t="n">
-        <v>0.297971</v>
+        <v>0.329374</v>
       </c>
       <c r="F9" t="n">
-        <v>0.702226</v>
+        <v>0.6283879999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.492335</v>
+        <v>0.430186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.896848</v>
+        <v>0.74716</v>
       </c>
       <c r="D10" t="n">
-        <v>0.918247</v>
+        <v>1.2934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.27285</v>
+        <v>0.366773</v>
       </c>
       <c r="F10" t="n">
-        <v>0.684747</v>
+        <v>0.629576</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.472467</v>
+        <v>0.480906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.890948</v>
+        <v>0.793866</v>
       </c>
       <c r="D11" t="n">
-        <v>0.872146</v>
+        <v>0.663279</v>
       </c>
       <c r="E11" t="n">
-        <v>0.250994</v>
+        <v>0.462506</v>
       </c>
       <c r="F11" t="n">
-        <v>0.648188</v>
+        <v>0.862241</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.458228</v>
+        <v>0.462637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.844686</v>
+        <v>0.768652</v>
       </c>
       <c r="D12" t="n">
-        <v>0.881316</v>
+        <v>0.74704</v>
       </c>
       <c r="E12" t="n">
-        <v>0.244574</v>
+        <v>0.308472</v>
       </c>
       <c r="F12" t="n">
-        <v>0.649683</v>
+        <v>0.891957</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.44696</v>
+        <v>0.499194</v>
       </c>
       <c r="C13" t="n">
-        <v>0.846547</v>
+        <v>1.14654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.872299</v>
+        <v>0.955215</v>
       </c>
       <c r="E13" t="n">
-        <v>0.237204</v>
+        <v>0.223523</v>
       </c>
       <c r="F13" t="n">
-        <v>0.654455</v>
+        <v>0.625898</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.438187</v>
+        <v>0.349666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.827608</v>
+        <v>0.950919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.821307</v>
+        <v>1.20052</v>
       </c>
       <c r="E14" t="n">
-        <v>0.240592</v>
+        <v>0.240233</v>
       </c>
       <c r="F14" t="n">
-        <v>0.65672</v>
+        <v>0.609197</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.452332</v>
+        <v>0.307267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.829927</v>
+        <v>0.653586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.806301</v>
+        <v>0.696184</v>
       </c>
       <c r="E15" t="n">
-        <v>0.222945</v>
+        <v>0.250897</v>
       </c>
       <c r="F15" t="n">
-        <v>0.627086</v>
+        <v>0.502058</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.427538</v>
+        <v>0.310327</v>
       </c>
       <c r="C16" t="n">
-        <v>0.808638</v>
+        <v>0.656054</v>
       </c>
       <c r="D16" t="n">
-        <v>0.816379</v>
+        <v>0.625248</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218151</v>
+        <v>0.187169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.629629</v>
+        <v>0.478582</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.426699</v>
+        <v>0.234459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.820834</v>
+        <v>0.6613329999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.797637</v>
+        <v>1.1137</v>
       </c>
       <c r="E17" t="n">
-        <v>0.215547</v>
+        <v>0.381629</v>
       </c>
       <c r="F17" t="n">
-        <v>0.620877</v>
+        <v>0.793116</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459298</v>
+        <v>0.356283</v>
       </c>
       <c r="C18" t="n">
-        <v>0.819748</v>
+        <v>1.15043</v>
       </c>
       <c r="D18" t="n">
-        <v>0.796651</v>
+        <v>1.17896</v>
       </c>
       <c r="E18" t="n">
-        <v>0.207883</v>
+        <v>0.383113</v>
       </c>
       <c r="F18" t="n">
-        <v>0.626483</v>
+        <v>0.930068</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.416198</v>
+        <v>0.422301</v>
       </c>
       <c r="C19" t="n">
-        <v>0.79388</v>
+        <v>0.85286</v>
       </c>
       <c r="D19" t="n">
-        <v>0.798437</v>
+        <v>0.816734</v>
       </c>
       <c r="E19" t="n">
-        <v>0.200183</v>
+        <v>0.437674</v>
       </c>
       <c r="F19" t="n">
-        <v>0.590513</v>
+        <v>0.8045060000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.413031</v>
+        <v>0.430647</v>
       </c>
       <c r="C20" t="n">
-        <v>0.794704</v>
+        <v>1.12171</v>
       </c>
       <c r="D20" t="n">
-        <v>0.779825</v>
+        <v>0.777874</v>
       </c>
       <c r="E20" t="n">
-        <v>0.198445</v>
+        <v>0.175281</v>
       </c>
       <c r="F20" t="n">
-        <v>0.607802</v>
+        <v>0.544943</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.417016</v>
+        <v>0.316468</v>
       </c>
       <c r="C21" t="n">
-        <v>0.785184</v>
+        <v>0.779035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.943638</v>
+        <v>1.39024</v>
       </c>
       <c r="E21" t="n">
-        <v>0.197449</v>
+        <v>0.230113</v>
       </c>
       <c r="F21" t="n">
-        <v>0.587351</v>
+        <v>0.562721</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402652</v>
+        <v>0.355085</v>
       </c>
       <c r="C22" t="n">
-        <v>0.784023</v>
+        <v>1.06776</v>
       </c>
       <c r="D22" t="n">
-        <v>0.925417</v>
+        <v>1.55801</v>
       </c>
       <c r="E22" t="n">
-        <v>0.199217</v>
+        <v>0.419682</v>
       </c>
       <c r="F22" t="n">
-        <v>0.593673</v>
+        <v>0.965523</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.415097</v>
+        <v>0.509116</v>
       </c>
       <c r="C23" t="n">
-        <v>0.791624</v>
+        <v>0.980978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9379459999999999</v>
+        <v>1.61705</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4377</v>
+        <v>0.603603</v>
       </c>
       <c r="F23" t="n">
-        <v>0.680271</v>
+        <v>1.00705</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.639775</v>
+        <v>0.882414</v>
       </c>
       <c r="C24" t="n">
-        <v>0.897769</v>
+        <v>1.38619</v>
       </c>
       <c r="D24" t="n">
-        <v>0.908547</v>
+        <v>1.34059</v>
       </c>
       <c r="E24" t="n">
-        <v>0.424239</v>
+        <v>0.359266</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6972699999999999</v>
+        <v>0.901715</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.625252</v>
+        <v>0.714766</v>
       </c>
       <c r="C25" t="n">
-        <v>0.887342</v>
+        <v>1.2423</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8902870000000001</v>
+        <v>0.8790559999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.411467</v>
+        <v>0.4191</v>
       </c>
       <c r="F25" t="n">
-        <v>0.698027</v>
+        <v>0.937796</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.61673</v>
+        <v>0.771093</v>
       </c>
       <c r="C26" t="n">
-        <v>0.864245</v>
+        <v>0.824506</v>
       </c>
       <c r="D26" t="n">
-        <v>0.892705</v>
+        <v>1.63349</v>
       </c>
       <c r="E26" t="n">
-        <v>0.396778</v>
+        <v>0.596876</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6646030000000001</v>
+        <v>0.730921</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.600506</v>
+        <v>0.546393</v>
       </c>
       <c r="C27" t="n">
-        <v>0.878297</v>
+        <v>1.10915</v>
       </c>
       <c r="D27" t="n">
-        <v>0.876107</v>
+        <v>0.768254</v>
       </c>
       <c r="E27" t="n">
-        <v>0.387258</v>
+        <v>0.5326</v>
       </c>
       <c r="F27" t="n">
-        <v>0.659794</v>
+        <v>0.924137</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.61294</v>
+        <v>0.539292</v>
       </c>
       <c r="C28" t="n">
-        <v>0.87882</v>
+        <v>0.782129</v>
       </c>
       <c r="D28" t="n">
-        <v>0.861905</v>
+        <v>0.8273779999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.365355</v>
+        <v>0.500049</v>
       </c>
       <c r="F28" t="n">
-        <v>0.650682</v>
+        <v>0.8867699999999999</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.578478</v>
+        <v>0.715761</v>
       </c>
       <c r="C29" t="n">
-        <v>0.866002</v>
+        <v>0.84055</v>
       </c>
       <c r="D29" t="n">
-        <v>0.851405</v>
+        <v>1.15068</v>
       </c>
       <c r="E29" t="n">
-        <v>0.366172</v>
+        <v>0.494751</v>
       </c>
       <c r="F29" t="n">
-        <v>0.650079</v>
+        <v>0.777952</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.577191</v>
+        <v>0.5235610000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.833937</v>
+        <v>0.868919</v>
       </c>
       <c r="D30" t="n">
-        <v>0.872764</v>
+        <v>0.918142</v>
       </c>
       <c r="E30" t="n">
-        <v>0.33992</v>
+        <v>0.345108</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6437349999999999</v>
+        <v>0.503443</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.559872</v>
+        <v>0.543475</v>
       </c>
       <c r="C31" t="n">
-        <v>0.840035</v>
+        <v>0.942187</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8504890000000001</v>
+        <v>0.979515</v>
       </c>
       <c r="E31" t="n">
-        <v>0.337222</v>
+        <v>0.384343</v>
       </c>
       <c r="F31" t="n">
-        <v>0.629506</v>
+        <v>0.694784</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.542528</v>
+        <v>0.443412</v>
       </c>
       <c r="C32" t="n">
-        <v>0.878449</v>
+        <v>1.17184</v>
       </c>
       <c r="D32" t="n">
-        <v>0.866243</v>
+        <v>1.32914</v>
       </c>
       <c r="E32" t="n">
-        <v>0.325703</v>
+        <v>0.38919</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6267</v>
+        <v>0.68636</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5452050000000001</v>
+        <v>0.5254259999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.825285</v>
+        <v>1.02097</v>
       </c>
       <c r="D33" t="n">
-        <v>0.831353</v>
+        <v>0.7418169999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.30991</v>
+        <v>0.437245</v>
       </c>
       <c r="F33" t="n">
-        <v>0.622618</v>
+        <v>0.818197</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534195</v>
+        <v>0.569555</v>
       </c>
       <c r="C34" t="n">
-        <v>0.856868</v>
+        <v>1.03814</v>
       </c>
       <c r="D34" t="n">
-        <v>0.823464</v>
+        <v>0.759957</v>
       </c>
       <c r="E34" t="n">
-        <v>0.317856</v>
+        <v>0.24764</v>
       </c>
       <c r="F34" t="n">
-        <v>0.635143</v>
+        <v>0.974311</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.530938</v>
+        <v>0.556091</v>
       </c>
       <c r="C35" t="n">
-        <v>0.817611</v>
+        <v>0.971373</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0781</v>
+        <v>1.27315</v>
       </c>
       <c r="E35" t="n">
-        <v>0.305642</v>
+        <v>0.333983</v>
       </c>
       <c r="F35" t="n">
-        <v>0.620969</v>
+        <v>0.8629289999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.521923</v>
+        <v>0.397146</v>
       </c>
       <c r="C36" t="n">
-        <v>0.830225</v>
+        <v>1.13399</v>
       </c>
       <c r="D36" t="n">
-        <v>1.07526</v>
+        <v>1.34825</v>
       </c>
       <c r="E36" t="n">
-        <v>0.295375</v>
+        <v>0.402921</v>
       </c>
       <c r="F36" t="n">
-        <v>0.652656</v>
+        <v>0.545604</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.498736</v>
+        <v>0.585148</v>
       </c>
       <c r="C37" t="n">
-        <v>0.827345</v>
+        <v>0.883605</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03776</v>
+        <v>1.05434</v>
       </c>
       <c r="E37" t="n">
-        <v>0.549053</v>
+        <v>0.417694</v>
       </c>
       <c r="F37" t="n">
-        <v>0.848492</v>
+        <v>0.8554</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.794391</v>
+        <v>0.659067</v>
       </c>
       <c r="C38" t="n">
-        <v>1.07002</v>
+        <v>1.28149</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0164</v>
+        <v>1.62772</v>
       </c>
       <c r="E38" t="n">
-        <v>0.532867</v>
+        <v>0.548546</v>
       </c>
       <c r="F38" t="n">
-        <v>0.825122</v>
+        <v>0.955197</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.75547</v>
+        <v>0.600504</v>
       </c>
       <c r="C39" t="n">
-        <v>1.07075</v>
+        <v>1.26443</v>
       </c>
       <c r="D39" t="n">
-        <v>1.02416</v>
+        <v>1.02343</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5024459999999999</v>
+        <v>0.447245</v>
       </c>
       <c r="F39" t="n">
-        <v>0.821859</v>
+        <v>1.18364</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.757961</v>
+        <v>0.640554</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0397</v>
+        <v>0.859244</v>
       </c>
       <c r="D40" t="n">
-        <v>1.01606</v>
+        <v>1.45823</v>
       </c>
       <c r="E40" t="n">
-        <v>0.498479</v>
+        <v>0.602159</v>
       </c>
       <c r="F40" t="n">
-        <v>0.791005</v>
+        <v>0.950231</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.700331</v>
+        <v>0.488194</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02706</v>
+        <v>0.825065</v>
       </c>
       <c r="D41" t="n">
-        <v>0.989022</v>
+        <v>1.28259</v>
       </c>
       <c r="E41" t="n">
-        <v>0.468783</v>
+        <v>0.477263</v>
       </c>
       <c r="F41" t="n">
-        <v>0.786636</v>
+        <v>0.7647</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.685381</v>
+        <v>0.554543</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0204</v>
+        <v>0.87071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.993447</v>
+        <v>0.876929</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4486</v>
+        <v>0.381292</v>
       </c>
       <c r="F42" t="n">
-        <v>0.782126</v>
+        <v>1.318</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.664597</v>
+        <v>0.8093320000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.00488</v>
+        <v>1.23701</v>
       </c>
       <c r="D43" t="n">
-        <v>0.951672</v>
+        <v>1.05464</v>
       </c>
       <c r="E43" t="n">
-        <v>0.43111</v>
+        <v>0.550038</v>
       </c>
       <c r="F43" t="n">
-        <v>0.762812</v>
+        <v>1.01645</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.65276</v>
+        <v>0.57977</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01422</v>
+        <v>1.18942</v>
       </c>
       <c r="D44" t="n">
-        <v>0.943931</v>
+        <v>1.39645</v>
       </c>
       <c r="E44" t="n">
-        <v>0.420911</v>
+        <v>0.54284</v>
       </c>
       <c r="F44" t="n">
-        <v>0.739059</v>
+        <v>1.09856</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.634298</v>
+        <v>0.677602</v>
       </c>
       <c r="C45" t="n">
-        <v>0.974453</v>
+        <v>1.34319</v>
       </c>
       <c r="D45" t="n">
-        <v>0.93953</v>
+        <v>1.28357</v>
       </c>
       <c r="E45" t="n">
-        <v>0.40762</v>
+        <v>0.538143</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7451950000000001</v>
+        <v>0.838525</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.645997</v>
+        <v>0.67447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.980352</v>
+        <v>1.30051</v>
       </c>
       <c r="D46" t="n">
-        <v>0.961439</v>
+        <v>1.19408</v>
       </c>
       <c r="E46" t="n">
-        <v>0.39869</v>
+        <v>0.378753</v>
       </c>
       <c r="F46" t="n">
-        <v>0.741406</v>
+        <v>0.846005</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.616876</v>
+        <v>0.530806</v>
       </c>
       <c r="C47" t="n">
-        <v>0.997606</v>
+        <v>0.918228</v>
       </c>
       <c r="D47" t="n">
-        <v>0.94531</v>
+        <v>1.51545</v>
       </c>
       <c r="E47" t="n">
-        <v>0.37623</v>
+        <v>0.508864</v>
       </c>
       <c r="F47" t="n">
-        <v>0.744882</v>
+        <v>1.15718</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.599368</v>
+        <v>0.664364</v>
       </c>
       <c r="C48" t="n">
-        <v>0.962077</v>
+        <v>1.13571</v>
       </c>
       <c r="D48" t="n">
-        <v>1.00153</v>
+        <v>1.52083</v>
       </c>
       <c r="E48" t="n">
-        <v>0.379959</v>
+        <v>0.483402</v>
       </c>
       <c r="F48" t="n">
-        <v>0.71661</v>
+        <v>0.92989</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.582383</v>
+        <v>0.516395</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966808</v>
+        <v>1.23602</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9565439999999999</v>
+        <v>1.45942</v>
       </c>
       <c r="E49" t="n">
-        <v>0.35784</v>
+        <v>0.447263</v>
       </c>
       <c r="F49" t="n">
-        <v>0.722283</v>
+        <v>0.956736</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.589436</v>
+        <v>0.549759</v>
       </c>
       <c r="C50" t="n">
-        <v>0.957736</v>
+        <v>1.17129</v>
       </c>
       <c r="D50" t="n">
-        <v>1.50638</v>
+        <v>1.49769</v>
       </c>
       <c r="E50" t="n">
-        <v>0.352026</v>
+        <v>0.505468</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7341760000000001</v>
+        <v>0.754791</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.577103</v>
+        <v>0.492389</v>
       </c>
       <c r="C51" t="n">
-        <v>0.962215</v>
+        <v>1.0548</v>
       </c>
       <c r="D51" t="n">
-        <v>1.46805</v>
+        <v>1.67801</v>
       </c>
       <c r="E51" t="n">
-        <v>0.628603</v>
+        <v>0.6104889999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>1.11715</v>
+        <v>1.24123</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.578196</v>
+        <v>0.615736</v>
       </c>
       <c r="C52" t="n">
-        <v>0.976762</v>
+        <v>1.14301</v>
       </c>
       <c r="D52" t="n">
-        <v>1.43868</v>
+        <v>1.38103</v>
       </c>
       <c r="E52" t="n">
-        <v>0.592426</v>
+        <v>0.50115</v>
       </c>
       <c r="F52" t="n">
-        <v>1.09678</v>
+        <v>1.10503</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.836095</v>
+        <v>0.878015</v>
       </c>
       <c r="C53" t="n">
-        <v>1.40202</v>
+        <v>1.36884</v>
       </c>
       <c r="D53" t="n">
-        <v>1.41493</v>
+        <v>1.34028</v>
       </c>
       <c r="E53" t="n">
-        <v>0.568475</v>
+        <v>0.406248</v>
       </c>
       <c r="F53" t="n">
-        <v>1.05173</v>
+        <v>0.984286</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8019849999999999</v>
+        <v>0.79209</v>
       </c>
       <c r="C54" t="n">
-        <v>1.44461</v>
+        <v>1.45996</v>
       </c>
       <c r="D54" t="n">
-        <v>1.40698</v>
+        <v>1.63487</v>
       </c>
       <c r="E54" t="n">
-        <v>0.552213</v>
+        <v>0.543035</v>
       </c>
       <c r="F54" t="n">
-        <v>1.03165</v>
+        <v>0.9217649999999999</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.783991</v>
+        <v>0.78168</v>
       </c>
       <c r="C55" t="n">
-        <v>1.3772</v>
+        <v>1.05215</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3545</v>
+        <v>1.17728</v>
       </c>
       <c r="E55" t="n">
-        <v>0.569537</v>
+        <v>0.557996</v>
       </c>
       <c r="F55" t="n">
-        <v>1.06713</v>
+        <v>0.96129</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.778651</v>
+        <v>0.804597</v>
       </c>
       <c r="C56" t="n">
-        <v>1.35085</v>
+        <v>1.36493</v>
       </c>
       <c r="D56" t="n">
-        <v>1.36856</v>
+        <v>1.8305</v>
       </c>
       <c r="E56" t="n">
-        <v>0.520935</v>
+        <v>0.538311</v>
       </c>
       <c r="F56" t="n">
-        <v>1.0105</v>
+        <v>0.963655</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.765249</v>
+        <v>0.830148</v>
       </c>
       <c r="C57" t="n">
-        <v>1.31943</v>
+        <v>0.944778</v>
       </c>
       <c r="D57" t="n">
-        <v>1.3962</v>
+        <v>1.10685</v>
       </c>
       <c r="E57" t="n">
-        <v>0.510856</v>
+        <v>0.426489</v>
       </c>
       <c r="F57" t="n">
-        <v>0.98652</v>
+        <v>0.831855</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.749576</v>
+        <v>0.719399</v>
       </c>
       <c r="C58" t="n">
-        <v>1.31082</v>
+        <v>1.3648</v>
       </c>
       <c r="D58" t="n">
-        <v>1.36208</v>
+        <v>1.22031</v>
       </c>
       <c r="E58" t="n">
-        <v>0.501316</v>
+        <v>0.588822</v>
       </c>
       <c r="F58" t="n">
-        <v>0.96496</v>
+        <v>1.17081</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.736946</v>
+        <v>0.702034</v>
       </c>
       <c r="C59" t="n">
-        <v>1.29319</v>
+        <v>1.19729</v>
       </c>
       <c r="D59" t="n">
-        <v>1.34598</v>
+        <v>1.43708</v>
       </c>
       <c r="E59" t="n">
-        <v>0.480954</v>
+        <v>0.497934</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9598179999999999</v>
+        <v>0.8156949999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7282419999999999</v>
+        <v>0.503765</v>
       </c>
       <c r="C60" t="n">
-        <v>1.27866</v>
+        <v>1.07534</v>
       </c>
       <c r="D60" t="n">
-        <v>1.3227</v>
+        <v>1.10448</v>
       </c>
       <c r="E60" t="n">
-        <v>0.467836</v>
+        <v>0.575071</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9485789999999999</v>
+        <v>0.81123</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.71635</v>
+        <v>0.49679</v>
       </c>
       <c r="C61" t="n">
-        <v>1.27385</v>
+        <v>1.35591</v>
       </c>
       <c r="D61" t="n">
-        <v>1.36222</v>
+        <v>1.7419</v>
       </c>
       <c r="E61" t="n">
-        <v>0.464571</v>
+        <v>0.487452</v>
       </c>
       <c r="F61" t="n">
-        <v>0.967252</v>
+        <v>1.05467</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.726618</v>
+        <v>0.833618</v>
       </c>
       <c r="C62" t="n">
-        <v>1.26481</v>
+        <v>1.37732</v>
       </c>
       <c r="D62" t="n">
-        <v>1.34516</v>
+        <v>1.53914</v>
       </c>
       <c r="E62" t="n">
-        <v>0.454406</v>
+        <v>0.510898</v>
       </c>
       <c r="F62" t="n">
-        <v>0.910012</v>
+        <v>0.932295</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.733535</v>
+        <v>0.585876</v>
       </c>
       <c r="C63" t="n">
-        <v>1.29081</v>
+        <v>1.26494</v>
       </c>
       <c r="D63" t="n">
-        <v>1.29012</v>
+        <v>1.04696</v>
       </c>
       <c r="E63" t="n">
-        <v>0.430122</v>
+        <v>0.528201</v>
       </c>
       <c r="F63" t="n">
-        <v>0.925964</v>
+        <v>1.05972</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.72214</v>
+        <v>0.726247</v>
       </c>
       <c r="C64" t="n">
-        <v>1.23163</v>
+        <v>1.29171</v>
       </c>
       <c r="D64" t="n">
-        <v>2.34893</v>
+        <v>1.88663</v>
       </c>
       <c r="E64" t="n">
-        <v>0.437086</v>
+        <v>0.439767</v>
       </c>
       <c r="F64" t="n">
-        <v>0.928384</v>
+        <v>1.14687</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.693145</v>
+        <v>0.676741</v>
       </c>
       <c r="C65" t="n">
-        <v>1.24879</v>
+        <v>1.07591</v>
       </c>
       <c r="D65" t="n">
-        <v>2.39228</v>
+        <v>1.51933</v>
       </c>
       <c r="E65" t="n">
-        <v>0.417407</v>
+        <v>0.50267</v>
       </c>
       <c r="F65" t="n">
-        <v>0.923463</v>
+        <v>0.904042</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.663785</v>
+        <v>0.608473</v>
       </c>
       <c r="C66" t="n">
-        <v>1.24671</v>
+        <v>1.15667</v>
       </c>
       <c r="D66" t="n">
-        <v>2.35695</v>
+        <v>1.67097</v>
       </c>
       <c r="E66" t="n">
-        <v>0.69058</v>
+        <v>0.760696</v>
       </c>
       <c r="F66" t="n">
-        <v>1.5571</v>
+        <v>1.2643</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.942986</v>
+        <v>1.10504</v>
       </c>
       <c r="C67" t="n">
-        <v>1.9684</v>
+        <v>0.960396</v>
       </c>
       <c r="D67" t="n">
-        <v>2.24687</v>
+        <v>1.51374</v>
       </c>
       <c r="E67" t="n">
-        <v>0.668944</v>
+        <v>0.676134</v>
       </c>
       <c r="F67" t="n">
-        <v>1.53962</v>
+        <v>1.13144</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.926719</v>
+        <v>0.727552</v>
       </c>
       <c r="C68" t="n">
-        <v>1.99174</v>
+        <v>1.45921</v>
       </c>
       <c r="D68" t="n">
-        <v>2.18631</v>
+        <v>1.52851</v>
       </c>
       <c r="E68" t="n">
-        <v>0.642218</v>
+        <v>0.723812</v>
       </c>
       <c r="F68" t="n">
-        <v>1.51596</v>
+        <v>1.06848</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.917532</v>
+        <v>0.995453</v>
       </c>
       <c r="C69" t="n">
-        <v>1.9249</v>
+        <v>1.3623</v>
       </c>
       <c r="D69" t="n">
-        <v>2.21793</v>
+        <v>1.67982</v>
       </c>
       <c r="E69" t="n">
-        <v>0.625317</v>
+        <v>0.461148</v>
       </c>
       <c r="F69" t="n">
-        <v>1.49637</v>
+        <v>1.26941</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9097</v>
+        <v>1.00952</v>
       </c>
       <c r="C70" t="n">
-        <v>1.86267</v>
+        <v>1.24697</v>
       </c>
       <c r="D70" t="n">
-        <v>2.17904</v>
+        <v>1.36801</v>
       </c>
       <c r="E70" t="n">
-        <v>0.624492</v>
+        <v>0.602411</v>
       </c>
       <c r="F70" t="n">
-        <v>1.48415</v>
+        <v>0.973065</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.883285</v>
+        <v>0.736242</v>
       </c>
       <c r="C71" t="n">
-        <v>1.7917</v>
+        <v>1.47731</v>
       </c>
       <c r="D71" t="n">
-        <v>2.17872</v>
+        <v>1.64298</v>
       </c>
       <c r="E71" t="n">
-        <v>0.595733</v>
+        <v>0.570102</v>
       </c>
       <c r="F71" t="n">
-        <v>1.40296</v>
+        <v>1.06943</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.855371</v>
+        <v>0.912866</v>
       </c>
       <c r="C72" t="n">
-        <v>1.76694</v>
+        <v>1.24438</v>
       </c>
       <c r="D72" t="n">
-        <v>2.13099</v>
+        <v>1.60201</v>
       </c>
       <c r="E72" t="n">
-        <v>0.581647</v>
+        <v>0.540924</v>
       </c>
       <c r="F72" t="n">
-        <v>1.39541</v>
+        <v>0.977817</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.848718</v>
+        <v>0.9354479999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>1.73811</v>
+        <v>1.28988</v>
       </c>
       <c r="D73" t="n">
-        <v>2.0689</v>
+        <v>0.931655</v>
       </c>
       <c r="E73" t="n">
-        <v>0.567346</v>
+        <v>0.375273</v>
       </c>
       <c r="F73" t="n">
-        <v>1.34958</v>
+        <v>0.848426</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.847922</v>
+        <v>0.742887</v>
       </c>
       <c r="C74" t="n">
-        <v>1.76327</v>
+        <v>1.18773</v>
       </c>
       <c r="D74" t="n">
-        <v>2.0886</v>
+        <v>1.58522</v>
       </c>
       <c r="E74" t="n">
-        <v>0.550177</v>
+        <v>0.6039949999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1.32393</v>
+        <v>1.1802</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8129690000000001</v>
+        <v>0.853067</v>
       </c>
       <c r="C75" t="n">
-        <v>1.68